--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC6E6FA-FA9B-184E-A3CA-F560E6A3D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18D2FF-449C-434D-9E8F-B003379ADB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="700" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">i18n!$A$1:$F$720</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">i18n!$A$1:$E$911</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="976">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -2741,6 +2741,228 @@
   </si>
   <si>
     <t>ديسمبر</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>पहचान</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ஐடி</t>
+  </si>
+  <si>
+    <t>identifiant</t>
+  </si>
+  <si>
+    <t>标识符</t>
+  </si>
+  <si>
+    <t>識別子</t>
+  </si>
+  <si>
+    <t>идентификатор</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>المعرف</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>مقدار</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>रकम</t>
+  </si>
+  <si>
+    <t>தொகை</t>
+  </si>
+  <si>
+    <t>montant</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>額</t>
+  </si>
+  <si>
+    <t>quantia</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>plano</t>
+  </si>
+  <si>
+    <t>予定</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>திட்டம்</t>
+  </si>
+  <si>
+    <t>planifier</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>خطة</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>يكتب</t>
+  </si>
+  <si>
+    <t>escribe</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>வகை</t>
+  </si>
+  <si>
+    <t>taper</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>タイプ</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>प्रकार</t>
+  </si>
+  <si>
+    <t>दिनांक</t>
+  </si>
+  <si>
+    <t>Encontro</t>
+  </si>
+  <si>
+    <t>日にち</t>
+  </si>
+  <si>
+    <t>தேதி</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>Свидание</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>تاريخ</t>
+  </si>
+  <si>
+    <t>فئة</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>மாதிரி</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>श्रेणी</t>
+  </si>
+  <si>
+    <t>टिप्पणियाँ</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>கருத்துகள்</t>
+  </si>
+  <si>
+    <t>commentaires</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>تعليقات</t>
   </si>
 </sst>
 </file>
@@ -3619,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F911"/>
+  <dimension ref="A1:F981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E901" sqref="E901"/>
+    <sheetView tabSelected="1" topLeftCell="A955" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E976" sqref="E976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17548,7 +17770,7 @@
         <v>("731","1","applications","Applications"),</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A733">
         <f t="shared" si="22"/>
         <v>732</v>
@@ -17605,7 +17827,7 @@
         <v>("734","4","applications","应用"),</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A736">
         <f t="shared" si="22"/>
         <v>735</v>
@@ -17966,7 +18188,7 @@
         <v>("753","3","configuration","Configuration"),</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A755">
         <f t="shared" si="22"/>
         <v>754</v>
@@ -17985,7 +18207,7 @@
         <v>("754","4","configuration","配置"),</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A756">
         <f t="shared" si="22"/>
         <v>755</v>
@@ -18023,7 +18245,7 @@
         <v>("756","6","configuration","Configuração"),</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A758">
         <f t="shared" si="22"/>
         <v>757</v>
@@ -20685,7 +20907,7 @@
     </row>
     <row r="898" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A898">
-        <f t="shared" ref="A898:A901" si="28">A897+1</f>
+        <f t="shared" ref="A898:A961" si="28">A897+1</f>
         <v>897</v>
       </c>
       <c r="B898">
@@ -20698,7 +20920,7 @@
         <v>895</v>
       </c>
       <c r="E898" s="1" t="str">
-        <f t="shared" ref="E898:E901" si="29">CONCATENATE("(",CHAR(34),A898,CHAR(34),",",CHAR(34),B898,CHAR(34),",",CHAR(34),C898,CHAR(34),",",CHAR(34),D898,CHAR(34),"),")</f>
+        <f t="shared" ref="E898:E962" si="29">CONCATENATE("(",CHAR(34),A898,CHAR(34),",",CHAR(34),B898,CHAR(34),",",CHAR(34),C898,CHAR(34),",",CHAR(34),D898,CHAR(34),"),")</f>
         <v>("897","7","dec","दिसंबर"),</v>
       </c>
     </row>
@@ -20760,52 +20982,1382 @@
       </c>
     </row>
     <row r="902" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E902" s="1" t="s">
+      <c r="A902">
+        <f t="shared" si="28"/>
+        <v>901</v>
+      </c>
+      <c r="B902">
+        <v>1</v>
+      </c>
+      <c r="C902" t="s">
+        <v>902</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="E902" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("901","1","id","Id"),</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <f t="shared" si="28"/>
+        <v>902</v>
+      </c>
+      <c r="B903">
+        <v>2</v>
+      </c>
+      <c r="C903" t="s">
+        <v>902</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E903" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("902","2","id","ஐடி"),</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <f t="shared" si="28"/>
+        <v>903</v>
+      </c>
+      <c r="B904">
+        <v>3</v>
+      </c>
+      <c r="C904" t="s">
+        <v>902</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="E904" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("903","3","id","identifiant"),</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <f t="shared" si="28"/>
+        <v>904</v>
+      </c>
+      <c r="B905">
+        <v>4</v>
+      </c>
+      <c r="C905" t="s">
+        <v>902</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E905" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("904","4","id","标识符"),</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <f t="shared" si="28"/>
+        <v>905</v>
+      </c>
+      <c r="B906">
+        <v>5</v>
+      </c>
+      <c r="C906" t="s">
+        <v>902</v>
+      </c>
+      <c r="D906" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="E906" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("905","5","id","識別子"),</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <f t="shared" si="28"/>
+        <v>906</v>
+      </c>
+      <c r="B907">
+        <v>6</v>
+      </c>
+      <c r="C907" t="s">
+        <v>902</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E907" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("906","6","id","ID"),</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <f t="shared" si="28"/>
+        <v>907</v>
+      </c>
+      <c r="B908">
+        <v>7</v>
+      </c>
+      <c r="C908" t="s">
+        <v>902</v>
+      </c>
+      <c r="D908" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="E908" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("907","7","id","पहचान"),</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <f t="shared" si="28"/>
+        <v>908</v>
+      </c>
+      <c r="B909">
+        <v>8</v>
+      </c>
+      <c r="C909" t="s">
+        <v>902</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E909" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("908","8","id","идентификатор"),</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <f t="shared" si="28"/>
+        <v>909</v>
+      </c>
+      <c r="B910">
+        <v>9</v>
+      </c>
+      <c r="C910" t="s">
+        <v>902</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="E910" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("909","9","id","identificador"),</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <f t="shared" si="28"/>
+        <v>910</v>
+      </c>
+      <c r="B911">
+        <v>10</v>
+      </c>
+      <c r="C911" t="s">
+        <v>902</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E911" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("910","10","id","المعرف"),</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <f t="shared" si="28"/>
+        <v>911</v>
+      </c>
+      <c r="B912">
+        <v>1</v>
+      </c>
+      <c r="C912" t="s">
+        <v>913</v>
+      </c>
+      <c r="D912" t="s">
+        <v>914</v>
+      </c>
+      <c r="E912" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("911","1","amount","Amount"),</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <f t="shared" si="28"/>
+        <v>912</v>
+      </c>
+      <c r="B913">
+        <v>2</v>
+      </c>
+      <c r="C913" t="s">
+        <v>913</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="E913" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("912","2","amount","தொகை"),</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <f t="shared" si="28"/>
+        <v>913</v>
+      </c>
+      <c r="B914">
+        <v>3</v>
+      </c>
+      <c r="C914" t="s">
+        <v>913</v>
+      </c>
+      <c r="D914" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="E914" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("913","3","amount","montant"),</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <f t="shared" si="28"/>
+        <v>914</v>
+      </c>
+      <c r="B915">
+        <v>4</v>
+      </c>
+      <c r="C915" t="s">
+        <v>913</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E915" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("914","4","amount","数量"),</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <f t="shared" si="28"/>
+        <v>915</v>
+      </c>
+      <c r="B916">
+        <v>5</v>
+      </c>
+      <c r="C916" t="s">
+        <v>913</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="E916" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("915","5","amount","額"),</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <f t="shared" si="28"/>
+        <v>916</v>
+      </c>
+      <c r="B917">
+        <v>6</v>
+      </c>
+      <c r="C917" t="s">
+        <v>913</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="E917" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("916","6","amount","quantia"),</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <f t="shared" si="28"/>
+        <v>917</v>
+      </c>
+      <c r="B918">
+        <v>7</v>
+      </c>
+      <c r="C918" t="s">
+        <v>913</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E918" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("917","7","amount","रकम"),</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <f t="shared" si="28"/>
+        <v>918</v>
+      </c>
+      <c r="B919">
+        <v>8</v>
+      </c>
+      <c r="C919" t="s">
+        <v>913</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="E919" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("918","8","amount","количество"),</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <f t="shared" si="28"/>
+        <v>919</v>
+      </c>
+      <c r="B920">
+        <v>9</v>
+      </c>
+      <c r="C920" t="s">
+        <v>913</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E920" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("919","9","amount","Monto"),</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <f t="shared" si="28"/>
+        <v>920</v>
+      </c>
+      <c r="B921">
+        <v>10</v>
+      </c>
+      <c r="C921" t="s">
+        <v>913</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E921" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("920","10","amount","مقدار"),</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <f t="shared" si="28"/>
+        <v>921</v>
+      </c>
+      <c r="B922">
+        <v>1</v>
+      </c>
+      <c r="C922" t="s">
+        <v>924</v>
+      </c>
+      <c r="D922" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="E922" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("921","1","plan","Plan"),</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <f t="shared" si="28"/>
+        <v>922</v>
+      </c>
+      <c r="B923">
+        <v>2</v>
+      </c>
+      <c r="C923" t="s">
+        <v>924</v>
+      </c>
+      <c r="D923" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="E923" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("922","2","plan","திட்டம்"),</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <f t="shared" si="28"/>
+        <v>923</v>
+      </c>
+      <c r="B924">
+        <v>3</v>
+      </c>
+      <c r="C924" t="s">
+        <v>924</v>
+      </c>
+      <c r="D924" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E924" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("923","3","plan","planifier"),</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <f t="shared" si="28"/>
+        <v>924</v>
+      </c>
+      <c r="B925">
+        <v>4</v>
+      </c>
+      <c r="C925" t="s">
+        <v>924</v>
+      </c>
+      <c r="D925" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="E925" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("924","4","plan","计划"),</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <f t="shared" si="28"/>
+        <v>925</v>
+      </c>
+      <c r="B926">
+        <v>5</v>
+      </c>
+      <c r="C926" t="s">
+        <v>924</v>
+      </c>
+      <c r="D926" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E926" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("925","5","plan","予定"),</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <f t="shared" si="28"/>
+        <v>926</v>
+      </c>
+      <c r="B927">
+        <v>6</v>
+      </c>
+      <c r="C927" t="s">
+        <v>924</v>
+      </c>
+      <c r="D927" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E927" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("926","6","plan","plano"),</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <f t="shared" si="28"/>
+        <v>927</v>
+      </c>
+      <c r="B928">
+        <v>7</v>
+      </c>
+      <c r="C928" t="s">
+        <v>924</v>
+      </c>
+      <c r="D928" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E928" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("927","7","plan","योजना"),</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <f t="shared" si="28"/>
+        <v>928</v>
+      </c>
+      <c r="B929">
+        <v>8</v>
+      </c>
+      <c r="C929" t="s">
+        <v>924</v>
+      </c>
+      <c r="D929" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="E929" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("928","8","plan","план"),</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <f t="shared" si="28"/>
+        <v>929</v>
+      </c>
+      <c r="B930">
+        <v>9</v>
+      </c>
+      <c r="C930" t="s">
+        <v>924</v>
+      </c>
+      <c r="D930" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E930" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("929","9","plan","plan"),</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <f t="shared" si="28"/>
+        <v>930</v>
+      </c>
+      <c r="B931">
+        <v>10</v>
+      </c>
+      <c r="C931" t="s">
+        <v>924</v>
+      </c>
+      <c r="D931" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E931" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("930","10","plan","خطة"),</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <f t="shared" si="28"/>
+        <v>931</v>
+      </c>
+      <c r="B932">
+        <v>1</v>
+      </c>
+      <c r="C932" t="s">
+        <v>933</v>
+      </c>
+      <c r="D932" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="E932" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("931","1","type","Type"),</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <f t="shared" si="28"/>
+        <v>932</v>
+      </c>
+      <c r="B933">
+        <v>2</v>
+      </c>
+      <c r="C933" t="s">
+        <v>933</v>
+      </c>
+      <c r="D933" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="E933" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("932","2","type","மாதிரி"),</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <f t="shared" si="28"/>
+        <v>933</v>
+      </c>
+      <c r="B934">
+        <v>3</v>
+      </c>
+      <c r="C934" t="s">
+        <v>933</v>
+      </c>
+      <c r="D934" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E934" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("933","3","type","taper"),</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <f t="shared" si="28"/>
+        <v>934</v>
+      </c>
+      <c r="B935">
+        <v>4</v>
+      </c>
+      <c r="C935" t="s">
+        <v>933</v>
+      </c>
+      <c r="D935" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="E935" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("934","4","type","类型"),</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <f t="shared" si="28"/>
+        <v>935</v>
+      </c>
+      <c r="B936">
+        <v>5</v>
+      </c>
+      <c r="C936" t="s">
+        <v>933</v>
+      </c>
+      <c r="D936" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="E936" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("935","5","type","タイプ"),</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <f t="shared" si="28"/>
+        <v>936</v>
+      </c>
+      <c r="B937">
+        <v>6</v>
+      </c>
+      <c r="C937" t="s">
+        <v>933</v>
+      </c>
+      <c r="D937" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="E937" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("936","6","type","modelo"),</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <f t="shared" si="28"/>
+        <v>937</v>
+      </c>
+      <c r="B938">
+        <v>7</v>
+      </c>
+      <c r="C938" t="s">
+        <v>933</v>
+      </c>
+      <c r="D938" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E938" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("937","7","type","प्रकार"),</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <f t="shared" si="28"/>
+        <v>938</v>
+      </c>
+      <c r="B939">
+        <v>8</v>
+      </c>
+      <c r="C939" t="s">
+        <v>933</v>
+      </c>
+      <c r="D939" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="E939" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("938","8","type","тип"),</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <f t="shared" si="28"/>
+        <v>939</v>
+      </c>
+      <c r="B940">
+        <v>9</v>
+      </c>
+      <c r="C940" t="s">
+        <v>933</v>
+      </c>
+      <c r="D940" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E940" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("939","9","type","escribe"),</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <f t="shared" si="28"/>
+        <v>940</v>
+      </c>
+      <c r="B941">
+        <v>10</v>
+      </c>
+      <c r="C941" t="s">
+        <v>933</v>
+      </c>
+      <c r="D941" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="E941" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("940","10","type","يكتب"),</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <f t="shared" si="28"/>
+        <v>941</v>
+      </c>
+      <c r="B942">
+        <v>1</v>
+      </c>
+      <c r="C942" t="s">
+        <v>935</v>
+      </c>
+      <c r="D942" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="E942" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("941","1","date","Date"),</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <f t="shared" si="28"/>
+        <v>942</v>
+      </c>
+      <c r="B943">
+        <v>2</v>
+      </c>
+      <c r="C943" t="s">
+        <v>935</v>
+      </c>
+      <c r="D943" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="E943" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("942","2","date","தேதி"),</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <f t="shared" si="28"/>
+        <v>943</v>
+      </c>
+      <c r="B944">
+        <v>3</v>
+      </c>
+      <c r="C944" t="s">
+        <v>935</v>
+      </c>
+      <c r="D944" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="E944" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("943","3","date","Date"),</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <f t="shared" si="28"/>
+        <v>944</v>
+      </c>
+      <c r="B945">
+        <v>4</v>
+      </c>
+      <c r="C945" t="s">
+        <v>935</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="E945" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("944","4","date","日期"),</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <f t="shared" si="28"/>
+        <v>945</v>
+      </c>
+      <c r="B946">
+        <v>5</v>
+      </c>
+      <c r="C946" t="s">
+        <v>935</v>
+      </c>
+      <c r="D946" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E946" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("945","5","date","日にち"),</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <f t="shared" si="28"/>
+        <v>946</v>
+      </c>
+      <c r="B947">
+        <v>6</v>
+      </c>
+      <c r="C947" t="s">
+        <v>935</v>
+      </c>
+      <c r="D947" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="E947" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("946","6","date","Encontro"),</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <f t="shared" si="28"/>
+        <v>947</v>
+      </c>
+      <c r="B948">
+        <v>7</v>
+      </c>
+      <c r="C948" t="s">
+        <v>935</v>
+      </c>
+      <c r="D948" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="E948" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("947","7","date","दिनांक"),</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <f t="shared" si="28"/>
+        <v>948</v>
+      </c>
+      <c r="B949">
+        <v>8</v>
+      </c>
+      <c r="C949" t="s">
+        <v>935</v>
+      </c>
+      <c r="D949" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E949" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("948","8","date","Свидание"),</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <f t="shared" si="28"/>
+        <v>949</v>
+      </c>
+      <c r="B950">
+        <v>9</v>
+      </c>
+      <c r="C950" t="s">
+        <v>935</v>
+      </c>
+      <c r="D950" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="E950" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("949","9","date","Fecha"),</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <f t="shared" si="28"/>
+        <v>950</v>
+      </c>
+      <c r="B951">
+        <v>10</v>
+      </c>
+      <c r="C951" t="s">
+        <v>935</v>
+      </c>
+      <c r="D951" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E951" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("950","10","date","تاريخ"),</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <f t="shared" si="28"/>
+        <v>951</v>
+      </c>
+      <c r="B952">
+        <v>1</v>
+      </c>
+      <c r="C952" t="s">
+        <v>937</v>
+      </c>
+      <c r="D952" t="s">
+        <v>938</v>
+      </c>
+      <c r="E952" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("951","1","category","Category"),</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <f t="shared" si="28"/>
+        <v>952</v>
+      </c>
+      <c r="B953">
+        <v>2</v>
+      </c>
+      <c r="C953" t="s">
+        <v>937</v>
+      </c>
+      <c r="D953" t="s">
+        <v>944</v>
+      </c>
+      <c r="E953" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("952","2","category","வகை"),</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <f t="shared" si="28"/>
+        <v>953</v>
+      </c>
+      <c r="B954">
+        <v>3</v>
+      </c>
+      <c r="C954" t="s">
+        <v>937</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E954" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("953","3","category","Catégorie"),</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <f t="shared" si="28"/>
+        <v>954</v>
+      </c>
+      <c r="B955">
+        <v>4</v>
+      </c>
+      <c r="C955" t="s">
+        <v>937</v>
+      </c>
+      <c r="D955" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="E955" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("954","4","category","类别"),</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <f t="shared" si="28"/>
+        <v>955</v>
+      </c>
+      <c r="B956">
+        <v>5</v>
+      </c>
+      <c r="C956" t="s">
+        <v>937</v>
+      </c>
+      <c r="D956" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="E956" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("955","5","category","カテゴリー"),</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <f t="shared" si="28"/>
+        <v>956</v>
+      </c>
+      <c r="B957">
+        <v>6</v>
+      </c>
+      <c r="C957" t="s">
+        <v>937</v>
+      </c>
+      <c r="D957" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E957" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("956","6","category","categoria"),</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <f t="shared" si="28"/>
+        <v>957</v>
+      </c>
+      <c r="B958">
+        <v>7</v>
+      </c>
+      <c r="C958" t="s">
+        <v>937</v>
+      </c>
+      <c r="D958" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="E958" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("957","7","category","श्रेणी"),</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <f t="shared" si="28"/>
+        <v>958</v>
+      </c>
+      <c r="B959">
+        <v>8</v>
+      </c>
+      <c r="C959" t="s">
+        <v>937</v>
+      </c>
+      <c r="D959" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="E959" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("958","8","category","Категория"),</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <f t="shared" si="28"/>
+        <v>959</v>
+      </c>
+      <c r="B960">
+        <v>9</v>
+      </c>
+      <c r="C960" t="s">
+        <v>937</v>
+      </c>
+      <c r="D960" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="E960" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("959","9","category","Categoría"),</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <f t="shared" si="28"/>
+        <v>960</v>
+      </c>
+      <c r="B961">
+        <v>10</v>
+      </c>
+      <c r="C961" t="s">
+        <v>937</v>
+      </c>
+      <c r="D961" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="E961" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("960","10","category","فئة"),</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <f t="shared" ref="A962:A971" si="30">A961+1</f>
+        <v>961</v>
+      </c>
+      <c r="B962">
+        <v>1</v>
+      </c>
+      <c r="C962" t="s">
+        <v>939</v>
+      </c>
+      <c r="D962" t="s">
+        <v>940</v>
+      </c>
+      <c r="E962" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>("961","1","comments","Comments"),</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <f t="shared" si="30"/>
+        <v>962</v>
+      </c>
+      <c r="B963">
+        <v>2</v>
+      </c>
+      <c r="C963" t="s">
+        <v>939</v>
+      </c>
+      <c r="D963" t="s">
+        <v>970</v>
+      </c>
+      <c r="E963" s="1" t="str">
+        <f t="shared" ref="E963:E971" si="31">CONCATENATE("(",CHAR(34),A963,CHAR(34),",",CHAR(34),B963,CHAR(34),",",CHAR(34),C963,CHAR(34),",",CHAR(34),D963,CHAR(34),"),")</f>
+        <v>("962","2","comments","கருத்துகள்"),</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <f t="shared" si="30"/>
+        <v>963</v>
+      </c>
+      <c r="B964">
+        <v>3</v>
+      </c>
+      <c r="C964" t="s">
+        <v>939</v>
+      </c>
+      <c r="D964" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="E964" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("963","3","comments","commentaires"),</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <f t="shared" si="30"/>
+        <v>964</v>
+      </c>
+      <c r="B965">
+        <v>4</v>
+      </c>
+      <c r="C965" t="s">
+        <v>939</v>
+      </c>
+      <c r="D965" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E965" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("964","4","comments","注释"),</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <f t="shared" si="30"/>
+        <v>965</v>
+      </c>
+      <c r="B966">
+        <v>5</v>
+      </c>
+      <c r="C966" t="s">
+        <v>939</v>
+      </c>
+      <c r="D966" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="E966" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("965","5","comments","コメント"),</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <f t="shared" si="30"/>
+        <v>966</v>
+      </c>
+      <c r="B967">
+        <v>6</v>
+      </c>
+      <c r="C967" t="s">
+        <v>939</v>
+      </c>
+      <c r="D967" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="E967" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("966","6","comments","Comentários"),</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <f t="shared" si="30"/>
+        <v>967</v>
+      </c>
+      <c r="B968">
+        <v>7</v>
+      </c>
+      <c r="C968" t="s">
+        <v>939</v>
+      </c>
+      <c r="D968" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="E968" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("967","7","comments","टिप्पणियाँ"),</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <f t="shared" si="30"/>
+        <v>968</v>
+      </c>
+      <c r="B969">
+        <v>8</v>
+      </c>
+      <c r="C969" t="s">
+        <v>939</v>
+      </c>
+      <c r="D969" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="E969" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("968","8","comments","Комментарии"),</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <f t="shared" si="30"/>
+        <v>969</v>
+      </c>
+      <c r="B970">
+        <v>9</v>
+      </c>
+      <c r="C970" t="s">
+        <v>939</v>
+      </c>
+      <c r="D970" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="E970" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("969","9","comments","Comentarios"),</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <f t="shared" si="30"/>
+        <v>970</v>
+      </c>
+      <c r="B971">
+        <v>10</v>
+      </c>
+      <c r="C971" t="s">
+        <v>939</v>
+      </c>
+      <c r="D971" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="E971" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>("970","10","comments","تعليقات"),</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E972" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="903" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E903" s="5" t="s">
+    <row r="973" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E973" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="904" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E904" s="5" t="s">
+    <row r="974" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E974" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="905" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E905" s="5" t="s">
+    <row r="975" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E975" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="906" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E906" s="5" t="s">
+    <row r="976" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E976" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="907" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E907" s="5" t="s">
+    <row r="977" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E977" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="908" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E908" s="5" t="s">
+    <row r="978" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E978" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="909" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E909" s="5" t="s">
+    <row r="979" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E979" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="910" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E910" s="5" t="s">
+    <row r="980" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E980" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="911" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E911" s="1" t="s">
+    <row r="981" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E981" s="1" t="s">
         <v>687</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFCB787-2A04-5C41-A795-BA4A9E335F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A9F20-A3B1-3647-9E3C-9FFAC197B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="680" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="660" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1063">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -2999,6 +2999,33 @@
   </si>
   <si>
     <t>showNRecordsPerPage</t>
+  </si>
+  <si>
+    <t>ஒரு பக்கத்திற்கு {n} பதிவுகளைக் காட்டு</t>
+  </si>
+  <si>
+    <t>عرض {n} من السجلات لكل صفحة</t>
+  </si>
+  <si>
+    <t>afficher {n} enregistrements par page</t>
+  </si>
+  <si>
+    <t>每页显示 {n} 条记录</t>
+  </si>
+  <si>
+    <t>ページあたり {n} 件のレコードを表示</t>
+  </si>
+  <si>
+    <t>mostre {n} registros por página</t>
+  </si>
+  <si>
+    <t>प्रति पृष्ठ {n} रिकॉर्ड दिखाएं</t>
+  </si>
+  <si>
+    <t>показать {n} записей на странице</t>
+  </si>
+  <si>
+    <t>mostrar {n} registros por página</t>
   </si>
   <si>
     <r>
@@ -3011,35 +3038,203 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>{n}records per page</t>
+      <t>{n} records per page</t>
     </r>
   </si>
   <si>
-    <t>ஒரு பக்கத்திற்கு {n} பதிவுகளைக் காட்டு</t>
-  </si>
-  <si>
-    <t>عرض {n} من السجلات لكل صفحة</t>
-  </si>
-  <si>
-    <t>afficher {n} enregistrements par page</t>
-  </si>
-  <si>
-    <t>每页显示 {n} 条记录</t>
-  </si>
-  <si>
-    <t>ページあたり {n} 件のレコードを表示</t>
-  </si>
-  <si>
-    <t>mostre {n} registros por página</t>
-  </si>
-  <si>
-    <t>प्रति पृष्ठ {n} रिकॉर्ड दिखाएं</t>
-  </si>
-  <si>
-    <t>показать {n} записей на странице</t>
-  </si>
-  <si>
-    <t>mostrar {n} registros por página</t>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>Número de cuenta</t>
+  </si>
+  <si>
+    <t>Номер счета</t>
+  </si>
+  <si>
+    <t>खाता संख्या</t>
+  </si>
+  <si>
+    <t>Numéro de compte</t>
+  </si>
+  <si>
+    <t>கணக்கு எண்</t>
+  </si>
+  <si>
+    <t>帐号</t>
+  </si>
+  <si>
+    <t>口座番号</t>
+  </si>
+  <si>
+    <t>Número da conta</t>
+  </si>
+  <si>
+    <t>رقم حساب</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>ifscCode</t>
+  </si>
+  <si>
+    <t>كود IFSC</t>
+  </si>
+  <si>
+    <t>IFSC குறியீடு</t>
+  </si>
+  <si>
+    <t>Code IFSC</t>
+  </si>
+  <si>
+    <t>IFSC 代码</t>
+  </si>
+  <si>
+    <t>IFSCコード</t>
+  </si>
+  <si>
+    <t>Código IFSC</t>
+  </si>
+  <si>
+    <t>IFSC कोड</t>
+  </si>
+  <si>
+    <t>код IFSC</t>
+  </si>
+  <si>
+    <t>código IFSC</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t>срок действия</t>
+  </si>
+  <si>
+    <t>செல்லுபடியாகும் தேதி</t>
+  </si>
+  <si>
+    <t>data de validade</t>
+  </si>
+  <si>
+    <t>date de validité</t>
+  </si>
+  <si>
+    <t>有效期</t>
+  </si>
+  <si>
+    <t>有効期限</t>
+  </si>
+  <si>
+    <t>वैधता तिथि</t>
+  </si>
+  <si>
+    <t>fecha de validez</t>
+  </si>
+  <si>
+    <t>تاريخ الصلاحية</t>
+  </si>
+  <si>
+    <t>primaryAccount</t>
+  </si>
+  <si>
+    <t>Primary Account</t>
+  </si>
+  <si>
+    <t>حساب رئيسي</t>
+  </si>
+  <si>
+    <t>Cuenta principal</t>
+  </si>
+  <si>
+    <t>प्राथमिक खाता</t>
+  </si>
+  <si>
+    <t>முதன்மை கணக்கு</t>
+  </si>
+  <si>
+    <t>Compte principal</t>
+  </si>
+  <si>
+    <t>主要账户</t>
+  </si>
+  <si>
+    <t>プライマリ アカウント</t>
+  </si>
+  <si>
+    <t>Conta primária</t>
+  </si>
+  <si>
+    <t>Основная учетная запись</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>பெயர்</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>اسم</t>
+  </si>
+  <si>
+    <t>{start} to {end} of {length} records</t>
+  </si>
+  <si>
+    <t>recordsLengthLine</t>
+  </si>
+  <si>
+    <t>{length} பதிவுகளில் {start} இலிருந்து {end}</t>
+  </si>
+  <si>
+    <t>{start} से {end} के {length} रिकॉर्ड</t>
+  </si>
+  <si>
+    <t>{start} à {end} de {length} enregistrements</t>
+  </si>
+  <si>
+    <t>{start} 到 {end}，共 {length} 條記錄</t>
+  </si>
+  <si>
+    <t>{length} レコードの {start} から {end} まで</t>
+  </si>
+  <si>
+    <t>{start} a {end} de {length} registros</t>
+  </si>
+  <si>
+    <t>от {start} до {end} из {length} записей</t>
+  </si>
+  <si>
+    <t>{start} إلى {end} من {length} السجلات</t>
   </si>
 </sst>
 </file>
@@ -3932,10 +4127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A966" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E993" sqref="E993"/>
+    <sheetView tabSelected="1" topLeftCell="A1022" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1050" sqref="E1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22056,7 +22251,7 @@
         <v>958</v>
       </c>
       <c r="E953" s="1" t="str">
-        <f t="shared" ref="E953:E991" si="30">CONCATENATE("(",CHAR(34),A953,CHAR(34),",",CHAR(34),B953,CHAR(34),",",CHAR(34),C953,CHAR(34),",",CHAR(34),D953,CHAR(34),"),")</f>
+        <f t="shared" ref="E953:E1016" si="30">CONCATENATE("(",CHAR(34),A953,CHAR(34),",",CHAR(34),B953,CHAR(34),",",CHAR(34),C953,CHAR(34),",",CHAR(34),D953,CHAR(34),"),")</f>
         <v>("952","2","comments","கருத்துகள்"),</v>
       </c>
     </row>
@@ -22252,7 +22447,7 @@
     </row>
     <row r="964" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A964">
-        <f t="shared" ref="A964:A991" si="31">A963+1</f>
+        <f t="shared" ref="A964:A1027" si="31">A963+1</f>
         <v>963</v>
       </c>
       <c r="B964">
@@ -22604,11 +22799,11 @@
         <v>987</v>
       </c>
       <c r="D982" s="7" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="E982" s="1" t="str">
         <f t="shared" si="30"/>
-        <v>("981","1","showNRecordsPerPage","show {n}records per page"),</v>
+        <v>("981","1","showNRecordsPerPage","show {n} records per page"),</v>
       </c>
     </row>
     <row r="983" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -22623,7 +22818,7 @@
         <v>987</v>
       </c>
       <c r="D983" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E983" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22642,7 +22837,7 @@
         <v>987</v>
       </c>
       <c r="D984" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E984" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22661,7 +22856,7 @@
         <v>987</v>
       </c>
       <c r="D985" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E985" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22680,7 +22875,7 @@
         <v>987</v>
       </c>
       <c r="D986" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E986" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22699,7 +22894,7 @@
         <v>987</v>
       </c>
       <c r="D987" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E987" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22718,7 +22913,7 @@
         <v>987</v>
       </c>
       <c r="D988" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E988" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22737,7 +22932,7 @@
         <v>987</v>
       </c>
       <c r="D989" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E989" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22756,7 +22951,7 @@
         <v>987</v>
       </c>
       <c r="D990" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E990" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22775,7 +22970,7 @@
         <v>987</v>
       </c>
       <c r="D991" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E991" s="1" t="str">
         <f t="shared" si="30"/>
@@ -22783,50 +22978,1192 @@
       </c>
     </row>
     <row r="992" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E992" s="1" t="s">
+      <c r="A992">
+        <f t="shared" si="31"/>
+        <v>991</v>
+      </c>
+      <c r="B992">
+        <v>1</v>
+      </c>
+      <c r="C992" t="s">
+        <v>999</v>
+      </c>
+      <c r="D992" t="s">
+        <v>998</v>
+      </c>
+      <c r="E992" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("991","1","accountNumber","Account Number"),</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <f t="shared" si="31"/>
+        <v>992</v>
+      </c>
+      <c r="B993">
+        <v>2</v>
+      </c>
+      <c r="C993" t="s">
+        <v>999</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E993" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("992","2","accountNumber","கணக்கு எண்"),</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <f t="shared" si="31"/>
+        <v>993</v>
+      </c>
+      <c r="B994">
+        <v>3</v>
+      </c>
+      <c r="C994" t="s">
+        <v>999</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E994" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("993","3","accountNumber","Numéro de compte"),</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <f t="shared" si="31"/>
+        <v>994</v>
+      </c>
+      <c r="B995">
+        <v>4</v>
+      </c>
+      <c r="C995" t="s">
+        <v>999</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E995" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("994","4","accountNumber","帐号"),</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <f t="shared" si="31"/>
+        <v>995</v>
+      </c>
+      <c r="B996">
+        <v>5</v>
+      </c>
+      <c r="C996" t="s">
+        <v>999</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E996" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("995","5","accountNumber","口座番号"),</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <f t="shared" si="31"/>
+        <v>996</v>
+      </c>
+      <c r="B997">
+        <v>6</v>
+      </c>
+      <c r="C997" t="s">
+        <v>999</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E997" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("996","6","accountNumber","Número da conta"),</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <f t="shared" si="31"/>
+        <v>997</v>
+      </c>
+      <c r="B998">
+        <v>7</v>
+      </c>
+      <c r="C998" t="s">
+        <v>999</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E998" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("997","7","accountNumber","खाता संख्या"),</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <f t="shared" si="31"/>
+        <v>998</v>
+      </c>
+      <c r="B999">
+        <v>8</v>
+      </c>
+      <c r="C999" t="s">
+        <v>999</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E999" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("998","8","accountNumber","Номер счета"),</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <f t="shared" si="31"/>
+        <v>999</v>
+      </c>
+      <c r="B1000">
+        <v>9</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1000" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E1000" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("999","9","accountNumber","Número de cuenta"),</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <f t="shared" si="31"/>
+        <v>1000</v>
+      </c>
+      <c r="B1001">
+        <v>10</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1001" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1001" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1000","10","accountNumber","رقم حساب"),</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <f t="shared" si="31"/>
+        <v>1001</v>
+      </c>
+      <c r="B1002">
+        <v>1</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1002" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1001","1","ifscCode","IFSC Code"),</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <f t="shared" si="31"/>
+        <v>1002</v>
+      </c>
+      <c r="B1003">
+        <v>2</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1003" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E1003" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1002","2","ifscCode","IFSC குறியீடு"),</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <f t="shared" si="31"/>
+        <v>1003</v>
+      </c>
+      <c r="B1004">
+        <v>3</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1004" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1004" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1003","3","ifscCode","Code IFSC"),</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <f t="shared" si="31"/>
+        <v>1004</v>
+      </c>
+      <c r="B1005">
+        <v>4</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1005" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1004","4","ifscCode","IFSC 代码"),</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <f t="shared" si="31"/>
+        <v>1005</v>
+      </c>
+      <c r="B1006">
+        <v>5</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1006" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E1006" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1005","5","ifscCode","IFSCコード"),</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <f t="shared" si="31"/>
+        <v>1006</v>
+      </c>
+      <c r="B1007">
+        <v>6</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1007" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E1007" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1006","6","ifscCode","Código IFSC"),</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <f t="shared" si="31"/>
+        <v>1007</v>
+      </c>
+      <c r="B1008">
+        <v>7</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1008" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E1008" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1007","7","ifscCode","IFSC कोड"),</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <f t="shared" si="31"/>
+        <v>1008</v>
+      </c>
+      <c r="B1009">
+        <v>8</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1009" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1009" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1008","8","ifscCode","код IFSC"),</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <f t="shared" si="31"/>
+        <v>1009</v>
+      </c>
+      <c r="B1010">
+        <v>9</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1010" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1010" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1009","9","ifscCode","código IFSC"),</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <f t="shared" si="31"/>
+        <v>1010</v>
+      </c>
+      <c r="B1011">
+        <v>10</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1011" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E1011" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1010","10","ifscCode","كود IFSC"),</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <f t="shared" si="31"/>
+        <v>1011</v>
+      </c>
+      <c r="B1012">
+        <v>1</v>
+      </c>
+      <c r="C1012" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1012" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E1012" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1011","1","validity","Validity"),</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <f t="shared" si="31"/>
+        <v>1012</v>
+      </c>
+      <c r="B1013">
+        <v>2</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1013" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1013" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1012","2","validity","செல்லுபடியாகும் தேதி"),</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <f t="shared" si="31"/>
+        <v>1013</v>
+      </c>
+      <c r="B1014">
+        <v>3</v>
+      </c>
+      <c r="C1014" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1014" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1014" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1013","3","validity","date de validité"),</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <f t="shared" si="31"/>
+        <v>1014</v>
+      </c>
+      <c r="B1015">
+        <v>4</v>
+      </c>
+      <c r="C1015" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1015" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1015" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1014","4","validity","有效期"),</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <f t="shared" si="31"/>
+        <v>1015</v>
+      </c>
+      <c r="B1016">
+        <v>5</v>
+      </c>
+      <c r="C1016" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1016" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1016" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>("1015","5","validity","有効期限"),</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <f t="shared" si="31"/>
+        <v>1016</v>
+      </c>
+      <c r="B1017">
+        <v>6</v>
+      </c>
+      <c r="C1017" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1017" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E1017" s="1" t="str">
+        <f t="shared" ref="E1017:E1052" si="32">CONCATENATE("(",CHAR(34),A1017,CHAR(34),",",CHAR(34),B1017,CHAR(34),",",CHAR(34),C1017,CHAR(34),",",CHAR(34),D1017,CHAR(34),"),")</f>
+        <v>("1016","6","validity","data de validade"),</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <f t="shared" si="31"/>
+        <v>1017</v>
+      </c>
+      <c r="B1018">
+        <v>7</v>
+      </c>
+      <c r="C1018" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1018" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E1018" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1017","7","validity","वैधता तिथि"),</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <f t="shared" si="31"/>
+        <v>1018</v>
+      </c>
+      <c r="B1019">
+        <v>8</v>
+      </c>
+      <c r="C1019" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1019" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1019" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1018","8","validity","срок действия"),</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <f t="shared" si="31"/>
+        <v>1019</v>
+      </c>
+      <c r="B1020">
+        <v>9</v>
+      </c>
+      <c r="C1020" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1020" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1020" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1019","9","validity","fecha de validez"),</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <f t="shared" si="31"/>
+        <v>1020</v>
+      </c>
+      <c r="B1021">
+        <v>10</v>
+      </c>
+      <c r="C1021" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D1021" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E1021" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1020","10","validity","تاريخ الصلاحية"),</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <f t="shared" si="31"/>
+        <v>1021</v>
+      </c>
+      <c r="B1022">
+        <v>1</v>
+      </c>
+      <c r="C1022" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1022" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1022" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1021","1","primaryAccount","Primary Account"),</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <f t="shared" si="31"/>
+        <v>1022</v>
+      </c>
+      <c r="B1023">
+        <v>2</v>
+      </c>
+      <c r="C1023" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1023" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E1023" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1022","2","primaryAccount","முதன்மை கணக்கு"),</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <f t="shared" si="31"/>
+        <v>1023</v>
+      </c>
+      <c r="B1024">
+        <v>3</v>
+      </c>
+      <c r="C1024" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1024" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E1024" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1023","3","primaryAccount","Compte principal"),</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <f t="shared" si="31"/>
+        <v>1024</v>
+      </c>
+      <c r="B1025">
+        <v>4</v>
+      </c>
+      <c r="C1025" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1025" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E1025" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1024","4","primaryAccount","主要账户"),</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <f t="shared" si="31"/>
+        <v>1025</v>
+      </c>
+      <c r="B1026">
+        <v>5</v>
+      </c>
+      <c r="C1026" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1026" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E1026" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1025","5","primaryAccount","プライマリ アカウント"),</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <f t="shared" si="31"/>
+        <v>1026</v>
+      </c>
+      <c r="B1027">
+        <v>6</v>
+      </c>
+      <c r="C1027" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1027" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E1027" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1026","6","primaryAccount","Conta primária"),</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <f t="shared" ref="A1028:A1051" si="33">A1027+1</f>
+        <v>1027</v>
+      </c>
+      <c r="B1028">
+        <v>7</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1028" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E1028" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1027","7","primaryAccount","प्राथमिक खाता"),</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <f t="shared" si="33"/>
+        <v>1028</v>
+      </c>
+      <c r="B1029">
+        <v>8</v>
+      </c>
+      <c r="C1029" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1029" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E1029" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1028","8","primaryAccount","Основная учетная запись"),</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <f t="shared" si="33"/>
+        <v>1029</v>
+      </c>
+      <c r="B1030">
+        <v>9</v>
+      </c>
+      <c r="C1030" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1030" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1030" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1029","9","primaryAccount","Cuenta principal"),</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <f t="shared" si="33"/>
+        <v>1030</v>
+      </c>
+      <c r="B1031">
+        <v>10</v>
+      </c>
+      <c r="C1031" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1031" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E1031" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1030","10","primaryAccount","حساب رئيسي"),</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <f t="shared" si="33"/>
+        <v>1031</v>
+      </c>
+      <c r="B1032">
+        <v>1</v>
+      </c>
+      <c r="C1032" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1032" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E1032" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1031","1","name","Name"),</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <f t="shared" si="33"/>
+        <v>1032</v>
+      </c>
+      <c r="B1033">
+        <v>2</v>
+      </c>
+      <c r="C1033" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1033" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E1033" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1032","2","name","பெயர்"),</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <f t="shared" si="33"/>
+        <v>1033</v>
+      </c>
+      <c r="B1034">
+        <v>3</v>
+      </c>
+      <c r="C1034" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1034" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1034" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1033","3","name","Nom"),</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <f t="shared" si="33"/>
+        <v>1034</v>
+      </c>
+      <c r="B1035">
+        <v>4</v>
+      </c>
+      <c r="C1035" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1035" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1035" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1034","4","name","姓名"),</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <f t="shared" si="33"/>
+        <v>1035</v>
+      </c>
+      <c r="B1036">
+        <v>5</v>
+      </c>
+      <c r="C1036" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1036" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E1036" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1035","5","name","名前"),</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <f t="shared" si="33"/>
+        <v>1036</v>
+      </c>
+      <c r="B1037">
+        <v>6</v>
+      </c>
+      <c r="C1037" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1037" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E1037" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1036","6","name","Nome"),</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <f t="shared" si="33"/>
+        <v>1037</v>
+      </c>
+      <c r="B1038">
+        <v>7</v>
+      </c>
+      <c r="C1038" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1038" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E1038" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1037","7","name","नाम"),</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <f t="shared" si="33"/>
+        <v>1038</v>
+      </c>
+      <c r="B1039">
+        <v>8</v>
+      </c>
+      <c r="C1039" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1039" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E1039" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1038","8","name","Name"),</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <f t="shared" si="33"/>
+        <v>1039</v>
+      </c>
+      <c r="B1040">
+        <v>9</v>
+      </c>
+      <c r="C1040" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1040" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1040" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1039","9","name","Nombre"),</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <f t="shared" si="33"/>
+        <v>1040</v>
+      </c>
+      <c r="B1041">
+        <v>10</v>
+      </c>
+      <c r="C1041" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1041" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E1041" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1040","10","name","اسم"),</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <f t="shared" si="33"/>
+        <v>1041</v>
+      </c>
+      <c r="B1042">
+        <v>1</v>
+      </c>
+      <c r="C1042" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1042" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E1042" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1041","1","recordsLengthLine","{start} to {end} of {length} records"),</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <f t="shared" si="33"/>
+        <v>1042</v>
+      </c>
+      <c r="B1043">
+        <v>2</v>
+      </c>
+      <c r="C1043" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1043" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1043" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1042","2","recordsLengthLine","{length} பதிவுகளில் {start} இலிருந்து {end}"),</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <f t="shared" si="33"/>
+        <v>1043</v>
+      </c>
+      <c r="B1044">
+        <v>3</v>
+      </c>
+      <c r="C1044" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1044" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E1044" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1043","3","recordsLengthLine","{start} à {end} de {length} enregistrements"),</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <f t="shared" si="33"/>
+        <v>1044</v>
+      </c>
+      <c r="B1045">
+        <v>4</v>
+      </c>
+      <c r="C1045" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1045" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E1045" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1044","4","recordsLengthLine","{start} 到 {end}，共 {length} 條記錄"),</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <f t="shared" si="33"/>
+        <v>1045</v>
+      </c>
+      <c r="B1046">
+        <v>5</v>
+      </c>
+      <c r="C1046" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1046" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1046" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1045","5","recordsLengthLine","{length} レコードの {start} から {end} まで"),</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <f t="shared" si="33"/>
+        <v>1046</v>
+      </c>
+      <c r="B1047">
+        <v>6</v>
+      </c>
+      <c r="C1047" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1047" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E1047" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1046","6","recordsLengthLine","{start} a {end} de {length} registros"),</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <f t="shared" si="33"/>
+        <v>1047</v>
+      </c>
+      <c r="B1048">
+        <v>7</v>
+      </c>
+      <c r="C1048" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1048" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E1048" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1047","7","recordsLengthLine","{start} से {end} के {length} रिकॉर्ड"),</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <f t="shared" si="33"/>
+        <v>1048</v>
+      </c>
+      <c r="B1049">
+        <v>8</v>
+      </c>
+      <c r="C1049" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1049" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E1049" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1048","8","recordsLengthLine","от {start} до {end} из {length} записей"),</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <f t="shared" si="33"/>
+        <v>1049</v>
+      </c>
+      <c r="B1050">
+        <v>9</v>
+      </c>
+      <c r="C1050" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1050" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E1050" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1049","9","recordsLengthLine","{start} a {end} de {length} registros"),</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <f t="shared" si="33"/>
+        <v>1050</v>
+      </c>
+      <c r="B1051">
+        <v>10</v>
+      </c>
+      <c r="C1051" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1051" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E1051" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1050","10","recordsLengthLine","{start} إلى {end} من {length} السجلات"),</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1052" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="993" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E993" s="5" t="s">
+    <row r="1053" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1053" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="994" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E994" s="5" t="s">
+    <row r="1054" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1054" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="995" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E995" s="5" t="s">
+    <row r="1055" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1055" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="996" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E996" s="4"/>
-    </row>
-    <row r="997" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E997" s="5" t="s">
+    <row r="1056" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1056" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1057" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1057" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="998" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E998" s="5" t="s">
+    <row r="1058" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1058" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="999" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E999" s="5" t="s">
+    <row r="1059" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1059" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="1000" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1000" s="5" t="s">
+    <row r="1060" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1060" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="1001" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1001" s="1" t="s">
+    <row r="1061" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1061" s="1" t="s">
         <v>675</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A9F20-A3B1-3647-9E3C-9FFAC197B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE7AB0-EA0F-6E4A-9B57-A3A161EC0E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="660" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1098">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -3236,6 +3236,111 @@
   <si>
     <t>{start} إلى {end} من {length} السجلات</t>
   </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>الإئتمان</t>
+  </si>
+  <si>
+    <t>crédito</t>
+  </si>
+  <si>
+    <t>Le crédit</t>
+  </si>
+  <si>
+    <t>信用</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>дебетовать</t>
+  </si>
+  <si>
+    <t>नामे</t>
+  </si>
+  <si>
+    <t>débit</t>
+  </si>
+  <si>
+    <t>借方</t>
+  </si>
+  <si>
+    <t>débito</t>
+  </si>
+  <si>
+    <t>مدين</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>ஆம்</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>नहीं</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>இல்லை</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>رقم</t>
+  </si>
 </sst>
 </file>
 
@@ -3244,7 +3349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="[$-9000449]0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3413,6 +3518,31 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF5F6368"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF5F6368"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3757,7 +3887,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3772,6 +3902,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4127,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1061"/>
+  <dimension ref="A1:F1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1050" sqref="E1050"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1096" sqref="D1096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23467,7 +23601,7 @@
         <v>1024</v>
       </c>
       <c r="E1017" s="1" t="str">
-        <f t="shared" ref="E1017:E1052" si="32">CONCATENATE("(",CHAR(34),A1017,CHAR(34),",",CHAR(34),B1017,CHAR(34),",",CHAR(34),C1017,CHAR(34),",",CHAR(34),D1017,CHAR(34),"),")</f>
+        <f t="shared" ref="E1017:E1080" si="32">CONCATENATE("(",CHAR(34),A1017,CHAR(34),",",CHAR(34),B1017,CHAR(34),",",CHAR(34),C1017,CHAR(34),",",CHAR(34),D1017,CHAR(34),"),")</f>
         <v>("1016","6","validity","data de validade"),</v>
       </c>
     </row>
@@ -23663,7 +23797,7 @@
     </row>
     <row r="1028" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1028">
-        <f t="shared" ref="A1028:A1051" si="33">A1027+1</f>
+        <f t="shared" ref="A1028:A1091" si="33">A1027+1</f>
         <v>1027</v>
       </c>
       <c r="B1028">
@@ -24118,52 +24252,812 @@
       </c>
     </row>
     <row r="1052" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1052" s="1" t="s">
+      <c r="A1052">
+        <f t="shared" si="33"/>
+        <v>1051</v>
+      </c>
+      <c r="B1052">
+        <v>1</v>
+      </c>
+      <c r="C1052" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1052" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1052" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1051","1","credit","Credit"),</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <f t="shared" si="33"/>
+        <v>1052</v>
+      </c>
+      <c r="B1053">
+        <v>2</v>
+      </c>
+      <c r="C1053" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1053" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1053" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1052","2","credit","வரவு"),</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <f t="shared" si="33"/>
+        <v>1053</v>
+      </c>
+      <c r="B1054">
+        <v>3</v>
+      </c>
+      <c r="C1054" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1054" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E1054" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1053","3","credit","Le crédit"),</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <f t="shared" si="33"/>
+        <v>1054</v>
+      </c>
+      <c r="B1055">
+        <v>4</v>
+      </c>
+      <c r="C1055" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1055" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E1055" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1054","4","credit","信用"),</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <f t="shared" si="33"/>
+        <v>1055</v>
+      </c>
+      <c r="B1056">
+        <v>5</v>
+      </c>
+      <c r="C1056" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1056" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1055","5","credit","クレジット"),</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <f t="shared" si="33"/>
+        <v>1056</v>
+      </c>
+      <c r="B1057">
+        <v>6</v>
+      </c>
+      <c r="C1057" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1057" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1057" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1056","6","credit","Crédito"),</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <f t="shared" si="33"/>
+        <v>1057</v>
+      </c>
+      <c r="B1058">
+        <v>7</v>
+      </c>
+      <c r="C1058" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1058" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1058" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1057","7","credit","श्रेय"),</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <f t="shared" si="33"/>
+        <v>1058</v>
+      </c>
+      <c r="B1059">
+        <v>8</v>
+      </c>
+      <c r="C1059" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1059" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1059" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1058","8","credit","Кредит"),</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <f t="shared" si="33"/>
+        <v>1059</v>
+      </c>
+      <c r="B1060">
+        <v>9</v>
+      </c>
+      <c r="C1060" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1060" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1060" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1059","9","credit","crédito"),</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <f t="shared" si="33"/>
+        <v>1060</v>
+      </c>
+      <c r="B1061">
+        <v>10</v>
+      </c>
+      <c r="C1061" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1061" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1061" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1060","10","credit","الإئتمان"),</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <f t="shared" si="33"/>
+        <v>1061</v>
+      </c>
+      <c r="B1062">
+        <v>1</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1062" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E1062" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1061","1","debit","Debit"),</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <f t="shared" si="33"/>
+        <v>1062</v>
+      </c>
+      <c r="B1063">
+        <v>2</v>
+      </c>
+      <c r="C1063" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1063" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1063" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1062","2","debit","செலவு"),</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <f t="shared" si="33"/>
+        <v>1063</v>
+      </c>
+      <c r="B1064">
+        <v>3</v>
+      </c>
+      <c r="C1064" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1064" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1064" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1063","3","debit","débit"),</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <f t="shared" si="33"/>
+        <v>1064</v>
+      </c>
+      <c r="B1065">
+        <v>4</v>
+      </c>
+      <c r="C1065" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1065" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1065" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1064","4","debit","借方"),</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <f t="shared" si="33"/>
+        <v>1065</v>
+      </c>
+      <c r="B1066">
+        <v>5</v>
+      </c>
+      <c r="C1066" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1066" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E1066" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1065","5","debit","借方"),</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <f t="shared" si="33"/>
+        <v>1066</v>
+      </c>
+      <c r="B1067">
+        <v>6</v>
+      </c>
+      <c r="C1067" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1067" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1067" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1066","6","debit","débito"),</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <f t="shared" si="33"/>
+        <v>1067</v>
+      </c>
+      <c r="B1068">
+        <v>7</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1068" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1067","7","debit","नामे"),</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <f t="shared" si="33"/>
+        <v>1068</v>
+      </c>
+      <c r="B1069">
+        <v>8</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1069" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E1069" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1068","8","debit","дебетовать"),</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <f t="shared" si="33"/>
+        <v>1069</v>
+      </c>
+      <c r="B1070">
+        <v>9</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1070" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1070" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1069","9","debit","débito"),</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <f t="shared" si="33"/>
+        <v>1070</v>
+      </c>
+      <c r="B1071">
+        <v>10</v>
+      </c>
+      <c r="C1071" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1071" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E1071" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1070","10","debit","مدين"),</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <f t="shared" si="33"/>
+        <v>1071</v>
+      </c>
+      <c r="B1072">
+        <v>1</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1072" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1072" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1071","1","yes","Yes"),</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <f t="shared" si="33"/>
+        <v>1072</v>
+      </c>
+      <c r="B1073">
+        <v>2</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1073" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E1073" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1072","2","yes","ஆம்"),</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <f t="shared" si="33"/>
+        <v>1073</v>
+      </c>
+      <c r="B1074">
+        <v>3</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1074" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E1074" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1073","3","yes","Oui"),</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <f t="shared" si="33"/>
+        <v>1074</v>
+      </c>
+      <c r="B1075">
+        <v>4</v>
+      </c>
+      <c r="C1075" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1075" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E1075" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1074","4","yes","是的"),</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <f t="shared" si="33"/>
+        <v>1075</v>
+      </c>
+      <c r="B1076">
+        <v>5</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1076" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E1076" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1075","5","yes","はい"),</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <f t="shared" si="33"/>
+        <v>1076</v>
+      </c>
+      <c r="B1077">
+        <v>6</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1077" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E1077" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1076","6","yes","Sim"),</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <f t="shared" si="33"/>
+        <v>1077</v>
+      </c>
+      <c r="B1078">
+        <v>7</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1078" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E1078" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1077","7","yes","हाँ"),</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <f t="shared" si="33"/>
+        <v>1078</v>
+      </c>
+      <c r="B1079">
+        <v>8</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1079" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E1079" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1078","8","yes","Да"),</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <f t="shared" si="33"/>
+        <v>1079</v>
+      </c>
+      <c r="B1080">
+        <v>9</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E1080" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>("1079","9","yes","Sí"),</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <f t="shared" si="33"/>
+        <v>1080</v>
+      </c>
+      <c r="B1081">
+        <v>10</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E1081" s="1" t="str">
+        <f t="shared" ref="E1081:E1091" si="34">CONCATENATE("(",CHAR(34),A1081,CHAR(34),",",CHAR(34),B1081,CHAR(34),",",CHAR(34),C1081,CHAR(34),",",CHAR(34),D1081,CHAR(34),"),")</f>
+        <v>("1080","10","yes","نعم"),</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <f t="shared" si="33"/>
+        <v>1081</v>
+      </c>
+      <c r="B1082">
+        <v>1</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1082" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E1082" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1081","1","no","No"),</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <f t="shared" si="33"/>
+        <v>1082</v>
+      </c>
+      <c r="B1083">
+        <v>2</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E1083" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1082","2","no","இல்லை"),</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <f t="shared" si="33"/>
+        <v>1083</v>
+      </c>
+      <c r="B1084">
+        <v>3</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1084" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E1084" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1083","3","no","non"),</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <f t="shared" si="33"/>
+        <v>1084</v>
+      </c>
+      <c r="B1085">
+        <v>4</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1085" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E1085" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1084","4","no","不"),</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <f t="shared" si="33"/>
+        <v>1085</v>
+      </c>
+      <c r="B1086">
+        <v>5</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1086" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1086" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1085","5","no","não"),</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <f t="shared" si="33"/>
+        <v>1086</v>
+      </c>
+      <c r="B1087">
+        <v>6</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1087" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E1087" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1086","6","no","não"),</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <f t="shared" si="33"/>
+        <v>1087</v>
+      </c>
+      <c r="B1088">
+        <v>7</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1088" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E1088" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1087","7","no","नहीं"),</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <f t="shared" si="33"/>
+        <v>1088</v>
+      </c>
+      <c r="B1089">
+        <v>8</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1089" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E1089" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1088","8","no","нет"),</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <f t="shared" si="33"/>
+        <v>1089</v>
+      </c>
+      <c r="B1090">
+        <v>9</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1090" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E1090" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1089","9","no","no"),</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <f t="shared" si="33"/>
+        <v>1090</v>
+      </c>
+      <c r="B1091">
+        <v>10</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1091" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E1091" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1090","10","no","رقم"),</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1092" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="1053" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1053" s="5" t="s">
+    <row r="1093" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1093" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1054" s="5" t="s">
+    <row r="1094" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1094" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1055" s="5" t="s">
+    <row r="1095" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1095" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1056" s="4" t="s">
+    <row r="1096" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1096" s="4" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1057" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1057" s="5" t="s">
+    <row r="1097" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1097" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="1058" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1058" s="5" t="s">
+    <row r="1098" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1098" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="1059" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1059" s="5" t="s">
+    <row r="1099" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1099" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="1060" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1060" s="5" t="s">
+    <row r="1100" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1100" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="1061" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1061" s="1" t="s">
+    <row r="1101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1101" s="1" t="s">
         <v>675</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE7AB0-EA0F-6E4A-9B57-A3A161EC0E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28562564-C79E-D44B-9E0E-38B037012BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="660" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="1152">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -3340,6 +3340,168 @@
   </si>
   <si>
     <t>رقم</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>தீர்க்கப்பட்டது</t>
+  </si>
+  <si>
+    <t>Решено</t>
+  </si>
+  <si>
+    <t>Résolu</t>
+  </si>
+  <si>
+    <t>解决了</t>
+  </si>
+  <si>
+    <t>解決済み</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
+  </si>
+  <si>
+    <t>हल किया</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
+  </si>
+  <si>
+    <t>تم حلها</t>
+  </si>
+  <si>
+    <t>امام</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>Ahead</t>
+  </si>
+  <si>
+    <t>adelante</t>
+  </si>
+  <si>
+    <t>आगे</t>
+  </si>
+  <si>
+    <t>முன்னாடி</t>
+  </si>
+  <si>
+    <t>en avant</t>
+  </si>
+  <si>
+    <t>先</t>
+  </si>
+  <si>
+    <t>先に</t>
+  </si>
+  <si>
+    <t>à frente</t>
+  </si>
+  <si>
+    <t>предстоящий</t>
+  </si>
+  <si>
+    <t>tally</t>
+  </si>
+  <si>
+    <t>Tally</t>
+  </si>
+  <si>
+    <t>подсчитывать</t>
+  </si>
+  <si>
+    <t>contar</t>
+  </si>
+  <si>
+    <t>集計する</t>
+  </si>
+  <si>
+    <t>相符</t>
+  </si>
+  <si>
+    <t>எண்ணிக்கை</t>
+  </si>
+  <si>
+    <t>गणना</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>حصيلة</t>
+  </si>
+  <si>
+    <t>unaccounted</t>
+  </si>
+  <si>
+    <t>Unaccounted</t>
+  </si>
+  <si>
+    <t>في عداد المفقودين</t>
+  </si>
+  <si>
+    <t>no contabilizado</t>
+  </si>
+  <si>
+    <t>बेहिसाब</t>
+  </si>
+  <si>
+    <t>கணக்கில் காட்டப்படாத</t>
+  </si>
+  <si>
+    <t>inexpliqué</t>
+  </si>
+  <si>
+    <t>下落不明</t>
+  </si>
+  <si>
+    <t>行方不明</t>
+  </si>
+  <si>
+    <t>não contabilizado</t>
+  </si>
+  <si>
+    <t>неучтенный</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Бумажник</t>
+  </si>
+  <si>
+    <t>Carteira</t>
+  </si>
+  <si>
+    <t>பணப்பை</t>
+  </si>
+  <si>
+    <t>Porte monnaie</t>
+  </si>
+  <si>
+    <t>钱包</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>बटुआ</t>
+  </si>
+  <si>
+    <t>Cartera</t>
+  </si>
+  <si>
+    <t>محفظة</t>
   </si>
 </sst>
 </file>
@@ -4261,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1101"/>
+  <dimension ref="A1:F1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1064" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1096" sqref="D1096"/>
+    <sheetView tabSelected="1" topLeftCell="A1117" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1144" sqref="D1144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23797,7 +23959,7 @@
     </row>
     <row r="1028" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1028">
-        <f t="shared" ref="A1028:A1091" si="33">A1027+1</f>
+        <f t="shared" ref="A1028:A1092" si="33">A1027+1</f>
         <v>1027</v>
       </c>
       <c r="B1028">
@@ -24817,7 +24979,7 @@
         <v>1082</v>
       </c>
       <c r="E1081" s="1" t="str">
-        <f t="shared" ref="E1081:E1091" si="34">CONCATENATE("(",CHAR(34),A1081,CHAR(34),",",CHAR(34),B1081,CHAR(34),",",CHAR(34),C1081,CHAR(34),",",CHAR(34),D1081,CHAR(34),"),")</f>
+        <f t="shared" ref="E1081:E1141" si="34">CONCATENATE("(",CHAR(34),A1081,CHAR(34),",",CHAR(34),B1081,CHAR(34),",",CHAR(34),C1081,CHAR(34),",",CHAR(34),D1081,CHAR(34),"),")</f>
         <v>("1080","10","yes","نعم"),</v>
       </c>
     </row>
@@ -25012,52 +25174,1002 @@
       </c>
     </row>
     <row r="1092" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1092" s="1" t="s">
+      <c r="A1092">
+        <f t="shared" si="33"/>
+        <v>1091</v>
+      </c>
+      <c r="B1092">
+        <v>1</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1092" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E1092" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1091","1","solved","Solved"),</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <f t="shared" ref="A1093:A1141" si="35">A1092+1</f>
+        <v>1092</v>
+      </c>
+      <c r="B1093">
+        <v>2</v>
+      </c>
+      <c r="C1093" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1093" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1093" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1092","2","solved","தீர்க்கப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <f t="shared" si="35"/>
+        <v>1093</v>
+      </c>
+      <c r="B1094">
+        <v>3</v>
+      </c>
+      <c r="C1094" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1094" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1094" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1093","3","solved","Résolu"),</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <f t="shared" si="35"/>
+        <v>1094</v>
+      </c>
+      <c r="B1095">
+        <v>4</v>
+      </c>
+      <c r="C1095" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1095" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E1095" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1094","4","solved","解决了"),</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <f t="shared" si="35"/>
+        <v>1095</v>
+      </c>
+      <c r="B1096">
+        <v>5</v>
+      </c>
+      <c r="C1096" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1096" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E1096" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1095","5","solved","解決済み"),</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <f t="shared" si="35"/>
+        <v>1096</v>
+      </c>
+      <c r="B1097">
+        <v>6</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1097" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E1097" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1096","6","solved","Resolvido"),</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <f t="shared" si="35"/>
+        <v>1097</v>
+      </c>
+      <c r="B1098">
+        <v>7</v>
+      </c>
+      <c r="C1098" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1098" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E1098" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1097","7","solved","हल किया"),</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <f t="shared" si="35"/>
+        <v>1098</v>
+      </c>
+      <c r="B1099">
+        <v>8</v>
+      </c>
+      <c r="C1099" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1099" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E1099" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1098","8","solved","Решено"),</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <f t="shared" si="35"/>
+        <v>1099</v>
+      </c>
+      <c r="B1100">
+        <v>9</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1100" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E1100" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1099","9","solved","Resuelto"),</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <f t="shared" si="35"/>
+        <v>1100</v>
+      </c>
+      <c r="B1101">
+        <v>10</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E1101" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1100","10","solved","تم حلها"),</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <f t="shared" si="35"/>
+        <v>1101</v>
+      </c>
+      <c r="B1102">
+        <v>1</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1102" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E1102" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1101","1","ahead","Ahead"),</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <f t="shared" si="35"/>
+        <v>1102</v>
+      </c>
+      <c r="B1103">
+        <v>2</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E1103" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1102","2","ahead","முன்னாடி"),</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <f t="shared" si="35"/>
+        <v>1103</v>
+      </c>
+      <c r="B1104">
+        <v>3</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E1104" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1103","3","ahead","en avant"),</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <f t="shared" si="35"/>
+        <v>1104</v>
+      </c>
+      <c r="B1105">
+        <v>4</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E1105" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1104","4","ahead","先"),</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <f t="shared" si="35"/>
+        <v>1105</v>
+      </c>
+      <c r="B1106">
+        <v>5</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E1106" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1105","5","ahead","先に"),</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <f t="shared" si="35"/>
+        <v>1106</v>
+      </c>
+      <c r="B1107">
+        <v>6</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E1107" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1106","6","ahead","à frente"),</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <f t="shared" si="35"/>
+        <v>1107</v>
+      </c>
+      <c r="B1108">
+        <v>7</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E1108" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1107","7","ahead","आगे"),</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <f t="shared" si="35"/>
+        <v>1108</v>
+      </c>
+      <c r="B1109">
+        <v>8</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E1109" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1108","8","ahead","предстоящий"),</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <f t="shared" si="35"/>
+        <v>1109</v>
+      </c>
+      <c r="B1110">
+        <v>9</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E1110" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1109","9","ahead","adelante"),</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <f t="shared" si="35"/>
+        <v>1110</v>
+      </c>
+      <c r="B1111">
+        <v>10</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E1111" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1110","10","ahead","امام"),</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <f t="shared" si="35"/>
+        <v>1111</v>
+      </c>
+      <c r="B1112">
+        <v>1</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1112" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1111","1","tally","Tally"),</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <f t="shared" si="35"/>
+        <v>1112</v>
+      </c>
+      <c r="B1113">
+        <v>2</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E1113" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1112","2","tally","எண்ணிக்கை"),</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <f t="shared" si="35"/>
+        <v>1113</v>
+      </c>
+      <c r="B1114">
+        <v>3</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E1114" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1113","3","tally","எண்ணிக்கை"),</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <f t="shared" si="35"/>
+        <v>1114</v>
+      </c>
+      <c r="B1115">
+        <v>4</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E1115" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1114","4","tally","相符"),</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <f t="shared" si="35"/>
+        <v>1115</v>
+      </c>
+      <c r="B1116">
+        <v>5</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E1116" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1115","5","tally","集計する"),</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <f t="shared" si="35"/>
+        <v>1116</v>
+      </c>
+      <c r="B1117">
+        <v>6</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1117" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1116","6","tally","contar"),</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <f t="shared" si="35"/>
+        <v>1117</v>
+      </c>
+      <c r="B1118">
+        <v>7</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1118" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1117","7","tally","गणना"),</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <f t="shared" si="35"/>
+        <v>1118</v>
+      </c>
+      <c r="B1119">
+        <v>8</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1119" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1118","8","tally","подсчитывать"),</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <f t="shared" si="35"/>
+        <v>1119</v>
+      </c>
+      <c r="B1120">
+        <v>9</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E1120" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1119","9","tally","cuenta"),</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <f t="shared" si="35"/>
+        <v>1120</v>
+      </c>
+      <c r="B1121">
+        <v>10</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E1121" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1120","10","tally","حصيلة"),</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <f t="shared" si="35"/>
+        <v>1121</v>
+      </c>
+      <c r="B1122">
+        <v>1</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1122" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1121","1","unaccounted","Unaccounted"),</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <f t="shared" si="35"/>
+        <v>1122</v>
+      </c>
+      <c r="B1123">
+        <v>2</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E1123" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1122","2","unaccounted","கணக்கில் காட்டப்படாத"),</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <f t="shared" si="35"/>
+        <v>1123</v>
+      </c>
+      <c r="B1124">
+        <v>3</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1124" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1123","3","unaccounted","inexpliqué"),</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <f t="shared" si="35"/>
+        <v>1124</v>
+      </c>
+      <c r="B1125">
+        <v>4</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E1125" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1124","4","unaccounted","下落不明"),</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <f t="shared" si="35"/>
+        <v>1125</v>
+      </c>
+      <c r="B1126">
+        <v>5</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E1126" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1125","5","unaccounted","行方不明"),</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <f t="shared" si="35"/>
+        <v>1126</v>
+      </c>
+      <c r="B1127">
+        <v>6</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E1127" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1126","6","unaccounted","não contabilizado"),</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <f t="shared" si="35"/>
+        <v>1127</v>
+      </c>
+      <c r="B1128">
+        <v>7</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1128" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1127","7","unaccounted","बेहिसाब"),</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <f t="shared" si="35"/>
+        <v>1128</v>
+      </c>
+      <c r="B1129">
+        <v>8</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E1129" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1128","8","unaccounted","неучтенный"),</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <f t="shared" si="35"/>
+        <v>1129</v>
+      </c>
+      <c r="B1130">
+        <v>9</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1130" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1129","9","unaccounted","no contabilizado"),</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <f t="shared" si="35"/>
+        <v>1130</v>
+      </c>
+      <c r="B1131">
+        <v>10</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E1131" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1130","10","unaccounted","في عداد المفقودين"),</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <f t="shared" si="35"/>
+        <v>1131</v>
+      </c>
+      <c r="B1132">
+        <v>1</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E1132" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1131","1","wallet","Wallet"),</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <f t="shared" si="35"/>
+        <v>1132</v>
+      </c>
+      <c r="B1133">
+        <v>2</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E1133" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1132","2","wallet","பணப்பை"),</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <f t="shared" si="35"/>
+        <v>1133</v>
+      </c>
+      <c r="B1134">
+        <v>3</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E1134" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1133","3","wallet","Porte monnaie"),</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <f t="shared" si="35"/>
+        <v>1134</v>
+      </c>
+      <c r="B1135">
+        <v>4</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E1135" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1134","4","wallet","钱包"),</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <f t="shared" si="35"/>
+        <v>1135</v>
+      </c>
+      <c r="B1136">
+        <v>5</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E1136" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1135","5","wallet","財布"),</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <f t="shared" si="35"/>
+        <v>1136</v>
+      </c>
+      <c r="B1137">
+        <v>6</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E1137" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1136","6","wallet","Carteira"),</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <f t="shared" si="35"/>
+        <v>1137</v>
+      </c>
+      <c r="B1138">
+        <v>7</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1138" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1137","7","wallet","बटुआ"),</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <f t="shared" si="35"/>
+        <v>1138</v>
+      </c>
+      <c r="B1139">
+        <v>8</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1139" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1138","8","wallet","Бумажник"),</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <f t="shared" si="35"/>
+        <v>1139</v>
+      </c>
+      <c r="B1140">
+        <v>9</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E1140" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1139","9","wallet","Cartera"),</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <f t="shared" si="35"/>
+        <v>1140</v>
+      </c>
+      <c r="B1141">
+        <v>10</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E1141" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>("1140","10","wallet","محفظة"),</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1142" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="1093" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1093" s="5" t="s">
+    <row r="1143" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1143" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="1094" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1094" s="5" t="s">
+    <row r="1144" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1144" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="1095" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1095" s="5" t="s">
+    <row r="1145" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1145" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="1096" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1096" s="4" t="s">
+    <row r="1146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1146" s="4" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1097" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1097" s="5" t="s">
+    <row r="1147" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1147" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="1098" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1098" s="5" t="s">
+    <row r="1148" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1148" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="1099" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1099" s="5" t="s">
+    <row r="1149" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1149" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="1100" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1100" s="5" t="s">
+    <row r="1150" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1150" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="1101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1101" s="1" t="s">
+    <row r="1151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1151" s="1" t="s">
         <v>675</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4FE1D-2161-7D4A-BC29-34AB966AA994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37761B15-E200-2A42-877C-611FD96BF8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="660" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1950">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -5279,6 +5279,624 @@
   <si>
     <t>баланс</t>
   </si>
+  <si>
+    <t>Google API: To integrate google maps and google based apps in your application.</t>
+  </si>
+  <si>
+    <t>configGoogleApi</t>
+  </si>
+  <si>
+    <t>واجهة برمجة تطبيقات Google: لدمج خرائط Google والتطبيقات المستندة إلى Google في تطبيقك.</t>
+  </si>
+  <si>
+    <t>API de Google: para integrar Google Maps y aplicaciones basadas en Google en su aplicación.</t>
+  </si>
+  <si>
+    <t>கூகுள் ஏபிஐ: உங்கள் பயன்பாட்டில் கூகுள் மேப்ஸ் மற்றும் கூகுள் சார்ந்த பயன்பாடுகளை ஒருங்கிணைக்க.</t>
+  </si>
+  <si>
+    <t>API Google : pour intégrer Google Maps et des applications basées sur Google dans votre application.</t>
+  </si>
+  <si>
+    <t>Google API：在您的应用程序中集成谷歌地图和基于谷歌的应用程序。</t>
+  </si>
+  <si>
+    <t>Google API: Google マップと Google ベースのアプリをアプリケーションに統合します。</t>
+  </si>
+  <si>
+    <t>API do Google: Para integrar o Google Maps e aplicativos baseados no Google em seu aplicativo.</t>
+  </si>
+  <si>
+    <t>गूगल एपीआई: अपने आवेदन में गूगल मैप्स और गूगल आधारित ऐप्स को एकीकृत करने के लिए।</t>
+  </si>
+  <si>
+    <t>API Google: для интеграции карт Google и приложений на основе Google в ваше приложение.</t>
+  </si>
+  <si>
+    <t>configWebDefaults</t>
+  </si>
+  <si>
+    <t>Web defauts: This is the core crux which decides how your application looks. You can leave text boxes with a slash(/) if not required or to disable that feature.</t>
+  </si>
+  <si>
+    <t>Веб-умолчания: это ключевой момент, который определяет, как выглядит ваше приложение. Вы можете оставить текстовые поля с косой чертой (/), если это не требуется, или отключить эту функцию.</t>
+  </si>
+  <si>
+    <t>वेब डिफॉल्ट्स: यह कोर क्रूक्स है जो तय करता है कि आपका एप्लिकेशन कैसा दिखता है। यदि आवश्यक न हो या उस सुविधा को अक्षम करने के लिए आप टेक्स्ट बॉक्स को स्लैश (/) के साथ छोड़ सकते हैं।</t>
+  </si>
+  <si>
+    <t>Padrões da Web: Este é o ponto crucial que decide a aparência do seu aplicativo. Você pode deixar as caixas de texto com uma barra (/) se não for necessário ou para desabilitar esse recurso.</t>
+  </si>
+  <si>
+    <t>இணைய இயல்புநிலைகள்: இது உங்கள் பயன்பாடு எப்படி இருக்கும் என்பதை தீர்மானிக்கும் முக்கிய அம்சமாகும். தேவையில்லாத பட்சத்தில் அல்லது அந்த அம்சத்தை முடக்க, நீங்கள் உரைப் பெட்டிகளை சாய்வு(/) உடன் விடலாம்.</t>
+  </si>
+  <si>
+    <t>Valeurs par défaut Web : il s'agit du cœur qui détermine l'apparence de votre application. Vous pouvez laisser les zones de texte avec une barre oblique (/) si cela n'est pas nécessaire ou pour désactiver cette fonctionnalité.</t>
+  </si>
+  <si>
+    <t>Web 默认值：这是决定应用程序外观的核心关键。 如果不需要或禁用该功能，您可以在文本框中留下斜线 (/)。</t>
+  </si>
+  <si>
+    <t>Web デフォルト: これは、アプリケーションの外観を決定する重要な要素です。 不要な場合、またはその機能を無効にする場合は、テキスト ボックスをスラッシュ (/) のままにしておくことができます。</t>
+  </si>
+  <si>
+    <t>Valores predeterminados de la web: este es el quid central que decide cómo se ve su aplicación. Puede dejar los cuadros de texto con una barra inclinada (/) si no es necesario o para desactivar esa función.</t>
+  </si>
+  <si>
+    <t>افتراضات الويب: هذا هو جوهر جوهر الذي يقرر كيف يبدو التطبيق الخاص بك. يمكنك ترك مربعات النص بشرطة مائلة (/) إذا لم يكن ذلك مطلوبًا أو لتعطيل هذه الميزة.</t>
+  </si>
+  <si>
+    <t>AWS: Here you can declare your AWS S3 bucket credentials, to load images and videos in your application. AWS is lightning fast. Note: Stay safe that all your declared credentials are end to end encrypted.</t>
+  </si>
+  <si>
+    <t>configAwsS3</t>
+  </si>
+  <si>
+    <t>AWS: يمكنك هنا إعلان بيانات اعتماد حاوية AWS S3 لتحميل الصور ومقاطع الفيديو في تطبيقك. AWS سريع للغاية. ملاحظة: حافظ على سلامتك من أن جميع بيانات الاعتماد المعلنة الخاصة بك مشفرة من النهاية إلى النهاية.</t>
+  </si>
+  <si>
+    <t>AWS: aquí puede declarar sus credenciales de depósito de AWS S3 para cargar imágenes y videos en su aplicación. AWS es ultrarrápido. Nota: Manténgase seguro de que todas sus credenciales declaradas están encriptadas de extremo a extremo.</t>
+  </si>
+  <si>
+    <t>AWS: ここで、AWS S3 バケットの資格情報を宣言して、アプリケーションに画像と動画をロードできます。 AWS は超高速です。 注: 宣言された資格情報はすべてエンド ツー エンドで暗号化されているため、安全を確保してください。</t>
+  </si>
+  <si>
+    <t>AWS: உங்கள் விண்ணப்பத்தில் படங்கள் மற்றும் வீடியோக்களை ஏற்றுவதற்கு, உங்கள் AWS S3 பக்கெட் சான்றுகளை இங்கே அறிவிக்கலாம். AWS மின்னல் வேகமானது. குறிப்பு: உங்களின் அறிவிக்கப்பட்ட நற்சான்றிதழ்கள் அனைத்தும் இறுதி முதல் இறுதி வரை குறியாக்கம் செய்யப்பட்டவை என்பதில் பாதுகாப்பாக இருங்கள்.</t>
+  </si>
+  <si>
+    <t>AWS : Ici, vous pouvez déclarer vos informations d'identification de compartiment AWS S3, pour charger des images et des vidéos dans votre application. AWS est rapide comme l'éclair. Remarque : assurez-vous que toutes vos informations d'identification déclarées sont cryptées de bout en bout.</t>
+  </si>
+  <si>
+    <t>AWS：您可以在此处声明您的 AWS S3 存储桶凭证，以在您的应用程序中加载图像和视频。 AWS 快如闪电。 注意：请确保您声明的所有凭据都是端到端加密的。</t>
+  </si>
+  <si>
+    <t>AWS: aqui você pode declarar suas credenciais de bucket do AWS S3 para carregar imagens e vídeos em seu aplicativo. AWS é extremamente rápido. Nota: Fique seguro de que todas as suas credenciais declaradas são criptografadas de ponta a ponta.</t>
+  </si>
+  <si>
+    <t>एडब्ल्यूएस: यहां आप अपने आवेदन में छवियों और वीडियो को लोड करने के लिए अपने एडब्ल्यूएस एस3 बकेट क्रेडेंशियल घोषित कर सकते हैं। एडब्ल्यूएस तेज बिजली कर रहा है। नोट: सुरक्षित रहें कि आपके सभी घोषित क्रेडेंशियल एंड टू एंड एन्क्रिप्टेड हैं।</t>
+  </si>
+  <si>
+    <t>AWS: здесь вы можете объявить свои учетные данные корзины AWS S3, чтобы загружать изображения и видео в ваше приложение. AWS работает молниеносно. Примечание. Будьте уверены, что все ваши заявленные учетные данные зашифрованы сквозным шифрованием.</t>
+  </si>
+  <si>
+    <t>Social media: Allow your users to view your walls and blogs like facebook, Twitter, LinkedIn and Instagram.</t>
+  </si>
+  <si>
+    <t>configSocialMedia</t>
+  </si>
+  <si>
+    <t>Социальные сети: позвольте вашим пользователям просматривать ваши стены и блоги, такие как facebook, Twitter, LinkedIn и Instagram.</t>
+  </si>
+  <si>
+    <t>सोशल मीडिया: अपने उपयोगकर्ताओं को फेसबुक, ट्विटर, लिंक्डइन और इंस्टाग्राम जैसी अपनी दीवारों और ब्लॉगों को देखने की अनुमति दें।</t>
+  </si>
+  <si>
+    <t>Mídias sociais: permita que seus usuários visualizem seus murais e blogs como facebook, Twitter, LinkedIn e Instagram.</t>
+  </si>
+  <si>
+    <t>Médias sociaux : permettez à vos utilisateurs de voir vos murs et vos blogs comme Facebook, Twitter, LinkedIn et Instagram.</t>
+  </si>
+  <si>
+    <t>சமூக ஊடகங்கள்: உங்கள் சுவர்கள் மற்றும் facebook, Twitter, LinkedIn மற்றும் Instagram போன்ற வலைப்பதிவுகளைப் பார்க்க உங்கள் பயனர்களை அனுமதிக்கவும்.</t>
+  </si>
+  <si>
+    <t>社交媒体：允许您的用户查看您的墙和博客，例如 facebook、Twitter、LinkedIn 和 Instagram。</t>
+  </si>
+  <si>
+    <t>ソーシャル メディア: Facebook、Twitter、LinkedIn、Instagram などのウォールやブログをユーザーが閲覧できるようにします。</t>
+  </si>
+  <si>
+    <t>Redes sociales: Permita que sus usuarios vean sus muros y blogs como Facebook, Twitter, LinkedIn e Instagram.</t>
+  </si>
+  <si>
+    <t>وسائل التواصل الاجتماعي: اسمح لمستخدميك بمشاهدة جدرانك ومدوناتك مثل facebook و Twitter و LinkedIn و Instagram.</t>
+  </si>
+  <si>
+    <t>Set users to handle and maintain your application</t>
+  </si>
+  <si>
+    <t>setUsersToHandleAndMaintainYourApp</t>
+  </si>
+  <si>
+    <t>تعيين المستخدمين للتعامل مع التطبيق الخاص بك وصيانته</t>
+  </si>
+  <si>
+    <t>Configure a los usuarios para que manejen y mantengan su aplicación</t>
+  </si>
+  <si>
+    <t>アプリケーションを処理および保守するユーザーを設定する</t>
+  </si>
+  <si>
+    <t>உங்கள் பயன்பாட்டைக் கையாளவும் பராமரிக்கவும் பயனர்களை அமைக்கவும்</t>
+  </si>
+  <si>
+    <t>Définir les utilisateurs pour gérer et maintenir votre application</t>
+  </si>
+  <si>
+    <t>设置用户来处理和维护您的应用程序</t>
+  </si>
+  <si>
+    <t>Defina os usuários para lidar e manter seu aplicativo</t>
+  </si>
+  <si>
+    <t>अपने एप्लिकेशन को संभालने और बनाए रखने के लिए उपयोगकर्ताओं को सेट करें</t>
+  </si>
+  <si>
+    <t>Настройте пользователей для обработки и поддержки вашего приложения</t>
+  </si>
+  <si>
+    <t>Super Admin is added by default. Create access levels that fits your organization</t>
+  </si>
+  <si>
+    <t>superAdminIsAddedByDefault</t>
+  </si>
+  <si>
+    <t>Суперадминистратор добавляется по умолчанию. Создавайте уровни доступа, соответствующие вашей организации</t>
+  </si>
+  <si>
+    <t>सुपर एडमिन डिफ़ॉल्ट रूप से जोड़ा जाता है। एक्सेस स्तर बनाएं जो आपके संगठन के अनुकूल हों</t>
+  </si>
+  <si>
+    <t>சூப்பர் அட்மின் இயல்பாக சேர்க்கப்படும். உங்கள் நிறுவனத்திற்கு ஏற்ற அணுகல் நிலைகளை உருவாக்கவும்</t>
+  </si>
+  <si>
+    <t>Le super administrateur est ajouté par défaut. Créez des niveaux d'accès adaptés à votre organisation</t>
+  </si>
+  <si>
+    <t>默认添加超级管理员。 创建适合您组织的访问级别</t>
+  </si>
+  <si>
+    <t>スーパー管理者はデフォルトで追加されます。 組織に適したアクセス レベルを作成する</t>
+  </si>
+  <si>
+    <t>O Super Admin é adicionado por padrão. Crie níveis de acesso adequados à sua organização</t>
+  </si>
+  <si>
+    <t>El superadministrador se agrega de forma predeterminada. Cree niveles de acceso que se ajusten a su organización</t>
+  </si>
+  <si>
+    <t>تتم إضافة المشرف المتميز افتراضيًا. أنشئ مستويات وصول تناسب مؤسستك</t>
+  </si>
+  <si>
+    <t>Super Admin has access to control entire application (settings &amp; layout design). Confirm before giving access to a user.</t>
+  </si>
+  <si>
+    <t>superAdminHasAccessToControl</t>
+  </si>
+  <si>
+    <t>يتمتع المشرف المتميز بحق الوصول للتحكم في التطبيق بالكامل (الإعدادات وتصميم التخطيط). قم بالتأكيد قبل منح حق الوصول للمستخدم.</t>
+  </si>
+  <si>
+    <t>O Super Admin tem acesso para controlar todo o aplicativo (configurações e design de layout). Confirme antes de dar acesso a um usuário.</t>
+  </si>
+  <si>
+    <t>சூப்பர் அட்மினுக்கு முழு பயன்பாட்டையும் (அமைப்புகள் மற்றும் தளவமைப்பு வடிவமைப்பு) கட்டுப்படுத்தும் அணுகல் உள்ளது. பயனருக்கு அணுகலை வழங்குவதற்கு முன் உறுதிப்படுத்தவும்.</t>
+  </si>
+  <si>
+    <t>Le super administrateur a accès au contrôle de l'ensemble de l'application (paramètres et conception de la mise en page). Confirmez avant de donner accès à un utilisateur.</t>
+  </si>
+  <si>
+    <t>超级管理员有权控制整个应用程序（设置和布局设计）。 在授予用户访问权限之前进行确认。</t>
+  </si>
+  <si>
+    <t>スーパー管理者は、アプリケーション全体 (設定とレイアウト デザイン) を制御するアクセス権を持っています。 ユーザーにアクセス権を付与する前に確認してください。</t>
+  </si>
+  <si>
+    <t>सुपर एडमिन के पास संपूर्ण एप्लिकेशन (सेटिंग्स और लेआउट डिज़ाइन) को नियंत्रित करने की पहुंच है। किसी उपयोगकर्ता को एक्सेस देने से पहले पुष्टि करें।</t>
+  </si>
+  <si>
+    <t>Суперадминистратор имеет доступ к управлению всем приложением (настройками и дизайном макета). Подтвердите, прежде чем предоставить доступ пользователю.</t>
+  </si>
+  <si>
+    <t>El superadministrador tiene acceso para controlar toda la aplicación (configuración y diseño de diseño). Confirmar antes de dar acceso a un usuario.</t>
+  </si>
+  <si>
+    <t>CRUD operations are available (create, update and delete users) for Super Admin only</t>
+  </si>
+  <si>
+    <t>crudOperationsAreAvailable</t>
+  </si>
+  <si>
+    <t>Las operaciones CRUD están disponibles (crear, actualizar y eliminar usuarios) solo para superadministradores</t>
+  </si>
+  <si>
+    <t>Операции CRUD (создание, обновление и удаление пользователей) доступны только для суперадминистратора.</t>
+  </si>
+  <si>
+    <t>CRUD संचालन केवल सुपर व्यवस्थापक के लिए उपलब्ध हैं (उपयोगकर्ता बनाएं, अपडेट करें और हटाएं)</t>
+  </si>
+  <si>
+    <t>CRUD செயல்பாடுகள் (பயனர்களை உருவாக்குதல், புதுப்பித்தல் மற்றும் நீக்குதல்) Super Adminக்கு மட்டுமே கிடைக்கும்</t>
+  </si>
+  <si>
+    <t>Les opérations CRUD sont disponibles (créer, mettre à jour et supprimer des utilisateurs) pour le super administrateur uniquement</t>
+  </si>
+  <si>
+    <t>CRUD 操作（创建、更新和删除用户）仅适用于超级管理员</t>
+  </si>
+  <si>
+    <t>As operações CRUD estão disponíveis (criar, atualizar e excluir usuários) apenas para Super Admin</t>
+  </si>
+  <si>
+    <t>تتوفر عمليات CRUD (إنشاء المستخدمين وتحديثهم وحذفهم) للمشرف المتميز فقط</t>
+  </si>
+  <si>
+    <t>Edit user requires new password to be set for security purpose. Please inform the updated user on his/her new password.</t>
+  </si>
+  <si>
+    <t>editUserRequiresNewPassword</t>
+  </si>
+  <si>
+    <t>يتطلب تحرير المستخدم كلمة مرور جديدة ليتم تعيينها لأغراض أمنية. يرجى إبلاغ المستخدم المحدث بكلمة المرور الجديدة الخاصة به.</t>
+  </si>
+  <si>
+    <t>Editar usuário requer que uma nova senha seja definida para fins de segurança. Por favor, informe o usuário atualizado sobre sua nova senha.</t>
+  </si>
+  <si>
+    <t>編集ユーザーは、セキュリティ上の目的で新しいパスワードを設定する必要があります。 更新されたユーザーに新しいパスワードを通知してください。</t>
+  </si>
+  <si>
+    <t>திருத்தும் பயனருக்கு பாதுகாப்பு நோக்கத்திற்காக புதிய கடவுச்சொல்லை அமைக்க வேண்டும். புதுப்பிக்கப்பட்ட பயனருக்கு அவரின் புதிய கடவுச்சொல் குறித்து தெரிவிக்கவும்.</t>
+  </si>
+  <si>
+    <t>Modifier l'utilisateur nécessite la définition d'un nouveau mot de passe pour des raisons de sécurité. Veuillez informer l'utilisateur mis à jour de son nouveau mot de passe.</t>
+  </si>
+  <si>
+    <t>出于安全目的，编辑用户需要设置新密码。 请告知更新的用户他/她的新密码。</t>
+  </si>
+  <si>
+    <t>संपादित करें उपयोगकर्ता को सुरक्षा उद्देश्य के लिए नया पासवर्ड सेट करने की आवश्यकता है। कृपया अपडेट किए गए उपयोगकर्ता को उसके नए पासवर्ड के बारे में सूचित करें।</t>
+  </si>
+  <si>
+    <t>Для редактирования пользователя требуется установить новый пароль в целях безопасности. Пожалуйста, сообщите обновленному пользователю его/ее новый пароль.</t>
+  </si>
+  <si>
+    <t>Editar usuario requiere que se establezca una nueva contraseña por motivos de seguridad. Por favor informe al usuario actualizado sobre su nueva contraseña.</t>
+  </si>
+  <si>
+    <t>Once users created, they can login on clicking the top right dropdown menu in global header</t>
+  </si>
+  <si>
+    <t>onceUsersCreated</t>
+  </si>
+  <si>
+    <t>Una vez creados los usuarios, pueden iniciar sesión haciendo clic en el menú desplegable superior derecho en el encabezado global</t>
+  </si>
+  <si>
+    <t>После создания пользователи могут войти в систему, щелкнув раскрывающееся меню в правом верхнем углу в глобальном заголовке.</t>
+  </si>
+  <si>
+    <t>एक बार उपयोगकर्ता बनाने के बाद, वे वैश्विक शीर्षलेख में शीर्ष दाएं ड्रॉपडाउन मेनू पर क्लिक करके लॉगिन कर सकते हैं</t>
+  </si>
+  <si>
+    <t>பயனர்கள் உருவாக்கியதும், உலகளாவிய தலைப்பில் மேல் வலது கீழ்தோன்றும் மெனுவைக் கிளிக் செய்வதன் மூலம் அவர்கள் உள்நுழையலாம்</t>
+  </si>
+  <si>
+    <t>Une fois les utilisateurs créés, ils peuvent se connecter en cliquant sur le menu déroulant en haut à droite dans l'en-tête global</t>
+  </si>
+  <si>
+    <t>创建用户后，他们可以通过单击全局标题中右上角的下拉菜单登录</t>
+  </si>
+  <si>
+    <t>ユーザーが作成されると、グローバル ヘッダーの右上のドロップダウン メニューをクリックしてログインできます。</t>
+  </si>
+  <si>
+    <t>Depois que os usuários são criados, eles podem fazer login clicando no menu suspenso superior direito no cabeçalho global</t>
+  </si>
+  <si>
+    <t>بمجرد إنشاء المستخدمين ، يمكنهم تسجيل الدخول عند النقر فوق القائمة المنسدلة اليمنى العلوية في الرأس العام</t>
+  </si>
+  <si>
+    <t>AWS S3 bucket is used to access media files in your application.</t>
+  </si>
+  <si>
+    <t>awsS3BucketIsUsedTo</t>
+  </si>
+  <si>
+    <t>تُستخدم حاوية AWS S3 للوصول إلى ملفات الوسائط في تطبيقك.</t>
+  </si>
+  <si>
+    <t>O bucket do AWS S3 é usado para acessar arquivos de mídia em seu aplicativo.</t>
+  </si>
+  <si>
+    <t>AWS S3 バケットは、アプリケーション内のメディア ファイルにアクセスするために使用されます。</t>
+  </si>
+  <si>
+    <t>உங்கள் பயன்பாட்டில் உள்ள மீடியா கோப்புகளை அணுக AWS S3 பக்கெட் பயன்படுத்தப்படுகிறது.</t>
+  </si>
+  <si>
+    <t>Le compartiment AWS S3 est utilisé pour accéder aux fichiers multimédias dans votre application.</t>
+  </si>
+  <si>
+    <t>AWS S3 存储桶用于访问应用程序中的媒体文件。</t>
+  </si>
+  <si>
+    <t>AWS S3 बकेट का उपयोग आपके एप्लिकेशन में मीडिया फ़ाइलों तक पहुँचने के लिए किया जाता है।</t>
+  </si>
+  <si>
+    <t>Ведро AWS S3 используется для доступа к медиафайлам в вашем приложении.</t>
+  </si>
+  <si>
+    <t>El depósito de AWS S3 se utiliza para acceder a archivos multimedia en su aplicación.</t>
+  </si>
+  <si>
+    <t>These files can be maintained in your Gallery module with CRUD operations</t>
+  </si>
+  <si>
+    <t>theseFilesCanBeMaintained</t>
+  </si>
+  <si>
+    <t>Estos archivos se pueden mantener en su módulo de Galería con operaciones CRUD</t>
+  </si>
+  <si>
+    <t>Эти файлы можно хранить в модуле Галерея с помощью операций CRUD.</t>
+  </si>
+  <si>
+    <t>इन फ़ाइलों को सीआरयूडी संचालन के साथ आपके गैलरी मॉड्यूल में रखा जा सकता है</t>
+  </si>
+  <si>
+    <t>இந்த கோப்புகளை CRUD செயல்பாடுகளுடன் உங்கள் கேலரி தொகுதியில் பராமரிக்கலாம்</t>
+  </si>
+  <si>
+    <t>Ces fichiers peuvent être conservés dans votre module Galerie avec des opérations CRUD</t>
+  </si>
+  <si>
+    <t>这些文件可以通过 CRUD 操作在您的图库模块中维护</t>
+  </si>
+  <si>
+    <t>これらのファイルは、CRUD 操作を使用してギャラリー モジュールで維持できます。</t>
+  </si>
+  <si>
+    <t>Esses arquivos podem ser mantidos em seu módulo Galeria com operações CRUD</t>
+  </si>
+  <si>
+    <t>يمكن الاحتفاظ بهذه الملفات في وحدة المعرض الخاصة بك مع عمليات CRUD</t>
+  </si>
+  <si>
+    <t>pleseFollowTheSteps</t>
+  </si>
+  <si>
+    <t>Please follow the steps, clearly defined in the help content in config form</t>
+  </si>
+  <si>
+    <t>يرجى اتباع الخطوات المحددة بوضوح في محتوى التعليمات في نموذج التكوين</t>
+  </si>
+  <si>
+    <t>Por favor, siga os passos, claramente definidos no conteúdo de ajuda no formulário de configuração</t>
+  </si>
+  <si>
+    <t>構成フォームのヘルプ コンテンツで明確に定義されている手順に従ってください。</t>
+  </si>
+  <si>
+    <t>உள்ளமைவு வடிவத்தில் உள்ள உதவி உள்ளடக்கத்தில் தெளிவாக வரையறுக்கப்பட்டுள்ள படிகளைப் பின்பற்றவும்</t>
+  </si>
+  <si>
+    <t>Veuillez suivre les étapes, clairement définies dans le contenu de l'aide sous forme de configuration</t>
+  </si>
+  <si>
+    <t>请按照步骤，在配置表单的帮助内容中明确定义</t>
+  </si>
+  <si>
+    <t>कृपया चरणों का पालन करें, कॉन्फ़िगरेशन प्रपत्र में सहायता सामग्री में स्पष्ट रूप से परिभाषित किया गया है</t>
+  </si>
+  <si>
+    <t>Пожалуйста, следуйте инструкциям, четко определенным в справке в форме конфигурации.</t>
+  </si>
+  <si>
+    <t>Siga los pasos, claramente definidos en el contenido de ayuda en el formulario de configuración</t>
+  </si>
+  <si>
+    <t>Please take a backup of your credentials and keep them safe. Once forgotten or lost, it can never be brought back.</t>
+  </si>
+  <si>
+    <t>pleaseTakeBackupOfYour</t>
+  </si>
+  <si>
+    <t>Realice una copia de seguridad de sus credenciales y manténgalas seguras. Una vez olvidado o perdido, nunca se puede recuperar.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, сделайте резервную копию своих учетных данных и сохраните их в безопасности. Однажды забытое или потерянное, его уже невозможно вернуть.</t>
+  </si>
+  <si>
+    <t>कृपया अपने क्रेडेंशियल्स का बैकअप लें और उन्हें सुरक्षित रखें। एक बार भूल जाने या खो जाने के बाद, इसे कभी वापस नहीं लाया जा सकता है।</t>
+  </si>
+  <si>
+    <t>உங்கள் நற்சான்றிதழ்களை காப்புப் பிரதி எடுத்து அவற்றைப் பாதுகாப்பாக வைத்திருங்கள். ஒருமுறை மறந்துவிட்டாலோ அல்லது தொலைத்துவிட்டாலோ, அதை ஒருபோதும் திரும்பக் கொண்டுவர முடியாது.</t>
+  </si>
+  <si>
+    <t>Veuillez faire une sauvegarde de vos informations d'identification et les conserver en lieu sûr. Une fois oublié ou perdu, il ne pourra jamais être ramené.</t>
+  </si>
+  <si>
+    <t>请备份您的凭据并妥善保管。 一旦被遗忘或丢失，就再也无法找回。</t>
+  </si>
+  <si>
+    <t>資格情報のバックアップを取り、安全に保管してください。 一度忘れたり紛失したりすると、元に戻すことはできません。</t>
+  </si>
+  <si>
+    <t>Faça um backup de suas credenciais e mantenha-as seguras. Uma vez esquecido ou perdido, nunca pode ser trazido de volta.</t>
+  </si>
+  <si>
+    <t>يرجى أخذ نسخة احتياطية من بيانات الاعتماد الخاصة بك والاحتفاظ بها آمنة. بمجرد نسيانها أو فقدها ، لا يمكن إعادتها أبدًا.</t>
+  </si>
+  <si>
+    <t>You can maintain multiple buckets in your application, but can be viewed 1 at a time in AWS S3 module</t>
+  </si>
+  <si>
+    <t>youCanMaintainMultipleBuckets</t>
+  </si>
+  <si>
+    <t>يمكنك الاحتفاظ بالعديد من الحاويات في تطبيقك ، ولكن يمكن عرضها واحدة في كل مرة في وحدة AWS S3</t>
+  </si>
+  <si>
+    <t>Você pode manter vários buckets em seu aplicativo, mas pode ser visualizado um por vez no módulo AWS S3</t>
+  </si>
+  <si>
+    <t>アプリケーションで複数のバケットを維持できますが、AWS S3 モジュールで一度に 1 つずつ表示できます</t>
+  </si>
+  <si>
+    <t>உங்கள் பயன்பாட்டில் பல வாளிகளை நீங்கள் பராமரிக்கலாம், ஆனால் AWS S3 தொகுதியில் ஒரு நேரத்தில் 1 பார்க்க முடியும்</t>
+  </si>
+  <si>
+    <t>Vous pouvez gérer plusieurs compartiments dans votre application, mais vous pouvez les afficher 1 à la fois dans le module AWS S3</t>
+  </si>
+  <si>
+    <t>您可以在应用程序中维护多个存储桶，但可以在 AWS S3 模块中一次查看 1 个</t>
+  </si>
+  <si>
+    <t>आप अपने एप्लिकेशन में कई बकेट बनाए रख सकते हैं, लेकिन AWS S3 मॉड्यूल में एक बार में 1 देखा जा सकता है</t>
+  </si>
+  <si>
+    <t>Вы можете поддерживать несколько сегментов в своем приложении, но их можно просматривать по одному в модуле AWS S3.</t>
+  </si>
+  <si>
+    <t>Puede mantener varios cubos en su aplicación, pero se puede ver uno a la vez en el módulo AWS S3</t>
+  </si>
+  <si>
+    <t>We use signed URLs, to load your media files for security purpose</t>
+  </si>
+  <si>
+    <t>weUseSignedURLs</t>
+  </si>
+  <si>
+    <t>Usamos URL firmadas para cargar sus archivos multimedia por motivos de seguridad.</t>
+  </si>
+  <si>
+    <t>Мы используем подписанные URL-адреса для загрузки ваших медиафайлов в целях безопасности.</t>
+  </si>
+  <si>
+    <t>सुरक्षा उद्देश्य के लिए आपकी मीडिया फ़ाइलों को लोड करने के लिए हम हस्ताक्षरित URL का उपयोग करते हैं</t>
+  </si>
+  <si>
+    <t>பாதுகாப்பு நோக்கத்திற்காக உங்கள் மீடியா கோப்புகளை ஏற்ற, கையொப்பமிடப்பட்ட URLகளைப் பயன்படுத்துகிறோம்</t>
+  </si>
+  <si>
+    <t>Nous utilisons des URL signées pour charger vos fichiers multimédias à des fins de sécurité</t>
+  </si>
+  <si>
+    <t>为了安全起见，我们使用签名 URL 来加载您的媒体文件</t>
+  </si>
+  <si>
+    <t>セキュリティ上の目的で、署名付き URL を使用してメディア ファイルを読み込みます</t>
+  </si>
+  <si>
+    <t>Usamos URLs assinados para carregar seus arquivos de mídia para fins de segurança</t>
+  </si>
+  <si>
+    <t>نستخدم عناوين URL موقعة لتحميل ملفات الوسائط الخاصة بك لأغراض أمنية</t>
+  </si>
+  <si>
+    <t>You can copy the location of your file (from AWS s3 module) which can be placed in your config area for loading media files.</t>
+  </si>
+  <si>
+    <t>youCanCopyTheLocationOfYourFile</t>
+  </si>
+  <si>
+    <t>يمكنك نسخ موقع ملفك (من وحدة AWS s3) والذي يمكن وضعه في منطقة التكوين الخاصة بك لتحميل ملفات الوسائط.</t>
+  </si>
+  <si>
+    <t>Você pode copiar o local do seu arquivo (do módulo AWS s3) que pode ser colocado em sua área de configuração para carregar arquivos de mídia.</t>
+  </si>
+  <si>
+    <t>ファイルの場所を (AWS s3 モジュールから) コピーして、メディア ファイルをロードするための構成領域に配置できます。</t>
+  </si>
+  <si>
+    <t>உங்கள் கோப்பின் இருப்பிடத்தை (AWS s3 தொகுதியிலிருந்து) நகலெடுக்கலாம், இது மீடியா கோப்புகளை ஏற்றுவதற்கு உங்கள் கட்டமைப்பு பகுதியில் வைக்கப்படும்.</t>
+  </si>
+  <si>
+    <t>Vous pouvez copier l'emplacement de votre fichier (à partir du module AWS s3) qui peut être placé dans votre zone de configuration pour le chargement des fichiers multimédias.</t>
+  </si>
+  <si>
+    <t>您可以复制文件的位置（来自 AWS s3 模块），该位置可以放置在您的配置区域中以加载媒体文件。</t>
+  </si>
+  <si>
+    <t>आप अपनी फ़ाइल के स्थान की प्रतिलिपि बना सकते हैं (AWS s3 मॉड्यूल से) जिसे मीडिया फ़ाइलों को लोड करने के लिए आपके कॉन्फ़िगरेशन क्षेत्र में रखा जा सकता है।</t>
+  </si>
+  <si>
+    <t>Вы можете скопировать расположение вашего файла (из модуля AWS s3), который можно поместить в область конфигурации для загрузки медиафайлов.</t>
+  </si>
+  <si>
+    <t>Puede copiar la ubicación de su archivo (del módulo AWS s3) que se puede colocar en su área de configuración para cargar archivos multimedia.</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS3</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS4</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS5</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS6</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS7</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS8</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS9</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS10</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS11</t>
+  </si>
+  <si>
+    <t>forMoreDetailsAboutAwsS12</t>
+  </si>
+  <si>
+    <t>For more details about AWS S3 visit {link}</t>
+  </si>
+  <si>
+    <t>Para obtener más detalles sobre AWS S3, visite {link}</t>
+  </si>
+  <si>
+    <t>एडब्ल्यूएस एस3 के बारे में अधिक जानकारी के लिए {link} पर जाएं</t>
+  </si>
+  <si>
+    <t>Для получения более подробной информации об AWS S3 посетите {link}</t>
+  </si>
+  <si>
+    <t>AWS S3 பற்றிய கூடுதல் விவரங்களுக்கு {link} ஐப் பார்வையிடவும்</t>
+  </si>
+  <si>
+    <t>Pour plus de détails sur AWS S3, visitez {link}</t>
+  </si>
+  <si>
+    <t>有关 AWS S3 的更多详细信息，请访问 {link}</t>
+  </si>
+  <si>
+    <t>AWS S3 の詳細については、{link} をご覧ください。</t>
+  </si>
+  <si>
+    <t>Para obter mais detalhes sobre o AWS S3, visite {link}</t>
+  </si>
+  <si>
+    <t>لمزيد من التفاصيل حول AWS S3 ، تفضل بزيارة {link}</t>
+  </si>
 </sst>
 </file>
 
@@ -5287,7 +5905,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="[$-9000449]0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5481,6 +6099,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -5825,7 +6449,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5859,6 +6483,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -6214,10 +6839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1701"/>
+  <dimension ref="A1:F1881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D511" sqref="D511"/>
+    <sheetView tabSelected="1" topLeftCell="A1859" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1869" sqref="C1869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37714,7 +38339,7 @@
         <v>1700</v>
       </c>
       <c r="E1657" s="1" t="str">
-        <f t="shared" ref="E1657:E1691" si="52">CONCATENATE("(",CHAR(34),A1657,CHAR(34),",",CHAR(34),B1657,CHAR(34),",",CHAR(34),C1657,CHAR(34),",",CHAR(34),D1657,CHAR(34),"),")</f>
+        <f t="shared" ref="E1657:E1720" si="52">CONCATENATE("(",CHAR(34),A1657,CHAR(34),",",CHAR(34),B1657,CHAR(34),",",CHAR(34),C1657,CHAR(34),",",CHAR(34),D1657,CHAR(34),"),")</f>
         <v>("1656","6","doesNotHaveAccessToSettingsOnlyToApps","Não tem acesso às configurações, apenas aos aplicativos"),</v>
       </c>
     </row>
@@ -37929,7 +38554,7 @@
     </row>
     <row r="1669" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1669">
-        <f t="shared" ref="A1669:A1691" si="53">A1668+1</f>
+        <f t="shared" ref="A1669:A1732" si="53">A1668+1</f>
         <v>1668</v>
       </c>
       <c r="B1669">
@@ -38364,53 +38989,3473 @@
         <v>("1690","10","imageShownInGlobalHeader","ستظهر هذه الصورة أثناء تسجيل المستخدم في أعلى يمين الرأس العام"),</v>
       </c>
     </row>
-    <row r="1692" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1692" s="1" t="s">
+    <row r="1692" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1692">
+        <f t="shared" si="53"/>
+        <v>1691</v>
+      </c>
+      <c r="B1692">
+        <v>1</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1692" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E1692" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1691","1","configGoogleApi","Google API: To integrate google maps and google based apps in your application."),</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1693">
+        <f t="shared" si="53"/>
+        <v>1692</v>
+      </c>
+      <c r="B1693">
+        <v>2</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1693" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E1693" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1692","2","configGoogleApi","கூகுள் ஏபிஐ: உங்கள் பயன்பாட்டில் கூகுள் மேப்ஸ் மற்றும் கூகுள் சார்ந்த பயன்பாடுகளை ஒருங்கிணைக்க."),</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1694">
+        <f t="shared" si="53"/>
+        <v>1693</v>
+      </c>
+      <c r="B1694">
+        <v>3</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1694" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E1694" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1693","3","configGoogleApi","API Google : pour intégrer Google Maps et des applications basées sur Google dans votre application."),</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1695">
+        <f t="shared" si="53"/>
+        <v>1694</v>
+      </c>
+      <c r="B1695">
+        <v>4</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1695" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E1695" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1694","4","configGoogleApi","Google API：在您的应用程序中集成谷歌地图和基于谷歌的应用程序。"),</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1696">
+        <f t="shared" si="53"/>
+        <v>1695</v>
+      </c>
+      <c r="B1696">
+        <v>5</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1696" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E1696" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1695","5","configGoogleApi","Google API: Google マップと Google ベースのアプリをアプリケーションに統合します。"),</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1697">
+        <f t="shared" si="53"/>
+        <v>1696</v>
+      </c>
+      <c r="B1697">
+        <v>6</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1697" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E1697" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1696","6","configGoogleApi","API do Google: Para integrar o Google Maps e aplicativos baseados no Google em seu aplicativo."),</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1698">
+        <f t="shared" si="53"/>
+        <v>1697</v>
+      </c>
+      <c r="B1698">
+        <v>7</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1698" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E1698" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1697","7","configGoogleApi","गूगल एपीआई: अपने आवेदन में गूगल मैप्स और गूगल आधारित ऐप्स को एकीकृत करने के लिए।"),</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1699">
+        <f t="shared" si="53"/>
+        <v>1698</v>
+      </c>
+      <c r="B1699">
+        <v>8</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1699" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E1699" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1698","8","configGoogleApi","API Google: для интеграции карт Google и приложений на основе Google в ваше приложение."),</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1700">
+        <f t="shared" si="53"/>
+        <v>1699</v>
+      </c>
+      <c r="B1700">
+        <v>9</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1700" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E1700" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1699","9","configGoogleApi","API de Google: para integrar Google Maps y aplicaciones basadas en Google en su aplicación."),</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1701">
+        <f t="shared" si="53"/>
+        <v>1700</v>
+      </c>
+      <c r="B1701">
+        <v>10</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1701" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1701" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1700","10","configGoogleApi","واجهة برمجة تطبيقات Google: لدمج خرائط Google والتطبيقات المستندة إلى Google في تطبيقك."),</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1702">
+        <f t="shared" si="53"/>
+        <v>1701</v>
+      </c>
+      <c r="B1702">
+        <v>1</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1702" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E1702" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1701","1","configWebDefaults","Web defauts: This is the core crux which decides how your application looks. You can leave text boxes with a slash(/) if not required or to disable that feature."),</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1703">
+        <f t="shared" si="53"/>
+        <v>1702</v>
+      </c>
+      <c r="B1703">
+        <v>2</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1703" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E1703" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1702","2","configWebDefaults","இணைய இயல்புநிலைகள்: இது உங்கள் பயன்பாடு எப்படி இருக்கும் என்பதை தீர்மானிக்கும் முக்கிய அம்சமாகும். தேவையில்லாத பட்சத்தில் அல்லது அந்த அம்சத்தை முடக்க, நீங்கள் உரைப் பெட்டிகளை சாய்வு(/) உடன் விடலாம்."),</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1704">
+        <f t="shared" si="53"/>
+        <v>1703</v>
+      </c>
+      <c r="B1704">
+        <v>3</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1704" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E1704" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1703","3","configWebDefaults","Valeurs par défaut Web : il s'agit du cœur qui détermine l'apparence de votre application. Vous pouvez laisser les zones de texte avec une barre oblique (/) si cela n'est pas nécessaire ou pour désactiver cette fonctionnalité."),</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1705">
+        <f t="shared" si="53"/>
+        <v>1704</v>
+      </c>
+      <c r="B1705">
+        <v>4</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1705" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E1705" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1704","4","configWebDefaults","Web 默认值：这是决定应用程序外观的核心关键。 如果不需要或禁用该功能，您可以在文本框中留下斜线 (/)。"),</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1706">
+        <f t="shared" si="53"/>
+        <v>1705</v>
+      </c>
+      <c r="B1706">
+        <v>5</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1706" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E1706" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1705","5","configWebDefaults","Web デフォルト: これは、アプリケーションの外観を決定する重要な要素です。 不要な場合、またはその機能を無効にする場合は、テキスト ボックスをスラッシュ (/) のままにしておくことができます。"),</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1707">
+        <f t="shared" si="53"/>
+        <v>1706</v>
+      </c>
+      <c r="B1707">
+        <v>6</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1707" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E1707" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1706","6","configWebDefaults","Padrões da Web: Este é o ponto crucial que decide a aparência do seu aplicativo. Você pode deixar as caixas de texto com uma barra (/) se não for necessário ou para desabilitar esse recurso."),</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1708">
+        <f t="shared" si="53"/>
+        <v>1707</v>
+      </c>
+      <c r="B1708">
+        <v>7</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1708" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E1708" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1707","7","configWebDefaults","वेब डिफॉल्ट्स: यह कोर क्रूक्स है जो तय करता है कि आपका एप्लिकेशन कैसा दिखता है। यदि आवश्यक न हो या उस सुविधा को अक्षम करने के लिए आप टेक्स्ट बॉक्स को स्लैश (/) के साथ छोड़ सकते हैं।"),</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1709">
+        <f t="shared" si="53"/>
+        <v>1708</v>
+      </c>
+      <c r="B1709">
+        <v>8</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1709" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E1709" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1708","8","configWebDefaults","Веб-умолчания: это ключевой момент, который определяет, как выглядит ваше приложение. Вы можете оставить текстовые поля с косой чертой (/), если это не требуется, или отключить эту функцию."),</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1710">
+        <f t="shared" si="53"/>
+        <v>1709</v>
+      </c>
+      <c r="B1710">
+        <v>9</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1710" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E1710" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1709","9","configWebDefaults","Valores predeterminados de la web: este es el quid central que decide cómo se ve su aplicación. Puede dejar los cuadros de texto con una barra inclinada (/) si no es necesario o para desactivar esa función."),</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1711">
+        <f t="shared" si="53"/>
+        <v>1710</v>
+      </c>
+      <c r="B1711">
+        <v>10</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1711" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E1711" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1710","10","configWebDefaults","افتراضات الويب: هذا هو جوهر جوهر الذي يقرر كيف يبدو التطبيق الخاص بك. يمكنك ترك مربعات النص بشرطة مائلة (/) إذا لم يكن ذلك مطلوبًا أو لتعطيل هذه الميزة."),</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1712">
+        <f t="shared" si="53"/>
+        <v>1711</v>
+      </c>
+      <c r="B1712">
+        <v>1</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1712" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E1712" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1711","1","configAwsS3","AWS: Here you can declare your AWS S3 bucket credentials, to load images and videos in your application. AWS is lightning fast. Note: Stay safe that all your declared credentials are end to end encrypted."),</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A1713">
+        <f t="shared" si="53"/>
+        <v>1712</v>
+      </c>
+      <c r="B1713">
+        <v>2</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1713" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E1713" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1712","2","configAwsS3","AWS: உங்கள் விண்ணப்பத்தில் படங்கள் மற்றும் வீடியோக்களை ஏற்றுவதற்கு, உங்கள் AWS S3 பக்கெட் சான்றுகளை இங்கே அறிவிக்கலாம். AWS மின்னல் வேகமானது. குறிப்பு: உங்களின் அறிவிக்கப்பட்ட நற்சான்றிதழ்கள் அனைத்தும் இறுதி முதல் இறுதி வரை குறியாக்கம் செய்யப்பட்டவை என்பதில் பாதுகாப்பாக இருங்கள்."),</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1714">
+        <f t="shared" si="53"/>
+        <v>1713</v>
+      </c>
+      <c r="B1714">
+        <v>3</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1714" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E1714" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1713","3","configAwsS3","AWS : Ici, vous pouvez déclarer vos informations d'identification de compartiment AWS S3, pour charger des images et des vidéos dans votre application. AWS est rapide comme l'éclair. Remarque : assurez-vous que toutes vos informations d'identification déclarées sont cryptées de bout en bout."),</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1715">
+        <f t="shared" si="53"/>
+        <v>1714</v>
+      </c>
+      <c r="B1715">
+        <v>4</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1715" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1715" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1714","4","configAwsS3","AWS：您可以在此处声明您的 AWS S3 存储桶凭证，以在您的应用程序中加载图像和视频。 AWS 快如闪电。 注意：请确保您声明的所有凭据都是端到端加密的。"),</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1716">
+        <f t="shared" si="53"/>
+        <v>1715</v>
+      </c>
+      <c r="B1716">
+        <v>5</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1716" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E1716" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1715","5","configAwsS3","AWS: ここで、AWS S3 バケットの資格情報を宣言して、アプリケーションに画像と動画をロードできます。 AWS は超高速です。 注: 宣言された資格情報はすべてエンド ツー エンドで暗号化されているため、安全を確保してください。"),</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1717">
+        <f t="shared" si="53"/>
+        <v>1716</v>
+      </c>
+      <c r="B1717">
+        <v>6</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1717" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1717" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1716","6","configAwsS3","AWS: aqui você pode declarar suas credenciais de bucket do AWS S3 para carregar imagens e vídeos em seu aplicativo. AWS é extremamente rápido. Nota: Fique seguro de que todas as suas credenciais declaradas são criptografadas de ponta a ponta."),</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1718">
+        <f t="shared" si="53"/>
+        <v>1717</v>
+      </c>
+      <c r="B1718">
+        <v>7</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1718" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E1718" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1717","7","configAwsS3","एडब्ल्यूएस: यहां आप अपने आवेदन में छवियों और वीडियो को लोड करने के लिए अपने एडब्ल्यूएस एस3 बकेट क्रेडेंशियल घोषित कर सकते हैं। एडब्ल्यूएस तेज बिजली कर रहा है। नोट: सुरक्षित रहें कि आपके सभी घोषित क्रेडेंशियल एंड टू एंड एन्क्रिप्टेड हैं।"),</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1719">
+        <f t="shared" si="53"/>
+        <v>1718</v>
+      </c>
+      <c r="B1719">
+        <v>8</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1719" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1719" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1718","8","configAwsS3","AWS: здесь вы можете объявить свои учетные данные корзины AWS S3, чтобы загружать изображения и видео в ваше приложение. AWS работает молниеносно. Примечание. Будьте уверены, что все ваши заявленные учетные данные зашифрованы сквозным шифрованием."),</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1720">
+        <f t="shared" si="53"/>
+        <v>1719</v>
+      </c>
+      <c r="B1720">
+        <v>9</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1720" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1720" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v>("1719","9","configAwsS3","AWS: aquí puede declarar sus credenciales de depósito de AWS S3 para cargar imágenes y videos en su aplicación. AWS es ultrarrápido. Nota: Manténgase seguro de que todas sus credenciales declaradas están encriptadas de extremo a extremo."),</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1721">
+        <f t="shared" si="53"/>
+        <v>1720</v>
+      </c>
+      <c r="B1721">
+        <v>10</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1721" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1721" s="1" t="str">
+        <f t="shared" ref="E1721:E1784" si="54">CONCATENATE("(",CHAR(34),A1721,CHAR(34),",",CHAR(34),B1721,CHAR(34),",",CHAR(34),C1721,CHAR(34),",",CHAR(34),D1721,CHAR(34),"),")</f>
+        <v>("1720","10","configAwsS3","AWS: يمكنك هنا إعلان بيانات اعتماد حاوية AWS S3 لتحميل الصور ومقاطع الفيديو في تطبيقك. AWS سريع للغاية. ملاحظة: حافظ على سلامتك من أن جميع بيانات الاعتماد المعلنة الخاصة بك مشفرة من النهاية إلى النهاية."),</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1722">
+        <f t="shared" si="53"/>
+        <v>1721</v>
+      </c>
+      <c r="B1722">
+        <v>1</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1722" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E1722" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1721","1","configSocialMedia","Social media: Allow your users to view your walls and blogs like facebook, Twitter, LinkedIn and Instagram."),</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1723">
+        <f t="shared" si="53"/>
+        <v>1722</v>
+      </c>
+      <c r="B1723">
+        <v>2</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1723" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E1723" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1722","2","configSocialMedia","சமூக ஊடகங்கள்: உங்கள் சுவர்கள் மற்றும் facebook, Twitter, LinkedIn மற்றும் Instagram போன்ற வலைப்பதிவுகளைப் பார்க்க உங்கள் பயனர்களை அனுமதிக்கவும்."),</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1724">
+        <f t="shared" si="53"/>
+        <v>1723</v>
+      </c>
+      <c r="B1724">
+        <v>3</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1724" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1724" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1723","3","configSocialMedia","Médias sociaux : permettez à vos utilisateurs de voir vos murs et vos blogs comme Facebook, Twitter, LinkedIn et Instagram."),</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1725">
+        <f t="shared" si="53"/>
+        <v>1724</v>
+      </c>
+      <c r="B1725">
+        <v>4</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1725" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1725" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1724","4","configSocialMedia","社交媒体：允许您的用户查看您的墙和博客，例如 facebook、Twitter、LinkedIn 和 Instagram。"),</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1726">
+        <f t="shared" si="53"/>
+        <v>1725</v>
+      </c>
+      <c r="B1726">
+        <v>5</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1726" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E1726" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1725","5","configSocialMedia","ソーシャル メディア: Facebook、Twitter、LinkedIn、Instagram などのウォールやブログをユーザーが閲覧できるようにします。"),</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1727">
+        <f t="shared" si="53"/>
+        <v>1726</v>
+      </c>
+      <c r="B1727">
+        <v>6</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1727" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1727" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1726","6","configSocialMedia","Mídias sociais: permita que seus usuários visualizem seus murais e blogs como facebook, Twitter, LinkedIn e Instagram."),</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1728">
+        <f t="shared" si="53"/>
+        <v>1727</v>
+      </c>
+      <c r="B1728">
+        <v>7</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1728" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1728" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1727","7","configSocialMedia","सोशल मीडिया: अपने उपयोगकर्ताओं को फेसबुक, ट्विटर, लिंक्डइन और इंस्टाग्राम जैसी अपनी दीवारों और ब्लॉगों को देखने की अनुमति दें।"),</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1729">
+        <f t="shared" si="53"/>
+        <v>1728</v>
+      </c>
+      <c r="B1729">
+        <v>8</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1729" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E1729" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1728","8","configSocialMedia","Социальные сети: позвольте вашим пользователям просматривать ваши стены и блоги, такие как facebook, Twitter, LinkedIn и Instagram."),</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1730">
+        <f t="shared" si="53"/>
+        <v>1729</v>
+      </c>
+      <c r="B1730">
+        <v>9</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1730" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E1730" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1729","9","configSocialMedia","Redes sociales: Permita que sus usuarios vean sus muros y blogs como Facebook, Twitter, LinkedIn e Instagram."),</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1731">
+        <f t="shared" si="53"/>
+        <v>1730</v>
+      </c>
+      <c r="B1731">
+        <v>10</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1731" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E1731" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1730","10","configSocialMedia","وسائل التواصل الاجتماعي: اسمح لمستخدميك بمشاهدة جدرانك ومدوناتك مثل facebook و Twitter و LinkedIn و Instagram."),</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1732">
+        <f t="shared" si="53"/>
+        <v>1731</v>
+      </c>
+      <c r="B1732">
+        <v>1</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E1732" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1731","1","setUsersToHandleAndMaintainYourApp","Set users to handle and maintain your application"),</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1733">
+        <f t="shared" ref="A1733:A1796" si="55">A1732+1</f>
+        <v>1732</v>
+      </c>
+      <c r="B1733">
+        <v>2</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1733" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E1733" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1732","2","setUsersToHandleAndMaintainYourApp","உங்கள் பயன்பாட்டைக் கையாளவும் பராமரிக்கவும் பயனர்களை அமைக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1734">
+        <f t="shared" si="55"/>
+        <v>1733</v>
+      </c>
+      <c r="B1734">
+        <v>3</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1734" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E1734" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1733","3","setUsersToHandleAndMaintainYourApp","Définir les utilisateurs pour gérer et maintenir votre application"),</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1735">
+        <f t="shared" si="55"/>
+        <v>1734</v>
+      </c>
+      <c r="B1735">
+        <v>4</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1735" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E1735" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1734","4","setUsersToHandleAndMaintainYourApp","设置用户来处理和维护您的应用程序"),</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1736">
+        <f t="shared" si="55"/>
+        <v>1735</v>
+      </c>
+      <c r="B1736">
+        <v>5</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1736" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1736" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1735","5","setUsersToHandleAndMaintainYourApp","アプリケーションを処理および保守するユーザーを設定する"),</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1737">
+        <f t="shared" si="55"/>
+        <v>1736</v>
+      </c>
+      <c r="B1737">
+        <v>6</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1737" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E1737" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1736","6","setUsersToHandleAndMaintainYourApp","Defina os usuários para lidar e manter seu aplicativo"),</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1738">
+        <f t="shared" si="55"/>
+        <v>1737</v>
+      </c>
+      <c r="B1738">
+        <v>7</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1738" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E1738" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1737","7","setUsersToHandleAndMaintainYourApp","अपने एप्लिकेशन को संभालने और बनाए रखने के लिए उपयोगकर्ताओं को सेट करें"),</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1739">
+        <f t="shared" si="55"/>
+        <v>1738</v>
+      </c>
+      <c r="B1739">
+        <v>8</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1739" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E1739" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1738","8","setUsersToHandleAndMaintainYourApp","Настройте пользователей для обработки и поддержки вашего приложения"),</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1740">
+        <f t="shared" si="55"/>
+        <v>1739</v>
+      </c>
+      <c r="B1740">
+        <v>9</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1740" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E1740" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1739","9","setUsersToHandleAndMaintainYourApp","Configure a los usuarios para que manejen y mantengan su aplicación"),</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1741">
+        <f t="shared" si="55"/>
+        <v>1740</v>
+      </c>
+      <c r="B1741">
+        <v>10</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1741" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E1741" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1740","10","setUsersToHandleAndMaintainYourApp","تعيين المستخدمين للتعامل مع التطبيق الخاص بك وصيانته"),</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1742">
+        <f t="shared" si="55"/>
+        <v>1741</v>
+      </c>
+      <c r="B1742">
+        <v>1</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1742" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E1742" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1741","1","superAdminIsAddedByDefault","Super Admin is added by default. Create access levels that fits your organization"),</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1743">
+        <f t="shared" si="55"/>
+        <v>1742</v>
+      </c>
+      <c r="B1743">
+        <v>2</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1743" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E1743" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1742","2","superAdminIsAddedByDefault","சூப்பர் அட்மின் இயல்பாக சேர்க்கப்படும். உங்கள் நிறுவனத்திற்கு ஏற்ற அணுகல் நிலைகளை உருவாக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1744">
+        <f t="shared" si="55"/>
+        <v>1743</v>
+      </c>
+      <c r="B1744">
+        <v>3</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1744" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E1744" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1743","3","superAdminIsAddedByDefault","Le super administrateur est ajouté par défaut. Créez des niveaux d'accès adaptés à votre organisation"),</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1745">
+        <f t="shared" si="55"/>
+        <v>1744</v>
+      </c>
+      <c r="B1745">
+        <v>4</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1745" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E1745" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1744","4","superAdminIsAddedByDefault","默认添加超级管理员。 创建适合您组织的访问级别"),</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1746">
+        <f t="shared" si="55"/>
+        <v>1745</v>
+      </c>
+      <c r="B1746">
+        <v>5</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1746" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1746" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1745","5","superAdminIsAddedByDefault","スーパー管理者はデフォルトで追加されます。 組織に適したアクセス レベルを作成する"),</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1747">
+        <f t="shared" si="55"/>
+        <v>1746</v>
+      </c>
+      <c r="B1747">
+        <v>6</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1747" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E1747" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1746","6","superAdminIsAddedByDefault","O Super Admin é adicionado por padrão. Crie níveis de acesso adequados à sua organização"),</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1748">
+        <f t="shared" si="55"/>
+        <v>1747</v>
+      </c>
+      <c r="B1748">
+        <v>7</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1748" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E1748" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1747","7","superAdminIsAddedByDefault","सुपर एडमिन डिफ़ॉल्ट रूप से जोड़ा जाता है। एक्सेस स्तर बनाएं जो आपके संगठन के अनुकूल हों"),</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1749">
+        <f t="shared" si="55"/>
+        <v>1748</v>
+      </c>
+      <c r="B1749">
+        <v>8</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1749" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E1749" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1748","8","superAdminIsAddedByDefault","Суперадминистратор добавляется по умолчанию. Создавайте уровни доступа, соответствующие вашей организации"),</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1750">
+        <f t="shared" si="55"/>
+        <v>1749</v>
+      </c>
+      <c r="B1750">
+        <v>9</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1750" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1750" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1749","9","superAdminIsAddedByDefault","El superadministrador se agrega de forma predeterminada. Cree niveles de acceso que se ajusten a su organización"),</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1751">
+        <f t="shared" si="55"/>
+        <v>1750</v>
+      </c>
+      <c r="B1751">
+        <v>10</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1751" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E1751" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1750","10","superAdminIsAddedByDefault","تتم إضافة المشرف المتميز افتراضيًا. أنشئ مستويات وصول تناسب مؤسستك"),</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1752">
+        <f t="shared" si="55"/>
+        <v>1751</v>
+      </c>
+      <c r="B1752">
+        <v>1</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1752" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E1752" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1751","1","superAdminHasAccessToControl","Super Admin has access to control entire application (settings &amp; layout design). Confirm before giving access to a user."),</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1753">
+        <f t="shared" si="55"/>
+        <v>1752</v>
+      </c>
+      <c r="B1753">
+        <v>2</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1753" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E1753" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1752","2","superAdminHasAccessToControl","சூப்பர் அட்மினுக்கு முழு பயன்பாட்டையும் (அமைப்புகள் மற்றும் தளவமைப்பு வடிவமைப்பு) கட்டுப்படுத்தும் அணுகல் உள்ளது. பயனருக்கு அணுகலை வழங்குவதற்கு முன் உறுதிப்படுத்தவும்."),</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1754">
+        <f t="shared" si="55"/>
+        <v>1753</v>
+      </c>
+      <c r="B1754">
+        <v>3</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1754" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E1754" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1753","3","superAdminHasAccessToControl","Le super administrateur a accès au contrôle de l'ensemble de l'application (paramètres et conception de la mise en page). Confirmez avant de donner accès à un utilisateur."),</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1755">
+        <f t="shared" si="55"/>
+        <v>1754</v>
+      </c>
+      <c r="B1755">
+        <v>4</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1755" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E1755" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1754","4","superAdminHasAccessToControl","超级管理员有权控制整个应用程序（设置和布局设计）。 在授予用户访问权限之前进行确认。"),</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1756">
+        <f t="shared" si="55"/>
+        <v>1755</v>
+      </c>
+      <c r="B1756">
+        <v>5</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1756" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E1756" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1755","5","superAdminHasAccessToControl","スーパー管理者は、アプリケーション全体 (設定とレイアウト デザイン) を制御するアクセス権を持っています。 ユーザーにアクセス権を付与する前に確認してください。"),</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1757">
+        <f t="shared" si="55"/>
+        <v>1756</v>
+      </c>
+      <c r="B1757">
+        <v>6</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1757" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E1757" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1756","6","superAdminHasAccessToControl","O Super Admin tem acesso para controlar todo o aplicativo (configurações e design de layout). Confirme antes de dar acesso a um usuário."),</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1758">
+        <f t="shared" si="55"/>
+        <v>1757</v>
+      </c>
+      <c r="B1758">
+        <v>7</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1758" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E1758" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1757","7","superAdminHasAccessToControl","सुपर एडमिन के पास संपूर्ण एप्लिकेशन (सेटिंग्स और लेआउट डिज़ाइन) को नियंत्रित करने की पहुंच है। किसी उपयोगकर्ता को एक्सेस देने से पहले पुष्टि करें।"),</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1759">
+        <f t="shared" si="55"/>
+        <v>1758</v>
+      </c>
+      <c r="B1759">
+        <v>8</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1759" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1759" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1758","8","superAdminHasAccessToControl","Суперадминистратор имеет доступ к управлению всем приложением (настройками и дизайном макета). Подтвердите, прежде чем предоставить доступ пользователю."),</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1760">
+        <f t="shared" si="55"/>
+        <v>1759</v>
+      </c>
+      <c r="B1760">
+        <v>9</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1760" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E1760" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1759","9","superAdminHasAccessToControl","El superadministrador tiene acceso para controlar toda la aplicación (configuración y diseño de diseño). Confirmar antes de dar acceso a un usuario."),</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1761">
+        <f t="shared" si="55"/>
+        <v>1760</v>
+      </c>
+      <c r="B1761">
+        <v>10</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1761" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E1761" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1760","10","superAdminHasAccessToControl","يتمتع المشرف المتميز بحق الوصول للتحكم في التطبيق بالكامل (الإعدادات وتصميم التخطيط). قم بالتأكيد قبل منح حق الوصول للمستخدم."),</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1762">
+        <f t="shared" si="55"/>
+        <v>1761</v>
+      </c>
+      <c r="B1762">
+        <v>1</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1762" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E1762" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1761","1","crudOperationsAreAvailable","CRUD operations are available (create, update and delete users) for Super Admin only"),</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1763">
+        <f t="shared" si="55"/>
+        <v>1762</v>
+      </c>
+      <c r="B1763">
+        <v>2</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1763" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E1763" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1762","2","crudOperationsAreAvailable","CRUD செயல்பாடுகள் (பயனர்களை உருவாக்குதல், புதுப்பித்தல் மற்றும் நீக்குதல்) Super Adminக்கு மட்டுமே கிடைக்கும்"),</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1764">
+        <f t="shared" si="55"/>
+        <v>1763</v>
+      </c>
+      <c r="B1764">
+        <v>3</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1764" s="3" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E1764" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1763","3","crudOperationsAreAvailable","Les opérations CRUD sont disponibles (créer, mettre à jour et supprimer des utilisateurs) pour le super administrateur uniquement"),</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1765">
+        <f t="shared" si="55"/>
+        <v>1764</v>
+      </c>
+      <c r="B1765">
+        <v>4</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1765" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E1765" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1764","4","crudOperationsAreAvailable","CRUD 操作（创建、更新和删除用户）仅适用于超级管理员"),</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1766">
+        <f t="shared" si="55"/>
+        <v>1765</v>
+      </c>
+      <c r="B1766">
+        <v>5</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1766" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E1766" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1765","5","crudOperationsAreAvailable","CRUD 操作（创建、更新和删除用户）仅适用于超级管理员"),</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1767">
+        <f t="shared" si="55"/>
+        <v>1766</v>
+      </c>
+      <c r="B1767">
+        <v>6</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1767" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E1767" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1766","6","crudOperationsAreAvailable","As operações CRUD estão disponíveis (criar, atualizar e excluir usuários) apenas para Super Admin"),</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1768">
+        <f t="shared" si="55"/>
+        <v>1767</v>
+      </c>
+      <c r="B1768">
+        <v>7</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1768" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E1768" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1767","7","crudOperationsAreAvailable","CRUD संचालन केवल सुपर व्यवस्थापक के लिए उपलब्ध हैं (उपयोगकर्ता बनाएं, अपडेट करें और हटाएं)"),</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1769">
+        <f t="shared" si="55"/>
+        <v>1768</v>
+      </c>
+      <c r="B1769">
+        <v>8</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1769" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E1769" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1768","8","crudOperationsAreAvailable","Операции CRUD (создание, обновление и удаление пользователей) доступны только для суперадминистратора."),</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1770">
+        <f t="shared" si="55"/>
+        <v>1769</v>
+      </c>
+      <c r="B1770">
+        <v>9</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1770" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E1770" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1769","9","crudOperationsAreAvailable","Las operaciones CRUD están disponibles (crear, actualizar y eliminar usuarios) solo para superadministradores"),</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1771">
+        <f t="shared" si="55"/>
+        <v>1770</v>
+      </c>
+      <c r="B1771">
+        <v>10</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1771" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E1771" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1770","10","crudOperationsAreAvailable","تتوفر عمليات CRUD (إنشاء المستخدمين وتحديثهم وحذفهم) للمشرف المتميز فقط"),</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1772">
+        <f t="shared" si="55"/>
+        <v>1771</v>
+      </c>
+      <c r="B1772">
+        <v>1</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1772" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E1772" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1771","1","editUserRequiresNewPassword","Edit user requires new password to be set for security purpose. Please inform the updated user on his/her new password."),</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1773">
+        <f t="shared" si="55"/>
+        <v>1772</v>
+      </c>
+      <c r="B1773">
+        <v>2</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1773" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1773" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1772","2","editUserRequiresNewPassword","திருத்தும் பயனருக்கு பாதுகாப்பு நோக்கத்திற்காக புதிய கடவுச்சொல்லை அமைக்க வேண்டும். புதுப்பிக்கப்பட்ட பயனருக்கு அவரின் புதிய கடவுச்சொல் குறித்து தெரிவிக்கவும்."),</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1774">
+        <f t="shared" si="55"/>
+        <v>1773</v>
+      </c>
+      <c r="B1774">
+        <v>3</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1774" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1774" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1773","3","editUserRequiresNewPassword","Modifier l'utilisateur nécessite la définition d'un nouveau mot de passe pour des raisons de sécurité. Veuillez informer l'utilisateur mis à jour de son nouveau mot de passe."),</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1775">
+        <f t="shared" si="55"/>
+        <v>1774</v>
+      </c>
+      <c r="B1775">
+        <v>4</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1775" s="3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E1775" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1774","4","editUserRequiresNewPassword","出于安全目的，编辑用户需要设置新密码。 请告知更新的用户他/她的新密码。"),</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1776">
+        <f t="shared" si="55"/>
+        <v>1775</v>
+      </c>
+      <c r="B1776">
+        <v>5</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1776" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E1776" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1775","5","editUserRequiresNewPassword","編集ユーザーは、セキュリティ上の目的で新しいパスワードを設定する必要があります。 更新されたユーザーに新しいパスワードを通知してください。"),</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1777">
+        <f t="shared" si="55"/>
+        <v>1776</v>
+      </c>
+      <c r="B1777">
+        <v>6</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1777" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E1777" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1776","6","editUserRequiresNewPassword","Editar usuário requer que uma nova senha seja definida para fins de segurança. Por favor, informe o usuário atualizado sobre sua nova senha."),</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1778">
+        <f t="shared" si="55"/>
+        <v>1777</v>
+      </c>
+      <c r="B1778">
+        <v>7</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1778" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E1778" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1777","7","editUserRequiresNewPassword","संपादित करें उपयोगकर्ता को सुरक्षा उद्देश्य के लिए नया पासवर्ड सेट करने की आवश्यकता है। कृपया अपडेट किए गए उपयोगकर्ता को उसके नए पासवर्ड के बारे में सूचित करें।"),</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1779">
+        <f t="shared" si="55"/>
+        <v>1778</v>
+      </c>
+      <c r="B1779">
+        <v>8</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1779" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E1779" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1778","8","editUserRequiresNewPassword","Для редактирования пользователя требуется установить новый пароль в целях безопасности. Пожалуйста, сообщите обновленному пользователю его/ее новый пароль."),</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1780">
+        <f t="shared" si="55"/>
+        <v>1779</v>
+      </c>
+      <c r="B1780">
+        <v>9</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1780" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E1780" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1779","9","editUserRequiresNewPassword","Editar usuario requiere que se establezca una nueva contraseña por motivos de seguridad. Por favor informe al usuario actualizado sobre su nueva contraseña."),</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1781">
+        <f t="shared" si="55"/>
+        <v>1780</v>
+      </c>
+      <c r="B1781">
+        <v>10</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1781" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E1781" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1780","10","editUserRequiresNewPassword","يتطلب تحرير المستخدم كلمة مرور جديدة ليتم تعيينها لأغراض أمنية. يرجى إبلاغ المستخدم المحدث بكلمة المرور الجديدة الخاصة به."),</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1782">
+        <f t="shared" si="55"/>
+        <v>1781</v>
+      </c>
+      <c r="B1782">
+        <v>1</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1782" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E1782" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1781","1","onceUsersCreated","Once users created, they can login on clicking the top right dropdown menu in global header"),</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1783">
+        <f t="shared" si="55"/>
+        <v>1782</v>
+      </c>
+      <c r="B1783">
+        <v>2</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1783" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E1783" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1782","2","onceUsersCreated","பயனர்கள் உருவாக்கியதும், உலகளாவிய தலைப்பில் மேல் வலது கீழ்தோன்றும் மெனுவைக் கிளிக் செய்வதன் மூலம் அவர்கள் உள்நுழையலாம்"),</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1784">
+        <f t="shared" si="55"/>
+        <v>1783</v>
+      </c>
+      <c r="B1784">
+        <v>3</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1784" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E1784" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>("1783","3","onceUsersCreated","Une fois les utilisateurs créés, ils peuvent se connecter en cliquant sur le menu déroulant en haut à droite dans l'en-tête global"),</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1785">
+        <f t="shared" si="55"/>
+        <v>1784</v>
+      </c>
+      <c r="B1785">
+        <v>4</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1785" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E1785" s="1" t="str">
+        <f t="shared" ref="E1785:E1848" si="56">CONCATENATE("(",CHAR(34),A1785,CHAR(34),",",CHAR(34),B1785,CHAR(34),",",CHAR(34),C1785,CHAR(34),",",CHAR(34),D1785,CHAR(34),"),")</f>
+        <v>("1784","4","onceUsersCreated","创建用户后，他们可以通过单击全局标题中右上角的下拉菜单登录"),</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1786">
+        <f t="shared" si="55"/>
+        <v>1785</v>
+      </c>
+      <c r="B1786">
+        <v>5</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1786" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E1786" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1785","5","onceUsersCreated","ユーザーが作成されると、グローバル ヘッダーの右上のドロップダウン メニューをクリックしてログインできます。"),</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1787">
+        <f t="shared" si="55"/>
+        <v>1786</v>
+      </c>
+      <c r="B1787">
+        <v>6</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1787" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E1787" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1786","6","onceUsersCreated","Depois que os usuários são criados, eles podem fazer login clicando no menu suspenso superior direito no cabeçalho global"),</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1788">
+        <f t="shared" si="55"/>
+        <v>1787</v>
+      </c>
+      <c r="B1788">
+        <v>7</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1788" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E1788" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1787","7","onceUsersCreated","एक बार उपयोगकर्ता बनाने के बाद, वे वैश्विक शीर्षलेख में शीर्ष दाएं ड्रॉपडाउन मेनू पर क्लिक करके लॉगिन कर सकते हैं"),</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1789">
+        <f t="shared" si="55"/>
+        <v>1788</v>
+      </c>
+      <c r="B1789">
+        <v>8</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1789" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E1789" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1788","8","onceUsersCreated","После создания пользователи могут войти в систему, щелкнув раскрывающееся меню в правом верхнем углу в глобальном заголовке."),</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1790">
+        <f t="shared" si="55"/>
+        <v>1789</v>
+      </c>
+      <c r="B1790">
+        <v>9</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1790" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E1790" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1789","9","onceUsersCreated","Una vez creados los usuarios, pueden iniciar sesión haciendo clic en el menú desplegable superior derecho en el encabezado global"),</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1791">
+        <f t="shared" si="55"/>
+        <v>1790</v>
+      </c>
+      <c r="B1791">
+        <v>10</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1791" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E1791" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1790","10","onceUsersCreated","بمجرد إنشاء المستخدمين ، يمكنهم تسجيل الدخول عند النقر فوق القائمة المنسدلة اليمنى العلوية في الرأس العام"),</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1792">
+        <f t="shared" si="55"/>
+        <v>1791</v>
+      </c>
+      <c r="B1792">
+        <v>1</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1792" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E1792" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1791","1","awsS3BucketIsUsedTo","AWS S3 bucket is used to access media files in your application."),</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1793">
+        <f t="shared" si="55"/>
+        <v>1792</v>
+      </c>
+      <c r="B1793">
+        <v>2</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1793" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E1793" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1792","2","awsS3BucketIsUsedTo","உங்கள் பயன்பாட்டில் உள்ள மீடியா கோப்புகளை அணுக AWS S3 பக்கெட் பயன்படுத்தப்படுகிறது."),</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1794">
+        <f t="shared" si="55"/>
+        <v>1793</v>
+      </c>
+      <c r="B1794">
+        <v>3</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1794" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E1794" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1793","3","awsS3BucketIsUsedTo","Le compartiment AWS S3 est utilisé pour accéder aux fichiers multimédias dans votre application."),</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1795">
+        <f t="shared" si="55"/>
+        <v>1794</v>
+      </c>
+      <c r="B1795">
+        <v>4</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1795" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E1795" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1794","4","awsS3BucketIsUsedTo","AWS S3 存储桶用于访问应用程序中的媒体文件。"),</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1796">
+        <f t="shared" si="55"/>
+        <v>1795</v>
+      </c>
+      <c r="B1796">
+        <v>5</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1796" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E1796" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1795","5","awsS3BucketIsUsedTo","AWS S3 バケットは、アプリケーション内のメディア ファイルにアクセスするために使用されます。"),</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1797">
+        <f t="shared" ref="A1797:A1860" si="57">A1796+1</f>
+        <v>1796</v>
+      </c>
+      <c r="B1797">
+        <v>6</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1797" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E1797" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1796","6","awsS3BucketIsUsedTo","O bucket do AWS S3 é usado para acessar arquivos de mídia em seu aplicativo."),</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1798">
+        <f t="shared" si="57"/>
+        <v>1797</v>
+      </c>
+      <c r="B1798">
+        <v>7</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1798" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E1798" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1797","7","awsS3BucketIsUsedTo","AWS S3 बकेट का उपयोग आपके एप्लिकेशन में मीडिया फ़ाइलों तक पहुँचने के लिए किया जाता है।"),</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1799">
+        <f t="shared" si="57"/>
+        <v>1798</v>
+      </c>
+      <c r="B1799">
+        <v>8</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1799" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E1799" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1798","8","awsS3BucketIsUsedTo","Ведро AWS S3 используется для доступа к медиафайлам в вашем приложении."),</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1800">
+        <f t="shared" si="57"/>
+        <v>1799</v>
+      </c>
+      <c r="B1800">
+        <v>9</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1800" s="3" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E1800" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1799","9","awsS3BucketIsUsedTo","El depósito de AWS S3 se utiliza para acceder a archivos multimedia en su aplicación."),</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1801">
+        <f t="shared" si="57"/>
+        <v>1800</v>
+      </c>
+      <c r="B1801">
+        <v>10</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D1801" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E1801" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1800","10","awsS3BucketIsUsedTo","تُستخدم حاوية AWS S3 للوصول إلى ملفات الوسائط في تطبيقك."),</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1802">
+        <f t="shared" si="57"/>
+        <v>1801</v>
+      </c>
+      <c r="B1802">
+        <v>1</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1802" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E1802" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1801","1","theseFilesCanBeMaintained","These files can be maintained in your Gallery module with CRUD operations"),</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1803">
+        <f t="shared" si="57"/>
+        <v>1802</v>
+      </c>
+      <c r="B1803">
+        <v>2</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1803" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E1803" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1802","2","theseFilesCanBeMaintained","இந்த கோப்புகளை CRUD செயல்பாடுகளுடன் உங்கள் கேலரி தொகுதியில் பராமரிக்கலாம்"),</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1804">
+        <f t="shared" si="57"/>
+        <v>1803</v>
+      </c>
+      <c r="B1804">
+        <v>3</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1804" s="3" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E1804" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1803","3","theseFilesCanBeMaintained","Ces fichiers peuvent être conservés dans votre module Galerie avec des opérations CRUD"),</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1805">
+        <f t="shared" si="57"/>
+        <v>1804</v>
+      </c>
+      <c r="B1805">
+        <v>4</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1805" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E1805" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1804","4","theseFilesCanBeMaintained","这些文件可以通过 CRUD 操作在您的图库模块中维护"),</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1806">
+        <f t="shared" si="57"/>
+        <v>1805</v>
+      </c>
+      <c r="B1806">
+        <v>5</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1806" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E1806" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1805","5","theseFilesCanBeMaintained","これらのファイルは、CRUD 操作を使用してギャラリー モジュールで維持できます。"),</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1807">
+        <f t="shared" si="57"/>
+        <v>1806</v>
+      </c>
+      <c r="B1807">
+        <v>6</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1807" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E1807" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1806","6","theseFilesCanBeMaintained","Esses arquivos podem ser mantidos em seu módulo Galeria com operações CRUD"),</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1808">
+        <f t="shared" si="57"/>
+        <v>1807</v>
+      </c>
+      <c r="B1808">
+        <v>7</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1808" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E1808" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1807","7","theseFilesCanBeMaintained","इन फ़ाइलों को सीआरयूडी संचालन के साथ आपके गैलरी मॉड्यूल में रखा जा सकता है"),</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1809">
+        <f t="shared" si="57"/>
+        <v>1808</v>
+      </c>
+      <c r="B1809">
+        <v>8</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1809" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E1809" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1808","8","theseFilesCanBeMaintained","Эти файлы можно хранить в модуле Галерея с помощью операций CRUD."),</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1810">
+        <f t="shared" si="57"/>
+        <v>1809</v>
+      </c>
+      <c r="B1810">
+        <v>9</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1810" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E1810" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1809","9","theseFilesCanBeMaintained","Estos archivos se pueden mantener en su módulo de Galería con operaciones CRUD"),</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1811">
+        <f t="shared" si="57"/>
+        <v>1810</v>
+      </c>
+      <c r="B1811">
+        <v>10</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1811" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E1811" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1810","10","theseFilesCanBeMaintained","يمكن الاحتفاظ بهذه الملفات في وحدة المعرض الخاصة بك مع عمليات CRUD"),</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1812">
+        <f t="shared" si="57"/>
+        <v>1811</v>
+      </c>
+      <c r="B1812">
+        <v>1</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1812" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E1812" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1811","1","pleseFollowTheSteps","Please follow the steps, clearly defined in the help content in config form"),</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1813">
+        <f t="shared" si="57"/>
+        <v>1812</v>
+      </c>
+      <c r="B1813">
+        <v>2</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1813" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E1813" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1812","2","pleseFollowTheSteps","உள்ளமைவு வடிவத்தில் உள்ள உதவி உள்ளடக்கத்தில் தெளிவாக வரையறுக்கப்பட்டுள்ள படிகளைப் பின்பற்றவும்"),</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1814">
+        <f t="shared" si="57"/>
+        <v>1813</v>
+      </c>
+      <c r="B1814">
+        <v>3</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1814" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E1814" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1813","3","pleseFollowTheSteps","Veuillez suivre les étapes, clairement définies dans le contenu de l'aide sous forme de configuration"),</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1815">
+        <f t="shared" si="57"/>
+        <v>1814</v>
+      </c>
+      <c r="B1815">
+        <v>4</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1815" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E1815" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1814","4","pleseFollowTheSteps","请按照步骤，在配置表单的帮助内容中明确定义"),</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1816">
+        <f t="shared" si="57"/>
+        <v>1815</v>
+      </c>
+      <c r="B1816">
+        <v>5</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1816" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1816" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1815","5","pleseFollowTheSteps","構成フォームのヘルプ コンテンツで明確に定義されている手順に従ってください。"),</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1817">
+        <f t="shared" si="57"/>
+        <v>1816</v>
+      </c>
+      <c r="B1817">
+        <v>6</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1817" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E1817" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1816","6","pleseFollowTheSteps","Por favor, siga os passos, claramente definidos no conteúdo de ajuda no formulário de configuração"),</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1818">
+        <f t="shared" si="57"/>
+        <v>1817</v>
+      </c>
+      <c r="B1818">
+        <v>7</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1818" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E1818" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1817","7","pleseFollowTheSteps","कृपया चरणों का पालन करें, कॉन्फ़िगरेशन प्रपत्र में सहायता सामग्री में स्पष्ट रूप से परिभाषित किया गया है"),</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1819">
+        <f t="shared" si="57"/>
+        <v>1818</v>
+      </c>
+      <c r="B1819">
+        <v>8</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1819" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1819" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1818","8","pleseFollowTheSteps","Пожалуйста, следуйте инструкциям, четко определенным в справке в форме конфигурации."),</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1820">
+        <f t="shared" si="57"/>
+        <v>1819</v>
+      </c>
+      <c r="B1820">
+        <v>9</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1820" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1820" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1819","9","pleseFollowTheSteps","Siga los pasos, claramente definidos en el contenido de ayuda en el formulario de configuración"),</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1821">
+        <f t="shared" si="57"/>
+        <v>1820</v>
+      </c>
+      <c r="B1821">
+        <v>10</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1821" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1821" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1820","10","pleseFollowTheSteps","يرجى اتباع الخطوات المحددة بوضوح في محتوى التعليمات في نموذج التكوين"),</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1822">
+        <f t="shared" si="57"/>
+        <v>1821</v>
+      </c>
+      <c r="B1822">
+        <v>1</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1822" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E1822" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1821","1","pleaseTakeBackupOfYour","Please take a backup of your credentials and keep them safe. Once forgotten or lost, it can never be brought back."),</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1823">
+        <f t="shared" si="57"/>
+        <v>1822</v>
+      </c>
+      <c r="B1823">
+        <v>2</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1823" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E1823" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1822","2","pleaseTakeBackupOfYour","உங்கள் நற்சான்றிதழ்களை காப்புப் பிரதி எடுத்து அவற்றைப் பாதுகாப்பாக வைத்திருங்கள். ஒருமுறை மறந்துவிட்டாலோ அல்லது தொலைத்துவிட்டாலோ, அதை ஒருபோதும் திரும்பக் கொண்டுவர முடியாது."),</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1824">
+        <f t="shared" si="57"/>
+        <v>1823</v>
+      </c>
+      <c r="B1824">
+        <v>3</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1824" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E1824" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1823","3","pleaseTakeBackupOfYour","Veuillez faire une sauvegarde de vos informations d'identification et les conserver en lieu sûr. Une fois oublié ou perdu, il ne pourra jamais être ramené."),</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1825">
+        <f t="shared" si="57"/>
+        <v>1824</v>
+      </c>
+      <c r="B1825">
+        <v>4</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1825" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E1825" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1824","4","pleaseTakeBackupOfYour","请备份您的凭据并妥善保管。 一旦被遗忘或丢失，就再也无法找回。"),</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1826">
+        <f t="shared" si="57"/>
+        <v>1825</v>
+      </c>
+      <c r="B1826">
+        <v>5</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1826" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E1826" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1825","5","pleaseTakeBackupOfYour","資格情報のバックアップを取り、安全に保管してください。 一度忘れたり紛失したりすると、元に戻すことはできません。"),</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1827">
+        <f t="shared" si="57"/>
+        <v>1826</v>
+      </c>
+      <c r="B1827">
+        <v>6</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1827" s="3" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E1827" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1826","6","pleaseTakeBackupOfYour","Faça um backup de suas credenciais e mantenha-as seguras. Uma vez esquecido ou perdido, nunca pode ser trazido de volta."),</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1828">
+        <f t="shared" si="57"/>
+        <v>1827</v>
+      </c>
+      <c r="B1828">
+        <v>7</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1828" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E1828" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1827","7","pleaseTakeBackupOfYour","कृपया अपने क्रेडेंशियल्स का बैकअप लें और उन्हें सुरक्षित रखें। एक बार भूल जाने या खो जाने के बाद, इसे कभी वापस नहीं लाया जा सकता है।"),</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1829">
+        <f t="shared" si="57"/>
+        <v>1828</v>
+      </c>
+      <c r="B1829">
+        <v>8</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1829" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E1829" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1828","8","pleaseTakeBackupOfYour","Пожалуйста, сделайте резервную копию своих учетных данных и сохраните их в безопасности. Однажды забытое или потерянное, его уже невозможно вернуть."),</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1830">
+        <f t="shared" si="57"/>
+        <v>1829</v>
+      </c>
+      <c r="B1830">
+        <v>9</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1830" s="3" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1830" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1829","9","pleaseTakeBackupOfYour","Realice una copia de seguridad de sus credenciales y manténgalas seguras. Una vez olvidado o perdido, nunca se puede recuperar."),</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1831">
+        <f t="shared" si="57"/>
+        <v>1830</v>
+      </c>
+      <c r="B1831">
+        <v>10</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1831" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E1831" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1830","10","pleaseTakeBackupOfYour","يرجى أخذ نسخة احتياطية من بيانات الاعتماد الخاصة بك والاحتفاظ بها آمنة. بمجرد نسيانها أو فقدها ، لا يمكن إعادتها أبدًا."),</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1832">
+        <f t="shared" si="57"/>
+        <v>1831</v>
+      </c>
+      <c r="B1832">
+        <v>1</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1832" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E1832" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1831","1","youCanMaintainMultipleBuckets","You can maintain multiple buckets in your application, but can be viewed 1 at a time in AWS S3 module"),</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1833">
+        <f t="shared" si="57"/>
+        <v>1832</v>
+      </c>
+      <c r="B1833">
+        <v>2</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1833" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E1833" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1832","2","youCanMaintainMultipleBuckets","உங்கள் பயன்பாட்டில் பல வாளிகளை நீங்கள் பராமரிக்கலாம், ஆனால் AWS S3 தொகுதியில் ஒரு நேரத்தில் 1 பார்க்க முடியும்"),</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1834">
+        <f t="shared" si="57"/>
+        <v>1833</v>
+      </c>
+      <c r="B1834">
+        <v>3</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1834" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E1834" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1833","3","youCanMaintainMultipleBuckets","Vous pouvez gérer plusieurs compartiments dans votre application, mais vous pouvez les afficher 1 à la fois dans le module AWS S3"),</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1835">
+        <f t="shared" si="57"/>
+        <v>1834</v>
+      </c>
+      <c r="B1835">
+        <v>4</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1835" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E1835" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1834","4","youCanMaintainMultipleBuckets","您可以在应用程序中维护多个存储桶，但可以在 AWS S3 模块中一次查看 1 个"),</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1836">
+        <f t="shared" si="57"/>
+        <v>1835</v>
+      </c>
+      <c r="B1836">
+        <v>5</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1836" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E1836" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1835","5","youCanMaintainMultipleBuckets","アプリケーションで複数のバケットを維持できますが、AWS S3 モジュールで一度に 1 つずつ表示できます"),</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1837">
+        <f t="shared" si="57"/>
+        <v>1836</v>
+      </c>
+      <c r="B1837">
+        <v>6</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1837" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E1837" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1836","6","youCanMaintainMultipleBuckets","Você pode manter vários buckets em seu aplicativo, mas pode ser visualizado um por vez no módulo AWS S3"),</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1838">
+        <f t="shared" si="57"/>
+        <v>1837</v>
+      </c>
+      <c r="B1838">
+        <v>7</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1838" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E1838" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1837","7","youCanMaintainMultipleBuckets","आप अपने एप्लिकेशन में कई बकेट बनाए रख सकते हैं, लेकिन AWS S3 मॉड्यूल में एक बार में 1 देखा जा सकता है"),</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1839">
+        <f t="shared" si="57"/>
+        <v>1838</v>
+      </c>
+      <c r="B1839">
+        <v>8</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1839" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E1839" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1838","8","youCanMaintainMultipleBuckets","Вы можете поддерживать несколько сегментов в своем приложении, но их можно просматривать по одному в модуле AWS S3."),</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1840">
+        <f t="shared" si="57"/>
+        <v>1839</v>
+      </c>
+      <c r="B1840">
+        <v>9</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1840" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1840" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1839","9","youCanMaintainMultipleBuckets","Puede mantener varios cubos en su aplicación, pero se puede ver uno a la vez en el módulo AWS S3"),</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1841">
+        <f t="shared" si="57"/>
+        <v>1840</v>
+      </c>
+      <c r="B1841">
+        <v>10</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1841" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E1841" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1840","10","youCanMaintainMultipleBuckets","يمكنك الاحتفاظ بالعديد من الحاويات في تطبيقك ، ولكن يمكن عرضها واحدة في كل مرة في وحدة AWS S3"),</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1842">
+        <f t="shared" si="57"/>
+        <v>1841</v>
+      </c>
+      <c r="B1842">
+        <v>1</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1842" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1842" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1841","1","weUseSignedURLs","We use signed URLs, to load your media files for security purpose"),</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1843">
+        <f t="shared" si="57"/>
+        <v>1842</v>
+      </c>
+      <c r="B1843">
+        <v>2</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1843" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E1843" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1842","2","weUseSignedURLs","பாதுகாப்பு நோக்கத்திற்காக உங்கள் மீடியா கோப்புகளை ஏற்ற, கையொப்பமிடப்பட்ட URLகளைப் பயன்படுத்துகிறோம்"),</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1844">
+        <f t="shared" si="57"/>
+        <v>1843</v>
+      </c>
+      <c r="B1844">
+        <v>3</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1844" s="3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E1844" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1843","3","weUseSignedURLs","Nous utilisons des URL signées pour charger vos fichiers multimédias à des fins de sécurité"),</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1845">
+        <f t="shared" si="57"/>
+        <v>1844</v>
+      </c>
+      <c r="B1845">
+        <v>4</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1845" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E1845" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1844","4","weUseSignedURLs","为了安全起见，我们使用签名 URL 来加载您的媒体文件"),</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1846">
+        <f t="shared" si="57"/>
+        <v>1845</v>
+      </c>
+      <c r="B1846">
+        <v>5</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1846" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E1846" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1845","5","weUseSignedURLs","セキュリティ上の目的で、署名付き URL を使用してメディア ファイルを読み込みます"),</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1847">
+        <f t="shared" si="57"/>
+        <v>1846</v>
+      </c>
+      <c r="B1847">
+        <v>6</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1847" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1847" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1846","6","weUseSignedURLs","Usamos URLs assinados para carregar seus arquivos de mídia para fins de segurança"),</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1848">
+        <f t="shared" si="57"/>
+        <v>1847</v>
+      </c>
+      <c r="B1848">
+        <v>7</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1848" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E1848" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v>("1847","7","weUseSignedURLs","सुरक्षा उद्देश्य के लिए आपकी मीडिया फ़ाइलों को लोड करने के लिए हम हस्ताक्षरित URL का उपयोग करते हैं"),</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1849">
+        <f t="shared" si="57"/>
+        <v>1848</v>
+      </c>
+      <c r="B1849">
+        <v>8</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1849" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E1849" s="1" t="str">
+        <f t="shared" ref="E1849:E1872" si="58">CONCATENATE("(",CHAR(34),A1849,CHAR(34),",",CHAR(34),B1849,CHAR(34),",",CHAR(34),C1849,CHAR(34),",",CHAR(34),D1849,CHAR(34),"),")</f>
+        <v>("1848","8","weUseSignedURLs","Мы используем подписанные URL-адреса для загрузки ваших медиафайлов в целях безопасности."),</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1850">
+        <f t="shared" si="57"/>
+        <v>1849</v>
+      </c>
+      <c r="B1850">
+        <v>9</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1850" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E1850" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1849","9","weUseSignedURLs","Usamos URL firmadas para cargar sus archivos multimedia por motivos de seguridad."),</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1851">
+        <f t="shared" si="57"/>
+        <v>1850</v>
+      </c>
+      <c r="B1851">
+        <v>10</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1851" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E1851" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1850","10","weUseSignedURLs","نستخدم عناوين URL موقعة لتحميل ملفات الوسائط الخاصة بك لأغراض أمنية"),</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1852">
+        <f t="shared" si="57"/>
+        <v>1851</v>
+      </c>
+      <c r="B1852">
+        <v>1</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1852" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E1852" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1851","1","youCanCopyTheLocationOfYourFile","You can copy the location of your file (from AWS s3 module) which can be placed in your config area for loading media files."),</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1853">
+        <f t="shared" si="57"/>
+        <v>1852</v>
+      </c>
+      <c r="B1853">
+        <v>2</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1853" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1853" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1852","2","youCanCopyTheLocationOfYourFile","உங்கள் கோப்பின் இருப்பிடத்தை (AWS s3 தொகுதியிலிருந்து) நகலெடுக்கலாம், இது மீடியா கோப்புகளை ஏற்றுவதற்கு உங்கள் கட்டமைப்பு பகுதியில் வைக்கப்படும்."),</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1854">
+        <f t="shared" si="57"/>
+        <v>1853</v>
+      </c>
+      <c r="B1854">
+        <v>3</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1854" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E1854" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1853","3","youCanCopyTheLocationOfYourFile","Vous pouvez copier l'emplacement de votre fichier (à partir du module AWS s3) qui peut être placé dans votre zone de configuration pour le chargement des fichiers multimédias."),</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1855">
+        <f t="shared" si="57"/>
+        <v>1854</v>
+      </c>
+      <c r="B1855">
+        <v>4</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1855" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E1855" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1854","4","youCanCopyTheLocationOfYourFile","您可以复制文件的位置（来自 AWS s3 模块），该位置可以放置在您的配置区域中以加载媒体文件。"),</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1856">
+        <f t="shared" si="57"/>
+        <v>1855</v>
+      </c>
+      <c r="B1856">
+        <v>5</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1856" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E1856" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1855","5","youCanCopyTheLocationOfYourFile","ファイルの場所を (AWS s3 モジュールから) コピーして、メディア ファイルをロードするための構成領域に配置できます。"),</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1857">
+        <f t="shared" si="57"/>
+        <v>1856</v>
+      </c>
+      <c r="B1857">
+        <v>6</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1857" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E1857" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1856","6","youCanCopyTheLocationOfYourFile","Você pode copiar o local do seu arquivo (do módulo AWS s3) que pode ser colocado em sua área de configuração para carregar arquivos de mídia."),</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1858">
+        <f t="shared" si="57"/>
+        <v>1857</v>
+      </c>
+      <c r="B1858">
+        <v>7</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1858" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E1858" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1857","7","youCanCopyTheLocationOfYourFile","आप अपनी फ़ाइल के स्थान की प्रतिलिपि बना सकते हैं (AWS s3 मॉड्यूल से) जिसे मीडिया फ़ाइलों को लोड करने के लिए आपके कॉन्फ़िगरेशन क्षेत्र में रखा जा सकता है।"),</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1859">
+        <f t="shared" si="57"/>
+        <v>1858</v>
+      </c>
+      <c r="B1859">
+        <v>8</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1859" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1859" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1858","8","youCanCopyTheLocationOfYourFile","Вы можете скопировать расположение вашего файла (из модуля AWS s3), который можно поместить в область конфигурации для загрузки медиафайлов."),</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1860">
+        <f t="shared" si="57"/>
+        <v>1859</v>
+      </c>
+      <c r="B1860">
+        <v>9</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1860" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1860" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1859","9","youCanCopyTheLocationOfYourFile","Puede copiar la ubicación de su archivo (del módulo AWS s3) que se puede colocar en su área de configuración para cargar archivos multimedia."),</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1861">
+        <f t="shared" ref="A1861:A1871" si="59">A1860+1</f>
+        <v>1860</v>
+      </c>
+      <c r="B1861">
+        <v>10</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D1861" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E1861" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1860","10","youCanCopyTheLocationOfYourFile","يمكنك نسخ موقع ملفك (من وحدة AWS s3) والذي يمكن وضعه في منطقة التكوين الخاصة بك لتحميل ملفات الوسائط."),</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1862">
+        <f t="shared" si="59"/>
+        <v>1861</v>
+      </c>
+      <c r="B1862">
+        <v>1</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D1862" s="13" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E1862" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1861","1","forMoreDetailsAboutAwsS3","For more details about AWS S3 visit {link}"),</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1863">
+        <f t="shared" si="59"/>
+        <v>1862</v>
+      </c>
+      <c r="B1863">
+        <v>2</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1863" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E1863" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1862","2","forMoreDetailsAboutAwsS4","AWS S3 பற்றிய கூடுதல் விவரங்களுக்கு {link} ஐப் பார்வையிடவும்"),</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1864">
+        <f t="shared" si="59"/>
+        <v>1863</v>
+      </c>
+      <c r="B1864">
+        <v>3</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1864" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1864" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1863","3","forMoreDetailsAboutAwsS5","Pour plus de détails sur AWS S3, visitez {link}"),</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1865">
+        <f t="shared" si="59"/>
+        <v>1864</v>
+      </c>
+      <c r="B1865">
+        <v>4</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1865" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1865" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1864","4","forMoreDetailsAboutAwsS6","有关 AWS S3 的更多详细信息，请访问 {link}"),</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1866">
+        <f t="shared" si="59"/>
+        <v>1865</v>
+      </c>
+      <c r="B1866">
+        <v>5</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D1866" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1866" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1865","5","forMoreDetailsAboutAwsS7","AWS S3 の詳細については、{link} をご覧ください。"),</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1867">
+        <f t="shared" si="59"/>
+        <v>1866</v>
+      </c>
+      <c r="B1867">
+        <v>6</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D1867" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1867" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1866","6","forMoreDetailsAboutAwsS8","Para obter mais detalhes sobre o AWS S3, visite {link}"),</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1868">
+        <f t="shared" si="59"/>
+        <v>1867</v>
+      </c>
+      <c r="B1868">
+        <v>7</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1868" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E1868" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1867","7","forMoreDetailsAboutAwsS9","एडब्ल्यूएस एस3 के बारे में अधिक जानकारी के लिए {link} पर जाएं"),</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1869">
+        <f t="shared" si="59"/>
+        <v>1868</v>
+      </c>
+      <c r="B1869">
+        <v>8</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D1869" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1869" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1868","8","forMoreDetailsAboutAwsS10","Для получения более подробной информации об AWS S3 посетите {link}"),</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1870">
+        <f t="shared" si="59"/>
+        <v>1869</v>
+      </c>
+      <c r="B1870">
+        <v>9</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D1870" s="3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1870" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1869","9","forMoreDetailsAboutAwsS11","Para obtener más detalles sobre AWS S3, visite {link}"),</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1871">
+        <f t="shared" si="59"/>
+        <v>1870</v>
+      </c>
+      <c r="B1871">
+        <v>10</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D1871" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1871" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>("1870","10","forMoreDetailsAboutAwsS12","لمزيد من التفاصيل حول AWS S3 ، تفضل بزيارة {link}"),</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1872" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="1693" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1693" s="4" t="s">
+    <row r="1873" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1873" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="1694" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1694" s="4" t="s">
+    <row r="1874" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1874" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="1695" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1695" s="4" t="s">
+    <row r="1875" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1875" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="1696" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1696" s="3" t="s">
+    <row r="1876" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1876" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1697" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1697" s="4" t="s">
+    <row r="1877" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1877" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="1698" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1698" s="4" t="s">
+    <row r="1878" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1878" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="1699" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1699" s="4" t="s">
+    <row r="1879" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1879" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="1700" spans="5:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="E1700" s="4" t="s">
+    <row r="1880" spans="5:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E1880" s="4" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1701" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1701" s="1" t="s">
+    <row r="1881" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1881" s="1" t="s">
         <v>673</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1560FE56-B555-D848-B82B-467EEF4172FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F74860-BD09-5149-BEBA-DA185A420A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="660" windowWidth="35700" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="2633">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -7252,6 +7252,699 @@
   </si>
   <si>
     <t>अब आप जनता को google लॉगिन के माध्यम से लॉगिन करने की अनुमति दें</t>
+  </si>
+  <si>
+    <t>Choose your theme song playable for people</t>
+  </si>
+  <si>
+    <t>chooseYourThemeSongPlayableForPeople</t>
+  </si>
+  <si>
+    <t>اختر موضوع الأغنية الخاصة بك التي يمكن تشغيلها للأشخاص</t>
+  </si>
+  <si>
+    <t>Escolha sua música tema jogável para as pessoas</t>
+  </si>
+  <si>
+    <t>மக்கள் விளையாடக்கூடிய உங்கள் தீம் பாடலைத் தேர்வு செய்யவும்</t>
+  </si>
+  <si>
+    <t>Choisissez votre chanson thème jouable pour les gens</t>
+  </si>
+  <si>
+    <t>选择适合人们播放的主题曲</t>
+  </si>
+  <si>
+    <t>人々のために再生可能なテーマソングを選択してください</t>
+  </si>
+  <si>
+    <t>लोगों के लिए बजाने योग्य अपना थीम गीत चुनें</t>
+  </si>
+  <si>
+    <t>Выберите свою музыкальную тему, которую могут воспроизводить люди</t>
+  </si>
+  <si>
+    <t>Elija su tema musical reproducible para personas</t>
+  </si>
+  <si>
+    <t>If not required, leave a slash(/)</t>
+  </si>
+  <si>
+    <t>ifNotRequiredLeaveaSlash</t>
+  </si>
+  <si>
+    <t>Si no es necesario, deje una barra inclinada (/)</t>
+  </si>
+  <si>
+    <t>Если не требуется, оставьте косую черту (/)</t>
+  </si>
+  <si>
+    <t>यदि आवश्यक नहीं है, तो एक स्लैश छोड़ दें (/)</t>
+  </si>
+  <si>
+    <t>தேவையில்லை என்றால், ஒரு சாய்வு (/) விடவும்</t>
+  </si>
+  <si>
+    <t>Si non requis, laissez une barre oblique (/)</t>
+  </si>
+  <si>
+    <t>如果不需要，请留下斜杠（/）</t>
+  </si>
+  <si>
+    <t>不要な場合はスラッシュ(/)を残してください</t>
+  </si>
+  <si>
+    <t>Se não for necessário, deixe uma barra (/)</t>
+  </si>
+  <si>
+    <t>إذا لم يكن مطلوبًا ، اترك شرطة مائلة (/)</t>
+  </si>
+  <si>
+    <t>ifRequiredPasteItFromAwsGallery</t>
+  </si>
+  <si>
+    <t>If required, paste it from AWS gallery or other API</t>
+  </si>
+  <si>
+    <t>Si es necesario, péguelo desde la galería de AWS u otra API</t>
+  </si>
+  <si>
+    <t>При необходимости вставьте его из галереи AWS или другого API.</t>
+  </si>
+  <si>
+    <t>यदि आवश्यक हो, तो इसे AWS गैलरी या अन्य API से पेस्ट करें</t>
+  </si>
+  <si>
+    <t>தேவைப்பட்டால், AWS கேலரி அல்லது பிற API இலிருந்து ஒட்டவும்</t>
+  </si>
+  <si>
+    <t>Si nécessaire, collez-le depuis la galerie AWS ou une autre API</t>
+  </si>
+  <si>
+    <t>如果需要，从 AWS 库或其他 API 粘贴它</t>
+  </si>
+  <si>
+    <t>必要に応じて、AWS ギャラリーまたは他の API から貼り付けます</t>
+  </si>
+  <si>
+    <t>Se necessário, cole-o da galeria da AWS ou outra API</t>
+  </si>
+  <si>
+    <t>إذا لزم الأمر ، فقم بلصقه من معرض AWS أو واجهة برمجة تطبيقات أخرى</t>
+  </si>
+  <si>
+    <t>Theme Background Music will be played / not played during start up</t>
+  </si>
+  <si>
+    <t>themeBackgroundMusicWillBePlayed</t>
+  </si>
+  <si>
+    <t>سيتم تشغيل / عدم تشغيل موسيقى خلفية الموضوع أثناء بدء التشغيل</t>
+  </si>
+  <si>
+    <t>A música de fundo do tema será tocada/não tocada durante a inicialização</t>
+  </si>
+  <si>
+    <t>起動時にテーマ BGM が再生される / 再生されない</t>
+  </si>
+  <si>
+    <t>தொடங்கும் போது தீம் பின்னணி இசை ஒலிக்கப்படும் / இயக்கப்படாது</t>
+  </si>
+  <si>
+    <t>La musique de fond du thème sera jouée / non jouée pendant le démarrage</t>
+  </si>
+  <si>
+    <t>主题背景音乐将在启动期间播放/不播放</t>
+  </si>
+  <si>
+    <t>थीम पृष्ठभूमि संगीत स्टार्ट अप के दौरान चलाया/नहीं चलाया जाएगा</t>
+  </si>
+  <si>
+    <t>Тема Фоновая музыка будет воспроизводиться / не воспроизводиться во время запуска</t>
+  </si>
+  <si>
+    <t>La música de fondo del tema se reproducirá/no se reproducirá durante el inicio</t>
+  </si>
+  <si>
+    <t>You can show or hide audio control switch to users from the global menu</t>
+  </si>
+  <si>
+    <t>youCanShowOrHideAudioControl</t>
+  </si>
+  <si>
+    <t>Puede mostrar u ocultar el interruptor de control de audio a los usuarios desde el menú global</t>
+  </si>
+  <si>
+    <t>Вы можете показать или скрыть переключатель управления звуком для пользователей из глобального меню.</t>
+  </si>
+  <si>
+    <t>आप वैश्विक मेनू से उपयोगकर्ताओं को ऑडियो नियंत्रण स्विच दिखा या छिपा सकते हैं</t>
+  </si>
+  <si>
+    <t>உலகளாவிய மெனுவிலிருந்து பயனர்களுக்கு ஆடியோ கட்டுப்பாட்டு சுவிட்சைக் காட்டலாம் அல்லது மறைக்கலாம்</t>
+  </si>
+  <si>
+    <t>Vous pouvez afficher ou masquer le commutateur de contrôle audio pour les utilisateurs à partir du menu global</t>
+  </si>
+  <si>
+    <t>您可以从全局菜单向用户显示或隐藏音频控制开关</t>
+  </si>
+  <si>
+    <t>グローバルメニューからオーディオコントロールスイッチをユーザーに表示または非表示にできます</t>
+  </si>
+  <si>
+    <t>Você pode mostrar ou ocultar a chave de controle de áudio para os usuários no menu global</t>
+  </si>
+  <si>
+    <t>يمكنك إظهار أو إخفاء مفتاح التحكم في الصوت للمستخدمين من القائمة العامة</t>
+  </si>
+  <si>
+    <t>thisFeatureCanBeEnabledOrDisabled</t>
+  </si>
+  <si>
+    <t>This feature can be enabled or disabled based on your selection</t>
+  </si>
+  <si>
+    <t>يمكن تمكين هذه الميزة أو تعطيلها بناءً على اختيارك</t>
+  </si>
+  <si>
+    <t>Este recurso pode ser ativado ou desativado com base na sua seleção</t>
+  </si>
+  <si>
+    <t>この機能は、選択に基づいて有効または無効にすることができます</t>
+  </si>
+  <si>
+    <t>உங்கள் தேர்வின் அடிப்படையில் இந்த அம்சத்தை இயக்கலாம் அல்லது முடக்கலாம்</t>
+  </si>
+  <si>
+    <t>Cette fonctionnalité peut être activée ou désactivée en fonction de votre sélection</t>
+  </si>
+  <si>
+    <t>可以根据您的选择启用或禁用此功能</t>
+  </si>
+  <si>
+    <t>आपके चयन के आधार पर इस सुविधा को सक्षम या अक्षम किया जा सकता है</t>
+  </si>
+  <si>
+    <t>Эта функция может быть включена или отключена в зависимости от вашего выбора.</t>
+  </si>
+  <si>
+    <t>Esta función se puede habilitar o deshabilitar según su selección</t>
+  </si>
+  <si>
+    <t>Choose your theme video which plays in background</t>
+  </si>
+  <si>
+    <t>chooseYourThemeVideoWhichPlaysInBackground</t>
+  </si>
+  <si>
+    <t>Elija su video temático que se reproduce en segundo plano</t>
+  </si>
+  <si>
+    <t>Выберите тематическое видео, которое будет воспроизводиться в фоновом режиме.</t>
+  </si>
+  <si>
+    <t>अपना थीम वीडियो चुनें जो पृष्ठभूमि में चलता है</t>
+  </si>
+  <si>
+    <t>பின்னணியில் இயங்கும் உங்கள் தீம் வீடியோவைத் தேர்ந்தெடுக்கவும்</t>
+  </si>
+  <si>
+    <t>Choisissez votre vidéo thématique qui joue en arrière-plan</t>
+  </si>
+  <si>
+    <t>选择在后台播放的主题视频</t>
+  </si>
+  <si>
+    <t>バックグラウンドで再生するテーマビデオを選択してください</t>
+  </si>
+  <si>
+    <t>Escolha o vídeo do tema que é reproduzido em segundo plano</t>
+  </si>
+  <si>
+    <t>اختر موضوع الفيديو الذي يتم تشغيله في الخلفية</t>
+  </si>
+  <si>
+    <t>Dont worry.. It will be muted</t>
+  </si>
+  <si>
+    <t>dontWorryItWillBeMuted</t>
+  </si>
+  <si>
+    <t>لا تقلق .. ستكون صامتة</t>
+  </si>
+  <si>
+    <t>Não se preocupe. Ele será silenciado</t>
+  </si>
+  <si>
+    <t>心配しないで..ミュートされます</t>
+  </si>
+  <si>
+    <t>கவலைப்படாதே.. அது முடக்கப்படும்</t>
+  </si>
+  <si>
+    <t>Ne vous inquiétez pas.. Il sera mis en sourdine</t>
+  </si>
+  <si>
+    <t>别担心..它会被静音</t>
+  </si>
+  <si>
+    <t>चिंता न करें.. इसे म्यूट कर दिया जाएगा</t>
+  </si>
+  <si>
+    <t>Не волнуйтесь.. Он будет отключен</t>
+  </si>
+  <si>
+    <t>No te preocupes. Será silenciado.</t>
+  </si>
+  <si>
+    <t>KeepaSmallVideo</t>
+  </si>
+  <si>
+    <t>Keep a small video. Check file size not exceed 5MB</t>
+  </si>
+  <si>
+    <t>Guarda un pequeño video. Verifique que el tamaño del archivo no exceda los 5 MB</t>
+  </si>
+  <si>
+    <t>Сохраните небольшое видео. Убедитесь, что размер файла не превышает 5 МБ</t>
+  </si>
+  <si>
+    <t>एक छोटा सा वीडियो रखो। जाँच करें कि फ़ाइल का आकार 5MB से अधिक नहीं है</t>
+  </si>
+  <si>
+    <t>ஒரு சிறிய வீடியோவை வைத்திருங்கள். கோப்பின் அளவு 5MBக்கு மிகாமல் சரிபார்க்கவும்</t>
+  </si>
+  <si>
+    <t>Gardez une petite vidéo. Vérifiez que la taille du fichier ne dépasse pas 5 Mo</t>
+  </si>
+  <si>
+    <t>留个小视频。 检查文件大小不超过 5MB</t>
+  </si>
+  <si>
+    <t>小さなビデオを保管してください。 ファイルサイズが5MBを超えていないことを確認してください</t>
+  </si>
+  <si>
+    <t>Mantenha um pequeno vídeo. Verifique se o tamanho do arquivo não excede 5 MB</t>
+  </si>
+  <si>
+    <t>احتفظ بمقطع فيديو صغير. تحقق من حجم الملف لا يتجاوز 5 ميغا بايت</t>
+  </si>
+  <si>
+    <t>Theme Background Video will be played or not played on start up</t>
+  </si>
+  <si>
+    <t>themeBackgroundVideoWillBePlayed</t>
+  </si>
+  <si>
+    <t>سيتم تشغيل موضوع خلفية الفيديو أو لا يتم تشغيله عند بدء التشغيل</t>
+  </si>
+  <si>
+    <t>O vídeo de fundo do tema será reproduzido ou não na inicialização</t>
+  </si>
+  <si>
+    <t>起動時にテーマの背景ビデオが再生されるか再生されない</t>
+  </si>
+  <si>
+    <t>தொடக்கத்தில் தீம் பின்னணி வீடியோ இயக்கப்படும் அல்லது இயக்கப்படாது</t>
+  </si>
+  <si>
+    <t>La vidéo d'arrière-plan du thème sera lue ou non au démarrage</t>
+  </si>
+  <si>
+    <t>主题背景视频将在启动时播放或不播放</t>
+  </si>
+  <si>
+    <t>थीम पृष्ठभूमि वीडियो स्टार्ट अप पर चलाया जाएगा या नहीं चलाया जाएगा</t>
+  </si>
+  <si>
+    <t>Фоновое видео темы будет воспроизводиться или не воспроизводиться при запуске</t>
+  </si>
+  <si>
+    <t>El video de fondo del tema se reproducirá o no se reproducirá al inicio</t>
+  </si>
+  <si>
+    <t>You can show or hide video control switch to users from the global menu</t>
+  </si>
+  <si>
+    <t>youCanShowOrHideVideoControlSwitch</t>
+  </si>
+  <si>
+    <t>Puede mostrar u ocultar el interruptor de control de video a los usuarios desde el menú global</t>
+  </si>
+  <si>
+    <t>Вы можете показать или скрыть переключатель управления видео для пользователей из глобального меню.</t>
+  </si>
+  <si>
+    <t>आप वैश्विक मेनू से उपयोगकर्ताओं को वीडियो नियंत्रण स्विच दिखा या छिपा सकते हैं</t>
+  </si>
+  <si>
+    <t>உலகளாவிய மெனுவிலிருந்து பயனர்களுக்கு வீடியோ கட்டுப்பாட்டு சுவிட்சைக் காட்டலாம் அல்லது மறைக்கலாம்</t>
+  </si>
+  <si>
+    <t>Vous pouvez afficher ou masquer le commutateur de contrôle vidéo pour les utilisateurs à partir du menu global</t>
+  </si>
+  <si>
+    <t>您可以从全局菜单向用户显示或隐藏视频控制开关</t>
+  </si>
+  <si>
+    <t>グローバルメニューからビデオコントロールスイッチをユーザーに表示または非表示にすることができます</t>
+  </si>
+  <si>
+    <t>Você pode mostrar ou ocultar a chave de controle de vídeo para os usuários no menu global</t>
+  </si>
+  <si>
+    <t>يمكنك إظهار أو إخفاء مفتاح التحكم في الفيديو للمستخدمين من القائمة العامة</t>
+  </si>
+  <si>
+    <t>Set your logo image</t>
+  </si>
+  <si>
+    <t>setYourLogoImage</t>
+  </si>
+  <si>
+    <t>ضع صورة شعارك</t>
+  </si>
+  <si>
+    <t>Defina a imagem do seu logotipo</t>
+  </si>
+  <si>
+    <t>ロゴ画像を設定する</t>
+  </si>
+  <si>
+    <t>உங்கள் லோகோ படத்தை அமைக்கவும்</t>
+  </si>
+  <si>
+    <t>Définissez l'image de votre logo</t>
+  </si>
+  <si>
+    <t>设置您的徽标图像</t>
+  </si>
+  <si>
+    <t>अपनी लोगो छवि सेट करें</t>
+  </si>
+  <si>
+    <t>Установите изображение вашего логотипа</t>
+  </si>
+  <si>
+    <t>Establece la imagen de tu logotipo</t>
+  </si>
+  <si>
+    <t>PNG or SVG type is recommended</t>
+  </si>
+  <si>
+    <t>pngOrSvgTypeIsRecommended</t>
+  </si>
+  <si>
+    <t>Se recomienda el tipo PNG o SVG</t>
+  </si>
+  <si>
+    <t>Рекомендуется формат PNG или SVG</t>
+  </si>
+  <si>
+    <t>पीएनजी या एसवीजी प्रकार की सिफारिश की जाती है</t>
+  </si>
+  <si>
+    <t>PNG அல்லது SVG வகை பரிந்துரைக்கப்படுகிறது</t>
+  </si>
+  <si>
+    <t>Le type PNG ou SVG est recommandé</t>
+  </si>
+  <si>
+    <t>建议使用 PNG 或 SVG 类型</t>
+  </si>
+  <si>
+    <t>PNGまたはSVGタイプを推奨</t>
+  </si>
+  <si>
+    <t>O tipo PNG ou SVG é recomendado</t>
+  </si>
+  <si>
+    <t>يوصى باستخدام نوع PNG أو SVG</t>
+  </si>
+  <si>
+    <t>200 X 40 dimension required</t>
+  </si>
+  <si>
+    <t>200X40DimensionRequired</t>
+  </si>
+  <si>
+    <t>200 X 40 البعد المطلوب</t>
+  </si>
+  <si>
+    <t>Dimensão de 200 X 40 necessária</t>
+  </si>
+  <si>
+    <t>200 X 40 の寸法が必要</t>
+  </si>
+  <si>
+    <t>200 X 40 பரிமாணம் தேவை</t>
+  </si>
+  <si>
+    <t>Dimension 200 X 40 requise</t>
+  </si>
+  <si>
+    <t>需要 200 X 40 尺寸</t>
+  </si>
+  <si>
+    <t>200 X 40 आयाम की आवश्यकता</t>
+  </si>
+  <si>
+    <t>Требуется размер 200 X 40</t>
+  </si>
+  <si>
+    <t>Se requiere una dimensión de 200 X 40</t>
+  </si>
+  <si>
+    <t>This will be available in top global header</t>
+  </si>
+  <si>
+    <t>thisWillBeAvailableInTopGlobalHeader</t>
+  </si>
+  <si>
+    <t>Esto estará disponible en el encabezado global superior</t>
+  </si>
+  <si>
+    <t>Это будет доступно в верхнем глобальном заголовке</t>
+  </si>
+  <si>
+    <t>यह शीर्ष वैश्विक हेडर में उपलब्ध होगा</t>
+  </si>
+  <si>
+    <t>இது சிறந்த உலகளாவிய தலைப்பு பட்டியில் கிடைக்கும்</t>
+  </si>
+  <si>
+    <t>Ce sera disponible dans la barre d'en-tête globale supérieure</t>
+  </si>
+  <si>
+    <t>这将在全球顶级标头栏中提供</t>
+  </si>
+  <si>
+    <t>これは、トップグローバルヘッダーバーで利用できます</t>
+  </si>
+  <si>
+    <t>Isso estará disponível na barra de cabeçalho Global Top</t>
+  </si>
+  <si>
+    <t>سيكون هذا متاحًا في شريط الرأس العالمي العلوي</t>
+  </si>
+  <si>
+    <t>Set your logo icon</t>
+  </si>
+  <si>
+    <t>setYourLogoIcon</t>
+  </si>
+  <si>
+    <t>قم بتعيين رمز الشعار الخاص بك</t>
+  </si>
+  <si>
+    <t>Defina seu ícone do logotipo</t>
+  </si>
+  <si>
+    <t>ロゴアイコンを設定します</t>
+  </si>
+  <si>
+    <t>உங்கள் லோகோ ஐகானை அமைக்கவும்</t>
+  </si>
+  <si>
+    <t>Définissez votre icône de logo</t>
+  </si>
+  <si>
+    <t>设置您的徽标图标</t>
+  </si>
+  <si>
+    <t>अपना लोगो आइकन सेट करें</t>
+  </si>
+  <si>
+    <t>Установите значок вашего логотипа</t>
+  </si>
+  <si>
+    <t>Establezca el icono de su logotipo</t>
+  </si>
+  <si>
+    <t>setYourFavicon</t>
+  </si>
+  <si>
+    <t>Configura tu favicon. Por lo general, debe ser su logotipo</t>
+  </si>
+  <si>
+    <t>Set your favicon. Usually it should be your logo</t>
+  </si>
+  <si>
+    <t>Установите свой фавикон. Обычно это должен быть ваш логотип</t>
+  </si>
+  <si>
+    <t>अपना Favicon सेट करें। आमतौर पर यह आपका लोगो होना चाहिए</t>
+  </si>
+  <si>
+    <t>உங்கள் ஃபேவிகானை அமைக்கவும். பொதுவாக இது உங்கள் லோகோவாக இருக்க வேண்டும்</t>
+  </si>
+  <si>
+    <t>Définissez votre favicon. Habituellement, ce devrait être votre logo</t>
+  </si>
+  <si>
+    <t>设置您的网站图标。 通常它应该是你的标志</t>
+  </si>
+  <si>
+    <t>ファビコンを設定します。 通常、それはあなたのロゴでなければなりません</t>
+  </si>
+  <si>
+    <t>Defina seu favicon. Geralmente deve ser o seu logotipo</t>
+  </si>
+  <si>
+    <t>قم بتعيين الرمز المفضل لديك. عادة يجب أن يكون شعارك</t>
+  </si>
+  <si>
+    <t>32X32 or 64X64 size is sufficient</t>
+  </si>
+  <si>
+    <t>32X32Or64X64SizeIsSufficient</t>
+  </si>
+  <si>
+    <t>حجم 32 × 32 أو 64 × 64 كافٍ</t>
+  </si>
+  <si>
+    <t>O tamanho 32X32 ou 64X64 é suficiente</t>
+  </si>
+  <si>
+    <t>32X32 または 64X64 サイズで十分です</t>
+  </si>
+  <si>
+    <t>32X32 அல்லது 64X64 அளவு போதுமானது</t>
+  </si>
+  <si>
+    <t>La taille 32X32 ou 64X64 est suffisante</t>
+  </si>
+  <si>
+    <t>32X32 或 64X64 尺寸就足够了</t>
+  </si>
+  <si>
+    <t>32x32 या 64x64 आकार पर्याप्त है</t>
+  </si>
+  <si>
+    <t>Достаточно размера 32x32 или 64x64.</t>
+  </si>
+  <si>
+    <t>El tamaño 32X32 o 64X64 es suficiente</t>
+  </si>
+  <si>
+    <t>thisSetupIsOnlyForLargeDisplays</t>
+  </si>
+  <si>
+    <t>This setup is only for large display devices</t>
+  </si>
+  <si>
+    <t>இந்த அமைப்பு பெரிய காட்சி சாதனங்களுக்கு மட்டுமே</t>
+  </si>
+  <si>
+    <t>Esta configuración es solo para dispositivos de pantalla grande</t>
+  </si>
+  <si>
+    <t>Эта настройка предназначена только для устройств с большим дисплеем.</t>
+  </si>
+  <si>
+    <t>Cette configuration est uniquement pour les grands appareils d'affichage</t>
+  </si>
+  <si>
+    <t>此设置仅适用于大型显示设备</t>
+  </si>
+  <si>
+    <t>このセットアップは、大型ディスプレイ デバイス専用です。</t>
+  </si>
+  <si>
+    <t>Esta configuração é apenas para dispositivos de exibição grandes</t>
+  </si>
+  <si>
+    <t>यह सेटअप केवल बड़े डिस्प्ले डिवाइस के लिए है</t>
+  </si>
+  <si>
+    <t>هذا الإعداد مخصص لأجهزة العرض الكبيرة فقط</t>
+  </si>
+  <si>
+    <t>Occupies entire width of screen</t>
+  </si>
+  <si>
+    <t>يشغل عرض الشاشة بالكامل</t>
+  </si>
+  <si>
+    <t>स्क्रीन की पूरी चौड़ाई पर कब्जा करता है</t>
+  </si>
+  <si>
+    <t>Ocupa toda a largura da tela</t>
+  </si>
+  <si>
+    <t>திரையின் முழு அகலத்தையும் ஆக்கிரமிக்கிறது</t>
+  </si>
+  <si>
+    <t>Occupe toute la largeur de l'écran</t>
+  </si>
+  <si>
+    <t>占据整个屏幕宽度</t>
+  </si>
+  <si>
+    <t>画面の全幅を占める</t>
+  </si>
+  <si>
+    <t>Занимает всю ширину экрана</t>
+  </si>
+  <si>
+    <t>Ocupa todo el ancho de la pantalla</t>
+  </si>
+  <si>
+    <t>Occupies 70% width in screen middle</t>
+  </si>
+  <si>
+    <t>occupies70%WidthInScreenMiddle</t>
+  </si>
+  <si>
+    <t>occupiesEntireWidthOfScreen</t>
+  </si>
+  <si>
+    <t>Ocupa el 70 % del ancho en el centro de la pantalla</t>
+  </si>
+  <si>
+    <t>Занимает 70% ширины в середине экрана</t>
+  </si>
+  <si>
+    <t>画面中央の幅の70%を占める</t>
+  </si>
+  <si>
+    <t>திரையின் நடுவில் 70% அகலத்தை ஆக்கிரமித்துள்ளது</t>
+  </si>
+  <si>
+    <t>Occupe 70 % de la largeur au milieu de l'écran</t>
+  </si>
+  <si>
+    <t>占据屏幕中间70%的宽度</t>
+  </si>
+  <si>
+    <t>Ocupa 70% de largura no meio da tela</t>
+  </si>
+  <si>
+    <t>स्क्रीन बीच में 70% चौड़ाई पर कब्जा करता है</t>
+  </si>
+  <si>
+    <t>تحتل عرض 70٪ في وسط الشاشة</t>
   </si>
 </sst>
 </file>
@@ -8213,17 +8906,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2391"/>
+  <dimension ref="A1:F2571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2304" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2323" sqref="D2323"/>
+    <sheetView tabSelected="1" topLeftCell="A2543" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2561" sqref="C2561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="8" customWidth="1"/>
     <col min="5" max="5" width="68.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
@@ -52557,7 +53250,7 @@
         <v>2386</v>
       </c>
       <c r="E2333" s="6" t="str">
-        <f t="shared" ref="E2333:E2351" si="74">CONCATENATE("(",CHAR(34),A2333,CHAR(34),",",CHAR(34),B2333,CHAR(34),",",CHAR(34),C2333,CHAR(34),",",CHAR(34),D2333,CHAR(34),"),")</f>
+        <f t="shared" ref="E2333:E2380" si="74">CONCATENATE("(",CHAR(34),A2333,CHAR(34),",",CHAR(34),B2333,CHAR(34),",",CHAR(34),C2333,CHAR(34),",",CHAR(34),D2333,CHAR(34),"),")</f>
         <v>("2332","2","youAreDone","முடிந்தது"),</v>
       </c>
     </row>
@@ -52911,11 +53604,18 @@
       <c r="B2352" s="16">
         <v>1</v>
       </c>
-      <c r="E2352" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2353" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2352" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E2352" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2351","1","chooseYourThemeSongPlayableForPeople","Choose your theme song playable for people"),</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2353">
         <f t="shared" si="73"/>
         <v>2352</v>
@@ -52923,11 +53623,18 @@
       <c r="B2353" s="16">
         <v>2</v>
       </c>
-      <c r="E2353" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="2354" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2353" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2353" s="8" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E2353" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2352","2","chooseYourThemeSongPlayableForPeople","மக்கள் விளையாடக்கூடிய உங்கள் தீம் பாடலைத் தேர்வு செய்யவும்"),</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2354">
         <f t="shared" si="73"/>
         <v>2353</v>
@@ -52935,11 +53642,18 @@
       <c r="B2354" s="16">
         <v>3</v>
       </c>
-      <c r="E2354" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2355" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2354" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2354" s="8" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E2354" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2353","3","chooseYourThemeSongPlayableForPeople","Choisissez votre chanson thème jouable pour les gens"),</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2355">
         <f t="shared" si="73"/>
         <v>2354</v>
@@ -52947,8 +53661,15 @@
       <c r="B2355" s="16">
         <v>4</v>
       </c>
-      <c r="E2355" s="7" t="s">
-        <v>519</v>
+      <c r="C2355" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2355" s="8" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E2355" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2354","4","chooseYourThemeSongPlayableForPeople","选择适合人们播放的主题曲"),</v>
       </c>
     </row>
     <row r="2356" spans="1:5" x14ac:dyDescent="0.2">
@@ -52959,11 +53680,18 @@
       <c r="B2356" s="16">
         <v>5</v>
       </c>
-      <c r="E2356" s="8" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="2357" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2356" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2356" s="8" t="s">
+        <v>2409</v>
+      </c>
+      <c r="E2356" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2355","5","chooseYourThemeSongPlayableForPeople","人々のために再生可能なテーマソングを選択してください"),</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2357">
         <f t="shared" si="73"/>
         <v>2356</v>
@@ -52971,11 +53699,18 @@
       <c r="B2357" s="16">
         <v>6</v>
       </c>
-      <c r="E2357" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2358" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2357" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2357" s="8" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E2357" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2356","6","chooseYourThemeSongPlayableForPeople","Escolha sua música tema jogável para as pessoas"),</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2358">
         <f t="shared" si="73"/>
         <v>2357</v>
@@ -52983,11 +53718,18 @@
       <c r="B2358" s="16">
         <v>7</v>
       </c>
-      <c r="E2358" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2359" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2358" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2358" s="8" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E2358" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2357","7","chooseYourThemeSongPlayableForPeople","लोगों के लिए बजाने योग्य अपना थीम गीत चुनें"),</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2359">
         <f t="shared" si="73"/>
         <v>2358</v>
@@ -52995,11 +53737,18 @@
       <c r="B2359" s="16">
         <v>8</v>
       </c>
-      <c r="E2359" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2360" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2359" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2359" s="8" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E2359" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2358","8","chooseYourThemeSongPlayableForPeople","Выберите свою музыкальную тему, которую могут воспроизводить люди"),</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2360">
         <f t="shared" si="73"/>
         <v>2359</v>
@@ -53007,8 +53756,15 @@
       <c r="B2360" s="16">
         <v>9</v>
       </c>
-      <c r="E2360" s="7" t="s">
-        <v>1452</v>
+      <c r="C2360" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2360" s="8" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E2360" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2359","9","chooseYourThemeSongPlayableForPeople","Elija su tema musical reproducible para personas"),</v>
       </c>
     </row>
     <row r="2361" spans="1:5" x14ac:dyDescent="0.2">
@@ -53019,8 +53775,15 @@
       <c r="B2361" s="16">
         <v>10</v>
       </c>
-      <c r="E2361" s="6" t="s">
-        <v>673</v>
+      <c r="C2361" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2361" s="8" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E2361" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2360","10","chooseYourThemeSongPlayableForPeople","اختر موضوع الأغنية الخاصة بك التي يمكن تشغيلها للأشخاص"),</v>
       </c>
     </row>
     <row r="2362" spans="1:5" x14ac:dyDescent="0.2">
@@ -53031,6 +53794,16 @@
       <c r="B2362" s="16">
         <v>1</v>
       </c>
+      <c r="C2362" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E2362" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2361","1","ifNotRequiredLeaveaSlash","If not required, leave a slash(/)"),</v>
+      </c>
     </row>
     <row r="2363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2363">
@@ -53040,6 +53813,16 @@
       <c r="B2363" s="16">
         <v>2</v>
       </c>
+      <c r="C2363" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2363" s="8" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E2363" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2362","2","ifNotRequiredLeaveaSlash","தேவையில்லை என்றால், ஒரு சாய்வு (/) விடவும்"),</v>
+      </c>
     </row>
     <row r="2364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2364">
@@ -53049,6 +53832,16 @@
       <c r="B2364" s="16">
         <v>3</v>
       </c>
+      <c r="C2364" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2364" s="8" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E2364" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2363","3","ifNotRequiredLeaveaSlash","Si non requis, laissez une barre oblique (/)"),</v>
+      </c>
     </row>
     <row r="2365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2365">
@@ -53058,6 +53851,16 @@
       <c r="B2365" s="16">
         <v>4</v>
       </c>
+      <c r="C2365" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2365" s="8" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E2365" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2364","4","ifNotRequiredLeaveaSlash","如果不需要，请留下斜杠（/）"),</v>
+      </c>
     </row>
     <row r="2366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2366">
@@ -53067,6 +53870,16 @@
       <c r="B2366" s="16">
         <v>5</v>
       </c>
+      <c r="C2366" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2366" s="8" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E2366" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2365","5","ifNotRequiredLeaveaSlash","不要な場合はスラッシュ(/)を残してください"),</v>
+      </c>
     </row>
     <row r="2367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2367">
@@ -53076,6 +53889,16 @@
       <c r="B2367" s="16">
         <v>6</v>
       </c>
+      <c r="C2367" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2367" s="8" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E2367" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2366","6","ifNotRequiredLeaveaSlash","Se não for necessário, deixe uma barra (/)"),</v>
+      </c>
     </row>
     <row r="2368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2368">
@@ -53085,8 +53908,18 @@
       <c r="B2368" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="2369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2368" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2368" s="8" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E2368" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2367","7","ifNotRequiredLeaveaSlash","यदि आवश्यक नहीं है, तो एक स्लैश छोड़ दें (/)"),</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2369">
         <f t="shared" si="73"/>
         <v>2368</v>
@@ -53094,8 +53927,18 @@
       <c r="B2369" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="2370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2369" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2369" s="8" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E2369" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2368","8","ifNotRequiredLeaveaSlash","Если не требуется, оставьте косую черту (/)"),</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2370">
         <f t="shared" si="73"/>
         <v>2369</v>
@@ -53103,8 +53946,18 @@
       <c r="B2370" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="2371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2370" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2370" s="8" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E2370" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2369","9","ifNotRequiredLeaveaSlash","Si no es necesario, deje una barra inclinada (/)"),</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2371">
         <f t="shared" si="73"/>
         <v>2370</v>
@@ -53112,8 +53965,18 @@
       <c r="B2371" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="2372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2371" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D2371" s="8" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E2371" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2370","10","ifNotRequiredLeaveaSlash","إذا لم يكن مطلوبًا ، اترك شرطة مائلة (/)"),</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2372">
         <f t="shared" si="73"/>
         <v>2371</v>
@@ -53121,17 +53984,37 @@
       <c r="B2372" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="2373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2372" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E2372" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2371","1","ifRequiredPasteItFromAwsGallery","If required, paste it from AWS gallery or other API"),</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2373">
-        <f t="shared" ref="A2373:A2391" si="75">A2372+1</f>
+        <f t="shared" ref="A2373:A2436" si="75">A2372+1</f>
         <v>2372</v>
       </c>
       <c r="B2373" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="2374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2373" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2373" s="8" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E2373" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2372","2","ifRequiredPasteItFromAwsGallery","தேவைப்பட்டால், AWS கேலரி அல்லது பிற API இலிருந்து ஒட்டவும்"),</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2374">
         <f t="shared" si="75"/>
         <v>2373</v>
@@ -53139,8 +54022,18 @@
       <c r="B2374" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="2375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2374" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2374" s="8" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E2374" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2373","3","ifRequiredPasteItFromAwsGallery","Si nécessaire, collez-le depuis la galerie AWS ou une autre API"),</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2375">
         <f t="shared" si="75"/>
         <v>2374</v>
@@ -53148,8 +54041,18 @@
       <c r="B2375" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="2376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2375" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2375" s="8" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E2375" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2374","4","ifRequiredPasteItFromAwsGallery","如果需要，从 AWS 库或其他 API 粘贴它"),</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2376">
         <f t="shared" si="75"/>
         <v>2375</v>
@@ -53157,8 +54060,18 @@
       <c r="B2376" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="2377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2376" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2376" s="8" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E2376" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2375","5","ifRequiredPasteItFromAwsGallery","必要に応じて、AWS ギャラリーまたは他の API から貼り付けます"),</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2377">
         <f t="shared" si="75"/>
         <v>2376</v>
@@ -53166,8 +54079,18 @@
       <c r="B2377" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="2378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2377" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2377" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E2377" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2376","6","ifRequiredPasteItFromAwsGallery","Se necessário, cole-o da galeria da AWS ou outra API"),</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2378">
         <f t="shared" si="75"/>
         <v>2377</v>
@@ -53175,8 +54098,18 @@
       <c r="B2378" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="2379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2378" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2378" s="8" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E2378" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2377","7","ifRequiredPasteItFromAwsGallery","यदि आवश्यक हो, तो इसे AWS गैलरी या अन्य API से पेस्ट करें"),</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2379">
         <f t="shared" si="75"/>
         <v>2378</v>
@@ -53184,8 +54117,18 @@
       <c r="B2379" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="2380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2379" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2379" s="8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E2379" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2378","8","ifRequiredPasteItFromAwsGallery","При необходимости вставьте его из галереи AWS или другого API."),</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2380">
         <f t="shared" si="75"/>
         <v>2379</v>
@@ -53193,8 +54136,18 @@
       <c r="B2380" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="2381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2380" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2380" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E2380" s="6" t="str">
+        <f t="shared" si="74"/>
+        <v>("2379","9","ifRequiredPasteItFromAwsGallery","Si es necesario, péguelo desde la galería de AWS u otra API"),</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2381">
         <f t="shared" si="75"/>
         <v>2380</v>
@@ -53202,8 +54155,18 @@
       <c r="B2381" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="2382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2381" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D2381" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E2381" s="6" t="str">
+        <f>CONCATENATE("(",CHAR(34),A2381,CHAR(34),",",CHAR(34),B2381,CHAR(34),",",CHAR(34),C2381,CHAR(34),",",CHAR(34),D2381,CHAR(34),"),")</f>
+        <v>("2380","10","ifRequiredPasteItFromAwsGallery","إذا لزم الأمر ، فقم بلصقه من معرض AWS أو واجهة برمجة تطبيقات أخرى"),</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2382">
         <f t="shared" si="75"/>
         <v>2381</v>
@@ -53211,8 +54174,18 @@
       <c r="B2382" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="2383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2382" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E2382" s="6" t="str">
+        <f t="shared" ref="E2382:E2445" si="76">CONCATENATE("(",CHAR(34),A2382,CHAR(34),",",CHAR(34),B2382,CHAR(34),",",CHAR(34),C2382,CHAR(34),",",CHAR(34),D2382,CHAR(34),"),")</f>
+        <v>("2381","1","themeBackgroundMusicWillBePlayed","Theme Background Music will be played / not played during start up"),</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2383">
         <f t="shared" si="75"/>
         <v>2382</v>
@@ -53220,8 +54193,18 @@
       <c r="B2383" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="2384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2383" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2383" s="8" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2383" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2382","2","themeBackgroundMusicWillBePlayed","தொடங்கும் போது தீம் பின்னணி இசை ஒலிக்கப்படும் / இயக்கப்படாது"),</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2384">
         <f t="shared" si="75"/>
         <v>2383</v>
@@ -53229,8 +54212,18 @@
       <c r="B2384" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="2385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2384" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2384" s="8" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2384" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2383","3","themeBackgroundMusicWillBePlayed","La musique de fond du thème sera jouée / non jouée pendant le démarrage"),</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2385">
         <f t="shared" si="75"/>
         <v>2384</v>
@@ -53238,8 +54231,18 @@
       <c r="B2385" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="2386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2385" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2385" s="8" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2385" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2384","4","themeBackgroundMusicWillBePlayed","主题背景音乐将在启动期间播放/不播放"),</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2386">
         <f t="shared" si="75"/>
         <v>2385</v>
@@ -53247,8 +54250,18 @@
       <c r="B2386" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="2387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2386" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2386" s="8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E2386" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2385","5","themeBackgroundMusicWillBePlayed","起動時にテーマ BGM が再生される / 再生されない"),</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2387">
         <f t="shared" si="75"/>
         <v>2386</v>
@@ -53256,8 +54269,18 @@
       <c r="B2387" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="2388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2387" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2387" s="8" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E2387" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2386","6","themeBackgroundMusicWillBePlayed","A música de fundo do tema será tocada/não tocada durante a inicialização"),</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2388">
         <f t="shared" si="75"/>
         <v>2387</v>
@@ -53265,8 +54288,18 @@
       <c r="B2388" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="2389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2388" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2388" s="8" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2388" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2387","7","themeBackgroundMusicWillBePlayed","थीम पृष्ठभूमि संगीत स्टार्ट अप के दौरान चलाया/नहीं चलाया जाएगा"),</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2389">
         <f t="shared" si="75"/>
         <v>2388</v>
@@ -53274,8 +54307,18 @@
       <c r="B2389" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="2390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2389" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2389" s="8" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2389" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2388","8","themeBackgroundMusicWillBePlayed","Тема Фоновая музыка будет воспроизводиться / не воспроизводиться во время запуска"),</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2390">
         <f t="shared" si="75"/>
         <v>2389</v>
@@ -53283,14 +54326,3314 @@
       <c r="B2390" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="2391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2390" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2390" s="8" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2390" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2389","9","themeBackgroundMusicWillBePlayed","La música de fondo del tema se reproducirá/no se reproducirá durante el inicio"),</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2391">
         <f t="shared" si="75"/>
         <v>2390</v>
       </c>
       <c r="B2391" s="16">
         <v>10</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D2391" s="8" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E2391" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2390","10","themeBackgroundMusicWillBePlayed","سيتم تشغيل / عدم تشغيل موسيقى خلفية الموضوع أثناء بدء التشغيل"),</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2392">
+        <f t="shared" si="75"/>
+        <v>2391</v>
+      </c>
+      <c r="B2392" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2392" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2391","1","youCanShowOrHideAudioControl","You can show or hide audio control switch to users from the global menu"),</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2393">
+        <f t="shared" si="75"/>
+        <v>2392</v>
+      </c>
+      <c r="B2393" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2393" s="8" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E2393" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2392","2","youCanShowOrHideAudioControl","உலகளாவிய மெனுவிலிருந்து பயனர்களுக்கு ஆடியோ கட்டுப்பாட்டு சுவிட்சைக் காட்டலாம் அல்லது மறைக்கலாம்"),</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2394">
+        <f t="shared" si="75"/>
+        <v>2393</v>
+      </c>
+      <c r="B2394" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2394" s="8" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E2394" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2393","3","youCanShowOrHideAudioControl","Vous pouvez afficher ou masquer le commutateur de contrôle audio pour les utilisateurs à partir du menu global"),</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2395">
+        <f t="shared" si="75"/>
+        <v>2394</v>
+      </c>
+      <c r="B2395" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2395" s="8" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E2395" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2394","4","youCanShowOrHideAudioControl","您可以从全局菜单向用户显示或隐藏音频控制开关"),</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2396">
+        <f t="shared" si="75"/>
+        <v>2395</v>
+      </c>
+      <c r="B2396" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2396" s="8" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E2396" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2395","5","youCanShowOrHideAudioControl","グローバルメニューからオーディオコントロールスイッチをユーザーに表示または非表示にできます"),</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2397">
+        <f t="shared" si="75"/>
+        <v>2396</v>
+      </c>
+      <c r="B2397" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2397" s="8" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E2397" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2396","6","youCanShowOrHideAudioControl","Você pode mostrar ou ocultar a chave de controle de áudio para os usuários no menu global"),</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2398">
+        <f t="shared" si="75"/>
+        <v>2397</v>
+      </c>
+      <c r="B2398" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2398" s="8" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E2398" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2397","7","youCanShowOrHideAudioControl","आप वैश्विक मेनू से उपयोगकर्ताओं को ऑडियो नियंत्रण स्विच दिखा या छिपा सकते हैं"),</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2399">
+        <f t="shared" si="75"/>
+        <v>2398</v>
+      </c>
+      <c r="B2399" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2399" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E2399" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2398","8","youCanShowOrHideAudioControl","Вы можете показать или скрыть переключатель управления звуком для пользователей из глобального меню."),</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2400">
+        <f t="shared" si="75"/>
+        <v>2399</v>
+      </c>
+      <c r="B2400" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2400" s="8" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E2400" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2399","9","youCanShowOrHideAudioControl","Puede mostrar u ocultar el interruptor de control de audio a los usuarios desde el menú global"),</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2401">
+        <f t="shared" si="75"/>
+        <v>2400</v>
+      </c>
+      <c r="B2401" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D2401" s="8" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E2401" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2400","10","youCanShowOrHideAudioControl","يمكنك إظهار أو إخفاء مفتاح التحكم في الصوت للمستخدمين من القائمة العامة"),</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2402">
+        <f t="shared" si="75"/>
+        <v>2401</v>
+      </c>
+      <c r="B2402" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E2402" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2401","1","thisFeatureCanBeEnabledOrDisabled","This feature can be enabled or disabled based on your selection"),</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2403">
+        <f t="shared" si="75"/>
+        <v>2402</v>
+      </c>
+      <c r="B2403" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2403" s="8" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2403" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2402","2","thisFeatureCanBeEnabledOrDisabled","உங்கள் தேர்வின் அடிப்படையில் இந்த அம்சத்தை இயக்கலாம் அல்லது முடக்கலாம்"),</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2404">
+        <f t="shared" si="75"/>
+        <v>2403</v>
+      </c>
+      <c r="B2404" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2404" s="8" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E2404" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2403","3","thisFeatureCanBeEnabledOrDisabled","Cette fonctionnalité peut être activée ou désactivée en fonction de votre sélection"),</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2405">
+        <f t="shared" si="75"/>
+        <v>2404</v>
+      </c>
+      <c r="B2405" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2405" s="8" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E2405" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2404","4","thisFeatureCanBeEnabledOrDisabled","可以根据您的选择启用或禁用此功能"),</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2406">
+        <f t="shared" si="75"/>
+        <v>2405</v>
+      </c>
+      <c r="B2406" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2406" s="8" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E2406" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2405","5","thisFeatureCanBeEnabledOrDisabled","この機能は、選択に基づいて有効または無効にすることができます"),</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2407">
+        <f t="shared" si="75"/>
+        <v>2406</v>
+      </c>
+      <c r="B2407" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2407" s="8" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E2407" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2406","6","thisFeatureCanBeEnabledOrDisabled","Este recurso pode ser ativado ou desativado com base na sua seleção"),</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2408">
+        <f t="shared" si="75"/>
+        <v>2407</v>
+      </c>
+      <c r="B2408" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2408" s="8" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E2408" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2407","7","thisFeatureCanBeEnabledOrDisabled","आपके चयन के आधार पर इस सुविधा को सक्षम या अक्षम किया जा सकता है"),</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2409">
+        <f t="shared" si="75"/>
+        <v>2408</v>
+      </c>
+      <c r="B2409" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2409" s="8" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E2409" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2408","8","thisFeatureCanBeEnabledOrDisabled","Эта функция может быть включена или отключена в зависимости от вашего выбора."),</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2410">
+        <f t="shared" si="75"/>
+        <v>2409</v>
+      </c>
+      <c r="B2410" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2410" s="8" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E2410" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2409","9","thisFeatureCanBeEnabledOrDisabled","Esta función se puede habilitar o deshabilitar según su selección"),</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2411">
+        <f t="shared" si="75"/>
+        <v>2410</v>
+      </c>
+      <c r="B2411" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D2411" s="8" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E2411" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2410","10","thisFeatureCanBeEnabledOrDisabled","يمكن تمكين هذه الميزة أو تعطيلها بناءً على اختيارك"),</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2412">
+        <f t="shared" si="75"/>
+        <v>2411</v>
+      </c>
+      <c r="B2412" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E2412" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2411","1","chooseYourThemeVideoWhichPlaysInBackground","Choose your theme video which plays in background"),</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2413">
+        <f t="shared" si="75"/>
+        <v>2412</v>
+      </c>
+      <c r="B2413" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2413" s="8" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E2413" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2412","2","chooseYourThemeVideoWhichPlaysInBackground","பின்னணியில் இயங்கும் உங்கள் தீம் வீடியோவைத் தேர்ந்தெடுக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2414">
+        <f t="shared" si="75"/>
+        <v>2413</v>
+      </c>
+      <c r="B2414" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2414" s="8" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E2414" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2413","3","chooseYourThemeVideoWhichPlaysInBackground","Choisissez votre vidéo thématique qui joue en arrière-plan"),</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2415">
+        <f t="shared" si="75"/>
+        <v>2414</v>
+      </c>
+      <c r="B2415" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2415" s="8" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E2415" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2414","4","chooseYourThemeVideoWhichPlaysInBackground","选择在后台播放的主题视频"),</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2416">
+        <f t="shared" si="75"/>
+        <v>2415</v>
+      </c>
+      <c r="B2416" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2416" s="8" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E2416" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2415","5","chooseYourThemeVideoWhichPlaysInBackground","バックグラウンドで再生するテーマビデオを選択してください"),</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2417">
+        <f t="shared" si="75"/>
+        <v>2416</v>
+      </c>
+      <c r="B2417" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2417" s="8" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E2417" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2416","6","chooseYourThemeVideoWhichPlaysInBackground","Escolha o vídeo do tema que é reproduzido em segundo plano"),</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2418">
+        <f t="shared" si="75"/>
+        <v>2417</v>
+      </c>
+      <c r="B2418" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2418" s="8" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E2418" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2417","7","chooseYourThemeVideoWhichPlaysInBackground","अपना थीम वीडियो चुनें जो पृष्ठभूमि में चलता है"),</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2419">
+        <f t="shared" si="75"/>
+        <v>2418</v>
+      </c>
+      <c r="B2419" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2419" s="8" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E2419" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2418","8","chooseYourThemeVideoWhichPlaysInBackground","Выберите тематическое видео, которое будет воспроизводиться в фоновом режиме."),</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2420">
+        <f t="shared" si="75"/>
+        <v>2419</v>
+      </c>
+      <c r="B2420" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2420" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E2420" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2419","9","chooseYourThemeVideoWhichPlaysInBackground","Elija su video temático que se reproduce en segundo plano"),</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2421">
+        <f t="shared" si="75"/>
+        <v>2420</v>
+      </c>
+      <c r="B2421" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2421" s="8" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E2421" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2420","10","chooseYourThemeVideoWhichPlaysInBackground","اختر موضوع الفيديو الذي يتم تشغيله في الخلفية"),</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2422">
+        <f t="shared" si="75"/>
+        <v>2421</v>
+      </c>
+      <c r="B2422" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E2422" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2421","1","dontWorryItWillBeMuted","Dont worry.. It will be muted"),</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2423">
+        <f t="shared" si="75"/>
+        <v>2422</v>
+      </c>
+      <c r="B2423" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2423" s="8" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E2423" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2422","2","dontWorryItWillBeMuted","கவலைப்படாதே.. அது முடக்கப்படும்"),</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2424">
+        <f t="shared" si="75"/>
+        <v>2423</v>
+      </c>
+      <c r="B2424" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2424" s="8" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E2424" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2423","3","dontWorryItWillBeMuted","Ne vous inquiétez pas.. Il sera mis en sourdine"),</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2425">
+        <f t="shared" si="75"/>
+        <v>2424</v>
+      </c>
+      <c r="B2425" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2425" s="8" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E2425" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2424","4","dontWorryItWillBeMuted","别担心..它会被静音"),</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2426">
+        <f t="shared" si="75"/>
+        <v>2425</v>
+      </c>
+      <c r="B2426" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2426" s="8" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E2426" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2425","5","dontWorryItWillBeMuted","心配しないで..ミュートされます"),</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2427">
+        <f t="shared" si="75"/>
+        <v>2426</v>
+      </c>
+      <c r="B2427" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2427" s="8" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E2427" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2426","6","dontWorryItWillBeMuted","Não se preocupe. Ele será silenciado"),</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2428">
+        <f t="shared" si="75"/>
+        <v>2427</v>
+      </c>
+      <c r="B2428" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2428" s="8" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E2428" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2427","7","dontWorryItWillBeMuted","चिंता न करें.. इसे म्यूट कर दिया जाएगा"),</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2429">
+        <f t="shared" si="75"/>
+        <v>2428</v>
+      </c>
+      <c r="B2429" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2429" s="8" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E2429" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2428","8","dontWorryItWillBeMuted","Не волнуйтесь.. Он будет отключен"),</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2430">
+        <f t="shared" si="75"/>
+        <v>2429</v>
+      </c>
+      <c r="B2430" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2430" s="8" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E2430" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2429","9","dontWorryItWillBeMuted","No te preocupes. Será silenciado."),</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2431">
+        <f t="shared" si="75"/>
+        <v>2430</v>
+      </c>
+      <c r="B2431" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D2431" s="8" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E2431" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2430","10","dontWorryItWillBeMuted","لا تقلق .. ستكون صامتة"),</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2432">
+        <f t="shared" si="75"/>
+        <v>2431</v>
+      </c>
+      <c r="B2432" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E2432" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2431","1","KeepaSmallVideo","Keep a small video. Check file size not exceed 5MB"),</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2433">
+        <f t="shared" si="75"/>
+        <v>2432</v>
+      </c>
+      <c r="B2433" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2433" s="8" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E2433" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2432","2","KeepaSmallVideo","ஒரு சிறிய வீடியோவை வைத்திருங்கள். கோப்பின் அளவு 5MBக்கு மிகாமல் சரிபார்க்கவும்"),</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2434">
+        <f t="shared" si="75"/>
+        <v>2433</v>
+      </c>
+      <c r="B2434" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2434" s="8" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E2434" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2433","3","KeepaSmallVideo","Gardez une petite vidéo. Vérifiez que la taille du fichier ne dépasse pas 5 Mo"),</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2435">
+        <f t="shared" si="75"/>
+        <v>2434</v>
+      </c>
+      <c r="B2435" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2435" s="8" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E2435" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2434","4","KeepaSmallVideo","留个小视频。 检查文件大小不超过 5MB"),</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2436">
+        <f t="shared" si="75"/>
+        <v>2435</v>
+      </c>
+      <c r="B2436" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2436" s="8" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E2436" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2435","5","KeepaSmallVideo","小さなビデオを保管してください。 ファイルサイズが5MBを超えていないことを確認してください"),</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2437">
+        <f t="shared" ref="A2437:A2500" si="77">A2436+1</f>
+        <v>2436</v>
+      </c>
+      <c r="B2437" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2437" s="8" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E2437" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2436","6","KeepaSmallVideo","Mantenha um pequeno vídeo. Verifique se o tamanho do arquivo não excede 5 MB"),</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2438">
+        <f t="shared" si="77"/>
+        <v>2437</v>
+      </c>
+      <c r="B2438" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2438" s="8" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E2438" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2437","7","KeepaSmallVideo","एक छोटा सा वीडियो रखो। जाँच करें कि फ़ाइल का आकार 5MB से अधिक नहीं है"),</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2439">
+        <f t="shared" si="77"/>
+        <v>2438</v>
+      </c>
+      <c r="B2439" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2439" s="8" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E2439" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2438","8","KeepaSmallVideo","Сохраните небольшое видео. Убедитесь, что размер файла не превышает 5 МБ"),</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2440">
+        <f t="shared" si="77"/>
+        <v>2439</v>
+      </c>
+      <c r="B2440" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2440" s="8" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E2440" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2439","9","KeepaSmallVideo","Guarda un pequeño video. Verifique que el tamaño del archivo no exceda los 5 MB"),</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2441">
+        <f t="shared" si="77"/>
+        <v>2440</v>
+      </c>
+      <c r="B2441" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D2441" s="8" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E2441" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2440","10","KeepaSmallVideo","احتفظ بمقطع فيديو صغير. تحقق من حجم الملف لا يتجاوز 5 ميغا بايت"),</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2442">
+        <f t="shared" si="77"/>
+        <v>2441</v>
+      </c>
+      <c r="B2442" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E2442" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2441","1","themeBackgroundVideoWillBePlayed","Theme Background Video will be played or not played on start up"),</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2443">
+        <f t="shared" si="77"/>
+        <v>2442</v>
+      </c>
+      <c r="B2443" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2443" s="8" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E2443" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2442","2","themeBackgroundVideoWillBePlayed","தொடக்கத்தில் தீம் பின்னணி வீடியோ இயக்கப்படும் அல்லது இயக்கப்படாது"),</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2444">
+        <f t="shared" si="77"/>
+        <v>2443</v>
+      </c>
+      <c r="B2444" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2444" s="8" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E2444" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2443","3","themeBackgroundVideoWillBePlayed","La vidéo d'arrière-plan du thème sera lue ou non au démarrage"),</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2445">
+        <f t="shared" si="77"/>
+        <v>2444</v>
+      </c>
+      <c r="B2445" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2445" s="8" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E2445" s="6" t="str">
+        <f t="shared" si="76"/>
+        <v>("2444","4","themeBackgroundVideoWillBePlayed","主题背景视频将在启动时播放或不播放"),</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2446">
+        <f t="shared" si="77"/>
+        <v>2445</v>
+      </c>
+      <c r="B2446" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2446" s="8" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E2446" s="6" t="str">
+        <f t="shared" ref="E2446:E2509" si="78">CONCATENATE("(",CHAR(34),A2446,CHAR(34),",",CHAR(34),B2446,CHAR(34),",",CHAR(34),C2446,CHAR(34),",",CHAR(34),D2446,CHAR(34),"),")</f>
+        <v>("2445","5","themeBackgroundVideoWillBePlayed","起動時にテーマの背景ビデオが再生されるか再生されない"),</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2447">
+        <f t="shared" si="77"/>
+        <v>2446</v>
+      </c>
+      <c r="B2447" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2447" s="8" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E2447" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2446","6","themeBackgroundVideoWillBePlayed","O vídeo de fundo do tema será reproduzido ou não na inicialização"),</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2448">
+        <f t="shared" si="77"/>
+        <v>2447</v>
+      </c>
+      <c r="B2448" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2448" s="8" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E2448" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2447","7","themeBackgroundVideoWillBePlayed","थीम पृष्ठभूमि वीडियो स्टार्ट अप पर चलाया जाएगा या नहीं चलाया जाएगा"),</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2449">
+        <f t="shared" si="77"/>
+        <v>2448</v>
+      </c>
+      <c r="B2449" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2449" s="8" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E2449" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2448","8","themeBackgroundVideoWillBePlayed","Фоновое видео темы будет воспроизводиться или не воспроизводиться при запуске"),</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2450">
+        <f t="shared" si="77"/>
+        <v>2449</v>
+      </c>
+      <c r="B2450" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2450" s="8" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E2450" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2449","9","themeBackgroundVideoWillBePlayed","El video de fondo del tema se reproducirá o no se reproducirá al inicio"),</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2451">
+        <f t="shared" si="77"/>
+        <v>2450</v>
+      </c>
+      <c r="B2451" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2451" s="8" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E2451" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2450","10","themeBackgroundVideoWillBePlayed","سيتم تشغيل موضوع خلفية الفيديو أو لا يتم تشغيله عند بدء التشغيل"),</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2452">
+        <f t="shared" si="77"/>
+        <v>2451</v>
+      </c>
+      <c r="B2452" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E2452" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2451","1","youCanShowOrHideVideoControlSwitch","You can show or hide video control switch to users from the global menu"),</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2453">
+        <f t="shared" si="77"/>
+        <v>2452</v>
+      </c>
+      <c r="B2453" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2453" s="8" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E2453" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2452","2","youCanShowOrHideVideoControlSwitch","உலகளாவிய மெனுவிலிருந்து பயனர்களுக்கு வீடியோ கட்டுப்பாட்டு சுவிட்சைக் காட்டலாம் அல்லது மறைக்கலாம்"),</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2454">
+        <f t="shared" si="77"/>
+        <v>2453</v>
+      </c>
+      <c r="B2454" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2454" s="8" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E2454" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2453","3","youCanShowOrHideVideoControlSwitch","Vous pouvez afficher ou masquer le commutateur de contrôle vidéo pour les utilisateurs à partir du menu global"),</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2455">
+        <f t="shared" si="77"/>
+        <v>2454</v>
+      </c>
+      <c r="B2455" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2455" s="8" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E2455" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2454","4","youCanShowOrHideVideoControlSwitch","您可以从全局菜单向用户显示或隐藏视频控制开关"),</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2456">
+        <f t="shared" si="77"/>
+        <v>2455</v>
+      </c>
+      <c r="B2456" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2456" s="8" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E2456" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2455","5","youCanShowOrHideVideoControlSwitch","グローバルメニューからビデオコントロールスイッチをユーザーに表示または非表示にすることができます"),</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2457">
+        <f t="shared" si="77"/>
+        <v>2456</v>
+      </c>
+      <c r="B2457" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2457" s="8" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E2457" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2456","6","youCanShowOrHideVideoControlSwitch","Você pode mostrar ou ocultar a chave de controle de vídeo para os usuários no menu global"),</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2458">
+        <f t="shared" si="77"/>
+        <v>2457</v>
+      </c>
+      <c r="B2458" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2458" s="8" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E2458" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2457","7","youCanShowOrHideVideoControlSwitch","आप वैश्विक मेनू से उपयोगकर्ताओं को वीडियो नियंत्रण स्विच दिखा या छिपा सकते हैं"),</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2459">
+        <f t="shared" si="77"/>
+        <v>2458</v>
+      </c>
+      <c r="B2459" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2459" s="8" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E2459" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2458","8","youCanShowOrHideVideoControlSwitch","Вы можете показать или скрыть переключатель управления видео для пользователей из глобального меню."),</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2460">
+        <f t="shared" si="77"/>
+        <v>2459</v>
+      </c>
+      <c r="B2460" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2460" s="8" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E2460" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2459","9","youCanShowOrHideVideoControlSwitch","Puede mostrar u ocultar el interruptor de control de video a los usuarios desde el menú global"),</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2461">
+        <f t="shared" si="77"/>
+        <v>2460</v>
+      </c>
+      <c r="B2461" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D2461" s="8" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E2461" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2460","10","youCanShowOrHideVideoControlSwitch","يمكنك إظهار أو إخفاء مفتاح التحكم في الفيديو للمستخدمين من القائمة العامة"),</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2462">
+        <f t="shared" si="77"/>
+        <v>2461</v>
+      </c>
+      <c r="B2462" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E2462" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2461","1","setYourLogoImage","Set your logo image"),</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2463">
+        <f t="shared" si="77"/>
+        <v>2462</v>
+      </c>
+      <c r="B2463" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2463" s="8" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E2463" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2462","2","setYourLogoImage","உங்கள் லோகோ படத்தை அமைக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2464">
+        <f t="shared" si="77"/>
+        <v>2463</v>
+      </c>
+      <c r="B2464" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2464" s="8" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E2464" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2463","3","setYourLogoImage","Définissez l'image de votre logo"),</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2465">
+        <f t="shared" si="77"/>
+        <v>2464</v>
+      </c>
+      <c r="B2465" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2465" s="8" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E2465" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2464","4","setYourLogoImage","设置您的徽标图像"),</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2466">
+        <f t="shared" si="77"/>
+        <v>2465</v>
+      </c>
+      <c r="B2466" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2466" s="8" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E2466" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2465","5","setYourLogoImage","ロゴ画像を設定する"),</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2467">
+        <f t="shared" si="77"/>
+        <v>2466</v>
+      </c>
+      <c r="B2467" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2467" s="8" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E2467" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2466","6","setYourLogoImage","Defina a imagem do seu logotipo"),</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2468">
+        <f t="shared" si="77"/>
+        <v>2467</v>
+      </c>
+      <c r="B2468" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2468" s="8" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E2468" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2467","7","setYourLogoImage","अपनी लोगो छवि सेट करें"),</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2469">
+        <f t="shared" si="77"/>
+        <v>2468</v>
+      </c>
+      <c r="B2469" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2469" s="8" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E2469" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2468","8","setYourLogoImage","Установите изображение вашего логотипа"),</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2470">
+        <f t="shared" si="77"/>
+        <v>2469</v>
+      </c>
+      <c r="B2470" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2470" s="8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E2470" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2469","9","setYourLogoImage","Establece la imagen de tu logotipo"),</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2471">
+        <f t="shared" si="77"/>
+        <v>2470</v>
+      </c>
+      <c r="B2471" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D2471" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E2471" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2470","10","setYourLogoImage","ضع صورة شعارك"),</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2472">
+        <f t="shared" si="77"/>
+        <v>2471</v>
+      </c>
+      <c r="B2472" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E2472" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2471","1","pngOrSvgTypeIsRecommended","PNG or SVG type is recommended"),</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2473">
+        <f t="shared" si="77"/>
+        <v>2472</v>
+      </c>
+      <c r="B2473" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2473" s="8" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E2473" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2472","2","pngOrSvgTypeIsRecommended","PNG அல்லது SVG வகை பரிந்துரைக்கப்படுகிறது"),</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2474">
+        <f t="shared" si="77"/>
+        <v>2473</v>
+      </c>
+      <c r="B2474" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2474" s="8" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E2474" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2473","3","pngOrSvgTypeIsRecommended","Le type PNG ou SVG est recommandé"),</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2475">
+        <f t="shared" si="77"/>
+        <v>2474</v>
+      </c>
+      <c r="B2475" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2475" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E2475" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2474","4","pngOrSvgTypeIsRecommended","建议使用 PNG 或 SVG 类型"),</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2476">
+        <f t="shared" si="77"/>
+        <v>2475</v>
+      </c>
+      <c r="B2476" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2476" s="8" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E2476" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2475","5","pngOrSvgTypeIsRecommended","PNGまたはSVGタイプを推奨"),</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2477">
+        <f t="shared" si="77"/>
+        <v>2476</v>
+      </c>
+      <c r="B2477" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2477" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E2477" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2476","6","pngOrSvgTypeIsRecommended","O tipo PNG ou SVG é recomendado"),</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2478">
+        <f t="shared" si="77"/>
+        <v>2477</v>
+      </c>
+      <c r="B2478" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2478" s="8" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E2478" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2477","7","pngOrSvgTypeIsRecommended","पीएनजी या एसवीजी प्रकार की सिफारिश की जाती है"),</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2479">
+        <f t="shared" si="77"/>
+        <v>2478</v>
+      </c>
+      <c r="B2479" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2479" s="8" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E2479" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2478","8","pngOrSvgTypeIsRecommended","Рекомендуется формат PNG или SVG"),</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2480">
+        <f t="shared" si="77"/>
+        <v>2479</v>
+      </c>
+      <c r="B2480" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2480" s="8" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E2480" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2479","9","pngOrSvgTypeIsRecommended","Se recomienda el tipo PNG o SVG"),</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2481">
+        <f t="shared" si="77"/>
+        <v>2480</v>
+      </c>
+      <c r="B2481" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D2481" s="8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E2481" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2480","10","pngOrSvgTypeIsRecommended","يوصى باستخدام نوع PNG أو SVG"),</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2482">
+        <f t="shared" si="77"/>
+        <v>2481</v>
+      </c>
+      <c r="B2482" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>2545</v>
+      </c>
+      <c r="E2482" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2481","1","200X40DimensionRequired","200 X 40 dimension required"),</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2483">
+        <f t="shared" si="77"/>
+        <v>2482</v>
+      </c>
+      <c r="B2483" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2483" s="8" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E2483" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2482","2","200X40DimensionRequired","200 X 40 பரிமாணம் தேவை"),</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2484">
+        <f t="shared" si="77"/>
+        <v>2483</v>
+      </c>
+      <c r="B2484" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2484" s="8" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E2484" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2483","3","200X40DimensionRequired","Dimension 200 X 40 requise"),</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2485">
+        <f t="shared" si="77"/>
+        <v>2484</v>
+      </c>
+      <c r="B2485" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2485" s="8" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E2485" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2484","4","200X40DimensionRequired","需要 200 X 40 尺寸"),</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2486">
+        <f t="shared" si="77"/>
+        <v>2485</v>
+      </c>
+      <c r="B2486" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2486" s="8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E2486" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2485","5","200X40DimensionRequired","200 X 40 の寸法が必要"),</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2487">
+        <f t="shared" si="77"/>
+        <v>2486</v>
+      </c>
+      <c r="B2487" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2487" s="8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E2487" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2486","6","200X40DimensionRequired","Dimensão de 200 X 40 necessária"),</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2488">
+        <f t="shared" si="77"/>
+        <v>2487</v>
+      </c>
+      <c r="B2488" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2488" s="8" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E2488" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2487","7","200X40DimensionRequired","200 X 40 आयाम की आवश्यकता"),</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2489">
+        <f t="shared" si="77"/>
+        <v>2488</v>
+      </c>
+      <c r="B2489" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2489" s="8" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E2489" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2488","8","200X40DimensionRequired","Требуется размер 200 X 40"),</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2490">
+        <f t="shared" si="77"/>
+        <v>2489</v>
+      </c>
+      <c r="B2490" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2490" s="8" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E2490" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2489","9","200X40DimensionRequired","Se requiere una dimensión de 200 X 40"),</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2491">
+        <f t="shared" si="77"/>
+        <v>2490</v>
+      </c>
+      <c r="B2491" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D2491" s="8" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E2491" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2490","10","200X40DimensionRequired","200 X 40 البعد المطلوب"),</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2492">
+        <f t="shared" si="77"/>
+        <v>2491</v>
+      </c>
+      <c r="B2492" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E2492" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2491","1","thisWillBeAvailableInTopGlobalHeader","This will be available in top global header"),</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2493">
+        <f t="shared" si="77"/>
+        <v>2492</v>
+      </c>
+      <c r="B2493" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2493" s="8" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E2493" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2492","2","thisWillBeAvailableInTopGlobalHeader","இது சிறந்த உலகளாவிய தலைப்பு பட்டியில் கிடைக்கும்"),</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2494">
+        <f t="shared" si="77"/>
+        <v>2493</v>
+      </c>
+      <c r="B2494" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2494" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E2494" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2493","3","thisWillBeAvailableInTopGlobalHeader","Ce sera disponible dans la barre d'en-tête globale supérieure"),</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2495">
+        <f t="shared" si="77"/>
+        <v>2494</v>
+      </c>
+      <c r="B2495" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2495" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E2495" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2494","4","thisWillBeAvailableInTopGlobalHeader","这将在全球顶级标头栏中提供"),</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2496">
+        <f t="shared" si="77"/>
+        <v>2495</v>
+      </c>
+      <c r="B2496" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2496" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E2496" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2495","5","thisWillBeAvailableInTopGlobalHeader","これは、トップグローバルヘッダーバーで利用できます"),</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2497">
+        <f t="shared" si="77"/>
+        <v>2496</v>
+      </c>
+      <c r="B2497" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2497" s="8" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E2497" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2496","6","thisWillBeAvailableInTopGlobalHeader","Isso estará disponível na barra de cabeçalho Global Top"),</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2498">
+        <f t="shared" si="77"/>
+        <v>2497</v>
+      </c>
+      <c r="B2498" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2498" s="8" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E2498" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2497","7","thisWillBeAvailableInTopGlobalHeader","यह शीर्ष वैश्विक हेडर में उपलब्ध होगा"),</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2499">
+        <f t="shared" si="77"/>
+        <v>2498</v>
+      </c>
+      <c r="B2499" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2499" s="8" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E2499" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2498","8","thisWillBeAvailableInTopGlobalHeader","Это будет доступно в верхнем глобальном заголовке"),</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2500">
+        <f t="shared" si="77"/>
+        <v>2499</v>
+      </c>
+      <c r="B2500" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2500" s="8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E2500" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2499","9","thisWillBeAvailableInTopGlobalHeader","Esto estará disponible en el encabezado global superior"),</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2501">
+        <f t="shared" ref="A2501:A2551" si="79">A2500+1</f>
+        <v>2500</v>
+      </c>
+      <c r="B2501" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D2501" s="8" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E2501" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2500","10","thisWillBeAvailableInTopGlobalHeader","سيكون هذا متاحًا في شريط الرأس العالمي العلوي"),</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2502">
+        <f t="shared" si="79"/>
+        <v>2501</v>
+      </c>
+      <c r="B2502" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E2502" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2501","1","setYourLogoIcon","Set your logo icon"),</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2503">
+        <f t="shared" si="79"/>
+        <v>2502</v>
+      </c>
+      <c r="B2503" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2503" s="8" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E2503" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2502","2","setYourLogoIcon","உங்கள் லோகோ ஐகானை அமைக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2504">
+        <f t="shared" si="79"/>
+        <v>2503</v>
+      </c>
+      <c r="B2504" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2504" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E2504" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2503","3","setYourLogoIcon","Définissez votre icône de logo"),</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2505">
+        <f t="shared" si="79"/>
+        <v>2504</v>
+      </c>
+      <c r="B2505" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2505" s="8" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E2505" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2504","4","setYourLogoIcon","设置您的徽标图标"),</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2506">
+        <f t="shared" si="79"/>
+        <v>2505</v>
+      </c>
+      <c r="B2506" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2506" s="8" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E2506" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2505","5","setYourLogoIcon","ロゴアイコンを設定します"),</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2507">
+        <f t="shared" si="79"/>
+        <v>2506</v>
+      </c>
+      <c r="B2507" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2507" s="8" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E2507" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2506","6","setYourLogoIcon","Defina seu ícone do logotipo"),</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2508">
+        <f t="shared" si="79"/>
+        <v>2507</v>
+      </c>
+      <c r="B2508" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2508" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E2508" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2507","7","setYourLogoIcon","अपना लोगो आइकन सेट करें"),</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2509">
+        <f t="shared" si="79"/>
+        <v>2508</v>
+      </c>
+      <c r="B2509" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2509" s="8" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E2509" s="6" t="str">
+        <f t="shared" si="78"/>
+        <v>("2508","8","setYourLogoIcon","Установите значок вашего логотипа"),</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2510">
+        <f t="shared" si="79"/>
+        <v>2509</v>
+      </c>
+      <c r="B2510" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2510" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E2510" s="6" t="str">
+        <f t="shared" ref="E2510:E2551" si="80">CONCATENATE("(",CHAR(34),A2510,CHAR(34),",",CHAR(34),B2510,CHAR(34),",",CHAR(34),C2510,CHAR(34),",",CHAR(34),D2510,CHAR(34),"),")</f>
+        <v>("2509","9","setYourLogoIcon","Establezca el icono de su logotipo"),</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2511">
+        <f t="shared" si="79"/>
+        <v>2510</v>
+      </c>
+      <c r="B2511" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D2511" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E2511" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2510","10","setYourLogoIcon","قم بتعيين رمز الشعار الخاص بك"),</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2512">
+        <f t="shared" si="79"/>
+        <v>2511</v>
+      </c>
+      <c r="B2512" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E2512" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2511","1","setYourFavicon","Set your favicon. Usually it should be your logo"),</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2513">
+        <f t="shared" si="79"/>
+        <v>2512</v>
+      </c>
+      <c r="B2513" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2513" s="8" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2513" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2512","2","setYourFavicon","உங்கள் ஃபேவிகானை அமைக்கவும். பொதுவாக இது உங்கள் லோகோவாக இருக்க வேண்டும்"),</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2514">
+        <f t="shared" si="79"/>
+        <v>2513</v>
+      </c>
+      <c r="B2514" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2514" s="8" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2514" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2513","3","setYourFavicon","Définissez votre favicon. Habituellement, ce devrait être votre logo"),</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2515">
+        <f t="shared" si="79"/>
+        <v>2514</v>
+      </c>
+      <c r="B2515" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2515" s="8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2515" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2514","4","setYourFavicon","设置您的网站图标。 通常它应该是你的标志"),</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2516">
+        <f t="shared" si="79"/>
+        <v>2515</v>
+      </c>
+      <c r="B2516" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2516" s="8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2516" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2515","5","setYourFavicon","ファビコンを設定します。 通常、それはあなたのロゴでなければなりません"),</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2517">
+        <f t="shared" si="79"/>
+        <v>2516</v>
+      </c>
+      <c r="B2517" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2517" s="8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2517" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2516","6","setYourFavicon","Defina seu favicon. Geralmente deve ser o seu logotipo"),</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2518">
+        <f t="shared" si="79"/>
+        <v>2517</v>
+      </c>
+      <c r="B2518" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2518" s="8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E2518" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2517","7","setYourFavicon","अपना Favicon सेट करें। आमतौर पर यह आपका लोगो होना चाहिए"),</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2519">
+        <f t="shared" si="79"/>
+        <v>2518</v>
+      </c>
+      <c r="B2519" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2519" s="8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E2519" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2518","8","setYourFavicon","Установите свой фавикон. Обычно это должен быть ваш логотип"),</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2520">
+        <f t="shared" si="79"/>
+        <v>2519</v>
+      </c>
+      <c r="B2520" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2520" s="8" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E2520" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2519","9","setYourFavicon","Configura tu favicon. Por lo general, debe ser su logotipo"),</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2521">
+        <f t="shared" si="79"/>
+        <v>2520</v>
+      </c>
+      <c r="B2521" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D2521" s="8" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2521" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2520","10","setYourFavicon","قم بتعيين الرمز المفضل لديك. عادة يجب أن يكون شعارك"),</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2522">
+        <f t="shared" si="79"/>
+        <v>2521</v>
+      </c>
+      <c r="B2522" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2522" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2521","1","32X32Or64X64SizeIsSufficient","32X32 or 64X64 size is sufficient"),</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2523">
+        <f t="shared" si="79"/>
+        <v>2522</v>
+      </c>
+      <c r="B2523" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2523" s="8" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2523" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2522","2","32X32Or64X64SizeIsSufficient","32X32 அல்லது 64X64 அளவு போதுமானது"),</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2524">
+        <f t="shared" si="79"/>
+        <v>2523</v>
+      </c>
+      <c r="B2524" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2524" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2524" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2523","3","32X32Or64X64SizeIsSufficient","La taille 32X32 ou 64X64 est suffisante"),</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2525">
+        <f t="shared" si="79"/>
+        <v>2524</v>
+      </c>
+      <c r="B2525" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2525" s="8" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2525" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2524","4","32X32Or64X64SizeIsSufficient","32X32 或 64X64 尺寸就足够了"),</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2526">
+        <f t="shared" si="79"/>
+        <v>2525</v>
+      </c>
+      <c r="B2526" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2526" s="8" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2526" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2525","5","32X32Or64X64SizeIsSufficient","32X32 または 64X64 サイズで十分です"),</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2527">
+        <f t="shared" si="79"/>
+        <v>2526</v>
+      </c>
+      <c r="B2527" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2527" s="8" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2527" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2526","6","32X32Or64X64SizeIsSufficient","O tamanho 32X32 ou 64X64 é suficiente"),</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2528">
+        <f t="shared" si="79"/>
+        <v>2527</v>
+      </c>
+      <c r="B2528" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2528" s="8" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2528" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2527","7","32X32Or64X64SizeIsSufficient","32x32 या 64x64 आकार पर्याप्त है"),</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2529">
+        <f t="shared" si="79"/>
+        <v>2528</v>
+      </c>
+      <c r="B2529" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2529" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2529" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2528","8","32X32Or64X64SizeIsSufficient","Достаточно размера 32x32 или 64x64."),</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2530">
+        <f t="shared" si="79"/>
+        <v>2529</v>
+      </c>
+      <c r="B2530" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2530" s="8" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E2530" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2529","9","32X32Or64X64SizeIsSufficient","El tamaño 32X32 o 64X64 es suficiente"),</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2531">
+        <f t="shared" si="79"/>
+        <v>2530</v>
+      </c>
+      <c r="B2531" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D2531" s="8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2531" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2530","10","32X32Or64X64SizeIsSufficient","حجم 32 × 32 أو 64 × 64 كافٍ"),</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2532">
+        <f t="shared" si="79"/>
+        <v>2531</v>
+      </c>
+      <c r="B2532" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E2532" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2531","1","thisSetupIsOnlyForLargeDisplays","This setup is only for large display devices"),</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2533">
+        <f t="shared" si="79"/>
+        <v>2532</v>
+      </c>
+      <c r="B2533" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2533" s="8" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E2533" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2532","2","thisSetupIsOnlyForLargeDisplays","இந்த அமைப்பு பெரிய காட்சி சாதனங்களுக்கு மட்டுமே"),</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2534">
+        <f t="shared" si="79"/>
+        <v>2533</v>
+      </c>
+      <c r="B2534" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2534" s="8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E2534" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2533","3","thisSetupIsOnlyForLargeDisplays","Cette configuration est uniquement pour les grands appareils d'affichage"),</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2535">
+        <f t="shared" si="79"/>
+        <v>2534</v>
+      </c>
+      <c r="B2535" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2535" s="8" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E2535" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2534","4","thisSetupIsOnlyForLargeDisplays","此设置仅适用于大型显示设备"),</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2536">
+        <f t="shared" si="79"/>
+        <v>2535</v>
+      </c>
+      <c r="B2536" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2536" s="8" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E2536" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2535","5","thisSetupIsOnlyForLargeDisplays","このセットアップは、大型ディスプレイ デバイス専用です。"),</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2537">
+        <f t="shared" si="79"/>
+        <v>2536</v>
+      </c>
+      <c r="B2537" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2537" s="8" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E2537" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2536","6","thisSetupIsOnlyForLargeDisplays","Esta configuração é apenas para dispositivos de exibição grandes"),</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2538">
+        <f t="shared" si="79"/>
+        <v>2537</v>
+      </c>
+      <c r="B2538" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2538" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E2538" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2537","7","thisSetupIsOnlyForLargeDisplays","यह सेटअप केवल बड़े डिस्प्ले डिवाइस के लिए है"),</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2539">
+        <f t="shared" si="79"/>
+        <v>2538</v>
+      </c>
+      <c r="B2539" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2539" s="8" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E2539" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2538","8","thisSetupIsOnlyForLargeDisplays","Эта настройка предназначена только для устройств с большим дисплеем."),</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2540">
+        <f t="shared" si="79"/>
+        <v>2539</v>
+      </c>
+      <c r="B2540" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2540" s="8" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E2540" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2539","9","thisSetupIsOnlyForLargeDisplays","Esta configuración es solo para dispositivos de pantalla grande"),</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2541">
+        <f t="shared" si="79"/>
+        <v>2540</v>
+      </c>
+      <c r="B2541" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D2541" s="8" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E2541" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2540","10","thisSetupIsOnlyForLargeDisplays","هذا الإعداد مخصص لأجهزة العرض الكبيرة فقط"),</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2542">
+        <f t="shared" si="79"/>
+        <v>2541</v>
+      </c>
+      <c r="B2542" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E2542" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2541","1","occupiesEntireWidthOfScreen","Occupies entire width of screen"),</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2543">
+        <f t="shared" si="79"/>
+        <v>2542</v>
+      </c>
+      <c r="B2543" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2543" s="8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E2543" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2542","2","occupiesEntireWidthOfScreen","திரையின் முழு அகலத்தையும் ஆக்கிரமிக்கிறது"),</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2544">
+        <f t="shared" si="79"/>
+        <v>2543</v>
+      </c>
+      <c r="B2544" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2544" s="8" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E2544" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2543","3","occupiesEntireWidthOfScreen","Occupe toute la largeur de l'écran"),</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2545">
+        <f t="shared" si="79"/>
+        <v>2544</v>
+      </c>
+      <c r="B2545" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2545" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E2545" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2544","4","occupiesEntireWidthOfScreen","占据整个屏幕宽度"),</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2546">
+        <f t="shared" si="79"/>
+        <v>2545</v>
+      </c>
+      <c r="B2546" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2546" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E2546" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2545","5","occupiesEntireWidthOfScreen","画面の全幅を占める"),</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2547">
+        <f t="shared" si="79"/>
+        <v>2546</v>
+      </c>
+      <c r="B2547" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2547" s="8" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E2547" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2546","6","occupiesEntireWidthOfScreen","Ocupa toda a largura da tela"),</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2548">
+        <f t="shared" si="79"/>
+        <v>2547</v>
+      </c>
+      <c r="B2548" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2548" s="8" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E2548" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2547","7","occupiesEntireWidthOfScreen","स्क्रीन की पूरी चौड़ाई पर कब्जा करता है"),</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2549">
+        <f t="shared" si="79"/>
+        <v>2548</v>
+      </c>
+      <c r="B2549" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2549" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E2549" s="6" t="str">
+        <f t="shared" si="80"/>
+        <v>("2548","8","occupiesEntireWidthOfScreen","Занимает всю ширину экрана"),</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2550">
+        <f>A2549+1</f>
+        <v>2549</v>
+      </c>
+      <c r="B2550" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2550" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E2550" s="6" t="str">
+        <f>CONCATENATE("(",CHAR(34),A2550,CHAR(34),",",CHAR(34),B2550,CHAR(34),",",CHAR(34),C2550,CHAR(34),",",CHAR(34),D2550,CHAR(34),"),")</f>
+        <v>("2549","9","occupiesEntireWidthOfScreen","Ocupa todo el ancho de la pantalla"),</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2551">
+        <f>A2550+1</f>
+        <v>2550</v>
+      </c>
+      <c r="B2551" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D2551" s="8" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E2551" s="6" t="str">
+        <f>CONCATENATE("(",CHAR(34),A2551,CHAR(34),",",CHAR(34),B2551,CHAR(34),",",CHAR(34),C2551,CHAR(34),",",CHAR(34),D2551,CHAR(34),"),")</f>
+        <v>("2550","10","occupiesEntireWidthOfScreen","يشغل عرض الشاشة بالكامل"),</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2552">
+        <f t="shared" ref="A2552:A2561" si="81">A2551+1</f>
+        <v>2551</v>
+      </c>
+      <c r="B2552" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2552" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E2552" s="6" t="str">
+        <f t="shared" ref="E2552:E2561" si="82">CONCATENATE("(",CHAR(34),A2552,CHAR(34),",",CHAR(34),B2552,CHAR(34),",",CHAR(34),C2552,CHAR(34),",",CHAR(34),D2552,CHAR(34),"),")</f>
+        <v>("2551","1","occupies70%WidthInScreenMiddle","Occupies 70% width in screen middle"),</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2553">
+        <f t="shared" si="81"/>
+        <v>2552</v>
+      </c>
+      <c r="B2553" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2553" s="8" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E2553" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2552","2","occupies70%WidthInScreenMiddle","திரையின் நடுவில் 70% அகலத்தை ஆக்கிரமித்துள்ளது"),</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2554">
+        <f t="shared" si="81"/>
+        <v>2553</v>
+      </c>
+      <c r="B2554" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2554" s="8" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E2554" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2553","3","occupies70%WidthInScreenMiddle","Occupe 70 % de la largeur au milieu de l'écran"),</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2555">
+        <f t="shared" si="81"/>
+        <v>2554</v>
+      </c>
+      <c r="B2555" s="16">
+        <v>4</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2555" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E2555" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2554","4","occupies70%WidthInScreenMiddle","占据屏幕中间70%的宽度"),</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2556">
+        <f t="shared" si="81"/>
+        <v>2555</v>
+      </c>
+      <c r="B2556" s="16">
+        <v>5</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2556" s="8" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E2556" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2555","5","occupies70%WidthInScreenMiddle","画面中央の幅の70%を占める"),</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2557">
+        <f t="shared" si="81"/>
+        <v>2556</v>
+      </c>
+      <c r="B2557" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2557" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E2557" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2556","6","occupies70%WidthInScreenMiddle","Ocupa 70% de largura no meio da tela"),</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2558">
+        <f t="shared" si="81"/>
+        <v>2557</v>
+      </c>
+      <c r="B2558" s="16">
+        <v>7</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2558" s="8" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E2558" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2557","7","occupies70%WidthInScreenMiddle","स्क्रीन बीच में 70% चौड़ाई पर कब्जा करता है"),</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2559">
+        <f t="shared" si="81"/>
+        <v>2558</v>
+      </c>
+      <c r="B2559" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2559" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E2559" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2558","8","occupies70%WidthInScreenMiddle","Занимает 70% ширины в середине экрана"),</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2560">
+        <f t="shared" si="81"/>
+        <v>2559</v>
+      </c>
+      <c r="B2560" s="16">
+        <v>9</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2560" s="8" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E2560" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2559","9","occupies70%WidthInScreenMiddle","Ocupa el 70 % del ancho en el centro de la pantalla"),</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2561">
+        <f t="shared" si="81"/>
+        <v>2560</v>
+      </c>
+      <c r="B2561" s="16">
+        <v>10</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D2561" s="8" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E2561" s="6" t="str">
+        <f t="shared" si="82"/>
+        <v>("2560","10","occupies70%WidthInScreenMiddle","تحتل عرض 70٪ في وسط الشاشة"),</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2562" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2563" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2564" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2565" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2566" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2567" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2568" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2569" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2570" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2571" s="6" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91540025-4AD4-8841-B2BC-AFB6894D2045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFF999-5F3F-1540-BD2F-DB8EAF9B5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5452" uniqueCount="2880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="3061">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -8686,6 +8686,549 @@
   </si>
   <si>
     <t>नीचे दिए गए कोड को संपादित करें और अपनी साख के साथ बदलें</t>
+  </si>
+  <si>
+    <t>regionNameThatYouVeSelected</t>
+  </si>
+  <si>
+    <t>The {region} name is that you've selected in creating {bucket} section</t>
+  </si>
+  <si>
+    <t>{region} பெயர் {bucket} பிரிவை உருவாக்குவதில் நீங்கள் தேர்ந்தெடுத்துள்ளீர்கள்</t>
+  </si>
+  <si>
+    <t>Le nom {region} est celui que vous avez sélectionné lors de la création de la section {bucket}</t>
+  </si>
+  <si>
+    <t>{region} 名称是您在创建 {bucket} 部分中选择的</t>
+  </si>
+  <si>
+    <t>{region} の名前は、{bucket} セクションの作成で選択したものです</t>
+  </si>
+  <si>
+    <t>O nome {region} é o que você selecionou na criação da seção {bucket}</t>
+  </si>
+  <si>
+    <t>{region} नाम यह है कि आपने {bucket} अनुभाग बनाने के लिए चुना है</t>
+  </si>
+  <si>
+    <t>Имя {region} — это то, что вы выбрали при создании раздела {bucket}.</t>
+  </si>
+  <si>
+    <t>El nombre {region} es el que ha seleccionado al crear la sección {bucket}</t>
+  </si>
+  <si>
+    <t>اسم {region} هو الذي حددته في إنشاء قسم {bucket}</t>
+  </si>
+  <si>
+    <t>thisHelpsFetchAwsServer</t>
+  </si>
+  <si>
+    <t>Esto ayuda a obtener archivos de la región del servidor de AWS más cercana</t>
+  </si>
+  <si>
+    <t>Это помогает получать файлы из ближайшего к вам региона сервера AWS.</t>
+  </si>
+  <si>
+    <t>यह आपके निकटतम AWS सर्वर क्षेत्र से फ़ाइलें लाने में मदद करता है</t>
+  </si>
+  <si>
+    <t>இது உங்கள் அருகிலுள்ள AWS சர்வர் பகுதியில் இருந்து கோப்புகளைப் பெற உதவுகிறது</t>
+  </si>
+  <si>
+    <t>This helps to fetch files from your nearest AWS server region</t>
+  </si>
+  <si>
+    <t>Cela permet de récupérer des fichiers à partir de votre région de serveur AWS la plus proche</t>
+  </si>
+  <si>
+    <t>这有助于从您最近的 AWS 服务器区域获取文件</t>
+  </si>
+  <si>
+    <t>これは、最寄りの AWS サーバー リージョンからファイルを取得するのに役立ちます</t>
+  </si>
+  <si>
+    <t>Isso ajuda a buscar arquivos da região do servidor AWS mais próxima</t>
+  </si>
+  <si>
+    <t>يساعد ذلك في جلب الملفات من أقرب منطقة خادم AWS لديك</t>
+  </si>
+  <si>
+    <t>yourSocialProfileLink</t>
+  </si>
+  <si>
+    <t>Your social {media} profile link</t>
+  </si>
+  <si>
+    <t>உங்கள் சமூக {media} சுயவிவர இணைப்பு</t>
+  </si>
+  <si>
+    <t>Votre lien de profil social {media}</t>
+  </si>
+  <si>
+    <t>您的社交 {media} 个人资料链接</t>
+  </si>
+  <si>
+    <t>あなたのソーシャル {media} プロフィール リンク</t>
+  </si>
+  <si>
+    <t>Link do seu perfil social {media}</t>
+  </si>
+  <si>
+    <t>आपका सामाजिक {media} प्रोफ़ाइल लिंक</t>
+  </si>
+  <si>
+    <t>Ссылка на ваш профиль {media} в социальной сети</t>
+  </si>
+  <si>
+    <t>El enlace de tu perfil social {media}</t>
+  </si>
+  <si>
+    <t>رابط ملفك الشخصي الاجتماعي {media}</t>
+  </si>
+  <si>
+    <t>youCanShowOrHideSocialMediaLinks</t>
+  </si>
+  <si>
+    <t>You can show or hide social media icon links to users from the global menu</t>
+  </si>
+  <si>
+    <t>يمكنك إظهار أو إخفاء روابط رمز الوسائط الاجتماعية للمستخدمين من القائمة العامة</t>
+  </si>
+  <si>
+    <t>Puede mostrar u ocultar enlaces de iconos de redes sociales a los usuarios desde el menú global</t>
+  </si>
+  <si>
+    <t>Você pode mostrar ou ocultar links de ícones de mídia social para usuários no menu global</t>
+  </si>
+  <si>
+    <t>உலகளாவிய மெனுவிலிருந்து பயனர்களுக்கு சமூக ஊடக ஐகான் இணைப்புகளைக் காட்டலாம் அல்லது மறைக்கலாம்</t>
+  </si>
+  <si>
+    <t>Vous pouvez afficher ou masquer les liens d'icônes de médias sociaux vers les utilisateurs à partir du menu global</t>
+  </si>
+  <si>
+    <t>您可以从全局菜单中向用户显示或隐藏社交媒体图标链接</t>
+  </si>
+  <si>
+    <t>グローバル メニューから、ソーシャル メディア アイコン リンクをユーザーに表示または非表示にすることができます</t>
+  </si>
+  <si>
+    <t>आप वैश्विक मेनू से उपयोगकर्ताओं को सोशल मीडिया आइकन लिंक दिखा या छिपा सकते हैं</t>
+  </si>
+  <si>
+    <t>Вы можете показать или скрыть ссылки на значки социальных сетей для пользователей из глобального меню.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">லிஙகேடின் </t>
+  </si>
+  <si>
+    <t>இன்ஸ்டாகிராம்</t>
+  </si>
+  <si>
+    <t>Loan amount</t>
+  </si>
+  <si>
+    <t>loanAmount</t>
+  </si>
+  <si>
+    <t>கடன்தொகை</t>
+  </si>
+  <si>
+    <t>Сумма кредита</t>
+  </si>
+  <si>
+    <t>ऋण की राशि</t>
+  </si>
+  <si>
+    <t>Montant du prêt</t>
+  </si>
+  <si>
+    <t>贷款额度</t>
+  </si>
+  <si>
+    <t>Montante do empréstimo</t>
+  </si>
+  <si>
+    <t>ローン金額</t>
+  </si>
+  <si>
+    <t>Monto del préstamo</t>
+  </si>
+  <si>
+    <t>مبلغ القرض</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>سنوات</t>
+  </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>ஆண்டுகள்</t>
+  </si>
+  <si>
+    <t>Ans</t>
+  </si>
+  <si>
+    <t>Anos</t>
+  </si>
+  <si>
+    <t>वर्षों</t>
+  </si>
+  <si>
+    <t>Годы</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>процентная ставка</t>
+  </si>
+  <si>
+    <t>ब्याज की दर</t>
+  </si>
+  <si>
+    <t>Taxa de interesse</t>
+  </si>
+  <si>
+    <t>வட்டி விகிதம்</t>
+  </si>
+  <si>
+    <t>taux d'intérêt</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>金利</t>
+  </si>
+  <si>
+    <t>tipo de interés</t>
+  </si>
+  <si>
+    <t>معدل الفائدة</t>
+  </si>
+  <si>
+    <t>decimals</t>
+  </si>
+  <si>
+    <t>Decimals</t>
+  </si>
+  <si>
+    <t>الكسور العشرية</t>
+  </si>
+  <si>
+    <t>decimales</t>
+  </si>
+  <si>
+    <t>小数</t>
+  </si>
+  <si>
+    <t>தசமங்கள்</t>
+  </si>
+  <si>
+    <t>décimales</t>
+  </si>
+  <si>
+    <t>小数点</t>
+  </si>
+  <si>
+    <t>decimais</t>
+  </si>
+  <si>
+    <t>दशमलव</t>
+  </si>
+  <si>
+    <t>десятичные дроби</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>मुद्रा</t>
+  </si>
+  <si>
+    <t>Moeda</t>
+  </si>
+  <si>
+    <t>நாணயம்</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>devise</t>
+  </si>
+  <si>
+    <t>通貨</t>
+  </si>
+  <si>
+    <t>divisa</t>
+  </si>
+  <si>
+    <t>عملة</t>
+  </si>
+  <si>
+    <t>installments</t>
+  </si>
+  <si>
+    <t>Installments</t>
+  </si>
+  <si>
+    <t>தவணைகள்</t>
+  </si>
+  <si>
+    <t>أقساط</t>
+  </si>
+  <si>
+    <t>cuotas</t>
+  </si>
+  <si>
+    <t>versements</t>
+  </si>
+  <si>
+    <t>分期付款</t>
+  </si>
+  <si>
+    <t>分割払い</t>
+  </si>
+  <si>
+    <t>parcelas</t>
+  </si>
+  <si>
+    <t>किश्तों</t>
+  </si>
+  <si>
+    <t>рассрочка</t>
+  </si>
+  <si>
+    <t>principalAmount</t>
+  </si>
+  <si>
+    <t>அசல் தொகை</t>
+  </si>
+  <si>
+    <t>основная сумма</t>
+  </si>
+  <si>
+    <t>मूल राशि</t>
+  </si>
+  <si>
+    <t>le montant principal</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>元本</t>
+  </si>
+  <si>
+    <t>quantia principal</t>
+  </si>
+  <si>
+    <t>cantidad principal</t>
+  </si>
+  <si>
+    <t>المبلغ الأساسي</t>
+  </si>
+  <si>
+    <t>Diminishing</t>
+  </si>
+  <si>
+    <t>diminishing</t>
+  </si>
+  <si>
+    <t>إنقاص، تقليل</t>
+  </si>
+  <si>
+    <t>menguante</t>
+  </si>
+  <si>
+    <t>diminuindo</t>
+  </si>
+  <si>
+    <t>diminuant</t>
+  </si>
+  <si>
+    <t>நலிவடையும்</t>
+  </si>
+  <si>
+    <t>递减</t>
+  </si>
+  <si>
+    <t>減少している</t>
+  </si>
+  <si>
+    <t>कम होनेवाला</t>
+  </si>
+  <si>
+    <t>уменьшение</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>enterName</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Single Digit Total</t>
+  </si>
+  <si>
+    <t>singleDigitTotal</t>
+  </si>
+  <si>
+    <t>Введите имя</t>
+  </si>
+  <si>
+    <t>नाम दर्ज</t>
+  </si>
+  <si>
+    <t>பெயரை உள்ளிடுக</t>
+  </si>
+  <si>
+    <t>Entrez le nom</t>
+  </si>
+  <si>
+    <t>输入名字</t>
+  </si>
+  <si>
+    <t>名前を入力</t>
+  </si>
+  <si>
+    <t>Insira o nome</t>
+  </si>
+  <si>
+    <t>Ingrese su nombre</t>
+  </si>
+  <si>
+    <t>أدخل الاسم</t>
+  </si>
+  <si>
+    <t>احصل على</t>
+  </si>
+  <si>
+    <t>obtener</t>
+  </si>
+  <si>
+    <t>pegue</t>
+  </si>
+  <si>
+    <t>பெறு</t>
+  </si>
+  <si>
+    <t>obtenir</t>
+  </si>
+  <si>
+    <t>得到</t>
+  </si>
+  <si>
+    <t>得る</t>
+  </si>
+  <si>
+    <t>प्राप्त</t>
+  </si>
+  <si>
+    <t>получить</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>Digit</t>
+  </si>
+  <si>
+    <t>இலக்கம்</t>
+  </si>
+  <si>
+    <t>桁</t>
+  </si>
+  <si>
+    <t>अंक</t>
+  </si>
+  <si>
+    <t>chiffre</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>dígito</t>
+  </si>
+  <si>
+    <t>цифра</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Число</t>
+  </si>
+  <si>
+    <t>எண்</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>संख्या</t>
+  </si>
+  <si>
+    <t>Total de un solo dígito</t>
+  </si>
+  <si>
+    <t>सिंगल डिजिट टोटल</t>
+  </si>
+  <si>
+    <t>Total de um dígito</t>
+  </si>
+  <si>
+    <t>மொத்தம் ஒற்றை இலக்கம்</t>
+  </si>
+  <si>
+    <t>Total à un chiffre</t>
+  </si>
+  <si>
+    <t>个位数总计</t>
+  </si>
+  <si>
+    <t>1桁合計</t>
+  </si>
+  <si>
+    <t>Однозначный итог</t>
   </si>
 </sst>
 </file>
@@ -9623,10 +10166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2861"/>
+  <dimension ref="A1:F3061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2781" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2791" sqref="C2791"/>
+    <sheetView tabSelected="1" topLeftCell="A2924" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2951" sqref="D2951"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50354,11 +50897,11 @@
         <v>2185</v>
       </c>
       <c r="D2143" s="6" t="s">
-        <v>2184</v>
+        <v>2924</v>
       </c>
       <c r="E2143" t="str">
         <f t="shared" si="68"/>
-        <v>("2142","2","linkedIn","LinkedIn"),</v>
+        <v>("2142","2","linkedIn","லிஙகேடின் "),</v>
       </c>
     </row>
     <row r="2144" spans="1:5" x14ac:dyDescent="0.2">
@@ -50544,11 +51087,11 @@
         <v>2191</v>
       </c>
       <c r="D2153" s="6" t="s">
-        <v>2190</v>
+        <v>2925</v>
       </c>
       <c r="E2153" t="str">
         <f t="shared" si="68"/>
-        <v>("2152","2","instagram","Instagram"),</v>
+        <v>("2152","2","instagram","இன்ஸ்டாகிராம்"),</v>
       </c>
     </row>
     <row r="2154" spans="1:5" x14ac:dyDescent="0.2">
@@ -61776,7 +62319,7 @@
         <v>2828</v>
       </c>
       <c r="E2744" t="str">
-        <f t="shared" ref="E2744:E2791" si="88">CONCATENATE("(",CHAR(34),A2744,CHAR(34),",",CHAR(34),B2744,CHAR(34),",",CHAR(34),C2744,CHAR(34),",",CHAR(34),D2744,CHAR(34),"),")</f>
+        <f t="shared" ref="E2744:E2807" si="88">CONCATENATE("(",CHAR(34),A2744,CHAR(34),",",CHAR(34),B2744,CHAR(34),",",CHAR(34),C2744,CHAR(34),",",CHAR(34),D2744,CHAR(34),"),")</f>
         <v>("2743","3","onceCreatedClickTheBucketName","Une fois créé, cliquez sur le nom {bucket}"),</v>
       </c>
     </row>
@@ -62681,11 +63224,18 @@
       <c r="B2792" s="13">
         <v>1</v>
       </c>
-      <c r="E2792" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2793" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2792" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2792" s="6" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E2792" t="str">
+        <f t="shared" si="88"/>
+        <v>("2791","1","regionNameThatYouVeSelected","The {region} name is that you've selected in creating {bucket} section"),</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2793">
         <f t="shared" si="87"/>
         <v>2792</v>
@@ -62693,11 +63243,18 @@
       <c r="B2793" s="13">
         <v>2</v>
       </c>
-      <c r="E2793" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="2794" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2793" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2793" s="6" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E2793" t="str">
+        <f t="shared" si="88"/>
+        <v>("2792","2","regionNameThatYouVeSelected","{region} பெயர் {bucket} பிரிவை உருவாக்குவதில் நீங்கள் தேர்ந்தெடுத்துள்ளீர்கள்"),</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2794">
         <f t="shared" si="87"/>
         <v>2793</v>
@@ -62705,11 +63262,18 @@
       <c r="B2794" s="13">
         <v>3</v>
       </c>
-      <c r="E2794" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2795" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2794" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2794" s="6" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E2794" t="str">
+        <f t="shared" si="88"/>
+        <v>("2793","3","regionNameThatYouVeSelected","Le nom {region} est celui que vous avez sélectionné lors de la création de la section {bucket}"),</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2795">
         <f t="shared" si="87"/>
         <v>2794</v>
@@ -62717,8 +63281,15 @@
       <c r="B2795" s="13">
         <v>4</v>
       </c>
-      <c r="E2795" s="5" t="s">
-        <v>519</v>
+      <c r="C2795" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2795" s="6" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E2795" t="str">
+        <f t="shared" si="88"/>
+        <v>("2794","4","regionNameThatYouVeSelected","{region} 名称是您在创建 {bucket} 部分中选择的"),</v>
       </c>
     </row>
     <row r="2796" spans="1:5" x14ac:dyDescent="0.2">
@@ -62729,11 +63300,18 @@
       <c r="B2796" s="13">
         <v>5</v>
       </c>
-      <c r="E2796" s="6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2796" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2796" s="6" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E2796" t="str">
+        <f t="shared" si="88"/>
+        <v>("2795","5","regionNameThatYouVeSelected","{region} の名前は、{bucket} セクションの作成で選択したものです"),</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2797">
         <f t="shared" si="87"/>
         <v>2796</v>
@@ -62741,11 +63319,18 @@
       <c r="B2797" s="13">
         <v>6</v>
       </c>
-      <c r="E2797" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2797" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2797" s="6" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E2797" t="str">
+        <f t="shared" si="88"/>
+        <v>("2796","6","regionNameThatYouVeSelected","O nome {region} é o que você selecionou na criação da seção {bucket}"),</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2798">
         <f t="shared" si="87"/>
         <v>2797</v>
@@ -62753,11 +63338,18 @@
       <c r="B2798" s="13">
         <v>7</v>
       </c>
-      <c r="E2798" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2798" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2798" s="6" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E2798" t="str">
+        <f t="shared" si="88"/>
+        <v>("2797","7","regionNameThatYouVeSelected","{region} नाम यह है कि आपने {bucket} अनुभाग बनाने के लिए चुना है"),</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2799">
         <f t="shared" si="87"/>
         <v>2798</v>
@@ -62765,11 +63357,18 @@
       <c r="B2799" s="13">
         <v>8</v>
       </c>
-      <c r="E2799" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2799" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2799" s="6" t="s">
+        <v>2888</v>
+      </c>
+      <c r="E2799" t="str">
+        <f t="shared" si="88"/>
+        <v>("2798","8","regionNameThatYouVeSelected","Имя {region} — это то, что вы выбрали при создании раздела {bucket}."),</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2800">
         <f t="shared" si="87"/>
         <v>2799</v>
@@ -62777,8 +63376,15 @@
       <c r="B2800" s="13">
         <v>9</v>
       </c>
-      <c r="E2800" s="5" t="s">
-        <v>1452</v>
+      <c r="C2800" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2800" s="6" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E2800" t="str">
+        <f t="shared" si="88"/>
+        <v>("2799","9","regionNameThatYouVeSelected","El nombre {region} es el que ha seleccionado al crear la sección {bucket}"),</v>
       </c>
     </row>
     <row r="2801" spans="1:5" x14ac:dyDescent="0.2">
@@ -62789,8 +63395,15 @@
       <c r="B2801" s="13">
         <v>10</v>
       </c>
-      <c r="E2801" t="s">
-        <v>673</v>
+      <c r="C2801" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D2801" s="6" t="s">
+        <v>2890</v>
+      </c>
+      <c r="E2801" t="str">
+        <f t="shared" si="88"/>
+        <v>("2800","10","regionNameThatYouVeSelected","اسم {region} هو الذي حددته في إنشاء قسم {bucket}"),</v>
       </c>
     </row>
     <row r="2802" spans="1:5" x14ac:dyDescent="0.2">
@@ -62801,6 +63414,16 @@
       <c r="B2802" s="13">
         <v>1</v>
       </c>
+      <c r="C2802" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>2896</v>
+      </c>
+      <c r="E2802" t="str">
+        <f t="shared" si="88"/>
+        <v>("2801","1","thisHelpsFetchAwsServer","This helps to fetch files from your nearest AWS server region"),</v>
+      </c>
     </row>
     <row r="2803" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2803">
@@ -62810,6 +63433,16 @@
       <c r="B2803" s="13">
         <v>2</v>
       </c>
+      <c r="C2803" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2803" s="6" t="s">
+        <v>2895</v>
+      </c>
+      <c r="E2803" t="str">
+        <f t="shared" si="88"/>
+        <v>("2802","2","thisHelpsFetchAwsServer","இது உங்கள் அருகிலுள்ள AWS சர்வர் பகுதியில் இருந்து கோப்புகளைப் பெற உதவுகிறது"),</v>
+      </c>
     </row>
     <row r="2804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2804">
@@ -62819,6 +63452,16 @@
       <c r="B2804" s="13">
         <v>3</v>
       </c>
+      <c r="C2804" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2804" s="6" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E2804" t="str">
+        <f t="shared" si="88"/>
+        <v>("2803","3","thisHelpsFetchAwsServer","Cela permet de récupérer des fichiers à partir de votre région de serveur AWS la plus proche"),</v>
+      </c>
     </row>
     <row r="2805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2805">
@@ -62828,6 +63471,16 @@
       <c r="B2805" s="13">
         <v>4</v>
       </c>
+      <c r="C2805" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2805" s="6" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E2805" t="str">
+        <f t="shared" si="88"/>
+        <v>("2804","4","thisHelpsFetchAwsServer","这有助于从您最近的 AWS 服务器区域获取文件"),</v>
+      </c>
     </row>
     <row r="2806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2806">
@@ -62837,6 +63490,16 @@
       <c r="B2806" s="13">
         <v>5</v>
       </c>
+      <c r="C2806" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2806" s="6" t="s">
+        <v>2899</v>
+      </c>
+      <c r="E2806" t="str">
+        <f t="shared" si="88"/>
+        <v>("2805","5","thisHelpsFetchAwsServer","これは、最寄りの AWS サーバー リージョンからファイルを取得するのに役立ちます"),</v>
+      </c>
     </row>
     <row r="2807" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2807">
@@ -62846,14 +63509,34 @@
       <c r="B2807" s="13">
         <v>6</v>
       </c>
+      <c r="C2807" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2807" s="6" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E2807" t="str">
+        <f t="shared" si="88"/>
+        <v>("2806","6","thisHelpsFetchAwsServer","Isso ajuda a buscar arquivos da região do servidor AWS mais próxima"),</v>
+      </c>
     </row>
     <row r="2808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2808">
-        <f t="shared" ref="A2808:A2861" si="89">A2807+1</f>
+        <f t="shared" ref="A2808:A2871" si="89">A2807+1</f>
         <v>2807</v>
       </c>
       <c r="B2808" s="13">
         <v>7</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2808" s="6" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E2808" t="str">
+        <f t="shared" ref="E2808:E2872" si="90">CONCATENATE("(",CHAR(34),A2808,CHAR(34),",",CHAR(34),B2808,CHAR(34),",",CHAR(34),C2808,CHAR(34),",",CHAR(34),D2808,CHAR(34),"),")</f>
+        <v>("2807","7","thisHelpsFetchAwsServer","यह आपके निकटतम AWS सर्वर क्षेत्र से फ़ाइलें लाने में मदद करता है"),</v>
       </c>
     </row>
     <row r="2809" spans="1:5" x14ac:dyDescent="0.2">
@@ -62864,6 +63547,16 @@
       <c r="B2809" s="13">
         <v>8</v>
       </c>
+      <c r="C2809" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2809" s="6" t="s">
+        <v>2893</v>
+      </c>
+      <c r="E2809" t="str">
+        <f t="shared" si="90"/>
+        <v>("2808","8","thisHelpsFetchAwsServer","Это помогает получать файлы из ближайшего к вам региона сервера AWS."),</v>
+      </c>
     </row>
     <row r="2810" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2810">
@@ -62873,6 +63566,16 @@
       <c r="B2810" s="13">
         <v>9</v>
       </c>
+      <c r="C2810" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2810" s="6" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E2810" t="str">
+        <f t="shared" si="90"/>
+        <v>("2809","9","thisHelpsFetchAwsServer","Esto ayuda a obtener archivos de la región del servidor de AWS más cercana"),</v>
+      </c>
     </row>
     <row r="2811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2811">
@@ -62882,6 +63585,16 @@
       <c r="B2811" s="13">
         <v>10</v>
       </c>
+      <c r="C2811" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D2811" s="6" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E2811" t="str">
+        <f t="shared" si="90"/>
+        <v>("2810","10","thisHelpsFetchAwsServer","يساعد ذلك في جلب الملفات من أقرب منطقة خادم AWS لديك"),</v>
+      </c>
     </row>
     <row r="2812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2812">
@@ -62891,6 +63604,16 @@
       <c r="B2812" s="13">
         <v>1</v>
       </c>
+      <c r="C2812" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E2812" t="str">
+        <f t="shared" si="90"/>
+        <v>("2811","1","yourSocialProfileLink","Your social {media} profile link"),</v>
+      </c>
     </row>
     <row r="2813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2813">
@@ -62900,6 +63623,16 @@
       <c r="B2813" s="13">
         <v>2</v>
       </c>
+      <c r="C2813" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2813" s="6" t="s">
+        <v>2904</v>
+      </c>
+      <c r="E2813" t="str">
+        <f t="shared" si="90"/>
+        <v>("2812","2","yourSocialProfileLink","உங்கள் சமூக {media} சுயவிவர இணைப்பு"),</v>
+      </c>
     </row>
     <row r="2814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2814">
@@ -62909,6 +63642,16 @@
       <c r="B2814" s="13">
         <v>3</v>
       </c>
+      <c r="C2814" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2814" s="6" t="s">
+        <v>2905</v>
+      </c>
+      <c r="E2814" t="str">
+        <f t="shared" si="90"/>
+        <v>("2813","3","yourSocialProfileLink","Votre lien de profil social {media}"),</v>
+      </c>
     </row>
     <row r="2815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2815">
@@ -62918,6 +63661,16 @@
       <c r="B2815" s="13">
         <v>4</v>
       </c>
+      <c r="C2815" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2815" s="6" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E2815" t="str">
+        <f t="shared" si="90"/>
+        <v>("2814","4","yourSocialProfileLink","您的社交 {media} 个人资料链接"),</v>
+      </c>
     </row>
     <row r="2816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2816">
@@ -62927,8 +63680,18 @@
       <c r="B2816" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2816" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2816" s="6" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E2816" t="str">
+        <f t="shared" si="90"/>
+        <v>("2815","5","yourSocialProfileLink","あなたのソーシャル {media} プロフィール リンク"),</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2817">
         <f t="shared" si="89"/>
         <v>2816</v>
@@ -62936,8 +63699,18 @@
       <c r="B2817" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2817" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2817" s="6" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E2817" t="str">
+        <f t="shared" si="90"/>
+        <v>("2816","6","yourSocialProfileLink","Link do seu perfil social {media}"),</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2818">
         <f t="shared" si="89"/>
         <v>2817</v>
@@ -62945,8 +63718,18 @@
       <c r="B2818" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2818" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2818" s="6" t="s">
+        <v>2909</v>
+      </c>
+      <c r="E2818" t="str">
+        <f t="shared" si="90"/>
+        <v>("2817","7","yourSocialProfileLink","आपका सामाजिक {media} प्रोफ़ाइल लिंक"),</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2819">
         <f t="shared" si="89"/>
         <v>2818</v>
@@ -62954,8 +63737,18 @@
       <c r="B2819" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="2820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2819" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2819" s="6" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E2819" t="str">
+        <f t="shared" si="90"/>
+        <v>("2818","8","yourSocialProfileLink","Ссылка на ваш профиль {media} в социальной сети"),</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2820">
         <f t="shared" si="89"/>
         <v>2819</v>
@@ -62963,8 +63756,18 @@
       <c r="B2820" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="2821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2820" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2820" s="6" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E2820" t="str">
+        <f t="shared" si="90"/>
+        <v>("2819","9","yourSocialProfileLink","El enlace de tu perfil social {media}"),</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2821">
         <f t="shared" si="89"/>
         <v>2820</v>
@@ -62972,8 +63775,18 @@
       <c r="B2821" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="2822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2821" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D2821" s="6" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2821" t="str">
+        <f t="shared" si="90"/>
+        <v>("2820","10","yourSocialProfileLink","رابط ملفك الشخصي الاجتماعي {media}"),</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2822">
         <f t="shared" si="89"/>
         <v>2821</v>
@@ -62981,8 +63794,18 @@
       <c r="B2822" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2822" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2822" t="str">
+        <f t="shared" si="90"/>
+        <v>("2821","1","youCanShowOrHideSocialMediaLinks","You can show or hide social media icon links to users from the global menu"),</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2823">
         <f t="shared" si="89"/>
         <v>2822</v>
@@ -62990,8 +63813,18 @@
       <c r="B2823" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="2824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2823" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2823" s="6" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2823" t="str">
+        <f t="shared" si="90"/>
+        <v>("2822","2","youCanShowOrHideSocialMediaLinks","உலகளாவிய மெனுவிலிருந்து பயனர்களுக்கு சமூக ஊடக ஐகான் இணைப்புகளைக் காட்டலாம் அல்லது மறைக்கலாம்"),</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2824">
         <f t="shared" si="89"/>
         <v>2823</v>
@@ -62999,8 +63832,18 @@
       <c r="B2824" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2824" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2824" s="6" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2824" t="str">
+        <f t="shared" si="90"/>
+        <v>("2823","3","youCanShowOrHideSocialMediaLinks","Vous pouvez afficher ou masquer les liens d'icônes de médias sociaux vers les utilisateurs à partir du menu global"),</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2825">
         <f t="shared" si="89"/>
         <v>2824</v>
@@ -63008,8 +63851,18 @@
       <c r="B2825" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2825" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2825" s="6" t="s">
+        <v>2920</v>
+      </c>
+      <c r="E2825" t="str">
+        <f t="shared" si="90"/>
+        <v>("2824","4","youCanShowOrHideSocialMediaLinks","您可以从全局菜单中向用户显示或隐藏社交媒体图标链接"),</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2826">
         <f t="shared" si="89"/>
         <v>2825</v>
@@ -63017,8 +63870,18 @@
       <c r="B2826" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2826" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2826" s="6" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2826" t="str">
+        <f t="shared" si="90"/>
+        <v>("2825","5","youCanShowOrHideSocialMediaLinks","グローバル メニューから、ソーシャル メディア アイコン リンクをユーザーに表示または非表示にすることができます"),</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2827">
         <f t="shared" si="89"/>
         <v>2826</v>
@@ -63026,8 +63889,18 @@
       <c r="B2827" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2827" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2827" s="6" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2827" t="str">
+        <f t="shared" si="90"/>
+        <v>("2826","6","youCanShowOrHideSocialMediaLinks","Você pode mostrar ou ocultar links de ícones de mídia social para usuários no menu global"),</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2828">
         <f t="shared" si="89"/>
         <v>2827</v>
@@ -63035,8 +63908,18 @@
       <c r="B2828" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2828" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2828" s="6" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2828" t="str">
+        <f t="shared" si="90"/>
+        <v>("2827","7","youCanShowOrHideSocialMediaLinks","आप वैश्विक मेनू से उपयोगकर्ताओं को सोशल मीडिया आइकन लिंक दिखा या छिपा सकते हैं"),</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2829">
         <f t="shared" si="89"/>
         <v>2828</v>
@@ -63044,8 +63927,18 @@
       <c r="B2829" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="2830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2829" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2829" s="6" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2829" t="str">
+        <f t="shared" si="90"/>
+        <v>("2828","8","youCanShowOrHideSocialMediaLinks","Вы можете показать или скрыть ссылки на значки социальных сетей для пользователей из глобального меню."),</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2830">
         <f t="shared" si="89"/>
         <v>2829</v>
@@ -63053,8 +63946,18 @@
       <c r="B2830" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="2831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2830" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2830" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2830" t="str">
+        <f t="shared" si="90"/>
+        <v>("2829","9","youCanShowOrHideSocialMediaLinks","Puede mostrar u ocultar enlaces de iconos de redes sociales a los usuarios desde el menú global"),</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2831">
         <f t="shared" si="89"/>
         <v>2830</v>
@@ -63062,8 +63965,18 @@
       <c r="B2831" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="2832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2831" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D2831" s="6" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2831" t="str">
+        <f t="shared" si="90"/>
+        <v>("2830","10","youCanShowOrHideSocialMediaLinks","يمكنك إظهار أو إخفاء روابط رمز الوسائط الاجتماعية للمستخدمين من القائمة العامة"),</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2832">
         <f t="shared" si="89"/>
         <v>2831</v>
@@ -63071,8 +63984,18 @@
       <c r="B2832" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2832" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2832" t="str">
+        <f t="shared" si="90"/>
+        <v>("2831","1","loanAmount","Loan amount"),</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2833">
         <f t="shared" si="89"/>
         <v>2832</v>
@@ -63080,8 +64003,18 @@
       <c r="B2833" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="2834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2833" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2833" s="6" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2833" t="str">
+        <f t="shared" si="90"/>
+        <v>("2832","2","loanAmount","கடன்தொகை"),</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2834">
         <f t="shared" si="89"/>
         <v>2833</v>
@@ -63089,8 +64022,18 @@
       <c r="B2834" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2834" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2834" s="6" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E2834" t="str">
+        <f t="shared" si="90"/>
+        <v>("2833","3","loanAmount","Montant du prêt"),</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2835">
         <f t="shared" si="89"/>
         <v>2834</v>
@@ -63098,8 +64041,18 @@
       <c r="B2835" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2835" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2835" s="6" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E2835" t="str">
+        <f t="shared" si="90"/>
+        <v>("2834","4","loanAmount","贷款额度"),</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2836">
         <f t="shared" si="89"/>
         <v>2835</v>
@@ -63107,8 +64060,18 @@
       <c r="B2836" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2836" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2836" s="6" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E2836" t="str">
+        <f t="shared" si="90"/>
+        <v>("2835","5","loanAmount","ローン金額"),</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2837">
         <f t="shared" si="89"/>
         <v>2836</v>
@@ -63116,8 +64079,18 @@
       <c r="B2837" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2837" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2837" s="6" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E2837" t="str">
+        <f t="shared" si="90"/>
+        <v>("2836","6","loanAmount","Montante do empréstimo"),</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2838">
         <f t="shared" si="89"/>
         <v>2837</v>
@@ -63125,8 +64098,18 @@
       <c r="B2838" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2838" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2838" s="6" t="s">
+        <v>2930</v>
+      </c>
+      <c r="E2838" t="str">
+        <f t="shared" si="90"/>
+        <v>("2837","7","loanAmount","ऋण की राशि"),</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2839">
         <f t="shared" si="89"/>
         <v>2838</v>
@@ -63134,8 +64117,18 @@
       <c r="B2839" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="2840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2839" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2839" s="6" t="s">
+        <v>2929</v>
+      </c>
+      <c r="E2839" t="str">
+        <f t="shared" si="90"/>
+        <v>("2838","8","loanAmount","Сумма кредита"),</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2840">
         <f t="shared" si="89"/>
         <v>2839</v>
@@ -63143,8 +64136,18 @@
       <c r="B2840" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="2841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2840" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2840" s="6" t="s">
+        <v>2935</v>
+      </c>
+      <c r="E2840" t="str">
+        <f t="shared" si="90"/>
+        <v>("2839","9","loanAmount","Monto del préstamo"),</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2841">
         <f t="shared" si="89"/>
         <v>2840</v>
@@ -63152,8 +64155,18 @@
       <c r="B2841" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="2842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2841" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D2841" s="6" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E2841" t="str">
+        <f t="shared" si="90"/>
+        <v>("2840","10","loanAmount","مبلغ القرض"),</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2842">
         <f t="shared" si="89"/>
         <v>2841</v>
@@ -63161,8 +64174,18 @@
       <c r="B2842" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2842" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2842" s="6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E2842" t="str">
+        <f t="shared" si="90"/>
+        <v>("2841","1","years","Years"),</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2843">
         <f t="shared" si="89"/>
         <v>2842</v>
@@ -63170,8 +64193,18 @@
       <c r="B2843" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="2844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2843" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2843" s="6" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E2843" t="str">
+        <f t="shared" si="90"/>
+        <v>("2842","2","years","ஆண்டுகள்"),</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2844">
         <f t="shared" si="89"/>
         <v>2843</v>
@@ -63179,8 +64212,18 @@
       <c r="B2844" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2844" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2844" s="6" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E2844" t="str">
+        <f t="shared" si="90"/>
+        <v>("2843","3","years","Ans"),</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2845">
         <f t="shared" si="89"/>
         <v>2844</v>
@@ -63188,8 +64231,18 @@
       <c r="B2845" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2845" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2845" s="6" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E2845" t="str">
+        <f t="shared" si="90"/>
+        <v>("2844","4","years","年"),</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2846">
         <f t="shared" si="89"/>
         <v>2845</v>
@@ -63197,8 +64250,18 @@
       <c r="B2846" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2846" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2846" s="6" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E2846" t="str">
+        <f t="shared" si="90"/>
+        <v>("2845","5","years","年"),</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2847">
         <f t="shared" si="89"/>
         <v>2846</v>
@@ -63206,8 +64269,18 @@
       <c r="B2847" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2847" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2847" s="6" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E2847" t="str">
+        <f t="shared" si="90"/>
+        <v>("2846","6","years","Anos"),</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2848">
         <f t="shared" si="89"/>
         <v>2847</v>
@@ -63215,8 +64288,18 @@
       <c r="B2848" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2848" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2848" s="6" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E2848" t="str">
+        <f t="shared" si="90"/>
+        <v>("2847","7","years","वर्षों"),</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2849">
         <f t="shared" si="89"/>
         <v>2848</v>
@@ -63224,8 +64307,18 @@
       <c r="B2849" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="2850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2849" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2849" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E2849" t="str">
+        <f t="shared" si="90"/>
+        <v>("2848","8","years","Годы"),</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2850">
         <f t="shared" si="89"/>
         <v>2849</v>
@@ -63233,8 +64326,18 @@
       <c r="B2850" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="2851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2850" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2850" s="6" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E2850" t="str">
+        <f t="shared" si="90"/>
+        <v>("2849","9","years","Años"),</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2851">
         <f t="shared" si="89"/>
         <v>2850</v>
@@ -63242,8 +64345,18 @@
       <c r="B2851" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="2852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2851" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D2851" s="6" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E2851" t="str">
+        <f t="shared" si="90"/>
+        <v>("2850","10","years","سنوات"),</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2852">
         <f t="shared" si="89"/>
         <v>2851</v>
@@ -63251,8 +64364,18 @@
       <c r="B2852" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2852" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>2948</v>
+      </c>
+      <c r="E2852" t="str">
+        <f t="shared" si="90"/>
+        <v>("2851","1","interest","Interest"),</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2853">
         <f t="shared" si="89"/>
         <v>2852</v>
@@ -63260,8 +64383,18 @@
       <c r="B2853" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="2854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2853" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2853" s="6" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E2853" t="str">
+        <f t="shared" si="90"/>
+        <v>("2852","2","interest","வட்டி விகிதம்"),</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2854">
         <f t="shared" si="89"/>
         <v>2853</v>
@@ -63269,8 +64402,18 @@
       <c r="B2854" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2854" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2854" s="6" t="s">
+        <v>2953</v>
+      </c>
+      <c r="E2854" t="str">
+        <f t="shared" si="90"/>
+        <v>("2853","3","interest","taux d'intérêt"),</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2855">
         <f t="shared" si="89"/>
         <v>2854</v>
@@ -63278,8 +64421,18 @@
       <c r="B2855" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2855" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2855" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E2855" t="str">
+        <f t="shared" si="90"/>
+        <v>("2854","4","interest","利率"),</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2856">
         <f t="shared" si="89"/>
         <v>2855</v>
@@ -63287,8 +64440,18 @@
       <c r="B2856" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2856" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2856" s="6" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E2856" t="str">
+        <f t="shared" si="90"/>
+        <v>("2855","5","interest","金利"),</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2857">
         <f t="shared" si="89"/>
         <v>2856</v>
@@ -63296,8 +64459,18 @@
       <c r="B2857" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2857" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2857" s="6" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E2857" t="str">
+        <f t="shared" si="90"/>
+        <v>("2856","6","interest","Taxa de interesse"),</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2858">
         <f t="shared" si="89"/>
         <v>2857</v>
@@ -63305,8 +64478,18 @@
       <c r="B2858" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2858" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2858" s="6" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E2858" t="str">
+        <f t="shared" si="90"/>
+        <v>("2857","7","interest","ब्याज की दर"),</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2859">
         <f t="shared" si="89"/>
         <v>2858</v>
@@ -63314,8 +64497,18 @@
       <c r="B2859" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="2860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2859" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2859" s="6" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E2859" t="str">
+        <f t="shared" si="90"/>
+        <v>("2858","8","interest","процентная ставка"),</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2860">
         <f t="shared" si="89"/>
         <v>2859</v>
@@ -63323,13 +64516,2880 @@
       <c r="B2860" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="2861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2860" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2860" s="6" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E2860" t="str">
+        <f t="shared" si="90"/>
+        <v>("2859","9","interest","tipo de interés"),</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2861">
         <f t="shared" si="89"/>
         <v>2860</v>
       </c>
       <c r="B2861" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D2861" s="6" t="s">
+        <v>2957</v>
+      </c>
+      <c r="E2861" t="str">
+        <f t="shared" si="90"/>
+        <v>("2860","10","interest","معدل الفائدة"),</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2862">
+        <f t="shared" si="89"/>
+        <v>2861</v>
+      </c>
+      <c r="B2862" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2862" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E2862" t="str">
+        <f t="shared" si="90"/>
+        <v>("2861","1","decimals","Decimals"),</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2863">
+        <f t="shared" si="89"/>
+        <v>2862</v>
+      </c>
+      <c r="B2863" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2863" s="6" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E2863" t="str">
+        <f t="shared" si="90"/>
+        <v>("2862","2","decimals","தசமங்கள்"),</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2864">
+        <f t="shared" si="89"/>
+        <v>2863</v>
+      </c>
+      <c r="B2864" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2864" s="6" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E2864" t="str">
+        <f t="shared" si="90"/>
+        <v>("2863","3","decimals","décimales"),</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2865">
+        <f t="shared" si="89"/>
+        <v>2864</v>
+      </c>
+      <c r="B2865" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2865" s="6" t="s">
+        <v>2965</v>
+      </c>
+      <c r="E2865" t="str">
+        <f t="shared" si="90"/>
+        <v>("2864","4","decimals","小数点"),</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2866">
+        <f t="shared" si="89"/>
+        <v>2865</v>
+      </c>
+      <c r="B2866" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2866" s="6" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E2866" t="str">
+        <f t="shared" si="90"/>
+        <v>("2865","5","decimals","小数"),</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2867">
+        <f t="shared" si="89"/>
+        <v>2866</v>
+      </c>
+      <c r="B2867" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2867" s="6" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E2867" t="str">
+        <f t="shared" si="90"/>
+        <v>("2866","6","decimals","decimais"),</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2868">
+        <f t="shared" si="89"/>
+        <v>2867</v>
+      </c>
+      <c r="B2868" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2868" s="6" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E2868" t="str">
+        <f t="shared" si="90"/>
+        <v>("2867","7","decimals","दशमलव"),</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2869">
+        <f t="shared" si="89"/>
+        <v>2868</v>
+      </c>
+      <c r="B2869" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2869" s="6" t="s">
+        <v>2968</v>
+      </c>
+      <c r="E2869" t="str">
+        <f t="shared" si="90"/>
+        <v>("2868","8","decimals","десятичные дроби"),</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2870">
+        <f t="shared" si="89"/>
+        <v>2869</v>
+      </c>
+      <c r="B2870" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2870" s="6" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E2870" t="str">
+        <f t="shared" si="90"/>
+        <v>("2869","9","decimals","decimales"),</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2871">
+        <f t="shared" si="89"/>
+        <v>2870</v>
+      </c>
+      <c r="B2871" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D2871" s="6" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E2871" t="str">
+        <f t="shared" si="90"/>
+        <v>("2870","10","decimals","الكسور العشرية"),</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2872">
+        <f t="shared" ref="A2872:A2935" si="91">A2871+1</f>
+        <v>2871</v>
+      </c>
+      <c r="B2872" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2872" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E2872" t="str">
+        <f t="shared" si="90"/>
+        <v>("2871","1","currency","Currency"),</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2873">
+        <f t="shared" si="91"/>
+        <v>2872</v>
+      </c>
+      <c r="B2873" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2873" s="6" t="s">
+        <v>2974</v>
+      </c>
+      <c r="E2873" t="str">
+        <f t="shared" ref="E2873:E2936" si="92">CONCATENATE("(",CHAR(34),A2873,CHAR(34),",",CHAR(34),B2873,CHAR(34),",",CHAR(34),C2873,CHAR(34),",",CHAR(34),D2873,CHAR(34),"),")</f>
+        <v>("2872","2","currency","நாணயம்"),</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2874">
+        <f t="shared" si="91"/>
+        <v>2873</v>
+      </c>
+      <c r="B2874" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2874" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E2874" t="str">
+        <f t="shared" si="92"/>
+        <v>("2873","3","currency","devise"),</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2875">
+        <f t="shared" si="91"/>
+        <v>2874</v>
+      </c>
+      <c r="B2875" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2875" s="6" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E2875" t="str">
+        <f t="shared" si="92"/>
+        <v>("2874","4","currency","货币"),</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2876">
+        <f t="shared" si="91"/>
+        <v>2875</v>
+      </c>
+      <c r="B2876" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2876" s="6" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E2876" t="str">
+        <f t="shared" si="92"/>
+        <v>("2875","5","currency","通貨"),</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2877">
+        <f t="shared" si="91"/>
+        <v>2876</v>
+      </c>
+      <c r="B2877" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2877" s="6" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E2877" t="str">
+        <f t="shared" si="92"/>
+        <v>("2876","6","currency","Moeda"),</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2878">
+        <f t="shared" si="91"/>
+        <v>2877</v>
+      </c>
+      <c r="B2878" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2878" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E2878" t="str">
+        <f t="shared" si="92"/>
+        <v>("2877","7","currency","मुद्रा"),</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2879">
+        <f t="shared" si="91"/>
+        <v>2878</v>
+      </c>
+      <c r="B2879" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2879" s="6" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E2879" t="str">
+        <f t="shared" si="92"/>
+        <v>("2878","8","currency","Валюта"),</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2880">
+        <f t="shared" si="91"/>
+        <v>2879</v>
+      </c>
+      <c r="B2880" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2880" s="6" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E2880" t="str">
+        <f t="shared" si="92"/>
+        <v>("2879","9","currency","divisa"),</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2881">
+        <f t="shared" si="91"/>
+        <v>2880</v>
+      </c>
+      <c r="B2881" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D2881" s="6" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E2881" t="str">
+        <f t="shared" si="92"/>
+        <v>("2880","10","currency","عملة"),</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2882">
+        <f t="shared" si="91"/>
+        <v>2881</v>
+      </c>
+      <c r="B2882" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2882" s="6" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E2882" t="str">
+        <f t="shared" si="92"/>
+        <v>("2881","1","installments","Installments"),</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2883">
+        <f t="shared" si="91"/>
+        <v>2882</v>
+      </c>
+      <c r="B2883" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2883" s="6" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E2883" t="str">
+        <f t="shared" si="92"/>
+        <v>("2882","2","installments","தவணைகள்"),</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2884">
+        <f t="shared" si="91"/>
+        <v>2883</v>
+      </c>
+      <c r="B2884" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2884" s="6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E2884" t="str">
+        <f t="shared" si="92"/>
+        <v>("2883","3","installments","versements"),</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2885">
+        <f t="shared" si="91"/>
+        <v>2884</v>
+      </c>
+      <c r="B2885" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2885" s="6" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E2885" t="str">
+        <f t="shared" si="92"/>
+        <v>("2884","4","installments","分期付款"),</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2886">
+        <f t="shared" si="91"/>
+        <v>2885</v>
+      </c>
+      <c r="B2886" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2886" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E2886" t="str">
+        <f t="shared" si="92"/>
+        <v>("2885","5","installments","分割払い"),</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2887">
+        <f t="shared" si="91"/>
+        <v>2886</v>
+      </c>
+      <c r="B2887" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2887" s="6" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E2887" t="str">
+        <f t="shared" si="92"/>
+        <v>("2886","6","installments","parcelas"),</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2888">
+        <f t="shared" si="91"/>
+        <v>2887</v>
+      </c>
+      <c r="B2888" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2888" s="6" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E2888" t="str">
+        <f t="shared" si="92"/>
+        <v>("2887","7","installments","किश्तों"),</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2889">
+        <f t="shared" si="91"/>
+        <v>2888</v>
+      </c>
+      <c r="B2889" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2889" s="6" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E2889" t="str">
+        <f t="shared" si="92"/>
+        <v>("2888","8","installments","рассрочка"),</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2890">
+        <f t="shared" si="91"/>
+        <v>2889</v>
+      </c>
+      <c r="B2890" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2890" s="6" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E2890" t="str">
+        <f t="shared" si="92"/>
+        <v>("2889","9","installments","cuotas"),</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2891">
+        <f t="shared" si="91"/>
+        <v>2890</v>
+      </c>
+      <c r="B2891" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2891" s="6" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E2891" t="str">
+        <f t="shared" si="92"/>
+        <v>("2890","10","installments","أقساط"),</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2892">
+        <f t="shared" si="91"/>
+        <v>2891</v>
+      </c>
+      <c r="B2892" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E2892" t="str">
+        <f t="shared" si="92"/>
+        <v>("2891","1","principalAmount","principalAmount"),</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2893">
+        <f t="shared" si="91"/>
+        <v>2892</v>
+      </c>
+      <c r="B2893" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2893" s="6" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E2893" t="str">
+        <f t="shared" si="92"/>
+        <v>("2892","2","principalAmount","அசல் தொகை"),</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2894">
+        <f t="shared" si="91"/>
+        <v>2893</v>
+      </c>
+      <c r="B2894" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2894" s="6" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E2894" t="str">
+        <f t="shared" si="92"/>
+        <v>("2893","3","principalAmount","le montant principal"),</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2895">
+        <f t="shared" si="91"/>
+        <v>2894</v>
+      </c>
+      <c r="B2895" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2895" s="6" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E2895" t="str">
+        <f t="shared" si="92"/>
+        <v>("2894","4","principalAmount","本金"),</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2896">
+        <f t="shared" si="91"/>
+        <v>2895</v>
+      </c>
+      <c r="B2896" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2896" s="6" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E2896" t="str">
+        <f t="shared" si="92"/>
+        <v>("2895","5","principalAmount","元本"),</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2897">
+        <f t="shared" si="91"/>
+        <v>2896</v>
+      </c>
+      <c r="B2897" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2897" s="6" t="s">
+        <v>2998</v>
+      </c>
+      <c r="E2897" t="str">
+        <f t="shared" si="92"/>
+        <v>("2896","6","principalAmount","quantia principal"),</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2898">
+        <f t="shared" si="91"/>
+        <v>2897</v>
+      </c>
+      <c r="B2898" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2898" s="6" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E2898" t="str">
+        <f t="shared" si="92"/>
+        <v>("2897","7","principalAmount","मूल राशि"),</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2899">
+        <f t="shared" si="91"/>
+        <v>2898</v>
+      </c>
+      <c r="B2899" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2899" s="6" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E2899" t="str">
+        <f t="shared" si="92"/>
+        <v>("2898","8","principalAmount","основная сумма"),</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2900">
+        <f t="shared" si="91"/>
+        <v>2899</v>
+      </c>
+      <c r="B2900" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2900" s="6" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E2900" t="str">
+        <f t="shared" si="92"/>
+        <v>("2899","9","principalAmount","cantidad principal"),</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2901">
+        <f t="shared" si="91"/>
+        <v>2900</v>
+      </c>
+      <c r="B2901" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D2901" s="6" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E2901" t="str">
+        <f t="shared" si="92"/>
+        <v>("2900","10","principalAmount","المبلغ الأساسي"),</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2902">
+        <f t="shared" si="91"/>
+        <v>2901</v>
+      </c>
+      <c r="B2902" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E2902" t="str">
+        <f t="shared" si="92"/>
+        <v>("2901","1","diminishing","Diminishing"),</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2903">
+        <f t="shared" si="91"/>
+        <v>2902</v>
+      </c>
+      <c r="B2903" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E2903" t="str">
+        <f t="shared" si="92"/>
+        <v>("2902","2","diminishing","நலிவடையும்"),</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2904">
+        <f t="shared" si="91"/>
+        <v>2903</v>
+      </c>
+      <c r="B2904" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2904" s="6" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E2904" t="str">
+        <f t="shared" si="92"/>
+        <v>("2903","3","diminishing","diminuant"),</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2905">
+        <f t="shared" si="91"/>
+        <v>2904</v>
+      </c>
+      <c r="B2905" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2905" s="6" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E2905" t="str">
+        <f t="shared" si="92"/>
+        <v>("2904","4","diminishing","递减"),</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2906">
+        <f t="shared" si="91"/>
+        <v>2905</v>
+      </c>
+      <c r="B2906" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2906" s="6" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E2906" t="str">
+        <f t="shared" si="92"/>
+        <v>("2905","5","diminishing","減少している"),</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2907">
+        <f t="shared" si="91"/>
+        <v>2906</v>
+      </c>
+      <c r="B2907" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2907" s="6" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E2907" t="str">
+        <f t="shared" si="92"/>
+        <v>("2906","6","diminishing","diminuindo"),</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2908">
+        <f t="shared" si="91"/>
+        <v>2907</v>
+      </c>
+      <c r="B2908" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2908" s="6" t="s">
+        <v>3010</v>
+      </c>
+      <c r="E2908" t="str">
+        <f t="shared" si="92"/>
+        <v>("2907","7","diminishing","कम होनेवाला"),</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2909">
+        <f t="shared" si="91"/>
+        <v>2908</v>
+      </c>
+      <c r="B2909" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2909" s="6" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E2909" t="str">
+        <f t="shared" si="92"/>
+        <v>("2908","8","diminishing","уменьшение"),</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2910">
+        <f t="shared" si="91"/>
+        <v>2909</v>
+      </c>
+      <c r="B2910" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2910" s="6" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E2910" t="str">
+        <f t="shared" si="92"/>
+        <v>("2909","9","diminishing","menguante"),</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2911">
+        <f t="shared" si="91"/>
+        <v>2910</v>
+      </c>
+      <c r="B2911" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D2911" s="6" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E2911" t="str">
+        <f t="shared" si="92"/>
+        <v>("2910","10","diminishing","إنقاص، تقليل"),</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2912">
+        <f t="shared" si="91"/>
+        <v>2911</v>
+      </c>
+      <c r="B2912" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E2912" t="str">
+        <f t="shared" si="92"/>
+        <v>("2911","1","enterName","Enter Name"),</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2913">
+        <f t="shared" si="91"/>
+        <v>2912</v>
+      </c>
+      <c r="B2913" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E2913" t="str">
+        <f t="shared" si="92"/>
+        <v>("2912","2","enterName","பெயரை உள்ளிடுக"),</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2914">
+        <f t="shared" si="91"/>
+        <v>2913</v>
+      </c>
+      <c r="B2914" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E2914" t="str">
+        <f t="shared" si="92"/>
+        <v>("2913","3","enterName","Entrez le nom"),</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2915">
+        <f t="shared" si="91"/>
+        <v>2914</v>
+      </c>
+      <c r="B2915" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E2915" t="str">
+        <f t="shared" si="92"/>
+        <v>("2914","4","enterName","输入名字"),</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2916">
+        <f t="shared" si="91"/>
+        <v>2915</v>
+      </c>
+      <c r="B2916" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E2916" t="str">
+        <f t="shared" si="92"/>
+        <v>("2915","5","enterName","名前を入力"),</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2917">
+        <f t="shared" si="91"/>
+        <v>2916</v>
+      </c>
+      <c r="B2917" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E2917" t="str">
+        <f t="shared" si="92"/>
+        <v>("2916","6","enterName","Insira o nome"),</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2918">
+        <f t="shared" si="91"/>
+        <v>2917</v>
+      </c>
+      <c r="B2918" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E2918" t="str">
+        <f t="shared" si="92"/>
+        <v>("2917","7","enterName","नाम दर्ज"),</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2919">
+        <f t="shared" si="91"/>
+        <v>2918</v>
+      </c>
+      <c r="B2919" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E2919" t="str">
+        <f t="shared" si="92"/>
+        <v>("2918","8","enterName","Введите имя"),</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2920">
+        <f t="shared" si="91"/>
+        <v>2919</v>
+      </c>
+      <c r="B2920" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E2920" t="str">
+        <f t="shared" si="92"/>
+        <v>("2919","9","enterName","Ingrese su nombre"),</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2921">
+        <f t="shared" si="91"/>
+        <v>2920</v>
+      </c>
+      <c r="B2921" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>3028</v>
+      </c>
+      <c r="E2921" t="str">
+        <f t="shared" si="92"/>
+        <v>("2920","10","enterName","أدخل الاسم"),</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2922">
+        <f t="shared" si="91"/>
+        <v>2921</v>
+      </c>
+      <c r="B2922" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E2922" t="str">
+        <f t="shared" si="92"/>
+        <v>("2921","1","get","Get"),</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2923">
+        <f t="shared" si="91"/>
+        <v>2922</v>
+      </c>
+      <c r="B2923" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E2923" t="str">
+        <f t="shared" si="92"/>
+        <v>("2922","2","get","பெறு"),</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2924">
+        <f t="shared" si="91"/>
+        <v>2923</v>
+      </c>
+      <c r="B2924" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E2924" t="str">
+        <f t="shared" si="92"/>
+        <v>("2923","3","get","obtenir"),</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2925">
+        <f t="shared" si="91"/>
+        <v>2924</v>
+      </c>
+      <c r="B2925" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E2925" t="str">
+        <f t="shared" si="92"/>
+        <v>("2924","4","get","得到"),</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2926">
+        <f t="shared" si="91"/>
+        <v>2925</v>
+      </c>
+      <c r="B2926" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E2926" t="str">
+        <f t="shared" si="92"/>
+        <v>("2925","5","get","得る"),</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2927">
+        <f t="shared" si="91"/>
+        <v>2926</v>
+      </c>
+      <c r="B2927" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E2927" t="str">
+        <f t="shared" si="92"/>
+        <v>("2926","6","get","pegue"),</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2928">
+        <f t="shared" si="91"/>
+        <v>2927</v>
+      </c>
+      <c r="B2928" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E2928" t="str">
+        <f t="shared" si="92"/>
+        <v>("2927","7","get","प्राप्त"),</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2929">
+        <f t="shared" si="91"/>
+        <v>2928</v>
+      </c>
+      <c r="B2929" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E2929" t="str">
+        <f t="shared" si="92"/>
+        <v>("2928","8","get","получить"),</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2930">
+        <f t="shared" si="91"/>
+        <v>2929</v>
+      </c>
+      <c r="B2930" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E2930" t="str">
+        <f t="shared" si="92"/>
+        <v>("2929","9","get","obtener"),</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2931">
+        <f t="shared" si="91"/>
+        <v>2930</v>
+      </c>
+      <c r="B2931" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E2931" t="str">
+        <f t="shared" si="92"/>
+        <v>("2930","10","get","احصل على"),</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2932">
+        <f t="shared" si="91"/>
+        <v>2931</v>
+      </c>
+      <c r="B2932" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E2932" t="str">
+        <f t="shared" si="92"/>
+        <v>("2931","1","digit","Digit"),</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2933">
+        <f t="shared" si="91"/>
+        <v>2932</v>
+      </c>
+      <c r="B2933" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E2933" t="str">
+        <f t="shared" si="92"/>
+        <v>("2932","2","digit","இலக்கம்"),</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2934">
+        <f t="shared" si="91"/>
+        <v>2933</v>
+      </c>
+      <c r="B2934" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>3043</v>
+      </c>
+      <c r="E2934" t="str">
+        <f t="shared" si="92"/>
+        <v>("2933","3","digit","chiffre"),</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2935">
+        <f t="shared" si="91"/>
+        <v>2934</v>
+      </c>
+      <c r="B2935" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E2935" t="str">
+        <f t="shared" si="92"/>
+        <v>("2934","4","digit","数字"),</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2936">
+        <f t="shared" ref="A2936:A2999" si="93">A2935+1</f>
+        <v>2935</v>
+      </c>
+      <c r="B2936" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E2936" t="str">
+        <f t="shared" si="92"/>
+        <v>("2935","5","digit","桁"),</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2937">
+        <f t="shared" si="93"/>
+        <v>2936</v>
+      </c>
+      <c r="B2937" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E2937" t="str">
+        <f t="shared" ref="E2937:E2961" si="94">CONCATENATE("(",CHAR(34),A2937,CHAR(34),",",CHAR(34),B2937,CHAR(34),",",CHAR(34),C2937,CHAR(34),",",CHAR(34),D2937,CHAR(34),"),")</f>
+        <v>("2936","6","digit","dígito"),</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2938">
+        <f t="shared" si="93"/>
+        <v>2937</v>
+      </c>
+      <c r="B2938" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E2938" t="str">
+        <f t="shared" si="94"/>
+        <v>("2937","7","digit","अंक"),</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2939">
+        <f t="shared" si="93"/>
+        <v>2938</v>
+      </c>
+      <c r="B2939" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E2939" t="str">
+        <f t="shared" si="94"/>
+        <v>("2938","8","digit","цифра"),</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2940">
+        <f t="shared" si="93"/>
+        <v>2939</v>
+      </c>
+      <c r="B2940" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E2940" t="str">
+        <f t="shared" si="94"/>
+        <v>("2939","9","digit","dígito"),</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2941">
+        <f t="shared" si="93"/>
+        <v>2940</v>
+      </c>
+      <c r="B2941" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E2941" t="str">
+        <f t="shared" si="94"/>
+        <v>("2940","10","digit","رقم"),</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2942">
+        <f t="shared" si="93"/>
+        <v>2941</v>
+      </c>
+      <c r="B2942" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>3016</v>
+      </c>
+      <c r="E2942" t="str">
+        <f t="shared" si="94"/>
+        <v>("2941","1","number","Number"),</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2943">
+        <f t="shared" si="93"/>
+        <v>2942</v>
+      </c>
+      <c r="B2943" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E2943" t="str">
+        <f t="shared" si="94"/>
+        <v>("2942","2","number","எண்"),</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2944">
+        <f t="shared" si="93"/>
+        <v>2943</v>
+      </c>
+      <c r="B2944" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E2944" t="str">
+        <f t="shared" si="94"/>
+        <v>("2943","3","number","Numéro"),</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2945">
+        <f t="shared" si="93"/>
+        <v>2944</v>
+      </c>
+      <c r="B2945" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E2945" t="str">
+        <f t="shared" si="94"/>
+        <v>("2944","4","number","数字"),</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2946">
+        <f t="shared" si="93"/>
+        <v>2945</v>
+      </c>
+      <c r="B2946" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E2946" t="str">
+        <f t="shared" si="94"/>
+        <v>("2945","5","number","番号"),</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2947">
+        <f t="shared" si="93"/>
+        <v>2946</v>
+      </c>
+      <c r="B2947" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E2947" t="str">
+        <f t="shared" si="94"/>
+        <v>("2946","6","number","Número"),</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2948">
+        <f t="shared" si="93"/>
+        <v>2947</v>
+      </c>
+      <c r="B2948" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E2948" t="str">
+        <f t="shared" si="94"/>
+        <v>("2947","7","number","संख्या"),</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2949">
+        <f t="shared" si="93"/>
+        <v>2948</v>
+      </c>
+      <c r="B2949" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E2949" t="str">
+        <f t="shared" si="94"/>
+        <v>("2948","8","number","Число"),</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2950">
+        <f t="shared" si="93"/>
+        <v>2949</v>
+      </c>
+      <c r="B2950" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E2950" t="str">
+        <f t="shared" si="94"/>
+        <v>("2949","9","number","Número"),</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2951">
+        <f t="shared" si="93"/>
+        <v>2950</v>
+      </c>
+      <c r="B2951" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E2951" t="str">
+        <f t="shared" si="94"/>
+        <v>("2950","10","number","رقم"),</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2952">
+        <f t="shared" si="93"/>
+        <v>2951</v>
+      </c>
+      <c r="B2952" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E2952" t="str">
+        <f t="shared" si="94"/>
+        <v>("2951","1","singleDigitTotal","Single Digit Total"),</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2953">
+        <f t="shared" si="93"/>
+        <v>2952</v>
+      </c>
+      <c r="B2953" s="13">
+        <v>2</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E2953" t="str">
+        <f t="shared" si="94"/>
+        <v>("2952","2","singleDigitTotal","மொத்தம் ஒற்றை இலக்கம்"),</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2954">
+        <f t="shared" si="93"/>
+        <v>2953</v>
+      </c>
+      <c r="B2954" s="13">
+        <v>3</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E2954" t="str">
+        <f t="shared" si="94"/>
+        <v>("2953","3","singleDigitTotal","Total à un chiffre"),</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2955">
+        <f t="shared" si="93"/>
+        <v>2954</v>
+      </c>
+      <c r="B2955" s="13">
+        <v>4</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E2955" t="str">
+        <f t="shared" si="94"/>
+        <v>("2954","4","singleDigitTotal","个位数总计"),</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2956">
+        <f t="shared" si="93"/>
+        <v>2955</v>
+      </c>
+      <c r="B2956" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E2956" t="str">
+        <f t="shared" si="94"/>
+        <v>("2955","5","singleDigitTotal","1桁合計"),</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2957">
+        <f t="shared" si="93"/>
+        <v>2956</v>
+      </c>
+      <c r="B2957" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E2957" t="str">
+        <f t="shared" si="94"/>
+        <v>("2956","6","singleDigitTotal","Total de um dígito"),</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2958">
+        <f t="shared" si="93"/>
+        <v>2957</v>
+      </c>
+      <c r="B2958" s="13">
+        <v>7</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E2958" t="str">
+        <f t="shared" si="94"/>
+        <v>("2957","7","singleDigitTotal","सिंगल डिजिट टोटल"),</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2959">
+        <f t="shared" si="93"/>
+        <v>2958</v>
+      </c>
+      <c r="B2959" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E2959" t="str">
+        <f t="shared" si="94"/>
+        <v>("2958","8","singleDigitTotal","Однозначный итог"),</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2960">
+        <f t="shared" si="93"/>
+        <v>2959</v>
+      </c>
+      <c r="B2960" s="13">
+        <v>9</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E2960" t="str">
+        <f t="shared" si="94"/>
+        <v>("2959","9","singleDigitTotal","Total de un solo dígito"),</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2961">
+        <f t="shared" si="93"/>
+        <v>2960</v>
+      </c>
+      <c r="B2961" s="13">
+        <v>10</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D2961"/>
+      <c r="E2961" t="str">
+        <f t="shared" si="94"/>
+        <v>("2960","10","singleDigitTotal",""),</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2962">
+        <f t="shared" si="93"/>
+        <v>2961</v>
+      </c>
+      <c r="B2962" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2962"/>
+      <c r="E2962" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2963">
+        <f t="shared" si="93"/>
+        <v>2962</v>
+      </c>
+      <c r="B2963" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2963"/>
+      <c r="E2963" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2964">
+        <f t="shared" si="93"/>
+        <v>2963</v>
+      </c>
+      <c r="B2964" s="13">
+        <v>3</v>
+      </c>
+      <c r="D2964"/>
+      <c r="E2964" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2965">
+        <f t="shared" si="93"/>
+        <v>2964</v>
+      </c>
+      <c r="B2965" s="13">
+        <v>4</v>
+      </c>
+      <c r="D2965"/>
+      <c r="E2965" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2966">
+        <f t="shared" si="93"/>
+        <v>2965</v>
+      </c>
+      <c r="B2966" s="13">
+        <v>5</v>
+      </c>
+      <c r="D2966"/>
+      <c r="E2966" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2967">
+        <f t="shared" si="93"/>
+        <v>2966</v>
+      </c>
+      <c r="B2967" s="13">
+        <v>6</v>
+      </c>
+      <c r="D2967"/>
+      <c r="E2967" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2968">
+        <f t="shared" si="93"/>
+        <v>2967</v>
+      </c>
+      <c r="B2968" s="13">
+        <v>7</v>
+      </c>
+      <c r="D2968"/>
+      <c r="E2968" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2969">
+        <f t="shared" si="93"/>
+        <v>2968</v>
+      </c>
+      <c r="B2969" s="13">
+        <v>8</v>
+      </c>
+      <c r="D2969"/>
+      <c r="E2969" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2970">
+        <f t="shared" si="93"/>
+        <v>2969</v>
+      </c>
+      <c r="B2970" s="13">
+        <v>9</v>
+      </c>
+      <c r="D2970"/>
+      <c r="E2970" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2971">
+        <f t="shared" si="93"/>
+        <v>2970</v>
+      </c>
+      <c r="B2971" s="13">
+        <v>10</v>
+      </c>
+      <c r="D2971"/>
+      <c r="E2971" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2972">
+        <f t="shared" si="93"/>
+        <v>2971</v>
+      </c>
+      <c r="B2972" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2972"/>
+    </row>
+    <row r="2973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2973">
+        <f t="shared" si="93"/>
+        <v>2972</v>
+      </c>
+      <c r="B2973" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2973"/>
+    </row>
+    <row r="2974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2974">
+        <f t="shared" si="93"/>
+        <v>2973</v>
+      </c>
+      <c r="B2974" s="13">
+        <v>3</v>
+      </c>
+      <c r="D2974"/>
+    </row>
+    <row r="2975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2975">
+        <f t="shared" si="93"/>
+        <v>2974</v>
+      </c>
+      <c r="B2975" s="13">
+        <v>4</v>
+      </c>
+      <c r="D2975"/>
+    </row>
+    <row r="2976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2976">
+        <f t="shared" si="93"/>
+        <v>2975</v>
+      </c>
+      <c r="B2976" s="13">
+        <v>5</v>
+      </c>
+      <c r="D2976"/>
+    </row>
+    <row r="2977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2977">
+        <f t="shared" si="93"/>
+        <v>2976</v>
+      </c>
+      <c r="B2977" s="13">
+        <v>6</v>
+      </c>
+      <c r="D2977"/>
+    </row>
+    <row r="2978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2978">
+        <f t="shared" si="93"/>
+        <v>2977</v>
+      </c>
+      <c r="B2978" s="13">
+        <v>7</v>
+      </c>
+      <c r="D2978"/>
+    </row>
+    <row r="2979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2979">
+        <f t="shared" si="93"/>
+        <v>2978</v>
+      </c>
+      <c r="B2979" s="13">
+        <v>8</v>
+      </c>
+      <c r="D2979"/>
+    </row>
+    <row r="2980" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2980">
+        <f t="shared" si="93"/>
+        <v>2979</v>
+      </c>
+      <c r="B2980" s="13">
+        <v>9</v>
+      </c>
+      <c r="D2980"/>
+    </row>
+    <row r="2981" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2981">
+        <f t="shared" si="93"/>
+        <v>2980</v>
+      </c>
+      <c r="B2981" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2982">
+        <f t="shared" si="93"/>
+        <v>2981</v>
+      </c>
+      <c r="B2982" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2983">
+        <f t="shared" si="93"/>
+        <v>2982</v>
+      </c>
+      <c r="B2983" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2984">
+        <f t="shared" si="93"/>
+        <v>2983</v>
+      </c>
+      <c r="B2984" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2985">
+        <f t="shared" si="93"/>
+        <v>2984</v>
+      </c>
+      <c r="B2985" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2986">
+        <f t="shared" si="93"/>
+        <v>2985</v>
+      </c>
+      <c r="B2986" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2987">
+        <f t="shared" si="93"/>
+        <v>2986</v>
+      </c>
+      <c r="B2987" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2988">
+        <f t="shared" si="93"/>
+        <v>2987</v>
+      </c>
+      <c r="B2988" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2989">
+        <f t="shared" si="93"/>
+        <v>2988</v>
+      </c>
+      <c r="B2989" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2990">
+        <f t="shared" si="93"/>
+        <v>2989</v>
+      </c>
+      <c r="B2990" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2991">
+        <f t="shared" si="93"/>
+        <v>2990</v>
+      </c>
+      <c r="B2991" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2992">
+        <f t="shared" si="93"/>
+        <v>2991</v>
+      </c>
+      <c r="B2992" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2993">
+        <f t="shared" si="93"/>
+        <v>2992</v>
+      </c>
+      <c r="B2993" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2994">
+        <f t="shared" si="93"/>
+        <v>2993</v>
+      </c>
+      <c r="B2994" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2995">
+        <f t="shared" si="93"/>
+        <v>2994</v>
+      </c>
+      <c r="B2995" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2996">
+        <f t="shared" si="93"/>
+        <v>2995</v>
+      </c>
+      <c r="B2996" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2997">
+        <f t="shared" si="93"/>
+        <v>2996</v>
+      </c>
+      <c r="B2997" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2998">
+        <f t="shared" si="93"/>
+        <v>2997</v>
+      </c>
+      <c r="B2998" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2999">
+        <f t="shared" si="93"/>
+        <v>2998</v>
+      </c>
+      <c r="B2999" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3000">
+        <f t="shared" ref="A3000:A3061" si="95">A2999+1</f>
+        <v>2999</v>
+      </c>
+      <c r="B3000" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3001">
+        <f t="shared" si="95"/>
+        <v>3000</v>
+      </c>
+      <c r="B3001" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3002">
+        <f t="shared" si="95"/>
+        <v>3001</v>
+      </c>
+      <c r="B3002" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3003">
+        <f t="shared" si="95"/>
+        <v>3002</v>
+      </c>
+      <c r="B3003" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3004">
+        <f t="shared" si="95"/>
+        <v>3003</v>
+      </c>
+      <c r="B3004" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3005">
+        <f t="shared" si="95"/>
+        <v>3004</v>
+      </c>
+      <c r="B3005" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3006">
+        <f t="shared" si="95"/>
+        <v>3005</v>
+      </c>
+      <c r="B3006" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3007">
+        <f t="shared" si="95"/>
+        <v>3006</v>
+      </c>
+      <c r="B3007" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3008">
+        <f t="shared" si="95"/>
+        <v>3007</v>
+      </c>
+      <c r="B3008" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3009">
+        <f t="shared" si="95"/>
+        <v>3008</v>
+      </c>
+      <c r="B3009" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3010">
+        <f t="shared" si="95"/>
+        <v>3009</v>
+      </c>
+      <c r="B3010" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3011">
+        <f t="shared" si="95"/>
+        <v>3010</v>
+      </c>
+      <c r="B3011" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3012">
+        <f t="shared" si="95"/>
+        <v>3011</v>
+      </c>
+      <c r="B3012" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3013">
+        <f t="shared" si="95"/>
+        <v>3012</v>
+      </c>
+      <c r="B3013" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3014">
+        <f t="shared" si="95"/>
+        <v>3013</v>
+      </c>
+      <c r="B3014" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3015">
+        <f t="shared" si="95"/>
+        <v>3014</v>
+      </c>
+      <c r="B3015" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3016">
+        <f t="shared" si="95"/>
+        <v>3015</v>
+      </c>
+      <c r="B3016" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3017">
+        <f t="shared" si="95"/>
+        <v>3016</v>
+      </c>
+      <c r="B3017" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3018">
+        <f t="shared" si="95"/>
+        <v>3017</v>
+      </c>
+      <c r="B3018" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3019">
+        <f t="shared" si="95"/>
+        <v>3018</v>
+      </c>
+      <c r="B3019" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3020">
+        <f t="shared" si="95"/>
+        <v>3019</v>
+      </c>
+      <c r="B3020" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3021">
+        <f t="shared" si="95"/>
+        <v>3020</v>
+      </c>
+      <c r="B3021" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3022">
+        <f t="shared" si="95"/>
+        <v>3021</v>
+      </c>
+      <c r="B3022" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3023">
+        <f t="shared" si="95"/>
+        <v>3022</v>
+      </c>
+      <c r="B3023" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3024">
+        <f t="shared" si="95"/>
+        <v>3023</v>
+      </c>
+      <c r="B3024" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3025">
+        <f t="shared" si="95"/>
+        <v>3024</v>
+      </c>
+      <c r="B3025" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3026">
+        <f t="shared" si="95"/>
+        <v>3025</v>
+      </c>
+      <c r="B3026" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3027">
+        <f t="shared" si="95"/>
+        <v>3026</v>
+      </c>
+      <c r="B3027" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3028">
+        <f t="shared" si="95"/>
+        <v>3027</v>
+      </c>
+      <c r="B3028" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3029">
+        <f t="shared" si="95"/>
+        <v>3028</v>
+      </c>
+      <c r="B3029" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3030">
+        <f t="shared" si="95"/>
+        <v>3029</v>
+      </c>
+      <c r="B3030" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3031">
+        <f t="shared" si="95"/>
+        <v>3030</v>
+      </c>
+      <c r="B3031" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3032">
+        <f t="shared" si="95"/>
+        <v>3031</v>
+      </c>
+      <c r="B3032" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3033">
+        <f t="shared" si="95"/>
+        <v>3032</v>
+      </c>
+      <c r="B3033" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3034">
+        <f t="shared" si="95"/>
+        <v>3033</v>
+      </c>
+      <c r="B3034" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3035">
+        <f t="shared" si="95"/>
+        <v>3034</v>
+      </c>
+      <c r="B3035" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3036">
+        <f t="shared" si="95"/>
+        <v>3035</v>
+      </c>
+      <c r="B3036" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3037">
+        <f t="shared" si="95"/>
+        <v>3036</v>
+      </c>
+      <c r="B3037" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3038">
+        <f t="shared" si="95"/>
+        <v>3037</v>
+      </c>
+      <c r="B3038" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3039">
+        <f t="shared" si="95"/>
+        <v>3038</v>
+      </c>
+      <c r="B3039" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3040">
+        <f t="shared" si="95"/>
+        <v>3039</v>
+      </c>
+      <c r="B3040" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3041">
+        <f t="shared" si="95"/>
+        <v>3040</v>
+      </c>
+      <c r="B3041" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3042">
+        <f t="shared" si="95"/>
+        <v>3041</v>
+      </c>
+      <c r="B3042" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3043">
+        <f t="shared" si="95"/>
+        <v>3042</v>
+      </c>
+      <c r="B3043" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3044">
+        <f t="shared" si="95"/>
+        <v>3043</v>
+      </c>
+      <c r="B3044" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3045">
+        <f t="shared" si="95"/>
+        <v>3044</v>
+      </c>
+      <c r="B3045" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3046">
+        <f t="shared" si="95"/>
+        <v>3045</v>
+      </c>
+      <c r="B3046" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3047">
+        <f t="shared" si="95"/>
+        <v>3046</v>
+      </c>
+      <c r="B3047" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3048">
+        <f t="shared" si="95"/>
+        <v>3047</v>
+      </c>
+      <c r="B3048" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3049">
+        <f t="shared" si="95"/>
+        <v>3048</v>
+      </c>
+      <c r="B3049" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3050">
+        <f t="shared" si="95"/>
+        <v>3049</v>
+      </c>
+      <c r="B3050" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3051">
+        <f t="shared" si="95"/>
+        <v>3050</v>
+      </c>
+      <c r="B3051" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3052">
+        <f t="shared" si="95"/>
+        <v>3051</v>
+      </c>
+      <c r="B3052" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3053">
+        <f t="shared" si="95"/>
+        <v>3052</v>
+      </c>
+      <c r="B3053" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3054">
+        <f t="shared" si="95"/>
+        <v>3053</v>
+      </c>
+      <c r="B3054" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3055">
+        <f t="shared" si="95"/>
+        <v>3054</v>
+      </c>
+      <c r="B3055" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3056">
+        <f t="shared" si="95"/>
+        <v>3055</v>
+      </c>
+      <c r="B3056" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3057">
+        <f t="shared" si="95"/>
+        <v>3056</v>
+      </c>
+      <c r="B3057" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3058">
+        <f t="shared" si="95"/>
+        <v>3057</v>
+      </c>
+      <c r="B3058" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3059">
+        <f t="shared" si="95"/>
+        <v>3058</v>
+      </c>
+      <c r="B3059" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3060">
+        <f t="shared" si="95"/>
+        <v>3059</v>
+      </c>
+      <c r="B3060" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3061">
+        <f t="shared" si="95"/>
+        <v>3060</v>
+      </c>
+      <c r="B3061" s="13">
         <v>10</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFF999-5F3F-1540-BD2F-DB8EAF9B5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB675E-B795-B44F-AFF8-10176C4C9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5791" uniqueCount="3061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="3352">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -9230,6 +9230,879 @@
   <si>
     <t>Однозначный итог</t>
   </si>
+  <si>
+    <t>Import your credit card statement</t>
+  </si>
+  <si>
+    <t>importYourCreditCardStatement</t>
+  </si>
+  <si>
+    <t>مجموع رقم واحد</t>
+  </si>
+  <si>
+    <t>استيراد كشف حساب بطاقتك الائتمانية</t>
+  </si>
+  <si>
+    <t>अपना क्रेडिट कार्ड विवरण आयात करें</t>
+  </si>
+  <si>
+    <t>உங்கள் கிரெடிட் கார்டு அறிக்கையை இறக்குமதி செய்யவும்</t>
+  </si>
+  <si>
+    <t>Importez votre relevé de carte de crédit</t>
+  </si>
+  <si>
+    <t>导入您的信用卡对帐单</t>
+  </si>
+  <si>
+    <t>クレジット カードの明細をインポートする</t>
+  </si>
+  <si>
+    <t>Importe a fatura do seu cartão de crédito</t>
+  </si>
+  <si>
+    <t>Импорт выписки по кредитной карте</t>
+  </si>
+  <si>
+    <t>Importar el estado de cuenta de su tarjeta de crédito</t>
+  </si>
+  <si>
+    <t>pasteYourCreditCardStatementHere</t>
+  </si>
+  <si>
+    <t>Paste your statement here</t>
+  </si>
+  <si>
+    <t>Pegue su declaración aquí</t>
+  </si>
+  <si>
+    <t>Вставьте свое заявление сюда</t>
+  </si>
+  <si>
+    <t>Cole sua declaração aqui</t>
+  </si>
+  <si>
+    <t>உங்கள் அறிக்கையை இங்கே ஒட்டவும்</t>
+  </si>
+  <si>
+    <t>Collez votre déclaration ici</t>
+  </si>
+  <si>
+    <t>在此处粘贴您的声明</t>
+  </si>
+  <si>
+    <t>ここにステートメントを貼り付けます</t>
+  </si>
+  <si>
+    <t>अपना बयान यहां चिपकाएं</t>
+  </si>
+  <si>
+    <t>الصق البيان الخاص بك هنا</t>
+  </si>
+  <si>
+    <t>Seperator</t>
+  </si>
+  <si>
+    <t>فاصل</t>
+  </si>
+  <si>
+    <t>உரை பிரிக்கப்பட்டது</t>
+  </si>
+  <si>
+    <t>texte séparé</t>
+  </si>
+  <si>
+    <t>文本分隔</t>
+  </si>
+  <si>
+    <t>テキスト区切り</t>
+  </si>
+  <si>
+    <t>texto separado</t>
+  </si>
+  <si>
+    <t>पाठ अलग</t>
+  </si>
+  <si>
+    <t>текст разделен</t>
+  </si>
+  <si>
+    <t>textSeperated</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>atrás</t>
+  </si>
+  <si>
+    <t>பின்</t>
+  </si>
+  <si>
+    <t>retour</t>
+  </si>
+  <si>
+    <t>背部</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>de volta</t>
+  </si>
+  <si>
+    <t>الى الخلف</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>செயல்முறை</t>
+  </si>
+  <si>
+    <t>Traiter</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>プロセス</t>
+  </si>
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>प्रक्रिया</t>
+  </si>
+  <si>
+    <t>Процесс</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>معالجة</t>
+  </si>
+  <si>
+    <t>Clone from template</t>
+  </si>
+  <si>
+    <t>cloneFromTemplate</t>
+  </si>
+  <si>
+    <t>استنساخ من قالب</t>
+  </si>
+  <si>
+    <t>Clonar de plantilla</t>
+  </si>
+  <si>
+    <t>Клонировать из шаблона</t>
+  </si>
+  <si>
+    <t>டெம்ப்ளேட்டிலிருந்து குளோன் செய்யுங்கள்</t>
+  </si>
+  <si>
+    <t>Cloner à partir du modèle</t>
+  </si>
+  <si>
+    <t>テンプレートから複製</t>
+  </si>
+  <si>
+    <t>Clonar do modelo</t>
+  </si>
+  <si>
+    <t>टेम्पलेट से क्लोन</t>
+  </si>
+  <si>
+    <t>exportToValue</t>
+  </si>
+  <si>
+    <t>Export to {value}</t>
+  </si>
+  <si>
+    <t>{value}க்கு ஏற்றுமதி செய்யவும்</t>
+  </si>
+  <si>
+    <t>Exporter au format {value}</t>
+  </si>
+  <si>
+    <t>导出为 {value}</t>
+  </si>
+  <si>
+    <t>{value}にエクスポート</t>
+  </si>
+  <si>
+    <t>Exportar para {value}</t>
+  </si>
+  <si>
+    <t>Экспорт в {value}</t>
+  </si>
+  <si>
+    <t>Exportar a {value}</t>
+  </si>
+  <si>
+    <t>تصدير إلى {value}</t>
+  </si>
+  <si>
+    <t>{value} में निर्यात करें</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>changePassword</t>
+  </si>
+  <si>
+    <t>غير كلمة السر</t>
+  </si>
+  <si>
+    <t>Cambia la contraseña</t>
+  </si>
+  <si>
+    <t>Изменить пароль</t>
+  </si>
+  <si>
+    <t>கடவுச்சொல்லை மாற்று</t>
+  </si>
+  <si>
+    <t>Changer le mot de passe</t>
+  </si>
+  <si>
+    <t>更改密码</t>
+  </si>
+  <si>
+    <t>パスワードを変更する</t>
+  </si>
+  <si>
+    <t>Mudar senha</t>
+  </si>
+  <si>
+    <t>पासवर्ड बदलें</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>Current Password</t>
+  </si>
+  <si>
+    <t>वर्तमान पासवर्ड</t>
+  </si>
+  <si>
+    <t>Senha atual</t>
+  </si>
+  <si>
+    <t>現在のパスワード</t>
+  </si>
+  <si>
+    <t>தற்போதைய கடவுச்சொல்</t>
+  </si>
+  <si>
+    <t>当前密码</t>
+  </si>
+  <si>
+    <t>Mot de passe actuel</t>
+  </si>
+  <si>
+    <t>текущий пароль</t>
+  </si>
+  <si>
+    <t>contraseña actual</t>
+  </si>
+  <si>
+    <t>كلمة المرور الحالية</t>
+  </si>
+  <si>
+    <t>resetPassword</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>إعادة تعيين كلمة المرور</t>
+  </si>
+  <si>
+    <t>Restablecer la contraseña</t>
+  </si>
+  <si>
+    <t>Сброс пароля</t>
+  </si>
+  <si>
+    <t>கடவுச்சொல்லை மீட்டமைக்க</t>
+  </si>
+  <si>
+    <t>Réinitialiser le mot de passe</t>
+  </si>
+  <si>
+    <t>重设密码</t>
+  </si>
+  <si>
+    <t>パスワードを再設定する</t>
+  </si>
+  <si>
+    <t>Redefinir senha</t>
+  </si>
+  <si>
+    <t>पासवर्ड रीसेट</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>रद्द करना</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>ரத்து செய்</t>
+  </si>
+  <si>
+    <t>Annuler</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Отмена</t>
+  </si>
+  <si>
+    <t>يلغي</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>كلمة السر الجديدة</t>
+  </si>
+  <si>
+    <t>Nueva contraseña</t>
+  </si>
+  <si>
+    <t>Новый пароль</t>
+  </si>
+  <si>
+    <t>புதிய கடவுச்சொல்</t>
+  </si>
+  <si>
+    <t>nouveau mot de passe</t>
+  </si>
+  <si>
+    <t>新密码</t>
+  </si>
+  <si>
+    <t>Nova Senha</t>
+  </si>
+  <si>
+    <t>新しいパスワード</t>
+  </si>
+  <si>
+    <t>नया पासवर्ड</t>
+  </si>
+  <si>
+    <t>கடவுச்சொல்லை மீண்டும் தட்டச்சு செய்க</t>
+  </si>
+  <si>
+    <t>retypePassword</t>
+  </si>
+  <si>
+    <t>Retype Password</t>
+  </si>
+  <si>
+    <t>retaper le mot de passe</t>
+  </si>
+  <si>
+    <t>重新输入密码</t>
+  </si>
+  <si>
+    <t>パスワードを再入力してください</t>
+  </si>
+  <si>
+    <t>Redigite a senha</t>
+  </si>
+  <si>
+    <t>पासवर्ड फिर से लिखें</t>
+  </si>
+  <si>
+    <t>Введите пароль еще раз</t>
+  </si>
+  <si>
+    <t>Vuelva a escribir la contraseña</t>
+  </si>
+  <si>
+    <t>اعد ادخال كلمة المرور</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>تسجيل الدخول</t>
+  </si>
+  <si>
+    <t>acceso</t>
+  </si>
+  <si>
+    <t>авторизоваться</t>
+  </si>
+  <si>
+    <t>உள்நுழைய</t>
+  </si>
+  <si>
+    <t>connexion</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>ログインする</t>
+  </si>
+  <si>
+    <t>Conecte-se</t>
+  </si>
+  <si>
+    <t>लॉग इन करें</t>
+  </si>
+  <si>
+    <t>लॉग आउट</t>
+  </si>
+  <si>
+    <t>sair</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>வெளியேறு</t>
+  </si>
+  <si>
+    <t>Se déconnecter</t>
+  </si>
+  <si>
+    <t>登出</t>
+  </si>
+  <si>
+    <t>выйти</t>
+  </si>
+  <si>
+    <t>cerrar sesión</t>
+  </si>
+  <si>
+    <t>تسجيل خروج</t>
+  </si>
+  <si>
+    <t>Your email please</t>
+  </si>
+  <si>
+    <t>yourEmailPlease</t>
+  </si>
+  <si>
+    <t>தயவுசெய்து உங்கள் மின்னஞ்சலை உள்ளிடவும்</t>
+  </si>
+  <si>
+    <t>Entrez votre e-mail s'il vous plaît</t>
+  </si>
+  <si>
+    <t>請輸入您的電子郵件</t>
+  </si>
+  <si>
+    <t>メールアドレスを入力してください</t>
+  </si>
+  <si>
+    <t>Digite seu e-mail por favor</t>
+  </si>
+  <si>
+    <t>कृपया अपना ईमेल दर्ज करें</t>
+  </si>
+  <si>
+    <t>Введите Ваш адрес электронной почты, пожалуйста</t>
+  </si>
+  <si>
+    <t>Ingrese su correo electrónico por favor</t>
+  </si>
+  <si>
+    <t>أدخل بريدك الإلكتروني من فضلك</t>
+  </si>
+  <si>
+    <t>Enter OTP</t>
+  </si>
+  <si>
+    <t>enterOtp</t>
+  </si>
+  <si>
+    <t>أدخل OTP</t>
+  </si>
+  <si>
+    <t>Ingresar OTP</t>
+  </si>
+  <si>
+    <t>Войти OTP</t>
+  </si>
+  <si>
+    <t>OTP ஐ உள்ளிடவும்</t>
+  </si>
+  <si>
+    <t>Entrez OTP</t>
+  </si>
+  <si>
+    <t>输入一次性密码</t>
+  </si>
+  <si>
+    <t>OTPを入力してください</t>
+  </si>
+  <si>
+    <t>Digite OTP</t>
+  </si>
+  <si>
+    <t>OTP दर्ज करें</t>
+  </si>
+  <si>
+    <t>Resend OTP</t>
+  </si>
+  <si>
+    <t>resendOtp</t>
+  </si>
+  <si>
+    <t>OTP पुनः भेजें</t>
+  </si>
+  <si>
+    <t>Reenviar OTP</t>
+  </si>
+  <si>
+    <t>OTP を再送する</t>
+  </si>
+  <si>
+    <t>إعادة إرسال OTP</t>
+  </si>
+  <si>
+    <t>OTP ஐ மீண்டும் அனுப்பவும்</t>
+  </si>
+  <si>
+    <t>Renvoyer OTP</t>
+  </si>
+  <si>
+    <t>重新发送一次性密码</t>
+  </si>
+  <si>
+    <t>Отправить</t>
+  </si>
+  <si>
+    <t>Отправить OTP</t>
+  </si>
+  <si>
+    <t>OtpExpiresInnSeconds</t>
+  </si>
+  <si>
+    <t>OTP expires in {seconds} seconds</t>
+  </si>
+  <si>
+    <t>OTP {seconds} வினாடிகளில் காலாவதியாகும்</t>
+  </si>
+  <si>
+    <t>OTP expire dans {seconds} secondes</t>
+  </si>
+  <si>
+    <t>OTP 在 {seconds} 秒后过期</t>
+  </si>
+  <si>
+    <t>OTP は {seconds} 秒で期限切れになります</t>
+  </si>
+  <si>
+    <t>OTP expira em {seconds} segundos</t>
+  </si>
+  <si>
+    <t>OTP {seconds} सेकंड में समाप्त हो जाता है</t>
+  </si>
+  <si>
+    <t>Срок действия OTP истекает через {seconds} сек.</t>
+  </si>
+  <si>
+    <t>OTP caduca en {seconds} segundos</t>
+  </si>
+  <si>
+    <t>تنتهي صلاحية OTP في غضون {seconds} ثانية</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>भेजना</t>
+  </si>
+  <si>
+    <t>mandar</t>
+  </si>
+  <si>
+    <t>அனுப்பு</t>
+  </si>
+  <si>
+    <t>envoyer</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>送信</t>
+  </si>
+  <si>
+    <t>Failed. OTP is invalid or expired. Please try again.</t>
+  </si>
+  <si>
+    <t>OtpFailed</t>
+  </si>
+  <si>
+    <t>Ha fallado. La OTP no es válida o ha caducado. Inténtalo de nuevo.</t>
+  </si>
+  <si>
+    <t>Не удалось. OTP недействителен или просрочен. Пожалуйста, попробуйте еще раз.</t>
+  </si>
+  <si>
+    <t>失敗した。 OTP が無効であるか、有効期限が切れています。 もう一度やり直してください。</t>
+  </si>
+  <si>
+    <t>தோல்வி. OTP தவறானது அல்லது காலாவதியானது. தயவுசெய்து மீண்டும் முயற்சி செய்க.</t>
+  </si>
+  <si>
+    <t>Manqué. L'OTP n'est pas valide ou a expiré. Veuillez réessayer.</t>
+  </si>
+  <si>
+    <t>失败的。 OTP 无效或已过期。 请再试一次。</t>
+  </si>
+  <si>
+    <t>Fracassado. OTP é inválido ou expirou. Por favor, tente novamente.</t>
+  </si>
+  <si>
+    <t>असफल। ओटीपी अमान्य है या समाप्त हो गया है। कृपया पुन: प्रयास करें।</t>
+  </si>
+  <si>
+    <t>باءت بالفشل. كلمة المرور لمرة واحدة غير صالحة أو منتهية الصلاحية. حاول مرة اخرى.</t>
+  </si>
+  <si>
+    <t>Reset successfull. Password mailed to you.</t>
+  </si>
+  <si>
+    <t>إعادة تعيين النجاح. تم إرسال كلمة المرور إليك بالبريد.</t>
+  </si>
+  <si>
+    <t>सफलता को रीसेट करें। पासवर्ड आपको मेल कर दिया गया है।</t>
+  </si>
+  <si>
+    <t>Redefinir com sucesso. Senha enviada para você.</t>
+  </si>
+  <si>
+    <t>வெற்றி. கடவுச்சொல் உங்களுக்கு மின்னஞ்சல் அனுப்பப்பட்டது.</t>
+  </si>
+  <si>
+    <t>Réinitialisation réussie. Mot de passe envoyé par e-mail.</t>
+  </si>
+  <si>
+    <t>重置成功。 密码已通过电子邮件发送给您。</t>
+  </si>
+  <si>
+    <t>リセット成功。 パスワードはメールで送信されました。</t>
+  </si>
+  <si>
+    <t>Сбросить успех. Пароль отправлен вам на почту.</t>
+  </si>
+  <si>
+    <t>Restablecer éxito. Contraseña enviada por correo electrónico.</t>
+  </si>
+  <si>
+    <t>resetSuccess</t>
+  </si>
+  <si>
+    <t>Error. Your email is invalid.</t>
+  </si>
+  <si>
+    <t>Error. Tu Correo Electrónico es Inválido.</t>
+  </si>
+  <si>
+    <t>Ошибка. Ваш адрес электронной почты недействителен.</t>
+  </si>
+  <si>
+    <t>エラー。 メールアドレスが無効です。</t>
+  </si>
+  <si>
+    <t>பிழை. உங்கள் மின்னஞ்சல் தவறானது.</t>
+  </si>
+  <si>
+    <t>Erreur. Votre email est invalide.</t>
+  </si>
+  <si>
+    <t>错误。 您的电子邮件无效。</t>
+  </si>
+  <si>
+    <t>Erro. Seu e-mail é inválido.</t>
+  </si>
+  <si>
+    <t>गलती। आपका ईमेल अमान्य है।</t>
+  </si>
+  <si>
+    <t>خطأ. بريدك الالكتروني خاطئ.</t>
+  </si>
+  <si>
+    <t>errorYourMailIsInValid</t>
+  </si>
+  <si>
+    <t>OtpSuccessfullyMailedToYou</t>
+  </si>
+  <si>
+    <t>OTP successfully mailed to you.</t>
+  </si>
+  <si>
+    <t>تم إرسال OTP إليك عبر البريد بنجاح.</t>
+  </si>
+  <si>
+    <t>ओटीपी सफलतापूर्वक आपको मेल किया गया।</t>
+  </si>
+  <si>
+    <t>OTP enviado com sucesso para você.</t>
+  </si>
+  <si>
+    <t>OTP உங்களுக்கு வெற்றிகரமாக அனுப்பப்பட்டது.</t>
+  </si>
+  <si>
+    <t>OTP vous a été envoyé avec succès.</t>
+  </si>
+  <si>
+    <t>OTP 已成功邮寄给您。</t>
+  </si>
+  <si>
+    <t>OTP が正常に送信されました。</t>
+  </si>
+  <si>
+    <t>OTP успешно отправлен вам.</t>
+  </si>
+  <si>
+    <t>OTP enviado con éxito a usted.</t>
+  </si>
+  <si>
+    <t>invalidUserNameOrPassword</t>
+  </si>
+  <si>
+    <t>usuario o contraseña invalido</t>
+  </si>
+  <si>
+    <t>Invalid username or password</t>
+  </si>
+  <si>
+    <t>неправильное имя пользователя или пароль</t>
+  </si>
+  <si>
+    <t>ユーザー名かパスワードが無効</t>
+  </si>
+  <si>
+    <t>தவறான பயனர்பெயர் அல்லது கடவுச்சொல்</t>
+  </si>
+  <si>
+    <t>Nom d'utilisateur ou mot de passe invalide</t>
+  </si>
+  <si>
+    <t>用户名或密码无效</t>
+  </si>
+  <si>
+    <t>nome de usuário ou senha inválidos</t>
+  </si>
+  <si>
+    <t>अमान्य उपयोगकर्ता नाम या पासवर्ड</t>
+  </si>
+  <si>
+    <t>خطأ في اسم المستخدم أو كلمة مرور</t>
+  </si>
+  <si>
+    <t>Password change failed. In-valid credentials.</t>
+  </si>
+  <si>
+    <t>passwordChangeFailedInvalidCredentials</t>
+  </si>
+  <si>
+    <t>فشل تغيير كلمة المرور. بيانات الاعتماد غير صالحة.</t>
+  </si>
+  <si>
+    <t>संकेत शब्द बदलने में असफल। अवैध प्रत्यय पत्र।</t>
+  </si>
+  <si>
+    <t>Falha na mudança de senha. Credenciais inválidas.</t>
+  </si>
+  <si>
+    <t>கடவுச்சொல்லை மாற்ற முடியவில்லை. தவறான ஆவண சான்றுகள்.</t>
+  </si>
+  <si>
+    <t>Le changement de mot de passe a échoué. Les informations d'identification invalides.</t>
+  </si>
+  <si>
+    <t>密码更改失败。 无效证件。</t>
+  </si>
+  <si>
+    <t>パスワードの変更に失敗しました。 無効な資格情報。</t>
+  </si>
+  <si>
+    <t>Не удалось изменить пароль. Недействительные учетные данные.</t>
+  </si>
+  <si>
+    <t>Cambio de contraseña falló. Credenciales no válidas.</t>
+  </si>
+  <si>
+    <t>passwordSuccessfullyChanged</t>
+  </si>
+  <si>
+    <t>Password successfully changed.</t>
+  </si>
+  <si>
+    <t>Contraseña cambiada correctamente.</t>
+  </si>
+  <si>
+    <t>Пароль успешно изменен.</t>
+  </si>
+  <si>
+    <t>パスワードが正常に変更されました。</t>
+  </si>
+  <si>
+    <t>கடவுச்சொல் வெற்றிகரமாக மாற்றப்பட்டது.</t>
+  </si>
+  <si>
+    <t>Mot de passe changé avec succès.</t>
+  </si>
+  <si>
+    <t>密码修改成功。</t>
+  </si>
+  <si>
+    <t>Senha mudada com sucesso.</t>
+  </si>
+  <si>
+    <t>पासवर्ड सफलतापूर्वक बदल दिया है।</t>
+  </si>
+  <si>
+    <t>الرقم السري تغير بنجاح.</t>
+  </si>
 </sst>
 </file>
 
@@ -9238,7 +10111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-9000449]0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9446,6 +10319,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -9789,7 +10668,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9811,6 +10690,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -10166,10 +11046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3061"/>
+  <dimension ref="A1:F3351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2924" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2951" sqref="D2951"/>
+    <sheetView tabSelected="1" topLeftCell="A3215" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3235" sqref="D3235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65986,7 +66866,7 @@
         <v>3045</v>
       </c>
       <c r="E2937" t="str">
-        <f t="shared" ref="E2937:E2961" si="94">CONCATENATE("(",CHAR(34),A2937,CHAR(34),",",CHAR(34),B2937,CHAR(34),",",CHAR(34),C2937,CHAR(34),",",CHAR(34),D2937,CHAR(34),"),")</f>
+        <f t="shared" ref="E2937:E3000" si="94">CONCATENATE("(",CHAR(34),A2937,CHAR(34),",",CHAR(34),B2937,CHAR(34),",",CHAR(34),C2937,CHAR(34),",",CHAR(34),D2937,CHAR(34),"),")</f>
         <v>("2936","6","digit","dígito"),</v>
       </c>
     </row>
@@ -66438,10 +67318,12 @@
       <c r="C2961" t="s">
         <v>3019</v>
       </c>
-      <c r="D2961"/>
+      <c r="D2961" t="s">
+        <v>3063</v>
+      </c>
       <c r="E2961" t="str">
         <f t="shared" si="94"/>
-        <v>("2960","10","singleDigitTotal",""),</v>
+        <v>("2960","10","singleDigitTotal","مجموع رقم واحد"),</v>
       </c>
     </row>
     <row r="2962" spans="1:5" x14ac:dyDescent="0.2">
@@ -66452,12 +67334,18 @@
       <c r="B2962" s="13">
         <v>1</v>
       </c>
-      <c r="D2962"/>
-      <c r="E2962" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="2963" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2962" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E2962" t="str">
+        <f t="shared" si="94"/>
+        <v>("2961","1","importYourCreditCardStatement","Import your credit card statement"),</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2963">
         <f t="shared" si="93"/>
         <v>2962</v>
@@ -66465,12 +67353,18 @@
       <c r="B2963" s="13">
         <v>2</v>
       </c>
-      <c r="D2963"/>
-      <c r="E2963" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="2964" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2963" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E2963" t="str">
+        <f t="shared" si="94"/>
+        <v>("2962","2","importYourCreditCardStatement","உங்கள் கிரெடிட் கார்டு அறிக்கையை இறக்குமதி செய்யவும்"),</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2964">
         <f t="shared" si="93"/>
         <v>2963</v>
@@ -66478,12 +67372,18 @@
       <c r="B2964" s="13">
         <v>3</v>
       </c>
-      <c r="D2964"/>
-      <c r="E2964" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2965" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2964" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E2964" t="str">
+        <f t="shared" si="94"/>
+        <v>("2963","3","importYourCreditCardStatement","Importez votre relevé de carte de crédit"),</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2965">
         <f t="shared" si="93"/>
         <v>2964</v>
@@ -66491,9 +67391,15 @@
       <c r="B2965" s="13">
         <v>4</v>
       </c>
-      <c r="D2965"/>
-      <c r="E2965" s="5" t="s">
-        <v>519</v>
+      <c r="C2965" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E2965" t="str">
+        <f t="shared" si="94"/>
+        <v>("2964","4","importYourCreditCardStatement","导入您的信用卡对帐单"),</v>
       </c>
     </row>
     <row r="2966" spans="1:5" x14ac:dyDescent="0.2">
@@ -66504,12 +67410,18 @@
       <c r="B2966" s="13">
         <v>5</v>
       </c>
-      <c r="D2966"/>
-      <c r="E2966" s="6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="2967" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2966" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E2966" t="str">
+        <f t="shared" si="94"/>
+        <v>("2965","5","importYourCreditCardStatement","クレジット カードの明細をインポートする"),</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2967">
         <f t="shared" si="93"/>
         <v>2966</v>
@@ -66517,12 +67429,18 @@
       <c r="B2967" s="13">
         <v>6</v>
       </c>
-      <c r="D2967"/>
-      <c r="E2967" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2968" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2967" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E2967" t="str">
+        <f t="shared" si="94"/>
+        <v>("2966","6","importYourCreditCardStatement","Importe a fatura do seu cartão de crédito"),</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2968">
         <f t="shared" si="93"/>
         <v>2967</v>
@@ -66530,12 +67448,18 @@
       <c r="B2968" s="13">
         <v>7</v>
       </c>
-      <c r="D2968"/>
-      <c r="E2968" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2969" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2968" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E2968" t="str">
+        <f t="shared" si="94"/>
+        <v>("2967","7","importYourCreditCardStatement","अपना क्रेडिट कार्ड विवरण आयात करें"),</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2969">
         <f t="shared" si="93"/>
         <v>2968</v>
@@ -66543,12 +67467,18 @@
       <c r="B2969" s="13">
         <v>8</v>
       </c>
-      <c r="D2969"/>
-      <c r="E2969" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2970" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2969" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E2969" t="str">
+        <f t="shared" si="94"/>
+        <v>("2968","8","importYourCreditCardStatement","Импорт выписки по кредитной карте"),</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2970">
         <f t="shared" si="93"/>
         <v>2969</v>
@@ -66556,9 +67486,15 @@
       <c r="B2970" s="13">
         <v>9</v>
       </c>
-      <c r="D2970"/>
-      <c r="E2970" s="5" t="s">
-        <v>1452</v>
+      <c r="C2970" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E2970" t="str">
+        <f t="shared" si="94"/>
+        <v>("2969","9","importYourCreditCardStatement","Importar el estado de cuenta de su tarjeta de crédito"),</v>
       </c>
     </row>
     <row r="2971" spans="1:5" x14ac:dyDescent="0.2">
@@ -66569,9 +67505,15 @@
       <c r="B2971" s="13">
         <v>10</v>
       </c>
-      <c r="D2971"/>
-      <c r="E2971" t="s">
-        <v>673</v>
+      <c r="C2971" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>3064</v>
+      </c>
+      <c r="E2971" t="str">
+        <f t="shared" si="94"/>
+        <v>("2970","10","importYourCreditCardStatement","استيراد كشف حساب بطاقتك الائتمانية"),</v>
       </c>
     </row>
     <row r="2972" spans="1:5" x14ac:dyDescent="0.2">
@@ -66582,7 +67524,16 @@
       <c r="B2972" s="13">
         <v>1</v>
       </c>
-      <c r="D2972"/>
+      <c r="C2972" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E2972" t="str">
+        <f t="shared" si="94"/>
+        <v>("2971","1","pasteYourCreditCardStatementHere","Paste your statement here"),</v>
+      </c>
     </row>
     <row r="2973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2973">
@@ -66592,7 +67543,16 @@
       <c r="B2973" s="13">
         <v>2</v>
       </c>
-      <c r="D2973"/>
+      <c r="C2973" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E2973" t="str">
+        <f t="shared" si="94"/>
+        <v>("2972","2","pasteYourCreditCardStatementHere","உங்கள் அறிக்கையை இங்கே ஒட்டவும்"),</v>
+      </c>
     </row>
     <row r="2974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2974">
@@ -66602,7 +67562,16 @@
       <c r="B2974" s="13">
         <v>3</v>
       </c>
-      <c r="D2974"/>
+      <c r="C2974" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E2974" t="str">
+        <f t="shared" si="94"/>
+        <v>("2973","3","pasteYourCreditCardStatementHere","Collez votre déclaration ici"),</v>
+      </c>
     </row>
     <row r="2975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2975">
@@ -66612,7 +67581,16 @@
       <c r="B2975" s="13">
         <v>4</v>
       </c>
-      <c r="D2975"/>
+      <c r="C2975" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E2975" t="str">
+        <f t="shared" si="94"/>
+        <v>("2974","4","pasteYourCreditCardStatementHere","在此处粘贴您的声明"),</v>
+      </c>
     </row>
     <row r="2976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2976">
@@ -66622,9 +67600,18 @@
       <c r="B2976" s="13">
         <v>5</v>
       </c>
-      <c r="D2976"/>
-    </row>
-    <row r="2977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2976" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E2976" t="str">
+        <f t="shared" si="94"/>
+        <v>("2975","5","pasteYourCreditCardStatementHere","ここにステートメントを貼り付けます"),</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2977">
         <f t="shared" si="93"/>
         <v>2976</v>
@@ -66632,9 +67619,18 @@
       <c r="B2977" s="13">
         <v>6</v>
       </c>
-      <c r="D2977"/>
-    </row>
-    <row r="2978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2977" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E2977" t="str">
+        <f t="shared" si="94"/>
+        <v>("2976","6","pasteYourCreditCardStatementHere","Cole sua declaração aqui"),</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2978">
         <f t="shared" si="93"/>
         <v>2977</v>
@@ -66642,9 +67638,18 @@
       <c r="B2978" s="13">
         <v>7</v>
       </c>
-      <c r="D2978"/>
-    </row>
-    <row r="2979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2978" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E2978" t="str">
+        <f t="shared" si="94"/>
+        <v>("2977","7","pasteYourCreditCardStatementHere","अपना बयान यहां चिपकाएं"),</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2979">
         <f t="shared" si="93"/>
         <v>2978</v>
@@ -66652,9 +67657,18 @@
       <c r="B2979" s="13">
         <v>8</v>
       </c>
-      <c r="D2979"/>
-    </row>
-    <row r="2980" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2979" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E2979" t="str">
+        <f t="shared" si="94"/>
+        <v>("2978","8","pasteYourCreditCardStatementHere","Вставьте свое заявление сюда"),</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2980">
         <f t="shared" si="93"/>
         <v>2979</v>
@@ -66662,9 +67676,18 @@
       <c r="B2980" s="13">
         <v>9</v>
       </c>
-      <c r="D2980"/>
-    </row>
-    <row r="2981" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2980" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E2980" t="str">
+        <f t="shared" si="94"/>
+        <v>("2979","9","pasteYourCreditCardStatementHere","Pegue su declaración aquí"),</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2981">
         <f t="shared" si="93"/>
         <v>2980</v>
@@ -66672,8 +67695,18 @@
       <c r="B2981" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="2982" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2981" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D2981" s="6" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E2981" t="str">
+        <f t="shared" si="94"/>
+        <v>("2980","10","pasteYourCreditCardStatementHere","الصق البيان الخاص بك هنا"),</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2982">
         <f t="shared" si="93"/>
         <v>2981</v>
@@ -66681,8 +67714,18 @@
       <c r="B2982" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2983" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2982" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E2982" t="str">
+        <f t="shared" si="94"/>
+        <v>("2981","1","textSeperated","Seperator"),</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2983">
         <f t="shared" si="93"/>
         <v>2982</v>
@@ -66690,8 +67733,18 @@
       <c r="B2983" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="2984" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2983" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2983" s="6" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E2983" t="str">
+        <f t="shared" si="94"/>
+        <v>("2982","2","textSeperated","உரை பிரிக்கப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2984">
         <f t="shared" si="93"/>
         <v>2983</v>
@@ -66699,8 +67752,18 @@
       <c r="B2984" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2985" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2984" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2984" s="6" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E2984" t="str">
+        <f t="shared" si="94"/>
+        <v>("2983","3","textSeperated","texte séparé"),</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2985">
         <f t="shared" si="93"/>
         <v>2984</v>
@@ -66708,8 +67771,18 @@
       <c r="B2985" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2986" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2985" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2985" s="6" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E2985" t="str">
+        <f t="shared" si="94"/>
+        <v>("2984","4","textSeperated","文本分隔"),</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2986">
         <f t="shared" si="93"/>
         <v>2985</v>
@@ -66717,8 +67790,18 @@
       <c r="B2986" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2987" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2986" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2986" s="6" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E2986" t="str">
+        <f t="shared" si="94"/>
+        <v>("2985","5","textSeperated","テキスト区切り"),</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2987">
         <f t="shared" si="93"/>
         <v>2986</v>
@@ -66726,8 +67809,18 @@
       <c r="B2987" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2988" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2987" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2987" s="6" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E2987" t="str">
+        <f t="shared" si="94"/>
+        <v>("2986","6","textSeperated","texto separado"),</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2988">
         <f t="shared" si="93"/>
         <v>2987</v>
@@ -66735,8 +67828,18 @@
       <c r="B2988" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2989" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2988" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2988" s="6" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E2988" t="str">
+        <f t="shared" si="94"/>
+        <v>("2987","7","textSeperated","पाठ अलग"),</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2989">
         <f t="shared" si="93"/>
         <v>2988</v>
@@ -66744,8 +67847,18 @@
       <c r="B2989" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="2990" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2989" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2989" s="6" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E2989" t="str">
+        <f t="shared" si="94"/>
+        <v>("2988","8","textSeperated","текст разделен"),</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2990">
         <f t="shared" si="93"/>
         <v>2989</v>
@@ -66753,8 +67866,18 @@
       <c r="B2990" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="2991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2990" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2990" s="6" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E2990" t="str">
+        <f t="shared" si="94"/>
+        <v>("2989","9","textSeperated","texto separado"),</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2991">
         <f t="shared" si="93"/>
         <v>2990</v>
@@ -66762,8 +67885,18 @@
       <c r="B2991" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="2992" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2991" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D2991" s="6" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E2991" t="str">
+        <f t="shared" si="94"/>
+        <v>("2990","10","textSeperated","فاصل"),</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2992">
         <f t="shared" si="93"/>
         <v>2991</v>
@@ -66771,8 +67904,18 @@
       <c r="B2992" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="2993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2992" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2992" s="6" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E2992" t="str">
+        <f t="shared" si="94"/>
+        <v>("2991","1","back","Back"),</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2993">
         <f t="shared" si="93"/>
         <v>2992</v>
@@ -66780,8 +67923,18 @@
       <c r="B2993" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="2994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2993" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2993" s="6" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E2993" t="str">
+        <f t="shared" si="94"/>
+        <v>("2992","2","back","பின்"),</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2994">
         <f t="shared" si="93"/>
         <v>2993</v>
@@ -66789,8 +67942,18 @@
       <c r="B2994" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="2995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2994" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2994" s="6" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E2994" t="str">
+        <f t="shared" si="94"/>
+        <v>("2993","3","back","retour"),</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2995">
         <f t="shared" si="93"/>
         <v>2994</v>
@@ -66798,8 +67961,18 @@
       <c r="B2995" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2995" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2995" s="6" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E2995" t="str">
+        <f t="shared" si="94"/>
+        <v>("2994","4","back","背部"),</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2996">
         <f t="shared" si="93"/>
         <v>2995</v>
@@ -66807,8 +67980,18 @@
       <c r="B2996" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="2997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2996" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2996" s="6" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E2996" t="str">
+        <f t="shared" si="94"/>
+        <v>("2995","5","back","戻る"),</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2997">
         <f t="shared" si="93"/>
         <v>2996</v>
@@ -66816,8 +67999,18 @@
       <c r="B2997" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="2998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2997" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2997" s="6" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E2997" t="str">
+        <f t="shared" si="94"/>
+        <v>("2996","6","back","de volta"),</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2998">
         <f t="shared" si="93"/>
         <v>2997</v>
@@ -66825,8 +68018,18 @@
       <c r="B2998" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="2999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2998" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2998" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E2998" t="str">
+        <f t="shared" si="94"/>
+        <v>("2997","7","back","पीछे"),</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2999">
         <f t="shared" si="93"/>
         <v>2998</v>
@@ -66834,17 +68037,37 @@
       <c r="B2999" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2999" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D2999" s="6" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E2999" t="str">
+        <f t="shared" si="94"/>
+        <v>("2998","8","back","Назад"),</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3000">
-        <f t="shared" ref="A3000:A3061" si="95">A2999+1</f>
+        <f t="shared" ref="A3000:A3063" si="95">A2999+1</f>
         <v>2999</v>
       </c>
       <c r="B3000" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3000" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D3000" s="6" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E3000" t="str">
+        <f t="shared" si="94"/>
+        <v>("2999","9","back","atrás"),</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3001">
         <f t="shared" si="95"/>
         <v>3000</v>
@@ -66852,8 +68075,18 @@
       <c r="B3001" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3001" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D3001" s="6" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E3001" t="str">
+        <f t="shared" ref="E3001:E3064" si="96">CONCATENATE("(",CHAR(34),A3001,CHAR(34),",",CHAR(34),B3001,CHAR(34),",",CHAR(34),C3001,CHAR(34),",",CHAR(34),D3001,CHAR(34),"),")</f>
+        <v>("3000","10","back","الى الخلف"),</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3002">
         <f t="shared" si="95"/>
         <v>3001</v>
@@ -66861,8 +68094,18 @@
       <c r="B3002" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3002" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3002" s="6" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E3002" t="str">
+        <f t="shared" si="96"/>
+        <v>("3001","1","process","Process"),</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3003">
         <f t="shared" si="95"/>
         <v>3002</v>
@@ -66870,8 +68113,18 @@
       <c r="B3003" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3003" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3003" s="6" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E3003" t="str">
+        <f t="shared" si="96"/>
+        <v>("3002","2","process","செயல்முறை"),</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3004">
         <f t="shared" si="95"/>
         <v>3003</v>
@@ -66879,8 +68132,18 @@
       <c r="B3004" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3004" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3004" s="6" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E3004" t="str">
+        <f t="shared" si="96"/>
+        <v>("3003","3","process","Traiter"),</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3005">
         <f t="shared" si="95"/>
         <v>3004</v>
@@ -66888,8 +68151,18 @@
       <c r="B3005" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3005" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3005" s="6" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E3005" t="str">
+        <f t="shared" si="96"/>
+        <v>("3004","4","process","过程"),</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3006">
         <f t="shared" si="95"/>
         <v>3005</v>
@@ -66897,8 +68170,18 @@
       <c r="B3006" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3006" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3006" s="6" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E3006" t="str">
+        <f t="shared" si="96"/>
+        <v>("3005","5","process","プロセス"),</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3007">
         <f t="shared" si="95"/>
         <v>3006</v>
@@ -66906,8 +68189,18 @@
       <c r="B3007" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3007" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3007" s="6" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E3007" t="str">
+        <f t="shared" si="96"/>
+        <v>("3006","6","process","Processo"),</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3008">
         <f t="shared" si="95"/>
         <v>3007</v>
@@ -66915,8 +68208,18 @@
       <c r="B3008" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3008" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3008" s="6" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E3008" t="str">
+        <f t="shared" si="96"/>
+        <v>("3007","7","process","प्रक्रिया"),</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3009">
         <f t="shared" si="95"/>
         <v>3008</v>
@@ -66924,8 +68227,18 @@
       <c r="B3009" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3009" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3009" s="6" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E3009" t="str">
+        <f t="shared" si="96"/>
+        <v>("3008","8","process","Процесс"),</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3010">
         <f t="shared" si="95"/>
         <v>3009</v>
@@ -66933,8 +68246,18 @@
       <c r="B3010" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3010" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3010" s="6" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E3010" t="str">
+        <f t="shared" si="96"/>
+        <v>("3009","9","process","Proceso"),</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3011">
         <f t="shared" si="95"/>
         <v>3010</v>
@@ -66942,8 +68265,18 @@
       <c r="B3011" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3011" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3011" s="6" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E3011" t="str">
+        <f t="shared" si="96"/>
+        <v>("3010","10","process","معالجة"),</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3012">
         <f t="shared" si="95"/>
         <v>3011</v>
@@ -66951,8 +68284,18 @@
       <c r="B3012" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3012" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E3012" t="str">
+        <f t="shared" si="96"/>
+        <v>("3011","1","cloneFromTemplate","Clone from template"),</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3013">
         <f t="shared" si="95"/>
         <v>3012</v>
@@ -66960,8 +68303,18 @@
       <c r="B3013" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3013" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E3013" t="str">
+        <f t="shared" si="96"/>
+        <v>("3012","2","cloneFromTemplate","டெம்ப்ளேட்டிலிருந்து குளோன் செய்யுங்கள்"),</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3014">
         <f t="shared" si="95"/>
         <v>3013</v>
@@ -66969,8 +68322,18 @@
       <c r="B3014" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3014" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E3014" t="str">
+        <f t="shared" si="96"/>
+        <v>("3013","3","cloneFromTemplate","Cloner à partir du modèle"),</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3015">
         <f t="shared" si="95"/>
         <v>3014</v>
@@ -66978,8 +68341,18 @@
       <c r="B3015" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3015" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E3015" t="str">
+        <f t="shared" si="96"/>
+        <v>("3014","4","cloneFromTemplate","Cloner à partir du modèle"),</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3016">
         <f t="shared" si="95"/>
         <v>3015</v>
@@ -66987,8 +68360,18 @@
       <c r="B3016" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3016" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E3016" t="str">
+        <f t="shared" si="96"/>
+        <v>("3015","5","cloneFromTemplate","テンプレートから複製"),</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3017">
         <f t="shared" si="95"/>
         <v>3016</v>
@@ -66996,8 +68379,18 @@
       <c r="B3017" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3017" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E3017" t="str">
+        <f t="shared" si="96"/>
+        <v>("3016","6","cloneFromTemplate","Clonar do modelo"),</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3018">
         <f t="shared" si="95"/>
         <v>3017</v>
@@ -67005,8 +68398,18 @@
       <c r="B3018" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3018" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E3018" t="str">
+        <f t="shared" si="96"/>
+        <v>("3017","7","cloneFromTemplate","टेम्पलेट से क्लोन"),</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3019">
         <f t="shared" si="95"/>
         <v>3018</v>
@@ -67014,8 +68417,18 @@
       <c r="B3019" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3019" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E3019" t="str">
+        <f t="shared" si="96"/>
+        <v>("3018","8","cloneFromTemplate","Клонировать из шаблона"),</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3020">
         <f t="shared" si="95"/>
         <v>3019</v>
@@ -67023,8 +68436,18 @@
       <c r="B3020" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3020" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>3118</v>
+      </c>
+      <c r="E3020" t="str">
+        <f t="shared" si="96"/>
+        <v>("3019","9","cloneFromTemplate","Clonar de plantilla"),</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3021">
         <f t="shared" si="95"/>
         <v>3020</v>
@@ -67032,8 +68455,18 @@
       <c r="B3021" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3021" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E3021" t="str">
+        <f t="shared" si="96"/>
+        <v>("3020","10","cloneFromTemplate","استنساخ من قالب"),</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3022">
         <f t="shared" si="95"/>
         <v>3021</v>
@@ -67041,8 +68474,18 @@
       <c r="B3022" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3022" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E3022" t="str">
+        <f t="shared" si="96"/>
+        <v>("3021","1","exportToValue","Export to {value}"),</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3023">
         <f t="shared" si="95"/>
         <v>3022</v>
@@ -67050,8 +68493,18 @@
       <c r="B3023" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3023" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E3023" t="str">
+        <f t="shared" si="96"/>
+        <v>("3022","2","exportToValue","{value}க்கு ஏற்றுமதி செய்யவும்"),</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3024">
         <f t="shared" si="95"/>
         <v>3023</v>
@@ -67059,8 +68512,18 @@
       <c r="B3024" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3024" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3024" s="6" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E3024" t="str">
+        <f t="shared" si="96"/>
+        <v>("3023","3","exportToValue","Exporter au format {value}"),</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3025">
         <f t="shared" si="95"/>
         <v>3024</v>
@@ -67068,8 +68531,18 @@
       <c r="B3025" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3025" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3025" s="6" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E3025" t="str">
+        <f t="shared" si="96"/>
+        <v>("3024","4","exportToValue","导出为 {value}"),</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3026">
         <f t="shared" si="95"/>
         <v>3025</v>
@@ -67077,8 +68550,18 @@
       <c r="B3026" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3026" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3026" s="6" t="s">
+        <v>3130</v>
+      </c>
+      <c r="E3026" t="str">
+        <f t="shared" si="96"/>
+        <v>("3025","5","exportToValue","{value}にエクスポート"),</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3027">
         <f t="shared" si="95"/>
         <v>3026</v>
@@ -67086,8 +68569,18 @@
       <c r="B3027" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3027" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3027" s="6" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E3027" t="str">
+        <f t="shared" si="96"/>
+        <v>("3026","6","exportToValue","Exportar para {value}"),</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3028">
         <f t="shared" si="95"/>
         <v>3027</v>
@@ -67095,8 +68588,18 @@
       <c r="B3028" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3028" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3028" s="6" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E3028" t="str">
+        <f t="shared" si="96"/>
+        <v>("3027","7","exportToValue","{value} में निर्यात करें"),</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3029">
         <f t="shared" si="95"/>
         <v>3028</v>
@@ -67104,8 +68607,18 @@
       <c r="B3029" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3029" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3029" s="6" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E3029" t="str">
+        <f t="shared" si="96"/>
+        <v>("3028","8","exportToValue","Экспорт в {value}"),</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3030">
         <f t="shared" si="95"/>
         <v>3029</v>
@@ -67113,8 +68626,18 @@
       <c r="B3030" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3030" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3030" s="6" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E3030" t="str">
+        <f t="shared" si="96"/>
+        <v>("3029","9","exportToValue","Exportar a {value}"),</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3031">
         <f t="shared" si="95"/>
         <v>3030</v>
@@ -67122,8 +68645,18 @@
       <c r="B3031" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3031" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3031" s="6" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E3031" t="str">
+        <f t="shared" si="96"/>
+        <v>("3030","10","exportToValue","تصدير إلى {value}"),</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3032">
         <f t="shared" si="95"/>
         <v>3031</v>
@@ -67131,8 +68664,18 @@
       <c r="B3032" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3032" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3032" s="6" t="s">
+        <v>3136</v>
+      </c>
+      <c r="E3032" t="str">
+        <f t="shared" si="96"/>
+        <v>("3031","1","changePassword","Change password"),</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3033">
         <f t="shared" si="95"/>
         <v>3032</v>
@@ -67140,8 +68683,18 @@
       <c r="B3033" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3033" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3033" s="6" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E3033" t="str">
+        <f t="shared" si="96"/>
+        <v>("3032","2","changePassword","கடவுச்சொல்லை மாற்று"),</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3034">
         <f t="shared" si="95"/>
         <v>3033</v>
@@ -67149,8 +68702,18 @@
       <c r="B3034" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3034" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3034" s="6" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E3034" t="str">
+        <f t="shared" si="96"/>
+        <v>("3033","3","changePassword","Changer le mot de passe"),</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3035">
         <f t="shared" si="95"/>
         <v>3034</v>
@@ -67158,8 +68721,18 @@
       <c r="B3035" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3035" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3035" s="6" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E3035" t="str">
+        <f t="shared" si="96"/>
+        <v>("3034","4","changePassword","更改密码"),</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3036">
         <f t="shared" si="95"/>
         <v>3035</v>
@@ -67167,8 +68740,18 @@
       <c r="B3036" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3036" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3036" s="6" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E3036" t="str">
+        <f t="shared" si="96"/>
+        <v>("3035","5","changePassword","パスワードを変更する"),</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3037">
         <f t="shared" si="95"/>
         <v>3036</v>
@@ -67176,8 +68759,18 @@
       <c r="B3037" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3037" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3037" s="6" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E3037" t="str">
+        <f t="shared" si="96"/>
+        <v>("3036","6","changePassword","Mudar senha"),</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3038">
         <f t="shared" si="95"/>
         <v>3037</v>
@@ -67185,8 +68778,18 @@
       <c r="B3038" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3038" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3038" s="6" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E3038" t="str">
+        <f t="shared" si="96"/>
+        <v>("3037","7","changePassword","पासवर्ड बदलें"),</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3039">
         <f t="shared" si="95"/>
         <v>3038</v>
@@ -67194,8 +68797,18 @@
       <c r="B3039" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3039" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3039" s="6" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E3039" t="str">
+        <f t="shared" si="96"/>
+        <v>("3038","8","changePassword","Изменить пароль"),</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3040">
         <f t="shared" si="95"/>
         <v>3039</v>
@@ -67203,8 +68816,18 @@
       <c r="B3040" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3040" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3040" s="6" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E3040" t="str">
+        <f t="shared" si="96"/>
+        <v>("3039","9","changePassword","Cambia la contraseña"),</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3041">
         <f t="shared" si="95"/>
         <v>3040</v>
@@ -67212,8 +68835,18 @@
       <c r="B3041" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3041" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D3041" s="6" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E3041" t="str">
+        <f t="shared" si="96"/>
+        <v>("3040","10","changePassword","غير كلمة السر"),</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3042">
         <f t="shared" si="95"/>
         <v>3041</v>
@@ -67221,8 +68854,18 @@
       <c r="B3042" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3042" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3042" s="6" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E3042" t="str">
+        <f t="shared" si="96"/>
+        <v>("3041","1","currentPassword","Current Password"),</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3043">
         <f t="shared" si="95"/>
         <v>3042</v>
@@ -67230,8 +68873,18 @@
       <c r="B3043" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3043" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3043" s="6" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3043" t="str">
+        <f t="shared" si="96"/>
+        <v>("3042","2","currentPassword","தற்போதைய கடவுச்சொல்"),</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3044">
         <f t="shared" si="95"/>
         <v>3043</v>
@@ -67239,8 +68892,18 @@
       <c r="B3044" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3044" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3044" s="6" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E3044" t="str">
+        <f t="shared" si="96"/>
+        <v>("3043","3","currentPassword","Mot de passe actuel"),</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3045">
         <f t="shared" si="95"/>
         <v>3044</v>
@@ -67248,8 +68911,18 @@
       <c r="B3045" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3045" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3045" s="6" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E3045" t="str">
+        <f t="shared" si="96"/>
+        <v>("3044","4","currentPassword","当前密码"),</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3046">
         <f t="shared" si="95"/>
         <v>3045</v>
@@ -67257,8 +68930,18 @@
       <c r="B3046" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3046" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3046" s="6" t="s">
+        <v>3151</v>
+      </c>
+      <c r="E3046" t="str">
+        <f t="shared" si="96"/>
+        <v>("3045","5","currentPassword","現在のパスワード"),</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3047">
         <f t="shared" si="95"/>
         <v>3046</v>
@@ -67266,8 +68949,18 @@
       <c r="B3047" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3047" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3047" s="6" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E3047" t="str">
+        <f t="shared" si="96"/>
+        <v>("3046","6","currentPassword","Senha atual"),</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3048">
         <f t="shared" si="95"/>
         <v>3047</v>
@@ -67275,8 +68968,18 @@
       <c r="B3048" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3048" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3048" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E3048" t="str">
+        <f t="shared" si="96"/>
+        <v>("3047","7","currentPassword","वर्तमान पासवर्ड"),</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3049">
         <f t="shared" si="95"/>
         <v>3048</v>
@@ -67284,8 +68987,18 @@
       <c r="B3049" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3049" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3049" s="6" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E3049" t="str">
+        <f t="shared" si="96"/>
+        <v>("3048","8","currentPassword","текущий пароль"),</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3050">
         <f t="shared" si="95"/>
         <v>3049</v>
@@ -67293,8 +69006,18 @@
       <c r="B3050" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3050" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3050" s="6" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E3050" t="str">
+        <f t="shared" si="96"/>
+        <v>("3049","9","currentPassword","contraseña actual"),</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3051">
         <f t="shared" si="95"/>
         <v>3050</v>
@@ -67302,8 +69025,18 @@
       <c r="B3051" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3051" s="6" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D3051" s="6" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E3051" t="str">
+        <f t="shared" si="96"/>
+        <v>("3050","10","currentPassword","كلمة المرور الحالية"),</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3052">
         <f t="shared" si="95"/>
         <v>3051</v>
@@ -67311,8 +69044,18 @@
       <c r="B3052" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3052" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3052" s="6" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E3052" t="str">
+        <f t="shared" si="96"/>
+        <v>("3051","1","resetPassword","Reset password"),</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3053">
         <f t="shared" si="95"/>
         <v>3052</v>
@@ -67320,8 +69063,18 @@
       <c r="B3053" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3053" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3053" s="6" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E3053" t="str">
+        <f t="shared" si="96"/>
+        <v>("3052","2","resetPassword","கடவுச்சொல்லை மீட்டமைக்க"),</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3054">
         <f t="shared" si="95"/>
         <v>3053</v>
@@ -67329,8 +69082,18 @@
       <c r="B3054" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3054" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3054" s="6" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E3054" t="str">
+        <f t="shared" si="96"/>
+        <v>("3053","3","resetPassword","Réinitialiser le mot de passe"),</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3055">
         <f t="shared" si="95"/>
         <v>3054</v>
@@ -67338,8 +69101,18 @@
       <c r="B3055" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3055" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3055" s="6" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E3055" t="str">
+        <f t="shared" si="96"/>
+        <v>("3054","4","resetPassword","重设密码"),</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3056">
         <f t="shared" si="95"/>
         <v>3055</v>
@@ -67347,8 +69120,18 @@
       <c r="B3056" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3056" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3056" s="6" t="s">
+        <v>3166</v>
+      </c>
+      <c r="E3056" t="str">
+        <f t="shared" si="96"/>
+        <v>("3055","5","resetPassword","パスワードを再設定する"),</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3057">
         <f t="shared" si="95"/>
         <v>3056</v>
@@ -67356,8 +69139,18 @@
       <c r="B3057" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3057" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3057" s="6" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E3057" t="str">
+        <f t="shared" si="96"/>
+        <v>("3056","6","resetPassword","Redefinir senha"),</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3058">
         <f t="shared" si="95"/>
         <v>3057</v>
@@ -67365,8 +69158,18 @@
       <c r="B3058" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3058" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3058" s="6" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E3058" t="str">
+        <f t="shared" si="96"/>
+        <v>("3057","7","resetPassword","पासवर्ड रीसेट"),</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3059">
         <f t="shared" si="95"/>
         <v>3058</v>
@@ -67374,8 +69177,18 @@
       <c r="B3059" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3059" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3059" s="6" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E3059" t="str">
+        <f t="shared" si="96"/>
+        <v>("3058","8","resetPassword","Сброс пароля"),</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3060">
         <f t="shared" si="95"/>
         <v>3059</v>
@@ -67383,13 +69196,4373 @@
       <c r="B3060" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3060" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3060" s="6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="E3060" t="str">
+        <f t="shared" si="96"/>
+        <v>("3059","9","resetPassword","Restablecer la contraseña"),</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3061">
         <f t="shared" si="95"/>
         <v>3060</v>
       </c>
       <c r="B3061" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3061" s="6" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D3061" s="6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E3061" t="str">
+        <f t="shared" si="96"/>
+        <v>("3060","10","resetPassword","إعادة تعيين كلمة المرور"),</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3062">
+        <f t="shared" si="95"/>
+        <v>3061</v>
+      </c>
+      <c r="B3062" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3062" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3062" s="6" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E3062" t="str">
+        <f t="shared" si="96"/>
+        <v>("3061","1","cancel","Cancel"),</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3063">
+        <f t="shared" si="95"/>
+        <v>3062</v>
+      </c>
+      <c r="B3063" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3063" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3063" s="6" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E3063" t="str">
+        <f t="shared" si="96"/>
+        <v>("3062","2","cancel","ரத்து செய்"),</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3064">
+        <f t="shared" ref="A3064:A3127" si="97">A3063+1</f>
+        <v>3063</v>
+      </c>
+      <c r="B3064" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3064" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3064" s="6" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E3064" t="str">
+        <f t="shared" si="96"/>
+        <v>("3063","3","cancel","Annuler"),</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3065">
+        <f t="shared" si="97"/>
+        <v>3064</v>
+      </c>
+      <c r="B3065" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3065" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3065" s="6" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E3065" t="str">
+        <f t="shared" ref="E3065:E3128" si="98">CONCATENATE("(",CHAR(34),A3065,CHAR(34),",",CHAR(34),B3065,CHAR(34),",",CHAR(34),C3065,CHAR(34),",",CHAR(34),D3065,CHAR(34),"),")</f>
+        <v>("3064","4","cancel","取消"),</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3066">
+        <f t="shared" si="97"/>
+        <v>3065</v>
+      </c>
+      <c r="B3066" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3066" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3066" s="6" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E3066" t="str">
+        <f t="shared" si="98"/>
+        <v>("3065","5","cancel","キャンセル"),</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3067">
+        <f t="shared" si="97"/>
+        <v>3066</v>
+      </c>
+      <c r="B3067" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3067" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3067" s="6" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3067" t="str">
+        <f t="shared" si="98"/>
+        <v>("3066","6","cancel","Cancelar"),</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3068">
+        <f t="shared" si="97"/>
+        <v>3067</v>
+      </c>
+      <c r="B3068" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3068" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3068" s="6" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E3068" t="str">
+        <f t="shared" si="98"/>
+        <v>("3067","7","cancel","रद्द करना"),</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3069">
+        <f t="shared" si="97"/>
+        <v>3068</v>
+      </c>
+      <c r="B3069" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3069" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3069" s="6" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E3069" t="str">
+        <f t="shared" si="98"/>
+        <v>("3068","8","cancel","Отмена"),</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3070">
+        <f t="shared" si="97"/>
+        <v>3069</v>
+      </c>
+      <c r="B3070" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3070" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3070" s="6" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E3070" t="str">
+        <f t="shared" si="98"/>
+        <v>("3069","9","cancel","Cancelar"),</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3071">
+        <f t="shared" si="97"/>
+        <v>3070</v>
+      </c>
+      <c r="B3071" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3071" s="6" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D3071" s="6" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E3071" t="str">
+        <f t="shared" si="98"/>
+        <v>("3070","10","cancel","يلغي"),</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3072">
+        <f t="shared" si="97"/>
+        <v>3071</v>
+      </c>
+      <c r="B3072" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3072" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3072" s="6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E3072" t="str">
+        <f t="shared" si="98"/>
+        <v>("3071","1","newPassword","New Password"),</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3073">
+        <f t="shared" si="97"/>
+        <v>3072</v>
+      </c>
+      <c r="B3073" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3073" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3073" s="6" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E3073" t="str">
+        <f t="shared" si="98"/>
+        <v>("3072","2","newPassword","புதிய கடவுச்சொல்"),</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3074">
+        <f t="shared" si="97"/>
+        <v>3073</v>
+      </c>
+      <c r="B3074" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3074" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3074" s="6" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E3074" t="str">
+        <f t="shared" si="98"/>
+        <v>("3073","3","newPassword","nouveau mot de passe"),</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3075">
+        <f t="shared" si="97"/>
+        <v>3074</v>
+      </c>
+      <c r="B3075" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3075" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3075" s="6" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E3075" t="str">
+        <f t="shared" si="98"/>
+        <v>("3074","4","newPassword","新密码"),</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3076">
+        <f t="shared" si="97"/>
+        <v>3075</v>
+      </c>
+      <c r="B3076" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3076" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3076" s="6" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E3076" t="str">
+        <f t="shared" si="98"/>
+        <v>("3075","5","newPassword","新しいパスワード"),</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3077">
+        <f t="shared" si="97"/>
+        <v>3076</v>
+      </c>
+      <c r="B3077" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3077" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3077" s="6" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E3077" t="str">
+        <f t="shared" si="98"/>
+        <v>("3076","6","newPassword","Nova Senha"),</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3078">
+        <f t="shared" si="97"/>
+        <v>3077</v>
+      </c>
+      <c r="B3078" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3078" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3078" s="6" t="s">
+        <v>3189</v>
+      </c>
+      <c r="E3078" t="str">
+        <f t="shared" si="98"/>
+        <v>("3077","7","newPassword","नया पासवर्ड"),</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3079">
+        <f t="shared" si="97"/>
+        <v>3078</v>
+      </c>
+      <c r="B3079" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3079" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3079" s="6" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E3079" t="str">
+        <f t="shared" si="98"/>
+        <v>("3078","8","newPassword","Новый пароль"),</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3080">
+        <f t="shared" si="97"/>
+        <v>3079</v>
+      </c>
+      <c r="B3080" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3080" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3080" s="6" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E3080" t="str">
+        <f t="shared" si="98"/>
+        <v>("3079","9","newPassword","Nueva contraseña"),</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3081">
+        <f t="shared" si="97"/>
+        <v>3080</v>
+      </c>
+      <c r="B3081" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3081" s="6" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D3081" s="6" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E3081" t="str">
+        <f t="shared" si="98"/>
+        <v>("3080","10","newPassword","كلمة السر الجديدة"),</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3082">
+        <f t="shared" si="97"/>
+        <v>3081</v>
+      </c>
+      <c r="B3082" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3082" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3082" s="6" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E3082" t="str">
+        <f t="shared" si="98"/>
+        <v>("3081","1","retypePassword","Retype Password"),</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3083">
+        <f t="shared" si="97"/>
+        <v>3082</v>
+      </c>
+      <c r="B3083" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3083" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3083" s="6" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E3083" t="str">
+        <f t="shared" si="98"/>
+        <v>("3082","2","retypePassword","கடவுச்சொல்லை மீண்டும் தட்டச்சு செய்க"),</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3084">
+        <f t="shared" si="97"/>
+        <v>3083</v>
+      </c>
+      <c r="B3084" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3084" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3084" s="6" t="s">
+        <v>3193</v>
+      </c>
+      <c r="E3084" t="str">
+        <f t="shared" si="98"/>
+        <v>("3083","3","retypePassword","retaper le mot de passe"),</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3085">
+        <f t="shared" si="97"/>
+        <v>3084</v>
+      </c>
+      <c r="B3085" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3085" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3085" s="6" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E3085" t="str">
+        <f t="shared" si="98"/>
+        <v>("3084","4","retypePassword","重新输入密码"),</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3086">
+        <f t="shared" si="97"/>
+        <v>3085</v>
+      </c>
+      <c r="B3086" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3086" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3086" s="6" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E3086" t="str">
+        <f t="shared" si="98"/>
+        <v>("3085","5","retypePassword","パスワードを再入力してください"),</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3087">
+        <f t="shared" si="97"/>
+        <v>3086</v>
+      </c>
+      <c r="B3087" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3087" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3087" s="6" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E3087" t="str">
+        <f t="shared" si="98"/>
+        <v>("3086","6","retypePassword","Redigite a senha"),</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3088">
+        <f t="shared" si="97"/>
+        <v>3087</v>
+      </c>
+      <c r="B3088" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3088" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3088" s="6" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E3088" t="str">
+        <f t="shared" si="98"/>
+        <v>("3087","7","retypePassword","पासवर्ड फिर से लिखें"),</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3089">
+        <f t="shared" si="97"/>
+        <v>3088</v>
+      </c>
+      <c r="B3089" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3089" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3089" s="6" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E3089" t="str">
+        <f t="shared" si="98"/>
+        <v>("3088","8","retypePassword","Введите пароль еще раз"),</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3090">
+        <f t="shared" si="97"/>
+        <v>3089</v>
+      </c>
+      <c r="B3090" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3090" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3090" s="6" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E3090" t="str">
+        <f t="shared" si="98"/>
+        <v>("3089","9","retypePassword","Vuelva a escribir la contraseña"),</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3091">
+        <f t="shared" si="97"/>
+        <v>3090</v>
+      </c>
+      <c r="B3091" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3091" s="6" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D3091" s="6" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E3091" t="str">
+        <f t="shared" si="98"/>
+        <v>("3090","10","retypePassword","اعد ادخال كلمة المرور"),</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3092">
+        <f t="shared" si="97"/>
+        <v>3091</v>
+      </c>
+      <c r="B3092" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3092" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3092" s="6" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E3092" t="str">
+        <f t="shared" si="98"/>
+        <v>("3091","1","login","Login"),</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3093">
+        <f t="shared" si="97"/>
+        <v>3092</v>
+      </c>
+      <c r="B3093" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3093" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3093" s="6" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E3093" t="str">
+        <f t="shared" si="98"/>
+        <v>("3092","2","login","உள்நுழைய"),</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3094">
+        <f t="shared" si="97"/>
+        <v>3093</v>
+      </c>
+      <c r="B3094" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3094" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3094" s="6" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E3094" t="str">
+        <f t="shared" si="98"/>
+        <v>("3093","3","login","connexion"),</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3095">
+        <f t="shared" si="97"/>
+        <v>3094</v>
+      </c>
+      <c r="B3095" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3095" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3095" s="6" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E3095" t="str">
+        <f t="shared" si="98"/>
+        <v>("3094","4","login","登录"),</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3096">
+        <f t="shared" si="97"/>
+        <v>3095</v>
+      </c>
+      <c r="B3096" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3096" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3096" s="6" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E3096" t="str">
+        <f t="shared" si="98"/>
+        <v>("3095","5","login","ログインする"),</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3097">
+        <f t="shared" si="97"/>
+        <v>3096</v>
+      </c>
+      <c r="B3097" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3097" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3097" s="6" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3097" t="str">
+        <f t="shared" si="98"/>
+        <v>("3096","6","login","Conecte-se"),</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3098">
+        <f t="shared" si="97"/>
+        <v>3097</v>
+      </c>
+      <c r="B3098" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3098" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3098" s="6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E3098" t="str">
+        <f t="shared" si="98"/>
+        <v>("3097","7","login","लॉग इन करें"),</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3099">
+        <f t="shared" si="97"/>
+        <v>3098</v>
+      </c>
+      <c r="B3099" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3099" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3099" s="6" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E3099" t="str">
+        <f t="shared" si="98"/>
+        <v>("3098","8","login","авторизоваться"),</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3100">
+        <f t="shared" si="97"/>
+        <v>3099</v>
+      </c>
+      <c r="B3100" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3100" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3100" s="6" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E3100" t="str">
+        <f t="shared" si="98"/>
+        <v>("3099","9","login","acceso"),</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3101">
+        <f t="shared" si="97"/>
+        <v>3100</v>
+      </c>
+      <c r="B3101" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3101" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D3101" s="6" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E3101" t="str">
+        <f t="shared" si="98"/>
+        <v>("3100","10","login","تسجيل الدخول"),</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3102">
+        <f t="shared" si="97"/>
+        <v>3101</v>
+      </c>
+      <c r="B3102" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3102" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3102" s="6" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E3102" t="str">
+        <f t="shared" si="98"/>
+        <v>("3101","1","Logout","Log out"),</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3103">
+        <f t="shared" si="97"/>
+        <v>3102</v>
+      </c>
+      <c r="B3103" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3103" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3103" s="6" t="s">
+        <v>3217</v>
+      </c>
+      <c r="E3103" t="str">
+        <f t="shared" si="98"/>
+        <v>("3102","2","Logout","வெளியேறு"),</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3104">
+        <f t="shared" si="97"/>
+        <v>3103</v>
+      </c>
+      <c r="B3104" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3104" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3104" s="6" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E3104" t="str">
+        <f t="shared" si="98"/>
+        <v>("3103","3","Logout","Se déconnecter"),</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3105">
+        <f t="shared" si="97"/>
+        <v>3104</v>
+      </c>
+      <c r="B3105" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3105" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3105" s="6" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E3105" t="str">
+        <f t="shared" si="98"/>
+        <v>("3104","4","Logout","登出"),</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3106">
+        <f t="shared" si="97"/>
+        <v>3105</v>
+      </c>
+      <c r="B3106" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3106" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3106" s="6" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E3106" t="str">
+        <f t="shared" si="98"/>
+        <v>("3105","5","Logout","ログアウト"),</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3107">
+        <f t="shared" si="97"/>
+        <v>3106</v>
+      </c>
+      <c r="B3107" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3107" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3107" s="6" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E3107" t="str">
+        <f t="shared" si="98"/>
+        <v>("3106","6","Logout","sair"),</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3108">
+        <f t="shared" si="97"/>
+        <v>3107</v>
+      </c>
+      <c r="B3108" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3108" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3108" s="6" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3108" t="str">
+        <f t="shared" si="98"/>
+        <v>("3107","7","Logout","लॉग आउट"),</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3109">
+        <f t="shared" si="97"/>
+        <v>3108</v>
+      </c>
+      <c r="B3109" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3109" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3109" s="6" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E3109" t="str">
+        <f t="shared" si="98"/>
+        <v>("3108","8","Logout","выйти"),</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3110">
+        <f t="shared" si="97"/>
+        <v>3109</v>
+      </c>
+      <c r="B3110" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3110" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3110" s="6" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E3110" t="str">
+        <f t="shared" si="98"/>
+        <v>("3109","9","Logout","cerrar sesión"),</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3111">
+        <f t="shared" si="97"/>
+        <v>3110</v>
+      </c>
+      <c r="B3111" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3111" s="6" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D3111" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E3111" t="str">
+        <f t="shared" si="98"/>
+        <v>("3110","10","Logout","تسجيل خروج"),</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3112">
+        <f t="shared" si="97"/>
+        <v>3111</v>
+      </c>
+      <c r="B3112" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3112" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3112" s="6" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E3112" t="str">
+        <f t="shared" si="98"/>
+        <v>("3111","1","yourEmailPlease","Your email please"),</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3113">
+        <f t="shared" si="97"/>
+        <v>3112</v>
+      </c>
+      <c r="B3113" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3113" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3113" s="6" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E3113" t="str">
+        <f t="shared" si="98"/>
+        <v>("3112","2","yourEmailPlease","தயவுசெய்து உங்கள் மின்னஞ்சலை உள்ளிடவும்"),</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3114">
+        <f t="shared" si="97"/>
+        <v>3113</v>
+      </c>
+      <c r="B3114" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3114" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3114" s="6" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E3114" t="str">
+        <f t="shared" si="98"/>
+        <v>("3113","3","yourEmailPlease","Entrez votre e-mail s'il vous plaît"),</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3115">
+        <f t="shared" si="97"/>
+        <v>3114</v>
+      </c>
+      <c r="B3115" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3115" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3115" s="6" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E3115" t="str">
+        <f t="shared" si="98"/>
+        <v>("3114","4","yourEmailPlease","請輸入您的電子郵件"),</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3116">
+        <f t="shared" si="97"/>
+        <v>3115</v>
+      </c>
+      <c r="B3116" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3116" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3116" s="6" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E3116" t="str">
+        <f t="shared" si="98"/>
+        <v>("3115","5","yourEmailPlease","メールアドレスを入力してください"),</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3117">
+        <f t="shared" si="97"/>
+        <v>3116</v>
+      </c>
+      <c r="B3117" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3117" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3117" s="6" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E3117" t="str">
+        <f t="shared" si="98"/>
+        <v>("3116","6","yourEmailPlease","Digite seu e-mail por favor"),</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3118">
+        <f t="shared" si="97"/>
+        <v>3117</v>
+      </c>
+      <c r="B3118" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3118" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3118" s="6" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E3118" t="str">
+        <f t="shared" si="98"/>
+        <v>("3117","7","yourEmailPlease","कृपया अपना ईमेल दर्ज करें"),</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3119">
+        <f t="shared" si="97"/>
+        <v>3118</v>
+      </c>
+      <c r="B3119" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3119" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3119" s="6" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E3119" t="str">
+        <f t="shared" si="98"/>
+        <v>("3118","8","yourEmailPlease","Введите Ваш адрес электронной почты, пожалуйста"),</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3120">
+        <f t="shared" si="97"/>
+        <v>3119</v>
+      </c>
+      <c r="B3120" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3120" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3120" s="6" t="s">
+        <v>3232</v>
+      </c>
+      <c r="E3120" t="str">
+        <f t="shared" si="98"/>
+        <v>("3119","9","yourEmailPlease","Ingrese su correo electrónico por favor"),</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3121">
+        <f t="shared" si="97"/>
+        <v>3120</v>
+      </c>
+      <c r="B3121" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3121" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D3121" s="6" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E3121" t="str">
+        <f t="shared" si="98"/>
+        <v>("3120","10","yourEmailPlease","أدخل بريدك الإلكتروني من فضلك"),</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3122">
+        <f t="shared" si="97"/>
+        <v>3121</v>
+      </c>
+      <c r="B3122" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3122" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3122" s="6" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E3122" t="str">
+        <f t="shared" si="98"/>
+        <v>("3121","1","enterOtp","Enter OTP"),</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3123">
+        <f t="shared" si="97"/>
+        <v>3122</v>
+      </c>
+      <c r="B3123" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3123" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3123" s="6" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E3123" t="str">
+        <f t="shared" si="98"/>
+        <v>("3122","2","enterOtp","OTP ஐ உள்ளிடவும்"),</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3124">
+        <f t="shared" si="97"/>
+        <v>3123</v>
+      </c>
+      <c r="B3124" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3124" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3124" s="6" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E3124" t="str">
+        <f t="shared" si="98"/>
+        <v>("3123","3","enterOtp","Entrez OTP"),</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3125">
+        <f t="shared" si="97"/>
+        <v>3124</v>
+      </c>
+      <c r="B3125" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3125" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3125" s="6" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E3125" t="str">
+        <f t="shared" si="98"/>
+        <v>("3124","4","enterOtp","输入一次性密码"),</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3126">
+        <f t="shared" si="97"/>
+        <v>3125</v>
+      </c>
+      <c r="B3126" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3126" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3126" s="6" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E3126" t="str">
+        <f t="shared" si="98"/>
+        <v>("3125","5","enterOtp","OTPを入力してください"),</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3127">
+        <f t="shared" si="97"/>
+        <v>3126</v>
+      </c>
+      <c r="B3127" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3127" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3127" s="6" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E3127" t="str">
+        <f t="shared" si="98"/>
+        <v>("3126","6","enterOtp","Digite OTP"),</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3128">
+        <f t="shared" ref="A3128:A3191" si="99">A3127+1</f>
+        <v>3127</v>
+      </c>
+      <c r="B3128" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3128" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3128" s="6" t="s">
+        <v>3244</v>
+      </c>
+      <c r="E3128" t="str">
+        <f t="shared" si="98"/>
+        <v>("3127","7","enterOtp","OTP दर्ज करें"),</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3129">
+        <f t="shared" si="99"/>
+        <v>3128</v>
+      </c>
+      <c r="B3129" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3129" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3129" s="6" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E3129" t="str">
+        <f t="shared" ref="E3129:E3192" si="100">CONCATENATE("(",CHAR(34),A3129,CHAR(34),",",CHAR(34),B3129,CHAR(34),",",CHAR(34),C3129,CHAR(34),",",CHAR(34),D3129,CHAR(34),"),")</f>
+        <v>("3128","8","enterOtp","Войти OTP"),</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3130">
+        <f t="shared" si="99"/>
+        <v>3129</v>
+      </c>
+      <c r="B3130" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3130" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3130" s="6" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E3130" t="str">
+        <f t="shared" si="100"/>
+        <v>("3129","9","enterOtp","Ingresar OTP"),</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3131">
+        <f t="shared" si="99"/>
+        <v>3130</v>
+      </c>
+      <c r="B3131" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3131" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D3131" s="6" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E3131" t="str">
+        <f t="shared" si="100"/>
+        <v>("3130","10","enterOtp","أدخل OTP"),</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3132">
+        <f t="shared" si="99"/>
+        <v>3131</v>
+      </c>
+      <c r="B3132" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3132" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3132" s="6" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E3132" t="str">
+        <f t="shared" si="100"/>
+        <v>("3131","1","resendOtp","Resend OTP"),</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3133">
+        <f t="shared" si="99"/>
+        <v>3132</v>
+      </c>
+      <c r="B3133" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3133" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3133" s="6" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E3133" t="str">
+        <f t="shared" si="100"/>
+        <v>("3132","2","resendOtp","OTP ஐ மீண்டும் அனுப்பவும்"),</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3134">
+        <f t="shared" si="99"/>
+        <v>3133</v>
+      </c>
+      <c r="B3134" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3134" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3134" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E3134" t="str">
+        <f t="shared" si="100"/>
+        <v>("3133","3","resendOtp","Renvoyer OTP"),</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3135">
+        <f t="shared" si="99"/>
+        <v>3134</v>
+      </c>
+      <c r="B3135" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3135" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3135" s="6" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E3135" t="str">
+        <f t="shared" si="100"/>
+        <v>("3134","4","resendOtp","重新发送一次性密码"),</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3136">
+        <f t="shared" si="99"/>
+        <v>3135</v>
+      </c>
+      <c r="B3136" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3136" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3136" s="6" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E3136" t="str">
+        <f t="shared" si="100"/>
+        <v>("3135","5","resendOtp","OTP を再送する"),</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3137">
+        <f t="shared" si="99"/>
+        <v>3136</v>
+      </c>
+      <c r="B3137" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3137" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3137" s="6" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E3137" t="str">
+        <f t="shared" si="100"/>
+        <v>("3136","6","resendOtp","Reenviar OTP"),</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3138">
+        <f t="shared" si="99"/>
+        <v>3137</v>
+      </c>
+      <c r="B3138" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3138" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3138" s="6" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E3138" t="str">
+        <f t="shared" si="100"/>
+        <v>("3137","7","resendOtp","OTP पुनः भेजें"),</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3139">
+        <f t="shared" si="99"/>
+        <v>3138</v>
+      </c>
+      <c r="B3139" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3139" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3139" s="6" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E3139" t="str">
+        <f t="shared" si="100"/>
+        <v>("3138","8","resendOtp","Отправить OTP"),</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3140">
+        <f t="shared" si="99"/>
+        <v>3139</v>
+      </c>
+      <c r="B3140" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3140" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3140" s="6" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E3140" t="str">
+        <f t="shared" si="100"/>
+        <v>("3139","9","resendOtp","Reenviar OTP"),</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3141">
+        <f t="shared" si="99"/>
+        <v>3140</v>
+      </c>
+      <c r="B3141" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3141" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3141" s="6" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E3141" t="str">
+        <f t="shared" si="100"/>
+        <v>("3140","10","resendOtp","إعادة إرسال OTP"),</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3142">
+        <f t="shared" si="99"/>
+        <v>3141</v>
+      </c>
+      <c r="B3142" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3142" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3142" s="15" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E3142" t="str">
+        <f t="shared" si="100"/>
+        <v>("3141","1","OtpExpiresInnSeconds","OTP expires in {seconds} seconds"),</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3143">
+        <f t="shared" si="99"/>
+        <v>3142</v>
+      </c>
+      <c r="B3143" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3143" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3143" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E3143" t="str">
+        <f t="shared" si="100"/>
+        <v>("3142","2","OtpExpiresInnSeconds","OTP {seconds} வினாடிகளில் காலாவதியாகும்"),</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3144">
+        <f t="shared" si="99"/>
+        <v>3143</v>
+      </c>
+      <c r="B3144" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3144" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3144" s="6" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E3144" t="str">
+        <f t="shared" si="100"/>
+        <v>("3143","3","OtpExpiresInnSeconds","OTP expire dans {seconds} secondes"),</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3145">
+        <f t="shared" si="99"/>
+        <v>3144</v>
+      </c>
+      <c r="B3145" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3145" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3145" s="6" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E3145" t="str">
+        <f t="shared" si="100"/>
+        <v>("3144","4","OtpExpiresInnSeconds","OTP 在 {seconds} 秒后过期"),</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3146">
+        <f t="shared" si="99"/>
+        <v>3145</v>
+      </c>
+      <c r="B3146" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3146" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3146" s="6" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E3146" t="str">
+        <f t="shared" si="100"/>
+        <v>("3145","5","OtpExpiresInnSeconds","OTP は {seconds} 秒で期限切れになります"),</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3147">
+        <f t="shared" si="99"/>
+        <v>3146</v>
+      </c>
+      <c r="B3147" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3147" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3147" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E3147" t="str">
+        <f t="shared" si="100"/>
+        <v>("3146","6","OtpExpiresInnSeconds","OTP expira em {seconds} segundos"),</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3148">
+        <f t="shared" si="99"/>
+        <v>3147</v>
+      </c>
+      <c r="B3148" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3148" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3148" s="6" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E3148" t="str">
+        <f t="shared" si="100"/>
+        <v>("3147","7","OtpExpiresInnSeconds","OTP {seconds} सेकंड में समाप्त हो जाता है"),</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3149">
+        <f t="shared" si="99"/>
+        <v>3148</v>
+      </c>
+      <c r="B3149" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3149" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3149" s="6" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E3149" t="str">
+        <f t="shared" si="100"/>
+        <v>("3148","8","OtpExpiresInnSeconds","Срок действия OTP истекает через {seconds} сек."),</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3150">
+        <f t="shared" si="99"/>
+        <v>3149</v>
+      </c>
+      <c r="B3150" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3150" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3150" s="6" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E3150" t="str">
+        <f t="shared" si="100"/>
+        <v>("3149","9","OtpExpiresInnSeconds","OTP caduca en {seconds} segundos"),</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3151">
+        <f t="shared" si="99"/>
+        <v>3150</v>
+      </c>
+      <c r="B3151" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3151" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D3151" s="6" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E3151" t="str">
+        <f t="shared" si="100"/>
+        <v>("3150","10","OtpExpiresInnSeconds","تنتهي صلاحية OTP في غضون {seconds} ثانية"),</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3152">
+        <f t="shared" si="99"/>
+        <v>3151</v>
+      </c>
+      <c r="B3152" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3152" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3152" s="6" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E3152" t="str">
+        <f t="shared" si="100"/>
+        <v>("3151","1","send","Send"),</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3153">
+        <f t="shared" si="99"/>
+        <v>3152</v>
+      </c>
+      <c r="B3153" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3153" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3153" s="6" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E3153" t="str">
+        <f t="shared" si="100"/>
+        <v>("3152","2","send","அனுப்பு"),</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3154">
+        <f t="shared" si="99"/>
+        <v>3153</v>
+      </c>
+      <c r="B3154" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3154" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3154" s="6" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E3154" t="str">
+        <f t="shared" si="100"/>
+        <v>("3153","3","send","envoyer"),</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3155">
+        <f t="shared" si="99"/>
+        <v>3154</v>
+      </c>
+      <c r="B3155" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3155" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3155" s="6" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E3155" t="str">
+        <f t="shared" si="100"/>
+        <v>("3154","4","send","发送"),</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3156">
+        <f t="shared" si="99"/>
+        <v>3155</v>
+      </c>
+      <c r="B3156" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3156" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3156" s="6" t="s">
+        <v>3274</v>
+      </c>
+      <c r="E3156" t="str">
+        <f t="shared" si="100"/>
+        <v>("3155","5","send","送信"),</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3157">
+        <f t="shared" si="99"/>
+        <v>3156</v>
+      </c>
+      <c r="B3157" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3157" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3157" s="6" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E3157" t="str">
+        <f t="shared" si="100"/>
+        <v>("3156","6","send","mandar"),</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3158">
+        <f t="shared" si="99"/>
+        <v>3157</v>
+      </c>
+      <c r="B3158" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3158" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3158" s="6" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E3158" t="str">
+        <f t="shared" si="100"/>
+        <v>("3157","7","send","भेजना"),</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3159">
+        <f t="shared" si="99"/>
+        <v>3158</v>
+      </c>
+      <c r="B3159" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3159" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3159" s="6" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E3159" t="str">
+        <f t="shared" si="100"/>
+        <v>("3158","8","send","Отправить"),</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3160">
+        <f t="shared" si="99"/>
+        <v>3159</v>
+      </c>
+      <c r="B3160" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3160" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3160" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3160" t="str">
+        <f t="shared" si="100"/>
+        <v>("3159","9","send","enviar"),</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3161">
+        <f t="shared" si="99"/>
+        <v>3160</v>
+      </c>
+      <c r="B3161" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3161" s="6" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D3161" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3161" t="str">
+        <f t="shared" si="100"/>
+        <v>("3160","10","send","إرسال"),</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3162">
+        <f t="shared" si="99"/>
+        <v>3161</v>
+      </c>
+      <c r="B3162" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3162" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3162" s="6" t="s">
+        <v>3275</v>
+      </c>
+      <c r="E3162" t="str">
+        <f t="shared" si="100"/>
+        <v>("3161","1","OtpFailed","Failed. OTP is invalid or expired. Please try again."),</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3163">
+        <f t="shared" si="99"/>
+        <v>3162</v>
+      </c>
+      <c r="B3163" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3163" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3163" s="6" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E3163" t="str">
+        <f t="shared" si="100"/>
+        <v>("3162","2","OtpFailed","தோல்வி. OTP தவறானது அல்லது காலாவதியானது. தயவுசெய்து மீண்டும் முயற்சி செய்க."),</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3164">
+        <f t="shared" si="99"/>
+        <v>3163</v>
+      </c>
+      <c r="B3164" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3164" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3164" s="6" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E3164" t="str">
+        <f t="shared" si="100"/>
+        <v>("3163","3","OtpFailed","Manqué. L'OTP n'est pas valide ou a expiré. Veuillez réessayer."),</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3165">
+        <f t="shared" si="99"/>
+        <v>3164</v>
+      </c>
+      <c r="B3165" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3165" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3165" s="6" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E3165" t="str">
+        <f t="shared" si="100"/>
+        <v>("3164","4","OtpFailed","失败的。 OTP 无效或已过期。 请再试一次。"),</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3166">
+        <f t="shared" si="99"/>
+        <v>3165</v>
+      </c>
+      <c r="B3166" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3166" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3166" s="6" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E3166" t="str">
+        <f t="shared" si="100"/>
+        <v>("3165","5","OtpFailed","失敗した。 OTP が無効であるか、有効期限が切れています。 もう一度やり直してください。"),</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3167">
+        <f t="shared" si="99"/>
+        <v>3166</v>
+      </c>
+      <c r="B3167" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3167" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3167" s="6" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E3167" t="str">
+        <f t="shared" si="100"/>
+        <v>("3166","6","OtpFailed","Fracassado. OTP é inválido ou expirou. Por favor, tente novamente."),</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3168">
+        <f t="shared" si="99"/>
+        <v>3167</v>
+      </c>
+      <c r="B3168" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3168" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3168" s="6" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E3168" t="str">
+        <f t="shared" si="100"/>
+        <v>("3167","7","OtpFailed","असफल। ओटीपी अमान्य है या समाप्त हो गया है। कृपया पुन: प्रयास करें।"),</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3169">
+        <f t="shared" si="99"/>
+        <v>3168</v>
+      </c>
+      <c r="B3169" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3169" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3169" s="6" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E3169" t="str">
+        <f t="shared" si="100"/>
+        <v>("3168","8","OtpFailed","Не удалось. OTP недействителен или просрочен. Пожалуйста, попробуйте еще раз."),</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3170">
+        <f t="shared" si="99"/>
+        <v>3169</v>
+      </c>
+      <c r="B3170" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3170" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3170" s="6" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E3170" t="str">
+        <f t="shared" si="100"/>
+        <v>("3169","9","OtpFailed","Ha fallado. La OTP no es válida o ha caducado. Inténtalo de nuevo."),</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3171">
+        <f t="shared" si="99"/>
+        <v>3170</v>
+      </c>
+      <c r="B3171" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3171" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D3171" s="6" t="s">
+        <v>3285</v>
+      </c>
+      <c r="E3171" t="str">
+        <f t="shared" si="100"/>
+        <v>("3170","10","OtpFailed","باءت بالفشل. كلمة المرور لمرة واحدة غير صالحة أو منتهية الصلاحية. حاول مرة اخرى."),</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3172">
+        <f t="shared" si="99"/>
+        <v>3171</v>
+      </c>
+      <c r="B3172" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3172" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3172" s="6" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E3172" t="str">
+        <f t="shared" si="100"/>
+        <v>("3171","1","resetSuccess","Reset successfull. Password mailed to you."),</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3173">
+        <f t="shared" si="99"/>
+        <v>3172</v>
+      </c>
+      <c r="B3173" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3173" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3173" s="6" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E3173" t="str">
+        <f t="shared" si="100"/>
+        <v>("3172","2","resetSuccess","வெற்றி. கடவுச்சொல் உங்களுக்கு மின்னஞ்சல் அனுப்பப்பட்டது."),</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3174">
+        <f t="shared" si="99"/>
+        <v>3173</v>
+      </c>
+      <c r="B3174" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3174" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3174" s="6" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E3174" t="str">
+        <f t="shared" si="100"/>
+        <v>("3173","3","resetSuccess","Réinitialisation réussie. Mot de passe envoyé par e-mail."),</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3175">
+        <f t="shared" si="99"/>
+        <v>3174</v>
+      </c>
+      <c r="B3175" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3175" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3175" s="6" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E3175" t="str">
+        <f t="shared" si="100"/>
+        <v>("3174","4","resetSuccess","重置成功。 密码已通过电子邮件发送给您。"),</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3176">
+        <f t="shared" si="99"/>
+        <v>3175</v>
+      </c>
+      <c r="B3176" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3176" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3176" s="6" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E3176" t="str">
+        <f t="shared" si="100"/>
+        <v>("3175","5","resetSuccess","リセット成功。 パスワードはメールで送信されました。"),</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3177">
+        <f t="shared" si="99"/>
+        <v>3176</v>
+      </c>
+      <c r="B3177" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3177" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3177" s="6" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E3177" t="str">
+        <f t="shared" si="100"/>
+        <v>("3176","6","resetSuccess","Redefinir com sucesso. Senha enviada para você."),</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3178">
+        <f t="shared" si="99"/>
+        <v>3177</v>
+      </c>
+      <c r="B3178" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3178" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3178" s="6" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E3178" t="str">
+        <f t="shared" si="100"/>
+        <v>("3177","7","resetSuccess","सफलता को रीसेट करें। पासवर्ड आपको मेल कर दिया गया है।"),</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3179">
+        <f t="shared" si="99"/>
+        <v>3178</v>
+      </c>
+      <c r="B3179" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3179" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3179" s="6" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E3179" t="str">
+        <f t="shared" si="100"/>
+        <v>("3178","8","resetSuccess","Сбросить успех. Пароль отправлен вам на почту."),</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3180">
+        <f t="shared" si="99"/>
+        <v>3179</v>
+      </c>
+      <c r="B3180" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3180" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3180" s="6" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E3180" t="str">
+        <f t="shared" si="100"/>
+        <v>("3179","9","resetSuccess","Restablecer éxito. Contraseña enviada por correo electrónico."),</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3181">
+        <f t="shared" si="99"/>
+        <v>3180</v>
+      </c>
+      <c r="B3181" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3181" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D3181" s="6" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E3181" t="str">
+        <f t="shared" si="100"/>
+        <v>("3180","10","resetSuccess","إعادة تعيين النجاح. تم إرسال كلمة المرور إليك بالبريد."),</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3182">
+        <f t="shared" si="99"/>
+        <v>3181</v>
+      </c>
+      <c r="B3182" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3182" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3182" s="6" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E3182" t="str">
+        <f t="shared" si="100"/>
+        <v>("3181","1","errorYourMailIsInValid","Error. Your email is invalid."),</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3183">
+        <f t="shared" si="99"/>
+        <v>3182</v>
+      </c>
+      <c r="B3183" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3183" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3183" s="6" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E3183" t="str">
+        <f t="shared" si="100"/>
+        <v>("3182","2","errorYourMailIsInValid","பிழை. உங்கள் மின்னஞ்சல் தவறானது."),</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3184">
+        <f t="shared" si="99"/>
+        <v>3183</v>
+      </c>
+      <c r="B3184" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3184" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3184" s="6" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E3184" t="str">
+        <f t="shared" si="100"/>
+        <v>("3183","3","errorYourMailIsInValid","Erreur. Votre email est invalide."),</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3185">
+        <f t="shared" si="99"/>
+        <v>3184</v>
+      </c>
+      <c r="B3185" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3185" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3185" s="6" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E3185" t="str">
+        <f t="shared" si="100"/>
+        <v>("3184","4","errorYourMailIsInValid","错误。 您的电子邮件无效。"),</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3186">
+        <f t="shared" si="99"/>
+        <v>3185</v>
+      </c>
+      <c r="B3186" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3186" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3186" s="6" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E3186" t="str">
+        <f t="shared" si="100"/>
+        <v>("3185","5","errorYourMailIsInValid","エラー。 メールアドレスが無効です。"),</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3187">
+        <f t="shared" si="99"/>
+        <v>3186</v>
+      </c>
+      <c r="B3187" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3187" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3187" s="6" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E3187" t="str">
+        <f t="shared" si="100"/>
+        <v>("3186","6","errorYourMailIsInValid","Erro. Seu e-mail é inválido."),</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3188">
+        <f t="shared" si="99"/>
+        <v>3187</v>
+      </c>
+      <c r="B3188" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3188" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3188" s="6" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E3188" t="str">
+        <f t="shared" si="100"/>
+        <v>("3187","7","errorYourMailIsInValid","गलती। आपका ईमेल अमान्य है।"),</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3189">
+        <f t="shared" si="99"/>
+        <v>3188</v>
+      </c>
+      <c r="B3189" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3189" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3189" s="6" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E3189" t="str">
+        <f t="shared" si="100"/>
+        <v>("3188","8","errorYourMailIsInValid","Ошибка. Ваш адрес электронной почты недействителен."),</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3190">
+        <f t="shared" si="99"/>
+        <v>3189</v>
+      </c>
+      <c r="B3190" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3190" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3190" s="6" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E3190" t="str">
+        <f t="shared" si="100"/>
+        <v>("3189","9","errorYourMailIsInValid","Error. Tu Correo Electrónico es Inválido."),</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3191">
+        <f t="shared" si="99"/>
+        <v>3190</v>
+      </c>
+      <c r="B3191" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3191" s="6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D3191" s="6" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E3191" t="str">
+        <f t="shared" si="100"/>
+        <v>("3190","10","errorYourMailIsInValid","خطأ. بريدك الالكتروني خاطئ."),</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3192">
+        <f t="shared" ref="A3192:A3255" si="101">A3191+1</f>
+        <v>3191</v>
+      </c>
+      <c r="B3192" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3192" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3192" s="6" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E3192" t="str">
+        <f t="shared" si="100"/>
+        <v>("3191","1","OtpSuccessfullyMailedToYou","OTP successfully mailed to you."),</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3193">
+        <f t="shared" si="101"/>
+        <v>3192</v>
+      </c>
+      <c r="B3193" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3193" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3193" s="6" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E3193" t="str">
+        <f t="shared" ref="E3193:E3231" si="102">CONCATENATE("(",CHAR(34),A3193,CHAR(34),",",CHAR(34),B3193,CHAR(34),",",CHAR(34),C3193,CHAR(34),",",CHAR(34),D3193,CHAR(34),"),")</f>
+        <v>("3192","2","OtpSuccessfullyMailedToYou","OTP உங்களுக்கு வெற்றிகரமாக அனுப்பப்பட்டது."),</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3194">
+        <f t="shared" si="101"/>
+        <v>3193</v>
+      </c>
+      <c r="B3194" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3194" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3194" s="6" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E3194" t="str">
+        <f t="shared" si="102"/>
+        <v>("3193","3","OtpSuccessfullyMailedToYou","OTP vous a été envoyé avec succès."),</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3195">
+        <f t="shared" si="101"/>
+        <v>3194</v>
+      </c>
+      <c r="B3195" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3195" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3195" s="6" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E3195" t="str">
+        <f t="shared" si="102"/>
+        <v>("3194","4","OtpSuccessfullyMailedToYou","OTP 已成功邮寄给您。"),</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3196">
+        <f t="shared" si="101"/>
+        <v>3195</v>
+      </c>
+      <c r="B3196" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3196" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3196" s="6" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E3196" t="str">
+        <f t="shared" si="102"/>
+        <v>("3195","5","OtpSuccessfullyMailedToYou","OTP が正常に送信されました。"),</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3197">
+        <f t="shared" si="101"/>
+        <v>3196</v>
+      </c>
+      <c r="B3197" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3197" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3197" s="6" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E3197" t="str">
+        <f t="shared" si="102"/>
+        <v>("3196","6","OtpSuccessfullyMailedToYou","OTP enviado com sucesso para você."),</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3198">
+        <f t="shared" si="101"/>
+        <v>3197</v>
+      </c>
+      <c r="B3198" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3198" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3198" s="6" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E3198" t="str">
+        <f t="shared" si="102"/>
+        <v>("3197","7","OtpSuccessfullyMailedToYou","ओटीपी सफलतापूर्वक आपको मेल किया गया।"),</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3199">
+        <f t="shared" si="101"/>
+        <v>3198</v>
+      </c>
+      <c r="B3199" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3199" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3199" s="6" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E3199" t="str">
+        <f t="shared" si="102"/>
+        <v>("3198","8","OtpSuccessfullyMailedToYou","OTP успешно отправлен вам."),</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3200">
+        <f t="shared" si="101"/>
+        <v>3199</v>
+      </c>
+      <c r="B3200" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3200" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3200" s="6" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E3200" t="str">
+        <f t="shared" si="102"/>
+        <v>("3199","9","OtpSuccessfullyMailedToYou","OTP enviado con éxito a usted."),</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3201">
+        <f t="shared" si="101"/>
+        <v>3200</v>
+      </c>
+      <c r="B3201" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3201" s="6" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D3201" s="6" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E3201" t="str">
+        <f t="shared" si="102"/>
+        <v>("3200","10","OtpSuccessfullyMailedToYou","تم إرسال OTP إليك عبر البريد بنجاح."),</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3202">
+        <f t="shared" si="101"/>
+        <v>3201</v>
+      </c>
+      <c r="B3202" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3202" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3202" s="6" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E3202" t="str">
+        <f t="shared" si="102"/>
+        <v>("3201","1","invalidUserNameOrPassword","Invalid username or password"),</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3203">
+        <f t="shared" si="101"/>
+        <v>3202</v>
+      </c>
+      <c r="B3203" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3203" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3203" s="6" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E3203" t="str">
+        <f t="shared" si="102"/>
+        <v>("3202","2","invalidUserNameOrPassword","தவறான பயனர்பெயர் அல்லது கடவுச்சொல்"),</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3204">
+        <f t="shared" si="101"/>
+        <v>3203</v>
+      </c>
+      <c r="B3204" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3204" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3204" s="6" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E3204" t="str">
+        <f t="shared" si="102"/>
+        <v>("3203","3","invalidUserNameOrPassword","Nom d'utilisateur ou mot de passe invalide"),</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3205">
+        <f t="shared" si="101"/>
+        <v>3204</v>
+      </c>
+      <c r="B3205" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3205" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3205" s="6" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E3205" t="str">
+        <f t="shared" si="102"/>
+        <v>("3204","4","invalidUserNameOrPassword","用户名或密码无效"),</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3206">
+        <f t="shared" si="101"/>
+        <v>3205</v>
+      </c>
+      <c r="B3206" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3206" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3206" s="6" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E3206" t="str">
+        <f t="shared" si="102"/>
+        <v>("3205","5","invalidUserNameOrPassword","ユーザー名かパスワードが無効"),</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3207">
+        <f t="shared" si="101"/>
+        <v>3206</v>
+      </c>
+      <c r="B3207" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3207" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3207" s="6" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E3207" t="str">
+        <f t="shared" si="102"/>
+        <v>("3206","6","invalidUserNameOrPassword","nome de usuário ou senha inválidos"),</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3208">
+        <f t="shared" si="101"/>
+        <v>3207</v>
+      </c>
+      <c r="B3208" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3208" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3208" s="6" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E3208" t="str">
+        <f t="shared" si="102"/>
+        <v>("3207","7","invalidUserNameOrPassword","अमान्य उपयोगकर्ता नाम या पासवर्ड"),</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3209">
+        <f t="shared" si="101"/>
+        <v>3208</v>
+      </c>
+      <c r="B3209" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3209" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3209" s="6" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E3209" t="str">
+        <f t="shared" si="102"/>
+        <v>("3208","8","invalidUserNameOrPassword","неправильное имя пользователя или пароль"),</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3210">
+        <f t="shared" si="101"/>
+        <v>3209</v>
+      </c>
+      <c r="B3210" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3210" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3210" s="6" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E3210" t="str">
+        <f t="shared" si="102"/>
+        <v>("3209","9","invalidUserNameOrPassword","usuario o contraseña invalido"),</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3211">
+        <f t="shared" si="101"/>
+        <v>3210</v>
+      </c>
+      <c r="B3211" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3211" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D3211" s="6" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E3211" t="str">
+        <f t="shared" si="102"/>
+        <v>("3210","10","invalidUserNameOrPassword","خطأ في اسم المستخدم أو كلمة مرور"),</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3212">
+        <f t="shared" si="101"/>
+        <v>3211</v>
+      </c>
+      <c r="B3212" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3212" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3212" s="6" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E3212" t="str">
+        <f t="shared" si="102"/>
+        <v>("3211","1","passwordChangeFailedInvalidCredentials","Password change failed. In-valid credentials."),</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3213">
+        <f t="shared" si="101"/>
+        <v>3212</v>
+      </c>
+      <c r="B3213" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3213" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3213" s="6" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E3213" t="str">
+        <f t="shared" si="102"/>
+        <v>("3212","2","passwordChangeFailedInvalidCredentials","கடவுச்சொல்லை மாற்ற முடியவில்லை. தவறான ஆவண சான்றுகள்."),</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3214">
+        <f t="shared" si="101"/>
+        <v>3213</v>
+      </c>
+      <c r="B3214" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3214" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3214" s="6" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E3214" t="str">
+        <f t="shared" si="102"/>
+        <v>("3213","3","passwordChangeFailedInvalidCredentials","Le changement de mot de passe a échoué. Les informations d'identification invalides."),</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3215">
+        <f t="shared" si="101"/>
+        <v>3214</v>
+      </c>
+      <c r="B3215" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3215" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3215" s="6" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E3215" t="str">
+        <f t="shared" si="102"/>
+        <v>("3214","4","passwordChangeFailedInvalidCredentials","密码更改失败。 无效证件。"),</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3216">
+        <f t="shared" si="101"/>
+        <v>3215</v>
+      </c>
+      <c r="B3216" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3216" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3216" s="6" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E3216" t="str">
+        <f t="shared" si="102"/>
+        <v>("3215","5","passwordChangeFailedInvalidCredentials","パスワードの変更に失敗しました。 無効な資格情報。"),</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3217">
+        <f t="shared" si="101"/>
+        <v>3216</v>
+      </c>
+      <c r="B3217" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3217" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3217" s="6" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E3217" t="str">
+        <f t="shared" si="102"/>
+        <v>("3216","6","passwordChangeFailedInvalidCredentials","Falha na mudança de senha. Credenciais inválidas."),</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3218">
+        <f t="shared" si="101"/>
+        <v>3217</v>
+      </c>
+      <c r="B3218" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3218" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3218" s="6" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E3218" t="str">
+        <f t="shared" si="102"/>
+        <v>("3217","7","passwordChangeFailedInvalidCredentials","संकेत शब्द बदलने में असफल। अवैध प्रत्यय पत्र।"),</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3219">
+        <f t="shared" si="101"/>
+        <v>3218</v>
+      </c>
+      <c r="B3219" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3219" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3219" s="6" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E3219" t="str">
+        <f t="shared" si="102"/>
+        <v>("3218","8","passwordChangeFailedInvalidCredentials","Не удалось изменить пароль. Недействительные учетные данные."),</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3220">
+        <f t="shared" si="101"/>
+        <v>3219</v>
+      </c>
+      <c r="B3220" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3220" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3220" s="6" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E3220" t="str">
+        <f t="shared" si="102"/>
+        <v>("3219","9","passwordChangeFailedInvalidCredentials","Cambio de contraseña falló. Credenciales no válidas."),</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3221">
+        <f t="shared" si="101"/>
+        <v>3220</v>
+      </c>
+      <c r="B3221" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3221" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3221" s="6" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E3221" t="str">
+        <f t="shared" si="102"/>
+        <v>("3220","10","passwordChangeFailedInvalidCredentials","فشل تغيير كلمة المرور. بيانات الاعتماد غير صالحة."),</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3222">
+        <f t="shared" si="101"/>
+        <v>3221</v>
+      </c>
+      <c r="B3222" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3222" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3222" s="6" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E3222" t="str">
+        <f t="shared" si="102"/>
+        <v>("3221","1","passwordSuccessfullyChanged","Password successfully changed."),</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3223">
+        <f t="shared" si="101"/>
+        <v>3222</v>
+      </c>
+      <c r="B3223" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3223" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3223" s="6" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E3223" t="str">
+        <f t="shared" si="102"/>
+        <v>("3222","2","passwordSuccessfullyChanged","கடவுச்சொல் வெற்றிகரமாக மாற்றப்பட்டது."),</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3224">
+        <f t="shared" si="101"/>
+        <v>3223</v>
+      </c>
+      <c r="B3224" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3224" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3224" s="6" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E3224" t="str">
+        <f t="shared" si="102"/>
+        <v>("3223","3","passwordSuccessfullyChanged","Mot de passe changé avec succès."),</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3225">
+        <f t="shared" si="101"/>
+        <v>3224</v>
+      </c>
+      <c r="B3225" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3225" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3225" s="6" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E3225" t="str">
+        <f t="shared" si="102"/>
+        <v>("3224","4","passwordSuccessfullyChanged","密码修改成功。"),</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3226">
+        <f t="shared" si="101"/>
+        <v>3225</v>
+      </c>
+      <c r="B3226" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3226" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3226" s="6" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E3226" t="str">
+        <f t="shared" si="102"/>
+        <v>("3225","5","passwordSuccessfullyChanged","パスワードが正常に変更されました。"),</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3227">
+        <f t="shared" si="101"/>
+        <v>3226</v>
+      </c>
+      <c r="B3227" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3227" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3227" s="6" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E3227" t="str">
+        <f t="shared" si="102"/>
+        <v>("3226","6","passwordSuccessfullyChanged","Senha mudada com sucesso."),</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3228">
+        <f t="shared" si="101"/>
+        <v>3227</v>
+      </c>
+      <c r="B3228" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3228" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3228" s="6" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E3228" t="str">
+        <f t="shared" si="102"/>
+        <v>("3227","7","passwordSuccessfullyChanged","पासवर्ड सफलतापूर्वक बदल दिया है।"),</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3229">
+        <f t="shared" si="101"/>
+        <v>3228</v>
+      </c>
+      <c r="B3229" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3229" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3229" s="6" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E3229" t="str">
+        <f t="shared" si="102"/>
+        <v>("3228","8","passwordSuccessfullyChanged","Пароль успешно изменен."),</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3230">
+        <f t="shared" si="101"/>
+        <v>3229</v>
+      </c>
+      <c r="B3230" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3230" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3230" s="6" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E3230" t="str">
+        <f t="shared" si="102"/>
+        <v>("3229","9","passwordSuccessfullyChanged","Contraseña cambiada correctamente."),</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3231">
+        <f t="shared" si="101"/>
+        <v>3230</v>
+      </c>
+      <c r="B3231" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3231" s="6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D3231" s="6" t="s">
+        <v>3351</v>
+      </c>
+      <c r="E3231" t="str">
+        <f t="shared" si="102"/>
+        <v>("3230","10","passwordSuccessfullyChanged","الرقم السري تغير بنجاح."),</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3232">
+        <f t="shared" si="101"/>
+        <v>3231</v>
+      </c>
+      <c r="B3232" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3232" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3233">
+        <f t="shared" si="101"/>
+        <v>3232</v>
+      </c>
+      <c r="B3233" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3233" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3234">
+        <f t="shared" si="101"/>
+        <v>3233</v>
+      </c>
+      <c r="B3234" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3234" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3235">
+        <f t="shared" si="101"/>
+        <v>3234</v>
+      </c>
+      <c r="B3235" s="13">
+        <v>4</v>
+      </c>
+      <c r="E3235" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3236">
+        <f t="shared" si="101"/>
+        <v>3235</v>
+      </c>
+      <c r="B3236" s="13">
+        <v>5</v>
+      </c>
+      <c r="E3236" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3237">
+        <f t="shared" si="101"/>
+        <v>3236</v>
+      </c>
+      <c r="B3237" s="13">
+        <v>6</v>
+      </c>
+      <c r="E3237" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3238">
+        <f t="shared" si="101"/>
+        <v>3237</v>
+      </c>
+      <c r="B3238" s="13">
+        <v>7</v>
+      </c>
+      <c r="E3238" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3239">
+        <f t="shared" si="101"/>
+        <v>3238</v>
+      </c>
+      <c r="B3239" s="13">
+        <v>8</v>
+      </c>
+      <c r="E3239" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3240">
+        <f t="shared" si="101"/>
+        <v>3239</v>
+      </c>
+      <c r="B3240" s="13">
+        <v>9</v>
+      </c>
+      <c r="E3240" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3241">
+        <f t="shared" si="101"/>
+        <v>3240</v>
+      </c>
+      <c r="B3241" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3241" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3242">
+        <f t="shared" si="101"/>
+        <v>3241</v>
+      </c>
+      <c r="B3242" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3243">
+        <f t="shared" si="101"/>
+        <v>3242</v>
+      </c>
+      <c r="B3243" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3244">
+        <f t="shared" si="101"/>
+        <v>3243</v>
+      </c>
+      <c r="B3244" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3245">
+        <f t="shared" si="101"/>
+        <v>3244</v>
+      </c>
+      <c r="B3245" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3246">
+        <f t="shared" si="101"/>
+        <v>3245</v>
+      </c>
+      <c r="B3246" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3247">
+        <f t="shared" si="101"/>
+        <v>3246</v>
+      </c>
+      <c r="B3247" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3248">
+        <f t="shared" si="101"/>
+        <v>3247</v>
+      </c>
+      <c r="B3248" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3249">
+        <f t="shared" si="101"/>
+        <v>3248</v>
+      </c>
+      <c r="B3249" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3250">
+        <f t="shared" si="101"/>
+        <v>3249</v>
+      </c>
+      <c r="B3250" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3251">
+        <f t="shared" si="101"/>
+        <v>3250</v>
+      </c>
+      <c r="B3251" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3252">
+        <f t="shared" si="101"/>
+        <v>3251</v>
+      </c>
+      <c r="B3252" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3253">
+        <f t="shared" si="101"/>
+        <v>3252</v>
+      </c>
+      <c r="B3253" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3254">
+        <f t="shared" si="101"/>
+        <v>3253</v>
+      </c>
+      <c r="B3254" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3255">
+        <f t="shared" si="101"/>
+        <v>3254</v>
+      </c>
+      <c r="B3255" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3256">
+        <f t="shared" ref="A3256:A3319" si="103">A3255+1</f>
+        <v>3255</v>
+      </c>
+      <c r="B3256" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3257">
+        <f t="shared" si="103"/>
+        <v>3256</v>
+      </c>
+      <c r="B3257" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3258">
+        <f t="shared" si="103"/>
+        <v>3257</v>
+      </c>
+      <c r="B3258" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3259">
+        <f t="shared" si="103"/>
+        <v>3258</v>
+      </c>
+      <c r="B3259" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3260">
+        <f t="shared" si="103"/>
+        <v>3259</v>
+      </c>
+      <c r="B3260" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3261">
+        <f t="shared" si="103"/>
+        <v>3260</v>
+      </c>
+      <c r="B3261" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3262">
+        <f t="shared" si="103"/>
+        <v>3261</v>
+      </c>
+      <c r="B3262" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3263">
+        <f t="shared" si="103"/>
+        <v>3262</v>
+      </c>
+      <c r="B3263" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3264">
+        <f t="shared" si="103"/>
+        <v>3263</v>
+      </c>
+      <c r="B3264" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3265">
+        <f t="shared" si="103"/>
+        <v>3264</v>
+      </c>
+      <c r="B3265" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3266">
+        <f t="shared" si="103"/>
+        <v>3265</v>
+      </c>
+      <c r="B3266" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3267">
+        <f t="shared" si="103"/>
+        <v>3266</v>
+      </c>
+      <c r="B3267" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3268">
+        <f t="shared" si="103"/>
+        <v>3267</v>
+      </c>
+      <c r="B3268" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3269">
+        <f t="shared" si="103"/>
+        <v>3268</v>
+      </c>
+      <c r="B3269" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3270">
+        <f t="shared" si="103"/>
+        <v>3269</v>
+      </c>
+      <c r="B3270" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3271">
+        <f t="shared" si="103"/>
+        <v>3270</v>
+      </c>
+      <c r="B3271" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3272">
+        <f t="shared" si="103"/>
+        <v>3271</v>
+      </c>
+      <c r="B3272" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3273">
+        <f t="shared" si="103"/>
+        <v>3272</v>
+      </c>
+      <c r="B3273" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3274">
+        <f t="shared" si="103"/>
+        <v>3273</v>
+      </c>
+      <c r="B3274" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3275">
+        <f t="shared" si="103"/>
+        <v>3274</v>
+      </c>
+      <c r="B3275" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3276">
+        <f t="shared" si="103"/>
+        <v>3275</v>
+      </c>
+      <c r="B3276" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3277">
+        <f t="shared" si="103"/>
+        <v>3276</v>
+      </c>
+      <c r="B3277" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3278">
+        <f t="shared" si="103"/>
+        <v>3277</v>
+      </c>
+      <c r="B3278" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3279">
+        <f t="shared" si="103"/>
+        <v>3278</v>
+      </c>
+      <c r="B3279" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3280">
+        <f t="shared" si="103"/>
+        <v>3279</v>
+      </c>
+      <c r="B3280" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3281">
+        <f t="shared" si="103"/>
+        <v>3280</v>
+      </c>
+      <c r="B3281" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3282">
+        <f t="shared" si="103"/>
+        <v>3281</v>
+      </c>
+      <c r="B3282" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3283">
+        <f t="shared" si="103"/>
+        <v>3282</v>
+      </c>
+      <c r="B3283" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3284">
+        <f t="shared" si="103"/>
+        <v>3283</v>
+      </c>
+      <c r="B3284" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3285">
+        <f t="shared" si="103"/>
+        <v>3284</v>
+      </c>
+      <c r="B3285" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3286">
+        <f t="shared" si="103"/>
+        <v>3285</v>
+      </c>
+      <c r="B3286" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3287">
+        <f t="shared" si="103"/>
+        <v>3286</v>
+      </c>
+      <c r="B3287" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3288">
+        <f t="shared" si="103"/>
+        <v>3287</v>
+      </c>
+      <c r="B3288" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3289">
+        <f t="shared" si="103"/>
+        <v>3288</v>
+      </c>
+      <c r="B3289" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3290">
+        <f t="shared" si="103"/>
+        <v>3289</v>
+      </c>
+      <c r="B3290" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3291">
+        <f t="shared" si="103"/>
+        <v>3290</v>
+      </c>
+      <c r="B3291" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3292">
+        <f t="shared" si="103"/>
+        <v>3291</v>
+      </c>
+      <c r="B3292" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3293">
+        <f t="shared" si="103"/>
+        <v>3292</v>
+      </c>
+      <c r="B3293" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3294">
+        <f t="shared" si="103"/>
+        <v>3293</v>
+      </c>
+      <c r="B3294" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3295">
+        <f t="shared" si="103"/>
+        <v>3294</v>
+      </c>
+      <c r="B3295" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3296">
+        <f t="shared" si="103"/>
+        <v>3295</v>
+      </c>
+      <c r="B3296" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3297">
+        <f t="shared" si="103"/>
+        <v>3296</v>
+      </c>
+      <c r="B3297" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3298">
+        <f t="shared" si="103"/>
+        <v>3297</v>
+      </c>
+      <c r="B3298" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3299">
+        <f t="shared" si="103"/>
+        <v>3298</v>
+      </c>
+      <c r="B3299" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3300">
+        <f t="shared" si="103"/>
+        <v>3299</v>
+      </c>
+      <c r="B3300" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3301">
+        <f t="shared" si="103"/>
+        <v>3300</v>
+      </c>
+      <c r="B3301" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3302">
+        <f t="shared" si="103"/>
+        <v>3301</v>
+      </c>
+      <c r="B3302" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3303">
+        <f t="shared" si="103"/>
+        <v>3302</v>
+      </c>
+      <c r="B3303" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3304">
+        <f t="shared" si="103"/>
+        <v>3303</v>
+      </c>
+      <c r="B3304" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3305">
+        <f t="shared" si="103"/>
+        <v>3304</v>
+      </c>
+      <c r="B3305" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3306">
+        <f t="shared" si="103"/>
+        <v>3305</v>
+      </c>
+      <c r="B3306" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3307">
+        <f t="shared" si="103"/>
+        <v>3306</v>
+      </c>
+      <c r="B3307" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3308">
+        <f t="shared" si="103"/>
+        <v>3307</v>
+      </c>
+      <c r="B3308" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3309">
+        <f t="shared" si="103"/>
+        <v>3308</v>
+      </c>
+      <c r="B3309" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3310">
+        <f t="shared" si="103"/>
+        <v>3309</v>
+      </c>
+      <c r="B3310" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3311">
+        <f t="shared" si="103"/>
+        <v>3310</v>
+      </c>
+      <c r="B3311" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3312">
+        <f t="shared" si="103"/>
+        <v>3311</v>
+      </c>
+      <c r="B3312" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3313">
+        <f t="shared" si="103"/>
+        <v>3312</v>
+      </c>
+      <c r="B3313" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3314">
+        <f t="shared" si="103"/>
+        <v>3313</v>
+      </c>
+      <c r="B3314" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3315">
+        <f t="shared" si="103"/>
+        <v>3314</v>
+      </c>
+      <c r="B3315" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3316">
+        <f t="shared" si="103"/>
+        <v>3315</v>
+      </c>
+      <c r="B3316" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3317">
+        <f t="shared" si="103"/>
+        <v>3316</v>
+      </c>
+      <c r="B3317" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3318">
+        <f t="shared" si="103"/>
+        <v>3317</v>
+      </c>
+      <c r="B3318" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3319">
+        <f t="shared" si="103"/>
+        <v>3318</v>
+      </c>
+      <c r="B3319" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3320">
+        <f t="shared" ref="A3320:A3351" si="104">A3319+1</f>
+        <v>3319</v>
+      </c>
+      <c r="B3320" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3321">
+        <f t="shared" si="104"/>
+        <v>3320</v>
+      </c>
+      <c r="B3321" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3322">
+        <f t="shared" si="104"/>
+        <v>3321</v>
+      </c>
+      <c r="B3322" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3323">
+        <f t="shared" si="104"/>
+        <v>3322</v>
+      </c>
+      <c r="B3323" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3324">
+        <f t="shared" si="104"/>
+        <v>3323</v>
+      </c>
+      <c r="B3324" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3325">
+        <f t="shared" si="104"/>
+        <v>3324</v>
+      </c>
+      <c r="B3325" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3326">
+        <f t="shared" si="104"/>
+        <v>3325</v>
+      </c>
+      <c r="B3326" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3327">
+        <f t="shared" si="104"/>
+        <v>3326</v>
+      </c>
+      <c r="B3327" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3328">
+        <f t="shared" si="104"/>
+        <v>3327</v>
+      </c>
+      <c r="B3328" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3329">
+        <f t="shared" si="104"/>
+        <v>3328</v>
+      </c>
+      <c r="B3329" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3330">
+        <f t="shared" si="104"/>
+        <v>3329</v>
+      </c>
+      <c r="B3330" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3331">
+        <f t="shared" si="104"/>
+        <v>3330</v>
+      </c>
+      <c r="B3331" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3332">
+        <f t="shared" si="104"/>
+        <v>3331</v>
+      </c>
+      <c r="B3332" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3333">
+        <f t="shared" si="104"/>
+        <v>3332</v>
+      </c>
+      <c r="B3333" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3334">
+        <f t="shared" si="104"/>
+        <v>3333</v>
+      </c>
+      <c r="B3334" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3335">
+        <f t="shared" si="104"/>
+        <v>3334</v>
+      </c>
+      <c r="B3335" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3336">
+        <f t="shared" si="104"/>
+        <v>3335</v>
+      </c>
+      <c r="B3336" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3337">
+        <f t="shared" si="104"/>
+        <v>3336</v>
+      </c>
+      <c r="B3337" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3338">
+        <f t="shared" si="104"/>
+        <v>3337</v>
+      </c>
+      <c r="B3338" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3339">
+        <f t="shared" si="104"/>
+        <v>3338</v>
+      </c>
+      <c r="B3339" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3340">
+        <f t="shared" si="104"/>
+        <v>3339</v>
+      </c>
+      <c r="B3340" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3341">
+        <f t="shared" si="104"/>
+        <v>3340</v>
+      </c>
+      <c r="B3341" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3342">
+        <f t="shared" si="104"/>
+        <v>3341</v>
+      </c>
+      <c r="B3342" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3343">
+        <f t="shared" si="104"/>
+        <v>3342</v>
+      </c>
+      <c r="B3343" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3344">
+        <f t="shared" si="104"/>
+        <v>3343</v>
+      </c>
+      <c r="B3344" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3345">
+        <f t="shared" si="104"/>
+        <v>3344</v>
+      </c>
+      <c r="B3345" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3346">
+        <f t="shared" si="104"/>
+        <v>3345</v>
+      </c>
+      <c r="B3346" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3347">
+        <f t="shared" si="104"/>
+        <v>3346</v>
+      </c>
+      <c r="B3347" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3348">
+        <f t="shared" si="104"/>
+        <v>3347</v>
+      </c>
+      <c r="B3348" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3349">
+        <f t="shared" si="104"/>
+        <v>3348</v>
+      </c>
+      <c r="B3349" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3350">
+        <f t="shared" si="104"/>
+        <v>3349</v>
+      </c>
+      <c r="B3350" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3351">
+        <f t="shared" si="104"/>
+        <v>3350</v>
+      </c>
+      <c r="B3351" s="13">
         <v>10</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB675E-B795-B44F-AFF8-10176C4C9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6566FA-ED49-FE40-9CD6-14AA30EF54F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="33600" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="3352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="3647">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -10102,6 +10102,902 @@
   </si>
   <si>
     <t>الرقم السري تغير بنجاح.</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>اسم الملف</t>
+  </si>
+  <si>
+    <t>फ़ाइल का नाम</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>கோப்பு பெயர்</t>
+  </si>
+  <si>
+    <t>nom de fichier</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>nome do arquivo</t>
+  </si>
+  <si>
+    <t>имя файла</t>
+  </si>
+  <si>
+    <t>Nombre del archivo</t>
+  </si>
+  <si>
+    <t>fileSize</t>
+  </si>
+  <si>
+    <t>File size</t>
+  </si>
+  <si>
+    <t>Tamaño del archivo</t>
+  </si>
+  <si>
+    <t>Размер файла</t>
+  </si>
+  <si>
+    <t>Tamanho do arquivo</t>
+  </si>
+  <si>
+    <t>கோப்பின் அளவு</t>
+  </si>
+  <si>
+    <t>Taille du fichier</t>
+  </si>
+  <si>
+    <t>文件大小</t>
+  </si>
+  <si>
+    <t>ファイルサイズ</t>
+  </si>
+  <si>
+    <t>फाइल का आकार</t>
+  </si>
+  <si>
+    <t>حجم الملف</t>
+  </si>
+  <si>
+    <t>Last modified</t>
+  </si>
+  <si>
+    <t>lastModified</t>
+  </si>
+  <si>
+    <t>آخر تعديل</t>
+  </si>
+  <si>
+    <t>अंतिम बार संशोधित</t>
+  </si>
+  <si>
+    <t>最終更新日</t>
+  </si>
+  <si>
+    <t>கடைசியாக மாற்றப்பட்டது</t>
+  </si>
+  <si>
+    <t>dernière modification</t>
+  </si>
+  <si>
+    <t>最后修改</t>
+  </si>
+  <si>
+    <t>última modificação</t>
+  </si>
+  <si>
+    <t>Последнее изменение</t>
+  </si>
+  <si>
+    <t>última modificación</t>
+  </si>
+  <si>
+    <t>Select a file or folder to view them.</t>
+  </si>
+  <si>
+    <t>selectaFileOrFolderToViewThem</t>
+  </si>
+  <si>
+    <t>Seleccione un archivo o carpeta para verlos.</t>
+  </si>
+  <si>
+    <t>Выберите файл или папку для их просмотра.</t>
+  </si>
+  <si>
+    <t>Selecione um arquivo ou pasta para visualizá-los.</t>
+  </si>
+  <si>
+    <t>அவற்றைப் பார்க்க ஒரு கோப்பு அல்லது கோப்புறையைத் தேர்ந்தெடுக்கவும்.</t>
+  </si>
+  <si>
+    <t>Sélectionnez un fichier ou un dossier pour les afficher.</t>
+  </si>
+  <si>
+    <t>选择一个文件或文件夹来查看它们。</t>
+  </si>
+  <si>
+    <t>表示するファイルまたはフォルダを選択します。</t>
+  </si>
+  <si>
+    <t>उन्हें देखने के लिए किसी फ़ाइल या फ़ोल्डर का चयन करें।</t>
+  </si>
+  <si>
+    <t>حدد ملفًا أو مجلدًا لعرضها.</t>
+  </si>
+  <si>
+    <r>
+      <t>fileValueC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>opiedToClipboard</t>
+    </r>
+  </si>
+  <si>
+    <t>{file} copied to clipboard</t>
+  </si>
+  <si>
+    <t>{file} கிளிப்போர்டுக்கு நகலெடுக்கப்பட்டது</t>
+  </si>
+  <si>
+    <t>{file} copié dans le presse-papiers</t>
+  </si>
+  <si>
+    <t>{file} 已复制到剪贴板</t>
+  </si>
+  <si>
+    <t>{file} をクリップボードにコピーしました</t>
+  </si>
+  <si>
+    <t>{file} copiado para a área de transferência</t>
+  </si>
+  <si>
+    <t>{file} को क्लिपबोर्ड पर कॉपी किया गया</t>
+  </si>
+  <si>
+    <t>{file} скопировано в буфер обмена</t>
+  </si>
+  <si>
+    <t>{file} copiado al portapapeles</t>
+  </si>
+  <si>
+    <t>تم نسخ {file} إلى الحافظة</t>
+  </si>
+  <si>
+    <t>folderNameCantBeEmpty</t>
+  </si>
+  <si>
+    <t>Folder name can`t be empty</t>
+  </si>
+  <si>
+    <t>El nombre de la carpeta no puede estar vacío</t>
+  </si>
+  <si>
+    <t>Имя папки не может быть пустым</t>
+  </si>
+  <si>
+    <t>O nome da pasta não pode estar vazio</t>
+  </si>
+  <si>
+    <t>கோப்புறையின் பெயர் காலியாக இருக்கக்கூடாது</t>
+  </si>
+  <si>
+    <t>Le nom du dossier ne peut pas être vide</t>
+  </si>
+  <si>
+    <t>文件夹名称不能为空</t>
+  </si>
+  <si>
+    <t>フォルダ名を空にすることはできません</t>
+  </si>
+  <si>
+    <t>फ़ोल्डर का नाम खाली नहीं हो सकता</t>
+  </si>
+  <si>
+    <t>لا يمكن أن يكون اسم المجلد فارغًا</t>
+  </si>
+  <si>
+    <t>fieldCantBeEmpty</t>
+  </si>
+  <si>
+    <t>Field can`t be empty</t>
+  </si>
+  <si>
+    <t>لا يمكن أن يكون الحقل فارغًا</t>
+  </si>
+  <si>
+    <t>फ़ील्ड खाली नहीं हो सकता</t>
+  </si>
+  <si>
+    <t>フィールドを空にすることはできません</t>
+  </si>
+  <si>
+    <t>புலம் காலியாக இருக்கக்கூடாது</t>
+  </si>
+  <si>
+    <t>Le champ ne peut pas être vide</t>
+  </si>
+  <si>
+    <t>O campo não pode estar vazio</t>
+  </si>
+  <si>
+    <t>Поле не может быть пустым</t>
+  </si>
+  <si>
+    <t>El campo no puede estar vacío</t>
+  </si>
+  <si>
+    <t>New folder</t>
+  </si>
+  <si>
+    <t>newFolder</t>
+  </si>
+  <si>
+    <t>Nueva carpeta</t>
+  </si>
+  <si>
+    <t>Новая папка</t>
+  </si>
+  <si>
+    <t>Nova pasta</t>
+  </si>
+  <si>
+    <t>புதிய அடைவை</t>
+  </si>
+  <si>
+    <t>Nouveau dossier</t>
+  </si>
+  <si>
+    <t>新建文件夹</t>
+  </si>
+  <si>
+    <t>新しいフォルダ</t>
+  </si>
+  <si>
+    <t>नया फोल्डर</t>
+  </si>
+  <si>
+    <t>ملف جديد</t>
+  </si>
+  <si>
+    <t>Rename file or folder</t>
+  </si>
+  <si>
+    <t>renameFileOrFolder</t>
+  </si>
+  <si>
+    <t>إعادة تسمية الملف أو المجلد</t>
+  </si>
+  <si>
+    <t>फ़ाइल या फ़ोल्डर का नाम बदलें</t>
+  </si>
+  <si>
+    <t>ファイルまたはフォルダーの名前を変更する</t>
+  </si>
+  <si>
+    <t>கோப்பு அல்லது கோப்புறையை மறுபெயரிடவும்</t>
+  </si>
+  <si>
+    <t>Renommer un fichier ou un dossier</t>
+  </si>
+  <si>
+    <t>重命名文件或文件夹</t>
+  </si>
+  <si>
+    <t>Renomear arquivo ou pasta</t>
+  </si>
+  <si>
+    <t>Переименовать файл или папку</t>
+  </si>
+  <si>
+    <t>Renombrar archivo o carpeta</t>
+  </si>
+  <si>
+    <t>Are you sure to delete file?</t>
+  </si>
+  <si>
+    <t>areYouSureToDeleteFile</t>
+  </si>
+  <si>
+    <t>கோப்பை நிச்சயமாக நீக்க வேண்டுமா?</t>
+  </si>
+  <si>
+    <t>Tem certeza de excluir o arquivo?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите удалить файл?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer le fichier ?</t>
+  </si>
+  <si>
+    <t>您确定要删除文件吗？</t>
+  </si>
+  <si>
+    <t>本当にファイルを削除しますか?</t>
+  </si>
+  <si>
+    <t>क्या आप निश्चित रूप से फ़ाइल हटाना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de eliminar el archivo?</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد من حذف الملف؟</t>
+  </si>
+  <si>
+    <t>Are you sure to delete folder?</t>
+  </si>
+  <si>
+    <t>areYouSureToDeleteFolder</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de eliminar la carpeta?</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد من حذف المجلد؟</t>
+  </si>
+  <si>
+    <t>क्या आप निश्चित रूप से फ़ोल्डर हटाना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>கோப்புறையை நிச்சயமாக நீக்கவா?</t>
+  </si>
+  <si>
+    <t>Êtes-vous sûr de vouloir supprimer le dossier ?</t>
+  </si>
+  <si>
+    <t>您确定要删除文件夹吗？</t>
+  </si>
+  <si>
+    <t>フォルダを削除してもよろしいですか?</t>
+  </si>
+  <si>
+    <t>Tem certeza de excluir a pasta?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите удалить папку?</t>
+  </si>
+  <si>
+    <t>fileSuccessfullyDeleted</t>
+  </si>
+  <si>
+    <t>File successfully deleted</t>
+  </si>
+  <si>
+    <t>Файл успешно удален</t>
+  </si>
+  <si>
+    <t>Arquivo excluído com sucesso</t>
+  </si>
+  <si>
+    <t>ファイルが正常に削除されました</t>
+  </si>
+  <si>
+    <t>கோப்பு வெற்றிகரமாக நீக்கப்பட்டது</t>
+  </si>
+  <si>
+    <t>Fichier supprimé avec succès</t>
+  </si>
+  <si>
+    <t>文件已成功删除</t>
+  </si>
+  <si>
+    <t>फ़ाइल सफलतापूर्वक हटाई गई</t>
+  </si>
+  <si>
+    <t>Archivo eliminado con éxito</t>
+  </si>
+  <si>
+    <t>تم حذف الملف بنجاح</t>
+  </si>
+  <si>
+    <t>folderSuccessfullyDeleted</t>
+  </si>
+  <si>
+    <t>Folder successfully deleted</t>
+  </si>
+  <si>
+    <t>تم حذف المجلد بنجاح</t>
+  </si>
+  <si>
+    <t>Carpeta eliminada con éxito</t>
+  </si>
+  <si>
+    <t>फ़ोल्डर सफलतापूर्वक हटा दिया गया</t>
+  </si>
+  <si>
+    <t>கோப்புறை வெற்றிகரமாக நீக்கப்பட்டது</t>
+  </si>
+  <si>
+    <t>Dossier supprimé avec succès</t>
+  </si>
+  <si>
+    <t>文件夹已成功删除</t>
+  </si>
+  <si>
+    <t>フォルダが正常に削除されました</t>
+  </si>
+  <si>
+    <t>Pasta excluída com sucesso</t>
+  </si>
+  <si>
+    <t>Unable to delete file or folder</t>
+  </si>
+  <si>
+    <t>unableToDeleteFileOrfolder</t>
+  </si>
+  <si>
+    <t>Невозможно удалить файл или папку!</t>
+  </si>
+  <si>
+    <t>Não é possível excluir arquivo ou pasta!</t>
+  </si>
+  <si>
+    <t>ファイルまたはフォルダを削除できません!</t>
+  </si>
+  <si>
+    <t>கோப்பு அல்லது கோப்புறையை நீக்க முடியவில்லை!</t>
+  </si>
+  <si>
+    <t>Impossible de supprimer le fichier ou le dossier !</t>
+  </si>
+  <si>
+    <t>无法删除文件或文件夹！</t>
+  </si>
+  <si>
+    <t>फ़ाइल या फ़ोल्डर को हटाने में असमर्थ!</t>
+  </si>
+  <si>
+    <t>¡No se puede eliminar el archivo o la carpeta!</t>
+  </si>
+  <si>
+    <t>تعذر حذف الملف أو المجلد!</t>
+  </si>
+  <si>
+    <t>File renamed successfully</t>
+  </si>
+  <si>
+    <t>fileRenamedSuccessfully</t>
+  </si>
+  <si>
+    <t>تمت إعادة تسمية الملف بنجاح</t>
+  </si>
+  <si>
+    <t>Archivo renombrado con éxito</t>
+  </si>
+  <si>
+    <t>फ़ाइल का नाम सफलतापूर्वक बदल दिया गया</t>
+  </si>
+  <si>
+    <t>கோப்பு வெற்றிகரமாக மறுபெயரிடப்பட்டது</t>
+  </si>
+  <si>
+    <t>Fichier renommé avec succès</t>
+  </si>
+  <si>
+    <t>文件重命名成功</t>
+  </si>
+  <si>
+    <t>ファイルの名前が正常に変更されました</t>
+  </si>
+  <si>
+    <t>Arquivo renomeado com sucesso</t>
+  </si>
+  <si>
+    <t>Файл успешно переименован</t>
+  </si>
+  <si>
+    <t>folderRenamedSuccessfully</t>
+  </si>
+  <si>
+    <t>Folder renamed successfully</t>
+  </si>
+  <si>
+    <t>Папка успешно переименована</t>
+  </si>
+  <si>
+    <t>Pasta renomeada com sucesso</t>
+  </si>
+  <si>
+    <t>フォルダの名前が正常に変更されました</t>
+  </si>
+  <si>
+    <t>கோப்புறை வெற்றிகரமாக மறுபெயரிடப்பட்டது</t>
+  </si>
+  <si>
+    <t>Dossier renommé avec succès</t>
+  </si>
+  <si>
+    <t>文件夹重命名成功</t>
+  </si>
+  <si>
+    <t>फ़ोल्डर का नाम सफलतापूर्वक बदल दिया गया</t>
+  </si>
+  <si>
+    <t>Carpeta renombrada con éxito</t>
+  </si>
+  <si>
+    <t>تمت إعادة تسمية المجلد بنجاح</t>
+  </si>
+  <si>
+    <t>Unable to rename file. Please try again later.</t>
+  </si>
+  <si>
+    <t>unableToRenameFile</t>
+  </si>
+  <si>
+    <t>غير قادر على إعادة تسمية الملف. الرجاء معاودة المحاولة في وقت لاحق.</t>
+  </si>
+  <si>
+    <t>No se puede cambiar el nombre del archivo. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>फ़ाइल का नाम बदलने में असमर्थ। बाद में पुन: प्रयास करें।</t>
+  </si>
+  <si>
+    <t>கோப்பை மறுபெயரிட முடியவில்லை. பிறகு முயற்சிக்கவும்.</t>
+  </si>
+  <si>
+    <t>Impossible de renommer le fichier. Veuillez réessayer plus tard.</t>
+  </si>
+  <si>
+    <t>无法重命名文件。 请稍后再试。</t>
+  </si>
+  <si>
+    <t>ファイルの名前を変更できません。 後でもう一度やり直してください。</t>
+  </si>
+  <si>
+    <t>Não foi possível renomear o arquivo. Por favor, tente novamente mais tarde.</t>
+  </si>
+  <si>
+    <t>Невозможно переименовать файл. Пожалуйста, попробуйте позже.</t>
+  </si>
+  <si>
+    <t>unableToRenameFolder</t>
+  </si>
+  <si>
+    <t>Unable to rename folder. Please try again later.</t>
+  </si>
+  <si>
+    <t>Невозможно переименовать папку. Пожалуйста, попробуйте позже.</t>
+  </si>
+  <si>
+    <t>Não foi possível renomear a pasta. Por favor, tente novamente mais tarde.</t>
+  </si>
+  <si>
+    <t>フォルダの名前を変更できません。 後でもう一度やり直してください。</t>
+  </si>
+  <si>
+    <t>கோப்புறையை மறுபெயரிட முடியவில்லை. பிறகு முயற்சிக்கவும்.</t>
+  </si>
+  <si>
+    <t>Impossible de renommer le dossier. Veuillez réessayer plus tard.</t>
+  </si>
+  <si>
+    <t>无法重命名文件夹。 请稍后再试。</t>
+  </si>
+  <si>
+    <t>फ़ोल्डर का नाम बदलने में असमर्थ। बाद में पुन: प्रयास करें।</t>
+  </si>
+  <si>
+    <t>No se puede cambiar el nombre de la carpeta. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>تعذر إعادة تسمية المجلد. الرجاء معاودة المحاولة في وقت لاحق.</t>
+  </si>
+  <si>
+    <t>fileUploadedSuccessfully</t>
+  </si>
+  <si>
+    <t>{file} uploaded successfully</t>
+  </si>
+  <si>
+    <t>{file} பதிவேற்றப்பட்டது</t>
+  </si>
+  <si>
+    <t>{file} téléchargé avec succès</t>
+  </si>
+  <si>
+    <t>{file} 上传成功</t>
+  </si>
+  <si>
+    <t>{file} が正常にアップロードされました</t>
+  </si>
+  <si>
+    <t>{file} enviado com sucesso</t>
+  </si>
+  <si>
+    <t>{file} सफलतापूर्वक अपलोड किया गया</t>
+  </si>
+  <si>
+    <t>{file} успешно загружено</t>
+  </si>
+  <si>
+    <t>{file} subido con éxito</t>
+  </si>
+  <si>
+    <t>تم تحميل {file} بنجاح</t>
+  </si>
+  <si>
+    <t>unableToUploadFilePleaseTryAgain</t>
+  </si>
+  <si>
+    <t>Unable to upload {file}. Please try again later.</t>
+  </si>
+  <si>
+    <t>{file} ஐப் பதிவேற்ற முடியவில்லை. பிறகு முயற்சிக்கவும்.</t>
+  </si>
+  <si>
+    <t>Impossible de télécharger {file}. Veuillez réessayer plus tard.</t>
+  </si>
+  <si>
+    <t>无法上传 {file}。 请稍后再试。</t>
+  </si>
+  <si>
+    <t>{file} をアップロードできません。 後でもう一度やり直してください。</t>
+  </si>
+  <si>
+    <t>Não foi possível carregar {file}. Por favor, tente novamente mais tarde.</t>
+  </si>
+  <si>
+    <t>{file} अपलोड करने में असमर्थ। बाद में पुन: प्रयास करें।</t>
+  </si>
+  <si>
+    <t>Не удалось загрузить {file}. Пожалуйста, попробуйте позже.</t>
+  </si>
+  <si>
+    <t>No se puede cargar {file}. Por favor, inténtelo de nuevo más tarde.</t>
+  </si>
+  <si>
+    <t>تعذر تحميل {file}. الرجاء معاودة المحاولة في وقت لاحق.</t>
+  </si>
+  <si>
+    <t>unableToStartUploadPleaseTryAgain</t>
+  </si>
+  <si>
+    <t>Unable to start upload. Please try again</t>
+  </si>
+  <si>
+    <t>تعذر بدء التحميل. حاول مرة اخرى</t>
+  </si>
+  <si>
+    <t>No se puede iniciar la carga. Inténtalo de nuevo</t>
+  </si>
+  <si>
+    <t>अपलोड प्रारंभ करने में असमर्थ. कृपया पुन: प्रयास करें</t>
+  </si>
+  <si>
+    <t>பதிவேற்றத்தைத் தொடங்க முடியவில்லை. தயவுசெய்து மீண்டும் முயற்சி செய்க</t>
+  </si>
+  <si>
+    <t>Impossible de démarrer le téléchargement. Veuillez réessayer</t>
+  </si>
+  <si>
+    <t>无法开始上传。 请再试一次</t>
+  </si>
+  <si>
+    <t>アップロードを開始できません。 もう一度お試しください</t>
+  </si>
+  <si>
+    <t>Não foi possível iniciar o upload. Por favor, tente novamente</t>
+  </si>
+  <si>
+    <t>Не удается начать загрузку. Пожалуйста, попробуйте еще раз</t>
+  </si>
+  <si>
+    <t>configuration is invalid</t>
+  </si>
+  <si>
+    <t>configurationIsInvalid</t>
+  </si>
+  <si>
+    <t>конфигурация недействительна</t>
+  </si>
+  <si>
+    <t>a configuração é inválida</t>
+  </si>
+  <si>
+    <t>構成が無効です</t>
+  </si>
+  <si>
+    <t>கட்டமைப்பு தவறானது</t>
+  </si>
+  <si>
+    <t>la configuration n'est pas valide</t>
+  </si>
+  <si>
+    <t>配置无效</t>
+  </si>
+  <si>
+    <t>विन्यास अमान्य है</t>
+  </si>
+  <si>
+    <t>la configuración no es válida</t>
+  </si>
+  <si>
+    <t>التكوين غير صالح</t>
+  </si>
+  <si>
+    <t>Please check you have correctly configured connection parameters!</t>
+  </si>
+  <si>
+    <t>pleaseCheckConnectionParameters</t>
+  </si>
+  <si>
+    <t>يرجى التحقق من تكوين معلمات الاتصال بشكل صحيح!</t>
+  </si>
+  <si>
+    <t>¡Compruebe que ha configurado correctamente los parámetros de conexión!</t>
+  </si>
+  <si>
+    <t>कृपया जांचें कि आपने कनेक्शन पैरामीटर सही ढंग से कॉन्फ़िगर किए हैं!</t>
+  </si>
+  <si>
+    <t>நீங்கள் சரியாக உள்ளமைக்கப்பட்ட இணைப்பு அளவுருக்களை சரிபார்க்கவும்!</t>
+  </si>
+  <si>
+    <t>Veuillez vérifier que vous avez correctement configuré les paramètres de connexion !</t>
+  </si>
+  <si>
+    <t>请检查您是否正确配置了连接参数！</t>
+  </si>
+  <si>
+    <t>接続パラメータが正しく設定されていることを確認してください!</t>
+  </si>
+  <si>
+    <t>Verifique se você configurou os parâmetros de conexão corretamente!</t>
+  </si>
+  <si>
+    <t>Пожалуйста, проверьте, правильно ли вы настроили параметры подключения!</t>
+  </si>
+  <si>
+    <t>dropFileOrfilesHere</t>
+  </si>
+  <si>
+    <t>Drop file or files here</t>
+  </si>
+  <si>
+    <t>Перетащите файл или файлы сюда</t>
+  </si>
+  <si>
+    <t>Solte arquivo ou arquivos aqui</t>
+  </si>
+  <si>
+    <t>ここに 1 つまたは複数のファイルをドロップ</t>
+  </si>
+  <si>
+    <t>கோப்பு அல்லது கோப்புகளை இங்கே விடவும்</t>
+  </si>
+  <si>
+    <t>Déposez le ou les fichiers ici</t>
+  </si>
+  <si>
+    <t>将一个或多个文件拖放到此处</t>
+  </si>
+  <si>
+    <t>फ़ाइल या फ़ाइलें यहाँ ड्रॉप करें</t>
+  </si>
+  <si>
+    <t>Suelte el archivo o archivos aquí</t>
+  </si>
+  <si>
+    <t>قم بإسقاط الملف أو الملفات هنا</t>
+  </si>
+  <si>
+    <t>File type not allowed</t>
+  </si>
+  <si>
+    <t>fileTypeNotAllowed</t>
+  </si>
+  <si>
+    <t>الملف المطبوع سري</t>
+  </si>
+  <si>
+    <t>Tipo de archivo no permitido</t>
+  </si>
+  <si>
+    <t>फ़ाइल प्रकार की अनुमति नहीं है</t>
+  </si>
+  <si>
+    <t>கோப்பு வகை அனுமதிக்கப்படவில்லை</t>
+  </si>
+  <si>
+    <t>Type de fichier non autorisé</t>
+  </si>
+  <si>
+    <t>不允许的文件类型</t>
+  </si>
+  <si>
+    <t>ファイル形式は許可されていません</t>
+  </si>
+  <si>
+    <t>Tipo de arquivo não permitido</t>
+  </si>
+  <si>
+    <t>Недопустимый тип файла</t>
+  </si>
+  <si>
+    <t>Select a folder to upload files</t>
+  </si>
+  <si>
+    <t>selectaFolderToUploadFiles</t>
+  </si>
+  <si>
+    <t>Выберите папку для загрузки файлов</t>
+  </si>
+  <si>
+    <t>Selecione uma pasta para fazer upload de arquivos</t>
+  </si>
+  <si>
+    <t>ファイルをアップロードするフォルダを選択</t>
+  </si>
+  <si>
+    <t>கோப்புகளைப் பதிவேற்ற ஒரு கோப்புறையைத் தேர்ந்தெடுக்கவும்</t>
+  </si>
+  <si>
+    <t>Sélectionnez un dossier pour télécharger des fichiers</t>
+  </si>
+  <si>
+    <t>选择要上传文件的文件夹</t>
+  </si>
+  <si>
+    <t>फ़ाइलें अपलोड करने के लिए एक फ़ोल्डर का चयन करें</t>
+  </si>
+  <si>
+    <t>Seleccione una carpeta para cargar archivos</t>
+  </si>
+  <si>
+    <t>حدد مجلدا لتحميل الملفات</t>
+  </si>
+  <si>
+    <t>Drag files here</t>
+  </si>
+  <si>
+    <t>dragFilesHere</t>
+  </si>
+  <si>
+    <t>اسحب الملفات هنا</t>
+  </si>
+  <si>
+    <t>Arrastre los archivos aquí</t>
+  </si>
+  <si>
+    <t>फ़ाइलें यहां खींचें</t>
+  </si>
+  <si>
+    <t>கோப்புகளை இங்கே இழுக்கவும்</t>
+  </si>
+  <si>
+    <t>Déplacez des fichiers ici</t>
+  </si>
+  <si>
+    <t>将文件拖到这里</t>
+  </si>
+  <si>
+    <t>ここにファイルをドラッグ</t>
+  </si>
+  <si>
+    <t>Arraste os arquivos aqui</t>
+  </si>
+  <si>
+    <t>Перетащите файлы сюда</t>
   </si>
 </sst>
 </file>
@@ -10668,7 +11564,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10691,6 +11587,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -11046,10 +11943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3351"/>
+  <dimension ref="A1:F3581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3215" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3235" sqref="D3235"/>
+    <sheetView tabSelected="1" topLeftCell="A3483" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3504" sqref="D3504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71730,7 +72627,7 @@
         <v>3313</v>
       </c>
       <c r="E3193" t="str">
-        <f t="shared" ref="E3193:E3231" si="102">CONCATENATE("(",CHAR(34),A3193,CHAR(34),",",CHAR(34),B3193,CHAR(34),",",CHAR(34),C3193,CHAR(34),",",CHAR(34),D3193,CHAR(34),"),")</f>
+        <f t="shared" ref="E3193:E3256" si="102">CONCATENATE("(",CHAR(34),A3193,CHAR(34),",",CHAR(34),B3193,CHAR(34),",",CHAR(34),C3193,CHAR(34),",",CHAR(34),D3193,CHAR(34),"),")</f>
         <v>("3192","2","OtpSuccessfullyMailedToYou","OTP உங்களுக்கு வெற்றிகரமாக அனுப்பப்பட்டது."),</v>
       </c>
     </row>
@@ -72464,11 +73361,18 @@
       <c r="B3232" s="13">
         <v>1</v>
       </c>
-      <c r="E3232" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3232" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3232" s="6" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E3232" t="str">
+        <f t="shared" si="102"/>
+        <v>("3231","1","fileName","File name"),</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3233">
         <f t="shared" si="101"/>
         <v>3232</v>
@@ -72476,11 +73380,18 @@
       <c r="B3233" s="13">
         <v>2</v>
       </c>
-      <c r="E3233" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3233" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3233" s="6" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E3233" t="str">
+        <f t="shared" si="102"/>
+        <v>("3232","2","fileName","கோப்பு பெயர்"),</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3234">
         <f t="shared" si="101"/>
         <v>3233</v>
@@ -72488,11 +73399,18 @@
       <c r="B3234" s="13">
         <v>3</v>
       </c>
-      <c r="E3234" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3234" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3234" s="6" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E3234" t="str">
+        <f t="shared" si="102"/>
+        <v>("3233","3","fileName","nom de fichier"),</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3235">
         <f t="shared" si="101"/>
         <v>3234</v>
@@ -72500,8 +73418,15 @@
       <c r="B3235" s="13">
         <v>4</v>
       </c>
-      <c r="E3235" s="5" t="s">
-        <v>519</v>
+      <c r="C3235" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3235" s="6" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E3235" t="str">
+        <f t="shared" si="102"/>
+        <v>("3234","4","fileName","文件名"),</v>
       </c>
     </row>
     <row r="3236" spans="1:5" x14ac:dyDescent="0.2">
@@ -72512,11 +73437,18 @@
       <c r="B3236" s="13">
         <v>5</v>
       </c>
-      <c r="E3236" s="6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="3237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3236" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3236" s="6" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E3236" t="str">
+        <f t="shared" si="102"/>
+        <v>("3235","5","fileName","ファイル名"),</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3237">
         <f t="shared" si="101"/>
         <v>3236</v>
@@ -72524,11 +73456,18 @@
       <c r="B3237" s="13">
         <v>6</v>
       </c>
-      <c r="E3237" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3237" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3237" s="6" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E3237" t="str">
+        <f t="shared" si="102"/>
+        <v>("3236","6","fileName","nome do arquivo"),</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3238">
         <f t="shared" si="101"/>
         <v>3237</v>
@@ -72536,11 +73475,18 @@
       <c r="B3238" s="13">
         <v>7</v>
       </c>
-      <c r="E3238" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3238" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3238" s="6" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E3238" t="str">
+        <f t="shared" si="102"/>
+        <v>("3237","7","fileName","फ़ाइल का नाम"),</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3239">
         <f t="shared" si="101"/>
         <v>3238</v>
@@ -72548,11 +73494,18 @@
       <c r="B3239" s="13">
         <v>8</v>
       </c>
-      <c r="E3239" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3239" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3239" s="6" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E3239" t="str">
+        <f t="shared" si="102"/>
+        <v>("3238","8","fileName","имя файла"),</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3240">
         <f t="shared" si="101"/>
         <v>3239</v>
@@ -72560,8 +73513,15 @@
       <c r="B3240" s="13">
         <v>9</v>
       </c>
-      <c r="E3240" s="5" t="s">
-        <v>1452</v>
+      <c r="C3240" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3240" s="6" t="s">
+        <v>3362</v>
+      </c>
+      <c r="E3240" t="str">
+        <f t="shared" si="102"/>
+        <v>("3239","9","fileName","Nombre del archivo"),</v>
       </c>
     </row>
     <row r="3241" spans="1:5" x14ac:dyDescent="0.2">
@@ -72572,8 +73532,15 @@
       <c r="B3241" s="13">
         <v>10</v>
       </c>
-      <c r="E3241" t="s">
-        <v>673</v>
+      <c r="C3241" s="6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D3241" s="6" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E3241" t="str">
+        <f t="shared" si="102"/>
+        <v>("3240","10","fileName","اسم الملف"),</v>
       </c>
     </row>
     <row r="3242" spans="1:5" x14ac:dyDescent="0.2">
@@ -72584,6 +73551,16 @@
       <c r="B3242" s="13">
         <v>1</v>
       </c>
+      <c r="C3242" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3242" s="6" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E3242" t="str">
+        <f t="shared" si="102"/>
+        <v>("3241","1","fileSize","File size"),</v>
+      </c>
     </row>
     <row r="3243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3243">
@@ -72593,6 +73570,16 @@
       <c r="B3243" s="13">
         <v>2</v>
       </c>
+      <c r="C3243" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3243" s="6" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E3243" t="str">
+        <f t="shared" si="102"/>
+        <v>("3242","2","fileSize","கோப்பின் அளவு"),</v>
+      </c>
     </row>
     <row r="3244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3244">
@@ -72602,6 +73589,16 @@
       <c r="B3244" s="13">
         <v>3</v>
       </c>
+      <c r="C3244" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3244" s="6" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E3244" t="str">
+        <f t="shared" si="102"/>
+        <v>("3243","3","fileSize","Taille du fichier"),</v>
+      </c>
     </row>
     <row r="3245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3245">
@@ -72611,6 +73608,16 @@
       <c r="B3245" s="13">
         <v>4</v>
       </c>
+      <c r="C3245" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3245" s="6" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E3245" t="str">
+        <f t="shared" si="102"/>
+        <v>("3244","4","fileSize","文件大小"),</v>
+      </c>
     </row>
     <row r="3246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3246">
@@ -72620,6 +73627,16 @@
       <c r="B3246" s="13">
         <v>5</v>
       </c>
+      <c r="C3246" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3246" s="6" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E3246" t="str">
+        <f t="shared" si="102"/>
+        <v>("3245","5","fileSize","ファイルサイズ"),</v>
+      </c>
     </row>
     <row r="3247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3247">
@@ -72629,6 +73646,16 @@
       <c r="B3247" s="13">
         <v>6</v>
       </c>
+      <c r="C3247" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3247" s="6" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E3247" t="str">
+        <f t="shared" si="102"/>
+        <v>("3246","6","fileSize","Tamanho do arquivo"),</v>
+      </c>
     </row>
     <row r="3248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3248">
@@ -72638,8 +73665,18 @@
       <c r="B3248" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3248" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3248" s="6" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E3248" t="str">
+        <f t="shared" si="102"/>
+        <v>("3247","7","fileSize","फाइल का आकार"),</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3249">
         <f t="shared" si="101"/>
         <v>3248</v>
@@ -72647,8 +73684,18 @@
       <c r="B3249" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3249" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3249" s="6" t="s">
+        <v>3366</v>
+      </c>
+      <c r="E3249" t="str">
+        <f t="shared" si="102"/>
+        <v>("3248","8","fileSize","Размер файла"),</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3250">
         <f t="shared" si="101"/>
         <v>3249</v>
@@ -72656,8 +73703,18 @@
       <c r="B3250" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3250" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3250" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E3250" t="str">
+        <f t="shared" si="102"/>
+        <v>("3249","9","fileSize","Tamaño del archivo"),</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3251">
         <f t="shared" si="101"/>
         <v>3250</v>
@@ -72665,8 +73722,18 @@
       <c r="B3251" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3251" s="6" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D3251" s="6" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E3251" t="str">
+        <f t="shared" si="102"/>
+        <v>("3250","10","fileSize","حجم الملف"),</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3252">
         <f t="shared" si="101"/>
         <v>3251</v>
@@ -72674,8 +73741,18 @@
       <c r="B3252" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3252" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3252" s="6" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E3252" t="str">
+        <f t="shared" si="102"/>
+        <v>("3251","1","lastModified","Last modified"),</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3253">
         <f t="shared" si="101"/>
         <v>3252</v>
@@ -72683,8 +73760,18 @@
       <c r="B3253" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3253" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3253" s="6" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E3253" t="str">
+        <f t="shared" si="102"/>
+        <v>("3252","2","lastModified","கடைசியாக மாற்றப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3254">
         <f t="shared" si="101"/>
         <v>3253</v>
@@ -72692,8 +73779,18 @@
       <c r="B3254" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3254" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3254" s="6" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E3254" t="str">
+        <f t="shared" si="102"/>
+        <v>("3253","3","lastModified","dernière modification"),</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3255">
         <f t="shared" si="101"/>
         <v>3254</v>
@@ -72701,8 +73798,18 @@
       <c r="B3255" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3255" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3255" s="6" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E3255" t="str">
+        <f t="shared" si="102"/>
+        <v>("3254","4","lastModified","最后修改"),</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3256">
         <f t="shared" ref="A3256:A3319" si="103">A3255+1</f>
         <v>3255</v>
@@ -72710,8 +73817,18 @@
       <c r="B3256" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3256" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3256" s="6" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E3256" t="str">
+        <f t="shared" si="102"/>
+        <v>("3255","5","lastModified","最終更新日"),</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3257">
         <f t="shared" si="103"/>
         <v>3256</v>
@@ -72719,8 +73836,18 @@
       <c r="B3257" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3257" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3257" s="6" t="s">
+        <v>3382</v>
+      </c>
+      <c r="E3257" t="str">
+        <f t="shared" ref="E3257:E3320" si="104">CONCATENATE("(",CHAR(34),A3257,CHAR(34),",",CHAR(34),B3257,CHAR(34),",",CHAR(34),C3257,CHAR(34),",",CHAR(34),D3257,CHAR(34),"),")</f>
+        <v>("3256","6","lastModified","última modificação"),</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3258">
         <f t="shared" si="103"/>
         <v>3257</v>
@@ -72728,8 +73855,18 @@
       <c r="B3258" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3258" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3258" s="6" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E3258" t="str">
+        <f t="shared" si="104"/>
+        <v>("3257","7","lastModified","अंतिम बार संशोधित"),</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3259">
         <f t="shared" si="103"/>
         <v>3258</v>
@@ -72737,8 +73874,18 @@
       <c r="B3259" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3259" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3259" s="6" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E3259" t="str">
+        <f t="shared" si="104"/>
+        <v>("3258","8","lastModified","Последнее изменение"),</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3260">
         <f t="shared" si="103"/>
         <v>3259</v>
@@ -72746,8 +73893,18 @@
       <c r="B3260" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3260" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3260" s="6" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E3260" t="str">
+        <f t="shared" si="104"/>
+        <v>("3259","9","lastModified","última modificación"),</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3261">
         <f t="shared" si="103"/>
         <v>3260</v>
@@ -72755,8 +73912,18 @@
       <c r="B3261" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3261" s="6" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D3261" s="6" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E3261" t="str">
+        <f t="shared" si="104"/>
+        <v>("3260","10","lastModified","آخر تعديل"),</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3262">
         <f t="shared" si="103"/>
         <v>3261</v>
@@ -72764,8 +73931,18 @@
       <c r="B3262" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3262" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3262" s="6" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E3262" t="str">
+        <f t="shared" si="104"/>
+        <v>("3261","1","selectaFileOrFolderToViewThem","Select a file or folder to view them."),</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3263">
         <f t="shared" si="103"/>
         <v>3262</v>
@@ -72773,8 +73950,18 @@
       <c r="B3263" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3263" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3263" s="6" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E3263" t="str">
+        <f t="shared" si="104"/>
+        <v>("3262","2","selectaFileOrFolderToViewThem","அவற்றைப் பார்க்க ஒரு கோப்பு அல்லது கோப்புறையைத் தேர்ந்தெடுக்கவும்."),</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3264">
         <f t="shared" si="103"/>
         <v>3263</v>
@@ -72782,8 +73969,18 @@
       <c r="B3264" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3264" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3264" s="6" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E3264" t="str">
+        <f t="shared" si="104"/>
+        <v>("3263","3","selectaFileOrFolderToViewThem","Sélectionnez un fichier ou un dossier pour les afficher."),</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3265">
         <f t="shared" si="103"/>
         <v>3264</v>
@@ -72791,8 +73988,18 @@
       <c r="B3265" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3265" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3265" s="6" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E3265" t="str">
+        <f t="shared" si="104"/>
+        <v>("3264","4","selectaFileOrFolderToViewThem","选择一个文件或文件夹来查看它们。"),</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3266">
         <f t="shared" si="103"/>
         <v>3265</v>
@@ -72800,8 +74007,18 @@
       <c r="B3266" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3266" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3266" s="6" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E3266" t="str">
+        <f t="shared" si="104"/>
+        <v>("3265","5","selectaFileOrFolderToViewThem","表示するファイルまたはフォルダを選択します。"),</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3267">
         <f t="shared" si="103"/>
         <v>3266</v>
@@ -72809,8 +74026,18 @@
       <c r="B3267" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3267" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3267" s="6" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E3267" t="str">
+        <f t="shared" si="104"/>
+        <v>("3266","6","selectaFileOrFolderToViewThem","Selecione um arquivo ou pasta para visualizá-los."),</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3268">
         <f t="shared" si="103"/>
         <v>3267</v>
@@ -72818,8 +74045,18 @@
       <c r="B3268" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3268" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3268" s="6" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E3268" t="str">
+        <f t="shared" si="104"/>
+        <v>("3267","7","selectaFileOrFolderToViewThem","उन्हें देखने के लिए किसी फ़ाइल या फ़ोल्डर का चयन करें।"),</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3269">
         <f t="shared" si="103"/>
         <v>3268</v>
@@ -72827,8 +74064,18 @@
       <c r="B3269" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3269" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3269" s="6" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E3269" t="str">
+        <f t="shared" si="104"/>
+        <v>("3268","8","selectaFileOrFolderToViewThem","Выберите файл или папку для их просмотра."),</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3270">
         <f t="shared" si="103"/>
         <v>3269</v>
@@ -72836,8 +74083,18 @@
       <c r="B3270" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3270" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3270" s="6" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E3270" t="str">
+        <f t="shared" si="104"/>
+        <v>("3269","9","selectaFileOrFolderToViewThem","Seleccione un archivo o carpeta para verlos."),</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3271">
         <f t="shared" si="103"/>
         <v>3270</v>
@@ -72845,8 +74102,18 @@
       <c r="B3271" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3271" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3271" s="6" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E3271" t="str">
+        <f t="shared" si="104"/>
+        <v>("3270","10","selectaFileOrFolderToViewThem","حدد ملفًا أو مجلدًا لعرضها."),</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3272">
         <f t="shared" si="103"/>
         <v>3271</v>
@@ -72854,8 +74121,18 @@
       <c r="B3272" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3272" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3272" s="15" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E3272" t="str">
+        <f t="shared" si="104"/>
+        <v>("3271","1","fileValueCopiedToClipboard","{file} copied to clipboard"),</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3273">
         <f t="shared" si="103"/>
         <v>3272</v>
@@ -72863,8 +74140,18 @@
       <c r="B3273" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3273" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3273" s="6" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E3273" t="str">
+        <f t="shared" si="104"/>
+        <v>("3272","2","fileValueCopiedToClipboard","{file} கிளிப்போர்டுக்கு நகலெடுக்கப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3274">
         <f t="shared" si="103"/>
         <v>3273</v>
@@ -72872,8 +74159,18 @@
       <c r="B3274" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3274" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3274" s="6" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E3274" t="str">
+        <f t="shared" si="104"/>
+        <v>("3273","3","fileValueCopiedToClipboard","{file} copié dans le presse-papiers"),</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3275">
         <f t="shared" si="103"/>
         <v>3274</v>
@@ -72881,8 +74178,18 @@
       <c r="B3275" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3275" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3275" s="6" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E3275" t="str">
+        <f t="shared" si="104"/>
+        <v>("3274","4","fileValueCopiedToClipboard","{file} 已复制到剪贴板"),</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3276">
         <f t="shared" si="103"/>
         <v>3275</v>
@@ -72890,8 +74197,18 @@
       <c r="B3276" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3276" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3276" s="6" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E3276" t="str">
+        <f t="shared" si="104"/>
+        <v>("3275","5","fileValueCopiedToClipboard","{file} をクリップボードにコピーしました"),</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3277">
         <f t="shared" si="103"/>
         <v>3276</v>
@@ -72899,8 +74216,18 @@
       <c r="B3277" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3277" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3277" s="6" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E3277" t="str">
+        <f t="shared" si="104"/>
+        <v>("3276","6","fileValueCopiedToClipboard","{file} copiado para a área de transferência"),</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3278">
         <f t="shared" si="103"/>
         <v>3277</v>
@@ -72908,8 +74235,18 @@
       <c r="B3278" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3278" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3278" s="6" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E3278" t="str">
+        <f t="shared" si="104"/>
+        <v>("3277","7","fileValueCopiedToClipboard","{file} को क्लिपबोर्ड पर कॉपी किया गया"),</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3279">
         <f t="shared" si="103"/>
         <v>3278</v>
@@ -72917,8 +74254,18 @@
       <c r="B3279" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3279" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3279" s="6" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E3279" t="str">
+        <f t="shared" si="104"/>
+        <v>("3278","8","fileValueCopiedToClipboard","{file} скопировано в буфер обмена"),</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3280">
         <f t="shared" si="103"/>
         <v>3279</v>
@@ -72926,8 +74273,18 @@
       <c r="B3280" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3280" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3280" s="6" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E3280" t="str">
+        <f t="shared" si="104"/>
+        <v>("3279","9","fileValueCopiedToClipboard","{file} copiado al portapapeles"),</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3281">
         <f t="shared" si="103"/>
         <v>3280</v>
@@ -72935,8 +74292,18 @@
       <c r="B3281" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3281" s="15" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D3281" s="6" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E3281" t="str">
+        <f t="shared" si="104"/>
+        <v>("3280","10","fileValueCopiedToClipboard","تم نسخ {file} إلى الحافظة"),</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3282">
         <f t="shared" si="103"/>
         <v>3281</v>
@@ -72944,8 +74311,18 @@
       <c r="B3282" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3282" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3282" s="15" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E3282" t="str">
+        <f t="shared" si="104"/>
+        <v>("3281","1","folderNameCantBeEmpty","Folder name can`t be empty"),</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3283">
         <f t="shared" si="103"/>
         <v>3282</v>
@@ -72953,8 +74330,18 @@
       <c r="B3283" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3283" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3283" s="6" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E3283" t="str">
+        <f t="shared" si="104"/>
+        <v>("3282","2","folderNameCantBeEmpty","கோப்புறையின் பெயர் காலியாக இருக்கக்கூடாது"),</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3284">
         <f t="shared" si="103"/>
         <v>3283</v>
@@ -72962,8 +74349,18 @@
       <c r="B3284" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3284" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3284" s="6" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E3284" t="str">
+        <f t="shared" si="104"/>
+        <v>("3283","3","folderNameCantBeEmpty","Le nom du dossier ne peut pas être vide"),</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3285">
         <f t="shared" si="103"/>
         <v>3284</v>
@@ -72971,8 +74368,18 @@
       <c r="B3285" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3285" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3285" s="6" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E3285" t="str">
+        <f t="shared" si="104"/>
+        <v>("3284","4","folderNameCantBeEmpty","文件夹名称不能为空"),</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3286">
         <f t="shared" si="103"/>
         <v>3285</v>
@@ -72980,8 +74387,18 @@
       <c r="B3286" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3286" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3286" s="6" t="s">
+        <v>3415</v>
+      </c>
+      <c r="E3286" t="str">
+        <f t="shared" si="104"/>
+        <v>("3285","5","folderNameCantBeEmpty","フォルダ名を空にすることはできません"),</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3287">
         <f t="shared" si="103"/>
         <v>3286</v>
@@ -72989,8 +74406,18 @@
       <c r="B3287" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3287" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3287" s="6" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E3287" t="str">
+        <f t="shared" si="104"/>
+        <v>("3286","6","folderNameCantBeEmpty","O nome da pasta não pode estar vazio"),</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3288">
         <f t="shared" si="103"/>
         <v>3287</v>
@@ -72998,8 +74425,18 @@
       <c r="B3288" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3288" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3288" s="6" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E3288" t="str">
+        <f t="shared" si="104"/>
+        <v>("3287","7","folderNameCantBeEmpty","फ़ोल्डर का नाम खाली नहीं हो सकता"),</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3289">
         <f t="shared" si="103"/>
         <v>3288</v>
@@ -73007,8 +74444,18 @@
       <c r="B3289" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3289" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3289" s="6" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E3289" t="str">
+        <f t="shared" si="104"/>
+        <v>("3288","8","folderNameCantBeEmpty","Имя папки не может быть пустым"),</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3290">
         <f t="shared" si="103"/>
         <v>3289</v>
@@ -73016,8 +74463,18 @@
       <c r="B3290" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3290" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3290" s="6" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E3290" t="str">
+        <f t="shared" si="104"/>
+        <v>("3289","9","folderNameCantBeEmpty","El nombre de la carpeta no puede estar vacío"),</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3291">
         <f t="shared" si="103"/>
         <v>3290</v>
@@ -73025,8 +74482,18 @@
       <c r="B3291" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3291" s="15" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D3291" s="6" t="s">
+        <v>3417</v>
+      </c>
+      <c r="E3291" t="str">
+        <f t="shared" si="104"/>
+        <v>("3290","10","folderNameCantBeEmpty","لا يمكن أن يكون اسم المجلد فارغًا"),</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3292">
         <f t="shared" si="103"/>
         <v>3291</v>
@@ -73034,8 +74501,18 @@
       <c r="B3292" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3292" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3292" s="15" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E3292" t="str">
+        <f t="shared" si="104"/>
+        <v>("3291","1","fieldCantBeEmpty","Field can`t be empty"),</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3293">
         <f t="shared" si="103"/>
         <v>3292</v>
@@ -73043,8 +74520,18 @@
       <c r="B3293" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3293" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3293" s="6" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E3293" t="str">
+        <f t="shared" si="104"/>
+        <v>("3292","2","fieldCantBeEmpty","புலம் காலியாக இருக்கக்கூடாது"),</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3294">
         <f t="shared" si="103"/>
         <v>3293</v>
@@ -73052,8 +74539,18 @@
       <c r="B3294" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3294" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3294" s="6" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E3294" t="str">
+        <f t="shared" si="104"/>
+        <v>("3293","3","fieldCantBeEmpty","Le champ ne peut pas être vide"),</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3295">
         <f t="shared" si="103"/>
         <v>3294</v>
@@ -73061,8 +74558,18 @@
       <c r="B3295" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3295" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3295" s="6" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E3295" t="str">
+        <f t="shared" si="104"/>
+        <v>("3294","4","fieldCantBeEmpty","Le champ ne peut pas être vide"),</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3296">
         <f t="shared" si="103"/>
         <v>3295</v>
@@ -73070,8 +74577,18 @@
       <c r="B3296" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3296" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3296" s="6" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E3296" t="str">
+        <f t="shared" si="104"/>
+        <v>("3295","5","fieldCantBeEmpty","フィールドを空にすることはできません"),</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3297">
         <f t="shared" si="103"/>
         <v>3296</v>
@@ -73079,8 +74596,18 @@
       <c r="B3297" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3297" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3297" s="6" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E3297" t="str">
+        <f t="shared" si="104"/>
+        <v>("3296","6","fieldCantBeEmpty","O campo não pode estar vazio"),</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3298">
         <f t="shared" si="103"/>
         <v>3297</v>
@@ -73088,8 +74615,18 @@
       <c r="B3298" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3298" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3298" s="6" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E3298" t="str">
+        <f t="shared" si="104"/>
+        <v>("3297","7","fieldCantBeEmpty","फ़ील्ड खाली नहीं हो सकता"),</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3299">
         <f t="shared" si="103"/>
         <v>3298</v>
@@ -73097,8 +74634,18 @@
       <c r="B3299" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3299" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3299" s="6" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E3299" t="str">
+        <f t="shared" si="104"/>
+        <v>("3298","8","fieldCantBeEmpty","Поле не может быть пустым"),</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3300">
         <f t="shared" si="103"/>
         <v>3299</v>
@@ -73106,8 +74653,18 @@
       <c r="B3300" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3300" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3300" s="6" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E3300" t="str">
+        <f t="shared" si="104"/>
+        <v>("3299","9","fieldCantBeEmpty","El campo no puede estar vacío"),</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3301">
         <f t="shared" si="103"/>
         <v>3300</v>
@@ -73115,8 +74672,18 @@
       <c r="B3301" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3301" s="15" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D3301" s="6" t="s">
+        <v>3420</v>
+      </c>
+      <c r="E3301" t="str">
+        <f t="shared" si="104"/>
+        <v>("3300","10","fieldCantBeEmpty","لا يمكن أن يكون الحقل فارغًا"),</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3302">
         <f t="shared" si="103"/>
         <v>3301</v>
@@ -73124,8 +74691,18 @@
       <c r="B3302" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3302" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3302" s="15" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E3302" t="str">
+        <f t="shared" si="104"/>
+        <v>("3301","1","newFolder","New folder"),</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3303">
         <f t="shared" si="103"/>
         <v>3302</v>
@@ -73133,8 +74710,18 @@
       <c r="B3303" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3303" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3303" s="15" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E3303" t="str">
+        <f t="shared" si="104"/>
+        <v>("3302","2","newFolder","புதிய அடைவை"),</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3304">
         <f t="shared" si="103"/>
         <v>3303</v>
@@ -73142,8 +74729,18 @@
       <c r="B3304" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3304" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3304" s="15" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E3304" t="str">
+        <f t="shared" si="104"/>
+        <v>("3303","3","newFolder","Nouveau dossier"),</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3305">
         <f t="shared" si="103"/>
         <v>3304</v>
@@ -73151,8 +74748,18 @@
       <c r="B3305" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3305" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3305" s="15" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E3305" t="str">
+        <f t="shared" si="104"/>
+        <v>("3304","4","newFolder","新建文件夹"),</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3306">
         <f t="shared" si="103"/>
         <v>3305</v>
@@ -73160,8 +74767,18 @@
       <c r="B3306" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3306" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3306" s="15" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E3306" t="str">
+        <f t="shared" si="104"/>
+        <v>("3305","5","newFolder","新しいフォルダ"),</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3307">
         <f t="shared" si="103"/>
         <v>3306</v>
@@ -73169,8 +74786,18 @@
       <c r="B3307" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3307" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3307" s="15" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E3307" t="str">
+        <f t="shared" si="104"/>
+        <v>("3306","6","newFolder","Nova pasta"),</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3308">
         <f t="shared" si="103"/>
         <v>3307</v>
@@ -73178,8 +74805,18 @@
       <c r="B3308" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3308" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3308" s="15" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E3308" t="str">
+        <f t="shared" si="104"/>
+        <v>("3307","7","newFolder","नया फोल्डर"),</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3309">
         <f t="shared" si="103"/>
         <v>3308</v>
@@ -73187,8 +74824,18 @@
       <c r="B3309" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3309" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3309" s="15" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E3309" t="str">
+        <f t="shared" si="104"/>
+        <v>("3308","8","newFolder","Новая папка"),</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3310">
         <f t="shared" si="103"/>
         <v>3309</v>
@@ -73196,8 +74843,18 @@
       <c r="B3310" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3310" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3310" s="15" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E3310" t="str">
+        <f t="shared" si="104"/>
+        <v>("3309","9","newFolder","Nueva carpeta"),</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3311">
         <f t="shared" si="103"/>
         <v>3310</v>
@@ -73205,8 +74862,18 @@
       <c r="B3311" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3311" s="15" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D3311" s="15" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E3311" t="str">
+        <f t="shared" si="104"/>
+        <v>("3310","10","newFolder","ملف جديد"),</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3312">
         <f t="shared" si="103"/>
         <v>3311</v>
@@ -73214,8 +74881,18 @@
       <c r="B3312" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3312" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3312" s="15" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E3312" t="str">
+        <f t="shared" si="104"/>
+        <v>("3311","1","renameFileOrFolder","Rename file or folder"),</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3313">
         <f t="shared" si="103"/>
         <v>3312</v>
@@ -73223,8 +74900,18 @@
       <c r="B3313" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3313" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3313" s="6" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E3313" t="str">
+        <f t="shared" si="104"/>
+        <v>("3312","2","renameFileOrFolder","கோப்பு அல்லது கோப்புறையை மறுபெயரிடவும்"),</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3314">
         <f t="shared" si="103"/>
         <v>3313</v>
@@ -73232,8 +74919,18 @@
       <c r="B3314" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3314" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3314" s="6" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E3314" t="str">
+        <f t="shared" si="104"/>
+        <v>("3313","3","renameFileOrFolder","Renommer un fichier ou un dossier"),</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3315">
         <f t="shared" si="103"/>
         <v>3314</v>
@@ -73241,8 +74938,18 @@
       <c r="B3315" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3315" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3315" s="6" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E3315" t="str">
+        <f t="shared" si="104"/>
+        <v>("3314","4","renameFileOrFolder","重命名文件或文件夹"),</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3316">
         <f t="shared" si="103"/>
         <v>3315</v>
@@ -73250,8 +74957,18 @@
       <c r="B3316" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3316" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3316" s="6" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E3316" t="str">
+        <f t="shared" si="104"/>
+        <v>("3315","5","renameFileOrFolder","ファイルまたはフォルダーの名前を変更する"),</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3317">
         <f t="shared" si="103"/>
         <v>3316</v>
@@ -73259,8 +74976,18 @@
       <c r="B3317" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3317" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3317" s="6" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E3317" t="str">
+        <f t="shared" si="104"/>
+        <v>("3316","6","renameFileOrFolder","Renomear arquivo ou pasta"),</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3318">
         <f t="shared" si="103"/>
         <v>3317</v>
@@ -73268,8 +74995,18 @@
       <c r="B3318" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3318" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3318" s="6" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E3318" t="str">
+        <f t="shared" si="104"/>
+        <v>("3317","7","renameFileOrFolder","फ़ाइल या फ़ोल्डर का नाम बदलें"),</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3319">
         <f t="shared" si="103"/>
         <v>3318</v>
@@ -73277,292 +75014,4222 @@
       <c r="B3319" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3319" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3319" s="6" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E3319" t="str">
+        <f t="shared" si="104"/>
+        <v>("3318","8","renameFileOrFolder","Переименовать файл или папку"),</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3320">
-        <f t="shared" ref="A3320:A3351" si="104">A3319+1</f>
+        <f t="shared" ref="A3320:A3383" si="105">A3319+1</f>
         <v>3319</v>
       </c>
       <c r="B3320" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3320" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3320" s="6" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E3320" t="str">
+        <f t="shared" si="104"/>
+        <v>("3319","9","renameFileOrFolder","Renombrar archivo o carpeta"),</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3321">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3320</v>
       </c>
       <c r="B3321" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3321" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D3321" s="6" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E3321" t="str">
+        <f t="shared" ref="E3321:E3384" si="106">CONCATENATE("(",CHAR(34),A3321,CHAR(34),",",CHAR(34),B3321,CHAR(34),",",CHAR(34),C3321,CHAR(34),",",CHAR(34),D3321,CHAR(34),"),")</f>
+        <v>("3320","10","renameFileOrFolder","إعادة تسمية الملف أو المجلد"),</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3322">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3321</v>
       </c>
       <c r="B3322" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3322" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3322" s="6" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E3322" t="str">
+        <f t="shared" si="106"/>
+        <v>("3321","1","areYouSureToDeleteFile","Are you sure to delete file?"),</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3323">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3322</v>
       </c>
       <c r="B3323" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3323" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3323" s="6" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E3323" t="str">
+        <f t="shared" si="106"/>
+        <v>("3322","2","areYouSureToDeleteFile","கோப்பை நிச்சயமாக நீக்க வேண்டுமா?"),</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3324">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3323</v>
       </c>
       <c r="B3324" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3324" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3324" s="6" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E3324" t="str">
+        <f t="shared" si="106"/>
+        <v>("3323","3","areYouSureToDeleteFile","Êtes-vous sûr de vouloir supprimer le fichier ?"),</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3325">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3324</v>
       </c>
       <c r="B3325" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3325" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3325" s="6" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E3325" t="str">
+        <f t="shared" si="106"/>
+        <v>("3324","4","areYouSureToDeleteFile","您确定要删除文件吗？"),</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3326">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3325</v>
       </c>
       <c r="B3326" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3326" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3326" s="6" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E3326" t="str">
+        <f t="shared" si="106"/>
+        <v>("3325","5","areYouSureToDeleteFile","本当にファイルを削除しますか?"),</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3327">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3326</v>
       </c>
       <c r="B3327" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3327" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3327" s="6" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E3327" t="str">
+        <f t="shared" si="106"/>
+        <v>("3326","6","areYouSureToDeleteFile","Tem certeza de excluir o arquivo?"),</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3328">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3327</v>
       </c>
       <c r="B3328" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3328" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3328" s="6" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E3328" t="str">
+        <f t="shared" si="106"/>
+        <v>("3327","7","areYouSureToDeleteFile","क्या आप निश्चित रूप से फ़ाइल हटाना चाहते हैं?"),</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3329">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3328</v>
       </c>
       <c r="B3329" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3329" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3329" s="6" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E3329" t="str">
+        <f t="shared" si="106"/>
+        <v>("3328","8","areYouSureToDeleteFile","Вы уверены, что хотите удалить файл?"),</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3330">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3329</v>
       </c>
       <c r="B3330" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3330" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3330" s="6" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E3330" t="str">
+        <f t="shared" si="106"/>
+        <v>("3329","9","areYouSureToDeleteFile","¿Estás seguro de eliminar el archivo?"),</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3331">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3330</v>
       </c>
       <c r="B3331" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3331" s="15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D3331" s="6" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E3331" t="str">
+        <f t="shared" si="106"/>
+        <v>("3330","10","areYouSureToDeleteFile","هل أنت متأكد من حذف الملف؟"),</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3332">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3331</v>
       </c>
       <c r="B3332" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3332" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3332" s="6" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E3332" t="str">
+        <f t="shared" si="106"/>
+        <v>("3331","1","areYouSureToDeleteFolder","Are you sure to delete folder?"),</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3333">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3332</v>
       </c>
       <c r="B3333" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3333" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3333" s="6" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E3333" t="str">
+        <f t="shared" si="106"/>
+        <v>("3332","2","areYouSureToDeleteFolder","கோப்புறையை நிச்சயமாக நீக்கவா?"),</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3334">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3333</v>
       </c>
       <c r="B3334" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3334" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3334" s="6" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E3334" t="str">
+        <f t="shared" si="106"/>
+        <v>("3333","3","areYouSureToDeleteFolder","Êtes-vous sûr de vouloir supprimer le dossier ?"),</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3335">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3334</v>
       </c>
       <c r="B3335" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3335" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3335" s="6" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E3335" t="str">
+        <f t="shared" si="106"/>
+        <v>("3334","4","areYouSureToDeleteFolder","您确定要删除文件夹吗？"),</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3336">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3335</v>
       </c>
       <c r="B3336" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3336" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3336" s="6" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E3336" t="str">
+        <f t="shared" si="106"/>
+        <v>("3335","5","areYouSureToDeleteFolder","フォルダを削除してもよろしいですか?"),</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3337">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3336</v>
       </c>
       <c r="B3337" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3337" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3337" s="6" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E3337" t="str">
+        <f t="shared" si="106"/>
+        <v>("3336","6","areYouSureToDeleteFolder","Tem certeza de excluir a pasta?"),</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3338">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3337</v>
       </c>
       <c r="B3338" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3338" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3338" s="6" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E3338" t="str">
+        <f t="shared" si="106"/>
+        <v>("3337","7","areYouSureToDeleteFolder","क्या आप निश्चित रूप से फ़ोल्डर हटाना चाहते हैं?"),</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3339">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3338</v>
       </c>
       <c r="B3339" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3339" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3339" s="6" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E3339" t="str">
+        <f t="shared" si="106"/>
+        <v>("3338","8","areYouSureToDeleteFolder","Вы уверены, что хотите удалить папку?"),</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3340">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3339</v>
       </c>
       <c r="B3340" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3340" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3340" s="6" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E3340" t="str">
+        <f t="shared" si="106"/>
+        <v>("3339","9","areYouSureToDeleteFolder","¿Estás seguro de eliminar la carpeta?"),</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3341">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3340</v>
       </c>
       <c r="B3341" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="3342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3341" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3341" s="6" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E3341" t="str">
+        <f t="shared" si="106"/>
+        <v>("3340","10","areYouSureToDeleteFolder","هل أنت متأكد من حذف المجلد؟"),</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3342">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3341</v>
       </c>
       <c r="B3342" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3342" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3342" s="15" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E3342" t="str">
+        <f t="shared" si="106"/>
+        <v>("3341","1","fileSuccessfullyDeleted","File successfully deleted"),</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3343">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3342</v>
       </c>
       <c r="B3343" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="3344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3343" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3343" s="6" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E3343" t="str">
+        <f t="shared" si="106"/>
+        <v>("3342","2","fileSuccessfullyDeleted","கோப்பு வெற்றிகரமாக நீக்கப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3344">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3343</v>
       </c>
       <c r="B3344" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3344" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3344" s="6" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E3344" t="str">
+        <f t="shared" si="106"/>
+        <v>("3343","3","fileSuccessfullyDeleted","Fichier supprimé avec succès"),</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3345">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3344</v>
       </c>
       <c r="B3345" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3345" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3345" s="6" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E3345" t="str">
+        <f t="shared" si="106"/>
+        <v>("3344","4","fileSuccessfullyDeleted","文件已成功删除"),</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3346">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3345</v>
       </c>
       <c r="B3346" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="3347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3346" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3346" s="6" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E3346" t="str">
+        <f t="shared" si="106"/>
+        <v>("3345","5","fileSuccessfullyDeleted","ファイルが正常に削除されました"),</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3347">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3346</v>
       </c>
       <c r="B3347" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3347" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3347" s="6" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E3347" t="str">
+        <f t="shared" si="106"/>
+        <v>("3346","6","fileSuccessfullyDeleted","Arquivo excluído com sucesso"),</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3348">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3347</v>
       </c>
       <c r="B3348" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3348" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3348" s="6" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E3348" t="str">
+        <f t="shared" si="106"/>
+        <v>("3347","7","fileSuccessfullyDeleted","फ़ाइल सफलतापूर्वक हटाई गई"),</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3349">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3348</v>
       </c>
       <c r="B3349" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="3350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3349" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3349" s="6" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E3349" t="str">
+        <f t="shared" si="106"/>
+        <v>("3348","8","fileSuccessfullyDeleted","Файл успешно удален"),</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3350">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3349</v>
       </c>
       <c r="B3350" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="3351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3350" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3350" s="6" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E3350" t="str">
+        <f t="shared" si="106"/>
+        <v>("3349","9","fileSuccessfullyDeleted","Archivo eliminado con éxito"),</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3351">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3350</v>
       </c>
       <c r="B3351" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3351" s="15" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D3351" s="6" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E3351" t="str">
+        <f t="shared" si="106"/>
+        <v>("3350","10","fileSuccessfullyDeleted","تم حذف الملف بنجاح"),</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3352">
+        <f t="shared" si="105"/>
+        <v>3351</v>
+      </c>
+      <c r="B3352" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3352" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3352" s="15" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E3352" t="str">
+        <f t="shared" si="106"/>
+        <v>("3351","1","folderSuccessfullyDeleted","Folder successfully deleted"),</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3353">
+        <f t="shared" si="105"/>
+        <v>3352</v>
+      </c>
+      <c r="B3353" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3353" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3353" s="6" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E3353" t="str">
+        <f t="shared" si="106"/>
+        <v>("3352","2","folderSuccessfullyDeleted","கோப்புறை வெற்றிகரமாக நீக்கப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3354">
+        <f t="shared" si="105"/>
+        <v>3353</v>
+      </c>
+      <c r="B3354" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3354" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3354" s="6" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E3354" t="str">
+        <f t="shared" si="106"/>
+        <v>("3353","3","folderSuccessfullyDeleted","Dossier supprimé avec succès"),</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3355">
+        <f t="shared" si="105"/>
+        <v>3354</v>
+      </c>
+      <c r="B3355" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3355" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3355" s="6" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E3355" t="str">
+        <f t="shared" si="106"/>
+        <v>("3354","4","folderSuccessfullyDeleted","文件夹已成功删除"),</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3356">
+        <f t="shared" si="105"/>
+        <v>3355</v>
+      </c>
+      <c r="B3356" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3356" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3356" s="6" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E3356" t="str">
+        <f t="shared" si="106"/>
+        <v>("3355","5","folderSuccessfullyDeleted","フォルダが正常に削除されました"),</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3357">
+        <f t="shared" si="105"/>
+        <v>3356</v>
+      </c>
+      <c r="B3357" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3357" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3357" s="6" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E3357" t="str">
+        <f t="shared" si="106"/>
+        <v>("3356","6","folderSuccessfullyDeleted","Pasta excluída com sucesso"),</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3358">
+        <f t="shared" si="105"/>
+        <v>3357</v>
+      </c>
+      <c r="B3358" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3358" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3358" s="6" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E3358" t="str">
+        <f t="shared" si="106"/>
+        <v>("3357","7","folderSuccessfullyDeleted","फ़ोल्डर सफलतापूर्वक हटा दिया गया"),</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3359">
+        <f t="shared" si="105"/>
+        <v>3358</v>
+      </c>
+      <c r="B3359" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3359" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3359" s="6" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E3359" t="str">
+        <f t="shared" si="106"/>
+        <v>("3358","8","folderSuccessfullyDeleted","Pasta excluída com sucesso"),</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3360">
+        <f t="shared" si="105"/>
+        <v>3359</v>
+      </c>
+      <c r="B3360" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3360" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3360" s="6" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E3360" t="str">
+        <f t="shared" si="106"/>
+        <v>("3359","9","folderSuccessfullyDeleted","Carpeta eliminada con éxito"),</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3361">
+        <f t="shared" si="105"/>
+        <v>3360</v>
+      </c>
+      <c r="B3361" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3361" s="15" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3361" s="6" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E3361" t="str">
+        <f t="shared" si="106"/>
+        <v>("3360","10","folderSuccessfullyDeleted","تم حذف المجلد بنجاح"),</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3362">
+        <f t="shared" si="105"/>
+        <v>3361</v>
+      </c>
+      <c r="B3362" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3362" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3362" s="15" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E3362" t="str">
+        <f t="shared" si="106"/>
+        <v>("3361","1","unableToDeleteFileOrfolder","Unable to delete file or folder"),</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3363">
+        <f t="shared" si="105"/>
+        <v>3362</v>
+      </c>
+      <c r="B3363" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3363" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3363" s="6" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E3363" t="str">
+        <f t="shared" si="106"/>
+        <v>("3362","2","unableToDeleteFileOrfolder","கோப்பு அல்லது கோப்புறையை நீக்க முடியவில்லை!"),</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3364">
+        <f t="shared" si="105"/>
+        <v>3363</v>
+      </c>
+      <c r="B3364" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3364" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3364" s="6" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E3364" t="str">
+        <f t="shared" si="106"/>
+        <v>("3363","3","unableToDeleteFileOrfolder","Impossible de supprimer le fichier ou le dossier !"),</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3365">
+        <f t="shared" si="105"/>
+        <v>3364</v>
+      </c>
+      <c r="B3365" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3365" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3365" s="6" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E3365" t="str">
+        <f t="shared" si="106"/>
+        <v>("3364","4","unableToDeleteFileOrfolder","无法删除文件或文件夹！"),</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3366">
+        <f t="shared" si="105"/>
+        <v>3365</v>
+      </c>
+      <c r="B3366" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3366" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3366" s="6" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E3366" t="str">
+        <f t="shared" si="106"/>
+        <v>("3365","5","unableToDeleteFileOrfolder","ファイルまたはフォルダを削除できません!"),</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3367">
+        <f t="shared" si="105"/>
+        <v>3366</v>
+      </c>
+      <c r="B3367" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3367" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3367" s="6" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E3367" t="str">
+        <f t="shared" si="106"/>
+        <v>("3366","6","unableToDeleteFileOrfolder","Não é possível excluir arquivo ou pasta!"),</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3368">
+        <f t="shared" si="105"/>
+        <v>3367</v>
+      </c>
+      <c r="B3368" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3368" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3368" s="6" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E3368" t="str">
+        <f t="shared" si="106"/>
+        <v>("3367","7","unableToDeleteFileOrfolder","फ़ाइल या फ़ोल्डर को हटाने में असमर्थ!"),</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3369">
+        <f t="shared" si="105"/>
+        <v>3368</v>
+      </c>
+      <c r="B3369" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3369" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3369" s="6" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E3369" t="str">
+        <f t="shared" si="106"/>
+        <v>("3368","8","unableToDeleteFileOrfolder","Невозможно удалить файл или папку!"),</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3370">
+        <f t="shared" si="105"/>
+        <v>3369</v>
+      </c>
+      <c r="B3370" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3370" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3370" s="6" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E3370" t="str">
+        <f t="shared" si="106"/>
+        <v>("3369","9","unableToDeleteFileOrfolder","¡No se puede eliminar el archivo o la carpeta!"),</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3371">
+        <f t="shared" si="105"/>
+        <v>3370</v>
+      </c>
+      <c r="B3371" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3371" s="15" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D3371" s="6" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E3371" t="str">
+        <f t="shared" si="106"/>
+        <v>("3370","10","unableToDeleteFileOrfolder","تعذر حذف الملف أو المجلد!"),</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3372">
+        <f t="shared" si="105"/>
+        <v>3371</v>
+      </c>
+      <c r="B3372" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3372" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3372" s="15" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E3372" t="str">
+        <f t="shared" si="106"/>
+        <v>("3371","1","fileRenamedSuccessfully","File renamed successfully"),</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3373">
+        <f t="shared" si="105"/>
+        <v>3372</v>
+      </c>
+      <c r="B3373" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3373" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3373" s="15" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E3373" t="str">
+        <f t="shared" si="106"/>
+        <v>("3372","2","fileRenamedSuccessfully","கோப்பு வெற்றிகரமாக மறுபெயரிடப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3374">
+        <f t="shared" si="105"/>
+        <v>3373</v>
+      </c>
+      <c r="B3374" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3374" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3374" s="6" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E3374" t="str">
+        <f t="shared" si="106"/>
+        <v>("3373","3","fileRenamedSuccessfully","Fichier renommé avec succès"),</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3375">
+        <f t="shared" si="105"/>
+        <v>3374</v>
+      </c>
+      <c r="B3375" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3375" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3375" s="6" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E3375" t="str">
+        <f t="shared" si="106"/>
+        <v>("3374","4","fileRenamedSuccessfully","文件重命名成功"),</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3376">
+        <f t="shared" si="105"/>
+        <v>3375</v>
+      </c>
+      <c r="B3376" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3376" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3376" s="6" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E3376" t="str">
+        <f t="shared" si="106"/>
+        <v>("3375","5","fileRenamedSuccessfully","ファイルの名前が正常に変更されました"),</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3377">
+        <f t="shared" si="105"/>
+        <v>3376</v>
+      </c>
+      <c r="B3377" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3377" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3377" s="6" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E3377" t="str">
+        <f t="shared" si="106"/>
+        <v>("3376","6","fileRenamedSuccessfully","Arquivo renomeado com sucesso"),</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3378">
+        <f t="shared" si="105"/>
+        <v>3377</v>
+      </c>
+      <c r="B3378" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3378" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3378" s="6" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E3378" t="str">
+        <f t="shared" si="106"/>
+        <v>("3377","7","fileRenamedSuccessfully","फ़ाइल का नाम सफलतापूर्वक बदल दिया गया"),</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3379">
+        <f t="shared" si="105"/>
+        <v>3378</v>
+      </c>
+      <c r="B3379" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3379" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3379" s="6" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E3379" t="str">
+        <f t="shared" si="106"/>
+        <v>("3378","8","fileRenamedSuccessfully","Файл успешно переименован"),</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3380">
+        <f t="shared" si="105"/>
+        <v>3379</v>
+      </c>
+      <c r="B3380" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3380" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3380" s="6" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E3380" t="str">
+        <f t="shared" si="106"/>
+        <v>("3379","9","fileRenamedSuccessfully","Archivo renombrado con éxito"),</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3381">
+        <f t="shared" si="105"/>
+        <v>3380</v>
+      </c>
+      <c r="B3381" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3381" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3381" s="6" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E3381" t="str">
+        <f t="shared" si="106"/>
+        <v>("3380","10","fileRenamedSuccessfully","تمت إعادة تسمية الملف بنجاح"),</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3382">
+        <f t="shared" si="105"/>
+        <v>3381</v>
+      </c>
+      <c r="B3382" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3382" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3382" s="15" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E3382" t="str">
+        <f t="shared" si="106"/>
+        <v>("3381","1","folderRenamedSuccessfully","Folder renamed successfully"),</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3383">
+        <f t="shared" si="105"/>
+        <v>3382</v>
+      </c>
+      <c r="B3383" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3383" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3383" s="6" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E3383" t="str">
+        <f t="shared" si="106"/>
+        <v>("3382","2","folderRenamedSuccessfully","கோப்புறை வெற்றிகரமாக மறுபெயரிடப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3384">
+        <f t="shared" ref="A3384:A3447" si="107">A3383+1</f>
+        <v>3383</v>
+      </c>
+      <c r="B3384" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3384" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3384" s="6" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E3384" t="str">
+        <f t="shared" si="106"/>
+        <v>("3383","3","folderRenamedSuccessfully","Dossier renommé avec succès"),</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3385">
+        <f t="shared" si="107"/>
+        <v>3384</v>
+      </c>
+      <c r="B3385" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3385" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3385" s="6" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E3385" t="str">
+        <f t="shared" ref="E3385:E3448" si="108">CONCATENATE("(",CHAR(34),A3385,CHAR(34),",",CHAR(34),B3385,CHAR(34),",",CHAR(34),C3385,CHAR(34),",",CHAR(34),D3385,CHAR(34),"),")</f>
+        <v>("3384","4","folderRenamedSuccessfully","文件夹重命名成功"),</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3386">
+        <f t="shared" si="107"/>
+        <v>3385</v>
+      </c>
+      <c r="B3386" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3386" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3386" s="6" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E3386" t="str">
+        <f t="shared" si="108"/>
+        <v>("3385","5","folderRenamedSuccessfully","フォルダの名前が正常に変更されました"),</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3387">
+        <f t="shared" si="107"/>
+        <v>3386</v>
+      </c>
+      <c r="B3387" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3387" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3387" s="6" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E3387" t="str">
+        <f t="shared" si="108"/>
+        <v>("3386","6","folderRenamedSuccessfully","Pasta renomeada com sucesso"),</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3388">
+        <f t="shared" si="107"/>
+        <v>3387</v>
+      </c>
+      <c r="B3388" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3388" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3388" s="6" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E3388" t="str">
+        <f t="shared" si="108"/>
+        <v>("3387","7","folderRenamedSuccessfully","फ़ोल्डर का नाम सफलतापूर्वक बदल दिया गया"),</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3389">
+        <f t="shared" si="107"/>
+        <v>3388</v>
+      </c>
+      <c r="B3389" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3389" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3389" s="6" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E3389" t="str">
+        <f t="shared" si="108"/>
+        <v>("3388","8","folderRenamedSuccessfully","Папка успешно переименована"),</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3390">
+        <f t="shared" si="107"/>
+        <v>3389</v>
+      </c>
+      <c r="B3390" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3390" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3390" s="6" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E3390" t="str">
+        <f t="shared" si="108"/>
+        <v>("3389","9","folderRenamedSuccessfully","Carpeta renombrada con éxito"),</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3391">
+        <f t="shared" si="107"/>
+        <v>3390</v>
+      </c>
+      <c r="B3391" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3391" s="15" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D3391" s="6" t="s">
+        <v>3525</v>
+      </c>
+      <c r="E3391" t="str">
+        <f t="shared" si="108"/>
+        <v>("3390","10","folderRenamedSuccessfully","تمت إعادة تسمية المجلد بنجاح"),</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3392">
+        <f t="shared" si="107"/>
+        <v>3391</v>
+      </c>
+      <c r="B3392" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3392" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3392" s="6" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E3392" t="str">
+        <f t="shared" si="108"/>
+        <v>("3391","1","unableToRenameFile","Unable to rename file. Please try again later."),</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3393">
+        <f t="shared" si="107"/>
+        <v>3392</v>
+      </c>
+      <c r="B3393" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3393" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3393" s="6" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E3393" t="str">
+        <f t="shared" si="108"/>
+        <v>("3392","2","unableToRenameFile","கோப்பை மறுபெயரிட முடியவில்லை. பிறகு முயற்சிக்கவும்."),</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3394">
+        <f t="shared" si="107"/>
+        <v>3393</v>
+      </c>
+      <c r="B3394" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3394" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3394" s="6" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E3394" t="str">
+        <f t="shared" si="108"/>
+        <v>("3393","3","unableToRenameFile","Impossible de renommer le fichier. Veuillez réessayer plus tard."),</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3395">
+        <f t="shared" si="107"/>
+        <v>3394</v>
+      </c>
+      <c r="B3395" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3395" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3395" s="6" t="s">
+        <v>3533</v>
+      </c>
+      <c r="E3395" t="str">
+        <f t="shared" si="108"/>
+        <v>("3394","4","unableToRenameFile","无法重命名文件。 请稍后再试。"),</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3396">
+        <f t="shared" si="107"/>
+        <v>3395</v>
+      </c>
+      <c r="B3396" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3396" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3396" s="6" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E3396" t="str">
+        <f t="shared" si="108"/>
+        <v>("3395","5","unableToRenameFile","ファイルの名前を変更できません。 後でもう一度やり直してください。"),</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3397">
+        <f t="shared" si="107"/>
+        <v>3396</v>
+      </c>
+      <c r="B3397" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3397" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3397" s="6" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E3397" t="str">
+        <f t="shared" si="108"/>
+        <v>("3396","6","unableToRenameFile","Não foi possível renomear o arquivo. Por favor, tente novamente mais tarde."),</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3398">
+        <f t="shared" si="107"/>
+        <v>3397</v>
+      </c>
+      <c r="B3398" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3398" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3398" s="6" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E3398" t="str">
+        <f t="shared" si="108"/>
+        <v>("3397","7","unableToRenameFile","फ़ाइल का नाम बदलने में असमर्थ। बाद में पुन: प्रयास करें।"),</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3399">
+        <f t="shared" si="107"/>
+        <v>3398</v>
+      </c>
+      <c r="B3399" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3399" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3399" s="6" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E3399" t="str">
+        <f t="shared" si="108"/>
+        <v>("3398","8","unableToRenameFile","Невозможно переименовать файл. Пожалуйста, попробуйте позже."),</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3400">
+        <f t="shared" si="107"/>
+        <v>3399</v>
+      </c>
+      <c r="B3400" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3400" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3400" s="6" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E3400" t="str">
+        <f t="shared" si="108"/>
+        <v>("3399","9","unableToRenameFile","No se puede cambiar el nombre del archivo. Por favor, inténtelo de nuevo más tarde."),</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3401">
+        <f t="shared" si="107"/>
+        <v>3400</v>
+      </c>
+      <c r="B3401" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3401" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3401" s="6" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E3401" t="str">
+        <f t="shared" si="108"/>
+        <v>("3400","10","unableToRenameFile","غير قادر على إعادة تسمية الملف. الرجاء معاودة المحاولة في وقت لاحق."),</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3402">
+        <f t="shared" si="107"/>
+        <v>3401</v>
+      </c>
+      <c r="B3402" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3402" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3402" s="6" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E3402" t="str">
+        <f t="shared" si="108"/>
+        <v>("3401","1","unableToRenameFolder","Unable to rename folder. Please try again later."),</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3403">
+        <f t="shared" si="107"/>
+        <v>3402</v>
+      </c>
+      <c r="B3403" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3403" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3403" s="6" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E3403" t="str">
+        <f t="shared" si="108"/>
+        <v>("3402","2","unableToRenameFolder","கோப்புறையை மறுபெயரிட முடியவில்லை. பிறகு முயற்சிக்கவும்."),</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3404">
+        <f t="shared" si="107"/>
+        <v>3403</v>
+      </c>
+      <c r="B3404" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3404" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3404" s="6" t="s">
+        <v>3543</v>
+      </c>
+      <c r="E3404" t="str">
+        <f t="shared" si="108"/>
+        <v>("3403","3","unableToRenameFolder","Impossible de renommer le dossier. Veuillez réessayer plus tard."),</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3405">
+        <f t="shared" si="107"/>
+        <v>3404</v>
+      </c>
+      <c r="B3405" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3405" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3405" s="6" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E3405" t="str">
+        <f t="shared" si="108"/>
+        <v>("3404","4","unableToRenameFolder","无法重命名文件夹。 请稍后再试。"),</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3406">
+        <f t="shared" si="107"/>
+        <v>3405</v>
+      </c>
+      <c r="B3406" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3406" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3406" s="6" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E3406" t="str">
+        <f t="shared" si="108"/>
+        <v>("3405","5","unableToRenameFolder","フォルダの名前を変更できません。 後でもう一度やり直してください。"),</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3407">
+        <f t="shared" si="107"/>
+        <v>3406</v>
+      </c>
+      <c r="B3407" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3407" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3407" s="6" t="s">
+        <v>3540</v>
+      </c>
+      <c r="E3407" t="str">
+        <f t="shared" si="108"/>
+        <v>("3406","6","unableToRenameFolder","Não foi possível renomear a pasta. Por favor, tente novamente mais tarde."),</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3408">
+        <f t="shared" si="107"/>
+        <v>3407</v>
+      </c>
+      <c r="B3408" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3408" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3408" s="6" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E3408" t="str">
+        <f t="shared" si="108"/>
+        <v>("3407","7","unableToRenameFolder","फ़ोल्डर का नाम बदलने में असमर्थ। बाद में पुन: प्रयास करें।"),</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3409">
+        <f t="shared" si="107"/>
+        <v>3408</v>
+      </c>
+      <c r="B3409" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3409" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3409" s="6" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E3409" t="str">
+        <f t="shared" si="108"/>
+        <v>("3408","8","unableToRenameFolder","Невозможно переименовать папку. Пожалуйста, попробуйте позже."),</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3410">
+        <f t="shared" si="107"/>
+        <v>3409</v>
+      </c>
+      <c r="B3410" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3410" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3410" s="6" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E3410" t="str">
+        <f t="shared" si="108"/>
+        <v>("3409","9","unableToRenameFolder","No se puede cambiar el nombre de la carpeta. Por favor, inténtelo de nuevo más tarde."),</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3411">
+        <f t="shared" si="107"/>
+        <v>3410</v>
+      </c>
+      <c r="B3411" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3411" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D3411" s="6" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E3411" t="str">
+        <f t="shared" si="108"/>
+        <v>("3410","10","unableToRenameFolder","تعذر إعادة تسمية المجلد. الرجاء معاودة المحاولة في وقت لاحق."),</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3412">
+        <f t="shared" si="107"/>
+        <v>3411</v>
+      </c>
+      <c r="B3412" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3412" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3412" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E3412" t="str">
+        <f t="shared" si="108"/>
+        <v>("3411","1","fileUploadedSuccessfully","{file} uploaded successfully"),</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3413">
+        <f t="shared" si="107"/>
+        <v>3412</v>
+      </c>
+      <c r="B3413" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3413" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3413" s="6" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E3413" t="str">
+        <f t="shared" si="108"/>
+        <v>("3412","2","fileUploadedSuccessfully","{file} பதிவேற்றப்பட்டது"),</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3414">
+        <f t="shared" si="107"/>
+        <v>3413</v>
+      </c>
+      <c r="B3414" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3414" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3414" s="6" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E3414" t="str">
+        <f t="shared" si="108"/>
+        <v>("3413","3","fileUploadedSuccessfully","{file} téléchargé avec succès"),</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3415">
+        <f t="shared" si="107"/>
+        <v>3414</v>
+      </c>
+      <c r="B3415" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3415" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3415" s="6" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E3415" t="str">
+        <f t="shared" si="108"/>
+        <v>("3414","4","fileUploadedSuccessfully","{file} 上传成功"),</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3416">
+        <f t="shared" si="107"/>
+        <v>3415</v>
+      </c>
+      <c r="B3416" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3416" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3416" s="6" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E3416" t="str">
+        <f t="shared" si="108"/>
+        <v>("3415","5","fileUploadedSuccessfully","{file} が正常にアップロードされました"),</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3417">
+        <f t="shared" si="107"/>
+        <v>3416</v>
+      </c>
+      <c r="B3417" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3417" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3417" s="6" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E3417" t="str">
+        <f t="shared" si="108"/>
+        <v>("3416","6","fileUploadedSuccessfully","{file} enviado com sucesso"),</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3418">
+        <f t="shared" si="107"/>
+        <v>3417</v>
+      </c>
+      <c r="B3418" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3418" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3418" s="6" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E3418" t="str">
+        <f t="shared" si="108"/>
+        <v>("3417","7","fileUploadedSuccessfully","{file} सफलतापूर्वक अपलोड किया गया"),</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3419">
+        <f t="shared" si="107"/>
+        <v>3418</v>
+      </c>
+      <c r="B3419" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3419" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3419" s="6" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E3419" t="str">
+        <f t="shared" si="108"/>
+        <v>("3418","8","fileUploadedSuccessfully","{file} успешно загружено"),</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3420">
+        <f t="shared" si="107"/>
+        <v>3419</v>
+      </c>
+      <c r="B3420" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3420" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3420" s="6" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E3420" t="str">
+        <f t="shared" si="108"/>
+        <v>("3419","9","fileUploadedSuccessfully","{file} subido con éxito"),</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3421">
+        <f t="shared" si="107"/>
+        <v>3420</v>
+      </c>
+      <c r="B3421" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3421" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D3421" s="6" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E3421" t="str">
+        <f t="shared" si="108"/>
+        <v>("3420","10","fileUploadedSuccessfully","تم تحميل {file} بنجاح"),</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3422">
+        <f t="shared" si="107"/>
+        <v>3421</v>
+      </c>
+      <c r="B3422" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3422" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3422" s="16" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E3422" t="str">
+        <f t="shared" si="108"/>
+        <v>("3421","1","unableToUploadFilePleaseTryAgain","Unable to upload {file}. Please try again later."),</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3423">
+        <f t="shared" si="107"/>
+        <v>3422</v>
+      </c>
+      <c r="B3423" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3423" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3423" s="6" t="s">
+        <v>3561</v>
+      </c>
+      <c r="E3423" t="str">
+        <f t="shared" si="108"/>
+        <v>("3422","2","unableToUploadFilePleaseTryAgain","{file} ஐப் பதிவேற்ற முடியவில்லை. பிறகு முயற்சிக்கவும்."),</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3424">
+        <f t="shared" si="107"/>
+        <v>3423</v>
+      </c>
+      <c r="B3424" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3424" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3424" s="6" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E3424" t="str">
+        <f t="shared" si="108"/>
+        <v>("3423","3","unableToUploadFilePleaseTryAgain","Impossible de télécharger {file}. Veuillez réessayer plus tard."),</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3425">
+        <f t="shared" si="107"/>
+        <v>3424</v>
+      </c>
+      <c r="B3425" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3425" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3425" s="6" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E3425" t="str">
+        <f t="shared" si="108"/>
+        <v>("3424","4","unableToUploadFilePleaseTryAgain","无法上传 {file}。 请稍后再试。"),</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3426">
+        <f t="shared" si="107"/>
+        <v>3425</v>
+      </c>
+      <c r="B3426" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3426" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3426" s="6" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E3426" t="str">
+        <f t="shared" si="108"/>
+        <v>("3425","5","unableToUploadFilePleaseTryAgain","{file} をアップロードできません。 後でもう一度やり直してください。"),</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3427">
+        <f t="shared" si="107"/>
+        <v>3426</v>
+      </c>
+      <c r="B3427" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3427" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3427" s="6" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E3427" t="str">
+        <f t="shared" si="108"/>
+        <v>("3426","6","unableToUploadFilePleaseTryAgain","Não foi possível carregar {file}. Por favor, tente novamente mais tarde."),</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3428">
+        <f t="shared" si="107"/>
+        <v>3427</v>
+      </c>
+      <c r="B3428" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3428" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3428" s="6" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E3428" t="str">
+        <f t="shared" si="108"/>
+        <v>("3427","7","unableToUploadFilePleaseTryAgain","{file} अपलोड करने में असमर्थ। बाद में पुन: प्रयास करें।"),</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3429">
+        <f t="shared" si="107"/>
+        <v>3428</v>
+      </c>
+      <c r="B3429" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3429" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3429" s="6" t="s">
+        <v>3567</v>
+      </c>
+      <c r="E3429" t="str">
+        <f t="shared" si="108"/>
+        <v>("3428","8","unableToUploadFilePleaseTryAgain","Не удалось загрузить {file}. Пожалуйста, попробуйте позже."),</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3430">
+        <f t="shared" si="107"/>
+        <v>3429</v>
+      </c>
+      <c r="B3430" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3430" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3430" s="6" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E3430" t="str">
+        <f t="shared" si="108"/>
+        <v>("3429","9","unableToUploadFilePleaseTryAgain","No se puede cargar {file}. Por favor, inténtelo de nuevo más tarde."),</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3431">
+        <f t="shared" si="107"/>
+        <v>3430</v>
+      </c>
+      <c r="B3431" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3431" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D3431" s="6" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E3431" t="str">
+        <f t="shared" si="108"/>
+        <v>("3430","10","unableToUploadFilePleaseTryAgain","تعذر تحميل {file}. الرجاء معاودة المحاولة في وقت لاحق."),</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3432">
+        <f t="shared" si="107"/>
+        <v>3431</v>
+      </c>
+      <c r="B3432" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3432" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3432" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E3432" t="str">
+        <f t="shared" si="108"/>
+        <v>("3431","1","unableToStartUploadPleaseTryAgain","Unable to start upload. Please try again"),</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3433">
+        <f t="shared" si="107"/>
+        <v>3432</v>
+      </c>
+      <c r="B3433" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3433" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3433" s="6" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E3433" t="str">
+        <f t="shared" si="108"/>
+        <v>("3432","2","unableToStartUploadPleaseTryAgain","பதிவேற்றத்தைத் தொடங்க முடியவில்லை. தயவுசெய்து மீண்டும் முயற்சி செய்க"),</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3434">
+        <f t="shared" si="107"/>
+        <v>3433</v>
+      </c>
+      <c r="B3434" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3434" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3434" s="6" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E3434" t="str">
+        <f t="shared" si="108"/>
+        <v>("3433","3","unableToStartUploadPleaseTryAgain","Impossible de démarrer le téléchargement. Veuillez réessayer"),</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3435">
+        <f t="shared" si="107"/>
+        <v>3434</v>
+      </c>
+      <c r="B3435" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3435" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3435" s="6" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E3435" t="str">
+        <f t="shared" si="108"/>
+        <v>("3434","4","unableToStartUploadPleaseTryAgain","无法开始上传。 请再试一次"),</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3436">
+        <f t="shared" si="107"/>
+        <v>3435</v>
+      </c>
+      <c r="B3436" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3436" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3436" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="E3436" t="str">
+        <f t="shared" si="108"/>
+        <v>("3435","5","unableToStartUploadPleaseTryAgain","アップロードを開始できません。 もう一度お試しください"),</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3437">
+        <f t="shared" si="107"/>
+        <v>3436</v>
+      </c>
+      <c r="B3437" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3437" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3437" s="6" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E3437" t="str">
+        <f t="shared" si="108"/>
+        <v>("3436","6","unableToStartUploadPleaseTryAgain","Não foi possível iniciar o upload. Por favor, tente novamente"),</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3438">
+        <f t="shared" si="107"/>
+        <v>3437</v>
+      </c>
+      <c r="B3438" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3438" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3438" s="6" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E3438" t="str">
+        <f t="shared" si="108"/>
+        <v>("3437","7","unableToStartUploadPleaseTryAgain","अपलोड प्रारंभ करने में असमर्थ. कृपया पुन: प्रयास करें"),</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3439">
+        <f t="shared" si="107"/>
+        <v>3438</v>
+      </c>
+      <c r="B3439" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3439" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3439" s="6" t="s">
+        <v>3580</v>
+      </c>
+      <c r="E3439" t="str">
+        <f t="shared" si="108"/>
+        <v>("3438","8","unableToStartUploadPleaseTryAgain","Не удается начать загрузку. Пожалуйста, попробуйте еще раз"),</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3440">
+        <f t="shared" si="107"/>
+        <v>3439</v>
+      </c>
+      <c r="B3440" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3440" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3440" s="6" t="s">
+        <v>3573</v>
+      </c>
+      <c r="E3440" t="str">
+        <f t="shared" si="108"/>
+        <v>("3439","9","unableToStartUploadPleaseTryAgain","No se puede iniciar la carga. Inténtalo de nuevo"),</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3441">
+        <f t="shared" si="107"/>
+        <v>3440</v>
+      </c>
+      <c r="B3441" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3441" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D3441" s="6" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E3441" t="str">
+        <f t="shared" si="108"/>
+        <v>("3440","10","unableToStartUploadPleaseTryAgain","تعذر بدء التحميل. حاول مرة اخرى"),</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3442">
+        <f t="shared" si="107"/>
+        <v>3441</v>
+      </c>
+      <c r="B3442" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3442" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3442" t="s">
+        <v>3581</v>
+      </c>
+      <c r="E3442" t="str">
+        <f t="shared" si="108"/>
+        <v>("3441","1","configurationIsInvalid","configuration is invalid"),</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3443">
+        <f t="shared" si="107"/>
+        <v>3442</v>
+      </c>
+      <c r="B3443" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3443" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3443" s="6" t="s">
+        <v>3586</v>
+      </c>
+      <c r="E3443" t="str">
+        <f t="shared" si="108"/>
+        <v>("3442","2","configurationIsInvalid","கட்டமைப்பு தவறானது"),</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3444">
+        <f t="shared" si="107"/>
+        <v>3443</v>
+      </c>
+      <c r="B3444" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3444" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3444" s="6" t="s">
+        <v>3587</v>
+      </c>
+      <c r="E3444" t="str">
+        <f t="shared" si="108"/>
+        <v>("3443","3","configurationIsInvalid","la configuration n'est pas valide"),</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3445">
+        <f t="shared" si="107"/>
+        <v>3444</v>
+      </c>
+      <c r="B3445" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3445" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3445" s="6" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E3445" t="str">
+        <f t="shared" si="108"/>
+        <v>("3444","4","configurationIsInvalid","配置无效"),</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3446">
+        <f t="shared" si="107"/>
+        <v>3445</v>
+      </c>
+      <c r="B3446" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3446" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3446" s="6" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E3446" t="str">
+        <f t="shared" si="108"/>
+        <v>("3445","5","configurationIsInvalid","構成が無効です"),</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3447">
+        <f t="shared" si="107"/>
+        <v>3446</v>
+      </c>
+      <c r="B3447" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3447" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3447" s="6" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E3447" t="str">
+        <f t="shared" si="108"/>
+        <v>("3446","6","configurationIsInvalid","a configuração é inválida"),</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3448">
+        <f t="shared" ref="A3448:A3511" si="109">A3447+1</f>
+        <v>3447</v>
+      </c>
+      <c r="B3448" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3448" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3448" s="6" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E3448" t="str">
+        <f t="shared" si="108"/>
+        <v>("3447","7","configurationIsInvalid","विन्यास अमान्य है"),</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3449">
+        <f t="shared" si="109"/>
+        <v>3448</v>
+      </c>
+      <c r="B3449" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3449" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3449" s="6" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E3449" t="str">
+        <f t="shared" ref="E3449:E3501" si="110">CONCATENATE("(",CHAR(34),A3449,CHAR(34),",",CHAR(34),B3449,CHAR(34),",",CHAR(34),C3449,CHAR(34),",",CHAR(34),D3449,CHAR(34),"),")</f>
+        <v>("3448","8","configurationIsInvalid","конфигурация недействительна"),</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3450">
+        <f t="shared" si="109"/>
+        <v>3449</v>
+      </c>
+      <c r="B3450" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3450" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3450" s="6" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E3450" t="str">
+        <f t="shared" si="110"/>
+        <v>("3449","9","configurationIsInvalid","la configuración no es válida"),</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3451">
+        <f t="shared" si="109"/>
+        <v>3450</v>
+      </c>
+      <c r="B3451" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3451" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D3451" s="6" t="s">
+        <v>3591</v>
+      </c>
+      <c r="E3451" t="str">
+        <f t="shared" si="110"/>
+        <v>("3450","10","configurationIsInvalid","التكوين غير صالح"),</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3452">
+        <f t="shared" si="109"/>
+        <v>3451</v>
+      </c>
+      <c r="B3452" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3452" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3452" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E3452" t="str">
+        <f t="shared" si="110"/>
+        <v>("3451","1","pleaseCheckConnectionParameters","Please check you have correctly configured connection parameters!"),</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3453">
+        <f t="shared" si="109"/>
+        <v>3452</v>
+      </c>
+      <c r="B3453" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3453" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3453" s="6" t="s">
+        <v>3597</v>
+      </c>
+      <c r="E3453" t="str">
+        <f t="shared" si="110"/>
+        <v>("3452","2","pleaseCheckConnectionParameters","நீங்கள் சரியாக உள்ளமைக்கப்பட்ட இணைப்பு அளவுருக்களை சரிபார்க்கவும்!"),</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3454">
+        <f t="shared" si="109"/>
+        <v>3453</v>
+      </c>
+      <c r="B3454" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3454" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3454" s="6" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E3454" t="str">
+        <f t="shared" si="110"/>
+        <v>("3453","3","pleaseCheckConnectionParameters","Veuillez vérifier que vous avez correctement configuré les paramètres de connexion !"),</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3455">
+        <f t="shared" si="109"/>
+        <v>3454</v>
+      </c>
+      <c r="B3455" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3455" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3455" s="6" t="s">
+        <v>3599</v>
+      </c>
+      <c r="E3455" t="str">
+        <f t="shared" si="110"/>
+        <v>("3454","4","pleaseCheckConnectionParameters","请检查您是否正确配置了连接参数！"),</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3456">
+        <f t="shared" si="109"/>
+        <v>3455</v>
+      </c>
+      <c r="B3456" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3456" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3456" s="6" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E3456" t="str">
+        <f t="shared" si="110"/>
+        <v>("3455","5","pleaseCheckConnectionParameters","接続パラメータが正しく設定されていることを確認してください!"),</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3457">
+        <f t="shared" si="109"/>
+        <v>3456</v>
+      </c>
+      <c r="B3457" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3457" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3457" s="6" t="s">
+        <v>3601</v>
+      </c>
+      <c r="E3457" t="str">
+        <f t="shared" si="110"/>
+        <v>("3456","6","pleaseCheckConnectionParameters","Verifique se você configurou os parâmetros de conexão corretamente!"),</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3458">
+        <f t="shared" si="109"/>
+        <v>3457</v>
+      </c>
+      <c r="B3458" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3458" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3458" s="6" t="s">
+        <v>3596</v>
+      </c>
+      <c r="E3458" t="str">
+        <f t="shared" si="110"/>
+        <v>("3457","7","pleaseCheckConnectionParameters","कृपया जांचें कि आपने कनेक्शन पैरामीटर सही ढंग से कॉन्फ़िगर किए हैं!"),</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3459">
+        <f t="shared" si="109"/>
+        <v>3458</v>
+      </c>
+      <c r="B3459" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3459" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3459" s="6" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E3459" t="str">
+        <f t="shared" si="110"/>
+        <v>("3458","8","pleaseCheckConnectionParameters","Пожалуйста, проверьте, правильно ли вы настроили параметры подключения!"),</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3460">
+        <f t="shared" si="109"/>
+        <v>3459</v>
+      </c>
+      <c r="B3460" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3460" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3460" s="6" t="s">
+        <v>3595</v>
+      </c>
+      <c r="E3460" t="str">
+        <f t="shared" si="110"/>
+        <v>("3459","9","pleaseCheckConnectionParameters","¡Compruebe que ha configurado correctamente los parámetros de conexión!"),</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3461">
+        <f t="shared" si="109"/>
+        <v>3460</v>
+      </c>
+      <c r="B3461" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3461" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3461" s="6" t="s">
+        <v>3594</v>
+      </c>
+      <c r="E3461" t="str">
+        <f t="shared" si="110"/>
+        <v>("3460","10","pleaseCheckConnectionParameters","يرجى التحقق من تكوين معلمات الاتصال بشكل صحيح!"),</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3462">
+        <f t="shared" si="109"/>
+        <v>3461</v>
+      </c>
+      <c r="B3462" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3462" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3462" t="s">
+        <v>3604</v>
+      </c>
+      <c r="E3462" t="str">
+        <f t="shared" si="110"/>
+        <v>("3461","1","dropFileOrfilesHere","Drop file or files here"),</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3463">
+        <f t="shared" si="109"/>
+        <v>3462</v>
+      </c>
+      <c r="B3463" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3463" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3463" s="6" t="s">
+        <v>3608</v>
+      </c>
+      <c r="E3463" t="str">
+        <f t="shared" si="110"/>
+        <v>("3462","2","dropFileOrfilesHere","கோப்பு அல்லது கோப்புகளை இங்கே விடவும்"),</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3464">
+        <f t="shared" si="109"/>
+        <v>3463</v>
+      </c>
+      <c r="B3464" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3464" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3464" s="6" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E3464" t="str">
+        <f t="shared" si="110"/>
+        <v>("3463","3","dropFileOrfilesHere","Déposez le ou les fichiers ici"),</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3465">
+        <f t="shared" si="109"/>
+        <v>3464</v>
+      </c>
+      <c r="B3465" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3465" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3465" s="6" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E3465" t="str">
+        <f t="shared" si="110"/>
+        <v>("3464","4","dropFileOrfilesHere","将一个或多个文件拖放到此处"),</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3466">
+        <f t="shared" si="109"/>
+        <v>3465</v>
+      </c>
+      <c r="B3466" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3466" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3466" s="6" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E3466" t="str">
+        <f t="shared" si="110"/>
+        <v>("3465","5","dropFileOrfilesHere","ここに 1 つまたは複数のファイルをドロップ"),</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3467">
+        <f t="shared" si="109"/>
+        <v>3466</v>
+      </c>
+      <c r="B3467" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3467" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3467" s="6" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E3467" t="str">
+        <f t="shared" si="110"/>
+        <v>("3466","6","dropFileOrfilesHere","Solte arquivo ou arquivos aqui"),</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3468">
+        <f t="shared" si="109"/>
+        <v>3467</v>
+      </c>
+      <c r="B3468" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3468" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3468" s="6" t="s">
+        <v>3611</v>
+      </c>
+      <c r="E3468" t="str">
+        <f t="shared" si="110"/>
+        <v>("3467","7","dropFileOrfilesHere","फ़ाइल या फ़ाइलें यहाँ ड्रॉप करें"),</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3469">
+        <f t="shared" si="109"/>
+        <v>3468</v>
+      </c>
+      <c r="B3469" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3469" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3469" s="6" t="s">
+        <v>3605</v>
+      </c>
+      <c r="E3469" t="str">
+        <f t="shared" si="110"/>
+        <v>("3468","8","dropFileOrfilesHere","Перетащите файл или файлы сюда"),</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3470">
+        <f t="shared" si="109"/>
+        <v>3469</v>
+      </c>
+      <c r="B3470" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3470" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3470" s="6" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E3470" t="str">
+        <f t="shared" si="110"/>
+        <v>("3469","9","dropFileOrfilesHere","Suelte el archivo o archivos aquí"),</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3471">
+        <f t="shared" si="109"/>
+        <v>3470</v>
+      </c>
+      <c r="B3471" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3471" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D3471" s="6" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E3471" t="str">
+        <f t="shared" si="110"/>
+        <v>("3470","10","dropFileOrfilesHere","قم بإسقاط الملف أو الملفات هنا"),</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3472">
+        <f t="shared" si="109"/>
+        <v>3471</v>
+      </c>
+      <c r="B3472" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3472" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3472" t="s">
+        <v>3614</v>
+      </c>
+      <c r="E3472" t="str">
+        <f t="shared" si="110"/>
+        <v>("3471","1","fileTypeNotAllowed","File type not allowed"),</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3473">
+        <f t="shared" si="109"/>
+        <v>3472</v>
+      </c>
+      <c r="B3473" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3473" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3473" s="6" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E3473" t="str">
+        <f t="shared" si="110"/>
+        <v>("3472","2","fileTypeNotAllowed","கோப்பு வகை அனுமதிக்கப்படவில்லை"),</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3474">
+        <f t="shared" si="109"/>
+        <v>3473</v>
+      </c>
+      <c r="B3474" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3474" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3474" s="6" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E3474" t="str">
+        <f t="shared" si="110"/>
+        <v>("3473","3","fileTypeNotAllowed","Type de fichier non autorisé"),</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3475">
+        <f t="shared" si="109"/>
+        <v>3474</v>
+      </c>
+      <c r="B3475" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3475" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3475" s="6" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E3475" t="str">
+        <f t="shared" si="110"/>
+        <v>("3474","4","fileTypeNotAllowed","不允许的文件类型"),</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3476">
+        <f t="shared" si="109"/>
+        <v>3475</v>
+      </c>
+      <c r="B3476" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3476" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3476" s="6" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E3476" t="str">
+        <f t="shared" si="110"/>
+        <v>("3475","5","fileTypeNotAllowed","ファイル形式は許可されていません"),</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3477">
+        <f t="shared" si="109"/>
+        <v>3476</v>
+      </c>
+      <c r="B3477" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3477" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3477" s="6" t="s">
+        <v>3623</v>
+      </c>
+      <c r="E3477" t="str">
+        <f t="shared" si="110"/>
+        <v>("3476","6","fileTypeNotAllowed","Tipo de arquivo não permitido"),</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3478">
+        <f t="shared" si="109"/>
+        <v>3477</v>
+      </c>
+      <c r="B3478" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3478" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3478" s="6" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E3478" t="str">
+        <f t="shared" si="110"/>
+        <v>("3477","7","fileTypeNotAllowed","फ़ाइल प्रकार की अनुमति नहीं है"),</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3479">
+        <f t="shared" si="109"/>
+        <v>3478</v>
+      </c>
+      <c r="B3479" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3479" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3479" s="6" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E3479" t="str">
+        <f t="shared" si="110"/>
+        <v>("3478","8","fileTypeNotAllowed","Недопустимый тип файла"),</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3480">
+        <f t="shared" si="109"/>
+        <v>3479</v>
+      </c>
+      <c r="B3480" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3480" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3480" s="6" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E3480" t="str">
+        <f t="shared" si="110"/>
+        <v>("3479","9","fileTypeNotAllowed","Tipo de archivo no permitido"),</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3481">
+        <f t="shared" si="109"/>
+        <v>3480</v>
+      </c>
+      <c r="B3481" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3481" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D3481" s="6" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E3481" t="str">
+        <f t="shared" si="110"/>
+        <v>("3480","10","fileTypeNotAllowed","الملف المطبوع سري"),</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3482">
+        <f t="shared" si="109"/>
+        <v>3481</v>
+      </c>
+      <c r="B3482" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3482" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3482" t="s">
+        <v>3625</v>
+      </c>
+      <c r="E3482" t="str">
+        <f t="shared" si="110"/>
+        <v>("3481","1","selectaFolderToUploadFiles","Select a folder to upload files"),</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3483">
+        <f t="shared" si="109"/>
+        <v>3482</v>
+      </c>
+      <c r="B3483" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3483" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3483" s="6" t="s">
+        <v>3630</v>
+      </c>
+      <c r="E3483" t="str">
+        <f t="shared" si="110"/>
+        <v>("3482","2","selectaFolderToUploadFiles","கோப்புகளைப் பதிவேற்ற ஒரு கோப்புறையைத் தேர்ந்தெடுக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3484">
+        <f t="shared" si="109"/>
+        <v>3483</v>
+      </c>
+      <c r="B3484" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3484" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3484" s="6" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E3484" t="str">
+        <f t="shared" si="110"/>
+        <v>("3483","3","selectaFolderToUploadFiles","Sélectionnez un dossier pour télécharger des fichiers"),</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3485">
+        <f t="shared" si="109"/>
+        <v>3484</v>
+      </c>
+      <c r="B3485" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3485" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3485" s="6" t="s">
+        <v>3632</v>
+      </c>
+      <c r="E3485" t="str">
+        <f t="shared" si="110"/>
+        <v>("3484","4","selectaFolderToUploadFiles","选择要上传文件的文件夹"),</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3486">
+        <f t="shared" si="109"/>
+        <v>3485</v>
+      </c>
+      <c r="B3486" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3486" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3486" s="6" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E3486" t="str">
+        <f t="shared" si="110"/>
+        <v>("3485","5","selectaFolderToUploadFiles","ファイルをアップロードするフォルダを選択"),</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3487">
+        <f t="shared" si="109"/>
+        <v>3486</v>
+      </c>
+      <c r="B3487" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3487" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3487" s="6" t="s">
+        <v>3628</v>
+      </c>
+      <c r="E3487" t="str">
+        <f t="shared" si="110"/>
+        <v>("3486","6","selectaFolderToUploadFiles","Selecione uma pasta para fazer upload de arquivos"),</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3488">
+        <f t="shared" si="109"/>
+        <v>3487</v>
+      </c>
+      <c r="B3488" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3488" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3488" s="6" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E3488" t="str">
+        <f t="shared" si="110"/>
+        <v>("3487","7","selectaFolderToUploadFiles","फ़ाइलें अपलोड करने के लिए एक फ़ोल्डर का चयन करें"),</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3489">
+        <f t="shared" si="109"/>
+        <v>3488</v>
+      </c>
+      <c r="B3489" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3489" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3489" s="6" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E3489" t="str">
+        <f t="shared" si="110"/>
+        <v>("3488","8","selectaFolderToUploadFiles","Выберите папку для загрузки файлов"),</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3490">
+        <f t="shared" si="109"/>
+        <v>3489</v>
+      </c>
+      <c r="B3490" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3490" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3490" s="6" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E3490" t="str">
+        <f t="shared" si="110"/>
+        <v>("3489","9","selectaFolderToUploadFiles","Seleccione una carpeta para cargar archivos"),</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3491">
+        <f t="shared" si="109"/>
+        <v>3490</v>
+      </c>
+      <c r="B3491" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3491" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3491" s="6" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E3491" t="str">
+        <f t="shared" si="110"/>
+        <v>("3490","10","selectaFolderToUploadFiles","حدد مجلدا لتحميل الملفات"),</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3492">
+        <f t="shared" si="109"/>
+        <v>3491</v>
+      </c>
+      <c r="B3492" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3492" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3492" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E3492" t="str">
+        <f t="shared" si="110"/>
+        <v>("3491","1","dragFilesHere","Drag files here"),</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3493">
+        <f t="shared" si="109"/>
+        <v>3492</v>
+      </c>
+      <c r="B3493" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3493" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3493" s="6" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E3493" t="str">
+        <f t="shared" si="110"/>
+        <v>("3492","2","dragFilesHere","கோப்புகளை இங்கே இழுக்கவும்"),</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3494">
+        <f t="shared" si="109"/>
+        <v>3493</v>
+      </c>
+      <c r="B3494" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3494" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3494" s="6" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E3494" t="str">
+        <f t="shared" si="110"/>
+        <v>("3493","3","dragFilesHere","Déplacez des fichiers ici"),</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3495">
+        <f t="shared" si="109"/>
+        <v>3494</v>
+      </c>
+      <c r="B3495" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3495" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3495" s="6" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E3495" t="str">
+        <f t="shared" si="110"/>
+        <v>("3494","4","dragFilesHere","将文件拖到这里"),</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3496">
+        <f t="shared" si="109"/>
+        <v>3495</v>
+      </c>
+      <c r="B3496" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3496" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3496" s="6" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E3496" t="str">
+        <f t="shared" si="110"/>
+        <v>("3495","5","dragFilesHere","ここにファイルをドラッグ"),</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3497">
+        <f t="shared" si="109"/>
+        <v>3496</v>
+      </c>
+      <c r="B3497" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3497" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3497" s="6" t="s">
+        <v>3645</v>
+      </c>
+      <c r="E3497" t="str">
+        <f t="shared" si="110"/>
+        <v>("3496","6","dragFilesHere","Arraste os arquivos aqui"),</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3498">
+        <f t="shared" si="109"/>
+        <v>3497</v>
+      </c>
+      <c r="B3498" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3498" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3498" s="6" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E3498" t="str">
+        <f t="shared" si="110"/>
+        <v>("3497","7","dragFilesHere","फ़ाइलें यहां खींचें"),</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3499">
+        <f t="shared" si="109"/>
+        <v>3498</v>
+      </c>
+      <c r="B3499" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3499" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3499" s="6" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E3499" t="str">
+        <f t="shared" si="110"/>
+        <v>("3498","8","dragFilesHere","Перетащите файлы сюда"),</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3500">
+        <f t="shared" si="109"/>
+        <v>3499</v>
+      </c>
+      <c r="B3500" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3500" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3500" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E3500" t="str">
+        <f t="shared" si="110"/>
+        <v>("3499","9","dragFilesHere","Arrastre los archivos aquí"),</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3501">
+        <f t="shared" si="109"/>
+        <v>3500</v>
+      </c>
+      <c r="B3501" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3501" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3501" s="6" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3501" t="str">
+        <f t="shared" si="110"/>
+        <v>("3500","10","dragFilesHere","اسحب الملفات هنا"),</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3502">
+        <f t="shared" si="109"/>
+        <v>3501</v>
+      </c>
+      <c r="B3502" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3502" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3503">
+        <f t="shared" si="109"/>
+        <v>3502</v>
+      </c>
+      <c r="B3503" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3503" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3504">
+        <f t="shared" si="109"/>
+        <v>3503</v>
+      </c>
+      <c r="B3504" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3504" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3505">
+        <f t="shared" si="109"/>
+        <v>3504</v>
+      </c>
+      <c r="B3505" s="13">
+        <v>4</v>
+      </c>
+      <c r="E3505" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3506">
+        <f t="shared" si="109"/>
+        <v>3505</v>
+      </c>
+      <c r="B3506" s="13">
+        <v>5</v>
+      </c>
+      <c r="E3506" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3507">
+        <f t="shared" si="109"/>
+        <v>3506</v>
+      </c>
+      <c r="B3507" s="13">
+        <v>6</v>
+      </c>
+      <c r="E3507" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3508">
+        <f t="shared" si="109"/>
+        <v>3507</v>
+      </c>
+      <c r="B3508" s="13">
+        <v>7</v>
+      </c>
+      <c r="E3508" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3509">
+        <f t="shared" si="109"/>
+        <v>3508</v>
+      </c>
+      <c r="B3509" s="13">
+        <v>8</v>
+      </c>
+      <c r="E3509" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3510">
+        <f t="shared" si="109"/>
+        <v>3509</v>
+      </c>
+      <c r="B3510" s="13">
+        <v>9</v>
+      </c>
+      <c r="E3510" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3511">
+        <f t="shared" si="109"/>
+        <v>3510</v>
+      </c>
+      <c r="B3511" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3511" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3512">
+        <f t="shared" ref="A3512:A3575" si="111">A3511+1</f>
+        <v>3511</v>
+      </c>
+      <c r="B3512" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3513">
+        <f t="shared" si="111"/>
+        <v>3512</v>
+      </c>
+      <c r="B3513" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3514">
+        <f t="shared" si="111"/>
+        <v>3513</v>
+      </c>
+      <c r="B3514" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3515">
+        <f t="shared" si="111"/>
+        <v>3514</v>
+      </c>
+      <c r="B3515" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3516">
+        <f t="shared" si="111"/>
+        <v>3515</v>
+      </c>
+      <c r="B3516" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3517">
+        <f t="shared" si="111"/>
+        <v>3516</v>
+      </c>
+      <c r="B3517" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3518">
+        <f t="shared" si="111"/>
+        <v>3517</v>
+      </c>
+      <c r="B3518" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3519">
+        <f t="shared" si="111"/>
+        <v>3518</v>
+      </c>
+      <c r="B3519" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3520">
+        <f t="shared" si="111"/>
+        <v>3519</v>
+      </c>
+      <c r="B3520" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3521">
+        <f t="shared" si="111"/>
+        <v>3520</v>
+      </c>
+      <c r="B3521" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3522">
+        <f t="shared" si="111"/>
+        <v>3521</v>
+      </c>
+      <c r="B3522" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3523">
+        <f t="shared" si="111"/>
+        <v>3522</v>
+      </c>
+      <c r="B3523" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3524">
+        <f t="shared" si="111"/>
+        <v>3523</v>
+      </c>
+      <c r="B3524" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3525">
+        <f t="shared" si="111"/>
+        <v>3524</v>
+      </c>
+      <c r="B3525" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3526">
+        <f t="shared" si="111"/>
+        <v>3525</v>
+      </c>
+      <c r="B3526" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3527">
+        <f t="shared" si="111"/>
+        <v>3526</v>
+      </c>
+      <c r="B3527" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3528">
+        <f t="shared" si="111"/>
+        <v>3527</v>
+      </c>
+      <c r="B3528" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3529">
+        <f t="shared" si="111"/>
+        <v>3528</v>
+      </c>
+      <c r="B3529" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3530">
+        <f t="shared" si="111"/>
+        <v>3529</v>
+      </c>
+      <c r="B3530" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3531">
+        <f t="shared" si="111"/>
+        <v>3530</v>
+      </c>
+      <c r="B3531" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3532">
+        <f t="shared" si="111"/>
+        <v>3531</v>
+      </c>
+      <c r="B3532" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3533">
+        <f t="shared" si="111"/>
+        <v>3532</v>
+      </c>
+      <c r="B3533" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3534">
+        <f t="shared" si="111"/>
+        <v>3533</v>
+      </c>
+      <c r="B3534" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3535">
+        <f t="shared" si="111"/>
+        <v>3534</v>
+      </c>
+      <c r="B3535" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3536">
+        <f t="shared" si="111"/>
+        <v>3535</v>
+      </c>
+      <c r="B3536" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3537">
+        <f t="shared" si="111"/>
+        <v>3536</v>
+      </c>
+      <c r="B3537" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3538">
+        <f t="shared" si="111"/>
+        <v>3537</v>
+      </c>
+      <c r="B3538" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3539">
+        <f t="shared" si="111"/>
+        <v>3538</v>
+      </c>
+      <c r="B3539" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3540">
+        <f t="shared" si="111"/>
+        <v>3539</v>
+      </c>
+      <c r="B3540" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3541">
+        <f t="shared" si="111"/>
+        <v>3540</v>
+      </c>
+      <c r="B3541" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3542">
+        <f t="shared" si="111"/>
+        <v>3541</v>
+      </c>
+      <c r="B3542" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3543">
+        <f t="shared" si="111"/>
+        <v>3542</v>
+      </c>
+      <c r="B3543" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3544">
+        <f t="shared" si="111"/>
+        <v>3543</v>
+      </c>
+      <c r="B3544" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3545">
+        <f t="shared" si="111"/>
+        <v>3544</v>
+      </c>
+      <c r="B3545" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3546">
+        <f t="shared" si="111"/>
+        <v>3545</v>
+      </c>
+      <c r="B3546" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3547">
+        <f t="shared" si="111"/>
+        <v>3546</v>
+      </c>
+      <c r="B3547" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3548">
+        <f t="shared" si="111"/>
+        <v>3547</v>
+      </c>
+      <c r="B3548" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3549">
+        <f t="shared" si="111"/>
+        <v>3548</v>
+      </c>
+      <c r="B3549" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3550">
+        <f t="shared" si="111"/>
+        <v>3549</v>
+      </c>
+      <c r="B3550" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3551">
+        <f t="shared" si="111"/>
+        <v>3550</v>
+      </c>
+      <c r="B3551" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3552">
+        <f t="shared" si="111"/>
+        <v>3551</v>
+      </c>
+      <c r="B3552" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3553">
+        <f t="shared" si="111"/>
+        <v>3552</v>
+      </c>
+      <c r="B3553" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3554">
+        <f t="shared" si="111"/>
+        <v>3553</v>
+      </c>
+      <c r="B3554" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3555">
+        <f t="shared" si="111"/>
+        <v>3554</v>
+      </c>
+      <c r="B3555" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3556">
+        <f t="shared" si="111"/>
+        <v>3555</v>
+      </c>
+      <c r="B3556" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3557">
+        <f t="shared" si="111"/>
+        <v>3556</v>
+      </c>
+      <c r="B3557" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3558">
+        <f t="shared" si="111"/>
+        <v>3557</v>
+      </c>
+      <c r="B3558" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3559">
+        <f t="shared" si="111"/>
+        <v>3558</v>
+      </c>
+      <c r="B3559" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3560">
+        <f t="shared" si="111"/>
+        <v>3559</v>
+      </c>
+      <c r="B3560" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3561">
+        <f t="shared" si="111"/>
+        <v>3560</v>
+      </c>
+      <c r="B3561" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3562">
+        <f t="shared" si="111"/>
+        <v>3561</v>
+      </c>
+      <c r="B3562" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3563">
+        <f t="shared" si="111"/>
+        <v>3562</v>
+      </c>
+      <c r="B3563" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3564">
+        <f t="shared" si="111"/>
+        <v>3563</v>
+      </c>
+      <c r="B3564" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3565">
+        <f t="shared" si="111"/>
+        <v>3564</v>
+      </c>
+      <c r="B3565" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3566">
+        <f t="shared" si="111"/>
+        <v>3565</v>
+      </c>
+      <c r="B3566" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3567">
+        <f t="shared" si="111"/>
+        <v>3566</v>
+      </c>
+      <c r="B3567" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3568">
+        <f t="shared" si="111"/>
+        <v>3567</v>
+      </c>
+      <c r="B3568" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3569">
+        <f t="shared" si="111"/>
+        <v>3568</v>
+      </c>
+      <c r="B3569" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3570">
+        <f t="shared" si="111"/>
+        <v>3569</v>
+      </c>
+      <c r="B3570" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3571">
+        <f t="shared" si="111"/>
+        <v>3570</v>
+      </c>
+      <c r="B3571" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3572">
+        <f t="shared" si="111"/>
+        <v>3571</v>
+      </c>
+      <c r="B3572" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3573">
+        <f t="shared" si="111"/>
+        <v>3572</v>
+      </c>
+      <c r="B3573" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3574">
+        <f t="shared" si="111"/>
+        <v>3573</v>
+      </c>
+      <c r="B3574" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3575">
+        <f t="shared" si="111"/>
+        <v>3574</v>
+      </c>
+      <c r="B3575" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3576">
+        <f t="shared" ref="A3576:A3581" si="112">A3575+1</f>
+        <v>3575</v>
+      </c>
+      <c r="B3576" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3577">
+        <f t="shared" si="112"/>
+        <v>3576</v>
+      </c>
+      <c r="B3577" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3578">
+        <f t="shared" si="112"/>
+        <v>3577</v>
+      </c>
+      <c r="B3578" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3579">
+        <f t="shared" si="112"/>
+        <v>3578</v>
+      </c>
+      <c r="B3579" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3580">
+        <f t="shared" si="112"/>
+        <v>3579</v>
+      </c>
+      <c r="B3580" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3581">
+        <f t="shared" si="112"/>
+        <v>3580</v>
+      </c>
+      <c r="B3581" s="13">
         <v>10</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6566FA-ED49-FE40-9CD6-14AA30EF54F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6586577-6DF1-A242-B79D-EC58E5179EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="3647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="3648">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -9393,34 +9393,7 @@
     <t>معالجة</t>
   </si>
   <si>
-    <t>Clone from template</t>
-  </si>
-  <si>
     <t>cloneFromTemplate</t>
-  </si>
-  <si>
-    <t>استنساخ من قالب</t>
-  </si>
-  <si>
-    <t>Clonar de plantilla</t>
-  </si>
-  <si>
-    <t>Клонировать из шаблона</t>
-  </si>
-  <si>
-    <t>டெம்ப்ளேட்டிலிருந்து குளோன் செய்யுங்கள்</t>
-  </si>
-  <si>
-    <t>Cloner à partir du modèle</t>
-  </si>
-  <si>
-    <t>テンプレートから複製</t>
-  </si>
-  <si>
-    <t>Clonar do modelo</t>
-  </si>
-  <si>
-    <t>टेम्पलेट से क्लोन</t>
   </si>
   <si>
     <t>exportToValue</t>
@@ -10998,6 +10971,36 @@
   </si>
   <si>
     <t>Перетащите файлы сюда</t>
+  </si>
+  <si>
+    <t>Clone from template for next month</t>
+  </si>
+  <si>
+    <t>Клонировать из шаблона на следующий месяц</t>
+  </si>
+  <si>
+    <t>Clonar do modelo para o próximo mês</t>
+  </si>
+  <si>
+    <t>翌月のテンプレートから複製</t>
+  </si>
+  <si>
+    <t>அடுத்த மாதத்திற்கான டெம்ப்ளேட்டில் இருந்து நகலெடுக்கவும்</t>
+  </si>
+  <si>
+    <t>Copier du modèle pour le mois prochain</t>
+  </si>
+  <si>
+    <t>从模板复制下个月</t>
+  </si>
+  <si>
+    <t>अगले महीने के लिए टेम्पलेट से कॉपी करें</t>
+  </si>
+  <si>
+    <t>Copiar de la plantilla para el próximo mes</t>
+  </si>
+  <si>
+    <t>نسخ من النموذج للشهر القادم</t>
   </si>
 </sst>
 </file>
@@ -11564,7 +11567,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11588,6 +11591,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -11945,8 +11949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3483" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3504" sqref="D3504"/>
+    <sheetView tabSelected="1" topLeftCell="A3477" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3511" sqref="E3511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69182,14 +69186,14 @@
         <v>1</v>
       </c>
       <c r="C3012" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3012" t="s">
-        <v>3115</v>
+        <v>3638</v>
       </c>
       <c r="E3012" t="str">
         <f t="shared" si="96"/>
-        <v>("3011","1","cloneFromTemplate","Clone from template"),</v>
+        <v>("3011","1","cloneFromTemplate","Clone from template for next month"),</v>
       </c>
     </row>
     <row r="3013" spans="1:5" x14ac:dyDescent="0.2">
@@ -69201,14 +69205,14 @@
         <v>2</v>
       </c>
       <c r="C3013" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3013" t="s">
-        <v>3120</v>
+        <v>3642</v>
       </c>
       <c r="E3013" t="str">
         <f t="shared" si="96"/>
-        <v>("3012","2","cloneFromTemplate","டெம்ப்ளேட்டிலிருந்து குளோன் செய்யுங்கள்"),</v>
+        <v>("3012","2","cloneFromTemplate","அடுத்த மாதத்திற்கான டெம்ப்ளேட்டில் இருந்து நகலெடுக்கவும்"),</v>
       </c>
     </row>
     <row r="3014" spans="1:5" x14ac:dyDescent="0.2">
@@ -69220,14 +69224,14 @@
         <v>3</v>
       </c>
       <c r="C3014" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3014" t="s">
-        <v>3121</v>
+        <v>3643</v>
       </c>
       <c r="E3014" t="str">
         <f t="shared" si="96"/>
-        <v>("3013","3","cloneFromTemplate","Cloner à partir du modèle"),</v>
+        <v>("3013","3","cloneFromTemplate","Copier du modèle pour le mois prochain"),</v>
       </c>
     </row>
     <row r="3015" spans="1:5" x14ac:dyDescent="0.2">
@@ -69239,14 +69243,14 @@
         <v>4</v>
       </c>
       <c r="C3015" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3015" t="s">
-        <v>3121</v>
+        <v>3644</v>
       </c>
       <c r="E3015" t="str">
         <f t="shared" si="96"/>
-        <v>("3014","4","cloneFromTemplate","Cloner à partir du modèle"),</v>
+        <v>("3014","4","cloneFromTemplate","从模板复制下个月"),</v>
       </c>
     </row>
     <row r="3016" spans="1:5" x14ac:dyDescent="0.2">
@@ -69258,14 +69262,14 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3016" t="s">
-        <v>3122</v>
+        <v>3641</v>
       </c>
       <c r="E3016" t="str">
         <f t="shared" si="96"/>
-        <v>("3015","5","cloneFromTemplate","テンプレートから複製"),</v>
+        <v>("3015","5","cloneFromTemplate","翌月のテンプレートから複製"),</v>
       </c>
     </row>
     <row r="3017" spans="1:5" x14ac:dyDescent="0.2">
@@ -69277,14 +69281,14 @@
         <v>6</v>
       </c>
       <c r="C3017" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3017" t="s">
-        <v>3123</v>
+        <v>3640</v>
       </c>
       <c r="E3017" t="str">
         <f t="shared" si="96"/>
-        <v>("3016","6","cloneFromTemplate","Clonar do modelo"),</v>
+        <v>("3016","6","cloneFromTemplate","Clonar do modelo para o próximo mês"),</v>
       </c>
     </row>
     <row r="3018" spans="1:5" x14ac:dyDescent="0.2">
@@ -69296,14 +69300,14 @@
         <v>7</v>
       </c>
       <c r="C3018" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3018" t="s">
-        <v>3124</v>
+        <v>3645</v>
       </c>
       <c r="E3018" t="str">
         <f t="shared" si="96"/>
-        <v>("3017","7","cloneFromTemplate","टेम्पलेट से क्लोन"),</v>
+        <v>("3017","7","cloneFromTemplate","अगले महीने के लिए टेम्पलेट से कॉपी करें"),</v>
       </c>
     </row>
     <row r="3019" spans="1:5" x14ac:dyDescent="0.2">
@@ -69315,14 +69319,14 @@
         <v>8</v>
       </c>
       <c r="C3019" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3019" t="s">
-        <v>3119</v>
+        <v>3639</v>
       </c>
       <c r="E3019" t="str">
         <f t="shared" si="96"/>
-        <v>("3018","8","cloneFromTemplate","Клонировать из шаблона"),</v>
+        <v>("3018","8","cloneFromTemplate","Клонировать из шаблона на следующий месяц"),</v>
       </c>
     </row>
     <row r="3020" spans="1:5" x14ac:dyDescent="0.2">
@@ -69334,14 +69338,14 @@
         <v>9</v>
       </c>
       <c r="C3020" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3020" t="s">
-        <v>3118</v>
+        <v>3646</v>
       </c>
       <c r="E3020" t="str">
         <f t="shared" si="96"/>
-        <v>("3019","9","cloneFromTemplate","Clonar de plantilla"),</v>
+        <v>("3019","9","cloneFromTemplate","Copiar de la plantilla para el próximo mes"),</v>
       </c>
     </row>
     <row r="3021" spans="1:5" x14ac:dyDescent="0.2">
@@ -69353,14 +69357,14 @@
         <v>10</v>
       </c>
       <c r="C3021" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D3021" t="s">
-        <v>3117</v>
+        <v>3647</v>
       </c>
       <c r="E3021" t="str">
         <f t="shared" si="96"/>
-        <v>("3020","10","cloneFromTemplate","استنساخ من قالب"),</v>
+        <v>("3020","10","cloneFromTemplate","نسخ من النموذج للشهر القادم"),</v>
       </c>
     </row>
     <row r="3022" spans="1:5" x14ac:dyDescent="0.2">
@@ -69372,10 +69376,10 @@
         <v>1</v>
       </c>
       <c r="C3022" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3022" t="s">
-        <v>3126</v>
+        <v>3117</v>
       </c>
       <c r="E3022" t="str">
         <f t="shared" si="96"/>
@@ -69391,10 +69395,10 @@
         <v>2</v>
       </c>
       <c r="C3023" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3023" t="s">
-        <v>3127</v>
+        <v>3118</v>
       </c>
       <c r="E3023" t="str">
         <f t="shared" si="96"/>
@@ -69410,10 +69414,10 @@
         <v>3</v>
       </c>
       <c r="C3024" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3024" s="6" t="s">
-        <v>3128</v>
+        <v>3119</v>
       </c>
       <c r="E3024" t="str">
         <f t="shared" si="96"/>
@@ -69429,10 +69433,10 @@
         <v>4</v>
       </c>
       <c r="C3025" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3025" s="6" t="s">
-        <v>3129</v>
+        <v>3120</v>
       </c>
       <c r="E3025" t="str">
         <f t="shared" si="96"/>
@@ -69448,10 +69452,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3026" s="6" t="s">
-        <v>3130</v>
+        <v>3121</v>
       </c>
       <c r="E3026" t="str">
         <f t="shared" si="96"/>
@@ -69467,10 +69471,10 @@
         <v>6</v>
       </c>
       <c r="C3027" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3027" s="6" t="s">
-        <v>3131</v>
+        <v>3122</v>
       </c>
       <c r="E3027" t="str">
         <f t="shared" si="96"/>
@@ -69486,10 +69490,10 @@
         <v>7</v>
       </c>
       <c r="C3028" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3028" s="6" t="s">
-        <v>3135</v>
+        <v>3126</v>
       </c>
       <c r="E3028" t="str">
         <f t="shared" si="96"/>
@@ -69505,10 +69509,10 @@
         <v>8</v>
       </c>
       <c r="C3029" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3029" s="6" t="s">
-        <v>3132</v>
+        <v>3123</v>
       </c>
       <c r="E3029" t="str">
         <f t="shared" si="96"/>
@@ -69524,10 +69528,10 @@
         <v>9</v>
       </c>
       <c r="C3030" t="s">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D3030" s="6" t="s">
-        <v>3133</v>
+        <v>3124</v>
       </c>
       <c r="E3030" t="str">
         <f t="shared" si="96"/>
@@ -69543,10 +69547,10 @@
         <v>10</v>
       </c>
       <c r="C3031" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3031" s="6" t="s">
         <v>3125</v>
-      </c>
-      <c r="D3031" s="6" t="s">
-        <v>3134</v>
       </c>
       <c r="E3031" t="str">
         <f t="shared" si="96"/>
@@ -69562,10 +69566,10 @@
         <v>1</v>
       </c>
       <c r="C3032" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3032" s="6" t="s">
-        <v>3136</v>
+        <v>3127</v>
       </c>
       <c r="E3032" t="str">
         <f t="shared" si="96"/>
@@ -69581,10 +69585,10 @@
         <v>2</v>
       </c>
       <c r="C3033" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3033" s="6" t="s">
-        <v>3141</v>
+        <v>3132</v>
       </c>
       <c r="E3033" t="str">
         <f t="shared" si="96"/>
@@ -69600,10 +69604,10 @@
         <v>3</v>
       </c>
       <c r="C3034" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3034" s="6" t="s">
-        <v>3142</v>
+        <v>3133</v>
       </c>
       <c r="E3034" t="str">
         <f t="shared" si="96"/>
@@ -69619,10 +69623,10 @@
         <v>4</v>
       </c>
       <c r="C3035" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3035" s="6" t="s">
-        <v>3143</v>
+        <v>3134</v>
       </c>
       <c r="E3035" t="str">
         <f t="shared" si="96"/>
@@ -69638,10 +69642,10 @@
         <v>5</v>
       </c>
       <c r="C3036" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3036" s="6" t="s">
-        <v>3144</v>
+        <v>3135</v>
       </c>
       <c r="E3036" t="str">
         <f t="shared" si="96"/>
@@ -69657,10 +69661,10 @@
         <v>6</v>
       </c>
       <c r="C3037" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3037" s="6" t="s">
-        <v>3145</v>
+        <v>3136</v>
       </c>
       <c r="E3037" t="str">
         <f t="shared" si="96"/>
@@ -69676,10 +69680,10 @@
         <v>7</v>
       </c>
       <c r="C3038" s="6" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D3038" s="6" t="s">
         <v>3137</v>
-      </c>
-      <c r="D3038" s="6" t="s">
-        <v>3146</v>
       </c>
       <c r="E3038" t="str">
         <f t="shared" si="96"/>
@@ -69695,10 +69699,10 @@
         <v>8</v>
       </c>
       <c r="C3039" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3039" s="6" t="s">
-        <v>3140</v>
+        <v>3131</v>
       </c>
       <c r="E3039" t="str">
         <f t="shared" si="96"/>
@@ -69714,10 +69718,10 @@
         <v>9</v>
       </c>
       <c r="C3040" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3040" s="6" t="s">
-        <v>3139</v>
+        <v>3130</v>
       </c>
       <c r="E3040" t="str">
         <f t="shared" si="96"/>
@@ -69733,10 +69737,10 @@
         <v>10</v>
       </c>
       <c r="C3041" s="6" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="D3041" s="6" t="s">
-        <v>3138</v>
+        <v>3129</v>
       </c>
       <c r="E3041" t="str">
         <f t="shared" si="96"/>
@@ -69752,10 +69756,10 @@
         <v>1</v>
       </c>
       <c r="C3042" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3042" s="6" t="s">
-        <v>3148</v>
+        <v>3139</v>
       </c>
       <c r="E3042" t="str">
         <f t="shared" si="96"/>
@@ -69771,10 +69775,10 @@
         <v>2</v>
       </c>
       <c r="C3043" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3043" s="6" t="s">
-        <v>3152</v>
+        <v>3143</v>
       </c>
       <c r="E3043" t="str">
         <f t="shared" si="96"/>
@@ -69790,10 +69794,10 @@
         <v>3</v>
       </c>
       <c r="C3044" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3044" s="6" t="s">
-        <v>3154</v>
+        <v>3145</v>
       </c>
       <c r="E3044" t="str">
         <f t="shared" si="96"/>
@@ -69809,10 +69813,10 @@
         <v>4</v>
       </c>
       <c r="C3045" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3045" s="6" t="s">
-        <v>3153</v>
+        <v>3144</v>
       </c>
       <c r="E3045" t="str">
         <f t="shared" si="96"/>
@@ -69828,10 +69832,10 @@
         <v>5</v>
       </c>
       <c r="C3046" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3046" s="6" t="s">
-        <v>3151</v>
+        <v>3142</v>
       </c>
       <c r="E3046" t="str">
         <f t="shared" si="96"/>
@@ -69847,10 +69851,10 @@
         <v>6</v>
       </c>
       <c r="C3047" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3047" s="6" t="s">
-        <v>3150</v>
+        <v>3141</v>
       </c>
       <c r="E3047" t="str">
         <f t="shared" si="96"/>
@@ -69866,10 +69870,10 @@
         <v>7</v>
       </c>
       <c r="C3048" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3048" s="6" t="s">
-        <v>3149</v>
+        <v>3140</v>
       </c>
       <c r="E3048" t="str">
         <f t="shared" si="96"/>
@@ -69885,10 +69889,10 @@
         <v>8</v>
       </c>
       <c r="C3049" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3049" s="6" t="s">
-        <v>3155</v>
+        <v>3146</v>
       </c>
       <c r="E3049" t="str">
         <f t="shared" si="96"/>
@@ -69904,10 +69908,10 @@
         <v>9</v>
       </c>
       <c r="C3050" s="6" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D3050" s="6" t="s">
         <v>3147</v>
-      </c>
-      <c r="D3050" s="6" t="s">
-        <v>3156</v>
       </c>
       <c r="E3050" t="str">
         <f t="shared" si="96"/>
@@ -69923,10 +69927,10 @@
         <v>10</v>
       </c>
       <c r="C3051" s="6" t="s">
-        <v>3147</v>
+        <v>3138</v>
       </c>
       <c r="D3051" s="6" t="s">
-        <v>3157</v>
+        <v>3148</v>
       </c>
       <c r="E3051" t="str">
         <f t="shared" si="96"/>
@@ -69942,10 +69946,10 @@
         <v>1</v>
       </c>
       <c r="C3052" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3052" s="6" t="s">
-        <v>3159</v>
+        <v>3150</v>
       </c>
       <c r="E3052" t="str">
         <f t="shared" si="96"/>
@@ -69961,10 +69965,10 @@
         <v>2</v>
       </c>
       <c r="C3053" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3053" s="6" t="s">
-        <v>3163</v>
+        <v>3154</v>
       </c>
       <c r="E3053" t="str">
         <f t="shared" si="96"/>
@@ -69980,10 +69984,10 @@
         <v>3</v>
       </c>
       <c r="C3054" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3054" s="6" t="s">
-        <v>3164</v>
+        <v>3155</v>
       </c>
       <c r="E3054" t="str">
         <f t="shared" si="96"/>
@@ -69999,10 +70003,10 @@
         <v>4</v>
       </c>
       <c r="C3055" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3055" s="6" t="s">
-        <v>3165</v>
+        <v>3156</v>
       </c>
       <c r="E3055" t="str">
         <f t="shared" si="96"/>
@@ -70018,10 +70022,10 @@
         <v>5</v>
       </c>
       <c r="C3056" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3056" s="6" t="s">
-        <v>3166</v>
+        <v>3157</v>
       </c>
       <c r="E3056" t="str">
         <f t="shared" si="96"/>
@@ -70037,10 +70041,10 @@
         <v>6</v>
       </c>
       <c r="C3057" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D3057" s="6" t="s">
         <v>3158</v>
-      </c>
-      <c r="D3057" s="6" t="s">
-        <v>3167</v>
       </c>
       <c r="E3057" t="str">
         <f t="shared" si="96"/>
@@ -70056,10 +70060,10 @@
         <v>7</v>
       </c>
       <c r="C3058" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3058" s="6" t="s">
-        <v>3168</v>
+        <v>3159</v>
       </c>
       <c r="E3058" t="str">
         <f t="shared" si="96"/>
@@ -70075,10 +70079,10 @@
         <v>8</v>
       </c>
       <c r="C3059" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3059" s="6" t="s">
-        <v>3162</v>
+        <v>3153</v>
       </c>
       <c r="E3059" t="str">
         <f t="shared" si="96"/>
@@ -70094,10 +70098,10 @@
         <v>9</v>
       </c>
       <c r="C3060" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3060" s="6" t="s">
-        <v>3161</v>
+        <v>3152</v>
       </c>
       <c r="E3060" t="str">
         <f t="shared" si="96"/>
@@ -70113,10 +70117,10 @@
         <v>10</v>
       </c>
       <c r="C3061" s="6" t="s">
-        <v>3158</v>
+        <v>3149</v>
       </c>
       <c r="D3061" s="6" t="s">
-        <v>3160</v>
+        <v>3151</v>
       </c>
       <c r="E3061" t="str">
         <f t="shared" si="96"/>
@@ -70132,10 +70136,10 @@
         <v>1</v>
       </c>
       <c r="C3062" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3062" s="6" t="s">
-        <v>3170</v>
+        <v>3161</v>
       </c>
       <c r="E3062" t="str">
         <f t="shared" si="96"/>
@@ -70151,10 +70155,10 @@
         <v>2</v>
       </c>
       <c r="C3063" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3063" s="6" t="s">
-        <v>3174</v>
+        <v>3165</v>
       </c>
       <c r="E3063" t="str">
         <f t="shared" si="96"/>
@@ -70170,10 +70174,10 @@
         <v>3</v>
       </c>
       <c r="C3064" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3064" s="6" t="s">
-        <v>3175</v>
+        <v>3166</v>
       </c>
       <c r="E3064" t="str">
         <f t="shared" si="96"/>
@@ -70189,10 +70193,10 @@
         <v>4</v>
       </c>
       <c r="C3065" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3065" s="6" t="s">
-        <v>3176</v>
+        <v>3167</v>
       </c>
       <c r="E3065" t="str">
         <f t="shared" ref="E3065:E3128" si="98">CONCATENATE("(",CHAR(34),A3065,CHAR(34),",",CHAR(34),B3065,CHAR(34),",",CHAR(34),C3065,CHAR(34),",",CHAR(34),D3065,CHAR(34),"),")</f>
@@ -70208,10 +70212,10 @@
         <v>5</v>
       </c>
       <c r="C3066" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3066" s="6" t="s">
-        <v>3173</v>
+        <v>3164</v>
       </c>
       <c r="E3066" t="str">
         <f t="shared" si="98"/>
@@ -70227,10 +70231,10 @@
         <v>6</v>
       </c>
       <c r="C3067" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3067" s="6" t="s">
-        <v>3172</v>
+        <v>3163</v>
       </c>
       <c r="E3067" t="str">
         <f t="shared" si="98"/>
@@ -70246,10 +70250,10 @@
         <v>7</v>
       </c>
       <c r="C3068" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3068" s="6" t="s">
-        <v>3171</v>
+        <v>3162</v>
       </c>
       <c r="E3068" t="str">
         <f t="shared" si="98"/>
@@ -70265,10 +70269,10 @@
         <v>8</v>
       </c>
       <c r="C3069" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3069" s="6" t="s">
-        <v>3177</v>
+        <v>3168</v>
       </c>
       <c r="E3069" t="str">
         <f t="shared" si="98"/>
@@ -70284,10 +70288,10 @@
         <v>9</v>
       </c>
       <c r="C3070" s="6" t="s">
-        <v>3169</v>
+        <v>3160</v>
       </c>
       <c r="D3070" s="6" t="s">
-        <v>3172</v>
+        <v>3163</v>
       </c>
       <c r="E3070" t="str">
         <f t="shared" si="98"/>
@@ -70303,10 +70307,10 @@
         <v>10</v>
       </c>
       <c r="C3071" s="6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D3071" s="6" t="s">
         <v>3169</v>
-      </c>
-      <c r="D3071" s="6" t="s">
-        <v>3178</v>
       </c>
       <c r="E3071" t="str">
         <f t="shared" si="98"/>
@@ -70322,10 +70326,10 @@
         <v>1</v>
       </c>
       <c r="C3072" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3072" s="6" t="s">
-        <v>3180</v>
+        <v>3171</v>
       </c>
       <c r="E3072" t="str">
         <f t="shared" si="98"/>
@@ -70341,10 +70345,10 @@
         <v>2</v>
       </c>
       <c r="C3073" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3073" s="6" t="s">
-        <v>3184</v>
+        <v>3175</v>
       </c>
       <c r="E3073" t="str">
         <f t="shared" si="98"/>
@@ -70360,10 +70364,10 @@
         <v>3</v>
       </c>
       <c r="C3074" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3074" s="6" t="s">
-        <v>3185</v>
+        <v>3176</v>
       </c>
       <c r="E3074" t="str">
         <f t="shared" si="98"/>
@@ -70379,10 +70383,10 @@
         <v>4</v>
       </c>
       <c r="C3075" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3075" s="6" t="s">
-        <v>3186</v>
+        <v>3177</v>
       </c>
       <c r="E3075" t="str">
         <f t="shared" si="98"/>
@@ -70398,10 +70402,10 @@
         <v>5</v>
       </c>
       <c r="C3076" s="6" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D3076" s="6" t="s">
         <v>3179</v>
-      </c>
-      <c r="D3076" s="6" t="s">
-        <v>3188</v>
       </c>
       <c r="E3076" t="str">
         <f t="shared" si="98"/>
@@ -70417,10 +70421,10 @@
         <v>6</v>
       </c>
       <c r="C3077" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3077" s="6" t="s">
-        <v>3187</v>
+        <v>3178</v>
       </c>
       <c r="E3077" t="str">
         <f t="shared" si="98"/>
@@ -70436,10 +70440,10 @@
         <v>7</v>
       </c>
       <c r="C3078" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3078" s="6" t="s">
-        <v>3189</v>
+        <v>3180</v>
       </c>
       <c r="E3078" t="str">
         <f t="shared" si="98"/>
@@ -70455,10 +70459,10 @@
         <v>8</v>
       </c>
       <c r="C3079" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3079" s="6" t="s">
-        <v>3183</v>
+        <v>3174</v>
       </c>
       <c r="E3079" t="str">
         <f t="shared" si="98"/>
@@ -70474,10 +70478,10 @@
         <v>9</v>
       </c>
       <c r="C3080" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3080" s="6" t="s">
-        <v>3182</v>
+        <v>3173</v>
       </c>
       <c r="E3080" t="str">
         <f t="shared" si="98"/>
@@ -70493,10 +70497,10 @@
         <v>10</v>
       </c>
       <c r="C3081" s="6" t="s">
-        <v>3179</v>
+        <v>3170</v>
       </c>
       <c r="D3081" s="6" t="s">
-        <v>3181</v>
+        <v>3172</v>
       </c>
       <c r="E3081" t="str">
         <f t="shared" si="98"/>
@@ -70512,10 +70516,10 @@
         <v>1</v>
       </c>
       <c r="C3082" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3082" s="6" t="s">
-        <v>3192</v>
+        <v>3183</v>
       </c>
       <c r="E3082" t="str">
         <f t="shared" si="98"/>
@@ -70531,10 +70535,10 @@
         <v>2</v>
       </c>
       <c r="C3083" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3083" s="6" t="s">
-        <v>3190</v>
+        <v>3181</v>
       </c>
       <c r="E3083" t="str">
         <f t="shared" si="98"/>
@@ -70550,10 +70554,10 @@
         <v>3</v>
       </c>
       <c r="C3084" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3084" s="6" t="s">
-        <v>3193</v>
+        <v>3184</v>
       </c>
       <c r="E3084" t="str">
         <f t="shared" si="98"/>
@@ -70569,10 +70573,10 @@
         <v>4</v>
       </c>
       <c r="C3085" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3085" s="6" t="s">
-        <v>3194</v>
+        <v>3185</v>
       </c>
       <c r="E3085" t="str">
         <f t="shared" si="98"/>
@@ -70588,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3086" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3086" s="6" t="s">
-        <v>3195</v>
+        <v>3186</v>
       </c>
       <c r="E3086" t="str">
         <f t="shared" si="98"/>
@@ -70607,10 +70611,10 @@
         <v>6</v>
       </c>
       <c r="C3087" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3087" s="6" t="s">
-        <v>3196</v>
+        <v>3187</v>
       </c>
       <c r="E3087" t="str">
         <f t="shared" si="98"/>
@@ -70626,10 +70630,10 @@
         <v>7</v>
       </c>
       <c r="C3088" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3088" s="6" t="s">
-        <v>3197</v>
+        <v>3188</v>
       </c>
       <c r="E3088" t="str">
         <f t="shared" si="98"/>
@@ -70645,10 +70649,10 @@
         <v>8</v>
       </c>
       <c r="C3089" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3089" s="6" t="s">
-        <v>3198</v>
+        <v>3189</v>
       </c>
       <c r="E3089" t="str">
         <f t="shared" si="98"/>
@@ -70664,10 +70668,10 @@
         <v>9</v>
       </c>
       <c r="C3090" s="6" t="s">
-        <v>3191</v>
+        <v>3182</v>
       </c>
       <c r="D3090" s="6" t="s">
-        <v>3199</v>
+        <v>3190</v>
       </c>
       <c r="E3090" t="str">
         <f t="shared" si="98"/>
@@ -70683,10 +70687,10 @@
         <v>10</v>
       </c>
       <c r="C3091" s="6" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D3091" s="6" t="s">
         <v>3191</v>
-      </c>
-      <c r="D3091" s="6" t="s">
-        <v>3200</v>
       </c>
       <c r="E3091" t="str">
         <f t="shared" si="98"/>
@@ -70702,10 +70706,10 @@
         <v>1</v>
       </c>
       <c r="C3092" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3092" s="6" t="s">
-        <v>3203</v>
+        <v>3194</v>
       </c>
       <c r="E3092" t="str">
         <f t="shared" si="98"/>
@@ -70721,10 +70725,10 @@
         <v>2</v>
       </c>
       <c r="C3093" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3093" s="6" t="s">
-        <v>3207</v>
+        <v>3198</v>
       </c>
       <c r="E3093" t="str">
         <f t="shared" si="98"/>
@@ -70740,10 +70744,10 @@
         <v>3</v>
       </c>
       <c r="C3094" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3094" s="6" t="s">
-        <v>3208</v>
+        <v>3199</v>
       </c>
       <c r="E3094" t="str">
         <f t="shared" si="98"/>
@@ -70759,10 +70763,10 @@
         <v>4</v>
       </c>
       <c r="C3095" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3095" s="6" t="s">
-        <v>3209</v>
+        <v>3200</v>
       </c>
       <c r="E3095" t="str">
         <f t="shared" si="98"/>
@@ -70778,10 +70782,10 @@
         <v>5</v>
       </c>
       <c r="C3096" s="6" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D3096" s="6" t="s">
         <v>3201</v>
-      </c>
-      <c r="D3096" s="6" t="s">
-        <v>3210</v>
       </c>
       <c r="E3096" t="str">
         <f t="shared" si="98"/>
@@ -70797,10 +70801,10 @@
         <v>6</v>
       </c>
       <c r="C3097" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3097" s="6" t="s">
-        <v>3211</v>
+        <v>3202</v>
       </c>
       <c r="E3097" t="str">
         <f t="shared" si="98"/>
@@ -70816,10 +70820,10 @@
         <v>7</v>
       </c>
       <c r="C3098" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3098" s="6" t="s">
-        <v>3212</v>
+        <v>3203</v>
       </c>
       <c r="E3098" t="str">
         <f t="shared" si="98"/>
@@ -70835,10 +70839,10 @@
         <v>8</v>
       </c>
       <c r="C3099" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3099" s="6" t="s">
-        <v>3206</v>
+        <v>3197</v>
       </c>
       <c r="E3099" t="str">
         <f t="shared" si="98"/>
@@ -70854,10 +70858,10 @@
         <v>9</v>
       </c>
       <c r="C3100" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3100" s="6" t="s">
-        <v>3205</v>
+        <v>3196</v>
       </c>
       <c r="E3100" t="str">
         <f t="shared" si="98"/>
@@ -70873,10 +70877,10 @@
         <v>10</v>
       </c>
       <c r="C3101" s="6" t="s">
-        <v>3201</v>
+        <v>3192</v>
       </c>
       <c r="D3101" s="6" t="s">
-        <v>3204</v>
+        <v>3195</v>
       </c>
       <c r="E3101" t="str">
         <f t="shared" si="98"/>
@@ -70892,10 +70896,10 @@
         <v>1</v>
       </c>
       <c r="C3102" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3102" s="6" t="s">
-        <v>3216</v>
+        <v>3207</v>
       </c>
       <c r="E3102" t="str">
         <f t="shared" si="98"/>
@@ -70911,10 +70915,10 @@
         <v>2</v>
       </c>
       <c r="C3103" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3103" s="6" t="s">
-        <v>3217</v>
+        <v>3208</v>
       </c>
       <c r="E3103" t="str">
         <f t="shared" si="98"/>
@@ -70930,10 +70934,10 @@
         <v>3</v>
       </c>
       <c r="C3104" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3104" s="6" t="s">
-        <v>3218</v>
+        <v>3209</v>
       </c>
       <c r="E3104" t="str">
         <f t="shared" si="98"/>
@@ -70949,10 +70953,10 @@
         <v>4</v>
       </c>
       <c r="C3105" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3105" s="6" t="s">
-        <v>3219</v>
+        <v>3210</v>
       </c>
       <c r="E3105" t="str">
         <f t="shared" si="98"/>
@@ -70968,10 +70972,10 @@
         <v>5</v>
       </c>
       <c r="C3106" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3106" s="6" t="s">
-        <v>3215</v>
+        <v>3206</v>
       </c>
       <c r="E3106" t="str">
         <f t="shared" si="98"/>
@@ -70987,10 +70991,10 @@
         <v>6</v>
       </c>
       <c r="C3107" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3107" s="6" t="s">
-        <v>3214</v>
+        <v>3205</v>
       </c>
       <c r="E3107" t="str">
         <f t="shared" si="98"/>
@@ -71006,10 +71010,10 @@
         <v>7</v>
       </c>
       <c r="C3108" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3108" s="6" t="s">
-        <v>3213</v>
+        <v>3204</v>
       </c>
       <c r="E3108" t="str">
         <f t="shared" si="98"/>
@@ -71025,10 +71029,10 @@
         <v>8</v>
       </c>
       <c r="C3109" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3109" s="6" t="s">
-        <v>3220</v>
+        <v>3211</v>
       </c>
       <c r="E3109" t="str">
         <f t="shared" si="98"/>
@@ -71044,10 +71048,10 @@
         <v>9</v>
       </c>
       <c r="C3110" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3110" s="6" t="s">
-        <v>3221</v>
+        <v>3212</v>
       </c>
       <c r="E3110" t="str">
         <f t="shared" si="98"/>
@@ -71063,10 +71067,10 @@
         <v>10</v>
       </c>
       <c r="C3111" s="6" t="s">
-        <v>3202</v>
+        <v>3193</v>
       </c>
       <c r="D3111" s="6" t="s">
-        <v>3222</v>
+        <v>3213</v>
       </c>
       <c r="E3111" t="str">
         <f t="shared" si="98"/>
@@ -71082,10 +71086,10 @@
         <v>1</v>
       </c>
       <c r="C3112" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3112" s="6" t="s">
-        <v>3223</v>
+        <v>3214</v>
       </c>
       <c r="E3112" t="str">
         <f t="shared" si="98"/>
@@ -71101,10 +71105,10 @@
         <v>2</v>
       </c>
       <c r="C3113" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3113" s="6" t="s">
-        <v>3225</v>
+        <v>3216</v>
       </c>
       <c r="E3113" t="str">
         <f t="shared" si="98"/>
@@ -71120,10 +71124,10 @@
         <v>3</v>
       </c>
       <c r="C3114" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3114" s="6" t="s">
-        <v>3226</v>
+        <v>3217</v>
       </c>
       <c r="E3114" t="str">
         <f t="shared" si="98"/>
@@ -71139,10 +71143,10 @@
         <v>4</v>
       </c>
       <c r="C3115" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3115" s="6" t="s">
-        <v>3227</v>
+        <v>3218</v>
       </c>
       <c r="E3115" t="str">
         <f t="shared" si="98"/>
@@ -71158,10 +71162,10 @@
         <v>5</v>
       </c>
       <c r="C3116" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3116" s="6" t="s">
-        <v>3228</v>
+        <v>3219</v>
       </c>
       <c r="E3116" t="str">
         <f t="shared" si="98"/>
@@ -71177,10 +71181,10 @@
         <v>6</v>
       </c>
       <c r="C3117" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3117" s="6" t="s">
-        <v>3229</v>
+        <v>3220</v>
       </c>
       <c r="E3117" t="str">
         <f t="shared" si="98"/>
@@ -71196,10 +71200,10 @@
         <v>7</v>
       </c>
       <c r="C3118" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3118" s="6" t="s">
-        <v>3230</v>
+        <v>3221</v>
       </c>
       <c r="E3118" t="str">
         <f t="shared" si="98"/>
@@ -71215,10 +71219,10 @@
         <v>8</v>
       </c>
       <c r="C3119" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3119" s="6" t="s">
-        <v>3231</v>
+        <v>3222</v>
       </c>
       <c r="E3119" t="str">
         <f t="shared" si="98"/>
@@ -71234,10 +71238,10 @@
         <v>9</v>
       </c>
       <c r="C3120" s="6" t="s">
-        <v>3224</v>
+        <v>3215</v>
       </c>
       <c r="D3120" s="6" t="s">
-        <v>3232</v>
+        <v>3223</v>
       </c>
       <c r="E3120" t="str">
         <f t="shared" si="98"/>
@@ -71253,10 +71257,10 @@
         <v>10</v>
       </c>
       <c r="C3121" s="6" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D3121" s="6" t="s">
         <v>3224</v>
-      </c>
-      <c r="D3121" s="6" t="s">
-        <v>3233</v>
       </c>
       <c r="E3121" t="str">
         <f t="shared" si="98"/>
@@ -71272,10 +71276,10 @@
         <v>1</v>
       </c>
       <c r="C3122" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3122" s="6" t="s">
-        <v>3234</v>
+        <v>3225</v>
       </c>
       <c r="E3122" t="str">
         <f t="shared" si="98"/>
@@ -71291,10 +71295,10 @@
         <v>2</v>
       </c>
       <c r="C3123" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3123" s="6" t="s">
-        <v>3239</v>
+        <v>3230</v>
       </c>
       <c r="E3123" t="str">
         <f t="shared" si="98"/>
@@ -71310,10 +71314,10 @@
         <v>3</v>
       </c>
       <c r="C3124" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3124" s="6" t="s">
-        <v>3240</v>
+        <v>3231</v>
       </c>
       <c r="E3124" t="str">
         <f t="shared" si="98"/>
@@ -71329,10 +71333,10 @@
         <v>4</v>
       </c>
       <c r="C3125" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3125" s="6" t="s">
-        <v>3241</v>
+        <v>3232</v>
       </c>
       <c r="E3125" t="str">
         <f t="shared" si="98"/>
@@ -71348,10 +71352,10 @@
         <v>5</v>
       </c>
       <c r="C3126" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3126" s="6" t="s">
-        <v>3242</v>
+        <v>3233</v>
       </c>
       <c r="E3126" t="str">
         <f t="shared" si="98"/>
@@ -71367,10 +71371,10 @@
         <v>6</v>
       </c>
       <c r="C3127" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3127" s="6" t="s">
-        <v>3243</v>
+        <v>3234</v>
       </c>
       <c r="E3127" t="str">
         <f t="shared" si="98"/>
@@ -71386,10 +71390,10 @@
         <v>7</v>
       </c>
       <c r="C3128" s="6" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D3128" s="6" t="s">
         <v>3235</v>
-      </c>
-      <c r="D3128" s="6" t="s">
-        <v>3244</v>
       </c>
       <c r="E3128" t="str">
         <f t="shared" si="98"/>
@@ -71405,10 +71409,10 @@
         <v>8</v>
       </c>
       <c r="C3129" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3129" s="6" t="s">
-        <v>3238</v>
+        <v>3229</v>
       </c>
       <c r="E3129" t="str">
         <f t="shared" ref="E3129:E3192" si="100">CONCATENATE("(",CHAR(34),A3129,CHAR(34),",",CHAR(34),B3129,CHAR(34),",",CHAR(34),C3129,CHAR(34),",",CHAR(34),D3129,CHAR(34),"),")</f>
@@ -71424,10 +71428,10 @@
         <v>9</v>
       </c>
       <c r="C3130" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3130" s="6" t="s">
-        <v>3237</v>
+        <v>3228</v>
       </c>
       <c r="E3130" t="str">
         <f t="shared" si="100"/>
@@ -71443,10 +71447,10 @@
         <v>10</v>
       </c>
       <c r="C3131" s="6" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="D3131" s="6" t="s">
-        <v>3236</v>
+        <v>3227</v>
       </c>
       <c r="E3131" t="str">
         <f t="shared" si="100"/>
@@ -71462,10 +71466,10 @@
         <v>1</v>
       </c>
       <c r="C3132" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3132" s="6" t="s">
-        <v>3245</v>
+        <v>3236</v>
       </c>
       <c r="E3132" t="str">
         <f t="shared" si="100"/>
@@ -71481,10 +71485,10 @@
         <v>2</v>
       </c>
       <c r="C3133" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3133" s="6" t="s">
-        <v>3251</v>
+        <v>3242</v>
       </c>
       <c r="E3133" t="str">
         <f t="shared" si="100"/>
@@ -71500,10 +71504,10 @@
         <v>3</v>
       </c>
       <c r="C3134" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3134" s="6" t="s">
-        <v>3252</v>
+        <v>3243</v>
       </c>
       <c r="E3134" t="str">
         <f t="shared" si="100"/>
@@ -71519,10 +71523,10 @@
         <v>4</v>
       </c>
       <c r="C3135" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3135" s="6" t="s">
-        <v>3253</v>
+        <v>3244</v>
       </c>
       <c r="E3135" t="str">
         <f t="shared" si="100"/>
@@ -71538,10 +71542,10 @@
         <v>5</v>
       </c>
       <c r="C3136" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3136" s="6" t="s">
-        <v>3249</v>
+        <v>3240</v>
       </c>
       <c r="E3136" t="str">
         <f t="shared" si="100"/>
@@ -71557,10 +71561,10 @@
         <v>6</v>
       </c>
       <c r="C3137" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3137" s="6" t="s">
-        <v>3248</v>
+        <v>3239</v>
       </c>
       <c r="E3137" t="str">
         <f t="shared" si="100"/>
@@ -71576,10 +71580,10 @@
         <v>7</v>
       </c>
       <c r="C3138" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3138" s="6" t="s">
-        <v>3247</v>
+        <v>3238</v>
       </c>
       <c r="E3138" t="str">
         <f t="shared" si="100"/>
@@ -71595,10 +71599,10 @@
         <v>8</v>
       </c>
       <c r="C3139" s="6" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D3139" s="6" t="s">
         <v>3246</v>
-      </c>
-      <c r="D3139" s="6" t="s">
-        <v>3255</v>
       </c>
       <c r="E3139" t="str">
         <f t="shared" si="100"/>
@@ -71614,10 +71618,10 @@
         <v>9</v>
       </c>
       <c r="C3140" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3140" s="6" t="s">
-        <v>3248</v>
+        <v>3239</v>
       </c>
       <c r="E3140" t="str">
         <f t="shared" si="100"/>
@@ -71633,10 +71637,10 @@
         <v>10</v>
       </c>
       <c r="C3141" s="6" t="s">
-        <v>3246</v>
+        <v>3237</v>
       </c>
       <c r="D3141" s="6" t="s">
-        <v>3250</v>
+        <v>3241</v>
       </c>
       <c r="E3141" t="str">
         <f t="shared" si="100"/>
@@ -71652,10 +71656,10 @@
         <v>1</v>
       </c>
       <c r="C3142" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3142" s="15" t="s">
-        <v>3257</v>
+        <v>3248</v>
       </c>
       <c r="E3142" t="str">
         <f t="shared" si="100"/>
@@ -71671,10 +71675,10 @@
         <v>2</v>
       </c>
       <c r="C3143" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3143" s="6" t="s">
-        <v>3258</v>
+        <v>3249</v>
       </c>
       <c r="E3143" t="str">
         <f t="shared" si="100"/>
@@ -71690,10 +71694,10 @@
         <v>3</v>
       </c>
       <c r="C3144" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3144" s="6" t="s">
-        <v>3259</v>
+        <v>3250</v>
       </c>
       <c r="E3144" t="str">
         <f t="shared" si="100"/>
@@ -71709,10 +71713,10 @@
         <v>4</v>
       </c>
       <c r="C3145" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3145" s="6" t="s">
-        <v>3260</v>
+        <v>3251</v>
       </c>
       <c r="E3145" t="str">
         <f t="shared" si="100"/>
@@ -71728,10 +71732,10 @@
         <v>5</v>
       </c>
       <c r="C3146" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3146" s="6" t="s">
-        <v>3261</v>
+        <v>3252</v>
       </c>
       <c r="E3146" t="str">
         <f t="shared" si="100"/>
@@ -71747,10 +71751,10 @@
         <v>6</v>
       </c>
       <c r="C3147" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3147" s="6" t="s">
-        <v>3262</v>
+        <v>3253</v>
       </c>
       <c r="E3147" t="str">
         <f t="shared" si="100"/>
@@ -71766,10 +71770,10 @@
         <v>7</v>
       </c>
       <c r="C3148" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3148" s="6" t="s">
-        <v>3263</v>
+        <v>3254</v>
       </c>
       <c r="E3148" t="str">
         <f t="shared" si="100"/>
@@ -71785,10 +71789,10 @@
         <v>8</v>
       </c>
       <c r="C3149" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3149" s="6" t="s">
-        <v>3264</v>
+        <v>3255</v>
       </c>
       <c r="E3149" t="str">
         <f t="shared" si="100"/>
@@ -71804,10 +71808,10 @@
         <v>9</v>
       </c>
       <c r="C3150" s="6" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D3150" s="6" t="s">
         <v>3256</v>
-      </c>
-      <c r="D3150" s="6" t="s">
-        <v>3265</v>
       </c>
       <c r="E3150" t="str">
         <f t="shared" si="100"/>
@@ -71823,10 +71827,10 @@
         <v>10</v>
       </c>
       <c r="C3151" s="6" t="s">
-        <v>3256</v>
+        <v>3247</v>
       </c>
       <c r="D3151" s="6" t="s">
-        <v>3266</v>
+        <v>3257</v>
       </c>
       <c r="E3151" t="str">
         <f t="shared" si="100"/>
@@ -71842,10 +71846,10 @@
         <v>1</v>
       </c>
       <c r="C3152" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3152" s="6" t="s">
-        <v>3267</v>
+        <v>3258</v>
       </c>
       <c r="E3152" t="str">
         <f t="shared" si="100"/>
@@ -71861,10 +71865,10 @@
         <v>2</v>
       </c>
       <c r="C3153" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3153" s="6" t="s">
-        <v>3271</v>
+        <v>3262</v>
       </c>
       <c r="E3153" t="str">
         <f t="shared" si="100"/>
@@ -71880,10 +71884,10 @@
         <v>3</v>
       </c>
       <c r="C3154" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3154" s="6" t="s">
-        <v>3272</v>
+        <v>3263</v>
       </c>
       <c r="E3154" t="str">
         <f t="shared" si="100"/>
@@ -71899,10 +71903,10 @@
         <v>4</v>
       </c>
       <c r="C3155" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3155" s="6" t="s">
-        <v>3273</v>
+        <v>3264</v>
       </c>
       <c r="E3155" t="str">
         <f t="shared" si="100"/>
@@ -71918,10 +71922,10 @@
         <v>5</v>
       </c>
       <c r="C3156" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3156" s="6" t="s">
-        <v>3274</v>
+        <v>3265</v>
       </c>
       <c r="E3156" t="str">
         <f t="shared" si="100"/>
@@ -71937,10 +71941,10 @@
         <v>6</v>
       </c>
       <c r="C3157" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3157" s="6" t="s">
-        <v>3270</v>
+        <v>3261</v>
       </c>
       <c r="E3157" t="str">
         <f t="shared" si="100"/>
@@ -71956,10 +71960,10 @@
         <v>7</v>
       </c>
       <c r="C3158" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3158" s="6" t="s">
-        <v>3269</v>
+        <v>3260</v>
       </c>
       <c r="E3158" t="str">
         <f t="shared" si="100"/>
@@ -71975,10 +71979,10 @@
         <v>8</v>
       </c>
       <c r="C3159" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3159" s="6" t="s">
-        <v>3254</v>
+        <v>3245</v>
       </c>
       <c r="E3159" t="str">
         <f t="shared" si="100"/>
@@ -71994,7 +71998,7 @@
         <v>9</v>
       </c>
       <c r="C3160" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3160" s="6" t="s">
         <v>400</v>
@@ -72013,7 +72017,7 @@
         <v>10</v>
       </c>
       <c r="C3161" s="6" t="s">
-        <v>3268</v>
+        <v>3259</v>
       </c>
       <c r="D3161" s="6" t="s">
         <v>403</v>
@@ -72032,10 +72036,10 @@
         <v>1</v>
       </c>
       <c r="C3162" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3162" s="6" t="s">
-        <v>3275</v>
+        <v>3266</v>
       </c>
       <c r="E3162" t="str">
         <f t="shared" si="100"/>
@@ -72051,10 +72055,10 @@
         <v>2</v>
       </c>
       <c r="C3163" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3163" s="6" t="s">
-        <v>3280</v>
+        <v>3271</v>
       </c>
       <c r="E3163" t="str">
         <f t="shared" si="100"/>
@@ -72070,10 +72074,10 @@
         <v>3</v>
       </c>
       <c r="C3164" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3164" s="6" t="s">
-        <v>3281</v>
+        <v>3272</v>
       </c>
       <c r="E3164" t="str">
         <f t="shared" si="100"/>
@@ -72089,10 +72093,10 @@
         <v>4</v>
       </c>
       <c r="C3165" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3165" s="6" t="s">
-        <v>3282</v>
+        <v>3273</v>
       </c>
       <c r="E3165" t="str">
         <f t="shared" si="100"/>
@@ -72108,10 +72112,10 @@
         <v>5</v>
       </c>
       <c r="C3166" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3166" s="6" t="s">
-        <v>3279</v>
+        <v>3270</v>
       </c>
       <c r="E3166" t="str">
         <f t="shared" si="100"/>
@@ -72127,10 +72131,10 @@
         <v>6</v>
       </c>
       <c r="C3167" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3167" s="6" t="s">
-        <v>3283</v>
+        <v>3274</v>
       </c>
       <c r="E3167" t="str">
         <f t="shared" si="100"/>
@@ -72146,10 +72150,10 @@
         <v>7</v>
       </c>
       <c r="C3168" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3168" s="6" t="s">
-        <v>3284</v>
+        <v>3275</v>
       </c>
       <c r="E3168" t="str">
         <f t="shared" si="100"/>
@@ -72165,10 +72169,10 @@
         <v>8</v>
       </c>
       <c r="C3169" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3169" s="6" t="s">
-        <v>3278</v>
+        <v>3269</v>
       </c>
       <c r="E3169" t="str">
         <f t="shared" si="100"/>
@@ -72184,10 +72188,10 @@
         <v>9</v>
       </c>
       <c r="C3170" s="6" t="s">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="D3170" s="6" t="s">
-        <v>3277</v>
+        <v>3268</v>
       </c>
       <c r="E3170" t="str">
         <f t="shared" si="100"/>
@@ -72203,10 +72207,10 @@
         <v>10</v>
       </c>
       <c r="C3171" s="6" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D3171" s="6" t="s">
         <v>3276</v>
-      </c>
-      <c r="D3171" s="6" t="s">
-        <v>3285</v>
       </c>
       <c r="E3171" t="str">
         <f t="shared" si="100"/>
@@ -72222,10 +72226,10 @@
         <v>1</v>
       </c>
       <c r="C3172" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3172" s="6" t="s">
-        <v>3286</v>
+        <v>3277</v>
       </c>
       <c r="E3172" t="str">
         <f t="shared" si="100"/>
@@ -72241,10 +72245,10 @@
         <v>2</v>
       </c>
       <c r="C3173" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3173" s="6" t="s">
-        <v>3290</v>
+        <v>3281</v>
       </c>
       <c r="E3173" t="str">
         <f t="shared" si="100"/>
@@ -72260,10 +72264,10 @@
         <v>3</v>
       </c>
       <c r="C3174" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3174" s="6" t="s">
-        <v>3291</v>
+        <v>3282</v>
       </c>
       <c r="E3174" t="str">
         <f t="shared" si="100"/>
@@ -72279,10 +72283,10 @@
         <v>4</v>
       </c>
       <c r="C3175" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3175" s="6" t="s">
-        <v>3292</v>
+        <v>3283</v>
       </c>
       <c r="E3175" t="str">
         <f t="shared" si="100"/>
@@ -72298,10 +72302,10 @@
         <v>5</v>
       </c>
       <c r="C3176" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3176" s="6" t="s">
-        <v>3293</v>
+        <v>3284</v>
       </c>
       <c r="E3176" t="str">
         <f t="shared" si="100"/>
@@ -72317,10 +72321,10 @@
         <v>6</v>
       </c>
       <c r="C3177" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3177" s="6" t="s">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="E3177" t="str">
         <f t="shared" si="100"/>
@@ -72336,10 +72340,10 @@
         <v>7</v>
       </c>
       <c r="C3178" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3178" s="6" t="s">
-        <v>3288</v>
+        <v>3279</v>
       </c>
       <c r="E3178" t="str">
         <f t="shared" si="100"/>
@@ -72355,10 +72359,10 @@
         <v>8</v>
       </c>
       <c r="C3179" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3179" s="6" t="s">
-        <v>3294</v>
+        <v>3285</v>
       </c>
       <c r="E3179" t="str">
         <f t="shared" si="100"/>
@@ -72374,10 +72378,10 @@
         <v>9</v>
       </c>
       <c r="C3180" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3180" s="6" t="s">
-        <v>3295</v>
+        <v>3286</v>
       </c>
       <c r="E3180" t="str">
         <f t="shared" si="100"/>
@@ -72393,10 +72397,10 @@
         <v>10</v>
       </c>
       <c r="C3181" s="6" t="s">
-        <v>3296</v>
+        <v>3287</v>
       </c>
       <c r="D3181" s="6" t="s">
-        <v>3287</v>
+        <v>3278</v>
       </c>
       <c r="E3181" t="str">
         <f t="shared" si="100"/>
@@ -72412,10 +72416,10 @@
         <v>1</v>
       </c>
       <c r="C3182" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3182" s="6" t="s">
-        <v>3297</v>
+        <v>3288</v>
       </c>
       <c r="E3182" t="str">
         <f t="shared" si="100"/>
@@ -72431,10 +72435,10 @@
         <v>2</v>
       </c>
       <c r="C3183" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3183" s="6" t="s">
-        <v>3301</v>
+        <v>3292</v>
       </c>
       <c r="E3183" t="str">
         <f t="shared" si="100"/>
@@ -72450,10 +72454,10 @@
         <v>3</v>
       </c>
       <c r="C3184" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3184" s="6" t="s">
-        <v>3302</v>
+        <v>3293</v>
       </c>
       <c r="E3184" t="str">
         <f t="shared" si="100"/>
@@ -72469,10 +72473,10 @@
         <v>4</v>
       </c>
       <c r="C3185" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3185" s="6" t="s">
-        <v>3303</v>
+        <v>3294</v>
       </c>
       <c r="E3185" t="str">
         <f t="shared" si="100"/>
@@ -72488,10 +72492,10 @@
         <v>5</v>
       </c>
       <c r="C3186" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3186" s="6" t="s">
-        <v>3300</v>
+        <v>3291</v>
       </c>
       <c r="E3186" t="str">
         <f t="shared" si="100"/>
@@ -72507,10 +72511,10 @@
         <v>6</v>
       </c>
       <c r="C3187" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3187" s="6" t="s">
-        <v>3304</v>
+        <v>3295</v>
       </c>
       <c r="E3187" t="str">
         <f t="shared" si="100"/>
@@ -72526,10 +72530,10 @@
         <v>7</v>
       </c>
       <c r="C3188" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3188" s="6" t="s">
-        <v>3305</v>
+        <v>3296</v>
       </c>
       <c r="E3188" t="str">
         <f t="shared" si="100"/>
@@ -72545,10 +72549,10 @@
         <v>8</v>
       </c>
       <c r="C3189" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3189" s="6" t="s">
-        <v>3299</v>
+        <v>3290</v>
       </c>
       <c r="E3189" t="str">
         <f t="shared" si="100"/>
@@ -72564,10 +72568,10 @@
         <v>9</v>
       </c>
       <c r="C3190" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3190" s="6" t="s">
-        <v>3298</v>
+        <v>3289</v>
       </c>
       <c r="E3190" t="str">
         <f t="shared" si="100"/>
@@ -72583,10 +72587,10 @@
         <v>10</v>
       </c>
       <c r="C3191" s="6" t="s">
-        <v>3307</v>
+        <v>3298</v>
       </c>
       <c r="D3191" s="6" t="s">
-        <v>3306</v>
+        <v>3297</v>
       </c>
       <c r="E3191" t="str">
         <f t="shared" si="100"/>
@@ -72602,10 +72606,10 @@
         <v>1</v>
       </c>
       <c r="C3192" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3192" s="6" t="s">
-        <v>3309</v>
+        <v>3300</v>
       </c>
       <c r="E3192" t="str">
         <f t="shared" si="100"/>
@@ -72621,10 +72625,10 @@
         <v>2</v>
       </c>
       <c r="C3193" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3193" s="6" t="s">
-        <v>3313</v>
+        <v>3304</v>
       </c>
       <c r="E3193" t="str">
         <f t="shared" ref="E3193:E3256" si="102">CONCATENATE("(",CHAR(34),A3193,CHAR(34),",",CHAR(34),B3193,CHAR(34),",",CHAR(34),C3193,CHAR(34),",",CHAR(34),D3193,CHAR(34),"),")</f>
@@ -72640,10 +72644,10 @@
         <v>3</v>
       </c>
       <c r="C3194" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3194" s="6" t="s">
-        <v>3314</v>
+        <v>3305</v>
       </c>
       <c r="E3194" t="str">
         <f t="shared" si="102"/>
@@ -72659,10 +72663,10 @@
         <v>4</v>
       </c>
       <c r="C3195" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3195" s="6" t="s">
-        <v>3315</v>
+        <v>3306</v>
       </c>
       <c r="E3195" t="str">
         <f t="shared" si="102"/>
@@ -72678,10 +72682,10 @@
         <v>5</v>
       </c>
       <c r="C3196" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3196" s="6" t="s">
-        <v>3316</v>
+        <v>3307</v>
       </c>
       <c r="E3196" t="str">
         <f t="shared" si="102"/>
@@ -72697,10 +72701,10 @@
         <v>6</v>
       </c>
       <c r="C3197" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3197" s="6" t="s">
-        <v>3312</v>
+        <v>3303</v>
       </c>
       <c r="E3197" t="str">
         <f t="shared" si="102"/>
@@ -72716,10 +72720,10 @@
         <v>7</v>
       </c>
       <c r="C3198" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3198" s="6" t="s">
-        <v>3311</v>
+        <v>3302</v>
       </c>
       <c r="E3198" t="str">
         <f t="shared" si="102"/>
@@ -72735,10 +72739,10 @@
         <v>8</v>
       </c>
       <c r="C3199" s="6" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D3199" s="6" t="s">
         <v>3308</v>
-      </c>
-      <c r="D3199" s="6" t="s">
-        <v>3317</v>
       </c>
       <c r="E3199" t="str">
         <f t="shared" si="102"/>
@@ -72754,10 +72758,10 @@
         <v>9</v>
       </c>
       <c r="C3200" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3200" s="6" t="s">
-        <v>3318</v>
+        <v>3309</v>
       </c>
       <c r="E3200" t="str">
         <f t="shared" si="102"/>
@@ -72773,10 +72777,10 @@
         <v>10</v>
       </c>
       <c r="C3201" s="6" t="s">
-        <v>3308</v>
+        <v>3299</v>
       </c>
       <c r="D3201" s="6" t="s">
-        <v>3310</v>
+        <v>3301</v>
       </c>
       <c r="E3201" t="str">
         <f t="shared" si="102"/>
@@ -72792,10 +72796,10 @@
         <v>1</v>
       </c>
       <c r="C3202" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3202" s="6" t="s">
-        <v>3321</v>
+        <v>3312</v>
       </c>
       <c r="E3202" t="str">
         <f t="shared" si="102"/>
@@ -72811,10 +72815,10 @@
         <v>2</v>
       </c>
       <c r="C3203" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3203" s="6" t="s">
-        <v>3324</v>
+        <v>3315</v>
       </c>
       <c r="E3203" t="str">
         <f t="shared" si="102"/>
@@ -72830,10 +72834,10 @@
         <v>3</v>
       </c>
       <c r="C3204" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3204" s="6" t="s">
-        <v>3325</v>
+        <v>3316</v>
       </c>
       <c r="E3204" t="str">
         <f t="shared" si="102"/>
@@ -72849,10 +72853,10 @@
         <v>4</v>
       </c>
       <c r="C3205" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3205" s="6" t="s">
-        <v>3326</v>
+        <v>3317</v>
       </c>
       <c r="E3205" t="str">
         <f t="shared" si="102"/>
@@ -72868,10 +72872,10 @@
         <v>5</v>
       </c>
       <c r="C3206" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3206" s="6" t="s">
-        <v>3323</v>
+        <v>3314</v>
       </c>
       <c r="E3206" t="str">
         <f t="shared" si="102"/>
@@ -72887,10 +72891,10 @@
         <v>6</v>
       </c>
       <c r="C3207" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3207" s="6" t="s">
-        <v>3327</v>
+        <v>3318</v>
       </c>
       <c r="E3207" t="str">
         <f t="shared" si="102"/>
@@ -72906,10 +72910,10 @@
         <v>7</v>
       </c>
       <c r="C3208" s="6" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D3208" s="6" t="s">
         <v>3319</v>
-      </c>
-      <c r="D3208" s="6" t="s">
-        <v>3328</v>
       </c>
       <c r="E3208" t="str">
         <f t="shared" si="102"/>
@@ -72925,10 +72929,10 @@
         <v>8</v>
       </c>
       <c r="C3209" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3209" s="6" t="s">
-        <v>3322</v>
+        <v>3313</v>
       </c>
       <c r="E3209" t="str">
         <f t="shared" si="102"/>
@@ -72944,10 +72948,10 @@
         <v>9</v>
       </c>
       <c r="C3210" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3210" s="6" t="s">
-        <v>3320</v>
+        <v>3311</v>
       </c>
       <c r="E3210" t="str">
         <f t="shared" si="102"/>
@@ -72963,10 +72967,10 @@
         <v>10</v>
       </c>
       <c r="C3211" s="6" t="s">
-        <v>3319</v>
+        <v>3310</v>
       </c>
       <c r="D3211" s="6" t="s">
-        <v>3329</v>
+        <v>3320</v>
       </c>
       <c r="E3211" t="str">
         <f t="shared" si="102"/>
@@ -72982,10 +72986,10 @@
         <v>1</v>
       </c>
       <c r="C3212" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3212" s="6" t="s">
-        <v>3330</v>
+        <v>3321</v>
       </c>
       <c r="E3212" t="str">
         <f t="shared" si="102"/>
@@ -73001,10 +73005,10 @@
         <v>2</v>
       </c>
       <c r="C3213" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3213" s="6" t="s">
-        <v>3335</v>
+        <v>3326</v>
       </c>
       <c r="E3213" t="str">
         <f t="shared" si="102"/>
@@ -73020,10 +73024,10 @@
         <v>3</v>
       </c>
       <c r="C3214" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3214" s="6" t="s">
-        <v>3336</v>
+        <v>3327</v>
       </c>
       <c r="E3214" t="str">
         <f t="shared" si="102"/>
@@ -73039,10 +73043,10 @@
         <v>4</v>
       </c>
       <c r="C3215" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3215" s="6" t="s">
-        <v>3337</v>
+        <v>3328</v>
       </c>
       <c r="E3215" t="str">
         <f t="shared" si="102"/>
@@ -73058,10 +73062,10 @@
         <v>5</v>
       </c>
       <c r="C3216" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3216" s="6" t="s">
-        <v>3338</v>
+        <v>3329</v>
       </c>
       <c r="E3216" t="str">
         <f t="shared" si="102"/>
@@ -73077,10 +73081,10 @@
         <v>6</v>
       </c>
       <c r="C3217" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3217" s="6" t="s">
-        <v>3334</v>
+        <v>3325</v>
       </c>
       <c r="E3217" t="str">
         <f t="shared" si="102"/>
@@ -73096,10 +73100,10 @@
         <v>7</v>
       </c>
       <c r="C3218" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3218" s="6" t="s">
-        <v>3333</v>
+        <v>3324</v>
       </c>
       <c r="E3218" t="str">
         <f t="shared" si="102"/>
@@ -73115,10 +73119,10 @@
         <v>8</v>
       </c>
       <c r="C3219" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3219" s="6" t="s">
-        <v>3339</v>
+        <v>3330</v>
       </c>
       <c r="E3219" t="str">
         <f t="shared" si="102"/>
@@ -73134,10 +73138,10 @@
         <v>9</v>
       </c>
       <c r="C3220" s="6" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D3220" s="6" t="s">
         <v>3331</v>
-      </c>
-      <c r="D3220" s="6" t="s">
-        <v>3340</v>
       </c>
       <c r="E3220" t="str">
         <f t="shared" si="102"/>
@@ -73153,10 +73157,10 @@
         <v>10</v>
       </c>
       <c r="C3221" s="6" t="s">
-        <v>3331</v>
+        <v>3322</v>
       </c>
       <c r="D3221" s="6" t="s">
-        <v>3332</v>
+        <v>3323</v>
       </c>
       <c r="E3221" t="str">
         <f t="shared" si="102"/>
@@ -73172,10 +73176,10 @@
         <v>1</v>
       </c>
       <c r="C3222" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3222" s="6" t="s">
-        <v>3342</v>
+        <v>3333</v>
       </c>
       <c r="E3222" t="str">
         <f t="shared" si="102"/>
@@ -73191,10 +73195,10 @@
         <v>2</v>
       </c>
       <c r="C3223" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3223" s="6" t="s">
-        <v>3346</v>
+        <v>3337</v>
       </c>
       <c r="E3223" t="str">
         <f t="shared" si="102"/>
@@ -73210,10 +73214,10 @@
         <v>3</v>
       </c>
       <c r="C3224" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3224" s="6" t="s">
-        <v>3347</v>
+        <v>3338</v>
       </c>
       <c r="E3224" t="str">
         <f t="shared" si="102"/>
@@ -73229,10 +73233,10 @@
         <v>4</v>
       </c>
       <c r="C3225" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3225" s="6" t="s">
-        <v>3348</v>
+        <v>3339</v>
       </c>
       <c r="E3225" t="str">
         <f t="shared" si="102"/>
@@ -73248,10 +73252,10 @@
         <v>5</v>
       </c>
       <c r="C3226" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3226" s="6" t="s">
-        <v>3345</v>
+        <v>3336</v>
       </c>
       <c r="E3226" t="str">
         <f t="shared" si="102"/>
@@ -73267,10 +73271,10 @@
         <v>6</v>
       </c>
       <c r="C3227" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3227" s="6" t="s">
-        <v>3349</v>
+        <v>3340</v>
       </c>
       <c r="E3227" t="str">
         <f t="shared" si="102"/>
@@ -73286,10 +73290,10 @@
         <v>7</v>
       </c>
       <c r="C3228" s="6" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D3228" s="6" t="s">
         <v>3341</v>
-      </c>
-      <c r="D3228" s="6" t="s">
-        <v>3350</v>
       </c>
       <c r="E3228" t="str">
         <f t="shared" si="102"/>
@@ -73305,10 +73309,10 @@
         <v>8</v>
       </c>
       <c r="C3229" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3229" s="6" t="s">
-        <v>3344</v>
+        <v>3335</v>
       </c>
       <c r="E3229" t="str">
         <f t="shared" si="102"/>
@@ -73324,10 +73328,10 @@
         <v>9</v>
       </c>
       <c r="C3230" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3230" s="6" t="s">
-        <v>3343</v>
+        <v>3334</v>
       </c>
       <c r="E3230" t="str">
         <f t="shared" si="102"/>
@@ -73343,10 +73347,10 @@
         <v>10</v>
       </c>
       <c r="C3231" s="6" t="s">
-        <v>3341</v>
+        <v>3332</v>
       </c>
       <c r="D3231" s="6" t="s">
-        <v>3351</v>
+        <v>3342</v>
       </c>
       <c r="E3231" t="str">
         <f t="shared" si="102"/>
@@ -73362,10 +73366,10 @@
         <v>1</v>
       </c>
       <c r="C3232" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3232" s="6" t="s">
-        <v>3353</v>
+        <v>3344</v>
       </c>
       <c r="E3232" t="str">
         <f t="shared" si="102"/>
@@ -73381,10 +73385,10 @@
         <v>2</v>
       </c>
       <c r="C3233" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3233" s="6" t="s">
-        <v>3357</v>
+        <v>3348</v>
       </c>
       <c r="E3233" t="str">
         <f t="shared" si="102"/>
@@ -73400,10 +73404,10 @@
         <v>3</v>
       </c>
       <c r="C3234" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3234" s="6" t="s">
-        <v>3358</v>
+        <v>3349</v>
       </c>
       <c r="E3234" t="str">
         <f t="shared" si="102"/>
@@ -73419,10 +73423,10 @@
         <v>4</v>
       </c>
       <c r="C3235" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3235" s="6" t="s">
-        <v>3356</v>
+        <v>3347</v>
       </c>
       <c r="E3235" t="str">
         <f t="shared" si="102"/>
@@ -73438,10 +73442,10 @@
         <v>5</v>
       </c>
       <c r="C3236" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3236" s="6" t="s">
-        <v>3359</v>
+        <v>3350</v>
       </c>
       <c r="E3236" t="str">
         <f t="shared" si="102"/>
@@ -73457,10 +73461,10 @@
         <v>6</v>
       </c>
       <c r="C3237" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3237" s="6" t="s">
-        <v>3360</v>
+        <v>3351</v>
       </c>
       <c r="E3237" t="str">
         <f t="shared" si="102"/>
@@ -73476,10 +73480,10 @@
         <v>7</v>
       </c>
       <c r="C3238" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3238" s="6" t="s">
-        <v>3355</v>
+        <v>3346</v>
       </c>
       <c r="E3238" t="str">
         <f t="shared" si="102"/>
@@ -73495,10 +73499,10 @@
         <v>8</v>
       </c>
       <c r="C3239" s="6" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D3239" s="6" t="s">
         <v>3352</v>
-      </c>
-      <c r="D3239" s="6" t="s">
-        <v>3361</v>
       </c>
       <c r="E3239" t="str">
         <f t="shared" si="102"/>
@@ -73514,10 +73518,10 @@
         <v>9</v>
       </c>
       <c r="C3240" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3240" s="6" t="s">
-        <v>3362</v>
+        <v>3353</v>
       </c>
       <c r="E3240" t="str">
         <f t="shared" si="102"/>
@@ -73533,10 +73537,10 @@
         <v>10</v>
       </c>
       <c r="C3241" s="6" t="s">
-        <v>3352</v>
+        <v>3343</v>
       </c>
       <c r="D3241" s="6" t="s">
-        <v>3354</v>
+        <v>3345</v>
       </c>
       <c r="E3241" t="str">
         <f t="shared" si="102"/>
@@ -73552,10 +73556,10 @@
         <v>1</v>
       </c>
       <c r="C3242" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3242" s="6" t="s">
-        <v>3364</v>
+        <v>3355</v>
       </c>
       <c r="E3242" t="str">
         <f t="shared" si="102"/>
@@ -73571,10 +73575,10 @@
         <v>2</v>
       </c>
       <c r="C3243" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3243" s="6" t="s">
-        <v>3368</v>
+        <v>3359</v>
       </c>
       <c r="E3243" t="str">
         <f t="shared" si="102"/>
@@ -73590,10 +73594,10 @@
         <v>3</v>
       </c>
       <c r="C3244" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3244" s="6" t="s">
-        <v>3369</v>
+        <v>3360</v>
       </c>
       <c r="E3244" t="str">
         <f t="shared" si="102"/>
@@ -73609,10 +73613,10 @@
         <v>4</v>
       </c>
       <c r="C3245" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3245" s="6" t="s">
-        <v>3370</v>
+        <v>3361</v>
       </c>
       <c r="E3245" t="str">
         <f t="shared" si="102"/>
@@ -73628,10 +73632,10 @@
         <v>5</v>
       </c>
       <c r="C3246" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3246" s="6" t="s">
-        <v>3371</v>
+        <v>3362</v>
       </c>
       <c r="E3246" t="str">
         <f t="shared" si="102"/>
@@ -73647,10 +73651,10 @@
         <v>6</v>
       </c>
       <c r="C3247" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3247" s="6" t="s">
-        <v>3367</v>
+        <v>3358</v>
       </c>
       <c r="E3247" t="str">
         <f t="shared" si="102"/>
@@ -73666,10 +73670,10 @@
         <v>7</v>
       </c>
       <c r="C3248" s="6" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D3248" s="6" t="s">
         <v>3363</v>
-      </c>
-      <c r="D3248" s="6" t="s">
-        <v>3372</v>
       </c>
       <c r="E3248" t="str">
         <f t="shared" si="102"/>
@@ -73685,10 +73689,10 @@
         <v>8</v>
       </c>
       <c r="C3249" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3249" s="6" t="s">
-        <v>3366</v>
+        <v>3357</v>
       </c>
       <c r="E3249" t="str">
         <f t="shared" si="102"/>
@@ -73704,10 +73708,10 @@
         <v>9</v>
       </c>
       <c r="C3250" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3250" s="6" t="s">
-        <v>3365</v>
+        <v>3356</v>
       </c>
       <c r="E3250" t="str">
         <f t="shared" si="102"/>
@@ -73723,10 +73727,10 @@
         <v>10</v>
       </c>
       <c r="C3251" s="6" t="s">
-        <v>3363</v>
+        <v>3354</v>
       </c>
       <c r="D3251" s="6" t="s">
-        <v>3373</v>
+        <v>3364</v>
       </c>
       <c r="E3251" t="str">
         <f t="shared" si="102"/>
@@ -73742,10 +73746,10 @@
         <v>1</v>
       </c>
       <c r="C3252" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3252" s="6" t="s">
-        <v>3374</v>
+        <v>3365</v>
       </c>
       <c r="E3252" t="str">
         <f t="shared" si="102"/>
@@ -73761,10 +73765,10 @@
         <v>2</v>
       </c>
       <c r="C3253" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3253" s="6" t="s">
-        <v>3379</v>
+        <v>3370</v>
       </c>
       <c r="E3253" t="str">
         <f t="shared" si="102"/>
@@ -73780,10 +73784,10 @@
         <v>3</v>
       </c>
       <c r="C3254" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3254" s="6" t="s">
-        <v>3380</v>
+        <v>3371</v>
       </c>
       <c r="E3254" t="str">
         <f t="shared" si="102"/>
@@ -73799,10 +73803,10 @@
         <v>4</v>
       </c>
       <c r="C3255" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3255" s="6" t="s">
-        <v>3381</v>
+        <v>3372</v>
       </c>
       <c r="E3255" t="str">
         <f t="shared" si="102"/>
@@ -73818,10 +73822,10 @@
         <v>5</v>
       </c>
       <c r="C3256" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3256" s="6" t="s">
-        <v>3378</v>
+        <v>3369</v>
       </c>
       <c r="E3256" t="str">
         <f t="shared" si="102"/>
@@ -73837,10 +73841,10 @@
         <v>6</v>
       </c>
       <c r="C3257" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3257" s="6" t="s">
-        <v>3382</v>
+        <v>3373</v>
       </c>
       <c r="E3257" t="str">
         <f t="shared" ref="E3257:E3320" si="104">CONCATENATE("(",CHAR(34),A3257,CHAR(34),",",CHAR(34),B3257,CHAR(34),",",CHAR(34),C3257,CHAR(34),",",CHAR(34),D3257,CHAR(34),"),")</f>
@@ -73856,10 +73860,10 @@
         <v>7</v>
       </c>
       <c r="C3258" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3258" s="6" t="s">
-        <v>3377</v>
+        <v>3368</v>
       </c>
       <c r="E3258" t="str">
         <f t="shared" si="104"/>
@@ -73875,10 +73879,10 @@
         <v>8</v>
       </c>
       <c r="C3259" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3259" s="6" t="s">
-        <v>3383</v>
+        <v>3374</v>
       </c>
       <c r="E3259" t="str">
         <f t="shared" si="104"/>
@@ -73894,10 +73898,10 @@
         <v>9</v>
       </c>
       <c r="C3260" s="6" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D3260" s="6" t="s">
         <v>3375</v>
-      </c>
-      <c r="D3260" s="6" t="s">
-        <v>3384</v>
       </c>
       <c r="E3260" t="str">
         <f t="shared" si="104"/>
@@ -73913,10 +73917,10 @@
         <v>10</v>
       </c>
       <c r="C3261" s="6" t="s">
-        <v>3375</v>
+        <v>3366</v>
       </c>
       <c r="D3261" s="6" t="s">
-        <v>3376</v>
+        <v>3367</v>
       </c>
       <c r="E3261" t="str">
         <f t="shared" si="104"/>
@@ -73932,10 +73936,10 @@
         <v>1</v>
       </c>
       <c r="C3262" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3262" s="6" t="s">
-        <v>3385</v>
+        <v>3376</v>
       </c>
       <c r="E3262" t="str">
         <f t="shared" si="104"/>
@@ -73951,10 +73955,10 @@
         <v>2</v>
       </c>
       <c r="C3263" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3263" s="6" t="s">
-        <v>3390</v>
+        <v>3381</v>
       </c>
       <c r="E3263" t="str">
         <f t="shared" si="104"/>
@@ -73970,10 +73974,10 @@
         <v>3</v>
       </c>
       <c r="C3264" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3264" s="6" t="s">
-        <v>3391</v>
+        <v>3382</v>
       </c>
       <c r="E3264" t="str">
         <f t="shared" si="104"/>
@@ -73989,10 +73993,10 @@
         <v>4</v>
       </c>
       <c r="C3265" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3265" s="6" t="s">
-        <v>3392</v>
+        <v>3383</v>
       </c>
       <c r="E3265" t="str">
         <f t="shared" si="104"/>
@@ -74008,10 +74012,10 @@
         <v>5</v>
       </c>
       <c r="C3266" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3266" s="6" t="s">
-        <v>3393</v>
+        <v>3384</v>
       </c>
       <c r="E3266" t="str">
         <f t="shared" si="104"/>
@@ -74027,10 +74031,10 @@
         <v>6</v>
       </c>
       <c r="C3267" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3267" s="6" t="s">
-        <v>3389</v>
+        <v>3380</v>
       </c>
       <c r="E3267" t="str">
         <f t="shared" si="104"/>
@@ -74046,10 +74050,10 @@
         <v>7</v>
       </c>
       <c r="C3268" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3268" s="6" t="s">
-        <v>3394</v>
+        <v>3385</v>
       </c>
       <c r="E3268" t="str">
         <f t="shared" si="104"/>
@@ -74065,10 +74069,10 @@
         <v>8</v>
       </c>
       <c r="C3269" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3269" s="6" t="s">
-        <v>3388</v>
+        <v>3379</v>
       </c>
       <c r="E3269" t="str">
         <f t="shared" si="104"/>
@@ -74084,10 +74088,10 @@
         <v>9</v>
       </c>
       <c r="C3270" s="6" t="s">
-        <v>3386</v>
+        <v>3377</v>
       </c>
       <c r="D3270" s="6" t="s">
-        <v>3387</v>
+        <v>3378</v>
       </c>
       <c r="E3270" t="str">
         <f t="shared" si="104"/>
@@ -74103,10 +74107,10 @@
         <v>10</v>
       </c>
       <c r="C3271" s="6" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D3271" s="6" t="s">
         <v>3386</v>
-      </c>
-      <c r="D3271" s="6" t="s">
-        <v>3395</v>
       </c>
       <c r="E3271" t="str">
         <f t="shared" si="104"/>
@@ -74122,10 +74126,10 @@
         <v>1</v>
       </c>
       <c r="C3272" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3272" s="15" t="s">
-        <v>3397</v>
+        <v>3388</v>
       </c>
       <c r="E3272" t="str">
         <f t="shared" si="104"/>
@@ -74141,10 +74145,10 @@
         <v>2</v>
       </c>
       <c r="C3273" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3273" s="6" t="s">
-        <v>3398</v>
+        <v>3389</v>
       </c>
       <c r="E3273" t="str">
         <f t="shared" si="104"/>
@@ -74160,10 +74164,10 @@
         <v>3</v>
       </c>
       <c r="C3274" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3274" s="6" t="s">
-        <v>3399</v>
+        <v>3390</v>
       </c>
       <c r="E3274" t="str">
         <f t="shared" si="104"/>
@@ -74179,10 +74183,10 @@
         <v>4</v>
       </c>
       <c r="C3275" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3275" s="6" t="s">
-        <v>3400</v>
+        <v>3391</v>
       </c>
       <c r="E3275" t="str">
         <f t="shared" si="104"/>
@@ -74198,10 +74202,10 @@
         <v>5</v>
       </c>
       <c r="C3276" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3276" s="6" t="s">
-        <v>3401</v>
+        <v>3392</v>
       </c>
       <c r="E3276" t="str">
         <f t="shared" si="104"/>
@@ -74217,10 +74221,10 @@
         <v>6</v>
       </c>
       <c r="C3277" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3277" s="6" t="s">
-        <v>3402</v>
+        <v>3393</v>
       </c>
       <c r="E3277" t="str">
         <f t="shared" si="104"/>
@@ -74236,10 +74240,10 @@
         <v>7</v>
       </c>
       <c r="C3278" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3278" s="6" t="s">
-        <v>3403</v>
+        <v>3394</v>
       </c>
       <c r="E3278" t="str">
         <f t="shared" si="104"/>
@@ -74255,10 +74259,10 @@
         <v>8</v>
       </c>
       <c r="C3279" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3279" s="6" t="s">
-        <v>3404</v>
+        <v>3395</v>
       </c>
       <c r="E3279" t="str">
         <f t="shared" si="104"/>
@@ -74274,10 +74278,10 @@
         <v>9</v>
       </c>
       <c r="C3280" s="15" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D3280" s="6" t="s">
         <v>3396</v>
-      </c>
-      <c r="D3280" s="6" t="s">
-        <v>3405</v>
       </c>
       <c r="E3280" t="str">
         <f t="shared" si="104"/>
@@ -74293,10 +74297,10 @@
         <v>10</v>
       </c>
       <c r="C3281" s="15" t="s">
-        <v>3396</v>
+        <v>3387</v>
       </c>
       <c r="D3281" s="6" t="s">
-        <v>3406</v>
+        <v>3397</v>
       </c>
       <c r="E3281" t="str">
         <f t="shared" si="104"/>
@@ -74312,10 +74316,10 @@
         <v>1</v>
       </c>
       <c r="C3282" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3282" s="15" t="s">
-        <v>3408</v>
+        <v>3399</v>
       </c>
       <c r="E3282" t="str">
         <f t="shared" si="104"/>
@@ -74331,10 +74335,10 @@
         <v>2</v>
       </c>
       <c r="C3283" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3283" s="6" t="s">
-        <v>3412</v>
+        <v>3403</v>
       </c>
       <c r="E3283" t="str">
         <f t="shared" si="104"/>
@@ -74350,10 +74354,10 @@
         <v>3</v>
       </c>
       <c r="C3284" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3284" s="6" t="s">
-        <v>3413</v>
+        <v>3404</v>
       </c>
       <c r="E3284" t="str">
         <f t="shared" si="104"/>
@@ -74369,10 +74373,10 @@
         <v>4</v>
       </c>
       <c r="C3285" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3285" s="6" t="s">
-        <v>3414</v>
+        <v>3405</v>
       </c>
       <c r="E3285" t="str">
         <f t="shared" si="104"/>
@@ -74388,10 +74392,10 @@
         <v>5</v>
       </c>
       <c r="C3286" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3286" s="6" t="s">
-        <v>3415</v>
+        <v>3406</v>
       </c>
       <c r="E3286" t="str">
         <f t="shared" si="104"/>
@@ -74407,10 +74411,10 @@
         <v>6</v>
       </c>
       <c r="C3287" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3287" s="6" t="s">
-        <v>3411</v>
+        <v>3402</v>
       </c>
       <c r="E3287" t="str">
         <f t="shared" si="104"/>
@@ -74426,10 +74430,10 @@
         <v>7</v>
       </c>
       <c r="C3288" s="15" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D3288" s="6" t="s">
         <v>3407</v>
-      </c>
-      <c r="D3288" s="6" t="s">
-        <v>3416</v>
       </c>
       <c r="E3288" t="str">
         <f t="shared" si="104"/>
@@ -74445,10 +74449,10 @@
         <v>8</v>
       </c>
       <c r="C3289" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3289" s="6" t="s">
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="E3289" t="str">
         <f t="shared" si="104"/>
@@ -74464,10 +74468,10 @@
         <v>9</v>
       </c>
       <c r="C3290" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3290" s="6" t="s">
-        <v>3409</v>
+        <v>3400</v>
       </c>
       <c r="E3290" t="str">
         <f t="shared" si="104"/>
@@ -74483,10 +74487,10 @@
         <v>10</v>
       </c>
       <c r="C3291" s="15" t="s">
-        <v>3407</v>
+        <v>3398</v>
       </c>
       <c r="D3291" s="6" t="s">
-        <v>3417</v>
+        <v>3408</v>
       </c>
       <c r="E3291" t="str">
         <f t="shared" si="104"/>
@@ -74502,10 +74506,10 @@
         <v>1</v>
       </c>
       <c r="C3292" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3292" s="15" t="s">
-        <v>3419</v>
+        <v>3410</v>
       </c>
       <c r="E3292" t="str">
         <f t="shared" si="104"/>
@@ -74521,10 +74525,10 @@
         <v>2</v>
       </c>
       <c r="C3293" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3293" s="6" t="s">
-        <v>3423</v>
+        <v>3414</v>
       </c>
       <c r="E3293" t="str">
         <f t="shared" si="104"/>
@@ -74540,10 +74544,10 @@
         <v>3</v>
       </c>
       <c r="C3294" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3294" s="6" t="s">
-        <v>3424</v>
+        <v>3415</v>
       </c>
       <c r="E3294" t="str">
         <f t="shared" si="104"/>
@@ -74559,10 +74563,10 @@
         <v>4</v>
       </c>
       <c r="C3295" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3295" s="6" t="s">
-        <v>3424</v>
+        <v>3415</v>
       </c>
       <c r="E3295" t="str">
         <f t="shared" si="104"/>
@@ -74578,10 +74582,10 @@
         <v>5</v>
       </c>
       <c r="C3296" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3296" s="6" t="s">
-        <v>3422</v>
+        <v>3413</v>
       </c>
       <c r="E3296" t="str">
         <f t="shared" si="104"/>
@@ -74597,10 +74601,10 @@
         <v>6</v>
       </c>
       <c r="C3297" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3297" s="6" t="s">
-        <v>3425</v>
+        <v>3416</v>
       </c>
       <c r="E3297" t="str">
         <f t="shared" si="104"/>
@@ -74616,10 +74620,10 @@
         <v>7</v>
       </c>
       <c r="C3298" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3298" s="6" t="s">
-        <v>3421</v>
+        <v>3412</v>
       </c>
       <c r="E3298" t="str">
         <f t="shared" si="104"/>
@@ -74635,10 +74639,10 @@
         <v>8</v>
       </c>
       <c r="C3299" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3299" s="6" t="s">
-        <v>3426</v>
+        <v>3417</v>
       </c>
       <c r="E3299" t="str">
         <f t="shared" si="104"/>
@@ -74654,10 +74658,10 @@
         <v>9</v>
       </c>
       <c r="C3300" s="15" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D3300" s="6" t="s">
         <v>3418</v>
-      </c>
-      <c r="D3300" s="6" t="s">
-        <v>3427</v>
       </c>
       <c r="E3300" t="str">
         <f t="shared" si="104"/>
@@ -74673,10 +74677,10 @@
         <v>10</v>
       </c>
       <c r="C3301" s="15" t="s">
-        <v>3418</v>
+        <v>3409</v>
       </c>
       <c r="D3301" s="6" t="s">
-        <v>3420</v>
+        <v>3411</v>
       </c>
       <c r="E3301" t="str">
         <f t="shared" si="104"/>
@@ -74692,10 +74696,10 @@
         <v>1</v>
       </c>
       <c r="C3302" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3302" s="15" t="s">
-        <v>3428</v>
+        <v>3419</v>
       </c>
       <c r="E3302" t="str">
         <f t="shared" si="104"/>
@@ -74711,10 +74715,10 @@
         <v>2</v>
       </c>
       <c r="C3303" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3303" s="15" t="s">
-        <v>3433</v>
+        <v>3424</v>
       </c>
       <c r="E3303" t="str">
         <f t="shared" si="104"/>
@@ -74730,10 +74734,10 @@
         <v>3</v>
       </c>
       <c r="C3304" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3304" s="15" t="s">
-        <v>3434</v>
+        <v>3425</v>
       </c>
       <c r="E3304" t="str">
         <f t="shared" si="104"/>
@@ -74749,10 +74753,10 @@
         <v>4</v>
       </c>
       <c r="C3305" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3305" s="15" t="s">
-        <v>3435</v>
+        <v>3426</v>
       </c>
       <c r="E3305" t="str">
         <f t="shared" si="104"/>
@@ -74768,10 +74772,10 @@
         <v>5</v>
       </c>
       <c r="C3306" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3306" s="15" t="s">
-        <v>3436</v>
+        <v>3427</v>
       </c>
       <c r="E3306" t="str">
         <f t="shared" si="104"/>
@@ -74787,10 +74791,10 @@
         <v>6</v>
       </c>
       <c r="C3307" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3307" s="15" t="s">
-        <v>3432</v>
+        <v>3423</v>
       </c>
       <c r="E3307" t="str">
         <f t="shared" si="104"/>
@@ -74806,10 +74810,10 @@
         <v>7</v>
       </c>
       <c r="C3308" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3308" s="15" t="s">
-        <v>3437</v>
+        <v>3428</v>
       </c>
       <c r="E3308" t="str">
         <f t="shared" si="104"/>
@@ -74825,10 +74829,10 @@
         <v>8</v>
       </c>
       <c r="C3309" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3309" s="15" t="s">
-        <v>3431</v>
+        <v>3422</v>
       </c>
       <c r="E3309" t="str">
         <f t="shared" si="104"/>
@@ -74844,10 +74848,10 @@
         <v>9</v>
       </c>
       <c r="C3310" s="15" t="s">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="D3310" s="15" t="s">
-        <v>3430</v>
+        <v>3421</v>
       </c>
       <c r="E3310" t="str">
         <f t="shared" si="104"/>
@@ -74863,10 +74867,10 @@
         <v>10</v>
       </c>
       <c r="C3311" s="15" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D3311" s="15" t="s">
         <v>3429</v>
-      </c>
-      <c r="D3311" s="15" t="s">
-        <v>3438</v>
       </c>
       <c r="E3311" t="str">
         <f t="shared" si="104"/>
@@ -74882,10 +74886,10 @@
         <v>1</v>
       </c>
       <c r="C3312" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3312" s="15" t="s">
-        <v>3439</v>
+        <v>3430</v>
       </c>
       <c r="E3312" t="str">
         <f t="shared" si="104"/>
@@ -74901,10 +74905,10 @@
         <v>2</v>
       </c>
       <c r="C3313" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3313" s="6" t="s">
-        <v>3444</v>
+        <v>3435</v>
       </c>
       <c r="E3313" t="str">
         <f t="shared" si="104"/>
@@ -74920,10 +74924,10 @@
         <v>3</v>
       </c>
       <c r="C3314" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3314" s="6" t="s">
-        <v>3445</v>
+        <v>3436</v>
       </c>
       <c r="E3314" t="str">
         <f t="shared" si="104"/>
@@ -74939,10 +74943,10 @@
         <v>4</v>
       </c>
       <c r="C3315" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3315" s="6" t="s">
-        <v>3446</v>
+        <v>3437</v>
       </c>
       <c r="E3315" t="str">
         <f t="shared" si="104"/>
@@ -74958,10 +74962,10 @@
         <v>5</v>
       </c>
       <c r="C3316" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3316" s="6" t="s">
-        <v>3443</v>
+        <v>3434</v>
       </c>
       <c r="E3316" t="str">
         <f t="shared" si="104"/>
@@ -74977,10 +74981,10 @@
         <v>6</v>
       </c>
       <c r="C3317" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3317" s="6" t="s">
-        <v>3447</v>
+        <v>3438</v>
       </c>
       <c r="E3317" t="str">
         <f t="shared" si="104"/>
@@ -74996,10 +75000,10 @@
         <v>7</v>
       </c>
       <c r="C3318" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3318" s="6" t="s">
-        <v>3442</v>
+        <v>3433</v>
       </c>
       <c r="E3318" t="str">
         <f t="shared" si="104"/>
@@ -75015,10 +75019,10 @@
         <v>8</v>
       </c>
       <c r="C3319" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3319" s="6" t="s">
-        <v>3448</v>
+        <v>3439</v>
       </c>
       <c r="E3319" t="str">
         <f t="shared" si="104"/>
@@ -75034,10 +75038,10 @@
         <v>9</v>
       </c>
       <c r="C3320" s="15" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D3320" s="6" t="s">
         <v>3440</v>
-      </c>
-      <c r="D3320" s="6" t="s">
-        <v>3449</v>
       </c>
       <c r="E3320" t="str">
         <f t="shared" si="104"/>
@@ -75053,10 +75057,10 @@
         <v>10</v>
       </c>
       <c r="C3321" s="15" t="s">
-        <v>3440</v>
+        <v>3431</v>
       </c>
       <c r="D3321" s="6" t="s">
-        <v>3441</v>
+        <v>3432</v>
       </c>
       <c r="E3321" t="str">
         <f t="shared" ref="E3321:E3384" si="106">CONCATENATE("(",CHAR(34),A3321,CHAR(34),",",CHAR(34),B3321,CHAR(34),",",CHAR(34),C3321,CHAR(34),",",CHAR(34),D3321,CHAR(34),"),")</f>
@@ -75072,10 +75076,10 @@
         <v>1</v>
       </c>
       <c r="C3322" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3322" s="6" t="s">
-        <v>3450</v>
+        <v>3441</v>
       </c>
       <c r="E3322" t="str">
         <f t="shared" si="106"/>
@@ -75091,10 +75095,10 @@
         <v>2</v>
       </c>
       <c r="C3323" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3323" s="6" t="s">
-        <v>3452</v>
+        <v>3443</v>
       </c>
       <c r="E3323" t="str">
         <f t="shared" si="106"/>
@@ -75110,10 +75114,10 @@
         <v>3</v>
       </c>
       <c r="C3324" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3324" s="6" t="s">
-        <v>3455</v>
+        <v>3446</v>
       </c>
       <c r="E3324" t="str">
         <f t="shared" si="106"/>
@@ -75129,10 +75133,10 @@
         <v>4</v>
       </c>
       <c r="C3325" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3325" s="6" t="s">
-        <v>3456</v>
+        <v>3447</v>
       </c>
       <c r="E3325" t="str">
         <f t="shared" si="106"/>
@@ -75148,10 +75152,10 @@
         <v>5</v>
       </c>
       <c r="C3326" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3326" s="6" t="s">
-        <v>3457</v>
+        <v>3448</v>
       </c>
       <c r="E3326" t="str">
         <f t="shared" si="106"/>
@@ -75167,10 +75171,10 @@
         <v>6</v>
       </c>
       <c r="C3327" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3327" s="6" t="s">
-        <v>3453</v>
+        <v>3444</v>
       </c>
       <c r="E3327" t="str">
         <f t="shared" si="106"/>
@@ -75186,10 +75190,10 @@
         <v>7</v>
       </c>
       <c r="C3328" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3328" s="6" t="s">
-        <v>3458</v>
+        <v>3449</v>
       </c>
       <c r="E3328" t="str">
         <f t="shared" si="106"/>
@@ -75205,10 +75209,10 @@
         <v>8</v>
       </c>
       <c r="C3329" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3329" s="6" t="s">
-        <v>3454</v>
+        <v>3445</v>
       </c>
       <c r="E3329" t="str">
         <f t="shared" si="106"/>
@@ -75224,10 +75228,10 @@
         <v>9</v>
       </c>
       <c r="C3330" s="15" t="s">
-        <v>3451</v>
+        <v>3442</v>
       </c>
       <c r="D3330" s="6" t="s">
-        <v>3459</v>
+        <v>3450</v>
       </c>
       <c r="E3330" t="str">
         <f t="shared" si="106"/>
@@ -75243,10 +75247,10 @@
         <v>10</v>
       </c>
       <c r="C3331" s="15" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D3331" s="6" t="s">
         <v>3451</v>
-      </c>
-      <c r="D3331" s="6" t="s">
-        <v>3460</v>
       </c>
       <c r="E3331" t="str">
         <f t="shared" si="106"/>
@@ -75262,10 +75266,10 @@
         <v>1</v>
       </c>
       <c r="C3332" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3332" s="6" t="s">
-        <v>3461</v>
+        <v>3452</v>
       </c>
       <c r="E3332" t="str">
         <f t="shared" si="106"/>
@@ -75281,10 +75285,10 @@
         <v>2</v>
       </c>
       <c r="C3333" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3333" s="6" t="s">
-        <v>3466</v>
+        <v>3457</v>
       </c>
       <c r="E3333" t="str">
         <f t="shared" si="106"/>
@@ -75300,10 +75304,10 @@
         <v>3</v>
       </c>
       <c r="C3334" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3334" s="6" t="s">
-        <v>3467</v>
+        <v>3458</v>
       </c>
       <c r="E3334" t="str">
         <f t="shared" si="106"/>
@@ -75319,10 +75323,10 @@
         <v>4</v>
       </c>
       <c r="C3335" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3335" s="6" t="s">
-        <v>3468</v>
+        <v>3459</v>
       </c>
       <c r="E3335" t="str">
         <f t="shared" si="106"/>
@@ -75338,10 +75342,10 @@
         <v>5</v>
       </c>
       <c r="C3336" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3336" s="6" t="s">
-        <v>3469</v>
+        <v>3460</v>
       </c>
       <c r="E3336" t="str">
         <f t="shared" si="106"/>
@@ -75357,10 +75361,10 @@
         <v>6</v>
       </c>
       <c r="C3337" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3337" s="6" t="s">
-        <v>3470</v>
+        <v>3461</v>
       </c>
       <c r="E3337" t="str">
         <f t="shared" si="106"/>
@@ -75376,10 +75380,10 @@
         <v>7</v>
       </c>
       <c r="C3338" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3338" s="6" t="s">
-        <v>3465</v>
+        <v>3456</v>
       </c>
       <c r="E3338" t="str">
         <f t="shared" si="106"/>
@@ -75395,10 +75399,10 @@
         <v>8</v>
       </c>
       <c r="C3339" s="15" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D3339" s="6" t="s">
         <v>3462</v>
-      </c>
-      <c r="D3339" s="6" t="s">
-        <v>3471</v>
       </c>
       <c r="E3339" t="str">
         <f t="shared" si="106"/>
@@ -75414,10 +75418,10 @@
         <v>9</v>
       </c>
       <c r="C3340" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3340" s="6" t="s">
-        <v>3463</v>
+        <v>3454</v>
       </c>
       <c r="E3340" t="str">
         <f t="shared" si="106"/>
@@ -75433,10 +75437,10 @@
         <v>10</v>
       </c>
       <c r="C3341" s="15" t="s">
-        <v>3462</v>
+        <v>3453</v>
       </c>
       <c r="D3341" s="6" t="s">
-        <v>3464</v>
+        <v>3455</v>
       </c>
       <c r="E3341" t="str">
         <f t="shared" si="106"/>
@@ -75452,10 +75456,10 @@
         <v>1</v>
       </c>
       <c r="C3342" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3342" s="15" t="s">
-        <v>3473</v>
+        <v>3464</v>
       </c>
       <c r="E3342" t="str">
         <f t="shared" si="106"/>
@@ -75471,10 +75475,10 @@
         <v>2</v>
       </c>
       <c r="C3343" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3343" s="6" t="s">
-        <v>3477</v>
+        <v>3468</v>
       </c>
       <c r="E3343" t="str">
         <f t="shared" si="106"/>
@@ -75490,10 +75494,10 @@
         <v>3</v>
       </c>
       <c r="C3344" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3344" s="6" t="s">
-        <v>3478</v>
+        <v>3469</v>
       </c>
       <c r="E3344" t="str">
         <f t="shared" si="106"/>
@@ -75509,10 +75513,10 @@
         <v>4</v>
       </c>
       <c r="C3345" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3345" s="6" t="s">
-        <v>3479</v>
+        <v>3470</v>
       </c>
       <c r="E3345" t="str">
         <f t="shared" si="106"/>
@@ -75528,10 +75532,10 @@
         <v>5</v>
       </c>
       <c r="C3346" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3346" s="6" t="s">
-        <v>3476</v>
+        <v>3467</v>
       </c>
       <c r="E3346" t="str">
         <f t="shared" si="106"/>
@@ -75547,10 +75551,10 @@
         <v>6</v>
       </c>
       <c r="C3347" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3347" s="6" t="s">
-        <v>3475</v>
+        <v>3466</v>
       </c>
       <c r="E3347" t="str">
         <f t="shared" si="106"/>
@@ -75566,10 +75570,10 @@
         <v>7</v>
       </c>
       <c r="C3348" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3348" s="6" t="s">
-        <v>3480</v>
+        <v>3471</v>
       </c>
       <c r="E3348" t="str">
         <f t="shared" si="106"/>
@@ -75585,10 +75589,10 @@
         <v>8</v>
       </c>
       <c r="C3349" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3349" s="6" t="s">
-        <v>3474</v>
+        <v>3465</v>
       </c>
       <c r="E3349" t="str">
         <f t="shared" si="106"/>
@@ -75604,10 +75608,10 @@
         <v>9</v>
       </c>
       <c r="C3350" s="15" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D3350" s="6" t="s">
         <v>3472</v>
-      </c>
-      <c r="D3350" s="6" t="s">
-        <v>3481</v>
       </c>
       <c r="E3350" t="str">
         <f t="shared" si="106"/>
@@ -75623,10 +75627,10 @@
         <v>10</v>
       </c>
       <c r="C3351" s="15" t="s">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="D3351" s="6" t="s">
-        <v>3482</v>
+        <v>3473</v>
       </c>
       <c r="E3351" t="str">
         <f t="shared" si="106"/>
@@ -75642,10 +75646,10 @@
         <v>1</v>
       </c>
       <c r="C3352" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3352" s="15" t="s">
-        <v>3484</v>
+        <v>3475</v>
       </c>
       <c r="E3352" t="str">
         <f t="shared" si="106"/>
@@ -75661,10 +75665,10 @@
         <v>2</v>
       </c>
       <c r="C3353" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3353" s="6" t="s">
-        <v>3488</v>
+        <v>3479</v>
       </c>
       <c r="E3353" t="str">
         <f t="shared" si="106"/>
@@ -75680,10 +75684,10 @@
         <v>3</v>
       </c>
       <c r="C3354" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3354" s="6" t="s">
-        <v>3489</v>
+        <v>3480</v>
       </c>
       <c r="E3354" t="str">
         <f t="shared" si="106"/>
@@ -75699,10 +75703,10 @@
         <v>4</v>
       </c>
       <c r="C3355" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3355" s="6" t="s">
-        <v>3490</v>
+        <v>3481</v>
       </c>
       <c r="E3355" t="str">
         <f t="shared" si="106"/>
@@ -75718,10 +75722,10 @@
         <v>5</v>
       </c>
       <c r="C3356" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3356" s="6" t="s">
-        <v>3491</v>
+        <v>3482</v>
       </c>
       <c r="E3356" t="str">
         <f t="shared" si="106"/>
@@ -75737,10 +75741,10 @@
         <v>6</v>
       </c>
       <c r="C3357" s="15" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D3357" s="6" t="s">
         <v>3483</v>
-      </c>
-      <c r="D3357" s="6" t="s">
-        <v>3492</v>
       </c>
       <c r="E3357" t="str">
         <f t="shared" si="106"/>
@@ -75756,10 +75760,10 @@
         <v>7</v>
       </c>
       <c r="C3358" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3358" s="6" t="s">
-        <v>3487</v>
+        <v>3478</v>
       </c>
       <c r="E3358" t="str">
         <f t="shared" si="106"/>
@@ -75775,10 +75779,10 @@
         <v>8</v>
       </c>
       <c r="C3359" s="15" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D3359" s="6" t="s">
         <v>3483</v>
-      </c>
-      <c r="D3359" s="6" t="s">
-        <v>3492</v>
       </c>
       <c r="E3359" t="str">
         <f t="shared" si="106"/>
@@ -75794,10 +75798,10 @@
         <v>9</v>
       </c>
       <c r="C3360" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3360" s="6" t="s">
-        <v>3486</v>
+        <v>3477</v>
       </c>
       <c r="E3360" t="str">
         <f t="shared" si="106"/>
@@ -75813,10 +75817,10 @@
         <v>10</v>
       </c>
       <c r="C3361" s="15" t="s">
-        <v>3483</v>
+        <v>3474</v>
       </c>
       <c r="D3361" s="6" t="s">
-        <v>3485</v>
+        <v>3476</v>
       </c>
       <c r="E3361" t="str">
         <f t="shared" si="106"/>
@@ -75832,10 +75836,10 @@
         <v>1</v>
       </c>
       <c r="C3362" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3362" s="15" t="s">
-        <v>3493</v>
+        <v>3484</v>
       </c>
       <c r="E3362" t="str">
         <f t="shared" si="106"/>
@@ -75851,10 +75855,10 @@
         <v>2</v>
       </c>
       <c r="C3363" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3363" s="6" t="s">
-        <v>3498</v>
+        <v>3489</v>
       </c>
       <c r="E3363" t="str">
         <f t="shared" si="106"/>
@@ -75870,10 +75874,10 @@
         <v>3</v>
       </c>
       <c r="C3364" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3364" s="6" t="s">
-        <v>3499</v>
+        <v>3490</v>
       </c>
       <c r="E3364" t="str">
         <f t="shared" si="106"/>
@@ -75889,10 +75893,10 @@
         <v>4</v>
       </c>
       <c r="C3365" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3365" s="6" t="s">
-        <v>3500</v>
+        <v>3491</v>
       </c>
       <c r="E3365" t="str">
         <f t="shared" si="106"/>
@@ -75908,10 +75912,10 @@
         <v>5</v>
       </c>
       <c r="C3366" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3366" s="6" t="s">
-        <v>3497</v>
+        <v>3488</v>
       </c>
       <c r="E3366" t="str">
         <f t="shared" si="106"/>
@@ -75927,10 +75931,10 @@
         <v>6</v>
       </c>
       <c r="C3367" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3367" s="6" t="s">
-        <v>3496</v>
+        <v>3487</v>
       </c>
       <c r="E3367" t="str">
         <f t="shared" si="106"/>
@@ -75946,10 +75950,10 @@
         <v>7</v>
       </c>
       <c r="C3368" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3368" s="6" t="s">
-        <v>3501</v>
+        <v>3492</v>
       </c>
       <c r="E3368" t="str">
         <f t="shared" si="106"/>
@@ -75965,10 +75969,10 @@
         <v>8</v>
       </c>
       <c r="C3369" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3369" s="6" t="s">
-        <v>3495</v>
+        <v>3486</v>
       </c>
       <c r="E3369" t="str">
         <f t="shared" si="106"/>
@@ -75984,10 +75988,10 @@
         <v>9</v>
       </c>
       <c r="C3370" s="15" t="s">
-        <v>3494</v>
+        <v>3485</v>
       </c>
       <c r="D3370" s="6" t="s">
-        <v>3502</v>
+        <v>3493</v>
       </c>
       <c r="E3370" t="str">
         <f t="shared" si="106"/>
@@ -76003,10 +76007,10 @@
         <v>10</v>
       </c>
       <c r="C3371" s="15" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D3371" s="6" t="s">
         <v>3494</v>
-      </c>
-      <c r="D3371" s="6" t="s">
-        <v>3503</v>
       </c>
       <c r="E3371" t="str">
         <f t="shared" si="106"/>
@@ -76022,10 +76026,10 @@
         <v>1</v>
       </c>
       <c r="C3372" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3372" s="15" t="s">
-        <v>3504</v>
+        <v>3495</v>
       </c>
       <c r="E3372" t="str">
         <f t="shared" si="106"/>
@@ -76041,10 +76045,10 @@
         <v>2</v>
       </c>
       <c r="C3373" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3373" s="15" t="s">
-        <v>3509</v>
+        <v>3500</v>
       </c>
       <c r="E3373" t="str">
         <f t="shared" si="106"/>
@@ -76060,10 +76064,10 @@
         <v>3</v>
       </c>
       <c r="C3374" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3374" s="6" t="s">
-        <v>3510</v>
+        <v>3501</v>
       </c>
       <c r="E3374" t="str">
         <f t="shared" si="106"/>
@@ -76079,10 +76083,10 @@
         <v>4</v>
       </c>
       <c r="C3375" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3375" s="6" t="s">
-        <v>3511</v>
+        <v>3502</v>
       </c>
       <c r="E3375" t="str">
         <f t="shared" si="106"/>
@@ -76098,10 +76102,10 @@
         <v>5</v>
       </c>
       <c r="C3376" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3376" s="6" t="s">
-        <v>3512</v>
+        <v>3503</v>
       </c>
       <c r="E3376" t="str">
         <f t="shared" si="106"/>
@@ -76117,10 +76121,10 @@
         <v>6</v>
       </c>
       <c r="C3377" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3377" s="6" t="s">
-        <v>3513</v>
+        <v>3504</v>
       </c>
       <c r="E3377" t="str">
         <f t="shared" si="106"/>
@@ -76136,10 +76140,10 @@
         <v>7</v>
       </c>
       <c r="C3378" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3378" s="6" t="s">
-        <v>3508</v>
+        <v>3499</v>
       </c>
       <c r="E3378" t="str">
         <f t="shared" si="106"/>
@@ -76155,10 +76159,10 @@
         <v>8</v>
       </c>
       <c r="C3379" s="15" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D3379" s="6" t="s">
         <v>3505</v>
-      </c>
-      <c r="D3379" s="6" t="s">
-        <v>3514</v>
       </c>
       <c r="E3379" t="str">
         <f t="shared" si="106"/>
@@ -76174,10 +76178,10 @@
         <v>9</v>
       </c>
       <c r="C3380" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3380" s="6" t="s">
-        <v>3507</v>
+        <v>3498</v>
       </c>
       <c r="E3380" t="str">
         <f t="shared" si="106"/>
@@ -76193,10 +76197,10 @@
         <v>10</v>
       </c>
       <c r="C3381" s="15" t="s">
-        <v>3505</v>
+        <v>3496</v>
       </c>
       <c r="D3381" s="6" t="s">
-        <v>3506</v>
+        <v>3497</v>
       </c>
       <c r="E3381" t="str">
         <f t="shared" si="106"/>
@@ -76212,10 +76216,10 @@
         <v>1</v>
       </c>
       <c r="C3382" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3382" s="15" t="s">
-        <v>3516</v>
+        <v>3507</v>
       </c>
       <c r="E3382" t="str">
         <f t="shared" si="106"/>
@@ -76231,10 +76235,10 @@
         <v>2</v>
       </c>
       <c r="C3383" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3383" s="6" t="s">
-        <v>3520</v>
+        <v>3511</v>
       </c>
       <c r="E3383" t="str">
         <f t="shared" si="106"/>
@@ -76250,10 +76254,10 @@
         <v>3</v>
       </c>
       <c r="C3384" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3384" s="6" t="s">
-        <v>3521</v>
+        <v>3512</v>
       </c>
       <c r="E3384" t="str">
         <f t="shared" si="106"/>
@@ -76269,10 +76273,10 @@
         <v>4</v>
       </c>
       <c r="C3385" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3385" s="6" t="s">
-        <v>3522</v>
+        <v>3513</v>
       </c>
       <c r="E3385" t="str">
         <f t="shared" ref="E3385:E3448" si="108">CONCATENATE("(",CHAR(34),A3385,CHAR(34),",",CHAR(34),B3385,CHAR(34),",",CHAR(34),C3385,CHAR(34),",",CHAR(34),D3385,CHAR(34),"),")</f>
@@ -76288,10 +76292,10 @@
         <v>5</v>
       </c>
       <c r="C3386" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3386" s="6" t="s">
-        <v>3519</v>
+        <v>3510</v>
       </c>
       <c r="E3386" t="str">
         <f t="shared" si="108"/>
@@ -76307,10 +76311,10 @@
         <v>6</v>
       </c>
       <c r="C3387" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3387" s="6" t="s">
-        <v>3518</v>
+        <v>3509</v>
       </c>
       <c r="E3387" t="str">
         <f t="shared" si="108"/>
@@ -76326,10 +76330,10 @@
         <v>7</v>
       </c>
       <c r="C3388" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3388" s="6" t="s">
-        <v>3523</v>
+        <v>3514</v>
       </c>
       <c r="E3388" t="str">
         <f t="shared" si="108"/>
@@ -76345,10 +76349,10 @@
         <v>8</v>
       </c>
       <c r="C3389" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3389" s="6" t="s">
-        <v>3517</v>
+        <v>3508</v>
       </c>
       <c r="E3389" t="str">
         <f t="shared" si="108"/>
@@ -76364,10 +76368,10 @@
         <v>9</v>
       </c>
       <c r="C3390" s="15" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D3390" s="6" t="s">
         <v>3515</v>
-      </c>
-      <c r="D3390" s="6" t="s">
-        <v>3524</v>
       </c>
       <c r="E3390" t="str">
         <f t="shared" si="108"/>
@@ -76383,10 +76387,10 @@
         <v>10</v>
       </c>
       <c r="C3391" s="15" t="s">
-        <v>3515</v>
+        <v>3506</v>
       </c>
       <c r="D3391" s="6" t="s">
-        <v>3525</v>
+        <v>3516</v>
       </c>
       <c r="E3391" t="str">
         <f t="shared" si="108"/>
@@ -76402,10 +76406,10 @@
         <v>1</v>
       </c>
       <c r="C3392" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3392" s="6" t="s">
-        <v>3526</v>
+        <v>3517</v>
       </c>
       <c r="E3392" t="str">
         <f t="shared" si="108"/>
@@ -76421,10 +76425,10 @@
         <v>2</v>
       </c>
       <c r="C3393" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3393" s="6" t="s">
-        <v>3531</v>
+        <v>3522</v>
       </c>
       <c r="E3393" t="str">
         <f t="shared" si="108"/>
@@ -76440,10 +76444,10 @@
         <v>3</v>
       </c>
       <c r="C3394" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3394" s="6" t="s">
-        <v>3532</v>
+        <v>3523</v>
       </c>
       <c r="E3394" t="str">
         <f t="shared" si="108"/>
@@ -76459,10 +76463,10 @@
         <v>4</v>
       </c>
       <c r="C3395" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3395" s="6" t="s">
-        <v>3533</v>
+        <v>3524</v>
       </c>
       <c r="E3395" t="str">
         <f t="shared" si="108"/>
@@ -76478,10 +76482,10 @@
         <v>5</v>
       </c>
       <c r="C3396" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3396" s="6" t="s">
-        <v>3534</v>
+        <v>3525</v>
       </c>
       <c r="E3396" t="str">
         <f t="shared" si="108"/>
@@ -76497,10 +76501,10 @@
         <v>6</v>
       </c>
       <c r="C3397" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3397" s="6" t="s">
-        <v>3535</v>
+        <v>3526</v>
       </c>
       <c r="E3397" t="str">
         <f t="shared" si="108"/>
@@ -76516,10 +76520,10 @@
         <v>7</v>
       </c>
       <c r="C3398" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3398" s="6" t="s">
-        <v>3530</v>
+        <v>3521</v>
       </c>
       <c r="E3398" t="str">
         <f t="shared" si="108"/>
@@ -76535,10 +76539,10 @@
         <v>8</v>
       </c>
       <c r="C3399" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D3399" s="6" t="s">
         <v>3527</v>
-      </c>
-      <c r="D3399" s="6" t="s">
-        <v>3536</v>
       </c>
       <c r="E3399" t="str">
         <f t="shared" si="108"/>
@@ -76554,10 +76558,10 @@
         <v>9</v>
       </c>
       <c r="C3400" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3400" s="6" t="s">
-        <v>3529</v>
+        <v>3520</v>
       </c>
       <c r="E3400" t="str">
         <f t="shared" si="108"/>
@@ -76573,10 +76577,10 @@
         <v>10</v>
       </c>
       <c r="C3401" t="s">
-        <v>3527</v>
+        <v>3518</v>
       </c>
       <c r="D3401" s="6" t="s">
-        <v>3528</v>
+        <v>3519</v>
       </c>
       <c r="E3401" t="str">
         <f t="shared" si="108"/>
@@ -76592,10 +76596,10 @@
         <v>1</v>
       </c>
       <c r="C3402" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3402" s="6" t="s">
-        <v>3538</v>
+        <v>3529</v>
       </c>
       <c r="E3402" t="str">
         <f t="shared" si="108"/>
@@ -76611,10 +76615,10 @@
         <v>2</v>
       </c>
       <c r="C3403" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3403" s="6" t="s">
-        <v>3542</v>
+        <v>3533</v>
       </c>
       <c r="E3403" t="str">
         <f t="shared" si="108"/>
@@ -76630,10 +76634,10 @@
         <v>3</v>
       </c>
       <c r="C3404" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3404" s="6" t="s">
-        <v>3543</v>
+        <v>3534</v>
       </c>
       <c r="E3404" t="str">
         <f t="shared" si="108"/>
@@ -76649,10 +76653,10 @@
         <v>4</v>
       </c>
       <c r="C3405" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3405" s="6" t="s">
-        <v>3544</v>
+        <v>3535</v>
       </c>
       <c r="E3405" t="str">
         <f t="shared" si="108"/>
@@ -76668,10 +76672,10 @@
         <v>5</v>
       </c>
       <c r="C3406" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3406" s="6" t="s">
-        <v>3541</v>
+        <v>3532</v>
       </c>
       <c r="E3406" t="str">
         <f t="shared" si="108"/>
@@ -76687,10 +76691,10 @@
         <v>6</v>
       </c>
       <c r="C3407" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3407" s="6" t="s">
-        <v>3540</v>
+        <v>3531</v>
       </c>
       <c r="E3407" t="str">
         <f t="shared" si="108"/>
@@ -76706,10 +76710,10 @@
         <v>7</v>
       </c>
       <c r="C3408" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3408" s="6" t="s">
-        <v>3545</v>
+        <v>3536</v>
       </c>
       <c r="E3408" t="str">
         <f t="shared" si="108"/>
@@ -76725,10 +76729,10 @@
         <v>8</v>
       </c>
       <c r="C3409" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3409" s="6" t="s">
-        <v>3539</v>
+        <v>3530</v>
       </c>
       <c r="E3409" t="str">
         <f t="shared" si="108"/>
@@ -76744,10 +76748,10 @@
         <v>9</v>
       </c>
       <c r="C3410" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D3410" s="6" t="s">
         <v>3537</v>
-      </c>
-      <c r="D3410" s="6" t="s">
-        <v>3546</v>
       </c>
       <c r="E3410" t="str">
         <f t="shared" si="108"/>
@@ -76763,10 +76767,10 @@
         <v>10</v>
       </c>
       <c r="C3411" t="s">
-        <v>3537</v>
+        <v>3528</v>
       </c>
       <c r="D3411" s="6" t="s">
-        <v>3547</v>
+        <v>3538</v>
       </c>
       <c r="E3411" t="str">
         <f t="shared" si="108"/>
@@ -76782,10 +76786,10 @@
         <v>1</v>
       </c>
       <c r="C3412" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3412" t="s">
-        <v>3549</v>
+        <v>3540</v>
       </c>
       <c r="E3412" t="str">
         <f t="shared" si="108"/>
@@ -76801,10 +76805,10 @@
         <v>2</v>
       </c>
       <c r="C3413" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3413" s="6" t="s">
-        <v>3550</v>
+        <v>3541</v>
       </c>
       <c r="E3413" t="str">
         <f t="shared" si="108"/>
@@ -76820,10 +76824,10 @@
         <v>3</v>
       </c>
       <c r="C3414" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3414" s="6" t="s">
-        <v>3551</v>
+        <v>3542</v>
       </c>
       <c r="E3414" t="str">
         <f t="shared" si="108"/>
@@ -76839,10 +76843,10 @@
         <v>4</v>
       </c>
       <c r="C3415" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3415" s="6" t="s">
-        <v>3552</v>
+        <v>3543</v>
       </c>
       <c r="E3415" t="str">
         <f t="shared" si="108"/>
@@ -76858,10 +76862,10 @@
         <v>5</v>
       </c>
       <c r="C3416" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3416" s="6" t="s">
-        <v>3553</v>
+        <v>3544</v>
       </c>
       <c r="E3416" t="str">
         <f t="shared" si="108"/>
@@ -76877,10 +76881,10 @@
         <v>6</v>
       </c>
       <c r="C3417" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3417" s="6" t="s">
-        <v>3554</v>
+        <v>3545</v>
       </c>
       <c r="E3417" t="str">
         <f t="shared" si="108"/>
@@ -76896,10 +76900,10 @@
         <v>7</v>
       </c>
       <c r="C3418" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3418" s="6" t="s">
-        <v>3555</v>
+        <v>3546</v>
       </c>
       <c r="E3418" t="str">
         <f t="shared" si="108"/>
@@ -76915,10 +76919,10 @@
         <v>8</v>
       </c>
       <c r="C3419" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3419" s="6" t="s">
-        <v>3556</v>
+        <v>3547</v>
       </c>
       <c r="E3419" t="str">
         <f t="shared" si="108"/>
@@ -76934,10 +76938,10 @@
         <v>9</v>
       </c>
       <c r="C3420" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D3420" s="6" t="s">
         <v>3548</v>
-      </c>
-      <c r="D3420" s="6" t="s">
-        <v>3557</v>
       </c>
       <c r="E3420" t="str">
         <f t="shared" si="108"/>
@@ -76953,10 +76957,10 @@
         <v>10</v>
       </c>
       <c r="C3421" t="s">
-        <v>3548</v>
+        <v>3539</v>
       </c>
       <c r="D3421" s="6" t="s">
-        <v>3558</v>
+        <v>3549</v>
       </c>
       <c r="E3421" t="str">
         <f t="shared" si="108"/>
@@ -76972,10 +76976,10 @@
         <v>1</v>
       </c>
       <c r="C3422" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3422" s="16" t="s">
-        <v>3560</v>
+        <v>3551</v>
       </c>
       <c r="E3422" t="str">
         <f t="shared" si="108"/>
@@ -76991,10 +76995,10 @@
         <v>2</v>
       </c>
       <c r="C3423" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3423" s="6" t="s">
-        <v>3561</v>
+        <v>3552</v>
       </c>
       <c r="E3423" t="str">
         <f t="shared" si="108"/>
@@ -77010,10 +77014,10 @@
         <v>3</v>
       </c>
       <c r="C3424" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3424" s="6" t="s">
-        <v>3562</v>
+        <v>3553</v>
       </c>
       <c r="E3424" t="str">
         <f t="shared" si="108"/>
@@ -77029,10 +77033,10 @@
         <v>4</v>
       </c>
       <c r="C3425" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3425" s="6" t="s">
-        <v>3563</v>
+        <v>3554</v>
       </c>
       <c r="E3425" t="str">
         <f t="shared" si="108"/>
@@ -77048,10 +77052,10 @@
         <v>5</v>
       </c>
       <c r="C3426" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3426" s="6" t="s">
-        <v>3564</v>
+        <v>3555</v>
       </c>
       <c r="E3426" t="str">
         <f t="shared" si="108"/>
@@ -77067,10 +77071,10 @@
         <v>6</v>
       </c>
       <c r="C3427" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3427" s="6" t="s">
-        <v>3565</v>
+        <v>3556</v>
       </c>
       <c r="E3427" t="str">
         <f t="shared" si="108"/>
@@ -77086,10 +77090,10 @@
         <v>7</v>
       </c>
       <c r="C3428" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3428" s="6" t="s">
-        <v>3566</v>
+        <v>3557</v>
       </c>
       <c r="E3428" t="str">
         <f t="shared" si="108"/>
@@ -77105,10 +77109,10 @@
         <v>8</v>
       </c>
       <c r="C3429" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3429" s="6" t="s">
-        <v>3567</v>
+        <v>3558</v>
       </c>
       <c r="E3429" t="str">
         <f t="shared" si="108"/>
@@ -77124,10 +77128,10 @@
         <v>9</v>
       </c>
       <c r="C3430" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D3430" s="6" t="s">
         <v>3559</v>
-      </c>
-      <c r="D3430" s="6" t="s">
-        <v>3568</v>
       </c>
       <c r="E3430" t="str">
         <f t="shared" si="108"/>
@@ -77143,10 +77147,10 @@
         <v>10</v>
       </c>
       <c r="C3431" t="s">
-        <v>3559</v>
+        <v>3550</v>
       </c>
       <c r="D3431" s="6" t="s">
-        <v>3569</v>
+        <v>3560</v>
       </c>
       <c r="E3431" t="str">
         <f t="shared" si="108"/>
@@ -77162,10 +77166,10 @@
         <v>1</v>
       </c>
       <c r="C3432" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3432" t="s">
-        <v>3571</v>
+        <v>3562</v>
       </c>
       <c r="E3432" t="str">
         <f t="shared" si="108"/>
@@ -77181,10 +77185,10 @@
         <v>2</v>
       </c>
       <c r="C3433" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3433" s="6" t="s">
-        <v>3575</v>
+        <v>3566</v>
       </c>
       <c r="E3433" t="str">
         <f t="shared" si="108"/>
@@ -77200,10 +77204,10 @@
         <v>3</v>
       </c>
       <c r="C3434" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3434" s="6" t="s">
-        <v>3576</v>
+        <v>3567</v>
       </c>
       <c r="E3434" t="str">
         <f t="shared" si="108"/>
@@ -77219,10 +77223,10 @@
         <v>4</v>
       </c>
       <c r="C3435" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3435" s="6" t="s">
-        <v>3577</v>
+        <v>3568</v>
       </c>
       <c r="E3435" t="str">
         <f t="shared" si="108"/>
@@ -77238,10 +77242,10 @@
         <v>5</v>
       </c>
       <c r="C3436" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3436" s="6" t="s">
-        <v>3578</v>
+        <v>3569</v>
       </c>
       <c r="E3436" t="str">
         <f t="shared" si="108"/>
@@ -77257,10 +77261,10 @@
         <v>6</v>
       </c>
       <c r="C3437" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D3437" s="6" t="s">
         <v>3570</v>
-      </c>
-      <c r="D3437" s="6" t="s">
-        <v>3579</v>
       </c>
       <c r="E3437" t="str">
         <f t="shared" si="108"/>
@@ -77276,10 +77280,10 @@
         <v>7</v>
       </c>
       <c r="C3438" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3438" s="6" t="s">
-        <v>3574</v>
+        <v>3565</v>
       </c>
       <c r="E3438" t="str">
         <f t="shared" si="108"/>
@@ -77295,10 +77299,10 @@
         <v>8</v>
       </c>
       <c r="C3439" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3439" s="6" t="s">
-        <v>3580</v>
+        <v>3571</v>
       </c>
       <c r="E3439" t="str">
         <f t="shared" si="108"/>
@@ -77314,10 +77318,10 @@
         <v>9</v>
       </c>
       <c r="C3440" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3440" s="6" t="s">
-        <v>3573</v>
+        <v>3564</v>
       </c>
       <c r="E3440" t="str">
         <f t="shared" si="108"/>
@@ -77333,10 +77337,10 @@
         <v>10</v>
       </c>
       <c r="C3441" t="s">
-        <v>3570</v>
+        <v>3561</v>
       </c>
       <c r="D3441" s="6" t="s">
-        <v>3572</v>
+        <v>3563</v>
       </c>
       <c r="E3441" t="str">
         <f t="shared" si="108"/>
@@ -77352,10 +77356,10 @@
         <v>1</v>
       </c>
       <c r="C3442" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3442" t="s">
-        <v>3581</v>
+        <v>3572</v>
       </c>
       <c r="E3442" t="str">
         <f t="shared" si="108"/>
@@ -77371,10 +77375,10 @@
         <v>2</v>
       </c>
       <c r="C3443" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3443" s="6" t="s">
-        <v>3586</v>
+        <v>3577</v>
       </c>
       <c r="E3443" t="str">
         <f t="shared" si="108"/>
@@ -77390,10 +77394,10 @@
         <v>3</v>
       </c>
       <c r="C3444" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3444" s="6" t="s">
-        <v>3587</v>
+        <v>3578</v>
       </c>
       <c r="E3444" t="str">
         <f t="shared" si="108"/>
@@ -77409,10 +77413,10 @@
         <v>4</v>
       </c>
       <c r="C3445" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3445" s="6" t="s">
-        <v>3588</v>
+        <v>3579</v>
       </c>
       <c r="E3445" t="str">
         <f t="shared" si="108"/>
@@ -77428,10 +77432,10 @@
         <v>5</v>
       </c>
       <c r="C3446" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3446" s="6" t="s">
-        <v>3585</v>
+        <v>3576</v>
       </c>
       <c r="E3446" t="str">
         <f t="shared" si="108"/>
@@ -77447,10 +77451,10 @@
         <v>6</v>
       </c>
       <c r="C3447" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3447" s="6" t="s">
-        <v>3584</v>
+        <v>3575</v>
       </c>
       <c r="E3447" t="str">
         <f t="shared" si="108"/>
@@ -77466,10 +77470,10 @@
         <v>7</v>
       </c>
       <c r="C3448" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3448" s="6" t="s">
-        <v>3589</v>
+        <v>3580</v>
       </c>
       <c r="E3448" t="str">
         <f t="shared" si="108"/>
@@ -77485,10 +77489,10 @@
         <v>8</v>
       </c>
       <c r="C3449" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3449" s="6" t="s">
-        <v>3583</v>
+        <v>3574</v>
       </c>
       <c r="E3449" t="str">
         <f t="shared" ref="E3449:E3501" si="110">CONCATENATE("(",CHAR(34),A3449,CHAR(34),",",CHAR(34),B3449,CHAR(34),",",CHAR(34),C3449,CHAR(34),",",CHAR(34),D3449,CHAR(34),"),")</f>
@@ -77504,10 +77508,10 @@
         <v>9</v>
       </c>
       <c r="C3450" t="s">
-        <v>3582</v>
+        <v>3573</v>
       </c>
       <c r="D3450" s="6" t="s">
-        <v>3590</v>
+        <v>3581</v>
       </c>
       <c r="E3450" t="str">
         <f t="shared" si="110"/>
@@ -77523,10 +77527,10 @@
         <v>10</v>
       </c>
       <c r="C3451" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D3451" s="6" t="s">
         <v>3582</v>
-      </c>
-      <c r="D3451" s="6" t="s">
-        <v>3591</v>
       </c>
       <c r="E3451" t="str">
         <f t="shared" si="110"/>
@@ -77542,10 +77546,10 @@
         <v>1</v>
       </c>
       <c r="C3452" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3452" t="s">
-        <v>3592</v>
+        <v>3583</v>
       </c>
       <c r="E3452" t="str">
         <f t="shared" si="110"/>
@@ -77561,10 +77565,10 @@
         <v>2</v>
       </c>
       <c r="C3453" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3453" s="6" t="s">
-        <v>3597</v>
+        <v>3588</v>
       </c>
       <c r="E3453" t="str">
         <f t="shared" si="110"/>
@@ -77580,10 +77584,10 @@
         <v>3</v>
       </c>
       <c r="C3454" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3454" s="6" t="s">
-        <v>3598</v>
+        <v>3589</v>
       </c>
       <c r="E3454" t="str">
         <f t="shared" si="110"/>
@@ -77599,10 +77603,10 @@
         <v>4</v>
       </c>
       <c r="C3455" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3455" s="6" t="s">
-        <v>3599</v>
+        <v>3590</v>
       </c>
       <c r="E3455" t="str">
         <f t="shared" si="110"/>
@@ -77618,10 +77622,10 @@
         <v>5</v>
       </c>
       <c r="C3456" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3456" s="6" t="s">
-        <v>3600</v>
+        <v>3591</v>
       </c>
       <c r="E3456" t="str">
         <f t="shared" si="110"/>
@@ -77637,10 +77641,10 @@
         <v>6</v>
       </c>
       <c r="C3457" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3457" s="6" t="s">
-        <v>3601</v>
+        <v>3592</v>
       </c>
       <c r="E3457" t="str">
         <f t="shared" si="110"/>
@@ -77656,10 +77660,10 @@
         <v>7</v>
       </c>
       <c r="C3458" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3458" s="6" t="s">
-        <v>3596</v>
+        <v>3587</v>
       </c>
       <c r="E3458" t="str">
         <f t="shared" si="110"/>
@@ -77675,10 +77679,10 @@
         <v>8</v>
       </c>
       <c r="C3459" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D3459" s="6" t="s">
         <v>3593</v>
-      </c>
-      <c r="D3459" s="6" t="s">
-        <v>3602</v>
       </c>
       <c r="E3459" t="str">
         <f t="shared" si="110"/>
@@ -77694,10 +77698,10 @@
         <v>9</v>
       </c>
       <c r="C3460" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3460" s="6" t="s">
-        <v>3595</v>
+        <v>3586</v>
       </c>
       <c r="E3460" t="str">
         <f t="shared" si="110"/>
@@ -77713,10 +77717,10 @@
         <v>10</v>
       </c>
       <c r="C3461" t="s">
-        <v>3593</v>
+        <v>3584</v>
       </c>
       <c r="D3461" s="6" t="s">
-        <v>3594</v>
+        <v>3585</v>
       </c>
       <c r="E3461" t="str">
         <f t="shared" si="110"/>
@@ -77732,10 +77736,10 @@
         <v>1</v>
       </c>
       <c r="C3462" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3462" t="s">
-        <v>3604</v>
+        <v>3595</v>
       </c>
       <c r="E3462" t="str">
         <f t="shared" si="110"/>
@@ -77751,10 +77755,10 @@
         <v>2</v>
       </c>
       <c r="C3463" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3463" s="6" t="s">
-        <v>3608</v>
+        <v>3599</v>
       </c>
       <c r="E3463" t="str">
         <f t="shared" si="110"/>
@@ -77770,10 +77774,10 @@
         <v>3</v>
       </c>
       <c r="C3464" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3464" s="6" t="s">
-        <v>3609</v>
+        <v>3600</v>
       </c>
       <c r="E3464" t="str">
         <f t="shared" si="110"/>
@@ -77789,10 +77793,10 @@
         <v>4</v>
       </c>
       <c r="C3465" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3465" s="6" t="s">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="E3465" t="str">
         <f t="shared" si="110"/>
@@ -77808,10 +77812,10 @@
         <v>5</v>
       </c>
       <c r="C3466" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3466" s="6" t="s">
-        <v>3607</v>
+        <v>3598</v>
       </c>
       <c r="E3466" t="str">
         <f t="shared" si="110"/>
@@ -77827,10 +77831,10 @@
         <v>6</v>
       </c>
       <c r="C3467" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3467" s="6" t="s">
-        <v>3606</v>
+        <v>3597</v>
       </c>
       <c r="E3467" t="str">
         <f t="shared" si="110"/>
@@ -77846,10 +77850,10 @@
         <v>7</v>
       </c>
       <c r="C3468" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3468" s="6" t="s">
-        <v>3611</v>
+        <v>3602</v>
       </c>
       <c r="E3468" t="str">
         <f t="shared" si="110"/>
@@ -77865,10 +77869,10 @@
         <v>8</v>
       </c>
       <c r="C3469" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3469" s="6" t="s">
-        <v>3605</v>
+        <v>3596</v>
       </c>
       <c r="E3469" t="str">
         <f t="shared" si="110"/>
@@ -77884,10 +77888,10 @@
         <v>9</v>
       </c>
       <c r="C3470" t="s">
+        <v>3594</v>
+      </c>
+      <c r="D3470" s="6" t="s">
         <v>3603</v>
-      </c>
-      <c r="D3470" s="6" t="s">
-        <v>3612</v>
       </c>
       <c r="E3470" t="str">
         <f t="shared" si="110"/>
@@ -77903,10 +77907,10 @@
         <v>10</v>
       </c>
       <c r="C3471" t="s">
-        <v>3603</v>
+        <v>3594</v>
       </c>
       <c r="D3471" s="6" t="s">
-        <v>3613</v>
+        <v>3604</v>
       </c>
       <c r="E3471" t="str">
         <f t="shared" si="110"/>
@@ -77922,10 +77926,10 @@
         <v>1</v>
       </c>
       <c r="C3472" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3472" t="s">
-        <v>3614</v>
+        <v>3605</v>
       </c>
       <c r="E3472" t="str">
         <f t="shared" si="110"/>
@@ -77941,10 +77945,10 @@
         <v>2</v>
       </c>
       <c r="C3473" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3473" s="6" t="s">
-        <v>3619</v>
+        <v>3610</v>
       </c>
       <c r="E3473" t="str">
         <f t="shared" si="110"/>
@@ -77960,10 +77964,10 @@
         <v>3</v>
       </c>
       <c r="C3474" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3474" s="6" t="s">
-        <v>3620</v>
+        <v>3611</v>
       </c>
       <c r="E3474" t="str">
         <f t="shared" si="110"/>
@@ -77979,10 +77983,10 @@
         <v>4</v>
       </c>
       <c r="C3475" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3475" s="6" t="s">
-        <v>3621</v>
+        <v>3612</v>
       </c>
       <c r="E3475" t="str">
         <f t="shared" si="110"/>
@@ -77998,10 +78002,10 @@
         <v>5</v>
       </c>
       <c r="C3476" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3476" s="6" t="s">
-        <v>3622</v>
+        <v>3613</v>
       </c>
       <c r="E3476" t="str">
         <f t="shared" si="110"/>
@@ -78017,10 +78021,10 @@
         <v>6</v>
       </c>
       <c r="C3477" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3477" s="6" t="s">
-        <v>3623</v>
+        <v>3614</v>
       </c>
       <c r="E3477" t="str">
         <f t="shared" si="110"/>
@@ -78036,10 +78040,10 @@
         <v>7</v>
       </c>
       <c r="C3478" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3478" s="6" t="s">
-        <v>3618</v>
+        <v>3609</v>
       </c>
       <c r="E3478" t="str">
         <f t="shared" si="110"/>
@@ -78055,10 +78059,10 @@
         <v>8</v>
       </c>
       <c r="C3479" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D3479" s="6" t="s">
         <v>3615</v>
-      </c>
-      <c r="D3479" s="6" t="s">
-        <v>3624</v>
       </c>
       <c r="E3479" t="str">
         <f t="shared" si="110"/>
@@ -78074,10 +78078,10 @@
         <v>9</v>
       </c>
       <c r="C3480" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3480" s="6" t="s">
-        <v>3617</v>
+        <v>3608</v>
       </c>
       <c r="E3480" t="str">
         <f t="shared" si="110"/>
@@ -78093,10 +78097,10 @@
         <v>10</v>
       </c>
       <c r="C3481" t="s">
-        <v>3615</v>
+        <v>3606</v>
       </c>
       <c r="D3481" s="6" t="s">
-        <v>3616</v>
+        <v>3607</v>
       </c>
       <c r="E3481" t="str">
         <f t="shared" si="110"/>
@@ -78112,10 +78116,10 @@
         <v>1</v>
       </c>
       <c r="C3482" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3482" t="s">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="E3482" t="str">
         <f t="shared" si="110"/>
@@ -78131,10 +78135,10 @@
         <v>2</v>
       </c>
       <c r="C3483" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3483" s="6" t="s">
-        <v>3630</v>
+        <v>3621</v>
       </c>
       <c r="E3483" t="str">
         <f t="shared" si="110"/>
@@ -78150,10 +78154,10 @@
         <v>3</v>
       </c>
       <c r="C3484" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3484" s="6" t="s">
-        <v>3631</v>
+        <v>3622</v>
       </c>
       <c r="E3484" t="str">
         <f t="shared" si="110"/>
@@ -78169,10 +78173,10 @@
         <v>4</v>
       </c>
       <c r="C3485" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3485" s="6" t="s">
-        <v>3632</v>
+        <v>3623</v>
       </c>
       <c r="E3485" t="str">
         <f t="shared" si="110"/>
@@ -78188,10 +78192,10 @@
         <v>5</v>
       </c>
       <c r="C3486" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3486" s="6" t="s">
-        <v>3629</v>
+        <v>3620</v>
       </c>
       <c r="E3486" t="str">
         <f t="shared" si="110"/>
@@ -78207,10 +78211,10 @@
         <v>6</v>
       </c>
       <c r="C3487" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3487" s="6" t="s">
-        <v>3628</v>
+        <v>3619</v>
       </c>
       <c r="E3487" t="str">
         <f t="shared" si="110"/>
@@ -78226,17 +78230,17 @@
         <v>7</v>
       </c>
       <c r="C3488" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3488" s="6" t="s">
-        <v>3633</v>
+        <v>3624</v>
       </c>
       <c r="E3488" t="str">
         <f t="shared" si="110"/>
         <v>("3487","7","selectaFolderToUploadFiles","फ़ाइलें अपलोड करने के लिए एक फ़ोल्डर का चयन करें"),</v>
       </c>
     </row>
-    <row r="3489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3489">
         <f t="shared" si="109"/>
         <v>3488</v>
@@ -78245,17 +78249,17 @@
         <v>8</v>
       </c>
       <c r="C3489" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3489" s="6" t="s">
-        <v>3627</v>
+        <v>3618</v>
       </c>
       <c r="E3489" t="str">
         <f t="shared" si="110"/>
         <v>("3488","8","selectaFolderToUploadFiles","Выберите папку для загрузки файлов"),</v>
       </c>
     </row>
-    <row r="3490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3490">
         <f t="shared" si="109"/>
         <v>3489</v>
@@ -78264,17 +78268,17 @@
         <v>9</v>
       </c>
       <c r="C3490" t="s">
-        <v>3626</v>
+        <v>3617</v>
       </c>
       <c r="D3490" s="6" t="s">
-        <v>3634</v>
+        <v>3625</v>
       </c>
       <c r="E3490" t="str">
         <f t="shared" si="110"/>
         <v>("3489","9","selectaFolderToUploadFiles","Seleccione una carpeta para cargar archivos"),</v>
       </c>
     </row>
-    <row r="3491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3491">
         <f t="shared" si="109"/>
         <v>3490</v>
@@ -78283,17 +78287,17 @@
         <v>10</v>
       </c>
       <c r="C3491" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D3491" s="6" t="s">
         <v>3626</v>
-      </c>
-      <c r="D3491" s="6" t="s">
-        <v>3635</v>
       </c>
       <c r="E3491" t="str">
         <f t="shared" si="110"/>
         <v>("3490","10","selectaFolderToUploadFiles","حدد مجلدا لتحميل الملفات"),</v>
       </c>
     </row>
-    <row r="3492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3492">
         <f t="shared" si="109"/>
         <v>3491</v>
@@ -78302,17 +78306,17 @@
         <v>1</v>
       </c>
       <c r="C3492" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3492" t="s">
-        <v>3636</v>
+        <v>3627</v>
       </c>
       <c r="E3492" t="str">
         <f t="shared" si="110"/>
         <v>("3491","1","dragFilesHere","Drag files here"),</v>
       </c>
     </row>
-    <row r="3493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3493">
         <f t="shared" si="109"/>
         <v>3492</v>
@@ -78321,17 +78325,17 @@
         <v>2</v>
       </c>
       <c r="C3493" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3493" s="6" t="s">
-        <v>3641</v>
+        <v>3632</v>
       </c>
       <c r="E3493" t="str">
         <f t="shared" si="110"/>
         <v>("3492","2","dragFilesHere","கோப்புகளை இங்கே இழுக்கவும்"),</v>
       </c>
     </row>
-    <row r="3494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3494">
         <f t="shared" si="109"/>
         <v>3493</v>
@@ -78340,17 +78344,17 @@
         <v>3</v>
       </c>
       <c r="C3494" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3494" s="6" t="s">
-        <v>3642</v>
+        <v>3633</v>
       </c>
       <c r="E3494" t="str">
         <f t="shared" si="110"/>
         <v>("3493","3","dragFilesHere","Déplacez des fichiers ici"),</v>
       </c>
     </row>
-    <row r="3495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3495">
         <f t="shared" si="109"/>
         <v>3494</v>
@@ -78359,17 +78363,17 @@
         <v>4</v>
       </c>
       <c r="C3495" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3495" s="6" t="s">
-        <v>3643</v>
+        <v>3634</v>
       </c>
       <c r="E3495" t="str">
         <f t="shared" si="110"/>
         <v>("3494","4","dragFilesHere","将文件拖到这里"),</v>
       </c>
     </row>
-    <row r="3496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3496">
         <f t="shared" si="109"/>
         <v>3495</v>
@@ -78378,17 +78382,17 @@
         <v>5</v>
       </c>
       <c r="C3496" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3496" s="6" t="s">
-        <v>3644</v>
+        <v>3635</v>
       </c>
       <c r="E3496" t="str">
         <f t="shared" si="110"/>
         <v>("3495","5","dragFilesHere","ここにファイルをドラッグ"),</v>
       </c>
     </row>
-    <row r="3497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3497">
         <f t="shared" si="109"/>
         <v>3496</v>
@@ -78397,17 +78401,17 @@
         <v>6</v>
       </c>
       <c r="C3497" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3497" s="6" t="s">
-        <v>3645</v>
+        <v>3636</v>
       </c>
       <c r="E3497" t="str">
         <f t="shared" si="110"/>
         <v>("3496","6","dragFilesHere","Arraste os arquivos aqui"),</v>
       </c>
     </row>
-    <row r="3498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3498">
         <f t="shared" si="109"/>
         <v>3497</v>
@@ -78416,17 +78420,17 @@
         <v>7</v>
       </c>
       <c r="C3498" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3498" s="6" t="s">
-        <v>3640</v>
+        <v>3631</v>
       </c>
       <c r="E3498" t="str">
         <f t="shared" si="110"/>
         <v>("3497","7","dragFilesHere","फ़ाइलें यहां खींचें"),</v>
       </c>
     </row>
-    <row r="3499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3499">
         <f t="shared" si="109"/>
         <v>3498</v>
@@ -78435,17 +78439,17 @@
         <v>8</v>
       </c>
       <c r="C3499" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D3499" s="6" t="s">
         <v>3637</v>
-      </c>
-      <c r="D3499" s="6" t="s">
-        <v>3646</v>
       </c>
       <c r="E3499" t="str">
         <f t="shared" si="110"/>
         <v>("3498","8","dragFilesHere","Перетащите файлы сюда"),</v>
       </c>
     </row>
-    <row r="3500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3500">
         <f t="shared" si="109"/>
         <v>3499</v>
@@ -78454,17 +78458,17 @@
         <v>9</v>
       </c>
       <c r="C3500" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3500" s="6" t="s">
-        <v>3639</v>
+        <v>3630</v>
       </c>
       <c r="E3500" t="str">
         <f t="shared" si="110"/>
         <v>("3499","9","dragFilesHere","Arrastre los archivos aquí"),</v>
       </c>
     </row>
-    <row r="3501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3501">
         <f t="shared" si="109"/>
         <v>3500</v>
@@ -78473,17 +78477,17 @@
         <v>10</v>
       </c>
       <c r="C3501" t="s">
-        <v>3637</v>
+        <v>3628</v>
       </c>
       <c r="D3501" s="6" t="s">
-        <v>3638</v>
+        <v>3629</v>
       </c>
       <c r="E3501" t="str">
         <f t="shared" si="110"/>
         <v>("3500","10","dragFilesHere","اسحب الملفات هنا"),</v>
       </c>
     </row>
-    <row r="3502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3502">
         <f t="shared" si="109"/>
         <v>3501</v>
@@ -78495,7 +78499,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3503" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3503" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3503">
         <f t="shared" si="109"/>
         <v>3502</v>
@@ -78507,7 +78511,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3504" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3504" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3504">
         <f t="shared" si="109"/>
         <v>3503</v>
@@ -78518,8 +78522,9 @@
       <c r="E3504" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="3505" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3504" s="6"/>
+    </row>
+    <row r="3505" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3505">
         <f t="shared" si="109"/>
         <v>3504</v>
@@ -78530,8 +78535,9 @@
       <c r="E3505" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="3506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3505" s="17"/>
+    </row>
+    <row r="3506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3506">
         <f t="shared" si="109"/>
         <v>3505</v>
@@ -78542,8 +78548,9 @@
       <c r="E3506" s="6" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="3507" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3506" s="17"/>
+    </row>
+    <row r="3507" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3507">
         <f t="shared" si="109"/>
         <v>3506</v>
@@ -78555,7 +78562,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="3508" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3508" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3508">
         <f t="shared" si="109"/>
         <v>3507</v>
@@ -78567,7 +78574,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3509" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3509" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3509">
         <f t="shared" si="109"/>
         <v>3508</v>
@@ -78579,7 +78586,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3510" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3510" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3510">
         <f t="shared" si="109"/>
         <v>3509</v>
@@ -78591,7 +78598,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="3511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3511">
         <f t="shared" si="109"/>
         <v>3510</v>
@@ -78603,7 +78610,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3512">
         <f t="shared" ref="A3512:A3575" si="111">A3511+1</f>
         <v>3511</v>
@@ -78612,7 +78619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3513">
         <f t="shared" si="111"/>
         <v>3512</v>
@@ -78621,7 +78628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3514">
         <f t="shared" si="111"/>
         <v>3513</v>
@@ -78630,7 +78637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3515">
         <f t="shared" si="111"/>
         <v>3514</v>
@@ -78639,7 +78646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3516">
         <f t="shared" si="111"/>
         <v>3515</v>
@@ -78648,7 +78655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3517">
         <f t="shared" si="111"/>
         <v>3516</v>
@@ -78657,7 +78664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3518">
         <f t="shared" si="111"/>
         <v>3517</v>
@@ -78666,7 +78673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3519">
         <f t="shared" si="111"/>
         <v>3518</v>
@@ -78675,7 +78682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3520">
         <f t="shared" si="111"/>
         <v>3519</v>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6586577-6DF1-A242-B79D-EC58E5179EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1764E-739E-1E46-9609-F99AB19C9477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">i18n!$A$1:$E$901</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">i18n!$A$1:$E$3511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="3648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="3650">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -9627,9 +9627,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -11001,6 +10998,15 @@
   </si>
   <si>
     <t>نسخ من النموذج للشهر القادم</t>
+  </si>
+  <si>
+    <t>موضوع خلفية الفيديو</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Principal Amount</t>
   </si>
 </sst>
 </file>
@@ -11949,8 +11955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3477" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3511" sqref="E3511"/>
+    <sheetView tabSelected="1" topLeftCell="A3474" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D3501" sqref="D3501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49410,11 +49416,11 @@
         <v>2032</v>
       </c>
       <c r="D1971" t="s">
-        <v>2031</v>
+        <v>3647</v>
       </c>
       <c r="E1971" t="str">
         <f t="shared" si="60"/>
-        <v>("1970","10","themeBackgroundVideo","Theme Background Video"),</v>
+        <v>("1970","10","themeBackgroundVideo","موضوع خلفية الفيديو"),</v>
       </c>
     </row>
     <row r="1972" spans="1:5" x14ac:dyDescent="0.2">
@@ -66909,11 +66915,11 @@
         <v>2991</v>
       </c>
       <c r="D2892" t="s">
-        <v>2991</v>
+        <v>3649</v>
       </c>
       <c r="E2892" t="str">
         <f t="shared" si="92"/>
-        <v>("2891","1","principalAmount","principalAmount"),</v>
+        <v>("2891","1","principalAmount","Principal Amount"),</v>
       </c>
     </row>
     <row r="2893" spans="1:5" x14ac:dyDescent="0.2">
@@ -69189,7 +69195,7 @@
         <v>3115</v>
       </c>
       <c r="D3012" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="E3012" t="str">
         <f t="shared" si="96"/>
@@ -69208,7 +69214,7 @@
         <v>3115</v>
       </c>
       <c r="D3013" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E3013" t="str">
         <f t="shared" si="96"/>
@@ -69227,7 +69233,7 @@
         <v>3115</v>
       </c>
       <c r="D3014" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="E3014" t="str">
         <f t="shared" si="96"/>
@@ -69246,7 +69252,7 @@
         <v>3115</v>
       </c>
       <c r="D3015" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="E3015" t="str">
         <f t="shared" si="96"/>
@@ -69265,7 +69271,7 @@
         <v>3115</v>
       </c>
       <c r="D3016" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="E3016" t="str">
         <f t="shared" si="96"/>
@@ -69284,7 +69290,7 @@
         <v>3115</v>
       </c>
       <c r="D3017" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="E3017" t="str">
         <f t="shared" si="96"/>
@@ -69303,7 +69309,7 @@
         <v>3115</v>
       </c>
       <c r="D3018" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="E3018" t="str">
         <f t="shared" si="96"/>
@@ -69322,7 +69328,7 @@
         <v>3115</v>
       </c>
       <c r="D3019" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="E3019" t="str">
         <f t="shared" si="96"/>
@@ -69341,7 +69347,7 @@
         <v>3115</v>
       </c>
       <c r="D3020" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="E3020" t="str">
         <f t="shared" si="96"/>
@@ -69360,7 +69366,7 @@
         <v>3115</v>
       </c>
       <c r="D3021" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="E3021" t="str">
         <f t="shared" si="96"/>
@@ -70709,7 +70715,7 @@
         <v>3192</v>
       </c>
       <c r="D3092" s="6" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="E3092" t="str">
         <f t="shared" si="98"/>
@@ -70728,7 +70734,7 @@
         <v>3192</v>
       </c>
       <c r="D3093" s="6" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="E3093" t="str">
         <f t="shared" si="98"/>
@@ -70747,7 +70753,7 @@
         <v>3192</v>
       </c>
       <c r="D3094" s="6" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="E3094" t="str">
         <f t="shared" si="98"/>
@@ -70766,7 +70772,7 @@
         <v>3192</v>
       </c>
       <c r="D3095" s="6" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="E3095" t="str">
         <f t="shared" si="98"/>
@@ -70785,7 +70791,7 @@
         <v>3192</v>
       </c>
       <c r="D3096" s="6" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="E3096" t="str">
         <f t="shared" si="98"/>
@@ -70804,7 +70810,7 @@
         <v>3192</v>
       </c>
       <c r="D3097" s="6" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="E3097" t="str">
         <f t="shared" si="98"/>
@@ -70823,7 +70829,7 @@
         <v>3192</v>
       </c>
       <c r="D3098" s="6" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="E3098" t="str">
         <f t="shared" si="98"/>
@@ -70842,7 +70848,7 @@
         <v>3192</v>
       </c>
       <c r="D3099" s="6" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="E3099" t="str">
         <f t="shared" si="98"/>
@@ -70861,7 +70867,7 @@
         <v>3192</v>
       </c>
       <c r="D3100" s="6" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="E3100" t="str">
         <f t="shared" si="98"/>
@@ -70880,7 +70886,7 @@
         <v>3192</v>
       </c>
       <c r="D3101" s="6" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="E3101" t="str">
         <f t="shared" si="98"/>
@@ -70896,14 +70902,14 @@
         <v>1</v>
       </c>
       <c r="C3102" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3102" s="6" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="E3102" t="str">
         <f t="shared" si="98"/>
-        <v>("3101","1","Logout","Log out"),</v>
+        <v>("3101","1","logout","Log out"),</v>
       </c>
     </row>
     <row r="3103" spans="1:5" x14ac:dyDescent="0.2">
@@ -70915,14 +70921,14 @@
         <v>2</v>
       </c>
       <c r="C3103" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3103" s="6" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="E3103" t="str">
         <f t="shared" si="98"/>
-        <v>("3102","2","Logout","வெளியேறு"),</v>
+        <v>("3102","2","logout","வெளியேறு"),</v>
       </c>
     </row>
     <row r="3104" spans="1:5" x14ac:dyDescent="0.2">
@@ -70934,14 +70940,14 @@
         <v>3</v>
       </c>
       <c r="C3104" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3104" s="6" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="E3104" t="str">
         <f t="shared" si="98"/>
-        <v>("3103","3","Logout","Se déconnecter"),</v>
+        <v>("3103","3","logout","Se déconnecter"),</v>
       </c>
     </row>
     <row r="3105" spans="1:5" x14ac:dyDescent="0.2">
@@ -70953,14 +70959,14 @@
         <v>4</v>
       </c>
       <c r="C3105" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3105" s="6" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="E3105" t="str">
         <f t="shared" si="98"/>
-        <v>("3104","4","Logout","登出"),</v>
+        <v>("3104","4","logout","登出"),</v>
       </c>
     </row>
     <row r="3106" spans="1:5" x14ac:dyDescent="0.2">
@@ -70972,14 +70978,14 @@
         <v>5</v>
       </c>
       <c r="C3106" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3106" s="6" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="E3106" t="str">
         <f t="shared" si="98"/>
-        <v>("3105","5","Logout","ログアウト"),</v>
+        <v>("3105","5","logout","ログアウト"),</v>
       </c>
     </row>
     <row r="3107" spans="1:5" x14ac:dyDescent="0.2">
@@ -70991,14 +70997,14 @@
         <v>6</v>
       </c>
       <c r="C3107" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3107" s="6" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="E3107" t="str">
         <f t="shared" si="98"/>
-        <v>("3106","6","Logout","sair"),</v>
+        <v>("3106","6","logout","sair"),</v>
       </c>
     </row>
     <row r="3108" spans="1:5" x14ac:dyDescent="0.2">
@@ -71010,14 +71016,14 @@
         <v>7</v>
       </c>
       <c r="C3108" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3108" s="6" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="E3108" t="str">
         <f t="shared" si="98"/>
-        <v>("3107","7","Logout","लॉग आउट"),</v>
+        <v>("3107","7","logout","लॉग आउट"),</v>
       </c>
     </row>
     <row r="3109" spans="1:5" x14ac:dyDescent="0.2">
@@ -71029,14 +71035,14 @@
         <v>8</v>
       </c>
       <c r="C3109" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3109" s="6" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="E3109" t="str">
         <f t="shared" si="98"/>
-        <v>("3108","8","Logout","выйти"),</v>
+        <v>("3108","8","logout","выйти"),</v>
       </c>
     </row>
     <row r="3110" spans="1:5" x14ac:dyDescent="0.2">
@@ -71048,14 +71054,14 @@
         <v>9</v>
       </c>
       <c r="C3110" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3110" s="6" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="E3110" t="str">
         <f t="shared" si="98"/>
-        <v>("3109","9","Logout","cerrar sesión"),</v>
+        <v>("3109","9","logout","cerrar sesión"),</v>
       </c>
     </row>
     <row r="3111" spans="1:5" x14ac:dyDescent="0.2">
@@ -71067,14 +71073,14 @@
         <v>10</v>
       </c>
       <c r="C3111" s="6" t="s">
-        <v>3193</v>
+        <v>3648</v>
       </c>
       <c r="D3111" s="6" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="E3111" t="str">
         <f t="shared" si="98"/>
-        <v>("3110","10","Logout","تسجيل خروج"),</v>
+        <v>("3110","10","logout","تسجيل خروج"),</v>
       </c>
     </row>
     <row r="3112" spans="1:5" x14ac:dyDescent="0.2">
@@ -71086,10 +71092,10 @@
         <v>1</v>
       </c>
       <c r="C3112" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3112" s="6" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="E3112" t="str">
         <f t="shared" si="98"/>
@@ -71105,10 +71111,10 @@
         <v>2</v>
       </c>
       <c r="C3113" s="6" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D3113" s="6" t="s">
         <v>3215</v>
-      </c>
-      <c r="D3113" s="6" t="s">
-        <v>3216</v>
       </c>
       <c r="E3113" t="str">
         <f t="shared" si="98"/>
@@ -71124,10 +71130,10 @@
         <v>3</v>
       </c>
       <c r="C3114" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3114" s="6" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="E3114" t="str">
         <f t="shared" si="98"/>
@@ -71143,10 +71149,10 @@
         <v>4</v>
       </c>
       <c r="C3115" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3115" s="6" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="E3115" t="str">
         <f t="shared" si="98"/>
@@ -71162,10 +71168,10 @@
         <v>5</v>
       </c>
       <c r="C3116" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3116" s="6" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="E3116" t="str">
         <f t="shared" si="98"/>
@@ -71181,10 +71187,10 @@
         <v>6</v>
       </c>
       <c r="C3117" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3117" s="6" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="E3117" t="str">
         <f t="shared" si="98"/>
@@ -71200,10 +71206,10 @@
         <v>7</v>
       </c>
       <c r="C3118" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3118" s="6" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="E3118" t="str">
         <f t="shared" si="98"/>
@@ -71219,10 +71225,10 @@
         <v>8</v>
       </c>
       <c r="C3119" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3119" s="6" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="E3119" t="str">
         <f t="shared" si="98"/>
@@ -71238,10 +71244,10 @@
         <v>9</v>
       </c>
       <c r="C3120" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3120" s="6" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="E3120" t="str">
         <f t="shared" si="98"/>
@@ -71257,10 +71263,10 @@
         <v>10</v>
       </c>
       <c r="C3121" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D3121" s="6" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="E3121" t="str">
         <f t="shared" si="98"/>
@@ -71276,10 +71282,10 @@
         <v>1</v>
       </c>
       <c r="C3122" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3122" s="6" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="E3122" t="str">
         <f t="shared" si="98"/>
@@ -71295,10 +71301,10 @@
         <v>2</v>
       </c>
       <c r="C3123" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3123" s="6" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="E3123" t="str">
         <f t="shared" si="98"/>
@@ -71314,10 +71320,10 @@
         <v>3</v>
       </c>
       <c r="C3124" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3124" s="6" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="E3124" t="str">
         <f t="shared" si="98"/>
@@ -71333,10 +71339,10 @@
         <v>4</v>
       </c>
       <c r="C3125" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3125" s="6" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="E3125" t="str">
         <f t="shared" si="98"/>
@@ -71352,10 +71358,10 @@
         <v>5</v>
       </c>
       <c r="C3126" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3126" s="6" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="E3126" t="str">
         <f t="shared" si="98"/>
@@ -71371,10 +71377,10 @@
         <v>6</v>
       </c>
       <c r="C3127" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3127" s="6" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="E3127" t="str">
         <f t="shared" si="98"/>
@@ -71390,10 +71396,10 @@
         <v>7</v>
       </c>
       <c r="C3128" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3128" s="6" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="E3128" t="str">
         <f t="shared" si="98"/>
@@ -71409,10 +71415,10 @@
         <v>8</v>
       </c>
       <c r="C3129" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3129" s="6" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="E3129" t="str">
         <f t="shared" ref="E3129:E3192" si="100">CONCATENATE("(",CHAR(34),A3129,CHAR(34),",",CHAR(34),B3129,CHAR(34),",",CHAR(34),C3129,CHAR(34),",",CHAR(34),D3129,CHAR(34),"),")</f>
@@ -71428,10 +71434,10 @@
         <v>9</v>
       </c>
       <c r="C3130" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D3130" s="6" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="E3130" t="str">
         <f t="shared" si="100"/>
@@ -71447,10 +71453,10 @@
         <v>10</v>
       </c>
       <c r="C3131" s="6" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D3131" s="6" t="s">
         <v>3226</v>
-      </c>
-      <c r="D3131" s="6" t="s">
-        <v>3227</v>
       </c>
       <c r="E3131" t="str">
         <f t="shared" si="100"/>
@@ -71466,10 +71472,10 @@
         <v>1</v>
       </c>
       <c r="C3132" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3132" s="6" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="E3132" t="str">
         <f t="shared" si="100"/>
@@ -71485,10 +71491,10 @@
         <v>2</v>
       </c>
       <c r="C3133" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3133" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="E3133" t="str">
         <f t="shared" si="100"/>
@@ -71504,10 +71510,10 @@
         <v>3</v>
       </c>
       <c r="C3134" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3134" s="6" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="E3134" t="str">
         <f t="shared" si="100"/>
@@ -71523,10 +71529,10 @@
         <v>4</v>
       </c>
       <c r="C3135" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3135" s="6" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="E3135" t="str">
         <f t="shared" si="100"/>
@@ -71542,10 +71548,10 @@
         <v>5</v>
       </c>
       <c r="C3136" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3136" s="6" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="E3136" t="str">
         <f t="shared" si="100"/>
@@ -71561,10 +71567,10 @@
         <v>6</v>
       </c>
       <c r="C3137" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3137" s="6" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="E3137" t="str">
         <f t="shared" si="100"/>
@@ -71580,10 +71586,10 @@
         <v>7</v>
       </c>
       <c r="C3138" s="6" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D3138" s="6" t="s">
         <v>3237</v>
-      </c>
-      <c r="D3138" s="6" t="s">
-        <v>3238</v>
       </c>
       <c r="E3138" t="str">
         <f t="shared" si="100"/>
@@ -71599,10 +71605,10 @@
         <v>8</v>
       </c>
       <c r="C3139" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3139" s="6" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="E3139" t="str">
         <f t="shared" si="100"/>
@@ -71618,10 +71624,10 @@
         <v>9</v>
       </c>
       <c r="C3140" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3140" s="6" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="E3140" t="str">
         <f t="shared" si="100"/>
@@ -71637,10 +71643,10 @@
         <v>10</v>
       </c>
       <c r="C3141" s="6" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D3141" s="6" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="E3141" t="str">
         <f t="shared" si="100"/>
@@ -71656,10 +71662,10 @@
         <v>1</v>
       </c>
       <c r="C3142" s="6" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D3142" s="15" t="s">
         <v>3247</v>
-      </c>
-      <c r="D3142" s="15" t="s">
-        <v>3248</v>
       </c>
       <c r="E3142" t="str">
         <f t="shared" si="100"/>
@@ -71675,10 +71681,10 @@
         <v>2</v>
       </c>
       <c r="C3143" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3143" s="6" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E3143" t="str">
         <f t="shared" si="100"/>
@@ -71694,10 +71700,10 @@
         <v>3</v>
       </c>
       <c r="C3144" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3144" s="6" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E3144" t="str">
         <f t="shared" si="100"/>
@@ -71713,10 +71719,10 @@
         <v>4</v>
       </c>
       <c r="C3145" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3145" s="6" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E3145" t="str">
         <f t="shared" si="100"/>
@@ -71732,10 +71738,10 @@
         <v>5</v>
       </c>
       <c r="C3146" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3146" s="6" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="E3146" t="str">
         <f t="shared" si="100"/>
@@ -71751,10 +71757,10 @@
         <v>6</v>
       </c>
       <c r="C3147" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3147" s="6" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E3147" t="str">
         <f t="shared" si="100"/>
@@ -71770,10 +71776,10 @@
         <v>7</v>
       </c>
       <c r="C3148" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3148" s="6" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E3148" t="str">
         <f t="shared" si="100"/>
@@ -71789,10 +71795,10 @@
         <v>8</v>
       </c>
       <c r="C3149" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3149" s="6" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E3149" t="str">
         <f t="shared" si="100"/>
@@ -71808,10 +71814,10 @@
         <v>9</v>
       </c>
       <c r="C3150" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3150" s="6" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E3150" t="str">
         <f t="shared" si="100"/>
@@ -71827,10 +71833,10 @@
         <v>10</v>
       </c>
       <c r="C3151" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D3151" s="6" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E3151" t="str">
         <f t="shared" si="100"/>
@@ -71846,10 +71852,10 @@
         <v>1</v>
       </c>
       <c r="C3152" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3152" s="6" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="E3152" t="str">
         <f t="shared" si="100"/>
@@ -71865,10 +71871,10 @@
         <v>2</v>
       </c>
       <c r="C3153" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3153" s="6" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="E3153" t="str">
         <f t="shared" si="100"/>
@@ -71884,10 +71890,10 @@
         <v>3</v>
       </c>
       <c r="C3154" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3154" s="6" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="E3154" t="str">
         <f t="shared" si="100"/>
@@ -71903,10 +71909,10 @@
         <v>4</v>
       </c>
       <c r="C3155" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3155" s="6" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="E3155" t="str">
         <f t="shared" si="100"/>
@@ -71922,10 +71928,10 @@
         <v>5</v>
       </c>
       <c r="C3156" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3156" s="6" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="E3156" t="str">
         <f t="shared" si="100"/>
@@ -71941,10 +71947,10 @@
         <v>6</v>
       </c>
       <c r="C3157" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3157" s="6" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E3157" t="str">
         <f t="shared" si="100"/>
@@ -71960,10 +71966,10 @@
         <v>7</v>
       </c>
       <c r="C3158" s="6" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D3158" s="6" t="s">
         <v>3259</v>
-      </c>
-      <c r="D3158" s="6" t="s">
-        <v>3260</v>
       </c>
       <c r="E3158" t="str">
         <f t="shared" si="100"/>
@@ -71979,10 +71985,10 @@
         <v>8</v>
       </c>
       <c r="C3159" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3159" s="6" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="E3159" t="str">
         <f t="shared" si="100"/>
@@ -71998,7 +72004,7 @@
         <v>9</v>
       </c>
       <c r="C3160" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3160" s="6" t="s">
         <v>400</v>
@@ -72017,7 +72023,7 @@
         <v>10</v>
       </c>
       <c r="C3161" s="6" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="D3161" s="6" t="s">
         <v>403</v>
@@ -72036,10 +72042,10 @@
         <v>1</v>
       </c>
       <c r="C3162" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3162" s="6" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E3162" t="str">
         <f t="shared" si="100"/>
@@ -72055,10 +72061,10 @@
         <v>2</v>
       </c>
       <c r="C3163" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3163" s="6" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="E3163" t="str">
         <f t="shared" si="100"/>
@@ -72074,10 +72080,10 @@
         <v>3</v>
       </c>
       <c r="C3164" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3164" s="6" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E3164" t="str">
         <f t="shared" si="100"/>
@@ -72093,10 +72099,10 @@
         <v>4</v>
       </c>
       <c r="C3165" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3165" s="6" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="E3165" t="str">
         <f t="shared" si="100"/>
@@ -72112,10 +72118,10 @@
         <v>5</v>
       </c>
       <c r="C3166" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3166" s="6" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="E3166" t="str">
         <f t="shared" si="100"/>
@@ -72131,10 +72137,10 @@
         <v>6</v>
       </c>
       <c r="C3167" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3167" s="6" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="E3167" t="str">
         <f t="shared" si="100"/>
@@ -72150,10 +72156,10 @@
         <v>7</v>
       </c>
       <c r="C3168" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3168" s="6" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E3168" t="str">
         <f t="shared" si="100"/>
@@ -72169,10 +72175,10 @@
         <v>8</v>
       </c>
       <c r="C3169" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3169" s="6" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="E3169" t="str">
         <f t="shared" si="100"/>
@@ -72188,10 +72194,10 @@
         <v>9</v>
       </c>
       <c r="C3170" s="6" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D3170" s="6" t="s">
         <v>3267</v>
-      </c>
-      <c r="D3170" s="6" t="s">
-        <v>3268</v>
       </c>
       <c r="E3170" t="str">
         <f t="shared" si="100"/>
@@ -72207,10 +72213,10 @@
         <v>10</v>
       </c>
       <c r="C3171" s="6" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D3171" s="6" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="E3171" t="str">
         <f t="shared" si="100"/>
@@ -72226,10 +72232,10 @@
         <v>1</v>
       </c>
       <c r="C3172" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3172" s="6" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="E3172" t="str">
         <f t="shared" si="100"/>
@@ -72245,10 +72251,10 @@
         <v>2</v>
       </c>
       <c r="C3173" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3173" s="6" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="E3173" t="str">
         <f t="shared" si="100"/>
@@ -72264,10 +72270,10 @@
         <v>3</v>
       </c>
       <c r="C3174" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3174" s="6" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="E3174" t="str">
         <f t="shared" si="100"/>
@@ -72283,10 +72289,10 @@
         <v>4</v>
       </c>
       <c r="C3175" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3175" s="6" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="E3175" t="str">
         <f t="shared" si="100"/>
@@ -72302,10 +72308,10 @@
         <v>5</v>
       </c>
       <c r="C3176" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3176" s="6" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E3176" t="str">
         <f t="shared" si="100"/>
@@ -72321,10 +72327,10 @@
         <v>6</v>
       </c>
       <c r="C3177" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3177" s="6" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="E3177" t="str">
         <f t="shared" si="100"/>
@@ -72340,10 +72346,10 @@
         <v>7</v>
       </c>
       <c r="C3178" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3178" s="6" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E3178" t="str">
         <f t="shared" si="100"/>
@@ -72359,10 +72365,10 @@
         <v>8</v>
       </c>
       <c r="C3179" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3179" s="6" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="E3179" t="str">
         <f t="shared" si="100"/>
@@ -72378,10 +72384,10 @@
         <v>9</v>
       </c>
       <c r="C3180" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3180" s="6" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E3180" t="str">
         <f t="shared" si="100"/>
@@ -72397,10 +72403,10 @@
         <v>10</v>
       </c>
       <c r="C3181" s="6" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D3181" s="6" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="E3181" t="str">
         <f t="shared" si="100"/>
@@ -72416,10 +72422,10 @@
         <v>1</v>
       </c>
       <c r="C3182" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3182" s="6" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="E3182" t="str">
         <f t="shared" si="100"/>
@@ -72435,10 +72441,10 @@
         <v>2</v>
       </c>
       <c r="C3183" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3183" s="6" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="E3183" t="str">
         <f t="shared" si="100"/>
@@ -72454,10 +72460,10 @@
         <v>3</v>
       </c>
       <c r="C3184" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3184" s="6" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="E3184" t="str">
         <f t="shared" si="100"/>
@@ -72473,10 +72479,10 @@
         <v>4</v>
       </c>
       <c r="C3185" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3185" s="6" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E3185" t="str">
         <f t="shared" si="100"/>
@@ -72492,10 +72498,10 @@
         <v>5</v>
       </c>
       <c r="C3186" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3186" s="6" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="E3186" t="str">
         <f t="shared" si="100"/>
@@ -72511,10 +72517,10 @@
         <v>6</v>
       </c>
       <c r="C3187" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3187" s="6" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="E3187" t="str">
         <f t="shared" si="100"/>
@@ -72530,10 +72536,10 @@
         <v>7</v>
       </c>
       <c r="C3188" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3188" s="6" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="E3188" t="str">
         <f t="shared" si="100"/>
@@ -72549,10 +72555,10 @@
         <v>8</v>
       </c>
       <c r="C3189" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3189" s="6" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E3189" t="str">
         <f t="shared" si="100"/>
@@ -72568,10 +72574,10 @@
         <v>9</v>
       </c>
       <c r="C3190" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3190" s="6" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="E3190" t="str">
         <f t="shared" si="100"/>
@@ -72587,10 +72593,10 @@
         <v>10</v>
       </c>
       <c r="C3191" s="6" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D3191" s="6" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="E3191" t="str">
         <f t="shared" si="100"/>
@@ -72606,10 +72612,10 @@
         <v>1</v>
       </c>
       <c r="C3192" s="6" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D3192" s="6" t="s">
         <v>3299</v>
-      </c>
-      <c r="D3192" s="6" t="s">
-        <v>3300</v>
       </c>
       <c r="E3192" t="str">
         <f t="shared" si="100"/>
@@ -72625,10 +72631,10 @@
         <v>2</v>
       </c>
       <c r="C3193" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3193" s="6" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="E3193" t="str">
         <f t="shared" ref="E3193:E3256" si="102">CONCATENATE("(",CHAR(34),A3193,CHAR(34),",",CHAR(34),B3193,CHAR(34),",",CHAR(34),C3193,CHAR(34),",",CHAR(34),D3193,CHAR(34),"),")</f>
@@ -72644,10 +72650,10 @@
         <v>3</v>
       </c>
       <c r="C3194" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3194" s="6" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="E3194" t="str">
         <f t="shared" si="102"/>
@@ -72663,10 +72669,10 @@
         <v>4</v>
       </c>
       <c r="C3195" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3195" s="6" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E3195" t="str">
         <f t="shared" si="102"/>
@@ -72682,10 +72688,10 @@
         <v>5</v>
       </c>
       <c r="C3196" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3196" s="6" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="E3196" t="str">
         <f t="shared" si="102"/>
@@ -72701,10 +72707,10 @@
         <v>6</v>
       </c>
       <c r="C3197" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3197" s="6" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="E3197" t="str">
         <f t="shared" si="102"/>
@@ -72720,10 +72726,10 @@
         <v>7</v>
       </c>
       <c r="C3198" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3198" s="6" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="E3198" t="str">
         <f t="shared" si="102"/>
@@ -72739,10 +72745,10 @@
         <v>8</v>
       </c>
       <c r="C3199" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3199" s="6" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="E3199" t="str">
         <f t="shared" si="102"/>
@@ -72758,10 +72764,10 @@
         <v>9</v>
       </c>
       <c r="C3200" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3200" s="6" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="E3200" t="str">
         <f t="shared" si="102"/>
@@ -72777,10 +72783,10 @@
         <v>10</v>
       </c>
       <c r="C3201" s="6" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D3201" s="6" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E3201" t="str">
         <f t="shared" si="102"/>
@@ -72796,10 +72802,10 @@
         <v>1</v>
       </c>
       <c r="C3202" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3202" s="6" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E3202" t="str">
         <f t="shared" si="102"/>
@@ -72815,10 +72821,10 @@
         <v>2</v>
       </c>
       <c r="C3203" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3203" s="6" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="E3203" t="str">
         <f t="shared" si="102"/>
@@ -72834,10 +72840,10 @@
         <v>3</v>
       </c>
       <c r="C3204" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3204" s="6" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="E3204" t="str">
         <f t="shared" si="102"/>
@@ -72853,10 +72859,10 @@
         <v>4</v>
       </c>
       <c r="C3205" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3205" s="6" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="E3205" t="str">
         <f t="shared" si="102"/>
@@ -72872,10 +72878,10 @@
         <v>5</v>
       </c>
       <c r="C3206" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3206" s="6" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="E3206" t="str">
         <f t="shared" si="102"/>
@@ -72891,10 +72897,10 @@
         <v>6</v>
       </c>
       <c r="C3207" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3207" s="6" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="E3207" t="str">
         <f t="shared" si="102"/>
@@ -72910,10 +72916,10 @@
         <v>7</v>
       </c>
       <c r="C3208" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3208" s="6" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="E3208" t="str">
         <f t="shared" si="102"/>
@@ -72929,10 +72935,10 @@
         <v>8</v>
       </c>
       <c r="C3209" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3209" s="6" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E3209" t="str">
         <f t="shared" si="102"/>
@@ -72948,10 +72954,10 @@
         <v>9</v>
       </c>
       <c r="C3210" s="6" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D3210" s="6" t="s">
         <v>3310</v>
-      </c>
-      <c r="D3210" s="6" t="s">
-        <v>3311</v>
       </c>
       <c r="E3210" t="str">
         <f t="shared" si="102"/>
@@ -72967,10 +72973,10 @@
         <v>10</v>
       </c>
       <c r="C3211" s="6" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D3211" s="6" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="E3211" t="str">
         <f t="shared" si="102"/>
@@ -72986,10 +72992,10 @@
         <v>1</v>
       </c>
       <c r="C3212" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3212" s="6" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E3212" t="str">
         <f t="shared" si="102"/>
@@ -73005,10 +73011,10 @@
         <v>2</v>
       </c>
       <c r="C3213" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3213" s="6" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="E3213" t="str">
         <f t="shared" si="102"/>
@@ -73024,10 +73030,10 @@
         <v>3</v>
       </c>
       <c r="C3214" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3214" s="6" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="E3214" t="str">
         <f t="shared" si="102"/>
@@ -73043,10 +73049,10 @@
         <v>4</v>
       </c>
       <c r="C3215" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3215" s="6" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="E3215" t="str">
         <f t="shared" si="102"/>
@@ -73062,10 +73068,10 @@
         <v>5</v>
       </c>
       <c r="C3216" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3216" s="6" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="E3216" t="str">
         <f t="shared" si="102"/>
@@ -73081,10 +73087,10 @@
         <v>6</v>
       </c>
       <c r="C3217" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3217" s="6" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E3217" t="str">
         <f t="shared" si="102"/>
@@ -73100,10 +73106,10 @@
         <v>7</v>
       </c>
       <c r="C3218" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3218" s="6" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E3218" t="str">
         <f t="shared" si="102"/>
@@ -73119,10 +73125,10 @@
         <v>8</v>
       </c>
       <c r="C3219" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3219" s="6" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="E3219" t="str">
         <f t="shared" si="102"/>
@@ -73138,10 +73144,10 @@
         <v>9</v>
       </c>
       <c r="C3220" s="6" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D3220" s="6" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="E3220" t="str">
         <f t="shared" si="102"/>
@@ -73157,10 +73163,10 @@
         <v>10</v>
       </c>
       <c r="C3221" s="6" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D3221" s="6" t="s">
         <v>3322</v>
-      </c>
-      <c r="D3221" s="6" t="s">
-        <v>3323</v>
       </c>
       <c r="E3221" t="str">
         <f t="shared" si="102"/>
@@ -73176,10 +73182,10 @@
         <v>1</v>
       </c>
       <c r="C3222" s="6" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D3222" s="6" t="s">
         <v>3332</v>
-      </c>
-      <c r="D3222" s="6" t="s">
-        <v>3333</v>
       </c>
       <c r="E3222" t="str">
         <f t="shared" si="102"/>
@@ -73195,10 +73201,10 @@
         <v>2</v>
       </c>
       <c r="C3223" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3223" s="6" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="E3223" t="str">
         <f t="shared" si="102"/>
@@ -73214,10 +73220,10 @@
         <v>3</v>
       </c>
       <c r="C3224" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3224" s="6" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E3224" t="str">
         <f t="shared" si="102"/>
@@ -73233,10 +73239,10 @@
         <v>4</v>
       </c>
       <c r="C3225" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3225" s="6" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="E3225" t="str">
         <f t="shared" si="102"/>
@@ -73252,10 +73258,10 @@
         <v>5</v>
       </c>
       <c r="C3226" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3226" s="6" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E3226" t="str">
         <f t="shared" si="102"/>
@@ -73271,10 +73277,10 @@
         <v>6</v>
       </c>
       <c r="C3227" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3227" s="6" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="E3227" t="str">
         <f t="shared" si="102"/>
@@ -73290,10 +73296,10 @@
         <v>7</v>
       </c>
       <c r="C3228" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3228" s="6" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="E3228" t="str">
         <f t="shared" si="102"/>
@@ -73309,10 +73315,10 @@
         <v>8</v>
       </c>
       <c r="C3229" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3229" s="6" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="E3229" t="str">
         <f t="shared" si="102"/>
@@ -73328,10 +73334,10 @@
         <v>9</v>
       </c>
       <c r="C3230" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3230" s="6" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="E3230" t="str">
         <f t="shared" si="102"/>
@@ -73347,10 +73353,10 @@
         <v>10</v>
       </c>
       <c r="C3231" s="6" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D3231" s="6" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E3231" t="str">
         <f t="shared" si="102"/>
@@ -73366,10 +73372,10 @@
         <v>1</v>
       </c>
       <c r="C3232" s="6" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D3232" s="6" t="s">
         <v>3343</v>
-      </c>
-      <c r="D3232" s="6" t="s">
-        <v>3344</v>
       </c>
       <c r="E3232" t="str">
         <f t="shared" si="102"/>
@@ -73385,10 +73391,10 @@
         <v>2</v>
       </c>
       <c r="C3233" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3233" s="6" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="E3233" t="str">
         <f t="shared" si="102"/>
@@ -73404,10 +73410,10 @@
         <v>3</v>
       </c>
       <c r="C3234" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3234" s="6" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E3234" t="str">
         <f t="shared" si="102"/>
@@ -73423,10 +73429,10 @@
         <v>4</v>
       </c>
       <c r="C3235" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3235" s="6" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="E3235" t="str">
         <f t="shared" si="102"/>
@@ -73442,10 +73448,10 @@
         <v>5</v>
       </c>
       <c r="C3236" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3236" s="6" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E3236" t="str">
         <f t="shared" si="102"/>
@@ -73461,10 +73467,10 @@
         <v>6</v>
       </c>
       <c r="C3237" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3237" s="6" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E3237" t="str">
         <f t="shared" si="102"/>
@@ -73480,10 +73486,10 @@
         <v>7</v>
       </c>
       <c r="C3238" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3238" s="6" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="E3238" t="str">
         <f t="shared" si="102"/>
@@ -73499,10 +73505,10 @@
         <v>8</v>
       </c>
       <c r="C3239" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3239" s="6" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E3239" t="str">
         <f t="shared" si="102"/>
@@ -73518,10 +73524,10 @@
         <v>9</v>
       </c>
       <c r="C3240" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3240" s="6" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E3240" t="str">
         <f t="shared" si="102"/>
@@ -73537,10 +73543,10 @@
         <v>10</v>
       </c>
       <c r="C3241" s="6" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D3241" s="6" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E3241" t="str">
         <f t="shared" si="102"/>
@@ -73556,10 +73562,10 @@
         <v>1</v>
       </c>
       <c r="C3242" s="6" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D3242" s="6" t="s">
         <v>3354</v>
-      </c>
-      <c r="D3242" s="6" t="s">
-        <v>3355</v>
       </c>
       <c r="E3242" t="str">
         <f t="shared" si="102"/>
@@ -73575,10 +73581,10 @@
         <v>2</v>
       </c>
       <c r="C3243" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3243" s="6" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E3243" t="str">
         <f t="shared" si="102"/>
@@ -73594,10 +73600,10 @@
         <v>3</v>
       </c>
       <c r="C3244" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3244" s="6" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="E3244" t="str">
         <f t="shared" si="102"/>
@@ -73613,10 +73619,10 @@
         <v>4</v>
       </c>
       <c r="C3245" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3245" s="6" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="E3245" t="str">
         <f t="shared" si="102"/>
@@ -73632,10 +73638,10 @@
         <v>5</v>
       </c>
       <c r="C3246" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3246" s="6" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="E3246" t="str">
         <f t="shared" si="102"/>
@@ -73651,10 +73657,10 @@
         <v>6</v>
       </c>
       <c r="C3247" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3247" s="6" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="E3247" t="str">
         <f t="shared" si="102"/>
@@ -73670,10 +73676,10 @@
         <v>7</v>
       </c>
       <c r="C3248" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3248" s="6" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E3248" t="str">
         <f t="shared" si="102"/>
@@ -73689,10 +73695,10 @@
         <v>8</v>
       </c>
       <c r="C3249" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3249" s="6" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="E3249" t="str">
         <f t="shared" si="102"/>
@@ -73708,10 +73714,10 @@
         <v>9</v>
       </c>
       <c r="C3250" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3250" s="6" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="E3250" t="str">
         <f t="shared" si="102"/>
@@ -73727,10 +73733,10 @@
         <v>10</v>
       </c>
       <c r="C3251" s="6" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D3251" s="6" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="E3251" t="str">
         <f t="shared" si="102"/>
@@ -73746,10 +73752,10 @@
         <v>1</v>
       </c>
       <c r="C3252" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3252" s="6" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="E3252" t="str">
         <f t="shared" si="102"/>
@@ -73765,10 +73771,10 @@
         <v>2</v>
       </c>
       <c r="C3253" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3253" s="6" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="E3253" t="str">
         <f t="shared" si="102"/>
@@ -73784,10 +73790,10 @@
         <v>3</v>
       </c>
       <c r="C3254" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3254" s="6" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E3254" t="str">
         <f t="shared" si="102"/>
@@ -73803,10 +73809,10 @@
         <v>4</v>
       </c>
       <c r="C3255" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3255" s="6" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="E3255" t="str">
         <f t="shared" si="102"/>
@@ -73822,10 +73828,10 @@
         <v>5</v>
       </c>
       <c r="C3256" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3256" s="6" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E3256" t="str">
         <f t="shared" si="102"/>
@@ -73841,10 +73847,10 @@
         <v>6</v>
       </c>
       <c r="C3257" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3257" s="6" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="E3257" t="str">
         <f t="shared" ref="E3257:E3320" si="104">CONCATENATE("(",CHAR(34),A3257,CHAR(34),",",CHAR(34),B3257,CHAR(34),",",CHAR(34),C3257,CHAR(34),",",CHAR(34),D3257,CHAR(34),"),")</f>
@@ -73860,10 +73866,10 @@
         <v>7</v>
       </c>
       <c r="C3258" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3258" s="6" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E3258" t="str">
         <f t="shared" si="104"/>
@@ -73879,10 +73885,10 @@
         <v>8</v>
       </c>
       <c r="C3259" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3259" s="6" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="E3259" t="str">
         <f t="shared" si="104"/>
@@ -73898,10 +73904,10 @@
         <v>9</v>
       </c>
       <c r="C3260" s="6" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D3260" s="6" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="E3260" t="str">
         <f t="shared" si="104"/>
@@ -73917,10 +73923,10 @@
         <v>10</v>
       </c>
       <c r="C3261" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D3261" s="6" t="s">
         <v>3366</v>
-      </c>
-      <c r="D3261" s="6" t="s">
-        <v>3367</v>
       </c>
       <c r="E3261" t="str">
         <f t="shared" si="104"/>
@@ -73936,10 +73942,10 @@
         <v>1</v>
       </c>
       <c r="C3262" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3262" s="6" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E3262" t="str">
         <f t="shared" si="104"/>
@@ -73955,10 +73961,10 @@
         <v>2</v>
       </c>
       <c r="C3263" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3263" s="6" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="E3263" t="str">
         <f t="shared" si="104"/>
@@ -73974,10 +73980,10 @@
         <v>3</v>
       </c>
       <c r="C3264" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3264" s="6" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="E3264" t="str">
         <f t="shared" si="104"/>
@@ -73993,10 +73999,10 @@
         <v>4</v>
       </c>
       <c r="C3265" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3265" s="6" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="E3265" t="str">
         <f t="shared" si="104"/>
@@ -74012,10 +74018,10 @@
         <v>5</v>
       </c>
       <c r="C3266" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3266" s="6" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="E3266" t="str">
         <f t="shared" si="104"/>
@@ -74031,10 +74037,10 @@
         <v>6</v>
       </c>
       <c r="C3267" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3267" s="6" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="E3267" t="str">
         <f t="shared" si="104"/>
@@ -74050,10 +74056,10 @@
         <v>7</v>
       </c>
       <c r="C3268" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3268" s="6" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="E3268" t="str">
         <f t="shared" si="104"/>
@@ -74069,10 +74075,10 @@
         <v>8</v>
       </c>
       <c r="C3269" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3269" s="6" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="E3269" t="str">
         <f t="shared" si="104"/>
@@ -74088,10 +74094,10 @@
         <v>9</v>
       </c>
       <c r="C3270" s="6" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D3270" s="6" t="s">
         <v>3377</v>
-      </c>
-      <c r="D3270" s="6" t="s">
-        <v>3378</v>
       </c>
       <c r="E3270" t="str">
         <f t="shared" si="104"/>
@@ -74107,10 +74113,10 @@
         <v>10</v>
       </c>
       <c r="C3271" s="6" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D3271" s="6" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="E3271" t="str">
         <f t="shared" si="104"/>
@@ -74126,10 +74132,10 @@
         <v>1</v>
       </c>
       <c r="C3272" s="15" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D3272" s="15" t="s">
         <v>3387</v>
-      </c>
-      <c r="D3272" s="15" t="s">
-        <v>3388</v>
       </c>
       <c r="E3272" t="str">
         <f t="shared" si="104"/>
@@ -74145,10 +74151,10 @@
         <v>2</v>
       </c>
       <c r="C3273" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3273" s="6" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E3273" t="str">
         <f t="shared" si="104"/>
@@ -74164,10 +74170,10 @@
         <v>3</v>
       </c>
       <c r="C3274" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3274" s="6" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="E3274" t="str">
         <f t="shared" si="104"/>
@@ -74183,10 +74189,10 @@
         <v>4</v>
       </c>
       <c r="C3275" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3275" s="6" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="E3275" t="str">
         <f t="shared" si="104"/>
@@ -74202,10 +74208,10 @@
         <v>5</v>
       </c>
       <c r="C3276" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3276" s="6" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="E3276" t="str">
         <f t="shared" si="104"/>
@@ -74221,10 +74227,10 @@
         <v>6</v>
       </c>
       <c r="C3277" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3277" s="6" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="E3277" t="str">
         <f t="shared" si="104"/>
@@ -74240,10 +74246,10 @@
         <v>7</v>
       </c>
       <c r="C3278" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3278" s="6" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="E3278" t="str">
         <f t="shared" si="104"/>
@@ -74259,10 +74265,10 @@
         <v>8</v>
       </c>
       <c r="C3279" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3279" s="6" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E3279" t="str">
         <f t="shared" si="104"/>
@@ -74278,10 +74284,10 @@
         <v>9</v>
       </c>
       <c r="C3280" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3280" s="6" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="E3280" t="str">
         <f t="shared" si="104"/>
@@ -74297,10 +74303,10 @@
         <v>10</v>
       </c>
       <c r="C3281" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D3281" s="6" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="E3281" t="str">
         <f t="shared" si="104"/>
@@ -74316,10 +74322,10 @@
         <v>1</v>
       </c>
       <c r="C3282" s="15" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D3282" s="15" t="s">
         <v>3398</v>
-      </c>
-      <c r="D3282" s="15" t="s">
-        <v>3399</v>
       </c>
       <c r="E3282" t="str">
         <f t="shared" si="104"/>
@@ -74335,10 +74341,10 @@
         <v>2</v>
       </c>
       <c r="C3283" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3283" s="6" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="E3283" t="str">
         <f t="shared" si="104"/>
@@ -74354,10 +74360,10 @@
         <v>3</v>
       </c>
       <c r="C3284" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3284" s="6" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="E3284" t="str">
         <f t="shared" si="104"/>
@@ -74373,10 +74379,10 @@
         <v>4</v>
       </c>
       <c r="C3285" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3285" s="6" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E3285" t="str">
         <f t="shared" si="104"/>
@@ -74392,10 +74398,10 @@
         <v>5</v>
       </c>
       <c r="C3286" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3286" s="6" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="E3286" t="str">
         <f t="shared" si="104"/>
@@ -74411,10 +74417,10 @@
         <v>6</v>
       </c>
       <c r="C3287" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3287" s="6" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="E3287" t="str">
         <f t="shared" si="104"/>
@@ -74430,10 +74436,10 @@
         <v>7</v>
       </c>
       <c r="C3288" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3288" s="6" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="E3288" t="str">
         <f t="shared" si="104"/>
@@ -74449,10 +74455,10 @@
         <v>8</v>
       </c>
       <c r="C3289" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3289" s="6" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="E3289" t="str">
         <f t="shared" si="104"/>
@@ -74468,10 +74474,10 @@
         <v>9</v>
       </c>
       <c r="C3290" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3290" s="6" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="E3290" t="str">
         <f t="shared" si="104"/>
@@ -74487,10 +74493,10 @@
         <v>10</v>
       </c>
       <c r="C3291" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="D3291" s="6" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="E3291" t="str">
         <f t="shared" si="104"/>
@@ -74506,10 +74512,10 @@
         <v>1</v>
       </c>
       <c r="C3292" s="15" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D3292" s="15" t="s">
         <v>3409</v>
-      </c>
-      <c r="D3292" s="15" t="s">
-        <v>3410</v>
       </c>
       <c r="E3292" t="str">
         <f t="shared" si="104"/>
@@ -74525,10 +74531,10 @@
         <v>2</v>
       </c>
       <c r="C3293" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3293" s="6" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="E3293" t="str">
         <f t="shared" si="104"/>
@@ -74544,10 +74550,10 @@
         <v>3</v>
       </c>
       <c r="C3294" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3294" s="6" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="E3294" t="str">
         <f t="shared" si="104"/>
@@ -74563,10 +74569,10 @@
         <v>4</v>
       </c>
       <c r="C3295" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3295" s="6" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="E3295" t="str">
         <f t="shared" si="104"/>
@@ -74582,10 +74588,10 @@
         <v>5</v>
       </c>
       <c r="C3296" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3296" s="6" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E3296" t="str">
         <f t="shared" si="104"/>
@@ -74601,10 +74607,10 @@
         <v>6</v>
       </c>
       <c r="C3297" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3297" s="6" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="E3297" t="str">
         <f t="shared" si="104"/>
@@ -74620,10 +74626,10 @@
         <v>7</v>
       </c>
       <c r="C3298" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3298" s="6" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="E3298" t="str">
         <f t="shared" si="104"/>
@@ -74639,10 +74645,10 @@
         <v>8</v>
       </c>
       <c r="C3299" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3299" s="6" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="E3299" t="str">
         <f t="shared" si="104"/>
@@ -74658,10 +74664,10 @@
         <v>9</v>
       </c>
       <c r="C3300" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3300" s="6" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="E3300" t="str">
         <f t="shared" si="104"/>
@@ -74677,10 +74683,10 @@
         <v>10</v>
       </c>
       <c r="C3301" s="15" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D3301" s="6" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="E3301" t="str">
         <f t="shared" si="104"/>
@@ -74696,10 +74702,10 @@
         <v>1</v>
       </c>
       <c r="C3302" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3302" s="15" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="E3302" t="str">
         <f t="shared" si="104"/>
@@ -74715,10 +74721,10 @@
         <v>2</v>
       </c>
       <c r="C3303" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3303" s="15" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="E3303" t="str">
         <f t="shared" si="104"/>
@@ -74734,10 +74740,10 @@
         <v>3</v>
       </c>
       <c r="C3304" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3304" s="15" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="E3304" t="str">
         <f t="shared" si="104"/>
@@ -74753,10 +74759,10 @@
         <v>4</v>
       </c>
       <c r="C3305" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3305" s="15" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="E3305" t="str">
         <f t="shared" si="104"/>
@@ -74772,10 +74778,10 @@
         <v>5</v>
       </c>
       <c r="C3306" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3306" s="15" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="E3306" t="str">
         <f t="shared" si="104"/>
@@ -74791,10 +74797,10 @@
         <v>6</v>
       </c>
       <c r="C3307" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3307" s="15" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="E3307" t="str">
         <f t="shared" si="104"/>
@@ -74810,10 +74816,10 @@
         <v>7</v>
       </c>
       <c r="C3308" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3308" s="15" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="E3308" t="str">
         <f t="shared" si="104"/>
@@ -74829,10 +74835,10 @@
         <v>8</v>
       </c>
       <c r="C3309" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3309" s="15" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="E3309" t="str">
         <f t="shared" si="104"/>
@@ -74848,10 +74854,10 @@
         <v>9</v>
       </c>
       <c r="C3310" s="15" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D3310" s="15" t="s">
         <v>3420</v>
-      </c>
-      <c r="D3310" s="15" t="s">
-        <v>3421</v>
       </c>
       <c r="E3310" t="str">
         <f t="shared" si="104"/>
@@ -74867,10 +74873,10 @@
         <v>10</v>
       </c>
       <c r="C3311" s="15" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D3311" s="15" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="E3311" t="str">
         <f t="shared" si="104"/>
@@ -74886,10 +74892,10 @@
         <v>1</v>
       </c>
       <c r="C3312" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3312" s="15" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E3312" t="str">
         <f t="shared" si="104"/>
@@ -74905,10 +74911,10 @@
         <v>2</v>
       </c>
       <c r="C3313" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3313" s="6" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="E3313" t="str">
         <f t="shared" si="104"/>
@@ -74924,10 +74930,10 @@
         <v>3</v>
       </c>
       <c r="C3314" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3314" s="6" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="E3314" t="str">
         <f t="shared" si="104"/>
@@ -74943,10 +74949,10 @@
         <v>4</v>
       </c>
       <c r="C3315" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3315" s="6" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="E3315" t="str">
         <f t="shared" si="104"/>
@@ -74962,10 +74968,10 @@
         <v>5</v>
       </c>
       <c r="C3316" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3316" s="6" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="E3316" t="str">
         <f t="shared" si="104"/>
@@ -74981,10 +74987,10 @@
         <v>6</v>
       </c>
       <c r="C3317" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3317" s="6" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E3317" t="str">
         <f t="shared" si="104"/>
@@ -75000,10 +75006,10 @@
         <v>7</v>
       </c>
       <c r="C3318" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3318" s="6" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="E3318" t="str">
         <f t="shared" si="104"/>
@@ -75019,10 +75025,10 @@
         <v>8</v>
       </c>
       <c r="C3319" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3319" s="6" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="E3319" t="str">
         <f t="shared" si="104"/>
@@ -75038,10 +75044,10 @@
         <v>9</v>
       </c>
       <c r="C3320" s="15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D3320" s="6" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="E3320" t="str">
         <f t="shared" si="104"/>
@@ -75057,10 +75063,10 @@
         <v>10</v>
       </c>
       <c r="C3321" s="15" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D3321" s="6" t="s">
         <v>3431</v>
-      </c>
-      <c r="D3321" s="6" t="s">
-        <v>3432</v>
       </c>
       <c r="E3321" t="str">
         <f t="shared" ref="E3321:E3384" si="106">CONCATENATE("(",CHAR(34),A3321,CHAR(34),",",CHAR(34),B3321,CHAR(34),",",CHAR(34),C3321,CHAR(34),",",CHAR(34),D3321,CHAR(34),"),")</f>
@@ -75076,10 +75082,10 @@
         <v>1</v>
       </c>
       <c r="C3322" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3322" s="6" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="E3322" t="str">
         <f t="shared" si="106"/>
@@ -75095,10 +75101,10 @@
         <v>2</v>
       </c>
       <c r="C3323" s="15" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D3323" s="6" t="s">
         <v>3442</v>
-      </c>
-      <c r="D3323" s="6" t="s">
-        <v>3443</v>
       </c>
       <c r="E3323" t="str">
         <f t="shared" si="106"/>
@@ -75114,10 +75120,10 @@
         <v>3</v>
       </c>
       <c r="C3324" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3324" s="6" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="E3324" t="str">
         <f t="shared" si="106"/>
@@ -75133,10 +75139,10 @@
         <v>4</v>
       </c>
       <c r="C3325" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3325" s="6" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="E3325" t="str">
         <f t="shared" si="106"/>
@@ -75152,10 +75158,10 @@
         <v>5</v>
       </c>
       <c r="C3326" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3326" s="6" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="E3326" t="str">
         <f t="shared" si="106"/>
@@ -75171,10 +75177,10 @@
         <v>6</v>
       </c>
       <c r="C3327" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3327" s="6" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="E3327" t="str">
         <f t="shared" si="106"/>
@@ -75190,10 +75196,10 @@
         <v>7</v>
       </c>
       <c r="C3328" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3328" s="6" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="E3328" t="str">
         <f t="shared" si="106"/>
@@ -75209,10 +75215,10 @@
         <v>8</v>
       </c>
       <c r="C3329" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3329" s="6" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="E3329" t="str">
         <f t="shared" si="106"/>
@@ -75228,10 +75234,10 @@
         <v>9</v>
       </c>
       <c r="C3330" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3330" s="6" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="E3330" t="str">
         <f t="shared" si="106"/>
@@ -75247,10 +75253,10 @@
         <v>10</v>
       </c>
       <c r="C3331" s="15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D3331" s="6" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E3331" t="str">
         <f t="shared" si="106"/>
@@ -75266,10 +75272,10 @@
         <v>1</v>
       </c>
       <c r="C3332" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3332" s="6" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="E3332" t="str">
         <f t="shared" si="106"/>
@@ -75285,10 +75291,10 @@
         <v>2</v>
       </c>
       <c r="C3333" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3333" s="6" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="E3333" t="str">
         <f t="shared" si="106"/>
@@ -75304,10 +75310,10 @@
         <v>3</v>
       </c>
       <c r="C3334" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3334" s="6" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="E3334" t="str">
         <f t="shared" si="106"/>
@@ -75323,10 +75329,10 @@
         <v>4</v>
       </c>
       <c r="C3335" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3335" s="6" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="E3335" t="str">
         <f t="shared" si="106"/>
@@ -75342,10 +75348,10 @@
         <v>5</v>
       </c>
       <c r="C3336" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3336" s="6" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="E3336" t="str">
         <f t="shared" si="106"/>
@@ -75361,10 +75367,10 @@
         <v>6</v>
       </c>
       <c r="C3337" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3337" s="6" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E3337" t="str">
         <f t="shared" si="106"/>
@@ -75380,10 +75386,10 @@
         <v>7</v>
       </c>
       <c r="C3338" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3338" s="6" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="E3338" t="str">
         <f t="shared" si="106"/>
@@ -75399,10 +75405,10 @@
         <v>8</v>
       </c>
       <c r="C3339" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3339" s="6" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="E3339" t="str">
         <f t="shared" si="106"/>
@@ -75418,10 +75424,10 @@
         <v>9</v>
       </c>
       <c r="C3340" s="15" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D3340" s="6" t="s">
         <v>3453</v>
-      </c>
-      <c r="D3340" s="6" t="s">
-        <v>3454</v>
       </c>
       <c r="E3340" t="str">
         <f t="shared" si="106"/>
@@ -75437,10 +75443,10 @@
         <v>10</v>
       </c>
       <c r="C3341" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="D3341" s="6" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="E3341" t="str">
         <f t="shared" si="106"/>
@@ -75456,10 +75462,10 @@
         <v>1</v>
       </c>
       <c r="C3342" s="15" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D3342" s="15" t="s">
         <v>3463</v>
-      </c>
-      <c r="D3342" s="15" t="s">
-        <v>3464</v>
       </c>
       <c r="E3342" t="str">
         <f t="shared" si="106"/>
@@ -75475,10 +75481,10 @@
         <v>2</v>
       </c>
       <c r="C3343" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3343" s="6" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="E3343" t="str">
         <f t="shared" si="106"/>
@@ -75494,10 +75500,10 @@
         <v>3</v>
       </c>
       <c r="C3344" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3344" s="6" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="E3344" t="str">
         <f t="shared" si="106"/>
@@ -75513,10 +75519,10 @@
         <v>4</v>
       </c>
       <c r="C3345" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3345" s="6" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="E3345" t="str">
         <f t="shared" si="106"/>
@@ -75532,10 +75538,10 @@
         <v>5</v>
       </c>
       <c r="C3346" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3346" s="6" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="E3346" t="str">
         <f t="shared" si="106"/>
@@ -75551,10 +75557,10 @@
         <v>6</v>
       </c>
       <c r="C3347" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3347" s="6" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="E3347" t="str">
         <f t="shared" si="106"/>
@@ -75570,10 +75576,10 @@
         <v>7</v>
       </c>
       <c r="C3348" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3348" s="6" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="E3348" t="str">
         <f t="shared" si="106"/>
@@ -75589,10 +75595,10 @@
         <v>8</v>
       </c>
       <c r="C3349" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3349" s="6" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="E3349" t="str">
         <f t="shared" si="106"/>
@@ -75608,10 +75614,10 @@
         <v>9</v>
       </c>
       <c r="C3350" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3350" s="6" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="E3350" t="str">
         <f t="shared" si="106"/>
@@ -75627,10 +75633,10 @@
         <v>10</v>
       </c>
       <c r="C3351" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3351" s="6" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="E3351" t="str">
         <f t="shared" si="106"/>
@@ -75646,10 +75652,10 @@
         <v>1</v>
       </c>
       <c r="C3352" s="15" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D3352" s="15" t="s">
         <v>3474</v>
-      </c>
-      <c r="D3352" s="15" t="s">
-        <v>3475</v>
       </c>
       <c r="E3352" t="str">
         <f t="shared" si="106"/>
@@ -75665,10 +75671,10 @@
         <v>2</v>
       </c>
       <c r="C3353" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3353" s="6" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="E3353" t="str">
         <f t="shared" si="106"/>
@@ -75684,10 +75690,10 @@
         <v>3</v>
       </c>
       <c r="C3354" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3354" s="6" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="E3354" t="str">
         <f t="shared" si="106"/>
@@ -75703,10 +75709,10 @@
         <v>4</v>
       </c>
       <c r="C3355" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3355" s="6" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="E3355" t="str">
         <f t="shared" si="106"/>
@@ -75722,10 +75728,10 @@
         <v>5</v>
       </c>
       <c r="C3356" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3356" s="6" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="E3356" t="str">
         <f t="shared" si="106"/>
@@ -75741,10 +75747,10 @@
         <v>6</v>
       </c>
       <c r="C3357" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3357" s="6" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="E3357" t="str">
         <f t="shared" si="106"/>
@@ -75760,10 +75766,10 @@
         <v>7</v>
       </c>
       <c r="C3358" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3358" s="6" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="E3358" t="str">
         <f t="shared" si="106"/>
@@ -75779,10 +75785,10 @@
         <v>8</v>
       </c>
       <c r="C3359" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3359" s="6" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="E3359" t="str">
         <f t="shared" si="106"/>
@@ -75798,10 +75804,10 @@
         <v>9</v>
       </c>
       <c r="C3360" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3360" s="6" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="E3360" t="str">
         <f t="shared" si="106"/>
@@ -75817,10 +75823,10 @@
         <v>10</v>
       </c>
       <c r="C3361" s="15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D3361" s="6" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="E3361" t="str">
         <f t="shared" si="106"/>
@@ -75836,10 +75842,10 @@
         <v>1</v>
       </c>
       <c r="C3362" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3362" s="15" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="E3362" t="str">
         <f t="shared" si="106"/>
@@ -75855,10 +75861,10 @@
         <v>2</v>
       </c>
       <c r="C3363" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3363" s="6" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="E3363" t="str">
         <f t="shared" si="106"/>
@@ -75874,10 +75880,10 @@
         <v>3</v>
       </c>
       <c r="C3364" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3364" s="6" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E3364" t="str">
         <f t="shared" si="106"/>
@@ -75893,10 +75899,10 @@
         <v>4</v>
       </c>
       <c r="C3365" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3365" s="6" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="E3365" t="str">
         <f t="shared" si="106"/>
@@ -75912,10 +75918,10 @@
         <v>5</v>
       </c>
       <c r="C3366" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3366" s="6" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="E3366" t="str">
         <f t="shared" si="106"/>
@@ -75931,10 +75937,10 @@
         <v>6</v>
       </c>
       <c r="C3367" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3367" s="6" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="E3367" t="str">
         <f t="shared" si="106"/>
@@ -75950,10 +75956,10 @@
         <v>7</v>
       </c>
       <c r="C3368" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3368" s="6" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E3368" t="str">
         <f t="shared" si="106"/>
@@ -75969,10 +75975,10 @@
         <v>8</v>
       </c>
       <c r="C3369" s="15" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D3369" s="6" t="s">
         <v>3485</v>
-      </c>
-      <c r="D3369" s="6" t="s">
-        <v>3486</v>
       </c>
       <c r="E3369" t="str">
         <f t="shared" si="106"/>
@@ -75988,10 +75994,10 @@
         <v>9</v>
       </c>
       <c r="C3370" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3370" s="6" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="E3370" t="str">
         <f t="shared" si="106"/>
@@ -76007,10 +76013,10 @@
         <v>10</v>
       </c>
       <c r="C3371" s="15" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="D3371" s="6" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E3371" t="str">
         <f t="shared" si="106"/>
@@ -76026,10 +76032,10 @@
         <v>1</v>
       </c>
       <c r="C3372" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3372" s="15" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="E3372" t="str">
         <f t="shared" si="106"/>
@@ -76045,10 +76051,10 @@
         <v>2</v>
       </c>
       <c r="C3373" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3373" s="15" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="E3373" t="str">
         <f t="shared" si="106"/>
@@ -76064,10 +76070,10 @@
         <v>3</v>
       </c>
       <c r="C3374" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3374" s="6" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="E3374" t="str">
         <f t="shared" si="106"/>
@@ -76083,10 +76089,10 @@
         <v>4</v>
       </c>
       <c r="C3375" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3375" s="6" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="E3375" t="str">
         <f t="shared" si="106"/>
@@ -76102,10 +76108,10 @@
         <v>5</v>
       </c>
       <c r="C3376" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3376" s="6" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="E3376" t="str">
         <f t="shared" si="106"/>
@@ -76121,10 +76127,10 @@
         <v>6</v>
       </c>
       <c r="C3377" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3377" s="6" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="E3377" t="str">
         <f t="shared" si="106"/>
@@ -76140,10 +76146,10 @@
         <v>7</v>
       </c>
       <c r="C3378" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3378" s="6" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="E3378" t="str">
         <f t="shared" si="106"/>
@@ -76159,10 +76165,10 @@
         <v>8</v>
       </c>
       <c r="C3379" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3379" s="6" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="E3379" t="str">
         <f t="shared" si="106"/>
@@ -76178,10 +76184,10 @@
         <v>9</v>
       </c>
       <c r="C3380" s="15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D3380" s="6" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="E3380" t="str">
         <f t="shared" si="106"/>
@@ -76197,10 +76203,10 @@
         <v>10</v>
       </c>
       <c r="C3381" s="15" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D3381" s="6" t="s">
         <v>3496</v>
-      </c>
-      <c r="D3381" s="6" t="s">
-        <v>3497</v>
       </c>
       <c r="E3381" t="str">
         <f t="shared" si="106"/>
@@ -76216,10 +76222,10 @@
         <v>1</v>
       </c>
       <c r="C3382" s="15" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D3382" s="15" t="s">
         <v>3506</v>
-      </c>
-      <c r="D3382" s="15" t="s">
-        <v>3507</v>
       </c>
       <c r="E3382" t="str">
         <f t="shared" si="106"/>
@@ -76235,10 +76241,10 @@
         <v>2</v>
       </c>
       <c r="C3383" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3383" s="6" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="E3383" t="str">
         <f t="shared" si="106"/>
@@ -76254,10 +76260,10 @@
         <v>3</v>
       </c>
       <c r="C3384" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3384" s="6" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="E3384" t="str">
         <f t="shared" si="106"/>
@@ -76273,10 +76279,10 @@
         <v>4</v>
       </c>
       <c r="C3385" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3385" s="6" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="E3385" t="str">
         <f t="shared" ref="E3385:E3448" si="108">CONCATENATE("(",CHAR(34),A3385,CHAR(34),",",CHAR(34),B3385,CHAR(34),",",CHAR(34),C3385,CHAR(34),",",CHAR(34),D3385,CHAR(34),"),")</f>
@@ -76292,10 +76298,10 @@
         <v>5</v>
       </c>
       <c r="C3386" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3386" s="6" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="E3386" t="str">
         <f t="shared" si="108"/>
@@ -76311,10 +76317,10 @@
         <v>6</v>
       </c>
       <c r="C3387" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3387" s="6" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="E3387" t="str">
         <f t="shared" si="108"/>
@@ -76330,10 +76336,10 @@
         <v>7</v>
       </c>
       <c r="C3388" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3388" s="6" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="E3388" t="str">
         <f t="shared" si="108"/>
@@ -76349,10 +76355,10 @@
         <v>8</v>
       </c>
       <c r="C3389" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3389" s="6" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="E3389" t="str">
         <f t="shared" si="108"/>
@@ -76368,10 +76374,10 @@
         <v>9</v>
       </c>
       <c r="C3390" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3390" s="6" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="E3390" t="str">
         <f t="shared" si="108"/>
@@ -76387,10 +76393,10 @@
         <v>10</v>
       </c>
       <c r="C3391" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="D3391" s="6" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="E3391" t="str">
         <f t="shared" si="108"/>
@@ -76406,10 +76412,10 @@
         <v>1</v>
       </c>
       <c r="C3392" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3392" s="6" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="E3392" t="str">
         <f t="shared" si="108"/>
@@ -76425,10 +76431,10 @@
         <v>2</v>
       </c>
       <c r="C3393" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3393" s="6" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="E3393" t="str">
         <f t="shared" si="108"/>
@@ -76444,10 +76450,10 @@
         <v>3</v>
       </c>
       <c r="C3394" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3394" s="6" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="E3394" t="str">
         <f t="shared" si="108"/>
@@ -76463,10 +76469,10 @@
         <v>4</v>
       </c>
       <c r="C3395" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3395" s="6" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="E3395" t="str">
         <f t="shared" si="108"/>
@@ -76482,10 +76488,10 @@
         <v>5</v>
       </c>
       <c r="C3396" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3396" s="6" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="E3396" t="str">
         <f t="shared" si="108"/>
@@ -76501,10 +76507,10 @@
         <v>6</v>
       </c>
       <c r="C3397" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3397" s="6" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="E3397" t="str">
         <f t="shared" si="108"/>
@@ -76520,10 +76526,10 @@
         <v>7</v>
       </c>
       <c r="C3398" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3398" s="6" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="E3398" t="str">
         <f t="shared" si="108"/>
@@ -76539,10 +76545,10 @@
         <v>8</v>
       </c>
       <c r="C3399" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3399" s="6" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="E3399" t="str">
         <f t="shared" si="108"/>
@@ -76558,10 +76564,10 @@
         <v>9</v>
       </c>
       <c r="C3400" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D3400" s="6" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="E3400" t="str">
         <f t="shared" si="108"/>
@@ -76577,10 +76583,10 @@
         <v>10</v>
       </c>
       <c r="C3401" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D3401" s="6" t="s">
         <v>3518</v>
-      </c>
-      <c r="D3401" s="6" t="s">
-        <v>3519</v>
       </c>
       <c r="E3401" t="str">
         <f t="shared" si="108"/>
@@ -76596,10 +76602,10 @@
         <v>1</v>
       </c>
       <c r="C3402" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D3402" s="6" t="s">
         <v>3528</v>
-      </c>
-      <c r="D3402" s="6" t="s">
-        <v>3529</v>
       </c>
       <c r="E3402" t="str">
         <f t="shared" si="108"/>
@@ -76615,10 +76621,10 @@
         <v>2</v>
       </c>
       <c r="C3403" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3403" s="6" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="E3403" t="str">
         <f t="shared" si="108"/>
@@ -76634,10 +76640,10 @@
         <v>3</v>
       </c>
       <c r="C3404" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3404" s="6" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="E3404" t="str">
         <f t="shared" si="108"/>
@@ -76653,10 +76659,10 @@
         <v>4</v>
       </c>
       <c r="C3405" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3405" s="6" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="E3405" t="str">
         <f t="shared" si="108"/>
@@ -76672,10 +76678,10 @@
         <v>5</v>
       </c>
       <c r="C3406" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3406" s="6" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="E3406" t="str">
         <f t="shared" si="108"/>
@@ -76691,10 +76697,10 @@
         <v>6</v>
       </c>
       <c r="C3407" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3407" s="6" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="E3407" t="str">
         <f t="shared" si="108"/>
@@ -76710,10 +76716,10 @@
         <v>7</v>
       </c>
       <c r="C3408" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3408" s="6" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="E3408" t="str">
         <f t="shared" si="108"/>
@@ -76729,10 +76735,10 @@
         <v>8</v>
       </c>
       <c r="C3409" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3409" s="6" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="E3409" t="str">
         <f t="shared" si="108"/>
@@ -76748,10 +76754,10 @@
         <v>9</v>
       </c>
       <c r="C3410" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3410" s="6" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="E3410" t="str">
         <f t="shared" si="108"/>
@@ -76767,10 +76773,10 @@
         <v>10</v>
       </c>
       <c r="C3411" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="D3411" s="6" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="E3411" t="str">
         <f t="shared" si="108"/>
@@ -76786,10 +76792,10 @@
         <v>1</v>
       </c>
       <c r="C3412" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D3412" t="s">
         <v>3539</v>
-      </c>
-      <c r="D3412" t="s">
-        <v>3540</v>
       </c>
       <c r="E3412" t="str">
         <f t="shared" si="108"/>
@@ -76805,10 +76811,10 @@
         <v>2</v>
       </c>
       <c r="C3413" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3413" s="6" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="E3413" t="str">
         <f t="shared" si="108"/>
@@ -76824,10 +76830,10 @@
         <v>3</v>
       </c>
       <c r="C3414" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3414" s="6" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="E3414" t="str">
         <f t="shared" si="108"/>
@@ -76843,10 +76849,10 @@
         <v>4</v>
       </c>
       <c r="C3415" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3415" s="6" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="E3415" t="str">
         <f t="shared" si="108"/>
@@ -76862,10 +76868,10 @@
         <v>5</v>
       </c>
       <c r="C3416" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3416" s="6" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="E3416" t="str">
         <f t="shared" si="108"/>
@@ -76881,10 +76887,10 @@
         <v>6</v>
       </c>
       <c r="C3417" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3417" s="6" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="E3417" t="str">
         <f t="shared" si="108"/>
@@ -76900,10 +76906,10 @@
         <v>7</v>
       </c>
       <c r="C3418" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3418" s="6" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="E3418" t="str">
         <f t="shared" si="108"/>
@@ -76919,10 +76925,10 @@
         <v>8</v>
       </c>
       <c r="C3419" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3419" s="6" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="E3419" t="str">
         <f t="shared" si="108"/>
@@ -76938,10 +76944,10 @@
         <v>9</v>
       </c>
       <c r="C3420" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3420" s="6" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="E3420" t="str">
         <f t="shared" si="108"/>
@@ -76957,10 +76963,10 @@
         <v>10</v>
       </c>
       <c r="C3421" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D3421" s="6" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="E3421" t="str">
         <f t="shared" si="108"/>
@@ -76976,10 +76982,10 @@
         <v>1</v>
       </c>
       <c r="C3422" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D3422" s="16" t="s">
         <v>3550</v>
-      </c>
-      <c r="D3422" s="16" t="s">
-        <v>3551</v>
       </c>
       <c r="E3422" t="str">
         <f t="shared" si="108"/>
@@ -76995,10 +77001,10 @@
         <v>2</v>
       </c>
       <c r="C3423" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3423" s="6" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="E3423" t="str">
         <f t="shared" si="108"/>
@@ -77014,10 +77020,10 @@
         <v>3</v>
       </c>
       <c r="C3424" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3424" s="6" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="E3424" t="str">
         <f t="shared" si="108"/>
@@ -77033,10 +77039,10 @@
         <v>4</v>
       </c>
       <c r="C3425" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3425" s="6" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E3425" t="str">
         <f t="shared" si="108"/>
@@ -77052,10 +77058,10 @@
         <v>5</v>
       </c>
       <c r="C3426" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3426" s="6" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E3426" t="str">
         <f t="shared" si="108"/>
@@ -77071,10 +77077,10 @@
         <v>6</v>
       </c>
       <c r="C3427" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3427" s="6" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="E3427" t="str">
         <f t="shared" si="108"/>
@@ -77090,10 +77096,10 @@
         <v>7</v>
       </c>
       <c r="C3428" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3428" s="6" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="E3428" t="str">
         <f t="shared" si="108"/>
@@ -77109,10 +77115,10 @@
         <v>8</v>
       </c>
       <c r="C3429" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3429" s="6" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E3429" t="str">
         <f t="shared" si="108"/>
@@ -77128,10 +77134,10 @@
         <v>9</v>
       </c>
       <c r="C3430" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3430" s="6" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="E3430" t="str">
         <f t="shared" si="108"/>
@@ -77147,10 +77153,10 @@
         <v>10</v>
       </c>
       <c r="C3431" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D3431" s="6" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="E3431" t="str">
         <f t="shared" si="108"/>
@@ -77166,10 +77172,10 @@
         <v>1</v>
       </c>
       <c r="C3432" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D3432" t="s">
         <v>3561</v>
-      </c>
-      <c r="D3432" t="s">
-        <v>3562</v>
       </c>
       <c r="E3432" t="str">
         <f t="shared" si="108"/>
@@ -77185,10 +77191,10 @@
         <v>2</v>
       </c>
       <c r="C3433" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3433" s="6" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="E3433" t="str">
         <f t="shared" si="108"/>
@@ -77204,10 +77210,10 @@
         <v>3</v>
       </c>
       <c r="C3434" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3434" s="6" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="E3434" t="str">
         <f t="shared" si="108"/>
@@ -77223,10 +77229,10 @@
         <v>4</v>
       </c>
       <c r="C3435" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3435" s="6" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="E3435" t="str">
         <f t="shared" si="108"/>
@@ -77242,10 +77248,10 @@
         <v>5</v>
       </c>
       <c r="C3436" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3436" s="6" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="E3436" t="str">
         <f t="shared" si="108"/>
@@ -77261,10 +77267,10 @@
         <v>6</v>
       </c>
       <c r="C3437" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3437" s="6" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="E3437" t="str">
         <f t="shared" si="108"/>
@@ -77280,10 +77286,10 @@
         <v>7</v>
       </c>
       <c r="C3438" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3438" s="6" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="E3438" t="str">
         <f t="shared" si="108"/>
@@ -77299,10 +77305,10 @@
         <v>8</v>
       </c>
       <c r="C3439" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3439" s="6" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E3439" t="str">
         <f t="shared" si="108"/>
@@ -77318,10 +77324,10 @@
         <v>9</v>
       </c>
       <c r="C3440" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3440" s="6" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="E3440" t="str">
         <f t="shared" si="108"/>
@@ -77337,10 +77343,10 @@
         <v>10</v>
       </c>
       <c r="C3441" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="D3441" s="6" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="E3441" t="str">
         <f t="shared" si="108"/>
@@ -77356,10 +77362,10 @@
         <v>1</v>
       </c>
       <c r="C3442" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3442" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="E3442" t="str">
         <f t="shared" si="108"/>
@@ -77375,10 +77381,10 @@
         <v>2</v>
       </c>
       <c r="C3443" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3443" s="6" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="E3443" t="str">
         <f t="shared" si="108"/>
@@ -77394,10 +77400,10 @@
         <v>3</v>
       </c>
       <c r="C3444" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3444" s="6" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="E3444" t="str">
         <f t="shared" si="108"/>
@@ -77413,10 +77419,10 @@
         <v>4</v>
       </c>
       <c r="C3445" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3445" s="6" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="E3445" t="str">
         <f t="shared" si="108"/>
@@ -77432,10 +77438,10 @@
         <v>5</v>
       </c>
       <c r="C3446" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3446" s="6" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="E3446" t="str">
         <f t="shared" si="108"/>
@@ -77451,10 +77457,10 @@
         <v>6</v>
       </c>
       <c r="C3447" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3447" s="6" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="E3447" t="str">
         <f t="shared" si="108"/>
@@ -77470,10 +77476,10 @@
         <v>7</v>
       </c>
       <c r="C3448" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3448" s="6" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="E3448" t="str">
         <f t="shared" si="108"/>
@@ -77489,10 +77495,10 @@
         <v>8</v>
       </c>
       <c r="C3449" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D3449" s="6" t="s">
         <v>3573</v>
-      </c>
-      <c r="D3449" s="6" t="s">
-        <v>3574</v>
       </c>
       <c r="E3449" t="str">
         <f t="shared" ref="E3449:E3501" si="110">CONCATENATE("(",CHAR(34),A3449,CHAR(34),",",CHAR(34),B3449,CHAR(34),",",CHAR(34),C3449,CHAR(34),",",CHAR(34),D3449,CHAR(34),"),")</f>
@@ -77508,10 +77514,10 @@
         <v>9</v>
       </c>
       <c r="C3450" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3450" s="6" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="E3450" t="str">
         <f t="shared" si="110"/>
@@ -77527,10 +77533,10 @@
         <v>10</v>
       </c>
       <c r="C3451" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="D3451" s="6" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E3451" t="str">
         <f t="shared" si="110"/>
@@ -77546,10 +77552,10 @@
         <v>1</v>
       </c>
       <c r="C3452" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3452" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="E3452" t="str">
         <f t="shared" si="110"/>
@@ -77565,10 +77571,10 @@
         <v>2</v>
       </c>
       <c r="C3453" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3453" s="6" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="E3453" t="str">
         <f t="shared" si="110"/>
@@ -77584,10 +77590,10 @@
         <v>3</v>
       </c>
       <c r="C3454" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3454" s="6" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="E3454" t="str">
         <f t="shared" si="110"/>
@@ -77603,10 +77609,10 @@
         <v>4</v>
       </c>
       <c r="C3455" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3455" s="6" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="E3455" t="str">
         <f t="shared" si="110"/>
@@ -77622,10 +77628,10 @@
         <v>5</v>
       </c>
       <c r="C3456" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3456" s="6" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="E3456" t="str">
         <f t="shared" si="110"/>
@@ -77641,10 +77647,10 @@
         <v>6</v>
       </c>
       <c r="C3457" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3457" s="6" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="E3457" t="str">
         <f t="shared" si="110"/>
@@ -77660,10 +77666,10 @@
         <v>7</v>
       </c>
       <c r="C3458" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3458" s="6" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="E3458" t="str">
         <f t="shared" si="110"/>
@@ -77679,10 +77685,10 @@
         <v>8</v>
       </c>
       <c r="C3459" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3459" s="6" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="E3459" t="str">
         <f t="shared" si="110"/>
@@ -77698,10 +77704,10 @@
         <v>9</v>
       </c>
       <c r="C3460" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="D3460" s="6" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="E3460" t="str">
         <f t="shared" si="110"/>
@@ -77717,10 +77723,10 @@
         <v>10</v>
       </c>
       <c r="C3461" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D3461" s="6" t="s">
         <v>3584</v>
-      </c>
-      <c r="D3461" s="6" t="s">
-        <v>3585</v>
       </c>
       <c r="E3461" t="str">
         <f t="shared" si="110"/>
@@ -77736,10 +77742,10 @@
         <v>1</v>
       </c>
       <c r="C3462" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D3462" t="s">
         <v>3594</v>
-      </c>
-      <c r="D3462" t="s">
-        <v>3595</v>
       </c>
       <c r="E3462" t="str">
         <f t="shared" si="110"/>
@@ -77755,10 +77761,10 @@
         <v>2</v>
       </c>
       <c r="C3463" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3463" s="6" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="E3463" t="str">
         <f t="shared" si="110"/>
@@ -77774,10 +77780,10 @@
         <v>3</v>
       </c>
       <c r="C3464" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3464" s="6" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="E3464" t="str">
         <f t="shared" si="110"/>
@@ -77793,10 +77799,10 @@
         <v>4</v>
       </c>
       <c r="C3465" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3465" s="6" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="E3465" t="str">
         <f t="shared" si="110"/>
@@ -77812,10 +77818,10 @@
         <v>5</v>
       </c>
       <c r="C3466" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3466" s="6" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="E3466" t="str">
         <f t="shared" si="110"/>
@@ -77831,10 +77837,10 @@
         <v>6</v>
       </c>
       <c r="C3467" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3467" s="6" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="E3467" t="str">
         <f t="shared" si="110"/>
@@ -77850,10 +77856,10 @@
         <v>7</v>
       </c>
       <c r="C3468" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3468" s="6" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="E3468" t="str">
         <f t="shared" si="110"/>
@@ -77869,10 +77875,10 @@
         <v>8</v>
       </c>
       <c r="C3469" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3469" s="6" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="E3469" t="str">
         <f t="shared" si="110"/>
@@ -77888,10 +77894,10 @@
         <v>9</v>
       </c>
       <c r="C3470" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3470" s="6" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="E3470" t="str">
         <f t="shared" si="110"/>
@@ -77907,10 +77913,10 @@
         <v>10</v>
       </c>
       <c r="C3471" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D3471" s="6" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="E3471" t="str">
         <f t="shared" si="110"/>
@@ -77926,10 +77932,10 @@
         <v>1</v>
       </c>
       <c r="C3472" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3472" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="E3472" t="str">
         <f t="shared" si="110"/>
@@ -77945,10 +77951,10 @@
         <v>2</v>
       </c>
       <c r="C3473" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3473" s="6" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="E3473" t="str">
         <f t="shared" si="110"/>
@@ -77964,10 +77970,10 @@
         <v>3</v>
       </c>
       <c r="C3474" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3474" s="6" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="E3474" t="str">
         <f t="shared" si="110"/>
@@ -77983,10 +77989,10 @@
         <v>4</v>
       </c>
       <c r="C3475" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3475" s="6" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="E3475" t="str">
         <f t="shared" si="110"/>
@@ -78002,10 +78008,10 @@
         <v>5</v>
       </c>
       <c r="C3476" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3476" s="6" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="E3476" t="str">
         <f t="shared" si="110"/>
@@ -78021,10 +78027,10 @@
         <v>6</v>
       </c>
       <c r="C3477" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3477" s="6" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="E3477" t="str">
         <f t="shared" si="110"/>
@@ -78040,10 +78046,10 @@
         <v>7</v>
       </c>
       <c r="C3478" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3478" s="6" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="E3478" t="str">
         <f t="shared" si="110"/>
@@ -78059,10 +78065,10 @@
         <v>8</v>
       </c>
       <c r="C3479" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3479" s="6" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="E3479" t="str">
         <f t="shared" si="110"/>
@@ -78078,10 +78084,10 @@
         <v>9</v>
       </c>
       <c r="C3480" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="D3480" s="6" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="E3480" t="str">
         <f t="shared" si="110"/>
@@ -78097,10 +78103,10 @@
         <v>10</v>
       </c>
       <c r="C3481" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D3481" s="6" t="s">
         <v>3606</v>
-      </c>
-      <c r="D3481" s="6" t="s">
-        <v>3607</v>
       </c>
       <c r="E3481" t="str">
         <f t="shared" si="110"/>
@@ -78116,10 +78122,10 @@
         <v>1</v>
       </c>
       <c r="C3482" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3482" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="E3482" t="str">
         <f t="shared" si="110"/>
@@ -78135,10 +78141,10 @@
         <v>2</v>
       </c>
       <c r="C3483" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3483" s="6" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="E3483" t="str">
         <f t="shared" si="110"/>
@@ -78154,10 +78160,10 @@
         <v>3</v>
       </c>
       <c r="C3484" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3484" s="6" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="E3484" t="str">
         <f t="shared" si="110"/>
@@ -78173,10 +78179,10 @@
         <v>4</v>
       </c>
       <c r="C3485" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3485" s="6" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="E3485" t="str">
         <f t="shared" si="110"/>
@@ -78192,10 +78198,10 @@
         <v>5</v>
       </c>
       <c r="C3486" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3486" s="6" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="E3486" t="str">
         <f t="shared" si="110"/>
@@ -78211,10 +78217,10 @@
         <v>6</v>
       </c>
       <c r="C3487" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3487" s="6" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="E3487" t="str">
         <f t="shared" si="110"/>
@@ -78230,10 +78236,10 @@
         <v>7</v>
       </c>
       <c r="C3488" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3488" s="6" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="E3488" t="str">
         <f t="shared" si="110"/>
@@ -78249,10 +78255,10 @@
         <v>8</v>
       </c>
       <c r="C3489" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D3489" s="6" t="s">
         <v>3617</v>
-      </c>
-      <c r="D3489" s="6" t="s">
-        <v>3618</v>
       </c>
       <c r="E3489" t="str">
         <f t="shared" si="110"/>
@@ -78268,10 +78274,10 @@
         <v>9</v>
       </c>
       <c r="C3490" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3490" s="6" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="E3490" t="str">
         <f t="shared" si="110"/>
@@ -78287,10 +78293,10 @@
         <v>10</v>
       </c>
       <c r="C3491" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="D3491" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="E3491" t="str">
         <f t="shared" si="110"/>
@@ -78306,10 +78312,10 @@
         <v>1</v>
       </c>
       <c r="C3492" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3492" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="E3492" t="str">
         <f t="shared" si="110"/>
@@ -78325,10 +78331,10 @@
         <v>2</v>
       </c>
       <c r="C3493" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3493" s="6" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="E3493" t="str">
         <f t="shared" si="110"/>
@@ -78344,10 +78350,10 @@
         <v>3</v>
       </c>
       <c r="C3494" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3494" s="6" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="E3494" t="str">
         <f t="shared" si="110"/>
@@ -78363,10 +78369,10 @@
         <v>4</v>
       </c>
       <c r="C3495" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3495" s="6" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="E3495" t="str">
         <f t="shared" si="110"/>
@@ -78382,10 +78388,10 @@
         <v>5</v>
       </c>
       <c r="C3496" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3496" s="6" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="E3496" t="str">
         <f t="shared" si="110"/>
@@ -78401,10 +78407,10 @@
         <v>6</v>
       </c>
       <c r="C3497" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3497" s="6" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="E3497" t="str">
         <f t="shared" si="110"/>
@@ -78420,10 +78426,10 @@
         <v>7</v>
       </c>
       <c r="C3498" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3498" s="6" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="E3498" t="str">
         <f t="shared" si="110"/>
@@ -78439,10 +78445,10 @@
         <v>8</v>
       </c>
       <c r="C3499" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3499" s="6" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="E3499" t="str">
         <f t="shared" si="110"/>
@@ -78458,10 +78464,10 @@
         <v>9</v>
       </c>
       <c r="C3500" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="D3500" s="6" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="E3500" t="str">
         <f t="shared" si="110"/>
@@ -78477,10 +78483,10 @@
         <v>10</v>
       </c>
       <c r="C3501" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D3501" s="6" t="s">
         <v>3628</v>
-      </c>
-      <c r="D3501" s="6" t="s">
-        <v>3629</v>
       </c>
       <c r="E3501" t="str">
         <f t="shared" si="110"/>
@@ -78488,757 +78494,277 @@
       </c>
     </row>
     <row r="3502" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3502">
-        <f t="shared" si="109"/>
-        <v>3501</v>
-      </c>
-      <c r="B3502" s="13">
-        <v>1</v>
-      </c>
+      <c r="B3502" s="13"/>
       <c r="E3502" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="3503" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3503">
-        <f t="shared" si="109"/>
-        <v>3502</v>
-      </c>
-      <c r="B3503" s="13">
-        <v>2</v>
-      </c>
+      <c r="B3503" s="13"/>
       <c r="E3503" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="3504" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3504">
-        <f t="shared" si="109"/>
-        <v>3503</v>
-      </c>
-      <c r="B3504" s="13">
-        <v>3</v>
-      </c>
+      <c r="B3504" s="13"/>
       <c r="E3504" s="5" t="s">
         <v>518</v>
       </c>
       <c r="F3504" s="6"/>
     </row>
-    <row r="3505" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3505">
-        <f t="shared" si="109"/>
-        <v>3504</v>
-      </c>
-      <c r="B3505" s="13">
-        <v>4</v>
-      </c>
+    <row r="3505" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3505" s="13"/>
       <c r="E3505" s="5" t="s">
         <v>519</v>
       </c>
       <c r="F3505" s="17"/>
     </row>
-    <row r="3506" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3506">
-        <f t="shared" si="109"/>
-        <v>3505</v>
-      </c>
-      <c r="B3506" s="13">
-        <v>5</v>
-      </c>
+    <row r="3506" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3506" s="13"/>
       <c r="E3506" s="6" t="s">
         <v>1040</v>
       </c>
       <c r="F3506" s="17"/>
     </row>
-    <row r="3507" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3507">
-        <f t="shared" si="109"/>
-        <v>3506</v>
-      </c>
-      <c r="B3507" s="13">
-        <v>6</v>
-      </c>
+    <row r="3507" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3507" s="13"/>
       <c r="E3507" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="3508" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3508">
-        <f t="shared" si="109"/>
-        <v>3507</v>
-      </c>
-      <c r="B3508" s="13">
-        <v>7</v>
-      </c>
+    <row r="3508" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3508" s="13"/>
       <c r="E3508" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="3509" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3509">
-        <f t="shared" si="109"/>
-        <v>3508</v>
-      </c>
-      <c r="B3509" s="13">
-        <v>8</v>
-      </c>
+    <row r="3509" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3509" s="13"/>
       <c r="E3509" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="3510" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3510">
-        <f t="shared" si="109"/>
-        <v>3509</v>
-      </c>
-      <c r="B3510" s="13">
-        <v>9</v>
-      </c>
+    <row r="3510" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3510" s="13"/>
       <c r="E3510" s="5" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="3511" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3511">
-        <f t="shared" si="109"/>
-        <v>3510</v>
-      </c>
-      <c r="B3511" s="13">
-        <v>10</v>
-      </c>
+    <row r="3511" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3511" s="13"/>
       <c r="E3511" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="3512" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3512">
-        <f t="shared" ref="A3512:A3575" si="111">A3511+1</f>
-        <v>3511</v>
-      </c>
-      <c r="B3512" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3513" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3513">
-        <f t="shared" si="111"/>
-        <v>3512</v>
-      </c>
-      <c r="B3513" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3514" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3514">
-        <f t="shared" si="111"/>
-        <v>3513</v>
-      </c>
-      <c r="B3514" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3515" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3515">
-        <f t="shared" si="111"/>
-        <v>3514</v>
-      </c>
-      <c r="B3515" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3516" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3516">
-        <f t="shared" si="111"/>
-        <v>3515</v>
-      </c>
-      <c r="B3516" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3517" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3517">
-        <f t="shared" si="111"/>
-        <v>3516</v>
-      </c>
-      <c r="B3517" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3518" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3518">
-        <f t="shared" si="111"/>
-        <v>3517</v>
-      </c>
-      <c r="B3518" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3519" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3519">
-        <f t="shared" si="111"/>
-        <v>3518</v>
-      </c>
-      <c r="B3519" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3520" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3520">
-        <f t="shared" si="111"/>
-        <v>3519</v>
-      </c>
-      <c r="B3520" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3521">
-        <f t="shared" si="111"/>
-        <v>3520</v>
-      </c>
-      <c r="B3521" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3522">
-        <f t="shared" si="111"/>
-        <v>3521</v>
-      </c>
-      <c r="B3522" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3523">
-        <f t="shared" si="111"/>
-        <v>3522</v>
-      </c>
-      <c r="B3523" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3524">
-        <f t="shared" si="111"/>
-        <v>3523</v>
-      </c>
-      <c r="B3524" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3525">
-        <f t="shared" si="111"/>
-        <v>3524</v>
-      </c>
-      <c r="B3525" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3526">
-        <f t="shared" si="111"/>
-        <v>3525</v>
-      </c>
-      <c r="B3526" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3527">
-        <f t="shared" si="111"/>
-        <v>3526</v>
-      </c>
-      <c r="B3527" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3528">
-        <f t="shared" si="111"/>
-        <v>3527</v>
-      </c>
-      <c r="B3528" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3529">
-        <f t="shared" si="111"/>
-        <v>3528</v>
-      </c>
-      <c r="B3529" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3530">
-        <f t="shared" si="111"/>
-        <v>3529</v>
-      </c>
-      <c r="B3530" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3531">
-        <f t="shared" si="111"/>
-        <v>3530</v>
-      </c>
-      <c r="B3531" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3532">
-        <f t="shared" si="111"/>
-        <v>3531</v>
-      </c>
-      <c r="B3532" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3533">
-        <f t="shared" si="111"/>
-        <v>3532</v>
-      </c>
-      <c r="B3533" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3534">
-        <f t="shared" si="111"/>
-        <v>3533</v>
-      </c>
-      <c r="B3534" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3535">
-        <f t="shared" si="111"/>
-        <v>3534</v>
-      </c>
-      <c r="B3535" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3536">
-        <f t="shared" si="111"/>
-        <v>3535</v>
-      </c>
-      <c r="B3536" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3537">
-        <f t="shared" si="111"/>
-        <v>3536</v>
-      </c>
-      <c r="B3537" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3538">
-        <f t="shared" si="111"/>
-        <v>3537</v>
-      </c>
-      <c r="B3538" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3539">
-        <f t="shared" si="111"/>
-        <v>3538</v>
-      </c>
-      <c r="B3539" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3540">
-        <f t="shared" si="111"/>
-        <v>3539</v>
-      </c>
-      <c r="B3540" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3541">
-        <f t="shared" si="111"/>
-        <v>3540</v>
-      </c>
-      <c r="B3541" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3542">
-        <f t="shared" si="111"/>
-        <v>3541</v>
-      </c>
-      <c r="B3542" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3543">
-        <f t="shared" si="111"/>
-        <v>3542</v>
-      </c>
-      <c r="B3543" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3544">
-        <f t="shared" si="111"/>
-        <v>3543</v>
-      </c>
-      <c r="B3544" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3545">
-        <f t="shared" si="111"/>
-        <v>3544</v>
-      </c>
-      <c r="B3545" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3546">
-        <f t="shared" si="111"/>
-        <v>3545</v>
-      </c>
-      <c r="B3546" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3547">
-        <f t="shared" si="111"/>
-        <v>3546</v>
-      </c>
-      <c r="B3547" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3548">
-        <f t="shared" si="111"/>
-        <v>3547</v>
-      </c>
-      <c r="B3548" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3549">
-        <f t="shared" si="111"/>
-        <v>3548</v>
-      </c>
-      <c r="B3549" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3550">
-        <f t="shared" si="111"/>
-        <v>3549</v>
-      </c>
-      <c r="B3550" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3551">
-        <f t="shared" si="111"/>
-        <v>3550</v>
-      </c>
-      <c r="B3551" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3552">
-        <f t="shared" si="111"/>
-        <v>3551</v>
-      </c>
-      <c r="B3552" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3553">
-        <f t="shared" si="111"/>
-        <v>3552</v>
-      </c>
-      <c r="B3553" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3554">
-        <f t="shared" si="111"/>
-        <v>3553</v>
-      </c>
-      <c r="B3554" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3555">
-        <f t="shared" si="111"/>
-        <v>3554</v>
-      </c>
-      <c r="B3555" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3556">
-        <f t="shared" si="111"/>
-        <v>3555</v>
-      </c>
-      <c r="B3556" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3557">
-        <f t="shared" si="111"/>
-        <v>3556</v>
-      </c>
-      <c r="B3557" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3558">
-        <f t="shared" si="111"/>
-        <v>3557</v>
-      </c>
-      <c r="B3558" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3559">
-        <f t="shared" si="111"/>
-        <v>3558</v>
-      </c>
-      <c r="B3559" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3560">
-        <f t="shared" si="111"/>
-        <v>3559</v>
-      </c>
-      <c r="B3560" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3561">
-        <f t="shared" si="111"/>
-        <v>3560</v>
-      </c>
-      <c r="B3561" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3562">
-        <f t="shared" si="111"/>
-        <v>3561</v>
-      </c>
-      <c r="B3562" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3563">
-        <f t="shared" si="111"/>
-        <v>3562</v>
-      </c>
-      <c r="B3563" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3564">
-        <f t="shared" si="111"/>
-        <v>3563</v>
-      </c>
-      <c r="B3564" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3565">
-        <f t="shared" si="111"/>
-        <v>3564</v>
-      </c>
-      <c r="B3565" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3566">
-        <f t="shared" si="111"/>
-        <v>3565</v>
-      </c>
-      <c r="B3566" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3567">
-        <f t="shared" si="111"/>
-        <v>3566</v>
-      </c>
-      <c r="B3567" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3568">
-        <f t="shared" si="111"/>
-        <v>3567</v>
-      </c>
-      <c r="B3568" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3569">
-        <f t="shared" si="111"/>
-        <v>3568</v>
-      </c>
-      <c r="B3569" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3570">
-        <f t="shared" si="111"/>
-        <v>3569</v>
-      </c>
-      <c r="B3570" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3571">
-        <f t="shared" si="111"/>
-        <v>3570</v>
-      </c>
-      <c r="B3571" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3572">
-        <f t="shared" si="111"/>
-        <v>3571</v>
-      </c>
-      <c r="B3572" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3573">
-        <f t="shared" si="111"/>
-        <v>3572</v>
-      </c>
-      <c r="B3573" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3574">
-        <f t="shared" si="111"/>
-        <v>3573</v>
-      </c>
-      <c r="B3574" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3575">
-        <f t="shared" si="111"/>
-        <v>3574</v>
-      </c>
-      <c r="B3575" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3576">
-        <f t="shared" ref="A3576:A3581" si="112">A3575+1</f>
-        <v>3575</v>
-      </c>
-      <c r="B3576" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3577">
-        <f t="shared" si="112"/>
-        <v>3576</v>
-      </c>
-      <c r="B3577" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3578">
-        <f t="shared" si="112"/>
-        <v>3577</v>
-      </c>
-      <c r="B3578" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3579">
-        <f t="shared" si="112"/>
-        <v>3578</v>
-      </c>
-      <c r="B3579" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3580">
-        <f t="shared" si="112"/>
-        <v>3579</v>
-      </c>
-      <c r="B3580" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3581">
-        <f t="shared" si="112"/>
-        <v>3580</v>
-      </c>
-      <c r="B3581" s="13">
-        <v>10</v>
-      </c>
+    <row r="3512" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3512" s="13"/>
+    </row>
+    <row r="3513" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3513" s="13"/>
+    </row>
+    <row r="3514" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3514" s="13"/>
+    </row>
+    <row r="3515" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3515" s="13"/>
+    </row>
+    <row r="3516" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3516" s="13"/>
+    </row>
+    <row r="3517" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3517" s="13"/>
+    </row>
+    <row r="3518" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3518" s="13"/>
+    </row>
+    <row r="3519" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3519" s="13"/>
+    </row>
+    <row r="3520" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3520" s="13"/>
+    </row>
+    <row r="3521" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3521" s="13"/>
+    </row>
+    <row r="3522" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3522" s="13"/>
+    </row>
+    <row r="3523" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3523" s="13"/>
+    </row>
+    <row r="3524" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3524" s="13"/>
+    </row>
+    <row r="3525" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3525" s="13"/>
+    </row>
+    <row r="3526" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3526" s="13"/>
+    </row>
+    <row r="3527" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3527" s="13"/>
+    </row>
+    <row r="3528" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3528" s="13"/>
+    </row>
+    <row r="3529" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3529" s="13"/>
+    </row>
+    <row r="3530" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3530" s="13"/>
+    </row>
+    <row r="3531" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3531" s="13"/>
+    </row>
+    <row r="3532" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3532" s="13"/>
+    </row>
+    <row r="3533" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3533" s="13"/>
+    </row>
+    <row r="3534" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3534" s="13"/>
+    </row>
+    <row r="3535" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3535" s="13"/>
+    </row>
+    <row r="3536" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3536" s="13"/>
+    </row>
+    <row r="3537" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3537" s="13"/>
+    </row>
+    <row r="3538" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3538" s="13"/>
+    </row>
+    <row r="3539" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3539" s="13"/>
+    </row>
+    <row r="3540" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3540" s="13"/>
+    </row>
+    <row r="3541" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3541" s="13"/>
+    </row>
+    <row r="3542" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3542" s="13"/>
+    </row>
+    <row r="3543" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3543" s="13"/>
+    </row>
+    <row r="3544" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3544" s="13"/>
+    </row>
+    <row r="3545" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3545" s="13"/>
+    </row>
+    <row r="3546" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3546" s="13"/>
+    </row>
+    <row r="3547" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3547" s="13"/>
+    </row>
+    <row r="3548" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3548" s="13"/>
+    </row>
+    <row r="3549" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3549" s="13"/>
+    </row>
+    <row r="3550" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3550" s="13"/>
+    </row>
+    <row r="3551" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3551" s="13"/>
+    </row>
+    <row r="3552" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3552" s="13"/>
+    </row>
+    <row r="3553" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3553" s="13"/>
+    </row>
+    <row r="3554" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3554" s="13"/>
+    </row>
+    <row r="3555" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3555" s="13"/>
+    </row>
+    <row r="3556" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3556" s="13"/>
+    </row>
+    <row r="3557" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3557" s="13"/>
+    </row>
+    <row r="3558" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3558" s="13"/>
+    </row>
+    <row r="3559" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3559" s="13"/>
+    </row>
+    <row r="3560" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3560" s="13"/>
+    </row>
+    <row r="3561" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3561" s="13"/>
+    </row>
+    <row r="3562" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3562" s="13"/>
+    </row>
+    <row r="3563" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3563" s="13"/>
+    </row>
+    <row r="3564" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3564" s="13"/>
+    </row>
+    <row r="3565" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3565" s="13"/>
+    </row>
+    <row r="3566" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3566" s="13"/>
+    </row>
+    <row r="3567" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3567" s="13"/>
+    </row>
+    <row r="3568" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3568" s="13"/>
+    </row>
+    <row r="3569" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3569" s="13"/>
+    </row>
+    <row r="3570" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3570" s="13"/>
+    </row>
+    <row r="3571" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3571" s="13"/>
+    </row>
+    <row r="3572" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3572" s="13"/>
+    </row>
+    <row r="3573" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3573" s="13"/>
+    </row>
+    <row r="3574" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3574" s="13"/>
+    </row>
+    <row r="3575" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3575" s="13"/>
+    </row>
+    <row r="3576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3576" s="13"/>
+    </row>
+    <row r="3577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3577" s="13"/>
+    </row>
+    <row r="3578" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3578" s="13"/>
+    </row>
+    <row r="3579" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3579" s="13"/>
+    </row>
+    <row r="3580" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3580" s="13"/>
+    </row>
+    <row r="3581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3581" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5D495-19C5-E84D-9362-415E36229467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C3425-C084-4D42-8487-EAFDC3B6AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7032" uniqueCount="3733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7152" uniqueCount="3799">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -11256,6 +11256,204 @@
   </si>
   <si>
     <t>فترة القرض</t>
+  </si>
+  <si>
+    <t>Now you allow public to login via facebook login</t>
+  </si>
+  <si>
+    <t>nowYouAllowPublicToLoginViaFacebookLogin</t>
+  </si>
+  <si>
+    <t>これで、一般ユーザーが Facebook ログイン経由でログインできるようになりました</t>
+  </si>
+  <si>
+    <t>Теперь вы разрешаете публике входить в систему через вход в Facebook.</t>
+  </si>
+  <si>
+    <t>இப்போது நீங்கள் பேஸ்புக் உள்நுழைவு வழியாக பொது உள்நுழைய அனுமதிக்கிறீர்கள்</t>
+  </si>
+  <si>
+    <t>Maintenant, vous autorisez le public à se connecter via la connexion facebook</t>
+  </si>
+  <si>
+    <t>现在您允许公众通过 Facebook 登录登录</t>
+  </si>
+  <si>
+    <t>Agora você permite que o público faça login via login do facebook</t>
+  </si>
+  <si>
+    <t>अब आप सार्वजनिक रूप से फेसबुक लॉगिन के माध्यम से लॉगिन करने की अनुमति देते हैं</t>
+  </si>
+  <si>
+    <t>Ahora permite que el público inicie sesión a través del inicio de sesión de Facebook</t>
+  </si>
+  <si>
+    <t>أنت الآن تسمح للجمهور بتسجيل الدخول عبر تسجيل الدخول إلى facebook</t>
+  </si>
+  <si>
+    <t>Signup an account, if you dont have one</t>
+  </si>
+  <si>
+    <t>signupAnAccountIfYouDontHaveOne</t>
+  </si>
+  <si>
+    <t>قم بتسجيل حساب ، إذا لم يكن لديك حساب</t>
+  </si>
+  <si>
+    <t>Regístrese en una cuenta, si no tiene una</t>
+  </si>
+  <si>
+    <t>यदि आपके पास खाता नहीं है तो साइन अप करें</t>
+  </si>
+  <si>
+    <t>உங்களிடம் கணக்கு இல்லையெனில் பதிவு செய்யவும்</t>
+  </si>
+  <si>
+    <t>Créer un compte, si vous n'en avez pas</t>
+  </si>
+  <si>
+    <t>注册一个帐户，如果你没有</t>
+  </si>
+  <si>
+    <t>アカウントをお持ちでない場合は、サインアップしてください</t>
+  </si>
+  <si>
+    <t>Inscreva-se uma conta, se você não tiver uma</t>
+  </si>
+  <si>
+    <t>Зарегистрируйте аккаунт, если у вас его нет</t>
+  </si>
+  <si>
+    <t>Once logged in your APP ID will be available on the top header</t>
+  </si>
+  <si>
+    <t>onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader</t>
+  </si>
+  <si>
+    <t>После входа в систему ваш APP ID будет доступен в верхнем заголовке.</t>
+  </si>
+  <si>
+    <t>Uma vez logado, seu APP ID estará disponível no cabeçalho superior</t>
+  </si>
+  <si>
+    <t>ログインすると、上部のヘッダーに APP ID が表示されます</t>
+  </si>
+  <si>
+    <t>உள்நுழைந்ததும் உங்கள் APP ஐடி மேல் தலைப்பில் கிடைக்கும்</t>
+  </si>
+  <si>
+    <t>Une fois connecté, votre APP ID sera disponible dans l'en-tête supérieur</t>
+  </si>
+  <si>
+    <t>登录后，您的 APP ID 将显示在顶部标题中</t>
+  </si>
+  <si>
+    <t>एक बार लॉग इन करने के बाद आपकी एपीपी आईडी शीर्ष हेडर पर उपलब्ध होगी</t>
+  </si>
+  <si>
+    <t>Una vez que haya iniciado sesión, su ID de aplicación estará disponible en el encabezado superior</t>
+  </si>
+  <si>
+    <t>بمجرد تسجيل الدخول ، سيكون معرف التطبيق الخاص بك متاحًا في الرأس العلوي</t>
+  </si>
+  <si>
+    <t>dontForgetToToggleEnforceHttpsToYes</t>
+  </si>
+  <si>
+    <t>HTTPSஐச் செயல்படுத்து என்பதை ஆம் என்பதற்கு மாற்ற மறக்காதீர்கள்</t>
+  </si>
+  <si>
+    <t>「HTTPS を強制する」を「はい」に切り替えることを忘れないでください。</t>
+  </si>
+  <si>
+    <t>Не забудьте переключить «Принудительно HTTPS» на «Да».</t>
+  </si>
+  <si>
+    <t>Copy &amp; Paste here.</t>
+  </si>
+  <si>
+    <t>copyPasteHere</t>
+  </si>
+  <si>
+    <t>Скопируйте и вставьте сюда.</t>
+  </si>
+  <si>
+    <t>Copie e cole aqui.</t>
+  </si>
+  <si>
+    <t>ここにコピー＆ペーストしてください。</t>
+  </si>
+  <si>
+    <t>இங்கே நகலெடுத்து ஒட்டவும்.</t>
+  </si>
+  <si>
+    <t>Copiez et collez ici.</t>
+  </si>
+  <si>
+    <t>在此处复制并粘贴。</t>
+  </si>
+  <si>
+    <t>कॉपी और पेस्ट यहाँ करें।</t>
+  </si>
+  <si>
+    <t>Copie y pegue aquí.</t>
+  </si>
+  <si>
+    <t>انسخ والصق هنا.</t>
+  </si>
+  <si>
+    <t>Dont forget to toggle Enforce HTTPS to Yes</t>
+  </si>
+  <si>
+    <t>N'oubliez pas de basculer Appliquer HTTPS sur Oui</t>
+  </si>
+  <si>
+    <t>不要忘记将“强制 HTTPS 切换为是</t>
+  </si>
+  <si>
+    <t>Não se esqueça de alternar Aplicar HTTPS para Sim</t>
+  </si>
+  <si>
+    <t>हाँ पर HTTPS लागू करें को टॉगल करना न भूलें</t>
+  </si>
+  <si>
+    <t>No olvide cambiar Aplicar HTTPS a Sí</t>
+  </si>
+  <si>
+    <t>لا تنس تبديل فرض HTTPS إلى نعم</t>
+  </si>
+  <si>
+    <t>Facebook App ID</t>
+  </si>
+  <si>
+    <t>facebookAppId</t>
+  </si>
+  <si>
+    <t>Facebook ஆப்ஸ் ஐடி</t>
+  </si>
+  <si>
+    <t>معرف تطبيق Facebook</t>
+  </si>
+  <si>
+    <t>ID d'application Facebook</t>
+  </si>
+  <si>
+    <t>脸书应用编号</t>
+  </si>
+  <si>
+    <t>Facebook アプリ ID</t>
+  </si>
+  <si>
+    <t>ID do aplicativo do Facebook</t>
+  </si>
+  <si>
+    <t>फेसबुक ऐप आईडी</t>
+  </si>
+  <si>
+    <t>Идентификатор приложения Facebook</t>
+  </si>
+  <si>
+    <t>Identificación de la aplicación de Facebook</t>
   </si>
 </sst>
 </file>
@@ -12201,17 +12399,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3591"/>
+  <dimension ref="A1:F3651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3563" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3582" sqref="D3582"/>
+    <sheetView tabSelected="1" topLeftCell="A3615" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3631" sqref="E3631:E3641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="6" customWidth="1"/>
     <col min="5" max="5" width="68.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
@@ -80171,7 +80369,7 @@
     </row>
     <row r="3577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3577">
-        <f t="shared" ref="A3577:A3581" si="113">A3576+1</f>
+        <f t="shared" ref="A3577:A3640" si="113">A3576+1</f>
         <v>3576</v>
       </c>
       <c r="B3577" s="13">
@@ -80184,7 +80382,7 @@
         <v>3728</v>
       </c>
       <c r="E3577" t="str">
-        <f t="shared" ref="E3577:E3581" si="114">CONCATENATE("(",CHAR(34),A3577,CHAR(34),",",CHAR(34),B3577,CHAR(34),",",CHAR(34),C3577,CHAR(34),",",CHAR(34),D3577,CHAR(34),"),")</f>
+        <f t="shared" ref="E3577:E3640" si="114">CONCATENATE("(",CHAR(34),A3577,CHAR(34),",",CHAR(34),B3577,CHAR(34),",",CHAR(34),C3577,CHAR(34),",",CHAR(34),D3577,CHAR(34),"),")</f>
         <v>("3576","6","tenure","prazo de empréstimo"),</v>
       </c>
     </row>
@@ -80265,52 +80463,1192 @@
       </c>
     </row>
     <row r="3582" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3582" t="s">
+      <c r="A3582">
+        <f t="shared" si="113"/>
+        <v>3581</v>
+      </c>
+      <c r="B3582" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3582" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3582" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E3582" t="str">
+        <f t="shared" si="114"/>
+        <v>("3581","1","nowYouAllowPublicToLoginViaFacebookLogin","Now you allow public to login via facebook login"),</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3583">
+        <f t="shared" si="113"/>
+        <v>3582</v>
+      </c>
+      <c r="B3583" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3583" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3583" s="6" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E3583" t="str">
+        <f t="shared" si="114"/>
+        <v>("3582","2","nowYouAllowPublicToLoginViaFacebookLogin","இப்போது நீங்கள் பேஸ்புக் உள்நுழைவு வழியாக பொது உள்நுழைய அனுமதிக்கிறீர்கள்"),</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3584">
+        <f t="shared" si="113"/>
+        <v>3583</v>
+      </c>
+      <c r="B3584" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3584" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3584" s="6" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E3584" t="str">
+        <f t="shared" si="114"/>
+        <v>("3583","3","nowYouAllowPublicToLoginViaFacebookLogin","Maintenant, vous autorisez le public à se connecter via la connexion facebook"),</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3585">
+        <f t="shared" si="113"/>
+        <v>3584</v>
+      </c>
+      <c r="B3585" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3585" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3585" s="6" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E3585" t="str">
+        <f t="shared" si="114"/>
+        <v>("3584","4","nowYouAllowPublicToLoginViaFacebookLogin","现在您允许公众通过 Facebook 登录登录"),</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3586">
+        <f t="shared" si="113"/>
+        <v>3585</v>
+      </c>
+      <c r="B3586" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3586" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3586" s="6" t="s">
+        <v>3735</v>
+      </c>
+      <c r="E3586" t="str">
+        <f t="shared" si="114"/>
+        <v>("3585","5","nowYouAllowPublicToLoginViaFacebookLogin","これで、一般ユーザーが Facebook ログイン経由でログインできるようになりました"),</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3587">
+        <f t="shared" si="113"/>
+        <v>3586</v>
+      </c>
+      <c r="B3587" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3587" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3587" s="6" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E3587" t="str">
+        <f t="shared" si="114"/>
+        <v>("3586","6","nowYouAllowPublicToLoginViaFacebookLogin","Agora você permite que o público faça login via login do facebook"),</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3588">
+        <f t="shared" si="113"/>
+        <v>3587</v>
+      </c>
+      <c r="B3588" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3588" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3588" s="6" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E3588" t="str">
+        <f t="shared" si="114"/>
+        <v>("3587","7","nowYouAllowPublicToLoginViaFacebookLogin","अब आप सार्वजनिक रूप से फेसबुक लॉगिन के माध्यम से लॉगिन करने की अनुमति देते हैं"),</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3589">
+        <f t="shared" si="113"/>
+        <v>3588</v>
+      </c>
+      <c r="B3589" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3589" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3589" s="6" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E3589" t="str">
+        <f t="shared" si="114"/>
+        <v>("3588","8","nowYouAllowPublicToLoginViaFacebookLogin","Теперь вы разрешаете публике входить в систему через вход в Facebook."),</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3590">
+        <f t="shared" si="113"/>
+        <v>3589</v>
+      </c>
+      <c r="B3590" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3590" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3590" s="6" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E3590" t="str">
+        <f t="shared" si="114"/>
+        <v>("3589","9","nowYouAllowPublicToLoginViaFacebookLogin","Ahora permite que el público inicie sesión a través del inicio de sesión de Facebook"),</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3591">
+        <f t="shared" si="113"/>
+        <v>3590</v>
+      </c>
+      <c r="B3591" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3591" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D3591" s="6" t="s">
+        <v>3743</v>
+      </c>
+      <c r="E3591" t="str">
+        <f t="shared" si="114"/>
+        <v>("3590","10","nowYouAllowPublicToLoginViaFacebookLogin","أنت الآن تسمح للجمهور بتسجيل الدخول عبر تسجيل الدخول إلى facebook"),</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3592">
+        <f t="shared" si="113"/>
+        <v>3591</v>
+      </c>
+      <c r="B3592" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3592" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3592" t="s">
+        <v>3744</v>
+      </c>
+      <c r="E3592" t="str">
+        <f t="shared" si="114"/>
+        <v>("3591","1","signupAnAccountIfYouDontHaveOne","Signup an account, if you dont have one"),</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3593">
+        <f t="shared" si="113"/>
+        <v>3592</v>
+      </c>
+      <c r="B3593" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3593" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3593" t="s">
+        <v>3749</v>
+      </c>
+      <c r="E3593" t="str">
+        <f t="shared" si="114"/>
+        <v>("3592","2","signupAnAccountIfYouDontHaveOne","உங்களிடம் கணக்கு இல்லையெனில் பதிவு செய்யவும்"),</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3594">
+        <f t="shared" si="113"/>
+        <v>3593</v>
+      </c>
+      <c r="B3594" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3594" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3594" s="6" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E3594" t="str">
+        <f t="shared" si="114"/>
+        <v>("3593","3","signupAnAccountIfYouDontHaveOne","Créer un compte, si vous n'en avez pas"),</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3595">
+        <f t="shared" si="113"/>
+        <v>3594</v>
+      </c>
+      <c r="B3595" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3595" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3595" s="6" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E3595" t="str">
+        <f t="shared" si="114"/>
+        <v>("3594","4","signupAnAccountIfYouDontHaveOne","注册一个帐户，如果你没有"),</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3596">
+        <f t="shared" si="113"/>
+        <v>3595</v>
+      </c>
+      <c r="B3596" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3596" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3596" s="6" t="s">
+        <v>3752</v>
+      </c>
+      <c r="E3596" t="str">
+        <f t="shared" si="114"/>
+        <v>("3595","5","signupAnAccountIfYouDontHaveOne","アカウントをお持ちでない場合は、サインアップしてください"),</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3597">
+        <f t="shared" si="113"/>
+        <v>3596</v>
+      </c>
+      <c r="B3597" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3597" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3597" s="6" t="s">
+        <v>3753</v>
+      </c>
+      <c r="E3597" t="str">
+        <f t="shared" si="114"/>
+        <v>("3596","6","signupAnAccountIfYouDontHaveOne","Inscreva-se uma conta, se você não tiver uma"),</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3598">
+        <f t="shared" si="113"/>
+        <v>3597</v>
+      </c>
+      <c r="B3598" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3598" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3598" s="6" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E3598" t="str">
+        <f t="shared" si="114"/>
+        <v>("3597","7","signupAnAccountIfYouDontHaveOne","यदि आपके पास खाता नहीं है तो साइन अप करें"),</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3599">
+        <f t="shared" si="113"/>
+        <v>3598</v>
+      </c>
+      <c r="B3599" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3599" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3599" s="6" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E3599" t="str">
+        <f t="shared" si="114"/>
+        <v>("3598","8","signupAnAccountIfYouDontHaveOne","Зарегистрируйте аккаунт, если у вас его нет"),</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3600">
+        <f t="shared" si="113"/>
+        <v>3599</v>
+      </c>
+      <c r="B3600" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3600" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3600" s="6" t="s">
+        <v>3747</v>
+      </c>
+      <c r="E3600" t="str">
+        <f t="shared" si="114"/>
+        <v>("3599","9","signupAnAccountIfYouDontHaveOne","Regístrese en una cuenta, si no tiene una"),</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3601">
+        <f t="shared" si="113"/>
+        <v>3600</v>
+      </c>
+      <c r="B3601" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3601" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D3601" s="6" t="s">
+        <v>3746</v>
+      </c>
+      <c r="E3601" t="str">
+        <f t="shared" si="114"/>
+        <v>("3600","10","signupAnAccountIfYouDontHaveOne","قم بتسجيل حساب ، إذا لم يكن لديك حساب"),</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3602">
+        <f t="shared" si="113"/>
+        <v>3601</v>
+      </c>
+      <c r="B3602" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3602" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3602" t="s">
+        <v>3755</v>
+      </c>
+      <c r="E3602" t="str">
+        <f t="shared" si="114"/>
+        <v>("3601","1","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","Once logged in your APP ID will be available on the top header"),</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3603">
+        <f t="shared" si="113"/>
+        <v>3602</v>
+      </c>
+      <c r="B3603" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3603" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3603" s="6" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E3603" t="str">
+        <f t="shared" si="114"/>
+        <v>("3602","2","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","உள்நுழைந்ததும் உங்கள் APP ஐடி மேல் தலைப்பில் கிடைக்கும்"),</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3604">
+        <f t="shared" si="113"/>
+        <v>3603</v>
+      </c>
+      <c r="B3604" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3604" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3604" s="6" t="s">
+        <v>3761</v>
+      </c>
+      <c r="E3604" t="str">
+        <f t="shared" si="114"/>
+        <v>("3603","3","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","Une fois connecté, votre APP ID sera disponible dans l'en-tête supérieur"),</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3605">
+        <f t="shared" si="113"/>
+        <v>3604</v>
+      </c>
+      <c r="B3605" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3605" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3605" s="6" t="s">
+        <v>3762</v>
+      </c>
+      <c r="E3605" t="str">
+        <f t="shared" si="114"/>
+        <v>("3604","4","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","登录后，您的 APP ID 将显示在顶部标题中"),</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3606">
+        <f t="shared" si="113"/>
+        <v>3605</v>
+      </c>
+      <c r="B3606" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3606" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3606" s="6" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E3606" t="str">
+        <f t="shared" si="114"/>
+        <v>("3605","5","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","ログインすると、上部のヘッダーに APP ID が表示されます"),</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3607">
+        <f t="shared" si="113"/>
+        <v>3606</v>
+      </c>
+      <c r="B3607" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3607" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3607" s="6" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E3607" t="str">
+        <f t="shared" si="114"/>
+        <v>("3606","6","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","Uma vez logado, seu APP ID estará disponível no cabeçalho superior"),</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3608">
+        <f t="shared" si="113"/>
+        <v>3607</v>
+      </c>
+      <c r="B3608" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3608" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3608" s="6" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E3608" t="str">
+        <f t="shared" si="114"/>
+        <v>("3607","7","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","एक बार लॉग इन करने के बाद आपकी एपीपी आईडी शीर्ष हेडर पर उपलब्ध होगी"),</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3609">
+        <f t="shared" si="113"/>
+        <v>3608</v>
+      </c>
+      <c r="B3609" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3609" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3609" s="6" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E3609" t="str">
+        <f t="shared" si="114"/>
+        <v>("3608","8","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","После входа в систему ваш APP ID будет доступен в верхнем заголовке."),</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3610">
+        <f t="shared" si="113"/>
+        <v>3609</v>
+      </c>
+      <c r="B3610" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3610" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3610" s="6" t="s">
+        <v>3764</v>
+      </c>
+      <c r="E3610" t="str">
+        <f t="shared" si="114"/>
+        <v>("3609","9","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","Una vez que haya iniciado sesión, su ID de aplicación estará disponible en el encabezado superior"),</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3611">
+        <f t="shared" si="113"/>
+        <v>3610</v>
+      </c>
+      <c r="B3611" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3611" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D3611" s="6" t="s">
+        <v>3765</v>
+      </c>
+      <c r="E3611" t="str">
+        <f t="shared" si="114"/>
+        <v>("3610","10","onceLoggedInYourAppIdWillBeVvailableOnTheTopHeader","بمجرد تسجيل الدخول ، سيكون معرف التطبيق الخاص بك متاحًا في الرأس العلوي"),</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3612">
+        <f t="shared" si="113"/>
+        <v>3611</v>
+      </c>
+      <c r="B3612" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3612" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3612" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E3612" t="str">
+        <f t="shared" si="114"/>
+        <v>("3611","1","dontForgetToToggleEnforceHttpsToYes","Dont forget to toggle Enforce HTTPS to Yes"),</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3613">
+        <f t="shared" si="113"/>
+        <v>3612</v>
+      </c>
+      <c r="B3613" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3613" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3613" s="6" t="s">
+        <v>3767</v>
+      </c>
+      <c r="E3613" t="str">
+        <f t="shared" si="114"/>
+        <v>("3612","2","dontForgetToToggleEnforceHttpsToYes","HTTPSஐச் செயல்படுத்து என்பதை ஆம் என்பதற்கு மாற்ற மறக்காதீர்கள்"),</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3614">
+        <f t="shared" si="113"/>
+        <v>3613</v>
+      </c>
+      <c r="B3614" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3614" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3614" s="6" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E3614" t="str">
+        <f t="shared" si="114"/>
+        <v>("3613","3","dontForgetToToggleEnforceHttpsToYes","N'oubliez pas de basculer Appliquer HTTPS sur Oui"),</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3615">
+        <f t="shared" si="113"/>
+        <v>3614</v>
+      </c>
+      <c r="B3615" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3615" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3615" s="6" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E3615" t="str">
+        <f t="shared" si="114"/>
+        <v>("3614","4","dontForgetToToggleEnforceHttpsToYes","不要忘记将“强制 HTTPS 切换为是"),</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3616">
+        <f t="shared" si="113"/>
+        <v>3615</v>
+      </c>
+      <c r="B3616" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3616" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3616" s="6" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E3616" t="str">
+        <f t="shared" si="114"/>
+        <v>("3615","5","dontForgetToToggleEnforceHttpsToYes","「HTTPS を強制する」を「はい」に切り替えることを忘れないでください。"),</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3617">
+        <f t="shared" si="113"/>
+        <v>3616</v>
+      </c>
+      <c r="B3617" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3617" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3617" s="6" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E3617" t="str">
+        <f t="shared" si="114"/>
+        <v>("3616","6","dontForgetToToggleEnforceHttpsToYes","Não se esqueça de alternar Aplicar HTTPS para Sim"),</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3618">
+        <f t="shared" si="113"/>
+        <v>3617</v>
+      </c>
+      <c r="B3618" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3618" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3618" s="6" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E3618" t="str">
+        <f t="shared" si="114"/>
+        <v>("3617","7","dontForgetToToggleEnforceHttpsToYes","हाँ पर HTTPS लागू करें को टॉगल करना न भूलें"),</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3619">
+        <f t="shared" si="113"/>
+        <v>3618</v>
+      </c>
+      <c r="B3619" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3619" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3619" s="6" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E3619" t="str">
+        <f t="shared" si="114"/>
+        <v>("3618","8","dontForgetToToggleEnforceHttpsToYes","Не забудьте переключить «Принудительно HTTPS» на «Да»."),</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3620">
+        <f t="shared" si="113"/>
+        <v>3619</v>
+      </c>
+      <c r="B3620" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3620" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3620" s="6" t="s">
+        <v>3786</v>
+      </c>
+      <c r="E3620" t="str">
+        <f t="shared" si="114"/>
+        <v>("3619","9","dontForgetToToggleEnforceHttpsToYes","No olvide cambiar Aplicar HTTPS a Sí"),</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3621">
+        <f t="shared" si="113"/>
+        <v>3620</v>
+      </c>
+      <c r="B3621" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3621" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D3621" s="6" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E3621" t="str">
+        <f t="shared" si="114"/>
+        <v>("3620","10","dontForgetToToggleEnforceHttpsToYes","لا تنس تبديل فرض HTTPS إلى نعم"),</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3622">
+        <f t="shared" si="113"/>
+        <v>3621</v>
+      </c>
+      <c r="B3622" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3622" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3622" t="s">
+        <v>3770</v>
+      </c>
+      <c r="E3622" t="str">
+        <f t="shared" si="114"/>
+        <v>("3621","1","copyPasteHere","Copy &amp; Paste here."),</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3623">
+        <f t="shared" si="113"/>
+        <v>3622</v>
+      </c>
+      <c r="B3623" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3623" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3623" s="6" t="s">
+        <v>3775</v>
+      </c>
+      <c r="E3623" t="str">
+        <f t="shared" si="114"/>
+        <v>("3622","2","copyPasteHere","இங்கே நகலெடுத்து ஒட்டவும்."),</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3624">
+        <f t="shared" si="113"/>
+        <v>3623</v>
+      </c>
+      <c r="B3624" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3624" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3624" s="6" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E3624" t="str">
+        <f t="shared" si="114"/>
+        <v>("3623","3","copyPasteHere","Copiez et collez ici."),</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3625">
+        <f t="shared" si="113"/>
+        <v>3624</v>
+      </c>
+      <c r="B3625" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3625" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3625" s="6" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E3625" t="str">
+        <f t="shared" si="114"/>
+        <v>("3624","4","copyPasteHere","在此处复制并粘贴。"),</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3626">
+        <f t="shared" si="113"/>
+        <v>3625</v>
+      </c>
+      <c r="B3626" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3626" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3626" s="6" t="s">
+        <v>3774</v>
+      </c>
+      <c r="E3626" t="str">
+        <f t="shared" si="114"/>
+        <v>("3625","5","copyPasteHere","ここにコピー＆ペーストしてください。"),</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3627">
+        <f t="shared" si="113"/>
+        <v>3626</v>
+      </c>
+      <c r="B3627" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3627" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3627" s="6" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E3627" t="str">
+        <f t="shared" si="114"/>
+        <v>("3626","6","copyPasteHere","Copie e cole aqui."),</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3628">
+        <f t="shared" si="113"/>
+        <v>3627</v>
+      </c>
+      <c r="B3628" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3628" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3628" s="6" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E3628" t="str">
+        <f t="shared" si="114"/>
+        <v>("3627","7","copyPasteHere","कॉपी और पेस्ट यहाँ करें।"),</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3629">
+        <f t="shared" si="113"/>
+        <v>3628</v>
+      </c>
+      <c r="B3629" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3629" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3629" s="6" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E3629" t="str">
+        <f t="shared" si="114"/>
+        <v>("3628","8","copyPasteHere","Скопируйте и вставьте сюда."),</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3630">
+        <f t="shared" si="113"/>
+        <v>3629</v>
+      </c>
+      <c r="B3630" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3630" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3630" s="6" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E3630" t="str">
+        <f t="shared" si="114"/>
+        <v>("3629","9","copyPasteHere","Copie y pegue aquí."),</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3631">
+        <f t="shared" si="113"/>
+        <v>3630</v>
+      </c>
+      <c r="B3631" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3631" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D3631" s="6" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E3631" t="str">
+        <f t="shared" si="114"/>
+        <v>("3630","10","copyPasteHere","انسخ والصق هنا."),</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3632">
+        <f t="shared" si="113"/>
+        <v>3631</v>
+      </c>
+      <c r="B3632" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3632" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3632" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E3632" t="str">
+        <f t="shared" si="114"/>
+        <v>("3631","1","facebookAppId","Facebook App ID"),</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3633">
+        <f t="shared" si="113"/>
+        <v>3632</v>
+      </c>
+      <c r="B3633" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3633" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3633" s="6" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E3633" t="str">
+        <f t="shared" si="114"/>
+        <v>("3632","2","facebookAppId","Facebook ஆப்ஸ் ஐடி"),</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3634">
+        <f t="shared" si="113"/>
+        <v>3633</v>
+      </c>
+      <c r="B3634" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3634" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3634" s="6" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E3634" t="str">
+        <f t="shared" si="114"/>
+        <v>("3633","3","facebookAppId","ID d'application Facebook"),</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3635">
+        <f t="shared" si="113"/>
+        <v>3634</v>
+      </c>
+      <c r="B3635" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3635" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3635" s="6" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E3635" t="str">
+        <f t="shared" si="114"/>
+        <v>("3634","4","facebookAppId","脸书应用编号"),</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3636">
+        <f t="shared" si="113"/>
+        <v>3635</v>
+      </c>
+      <c r="B3636" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3636" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3636" s="6" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E3636" t="str">
+        <f t="shared" si="114"/>
+        <v>("3635","5","facebookAppId","Facebook アプリ ID"),</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3637">
+        <f t="shared" si="113"/>
+        <v>3636</v>
+      </c>
+      <c r="B3637" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3637" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3637" s="6" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E3637" t="str">
+        <f t="shared" si="114"/>
+        <v>("3636","6","facebookAppId","ID do aplicativo do Facebook"),</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3638">
+        <f t="shared" si="113"/>
+        <v>3637</v>
+      </c>
+      <c r="B3638" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3638" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3638" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E3638" t="str">
+        <f t="shared" si="114"/>
+        <v>("3637","7","facebookAppId","फेसबुक ऐप आईडी"),</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3639">
+        <f t="shared" si="113"/>
+        <v>3638</v>
+      </c>
+      <c r="B3639" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3639" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3639" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E3639" t="str">
+        <f t="shared" si="114"/>
+        <v>("3638","8","facebookAppId","Идентификатор приложения Facebook"),</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3640">
+        <f t="shared" si="113"/>
+        <v>3639</v>
+      </c>
+      <c r="B3640" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3640" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3640" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E3640" t="str">
+        <f t="shared" si="114"/>
+        <v>("3639","9","facebookAppId","Identificación de la aplicación de Facebook"),</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3641">
+        <f t="shared" ref="A3641" si="115">A3640+1</f>
+        <v>3640</v>
+      </c>
+      <c r="B3641" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3641" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D3641" s="6" t="s">
+        <v>3791</v>
+      </c>
+      <c r="E3641" t="str">
+        <f t="shared" ref="E3641" si="116">CONCATENATE("(",CHAR(34),A3641,CHAR(34),",",CHAR(34),B3641,CHAR(34),",",CHAR(34),C3641,CHAR(34),",",CHAR(34),D3641,CHAR(34),"),")</f>
+        <v>("3640","10","facebookAppId","معرف تطبيق Facebook"),</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3642" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="3583" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3583" s="5" t="s">
+    <row r="3643" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3643" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="3584" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3584" s="5" t="s">
+    <row r="3644" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3644" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="3585" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3585" s="5" t="s">
+    <row r="3645" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3645" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="3586" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E3586" s="6" t="s">
+    <row r="3646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3646" s="6" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="3587" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3587" s="5" t="s">
+    <row r="3647" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3647" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="3588" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3588" s="5" t="s">
+    <row r="3648" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3648" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="3589" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3589" s="5" t="s">
+    <row r="3649" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3649" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="3590" spans="5:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3590" s="5" t="s">
+    <row r="3650" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3650" s="5" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="3591" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E3591" t="s">
+    <row r="3651" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E3651" t="s">
         <v>667</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6D329-8EB0-D343-8076-1992A06CE5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519E1FFF-5CB9-B643-AAC1-A320866AFFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7452" uniqueCount="3962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7552" uniqueCount="4014">
   <si>
     <t>locale_ref_id</t>
   </si>
@@ -11943,6 +11943,162 @@
   </si>
   <si>
     <t>طاولة الرقيق</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>மிக உயர்ந்தது</t>
+  </si>
+  <si>
+    <t>最高</t>
+  </si>
+  <si>
+    <t>الأعلى</t>
+  </si>
+  <si>
+    <t>le plus élevé</t>
+  </si>
+  <si>
+    <t>Altíssima</t>
+  </si>
+  <si>
+    <t>उच्चतम</t>
+  </si>
+  <si>
+    <t>наибольший</t>
+  </si>
+  <si>
+    <t>Mas alto</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>El mas bajo</t>
+  </si>
+  <si>
+    <t>самый низкий</t>
+  </si>
+  <si>
+    <t>सबसे कम</t>
+  </si>
+  <si>
+    <t>குறைந்த</t>
+  </si>
+  <si>
+    <t>le plus bas</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>mais baixo</t>
+  </si>
+  <si>
+    <t>أدنى</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>اليومي</t>
+  </si>
+  <si>
+    <t>diário</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>தினசரி</t>
+  </si>
+  <si>
+    <t>du quotidien</t>
+  </si>
+  <si>
+    <t>日常的</t>
+  </si>
+  <si>
+    <t>रोज</t>
+  </si>
+  <si>
+    <t>повседневная</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>Hourly</t>
+  </si>
+  <si>
+    <t>cada hora</t>
+  </si>
+  <si>
+    <t>ежечасно</t>
+  </si>
+  <si>
+    <t>प्रति घंटा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மணிக்கு </t>
+  </si>
+  <si>
+    <t>toutes les heures</t>
+  </si>
+  <si>
+    <t>每小时</t>
+  </si>
+  <si>
+    <t>毎時</t>
+  </si>
+  <si>
+    <t>de hora em hora</t>
+  </si>
+  <si>
+    <t>ساعيا</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>أسبوعي</t>
+  </si>
+  <si>
+    <t>semanalmente</t>
+  </si>
+  <si>
+    <t>毎週</t>
+  </si>
+  <si>
+    <t>வாரந்தோறும்</t>
+  </si>
+  <si>
+    <t>hebdomadaire</t>
+  </si>
+  <si>
+    <t>每周</t>
+  </si>
+  <si>
+    <t>साप्ताहिक</t>
+  </si>
+  <si>
+    <t>еженедельно</t>
   </si>
 </sst>
 </file>
@@ -12894,10 +13050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3801"/>
+  <dimension ref="A1:F3851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3775" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3797" sqref="D3797"/>
+    <sheetView tabSelected="1" topLeftCell="A3818" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3846" sqref="E3846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -84512,7 +84668,7 @@
     </row>
     <row r="3769" spans="1:5">
       <c r="A3769">
-        <f t="shared" ref="A3769:A3791" si="119">A3768+1</f>
+        <f t="shared" ref="A3769:A3832" si="119">A3768+1</f>
         <v>3768</v>
       </c>
       <c r="B3769" s="13">
@@ -84525,7 +84681,7 @@
         <v>3915</v>
       </c>
       <c r="E3769" t="str">
-        <f t="shared" ref="E3769:E3791" si="120">CONCATENATE("(",CHAR(34),A3769,CHAR(34),",",CHAR(34),B3769,CHAR(34),",",CHAR(34),C3769,CHAR(34),",",CHAR(34),D3769,CHAR(34),"),")</f>
+        <f t="shared" ref="E3769:E3832" si="120">CONCATENATE("(",CHAR(34),A3769,CHAR(34),",",CHAR(34),B3769,CHAR(34),",",CHAR(34),C3769,CHAR(34),",",CHAR(34),D3769,CHAR(34),"),")</f>
         <v>("3768","8","indentOfIntlForm","Отступ этой формы предназначен для редактирования значений языка и добавления новых языков по вашему желанию."),</v>
       </c>
     </row>
@@ -84948,52 +85104,1002 @@
       </c>
     </row>
     <row r="3792" spans="1:5">
-      <c r="E3792" t="s">
+      <c r="A3792">
+        <f t="shared" si="119"/>
+        <v>3791</v>
+      </c>
+      <c r="B3792" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3792" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3792" s="6" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E3792" t="str">
+        <f t="shared" si="120"/>
+        <v>("3791","1","highest","Highest"),</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:5">
+      <c r="A3793">
+        <f t="shared" si="119"/>
+        <v>3792</v>
+      </c>
+      <c r="B3793" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3793" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3793" s="6" t="s">
+        <v>3968</v>
+      </c>
+      <c r="E3793" t="str">
+        <f t="shared" si="120"/>
+        <v>("3792","2","highest","மிக உயர்ந்தது"),</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:5">
+      <c r="A3794">
+        <f t="shared" si="119"/>
+        <v>3793</v>
+      </c>
+      <c r="B3794" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3794" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3794" s="6" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E3794" t="str">
+        <f t="shared" si="120"/>
+        <v>("3793","3","highest","le plus élevé"),</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:5">
+      <c r="A3795">
+        <f t="shared" si="119"/>
+        <v>3794</v>
+      </c>
+      <c r="B3795" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3795" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3795" s="6" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E3795" t="str">
+        <f t="shared" si="120"/>
+        <v>("3794","4","highest","最高"),</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:5">
+      <c r="A3796">
+        <f t="shared" si="119"/>
+        <v>3795</v>
+      </c>
+      <c r="B3796" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3796" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3796" s="6" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E3796" t="str">
+        <f t="shared" si="120"/>
+        <v>("3795","5","highest","最高"),</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:5">
+      <c r="A3797">
+        <f t="shared" si="119"/>
+        <v>3796</v>
+      </c>
+      <c r="B3797" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3797" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3797" s="6" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E3797" t="str">
+        <f t="shared" si="120"/>
+        <v>("3796","6","highest","Altíssima"),</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:5">
+      <c r="A3798">
+        <f t="shared" si="119"/>
+        <v>3797</v>
+      </c>
+      <c r="B3798" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3798" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3798" s="6" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E3798" t="str">
+        <f t="shared" si="120"/>
+        <v>("3797","7","highest","उच्चतम"),</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:5">
+      <c r="A3799">
+        <f t="shared" si="119"/>
+        <v>3798</v>
+      </c>
+      <c r="B3799" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3799" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3799" s="6" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E3799" t="str">
+        <f t="shared" si="120"/>
+        <v>("3798","8","highest","наибольший"),</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:5">
+      <c r="A3800">
+        <f t="shared" si="119"/>
+        <v>3799</v>
+      </c>
+      <c r="B3800" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3800" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3800" s="6" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E3800" t="str">
+        <f t="shared" si="120"/>
+        <v>("3799","9","highest","Mas alto"),</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:5">
+      <c r="A3801">
+        <f t="shared" si="119"/>
+        <v>3800</v>
+      </c>
+      <c r="B3801" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3801" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D3801" s="6" t="s">
+        <v>3970</v>
+      </c>
+      <c r="E3801" t="str">
+        <f t="shared" si="120"/>
+        <v>("3800","10","highest","الأعلى"),</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:5">
+      <c r="A3802">
+        <f t="shared" si="119"/>
+        <v>3801</v>
+      </c>
+      <c r="B3802" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3802" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3802" s="6" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E3802" t="str">
+        <f t="shared" si="120"/>
+        <v>("3801","1","lowest","Lowest"),</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:5">
+      <c r="A3803">
+        <f t="shared" si="119"/>
+        <v>3802</v>
+      </c>
+      <c r="B3803" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3803" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3803" s="6" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E3803" t="str">
+        <f t="shared" si="120"/>
+        <v>("3802","2","lowest","குறைந்த"),</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:5">
+      <c r="A3804">
+        <f t="shared" si="119"/>
+        <v>3803</v>
+      </c>
+      <c r="B3804" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3804" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3804" s="6" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E3804" t="str">
+        <f t="shared" si="120"/>
+        <v>("3803","3","lowest","le plus bas"),</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:5">
+      <c r="A3805">
+        <f t="shared" si="119"/>
+        <v>3804</v>
+      </c>
+      <c r="B3805" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3805" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3805" s="6" t="s">
+        <v>3982</v>
+      </c>
+      <c r="E3805" t="str">
+        <f t="shared" si="120"/>
+        <v>("3804","4","lowest","最低"),</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:5">
+      <c r="A3806">
+        <f t="shared" si="119"/>
+        <v>3805</v>
+      </c>
+      <c r="B3806" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3806" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3806" s="6" t="s">
+        <v>3982</v>
+      </c>
+      <c r="E3806" t="str">
+        <f t="shared" si="120"/>
+        <v>("3805","5","lowest","最低"),</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:5">
+      <c r="A3807">
+        <f t="shared" si="119"/>
+        <v>3806</v>
+      </c>
+      <c r="B3807" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3807" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3807" s="6" t="s">
+        <v>3983</v>
+      </c>
+      <c r="E3807" t="str">
+        <f t="shared" si="120"/>
+        <v>("3806","6","lowest","mais baixo"),</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:5">
+      <c r="A3808">
+        <f t="shared" si="119"/>
+        <v>3807</v>
+      </c>
+      <c r="B3808" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3808" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3808" s="6" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E3808" t="str">
+        <f t="shared" si="120"/>
+        <v>("3807","7","lowest","सबसे कम"),</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:5">
+      <c r="A3809">
+        <f t="shared" si="119"/>
+        <v>3808</v>
+      </c>
+      <c r="B3809" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3809" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3809" s="6" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E3809" t="str">
+        <f t="shared" si="120"/>
+        <v>("3808","8","lowest","самый низкий"),</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:5">
+      <c r="A3810">
+        <f t="shared" si="119"/>
+        <v>3809</v>
+      </c>
+      <c r="B3810" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3810" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3810" s="6" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E3810" t="str">
+        <f t="shared" si="120"/>
+        <v>("3809","9","lowest","El mas bajo"),</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:5">
+      <c r="A3811">
+        <f t="shared" si="119"/>
+        <v>3810</v>
+      </c>
+      <c r="B3811" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3811" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D3811" s="6" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E3811" t="str">
+        <f t="shared" si="120"/>
+        <v>("3810","10","lowest","أدنى"),</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:5">
+      <c r="A3812">
+        <f t="shared" si="119"/>
+        <v>3811</v>
+      </c>
+      <c r="B3812" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3812" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3812" s="6" t="s">
+        <v>3985</v>
+      </c>
+      <c r="E3812" t="str">
+        <f t="shared" si="120"/>
+        <v>("3811","1","daily","Daily"),</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:5">
+      <c r="A3813">
+        <f t="shared" si="119"/>
+        <v>3812</v>
+      </c>
+      <c r="B3813" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3813" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3813" s="6" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E3813" t="str">
+        <f t="shared" si="120"/>
+        <v>("3812","2","daily","தினசரி"),</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:5">
+      <c r="A3814">
+        <f t="shared" si="119"/>
+        <v>3813</v>
+      </c>
+      <c r="B3814" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3814" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3814" s="6" t="s">
+        <v>3990</v>
+      </c>
+      <c r="E3814" t="str">
+        <f t="shared" si="120"/>
+        <v>("3813","3","daily","du quotidien"),</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:5">
+      <c r="A3815">
+        <f t="shared" si="119"/>
+        <v>3814</v>
+      </c>
+      <c r="B3815" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3815" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3815" s="6" t="s">
+        <v>3991</v>
+      </c>
+      <c r="E3815" t="str">
+        <f t="shared" si="120"/>
+        <v>("3814","4","daily","日常的"),</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:5">
+      <c r="A3816">
+        <f t="shared" si="119"/>
+        <v>3815</v>
+      </c>
+      <c r="B3816" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3816" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3816" s="6" t="s">
+        <v>3988</v>
+      </c>
+      <c r="E3816" t="str">
+        <f t="shared" si="120"/>
+        <v>("3815","5","daily","毎日"),</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:5">
+      <c r="A3817">
+        <f t="shared" si="119"/>
+        <v>3816</v>
+      </c>
+      <c r="B3817" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3817" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3817" s="6" t="s">
+        <v>3987</v>
+      </c>
+      <c r="E3817" t="str">
+        <f t="shared" si="120"/>
+        <v>("3816","6","daily","diário"),</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:5">
+      <c r="A3818">
+        <f t="shared" si="119"/>
+        <v>3817</v>
+      </c>
+      <c r="B3818" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3818" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3818" s="6" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E3818" t="str">
+        <f t="shared" si="120"/>
+        <v>("3817","7","daily","रोज"),</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:5">
+      <c r="A3819">
+        <f t="shared" si="119"/>
+        <v>3818</v>
+      </c>
+      <c r="B3819" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3819" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3819" s="6" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E3819" t="str">
+        <f t="shared" si="120"/>
+        <v>("3818","8","daily","повседневная"),</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:5">
+      <c r="A3820">
+        <f t="shared" si="119"/>
+        <v>3819</v>
+      </c>
+      <c r="B3820" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3820" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3820" s="6" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E3820" t="str">
+        <f t="shared" si="120"/>
+        <v>("3819","9","daily","Diario"),</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:5">
+      <c r="A3821">
+        <f t="shared" si="119"/>
+        <v>3820</v>
+      </c>
+      <c r="B3821" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3821" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D3821" t="s">
+        <v>3986</v>
+      </c>
+      <c r="E3821" t="str">
+        <f t="shared" si="120"/>
+        <v>("3820","10","daily","اليومي"),</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:5">
+      <c r="A3822">
+        <f t="shared" si="119"/>
+        <v>3821</v>
+      </c>
+      <c r="B3822" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3822" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3822" s="6" t="s">
+        <v>3995</v>
+      </c>
+      <c r="E3822" t="str">
+        <f t="shared" si="120"/>
+        <v>("3821","1","hourly","Hourly"),</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:5">
+      <c r="A3823">
+        <f t="shared" si="119"/>
+        <v>3822</v>
+      </c>
+      <c r="B3823" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3823" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3823" s="6" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E3823" t="str">
+        <f t="shared" si="120"/>
+        <v>("3822","2","hourly","மணிக்கு "),</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:5">
+      <c r="A3824">
+        <f t="shared" si="119"/>
+        <v>3823</v>
+      </c>
+      <c r="B3824" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3824" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3824" s="6" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E3824" t="str">
+        <f t="shared" si="120"/>
+        <v>("3823","3","hourly","toutes les heures"),</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:5">
+      <c r="A3825">
+        <f t="shared" si="119"/>
+        <v>3824</v>
+      </c>
+      <c r="B3825" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3825" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3825" s="6" t="s">
+        <v>4001</v>
+      </c>
+      <c r="E3825" t="str">
+        <f t="shared" si="120"/>
+        <v>("3824","4","hourly","每小时"),</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:5">
+      <c r="A3826">
+        <f t="shared" si="119"/>
+        <v>3825</v>
+      </c>
+      <c r="B3826" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3826" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3826" s="6" t="s">
+        <v>4002</v>
+      </c>
+      <c r="E3826" t="str">
+        <f t="shared" si="120"/>
+        <v>("3825","5","hourly","毎時"),</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:5">
+      <c r="A3827">
+        <f t="shared" si="119"/>
+        <v>3826</v>
+      </c>
+      <c r="B3827" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3827" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3827" s="6" t="s">
+        <v>4003</v>
+      </c>
+      <c r="E3827" t="str">
+        <f t="shared" si="120"/>
+        <v>("3826","6","hourly","de hora em hora"),</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:5">
+      <c r="A3828">
+        <f t="shared" si="119"/>
+        <v>3827</v>
+      </c>
+      <c r="B3828" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3828" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3828" s="6" t="s">
+        <v>3998</v>
+      </c>
+      <c r="E3828" t="str">
+        <f t="shared" si="120"/>
+        <v>("3827","7","hourly","प्रति घंटा"),</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:5">
+      <c r="A3829">
+        <f t="shared" si="119"/>
+        <v>3828</v>
+      </c>
+      <c r="B3829" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3829" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3829" s="6" t="s">
+        <v>3997</v>
+      </c>
+      <c r="E3829" t="str">
+        <f t="shared" si="120"/>
+        <v>("3828","8","hourly","ежечасно"),</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:5">
+      <c r="A3830">
+        <f t="shared" si="119"/>
+        <v>3829</v>
+      </c>
+      <c r="B3830" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3830" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3830" s="6" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E3830" t="str">
+        <f t="shared" si="120"/>
+        <v>("3829","9","hourly","cada hora"),</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:5">
+      <c r="A3831">
+        <f t="shared" si="119"/>
+        <v>3830</v>
+      </c>
+      <c r="B3831" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3831" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D3831" s="6" t="s">
+        <v>4004</v>
+      </c>
+      <c r="E3831" t="str">
+        <f t="shared" si="120"/>
+        <v>("3830","10","hourly","ساعيا"),</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:5">
+      <c r="A3832">
+        <f t="shared" si="119"/>
+        <v>3831</v>
+      </c>
+      <c r="B3832" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3832" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3832" s="6" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E3832" t="str">
+        <f t="shared" si="120"/>
+        <v>("3831","1","weekly","Weekly"),</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:5">
+      <c r="A3833">
+        <f t="shared" ref="A3833:A3841" si="121">A3832+1</f>
+        <v>3832</v>
+      </c>
+      <c r="B3833" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3833" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3833" s="6" t="s">
+        <v>4009</v>
+      </c>
+      <c r="E3833" t="str">
+        <f t="shared" ref="E3833:E3841" si="122">CONCATENATE("(",CHAR(34),A3833,CHAR(34),",",CHAR(34),B3833,CHAR(34),",",CHAR(34),C3833,CHAR(34),",",CHAR(34),D3833,CHAR(34),"),")</f>
+        <v>("3832","2","weekly","வாரந்தோறும்"),</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:5">
+      <c r="A3834">
+        <f t="shared" si="121"/>
+        <v>3833</v>
+      </c>
+      <c r="B3834" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3834" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3834" s="6" t="s">
+        <v>4010</v>
+      </c>
+      <c r="E3834" t="str">
+        <f t="shared" si="122"/>
+        <v>("3833","3","weekly","hebdomadaire"),</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:5">
+      <c r="A3835">
+        <f t="shared" si="121"/>
+        <v>3834</v>
+      </c>
+      <c r="B3835" s="13">
+        <v>4</v>
+      </c>
+      <c r="C3835" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3835" s="6" t="s">
+        <v>4011</v>
+      </c>
+      <c r="E3835" t="str">
+        <f t="shared" si="122"/>
+        <v>("3834","4","weekly","每周"),</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:5">
+      <c r="A3836">
+        <f t="shared" si="121"/>
+        <v>3835</v>
+      </c>
+      <c r="B3836" s="13">
+        <v>5</v>
+      </c>
+      <c r="C3836" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3836" s="6" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E3836" t="str">
+        <f t="shared" si="122"/>
+        <v>("3835","5","weekly","毎週"),</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:5">
+      <c r="A3837">
+        <f t="shared" si="121"/>
+        <v>3836</v>
+      </c>
+      <c r="B3837" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3837" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3837" s="6" t="s">
+        <v>4007</v>
+      </c>
+      <c r="E3837" t="str">
+        <f t="shared" si="122"/>
+        <v>("3836","6","weekly","semanalmente"),</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:5">
+      <c r="A3838">
+        <f t="shared" si="121"/>
+        <v>3837</v>
+      </c>
+      <c r="B3838" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3838" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3838" s="6" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E3838" t="str">
+        <f t="shared" si="122"/>
+        <v>("3837","7","weekly","साप्ताहिक"),</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:5">
+      <c r="A3839">
+        <f t="shared" si="121"/>
+        <v>3838</v>
+      </c>
+      <c r="B3839" s="13">
+        <v>8</v>
+      </c>
+      <c r="C3839" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3839" s="6" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E3839" t="str">
+        <f t="shared" si="122"/>
+        <v>("3838","8","weekly","еженедельно"),</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:5">
+      <c r="A3840">
+        <f t="shared" si="121"/>
+        <v>3839</v>
+      </c>
+      <c r="B3840" s="13">
+        <v>9</v>
+      </c>
+      <c r="C3840" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3840" s="6" t="s">
+        <v>4007</v>
+      </c>
+      <c r="E3840" t="str">
+        <f t="shared" si="122"/>
+        <v>("3839","9","weekly","semanalmente"),</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:5">
+      <c r="A3841">
+        <f t="shared" si="121"/>
+        <v>3840</v>
+      </c>
+      <c r="B3841" s="13">
+        <v>10</v>
+      </c>
+      <c r="C3841" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D3841" s="6" t="s">
+        <v>4006</v>
+      </c>
+      <c r="E3841" t="str">
+        <f t="shared" si="122"/>
+        <v>("3840","10","weekly","أسبوعي"),</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:5">
+      <c r="E3842" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="3793" spans="5:5" ht="17">
-      <c r="E3793" s="5" t="s">
+    <row r="3843" spans="1:5" ht="17">
+      <c r="E3843" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="3794" spans="5:5" ht="17">
-      <c r="E3794" s="5" t="s">
+    <row r="3844" spans="1:5" ht="17">
+      <c r="E3844" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="3795" spans="5:5" ht="17">
-      <c r="E3795" s="5" t="s">
+    <row r="3845" spans="1:5" ht="17">
+      <c r="E3845" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="3796" spans="5:5">
-      <c r="E3796" s="6" t="s">
+    <row r="3846" spans="1:5">
+      <c r="E3846" s="6" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="3797" spans="5:5" ht="17">
-      <c r="E3797" s="5" t="s">
+    <row r="3847" spans="1:5" ht="17">
+      <c r="E3847" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="3798" spans="5:5" ht="17">
-      <c r="E3798" s="5" t="s">
+    <row r="3848" spans="1:5" ht="17">
+      <c r="E3848" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="3799" spans="5:5" ht="17">
-      <c r="E3799" s="5" t="s">
+    <row r="3849" spans="1:5" ht="17">
+      <c r="E3849" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="3800" spans="5:5" ht="17">
-      <c r="E3800" s="5" t="s">
+    <row r="3850" spans="1:5" ht="17">
+      <c r="E3850" s="5" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="3801" spans="5:5" ht="17">
-      <c r="E3801" s="5" t="s">
+    <row r="3851" spans="1:5" ht="17">
+      <c r="E3851" s="5" t="s">
         <v>3819</v>
       </c>
     </row>

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/moneyPlanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519E1FFF-5CB9-B643-AAC1-A320866AFFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDCE96-88C9-E84F-B9E8-820D36EF5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="i18n" sheetId="1" r:id="rId1"/>
@@ -11963,9 +11963,6 @@
     <t>Highest</t>
   </si>
   <si>
-    <t>மிக உயர்ந்தது</t>
-  </si>
-  <si>
     <t>最高</t>
   </si>
   <si>
@@ -12099,6 +12096,9 @@
   </si>
   <si>
     <t>еженедельно</t>
+  </si>
+  <si>
+    <t>உயர்ந்த</t>
   </si>
 </sst>
 </file>
@@ -13052,8 +13052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3818" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3846" sqref="E3846"/>
+    <sheetView tabSelected="1" topLeftCell="A1436" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1452" sqref="C1452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -85134,11 +85134,11 @@
         <v>3962</v>
       </c>
       <c r="D3793" s="6" t="s">
-        <v>3968</v>
+        <v>4013</v>
       </c>
       <c r="E3793" t="str">
         <f t="shared" si="120"/>
-        <v>("3792","2","highest","மிக உயர்ந்தது"),</v>
+        <v>("3792","2","highest","உயர்ந்த"),</v>
       </c>
     </row>
     <row r="3794" spans="1:5">
@@ -85153,7 +85153,7 @@
         <v>3962</v>
       </c>
       <c r="D3794" s="6" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="E3794" t="str">
         <f t="shared" si="120"/>
@@ -85172,7 +85172,7 @@
         <v>3962</v>
       </c>
       <c r="D3795" s="6" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="E3795" t="str">
         <f t="shared" si="120"/>
@@ -85191,7 +85191,7 @@
         <v>3962</v>
       </c>
       <c r="D3796" s="6" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="E3796" t="str">
         <f t="shared" si="120"/>
@@ -85210,7 +85210,7 @@
         <v>3962</v>
       </c>
       <c r="D3797" s="6" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="E3797" t="str">
         <f t="shared" si="120"/>
@@ -85229,7 +85229,7 @@
         <v>3962</v>
       </c>
       <c r="D3798" s="6" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E3798" t="str">
         <f t="shared" si="120"/>
@@ -85248,7 +85248,7 @@
         <v>3962</v>
       </c>
       <c r="D3799" s="6" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="E3799" t="str">
         <f t="shared" si="120"/>
@@ -85267,7 +85267,7 @@
         <v>3962</v>
       </c>
       <c r="D3800" s="6" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="E3800" t="str">
         <f t="shared" si="120"/>
@@ -85286,7 +85286,7 @@
         <v>3962</v>
       </c>
       <c r="D3801" s="6" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="E3801" t="str">
         <f t="shared" si="120"/>
@@ -85305,7 +85305,7 @@
         <v>3963</v>
       </c>
       <c r="D3802" s="6" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="E3802" t="str">
         <f t="shared" si="120"/>
@@ -85324,7 +85324,7 @@
         <v>3963</v>
       </c>
       <c r="D3803" s="6" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="E3803" t="str">
         <f t="shared" si="120"/>
@@ -85343,7 +85343,7 @@
         <v>3963</v>
       </c>
       <c r="D3804" s="6" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="E3804" t="str">
         <f t="shared" si="120"/>
@@ -85362,7 +85362,7 @@
         <v>3963</v>
       </c>
       <c r="D3805" s="6" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="E3805" t="str">
         <f t="shared" si="120"/>
@@ -85381,7 +85381,7 @@
         <v>3963</v>
       </c>
       <c r="D3806" s="6" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="E3806" t="str">
         <f t="shared" si="120"/>
@@ -85400,7 +85400,7 @@
         <v>3963</v>
       </c>
       <c r="D3807" s="6" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="E3807" t="str">
         <f t="shared" si="120"/>
@@ -85419,7 +85419,7 @@
         <v>3963</v>
       </c>
       <c r="D3808" s="6" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="E3808" t="str">
         <f t="shared" si="120"/>
@@ -85438,7 +85438,7 @@
         <v>3963</v>
       </c>
       <c r="D3809" s="6" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="E3809" t="str">
         <f t="shared" si="120"/>
@@ -85457,7 +85457,7 @@
         <v>3963</v>
       </c>
       <c r="D3810" s="6" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="E3810" t="str">
         <f t="shared" si="120"/>
@@ -85476,7 +85476,7 @@
         <v>3963</v>
       </c>
       <c r="D3811" s="6" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="E3811" t="str">
         <f t="shared" si="120"/>
@@ -85495,7 +85495,7 @@
         <v>3964</v>
       </c>
       <c r="D3812" s="6" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="E3812" t="str">
         <f t="shared" si="120"/>
@@ -85514,7 +85514,7 @@
         <v>3964</v>
       </c>
       <c r="D3813" s="6" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="E3813" t="str">
         <f t="shared" si="120"/>
@@ -85533,7 +85533,7 @@
         <v>3964</v>
       </c>
       <c r="D3814" s="6" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="E3814" t="str">
         <f t="shared" si="120"/>
@@ -85552,7 +85552,7 @@
         <v>3964</v>
       </c>
       <c r="D3815" s="6" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="E3815" t="str">
         <f t="shared" si="120"/>
@@ -85571,7 +85571,7 @@
         <v>3964</v>
       </c>
       <c r="D3816" s="6" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="E3816" t="str">
         <f t="shared" si="120"/>
@@ -85590,7 +85590,7 @@
         <v>3964</v>
       </c>
       <c r="D3817" s="6" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="E3817" t="str">
         <f t="shared" si="120"/>
@@ -85609,7 +85609,7 @@
         <v>3964</v>
       </c>
       <c r="D3818" s="6" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="E3818" t="str">
         <f t="shared" si="120"/>
@@ -85628,7 +85628,7 @@
         <v>3964</v>
       </c>
       <c r="D3819" s="6" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="E3819" t="str">
         <f t="shared" si="120"/>
@@ -85647,7 +85647,7 @@
         <v>3964</v>
       </c>
       <c r="D3820" s="6" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="E3820" t="str">
         <f t="shared" si="120"/>
@@ -85666,7 +85666,7 @@
         <v>3964</v>
       </c>
       <c r="D3821" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="E3821" t="str">
         <f t="shared" si="120"/>
@@ -85685,7 +85685,7 @@
         <v>3965</v>
       </c>
       <c r="D3822" s="6" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="E3822" t="str">
         <f t="shared" si="120"/>
@@ -85704,7 +85704,7 @@
         <v>3965</v>
       </c>
       <c r="D3823" s="6" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="E3823" t="str">
         <f t="shared" si="120"/>
@@ -85723,7 +85723,7 @@
         <v>3965</v>
       </c>
       <c r="D3824" s="6" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="E3824" t="str">
         <f t="shared" si="120"/>
@@ -85742,7 +85742,7 @@
         <v>3965</v>
       </c>
       <c r="D3825" s="6" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="E3825" t="str">
         <f t="shared" si="120"/>
@@ -85761,7 +85761,7 @@
         <v>3965</v>
       </c>
       <c r="D3826" s="6" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E3826" t="str">
         <f t="shared" si="120"/>
@@ -85780,7 +85780,7 @@
         <v>3965</v>
       </c>
       <c r="D3827" s="6" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E3827" t="str">
         <f t="shared" si="120"/>
@@ -85799,7 +85799,7 @@
         <v>3965</v>
       </c>
       <c r="D3828" s="6" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="E3828" t="str">
         <f t="shared" si="120"/>
@@ -85818,7 +85818,7 @@
         <v>3965</v>
       </c>
       <c r="D3829" s="6" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="E3829" t="str">
         <f t="shared" si="120"/>
@@ -85837,7 +85837,7 @@
         <v>3965</v>
       </c>
       <c r="D3830" s="6" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="E3830" t="str">
         <f t="shared" si="120"/>
@@ -85856,7 +85856,7 @@
         <v>3965</v>
       </c>
       <c r="D3831" s="6" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E3831" t="str">
         <f t="shared" si="120"/>
@@ -85875,7 +85875,7 @@
         <v>3966</v>
       </c>
       <c r="D3832" s="6" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E3832" t="str">
         <f t="shared" si="120"/>
@@ -85894,7 +85894,7 @@
         <v>3966</v>
       </c>
       <c r="D3833" s="6" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E3833" t="str">
         <f t="shared" ref="E3833:E3841" si="122">CONCATENATE("(",CHAR(34),A3833,CHAR(34),",",CHAR(34),B3833,CHAR(34),",",CHAR(34),C3833,CHAR(34),",",CHAR(34),D3833,CHAR(34),"),")</f>
@@ -85913,7 +85913,7 @@
         <v>3966</v>
       </c>
       <c r="D3834" s="6" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="E3834" t="str">
         <f t="shared" si="122"/>
@@ -85932,7 +85932,7 @@
         <v>3966</v>
       </c>
       <c r="D3835" s="6" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E3835" t="str">
         <f t="shared" si="122"/>
@@ -85951,7 +85951,7 @@
         <v>3966</v>
       </c>
       <c r="D3836" s="6" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="E3836" t="str">
         <f t="shared" si="122"/>
@@ -85970,7 +85970,7 @@
         <v>3966</v>
       </c>
       <c r="D3837" s="6" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E3837" t="str">
         <f t="shared" si="122"/>
@@ -85989,7 +85989,7 @@
         <v>3966</v>
       </c>
       <c r="D3838" s="6" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="E3838" t="str">
         <f t="shared" si="122"/>
@@ -86008,7 +86008,7 @@
         <v>3966</v>
       </c>
       <c r="D3839" s="6" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="E3839" t="str">
         <f t="shared" si="122"/>
@@ -86027,7 +86027,7 @@
         <v>3966</v>
       </c>
       <c r="D3840" s="6" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E3840" t="str">
         <f t="shared" si="122"/>
@@ -86046,7 +86046,7 @@
         <v>3966</v>
       </c>
       <c r="D3841" s="6" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E3841" t="str">
         <f t="shared" si="122"/>
